--- a/Shredsheets.xlsx
+++ b/Shredsheets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Git\Shredsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Shredsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA5C8D6-1CC9-4ADA-AE28-67A4CAE89518}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557E4630-270A-4602-B7D6-85361FC6928C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,12 +33,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="198">
   <si>
     <t>Ionian</t>
   </si>
@@ -1500,7 +1506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1830,6 +1836,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1864,12 +1880,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2612,56 +2622,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>446656</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>230892</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>445190</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>263769</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB67DCA4-A032-4E22-BB90-B8E2D8B1B511}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18536829" y="1102796"/>
-          <a:ext cx="3647342" cy="1629135"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -3078,13 +3038,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B1:AF39"/>
+  <dimension ref="B1:AF41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3213,15 +3173,15 @@
       <c r="AF3" s="63"/>
     </row>
     <row r="4" spans="2:32" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="128" t="str">
+      <c r="B4" s="132" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(IF(B19 = "Ionian (Major)", B10 &amp; " Major", IF(B19 = "Aolian (Minor)", B10 &amp; " Minor", B10 &amp; " " &amp; B19)), "#", "♯"), "b", "♭")</f>
         <v>C Major</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
       <c r="J4" s="105">
         <f t="shared" ref="J4:P4" si="0">IF(J8 = "", "", IF(J5 = 0, F$1, J5))</f>
         <v>1</v>
@@ -3250,20 +3210,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AE4" s="123" t="s">
+      <c r="AE4" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="AF4" s="124" t="b">
+      <c r="AF4" s="128" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:32" s="64" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
       <c r="J5" s="107">
         <f>IFERROR(HLOOKUP(F$1, Model!$Q$1:$X$17, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), F$1)</f>
         <v>0</v>
@@ -3292,54 +3252,54 @@
         <f>IFERROR(HLOOKUP(L$1, Model!$Q$1:$X$17, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), L$1)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="123"/>
-      <c r="AF5" s="124"/>
+      <c r="AE5" s="127"/>
+      <c r="AF5" s="128"/>
     </row>
     <row r="6" spans="2:32" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="J6" s="135" t="str">
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="J6" s="123" t="str">
         <f>IF(J$4="","", J$8 &amp; IFERROR(HLOOKUP(F$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), F$1))</f>
         <v>CM7</v>
       </c>
-      <c r="K6" s="135" t="str">
+      <c r="K6" s="123" t="str">
         <f>IF(K$4="","", K$8 &amp; IFERROR(HLOOKUP(G$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), G$1))</f>
         <v>Dm7</v>
       </c>
-      <c r="L6" s="135" t="str">
+      <c r="L6" s="123" t="str">
         <f>IF(L$4="","", L$8 &amp; IFERROR(HLOOKUP(H$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), H$1))</f>
         <v>Em7</v>
       </c>
-      <c r="M6" s="135" t="str">
+      <c r="M6" s="123" t="str">
         <f>IF(M$4="","", M$8 &amp; IFERROR(HLOOKUP(I$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), I$1))</f>
         <v>FM7</v>
       </c>
-      <c r="N6" s="135" t="str">
+      <c r="N6" s="123" t="str">
         <f>IF(N$4="","", N$8 &amp; IFERROR(HLOOKUP(J$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), J$1))</f>
         <v>GM7 dom</v>
       </c>
-      <c r="O6" s="135" t="str">
+      <c r="O6" s="123" t="str">
         <f>IF(O$4="","", O$8 &amp; IFERROR(HLOOKUP(K$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), K$1))</f>
         <v>Am7</v>
       </c>
-      <c r="P6" s="135" t="str">
+      <c r="P6" s="123" t="str">
         <f>IF(P$4="","", P$8 &amp; IFERROR(HLOOKUP(L$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), L$1))</f>
         <v>Bm7 dim</v>
       </c>
-      <c r="AE6" s="123"/>
-      <c r="AF6" s="124"/>
+      <c r="AE6" s="127"/>
+      <c r="AF6" s="128"/>
     </row>
     <row r="7" spans="2:32" s="65" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
       <c r="J7" s="108" t="str">
         <f t="shared" ref="J7:P7" si="1">IF(J4="","",J3)</f>
         <v>Tonic</v>
@@ -3368,20 +3328,20 @@
         <f t="shared" si="1"/>
         <v>Leading Tone</v>
       </c>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="124"/>
+      <c r="AE7" s="127"/>
+      <c r="AF7" s="128"/>
     </row>
     <row r="8" spans="2:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="129" t="s">
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="129"/>
+      <c r="I8" s="133"/>
       <c r="J8" s="80" t="str">
         <f>Model!J24</f>
         <v>C</v>
@@ -3410,11 +3370,11 @@
         <f>IF(Model!O22=0, "", Model!P24)</f>
         <v>B</v>
       </c>
-      <c r="S8" s="130" t="s">
+      <c r="S8" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="130"/>
-      <c r="U8" s="130"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
       <c r="V8" s="111" t="str">
         <f>IF(Model!J22=1, "h", IF(Model!J22=2, "W", IF(Model!J22=3, "W+h", IF(Model!J22=4, "WW", IF(Model!J22=0, "", Model!J22)))))</f>
         <v>W</v>
@@ -3443,10 +3403,10 @@
         <f>IF(Model!P22=1, "h", IF(Model!P22=2, "W", IF(Model!P22=3, "W+h",IF(Model!P22=4, "WW", IF(Model!P22=0, "", Model!P22)))))</f>
         <v>h</v>
       </c>
-      <c r="AE8" s="126" t="s">
+      <c r="AE8" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="AF8" s="126"/>
+      <c r="AF8" s="130"/>
     </row>
     <row r="9" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="104" t="s">
@@ -3564,7 +3524,7 @@
       </c>
     </row>
     <row r="10" spans="2:32" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="129" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="68" t="s">
@@ -3682,7 +3642,7 @@
       </c>
     </row>
     <row r="11" spans="2:32" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="125"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="68" t="s">
         <v>16</v>
       </c>
@@ -3798,7 +3758,7 @@
       </c>
     </row>
     <row r="12" spans="2:32" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="125"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="68" t="s">
         <v>15</v>
       </c>
@@ -3914,7 +3874,7 @@
       </c>
     </row>
     <row r="13" spans="2:32" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="125"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="68" t="s">
         <v>12</v>
       </c>
@@ -4030,7 +3990,7 @@
       </c>
     </row>
     <row r="14" spans="2:32" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="125"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="68" t="s">
         <v>14</v>
       </c>
@@ -4146,7 +4106,7 @@
       </c>
     </row>
     <row r="15" spans="2:32" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="131" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="68" t="s">
@@ -4264,7 +4224,7 @@
       </c>
     </row>
     <row r="16" spans="2:32" s="67" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="127"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="69" t="s">
         <v>16</v>
       </c>
@@ -4376,7 +4336,7 @@
       <c r="AF16" s="99"/>
     </row>
     <row r="17" spans="2:32" s="67" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="127"/>
+      <c r="B17" s="131"/>
       <c r="C17" s="69" t="s">
         <v>15</v>
       </c>
@@ -4488,7 +4448,7 @@
       <c r="AF17" s="99"/>
     </row>
     <row r="18" spans="2:32" s="67" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="127"/>
+      <c r="B18" s="131"/>
       <c r="C18" s="69" t="s">
         <v>12</v>
       </c>
@@ -4813,24 +4773,24 @@
       <c r="AF22" s="64"/>
     </row>
     <row r="23" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="128" t="str">
+      <c r="B23" s="132" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(IF(B38 = "Ionian (Major)", B29 &amp; " Major", IF(B38 = "Aolian (Minor)", B29 &amp; " Minor", B29 &amp; " " &amp; B38)), "#", "♯"), "b", "♭")</f>
-        <v>A Minor</v>
-      </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
+        <v>E Pentatonic Minor</v>
+      </c>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
       <c r="H23" s="64"/>
       <c r="I23" s="64"/>
       <c r="J23" s="105">
         <f t="shared" ref="J23:P23" si="4">IF(J27 = "", "", IF(J24 = 0, F$1, J24))</f>
         <v>1</v>
       </c>
-      <c r="K23" s="105">
+      <c r="K23" s="105" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="L23" s="105" t="str">
         <f t="shared" si="4"/>
@@ -4846,11 +4806,11 @@
       </c>
       <c r="O23" s="105" t="str">
         <f t="shared" si="4"/>
-        <v>♭6</v>
-      </c>
-      <c r="P23" s="105" t="str">
+        <v/>
+      </c>
+      <c r="P23" s="105">
         <f t="shared" si="4"/>
-        <v>♭7</v>
+        <v>7</v>
       </c>
       <c r="Q23" s="64"/>
       <c r="R23" s="64"/>
@@ -4870,12 +4830,12 @@
       <c r="AF23" s="64"/>
     </row>
     <row r="24" spans="2:32" s="63" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
       <c r="H24" s="64"/>
       <c r="I24" s="64"/>
       <c r="J24" s="79">
@@ -4900,11 +4860,11 @@
       </c>
       <c r="O24" s="79" t="str">
         <f>IFERROR(HLOOKUP(K$1, Model!$Q$1:$X$17, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), K$1)</f>
-        <v>♭6</v>
-      </c>
-      <c r="P24" s="79" t="str">
+        <v>♭7</v>
+      </c>
+      <c r="P24" s="79">
         <f>IFERROR(HLOOKUP(L$1, Model!$Q$1:$X$17, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), L$1)</f>
-        <v>♭7</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="64"/>
       <c r="R24" s="64"/>
@@ -4924,41 +4884,41 @@
       <c r="AF24" s="64"/>
     </row>
     <row r="25" spans="2:32" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
       <c r="H25" s="64"/>
       <c r="I25" s="64"/>
-      <c r="J25" s="136" t="str">
+      <c r="J25" s="124" t="str">
         <f>IF(J$23="","", J$27 &amp; IFERROR(HLOOKUP(F$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), F$1))</f>
-        <v>Am7</v>
-      </c>
-      <c r="K25" s="136" t="str">
+        <v>Em7</v>
+      </c>
+      <c r="K25" s="124" t="str">
         <f>IF(K$23="","", K$27 &amp; IFERROR(HLOOKUP(G$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), G$1))</f>
-        <v>Bm7 dim</v>
-      </c>
-      <c r="L25" s="136" t="str">
+        <v/>
+      </c>
+      <c r="L25" s="124" t="str">
         <f>IF(L$23="","", L$27 &amp; IFERROR(HLOOKUP(H$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), H$1))</f>
-        <v>CM7</v>
-      </c>
-      <c r="M25" s="136" t="str">
+        <v>GM</v>
+      </c>
+      <c r="M25" s="124" t="str">
         <f>IF(M$23="","", M$27 &amp; IFERROR(HLOOKUP(I$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), I$1))</f>
-        <v>Dm7</v>
-      </c>
-      <c r="N25" s="136" t="str">
+        <v>A5 ♭7</v>
+      </c>
+      <c r="N25" s="124" t="str">
         <f>IF(N$23="","", N$27 &amp; IFERROR(HLOOKUP(J$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), J$1))</f>
-        <v>Em7</v>
-      </c>
-      <c r="O25" s="136" t="str">
+        <v>B5</v>
+      </c>
+      <c r="O25" s="124" t="str">
         <f>IF(O$23="","", O$27 &amp; IFERROR(HLOOKUP(K$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), K$1))</f>
-        <v>FM7</v>
-      </c>
-      <c r="P25" s="136" t="str">
+        <v/>
+      </c>
+      <c r="P25" s="124" t="str">
         <f>IF(P$23="","", P$27 &amp; IFERROR(HLOOKUP(L$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), L$1))</f>
-        <v>GM7 dom</v>
+        <v>D5</v>
       </c>
       <c r="Q25" s="64"/>
       <c r="R25" s="64"/>
@@ -4978,12 +4938,12 @@
       <c r="AF25" s="64"/>
     </row>
     <row r="26" spans="2:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
       <c r="H26" s="65"/>
       <c r="I26" s="65"/>
       <c r="J26" s="106" t="str">
@@ -4992,7 +4952,7 @@
       </c>
       <c r="K26" s="106" t="str">
         <f t="shared" si="5"/>
-        <v>Supertonic</v>
+        <v/>
       </c>
       <c r="L26" s="106" t="str">
         <f t="shared" si="5"/>
@@ -5008,7 +4968,7 @@
       </c>
       <c r="O26" s="106" t="str">
         <f t="shared" si="5"/>
-        <v>Submediant</v>
+        <v/>
       </c>
       <c r="P26" s="106" t="str">
         <f t="shared" si="5"/>
@@ -5032,56 +4992,56 @@
       <c r="AF26" s="65"/>
     </row>
     <row r="27" spans="2:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="128"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="129" t="s">
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="129"/>
+      <c r="I27" s="133"/>
       <c r="J27" s="80" t="str">
         <f>Model!J28</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="K27" s="81" t="str">
         <f>IF(Model!J28=0, "", Model!K28)</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="L27" s="82" t="str">
         <f>IF(Model!K28=0, "", Model!L28)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="M27" s="83" t="str">
         <f>IF(Model!L28=0, "", Model!M28)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="N27" s="84" t="str">
         <f>IF(Model!M28=0, "", Model!N28)</f>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="O27" s="85" t="str">
         <f>IF(Model!N28=0, "", Model!O28)</f>
-        <v>F</v>
+        <v/>
       </c>
       <c r="P27" s="86" t="str">
         <f>IF(Model!O28=0, "", Model!P28)</f>
-        <v>G</v>
-      </c>
-      <c r="S27" s="130" t="s">
+        <v>D</v>
+      </c>
+      <c r="S27" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="T27" s="130"/>
-      <c r="U27" s="130"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="134"/>
       <c r="V27" s="111" t="str">
         <f>IF(Model!J26=1, "h", IF(Model!J26=2, "W", IF(Model!J26=3, "W+h", IF(Model!J26=4, "WW", IF(Model!J26=0, "", Model!J22)))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="W27" s="87" t="str">
         <f>IF(Model!K26=1, "h", IF(Model!K26=2, "W", IF(Model!K26=3, "W+h", IF(Model!K26=4, "WW", IF(Model!K26=0, "", Model!K22)))))</f>
-        <v>h</v>
+        <v>W+h</v>
       </c>
       <c r="X27" s="88" t="str">
         <f>IF(Model!L26=1, "h", IF(Model!L26=2, "W", IF(Model!L26=3, "W+h", IF(Model!L26=4, "WW", IF(Model!L26=0, "", Model!L22)))))</f>
@@ -5093,20 +5053,20 @@
       </c>
       <c r="Z27" s="90" t="str">
         <f>IF(Model!N26=1, "h", IF(Model!N26=2, "W", IF(Model!N26=3, "W+h", IF(Model!N26=4, "WW", IF(Model!N26=0, "", Model!N22)))))</f>
-        <v>h</v>
+        <v/>
       </c>
       <c r="AA27" s="91" t="str">
         <f>IF(Model!O26=1, "h", IF(Model!O26=2, "W", IF(Model!O26=3, "W+h", IF(Model!O26=4, "WW", IF(Model!O26=0, "", Model!O22)))))</f>
-        <v>W</v>
+        <v>W+h</v>
       </c>
       <c r="AB27" s="92" t="str">
         <f>IF(Model!P26=1, "h", IF(Model!P26=2, "W", IF(Model!P26=3, "W+h", IF(Model!P26=4, "WW", IF(Model!P26=0, "", Model!P22)))))</f>
         <v>W</v>
       </c>
-      <c r="AE27" s="126" t="s">
+      <c r="AE27" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="AF27" s="126"/>
+      <c r="AF27" s="130"/>
     </row>
     <row r="28" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="104" t="s">
@@ -5227,8 +5187,8 @@
       </c>
     </row>
     <row r="29" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="125" t="s">
-        <v>14</v>
+      <c r="B29" s="129" t="s">
+        <v>11</v>
       </c>
       <c r="C29" s="68" t="s">
         <v>18</v>
@@ -5239,11 +5199,11 @@
       </c>
       <c r="E29" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>E : 5</v>
+        <v>E : 1</v>
       </c>
       <c r="F29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>F : ♭6</v>
+        <v/>
       </c>
       <c r="G29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5251,7 +5211,7 @@
       </c>
       <c r="H29" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>G : ♭7</v>
+        <v>G : ♭3</v>
       </c>
       <c r="I29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5259,7 +5219,7 @@
       </c>
       <c r="J29" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>A : 1</v>
+        <v>A : 4</v>
       </c>
       <c r="K29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5267,11 +5227,11 @@
       </c>
       <c r="L29" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>B : 2</v>
+        <v>B : 5</v>
       </c>
       <c r="M29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>C : ♭3</v>
+        <v/>
       </c>
       <c r="N29" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5279,7 +5239,7 @@
       </c>
       <c r="O29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>D : 4</v>
+        <v>D : 7</v>
       </c>
       <c r="P29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5287,11 +5247,11 @@
       </c>
       <c r="Q29" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>E : 5</v>
+        <v>E : 1</v>
       </c>
       <c r="R29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>F : ♭6</v>
+        <v/>
       </c>
       <c r="S29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5299,7 +5259,7 @@
       </c>
       <c r="T29" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>G : ♭7</v>
+        <v>G : ♭3</v>
       </c>
       <c r="U29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5307,7 +5267,7 @@
       </c>
       <c r="V29" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>A : 1</v>
+        <v>A : 4</v>
       </c>
       <c r="W29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5315,11 +5275,11 @@
       </c>
       <c r="X29" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>B : 2</v>
+        <v>B : 5</v>
       </c>
       <c r="Y29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>C : ♭3</v>
+        <v/>
       </c>
       <c r="Z29" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5327,7 +5287,7 @@
       </c>
       <c r="AA29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>D : 4</v>
+        <v>D : 7</v>
       </c>
       <c r="AB29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5335,7 +5295,7 @@
       </c>
       <c r="AC29" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>E : 5</v>
+        <v>E : 1</v>
       </c>
       <c r="AD29" s="67"/>
       <c r="AE29" s="95" t="s">
@@ -5346,7 +5306,7 @@
       </c>
     </row>
     <row r="30" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="125"/>
+      <c r="B30" s="129"/>
       <c r="C30" s="68" t="s">
         <v>16</v>
       </c>
@@ -5356,11 +5316,11 @@
       </c>
       <c r="E30" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>B : 2</v>
+        <v>B : 5</v>
       </c>
       <c r="F30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>C : ♭3</v>
+        <v/>
       </c>
       <c r="G30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5368,7 +5328,7 @@
       </c>
       <c r="H30" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>D : 4</v>
+        <v>D : 7</v>
       </c>
       <c r="I30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5376,11 +5336,11 @@
       </c>
       <c r="J30" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>E : 5</v>
+        <v>E : 1</v>
       </c>
       <c r="K30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>F : ♭6</v>
+        <v/>
       </c>
       <c r="L30" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5388,7 +5348,7 @@
       </c>
       <c r="M30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>G : ♭7</v>
+        <v>G : ♭3</v>
       </c>
       <c r="N30" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5396,7 +5356,7 @@
       </c>
       <c r="O30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>A : 1</v>
+        <v>A : 4</v>
       </c>
       <c r="P30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5404,11 +5364,11 @@
       </c>
       <c r="Q30" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>B : 2</v>
+        <v>B : 5</v>
       </c>
       <c r="R30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>C : ♭3</v>
+        <v/>
       </c>
       <c r="S30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5416,7 +5376,7 @@
       </c>
       <c r="T30" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>D : 4</v>
+        <v>D : 7</v>
       </c>
       <c r="U30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5424,11 +5384,11 @@
       </c>
       <c r="V30" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>E : 5</v>
+        <v>E : 1</v>
       </c>
       <c r="W30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>F : ♭6</v>
+        <v/>
       </c>
       <c r="X30" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5436,7 +5396,7 @@
       </c>
       <c r="Y30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>G : ♭7</v>
+        <v>G : ♭3</v>
       </c>
       <c r="Z30" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5444,7 +5404,7 @@
       </c>
       <c r="AA30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>A : 1</v>
+        <v>A : 4</v>
       </c>
       <c r="AB30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5452,7 +5412,7 @@
       </c>
       <c r="AC30" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>B : 2</v>
+        <v>B : 5</v>
       </c>
       <c r="AD30" s="67"/>
       <c r="AE30" s="97" t="s">
@@ -5463,7 +5423,7 @@
       </c>
     </row>
     <row r="31" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="125"/>
+      <c r="B31" s="129"/>
       <c r="C31" s="68" t="s">
         <v>15</v>
       </c>
@@ -5473,7 +5433,7 @@
       </c>
       <c r="E31" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>G : ♭7</v>
+        <v>G : ♭3</v>
       </c>
       <c r="F31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5481,7 +5441,7 @@
       </c>
       <c r="G31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>A : 1</v>
+        <v>A : 4</v>
       </c>
       <c r="H31" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5489,11 +5449,11 @@
       </c>
       <c r="I31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>B : 2</v>
+        <v>B : 5</v>
       </c>
       <c r="J31" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>C : ♭3</v>
+        <v/>
       </c>
       <c r="K31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5501,7 +5461,7 @@
       </c>
       <c r="L31" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>D : 4</v>
+        <v>D : 7</v>
       </c>
       <c r="M31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5509,11 +5469,11 @@
       </c>
       <c r="N31" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>E : 5</v>
+        <v>E : 1</v>
       </c>
       <c r="O31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>F : ♭6</v>
+        <v/>
       </c>
       <c r="P31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5521,7 +5481,7 @@
       </c>
       <c r="Q31" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>G : ♭7</v>
+        <v>G : ♭3</v>
       </c>
       <c r="R31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5529,7 +5489,7 @@
       </c>
       <c r="S31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>A : 1</v>
+        <v>A : 4</v>
       </c>
       <c r="T31" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5537,11 +5497,11 @@
       </c>
       <c r="U31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>B : 2</v>
+        <v>B : 5</v>
       </c>
       <c r="V31" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>C : ♭3</v>
+        <v/>
       </c>
       <c r="W31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5549,7 +5509,7 @@
       </c>
       <c r="X31" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>D : 4</v>
+        <v>D : 7</v>
       </c>
       <c r="Y31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5557,11 +5517,11 @@
       </c>
       <c r="Z31" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>E : 5</v>
+        <v>E : 1</v>
       </c>
       <c r="AA31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>F : ♭6</v>
+        <v/>
       </c>
       <c r="AB31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5569,7 +5529,7 @@
       </c>
       <c r="AC31" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>G : ♭7</v>
+        <v>G : ♭3</v>
       </c>
       <c r="AD31" s="67"/>
       <c r="AE31" s="97" t="s">
@@ -5580,7 +5540,7 @@
       </c>
     </row>
     <row r="32" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="125"/>
+      <c r="B32" s="129"/>
       <c r="C32" s="68" t="s">
         <v>12</v>
       </c>
@@ -5590,7 +5550,7 @@
       </c>
       <c r="E32" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>D : 4</v>
+        <v>D : 7</v>
       </c>
       <c r="F32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5598,11 +5558,11 @@
       </c>
       <c r="G32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>E : 5</v>
+        <v>E : 1</v>
       </c>
       <c r="H32" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>F : ♭6</v>
+        <v/>
       </c>
       <c r="I32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5610,7 +5570,7 @@
       </c>
       <c r="J32" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>G : ♭7</v>
+        <v>G : ♭3</v>
       </c>
       <c r="K32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5618,7 +5578,7 @@
       </c>
       <c r="L32" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>A : 1</v>
+        <v>A : 4</v>
       </c>
       <c r="M32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5626,11 +5586,11 @@
       </c>
       <c r="N32" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>B : 2</v>
+        <v>B : 5</v>
       </c>
       <c r="O32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>C : ♭3</v>
+        <v/>
       </c>
       <c r="P32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5638,7 +5598,7 @@
       </c>
       <c r="Q32" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>D : 4</v>
+        <v>D : 7</v>
       </c>
       <c r="R32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5646,11 +5606,11 @@
       </c>
       <c r="S32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>E : 5</v>
+        <v>E : 1</v>
       </c>
       <c r="T32" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>F : ♭6</v>
+        <v/>
       </c>
       <c r="U32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5658,7 +5618,7 @@
       </c>
       <c r="V32" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>G : ♭7</v>
+        <v>G : ♭3</v>
       </c>
       <c r="W32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5666,7 +5626,7 @@
       </c>
       <c r="X32" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>A : 1</v>
+        <v>A : 4</v>
       </c>
       <c r="Y32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5674,11 +5634,11 @@
       </c>
       <c r="Z32" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>B : 2</v>
+        <v>B : 5</v>
       </c>
       <c r="AA32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>C : ♭3</v>
+        <v/>
       </c>
       <c r="AB32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5686,7 +5646,7 @@
       </c>
       <c r="AC32" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>D : 4</v>
+        <v>D : 7</v>
       </c>
       <c r="AD32" s="67"/>
       <c r="AE32" s="97" t="s">
@@ -5697,7 +5657,7 @@
       </c>
     </row>
     <row r="33" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="125"/>
+      <c r="B33" s="129"/>
       <c r="C33" s="68" t="s">
         <v>14</v>
       </c>
@@ -5707,7 +5667,7 @@
       </c>
       <c r="E33" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>A : 1</v>
+        <v>A : 4</v>
       </c>
       <c r="F33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5715,11 +5675,11 @@
       </c>
       <c r="G33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>B : 2</v>
+        <v>B : 5</v>
       </c>
       <c r="H33" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>C : ♭3</v>
+        <v/>
       </c>
       <c r="I33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5727,7 +5687,7 @@
       </c>
       <c r="J33" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>D : 4</v>
+        <v>D : 7</v>
       </c>
       <c r="K33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5735,11 +5695,11 @@
       </c>
       <c r="L33" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>E : 5</v>
+        <v>E : 1</v>
       </c>
       <c r="M33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>F : ♭6</v>
+        <v/>
       </c>
       <c r="N33" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5747,7 +5707,7 @@
       </c>
       <c r="O33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>G : ♭7</v>
+        <v>G : ♭3</v>
       </c>
       <c r="P33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5755,7 +5715,7 @@
       </c>
       <c r="Q33" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>A : 1</v>
+        <v>A : 4</v>
       </c>
       <c r="R33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5763,11 +5723,11 @@
       </c>
       <c r="S33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>B : 2</v>
+        <v>B : 5</v>
       </c>
       <c r="T33" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>C : ♭3</v>
+        <v/>
       </c>
       <c r="U33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5775,7 +5735,7 @@
       </c>
       <c r="V33" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>D : 4</v>
+        <v>D : 7</v>
       </c>
       <c r="W33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5783,11 +5743,11 @@
       </c>
       <c r="X33" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>E : 5</v>
+        <v>E : 1</v>
       </c>
       <c r="Y33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>F : ♭6</v>
+        <v/>
       </c>
       <c r="Z33" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5795,7 +5755,7 @@
       </c>
       <c r="AA33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>G : ♭7</v>
+        <v>G : ♭3</v>
       </c>
       <c r="AB33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5803,7 +5763,7 @@
       </c>
       <c r="AC33" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>A : 1</v>
+        <v>A : 4</v>
       </c>
       <c r="AD33" s="67"/>
       <c r="AE33" s="97" t="s">
@@ -5814,7 +5774,7 @@
       </c>
     </row>
     <row r="34" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="127" t="s">
+      <c r="B34" s="131" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="68" t="s">
@@ -5826,11 +5786,11 @@
       </c>
       <c r="E34" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>E : 5</v>
+        <v>E : 1</v>
       </c>
       <c r="F34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>F : ♭6</v>
+        <v/>
       </c>
       <c r="G34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5838,7 +5798,7 @@
       </c>
       <c r="H34" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>G : ♭7</v>
+        <v>G : ♭3</v>
       </c>
       <c r="I34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5846,7 +5806,7 @@
       </c>
       <c r="J34" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>A : 1</v>
+        <v>A : 4</v>
       </c>
       <c r="K34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5854,11 +5814,11 @@
       </c>
       <c r="L34" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>B : 2</v>
+        <v>B : 5</v>
       </c>
       <c r="M34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>C : ♭3</v>
+        <v/>
       </c>
       <c r="N34" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5866,7 +5826,7 @@
       </c>
       <c r="O34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>D : 4</v>
+        <v>D : 7</v>
       </c>
       <c r="P34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5874,11 +5834,11 @@
       </c>
       <c r="Q34" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>E : 5</v>
+        <v>E : 1</v>
       </c>
       <c r="R34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>F : ♭6</v>
+        <v/>
       </c>
       <c r="S34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5886,7 +5846,7 @@
       </c>
       <c r="T34" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>G : ♭7</v>
+        <v>G : ♭3</v>
       </c>
       <c r="U34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5894,7 +5854,7 @@
       </c>
       <c r="V34" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>A : 1</v>
+        <v>A : 4</v>
       </c>
       <c r="W34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5902,11 +5862,11 @@
       </c>
       <c r="X34" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>B : 2</v>
+        <v>B : 5</v>
       </c>
       <c r="Y34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>C : ♭3</v>
+        <v/>
       </c>
       <c r="Z34" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5914,7 +5874,7 @@
       </c>
       <c r="AA34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>D : 4</v>
+        <v>D : 7</v>
       </c>
       <c r="AB34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
@@ -5922,7 +5882,7 @@
       </c>
       <c r="AC34" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
-        <v>E : 5</v>
+        <v>E : 1</v>
       </c>
       <c r="AD34" s="67"/>
       <c r="AE34" s="97" t="s">
@@ -5933,7 +5893,7 @@
       </c>
     </row>
     <row r="35" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="127"/>
+      <c r="B35" s="131"/>
       <c r="C35" s="69" t="s">
         <v>16</v>
       </c>
@@ -5943,11 +5903,11 @@
       </c>
       <c r="E35" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>B : 2</v>
+        <v>B : 5</v>
       </c>
       <c r="F35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>C : 3</v>
+        <v/>
       </c>
       <c r="G35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -5955,7 +5915,7 @@
       </c>
       <c r="H35" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>D : 4</v>
+        <v>D : 7</v>
       </c>
       <c r="I35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -5963,11 +5923,11 @@
       </c>
       <c r="J35" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>E : 5</v>
+        <v>E : 1</v>
       </c>
       <c r="K35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>F : 6</v>
+        <v/>
       </c>
       <c r="L35" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -5975,7 +5935,7 @@
       </c>
       <c r="M35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>G : 7</v>
+        <v>G : 3</v>
       </c>
       <c r="N35" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -5983,7 +5943,7 @@
       </c>
       <c r="O35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>A : 1</v>
+        <v>A : 4</v>
       </c>
       <c r="P35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -5991,11 +5951,11 @@
       </c>
       <c r="Q35" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>B : 2</v>
+        <v>B : 5</v>
       </c>
       <c r="R35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>C : 3</v>
+        <v/>
       </c>
       <c r="S35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6003,7 +5963,7 @@
       </c>
       <c r="T35" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>D : 4</v>
+        <v>D : 7</v>
       </c>
       <c r="U35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6011,11 +5971,11 @@
       </c>
       <c r="V35" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>E : 5</v>
+        <v>E : 1</v>
       </c>
       <c r="W35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>F : 6</v>
+        <v/>
       </c>
       <c r="X35" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6023,7 +5983,7 @@
       </c>
       <c r="Y35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>G : 7</v>
+        <v>G : 3</v>
       </c>
       <c r="Z35" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6031,7 +5991,7 @@
       </c>
       <c r="AA35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>A : 1</v>
+        <v>A : 4</v>
       </c>
       <c r="AB35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6039,14 +5999,14 @@
       </c>
       <c r="AC35" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>B : 2</v>
+        <v>B : 5</v>
       </c>
       <c r="AD35" s="67"/>
       <c r="AE35" s="98"/>
       <c r="AF35" s="103"/>
     </row>
     <row r="36" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="127"/>
+      <c r="B36" s="131"/>
       <c r="C36" s="69" t="s">
         <v>15</v>
       </c>
@@ -6056,7 +6016,7 @@
       </c>
       <c r="E36" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>G : 7</v>
+        <v>G : 3</v>
       </c>
       <c r="F36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6064,7 +6024,7 @@
       </c>
       <c r="G36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>A : 1</v>
+        <v>A : 4</v>
       </c>
       <c r="H36" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6072,11 +6032,11 @@
       </c>
       <c r="I36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>B : 2</v>
+        <v>B : 5</v>
       </c>
       <c r="J36" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>C : 3</v>
+        <v/>
       </c>
       <c r="K36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6084,7 +6044,7 @@
       </c>
       <c r="L36" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>D : 4</v>
+        <v>D : 7</v>
       </c>
       <c r="M36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6092,11 +6052,11 @@
       </c>
       <c r="N36" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>E : 5</v>
+        <v>E : 1</v>
       </c>
       <c r="O36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>F : 6</v>
+        <v/>
       </c>
       <c r="P36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6104,7 +6064,7 @@
       </c>
       <c r="Q36" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>G : 7</v>
+        <v>G : 3</v>
       </c>
       <c r="R36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6112,7 +6072,7 @@
       </c>
       <c r="S36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>A : 1</v>
+        <v>A : 4</v>
       </c>
       <c r="T36" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6120,11 +6080,11 @@
       </c>
       <c r="U36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>B : 2</v>
+        <v>B : 5</v>
       </c>
       <c r="V36" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>C : 3</v>
+        <v/>
       </c>
       <c r="W36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6132,7 +6092,7 @@
       </c>
       <c r="X36" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>D : 4</v>
+        <v>D : 7</v>
       </c>
       <c r="Y36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6140,11 +6100,11 @@
       </c>
       <c r="Z36" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>E : 5</v>
+        <v>E : 1</v>
       </c>
       <c r="AA36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>F : 6</v>
+        <v/>
       </c>
       <c r="AB36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6152,14 +6112,14 @@
       </c>
       <c r="AC36" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>G : 7</v>
+        <v>G : 3</v>
       </c>
       <c r="AD36" s="67"/>
       <c r="AE36" s="100"/>
       <c r="AF36" s="103"/>
     </row>
     <row r="37" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="127"/>
+      <c r="B37" s="131"/>
       <c r="C37" s="69" t="s">
         <v>12</v>
       </c>
@@ -6169,7 +6129,7 @@
       </c>
       <c r="E37" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>D : 4</v>
+        <v>D : 7</v>
       </c>
       <c r="F37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6177,11 +6137,11 @@
       </c>
       <c r="G37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>E : 5</v>
+        <v>E : 1</v>
       </c>
       <c r="H37" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>F : 6</v>
+        <v/>
       </c>
       <c r="I37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6189,7 +6149,7 @@
       </c>
       <c r="J37" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>G : 7</v>
+        <v>G : 3</v>
       </c>
       <c r="K37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6197,7 +6157,7 @@
       </c>
       <c r="L37" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>A : 1</v>
+        <v>A : 4</v>
       </c>
       <c r="M37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6205,11 +6165,11 @@
       </c>
       <c r="N37" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>B : 2</v>
+        <v>B : 5</v>
       </c>
       <c r="O37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>C : 3</v>
+        <v/>
       </c>
       <c r="P37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6217,7 +6177,7 @@
       </c>
       <c r="Q37" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>D : 4</v>
+        <v>D : 7</v>
       </c>
       <c r="R37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6225,11 +6185,11 @@
       </c>
       <c r="S37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>E : 5</v>
+        <v>E : 1</v>
       </c>
       <c r="T37" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>F : 6</v>
+        <v/>
       </c>
       <c r="U37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6237,7 +6197,7 @@
       </c>
       <c r="V37" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>G : 7</v>
+        <v>G : 3</v>
       </c>
       <c r="W37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6245,7 +6205,7 @@
       </c>
       <c r="X37" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>A : 1</v>
+        <v>A : 4</v>
       </c>
       <c r="Y37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6253,11 +6213,11 @@
       </c>
       <c r="Z37" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>B : 2</v>
+        <v>B : 5</v>
       </c>
       <c r="AA37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>C : 3</v>
+        <v/>
       </c>
       <c r="AB37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
@@ -6265,7 +6225,7 @@
       </c>
       <c r="AC37" s="62" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
-        <v>D : 4</v>
+        <v>D : 7</v>
       </c>
       <c r="AD37" s="67"/>
       <c r="AE37" s="101"/>
@@ -6273,7 +6233,7 @@
     </row>
     <row r="38" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="73" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="C38" s="71"/>
       <c r="D38" s="1"/>
@@ -6388,104 +6348,107 @@
       <c r="B39" s="72"/>
       <c r="E39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(E$38,12)),"")</f>
-        <v>Aolian</v>
+        <v/>
       </c>
       <c r="F39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(F$38,12)),"")</f>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(G$38,12)),"")</f>
-        <v>Locrian</v>
+        <v/>
       </c>
       <c r="H39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(H$38,12)),"")</f>
-        <v>Ionian</v>
+        <v/>
       </c>
       <c r="I39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(I$38,12)),"")</f>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="J39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(J$38,12)),"")</f>
-        <v>Dorian</v>
+        <v/>
       </c>
       <c r="K39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(K$38,12)),"")</f>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="L39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(L$38,12)),"")</f>
-        <v>Phrygian</v>
+        <v/>
       </c>
       <c r="M39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(M$38,12)),"")</f>
-        <v>Lydian</v>
+        <v/>
       </c>
       <c r="N39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(N$38,12)),"")</f>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="O39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(O$38,12)),"")</f>
-        <v>Mixolydian</v>
+        <v/>
       </c>
       <c r="P39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(P$38,12)),"")</f>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="Q39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(Q$38,12)),"")</f>
-        <v>Aolian</v>
+        <v/>
       </c>
       <c r="R39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(R$38,12)),"")</f>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="S39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(S$38,12)),"")</f>
-        <v>Locrian</v>
+        <v/>
       </c>
       <c r="T39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(T$38,12)),"")</f>
-        <v>Ionian</v>
+        <v/>
       </c>
       <c r="U39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(U$38,12)),"")</f>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="V39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(V$38,12)),"")</f>
-        <v>Dorian</v>
+        <v/>
       </c>
       <c r="W39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(W$38,12)),"")</f>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="X39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(X$38,12)),"")</f>
-        <v>Phrygian</v>
+        <v/>
       </c>
       <c r="Y39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(Y$38,12)),"")</f>
-        <v>Lydian</v>
+        <v/>
       </c>
       <c r="Z39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(Z$38,12)),"")</f>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="AA39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(AA$38,12)),"")</f>
-        <v>Mixolydian</v>
+        <v/>
       </c>
       <c r="AB39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(AB$38,12)),"")</f>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="AC39" s="74" t="str">
         <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(AC$38,12)),"")</f>
-        <v>Aolian</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B41" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6806,10 +6769,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BO57"/>
   <sheetViews>
     <sheetView topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -6848,10 +6812,10 @@
         <v>96</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="133" t="s">
+      <c r="G1" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="134"/>
+      <c r="H1" s="138"/>
       <c r="I1" s="15" t="s">
         <v>22</v>
       </c>
@@ -7133,10 +7097,10 @@
       <c r="E3" s="11">
         <v>10</v>
       </c>
-      <c r="G3" s="131" t="s">
+      <c r="G3" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="132"/>
+      <c r="H3" s="136"/>
       <c r="I3" s="16" t="s">
         <v>61</v>
       </c>
@@ -7387,10 +7351,10 @@
       <c r="E5" s="11">
         <v>8</v>
       </c>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="132"/>
+      <c r="H5" s="136"/>
       <c r="I5" s="16" t="s">
         <v>174</v>
       </c>
@@ -7511,11 +7475,11 @@
       </c>
       <c r="G6" s="17" t="str">
         <f>Fretboards!B29</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="H6" s="18" t="str">
         <f>Fretboards!B38</f>
-        <v>Aolian (Minor)</v>
+        <v>Pentatonic Minor</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>175</v>
@@ -9403,11 +9367,11 @@
       </c>
       <c r="O25" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>♭6</v>
-      </c>
-      <c r="P25" s="9" t="str">
+        <v>♭7</v>
+      </c>
+      <c r="P25" s="9">
         <f t="shared" si="2"/>
-        <v>♭7</v>
+        <v>7</v>
       </c>
       <c r="Q25" s="116" t="s">
         <v>175</v>
@@ -9446,11 +9410,11 @@
       </c>
       <c r="J26" s="9">
         <f>VLOOKUP($H$6, Model!$I$2:$P$17, Model!J20 + 1, FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26" s="9">
         <f>VLOOKUP($H$6, Model!$I$2:$P$17, Model!K20 + 1, FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26" s="9">
         <f>VLOOKUP($H$6, Model!$I$2:$P$17, Model!L20 + 1, FALSE)</f>
@@ -9462,11 +9426,11 @@
       </c>
       <c r="N26" s="9">
         <f>VLOOKUP($H$6, Model!$I$2:$P$17, Model!N20 + 1, FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="9">
         <f>VLOOKUP($H$6, Model!$I$2:$P$17, Model!O20 + 1, FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P26" s="9">
         <f>VLOOKUP($H$6, Model!$I$2:$P$17, Model!P20 + 1, FALSE)</f>
@@ -9515,31 +9479,31 @@
       </c>
       <c r="J27" s="9">
         <f>IFERROR(VLOOKUP(SUBSTITUTE(SUBSTITUTE(J28, "♭", "b"), "♯","#"), $C$2:$E$41, 3, FALSE), "")</f>
-        <v>9</v>
-      </c>
-      <c r="K27" s="9">
+        <v>4</v>
+      </c>
+      <c r="K27" s="9" t="str">
         <f t="shared" ref="K27:P27" si="3">IFERROR(VLOOKUP(SUBSTITUTE(SUBSTITUTE(K28, "♭", "b"), "♯","#"), $C$2:$E$41, 3, FALSE), "")</f>
-        <v>11</v>
+        <v/>
       </c>
       <c r="L27" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M27" s="9">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N27" s="9">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="O27" s="9">
+        <v>11</v>
+      </c>
+      <c r="O27" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="P27" s="9">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q27" s="116" t="s">
         <v>27</v>
@@ -9584,31 +9548,31 @@
       </c>
       <c r="J28" s="27" t="str">
         <f>INDEX($Z$2:$AY$15,VLOOKUP($G$6, $C$2:$E$41, 2, FALSE) + J20 - 1, VLOOKUP($G$6, $C$2:$E$41, 3,FALSE) + SUM($I$26:I26) + 1)</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="K28" s="27" t="str">
         <f>IF(J26=0, "", INDEX($Z$2:$AY$15,VLOOKUP($G$6, $C$2:$E$41, 2, FALSE) + K20 - 1, VLOOKUP($G$6, $C$2:$E$41, 3, FALSE) + SUM($I$26:J26) + 1))</f>
-        <v>B</v>
+        <v/>
       </c>
       <c r="L28" s="27" t="str">
         <f>IF(K26=0, "", INDEX($Z$2:$AY$15,VLOOKUP($G$6, $C$2:$E$41, 2, FALSE) + L20 - 1, VLOOKUP($G$6, $C$2:$E$41, 3, FALSE) + SUM($I$26:K26) + 1))</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="M28" s="27" t="str">
         <f>IF(L26=0, "", INDEX($Z$2:$AY$15,VLOOKUP($G$6, $C$2:$E$41, 2, FALSE) + M20 - 1, VLOOKUP($G$6, $C$2:$E$41, 3, FALSE) + SUM($I$26:L26) + 1))</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="N28" s="27" t="str">
         <f>IF(M26=0, "", INDEX($Z$2:$AY$15,VLOOKUP($G$6, $C$2:$E$41, 2, FALSE) + N20 - 1, VLOOKUP($G$6, $C$2:$E$41, 3, FALSE) + SUM($I$26:M26) + 1))</f>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="O28" s="27" t="str">
         <f>IF(N26=0, "", INDEX($Z$2:$AY$15,VLOOKUP($G$6, $C$2:$E$41, 2, FALSE) + O20 - 1, VLOOKUP($G$6, $C$2:$E$41, 3, FALSE) + SUM($I$26:N26) + 1))</f>
-        <v>F</v>
+        <v/>
       </c>
       <c r="P28" s="27" t="str">
         <f>IF(O26=0, "", INDEX($Z$2:$AY$15,VLOOKUP($G$6, $C$2:$E$41, 2, FALSE) + P20 - 1, VLOOKUP($G$6, $C$2:$E$41, 3, FALSE) + SUM($I$26:O26) + 1))</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="Q28" s="116" t="s">
         <v>58</v>
@@ -9758,7 +9722,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:66" x14ac:dyDescent="0.35">
       <c r="B32" s="34" t="s">
         <v>36</v>
       </c>
@@ -9771,7 +9735,9 @@
       <c r="E32" s="11">
         <v>3</v>
       </c>
-      <c r="I32" s="7"/>
+      <c r="I32" s="126" t="s">
+        <v>172</v>
+      </c>
       <c r="Q32" s="116" t="s">
         <v>57</v>
       </c>
@@ -9797,7 +9763,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B33" s="34" t="s">
         <v>21</v>
       </c>
@@ -9810,7 +9776,9 @@
       <c r="E33" s="11">
         <v>7</v>
       </c>
-      <c r="I33" s="7"/>
+      <c r="I33" s="126" t="s">
+        <v>27</v>
+      </c>
       <c r="Q33" s="116" t="s">
         <v>21</v>
       </c>
@@ -9836,7 +9804,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B34" s="34" t="s">
         <v>36</v>
       </c>
@@ -9849,7 +9817,9 @@
       <c r="E34" s="11">
         <v>8</v>
       </c>
-      <c r="I34" s="7"/>
+      <c r="I34" s="126" t="s">
+        <v>28</v>
+      </c>
       <c r="Q34" s="116" t="s">
         <v>104</v>
       </c>
@@ -9871,7 +9841,7 @@
       </c>
       <c r="X34" s="117"/>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B35" s="34" t="s">
         <v>29</v>
       </c>
@@ -9884,7 +9854,9 @@
       <c r="E35" s="11">
         <v>9</v>
       </c>
-      <c r="I35" s="7"/>
+      <c r="I35" s="126" t="s">
+        <v>26</v>
+      </c>
       <c r="Q35" s="116" t="s">
         <v>105</v>
       </c>
@@ -9906,7 +9878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B36" s="34" t="s">
         <v>36</v>
       </c>
@@ -9919,7 +9891,9 @@
       <c r="E36" s="11">
         <v>6</v>
       </c>
-      <c r="I36" s="7"/>
+      <c r="I36" s="126" t="s">
+        <v>21</v>
+      </c>
       <c r="Q36" s="119" t="s">
         <v>28</v>
       </c>
@@ -9945,7 +9919,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="35" t="s">
         <v>30</v>
       </c>
@@ -9958,39 +9932,32 @@
       <c r="E37" s="11">
         <v>5</v>
       </c>
-      <c r="I37" s="7"/>
+      <c r="I37" s="126" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="38" spans="2:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="E38" s="11"/>
-      <c r="I38" s="7"/>
+      <c r="I38" s="126" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="11"/>
-      <c r="I39" s="7"/>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="11"/>
-      <c r="I40" s="7"/>
     </row>
     <row r="41" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="14"/>
-      <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="2:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="I44" s="7"/>
-    </row>
+    <row r="42" spans="2:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
@@ -10199,7 +10166,7 @@
       <c r="I57" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="C2:E45">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:E45">
     <sortCondition ref="C2"/>
   </sortState>
   <mergeCells count="3">

--- a/Shredsheets.xlsx
+++ b/Shredsheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Shredsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557E4630-270A-4602-B7D6-85361FC6928C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1C5ABF-65D0-498B-A549-043966DC2F36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="197">
   <si>
     <t>Ionian</t>
   </si>
@@ -608,9 +608,6 @@
   </si>
   <si>
     <t>m7 dim</t>
-  </si>
-  <si>
-    <t>M7 dom</t>
   </si>
   <si>
     <t>5 add 7</t>
@@ -1846,6 +1843,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1856,18 +1865,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3044,7 +3041,7 @@
   <dimension ref="B1:AF41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3173,15 +3170,15 @@
       <c r="AF3" s="63"/>
     </row>
     <row r="4" spans="2:32" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="132" t="str">
+      <c r="B4" s="128" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(IF(B19 = "Ionian (Major)", B10 &amp; " Major", IF(B19 = "Aolian (Minor)", B10 &amp; " Minor", B10 &amp; " " &amp; B19)), "#", "♯"), "b", "♭")</f>
         <v>C Major</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
       <c r="J4" s="105">
         <f t="shared" ref="J4:P4" si="0">IF(J8 = "", "", IF(J5 = 0, F$1, J5))</f>
         <v>1</v>
@@ -3210,20 +3207,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AE4" s="127" t="s">
+      <c r="AE4" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="AF4" s="128" t="b">
+      <c r="AF4" s="132" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:32" s="64" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
       <c r="J5" s="107">
         <f>IFERROR(HLOOKUP(F$1, Model!$Q$1:$X$17, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), F$1)</f>
         <v>0</v>
@@ -3252,16 +3249,16 @@
         <f>IFERROR(HLOOKUP(L$1, Model!$Q$1:$X$17, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), L$1)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="128"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="132"/>
     </row>
     <row r="6" spans="2:32" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
       <c r="J6" s="123" t="str">
         <f>IF(J$4="","", J$8 &amp; IFERROR(HLOOKUP(F$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), F$1))</f>
         <v>CM7</v>
@@ -3280,7 +3277,7 @@
       </c>
       <c r="N6" s="123" t="str">
         <f>IF(N$4="","", N$8 &amp; IFERROR(HLOOKUP(J$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), J$1))</f>
-        <v>GM7 dom</v>
+        <v>G7</v>
       </c>
       <c r="O6" s="123" t="str">
         <f>IF(O$4="","", O$8 &amp; IFERROR(HLOOKUP(K$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), K$1))</f>
@@ -3290,16 +3287,16 @@
         <f>IF(P$4="","", P$8 &amp; IFERROR(HLOOKUP(L$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), L$1))</f>
         <v>Bm7 dim</v>
       </c>
-      <c r="AE6" s="127"/>
-      <c r="AF6" s="128"/>
+      <c r="AE6" s="131"/>
+      <c r="AF6" s="132"/>
     </row>
     <row r="7" spans="2:32" s="65" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
       <c r="J7" s="108" t="str">
         <f t="shared" ref="J7:P7" si="1">IF(J4="","",J3)</f>
         <v>Tonic</v>
@@ -3328,20 +3325,20 @@
         <f t="shared" si="1"/>
         <v>Leading Tone</v>
       </c>
-      <c r="AE7" s="127"/>
-      <c r="AF7" s="128"/>
+      <c r="AE7" s="131"/>
+      <c r="AF7" s="132"/>
     </row>
     <row r="8" spans="2:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="133" t="s">
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="133"/>
+      <c r="I8" s="129"/>
       <c r="J8" s="80" t="str">
         <f>Model!J24</f>
         <v>C</v>
@@ -3370,11 +3367,11 @@
         <f>IF(Model!O22=0, "", Model!P24)</f>
         <v>B</v>
       </c>
-      <c r="S8" s="134" t="s">
+      <c r="S8" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="134"/>
-      <c r="U8" s="134"/>
+      <c r="T8" s="130"/>
+      <c r="U8" s="130"/>
       <c r="V8" s="111" t="str">
         <f>IF(Model!J22=1, "h", IF(Model!J22=2, "W", IF(Model!J22=3, "W+h", IF(Model!J22=4, "WW", IF(Model!J22=0, "", Model!J22)))))</f>
         <v>W</v>
@@ -3403,10 +3400,10 @@
         <f>IF(Model!P22=1, "h", IF(Model!P22=2, "W", IF(Model!P22=3, "W+h",IF(Model!P22=4, "WW", IF(Model!P22=0, "", Model!P22)))))</f>
         <v>h</v>
       </c>
-      <c r="AE8" s="130" t="s">
+      <c r="AE8" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="AF8" s="130"/>
+      <c r="AF8" s="134"/>
     </row>
     <row r="9" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="104" t="s">
@@ -3524,7 +3521,7 @@
       </c>
     </row>
     <row r="10" spans="2:32" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="133" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="68" t="s">
@@ -3642,7 +3639,7 @@
       </c>
     </row>
     <row r="11" spans="2:32" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="129"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="68" t="s">
         <v>16</v>
       </c>
@@ -3758,7 +3755,7 @@
       </c>
     </row>
     <row r="12" spans="2:32" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="129"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="68" t="s">
         <v>15</v>
       </c>
@@ -3874,7 +3871,7 @@
       </c>
     </row>
     <row r="13" spans="2:32" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="129"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="68" t="s">
         <v>12</v>
       </c>
@@ -3990,7 +3987,7 @@
       </c>
     </row>
     <row r="14" spans="2:32" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="129"/>
+      <c r="B14" s="133"/>
       <c r="C14" s="68" t="s">
         <v>14</v>
       </c>
@@ -4106,7 +4103,7 @@
       </c>
     </row>
     <row r="15" spans="2:32" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="127" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="68" t="s">
@@ -4224,7 +4221,7 @@
       </c>
     </row>
     <row r="16" spans="2:32" s="67" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="131"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="69" t="s">
         <v>16</v>
       </c>
@@ -4336,7 +4333,7 @@
       <c r="AF16" s="99"/>
     </row>
     <row r="17" spans="2:32" s="67" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="131"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="69" t="s">
         <v>15</v>
       </c>
@@ -4448,7 +4445,7 @@
       <c r="AF17" s="99"/>
     </row>
     <row r="18" spans="2:32" s="67" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="131"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="69" t="s">
         <v>12</v>
       </c>
@@ -4773,15 +4770,15 @@
       <c r="AF22" s="64"/>
     </row>
     <row r="23" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="132" t="str">
+      <c r="B23" s="128" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(IF(B38 = "Ionian (Major)", B29 &amp; " Major", IF(B38 = "Aolian (Minor)", B29 &amp; " Minor", B29 &amp; " " &amp; B38)), "#", "♯"), "b", "♭")</f>
         <v>E Pentatonic Minor</v>
       </c>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
       <c r="H23" s="64"/>
       <c r="I23" s="64"/>
       <c r="J23" s="105">
@@ -4830,12 +4827,12 @@
       <c r="AF23" s="64"/>
     </row>
     <row r="24" spans="2:32" s="63" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="132"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
       <c r="H24" s="64"/>
       <c r="I24" s="64"/>
       <c r="J24" s="79">
@@ -4884,12 +4881,12 @@
       <c r="AF24" s="64"/>
     </row>
     <row r="25" spans="2:32" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
       <c r="H25" s="64"/>
       <c r="I25" s="64"/>
       <c r="J25" s="124" t="str">
@@ -4938,12 +4935,12 @@
       <c r="AF25" s="64"/>
     </row>
     <row r="26" spans="2:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
       <c r="H26" s="65"/>
       <c r="I26" s="65"/>
       <c r="J26" s="106" t="str">
@@ -4992,16 +4989,16 @@
       <c r="AF26" s="65"/>
     </row>
     <row r="27" spans="2:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="133" t="s">
+      <c r="B27" s="128"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="133"/>
+      <c r="I27" s="129"/>
       <c r="J27" s="80" t="str">
         <f>Model!J28</f>
         <v>E</v>
@@ -5030,11 +5027,11 @@
         <f>IF(Model!O28=0, "", Model!P28)</f>
         <v>D</v>
       </c>
-      <c r="S27" s="134" t="s">
+      <c r="S27" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="T27" s="134"/>
-      <c r="U27" s="134"/>
+      <c r="T27" s="130"/>
+      <c r="U27" s="130"/>
       <c r="V27" s="111" t="str">
         <f>IF(Model!J26=1, "h", IF(Model!J26=2, "W", IF(Model!J26=3, "W+h", IF(Model!J26=4, "WW", IF(Model!J26=0, "", Model!J22)))))</f>
         <v/>
@@ -5063,10 +5060,10 @@
         <f>IF(Model!P26=1, "h", IF(Model!P26=2, "W", IF(Model!P26=3, "W+h", IF(Model!P26=4, "WW", IF(Model!P26=0, "", Model!P22)))))</f>
         <v>W</v>
       </c>
-      <c r="AE27" s="130" t="s">
+      <c r="AE27" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="AF27" s="130"/>
+      <c r="AF27" s="134"/>
     </row>
     <row r="28" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="104" t="s">
@@ -5187,7 +5184,7 @@
       </c>
     </row>
     <row r="29" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="129" t="s">
+      <c r="B29" s="133" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="68" t="s">
@@ -5306,7 +5303,7 @@
       </c>
     </row>
     <row r="30" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="129"/>
+      <c r="B30" s="133"/>
       <c r="C30" s="68" t="s">
         <v>16</v>
       </c>
@@ -5423,7 +5420,7 @@
       </c>
     </row>
     <row r="31" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="129"/>
+      <c r="B31" s="133"/>
       <c r="C31" s="68" t="s">
         <v>15</v>
       </c>
@@ -5540,7 +5537,7 @@
       </c>
     </row>
     <row r="32" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="129"/>
+      <c r="B32" s="133"/>
       <c r="C32" s="68" t="s">
         <v>12</v>
       </c>
@@ -5657,7 +5654,7 @@
       </c>
     </row>
     <row r="33" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="129"/>
+      <c r="B33" s="133"/>
       <c r="C33" s="68" t="s">
         <v>14</v>
       </c>
@@ -5774,7 +5771,7 @@
       </c>
     </row>
     <row r="34" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="131" t="s">
+      <c r="B34" s="127" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="68" t="s">
@@ -5893,7 +5890,7 @@
       </c>
     </row>
     <row r="35" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="131"/>
+      <c r="B35" s="127"/>
       <c r="C35" s="69" t="s">
         <v>16</v>
       </c>
@@ -6006,7 +6003,7 @@
       <c r="AF35" s="103"/>
     </row>
     <row r="36" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="131"/>
+      <c r="B36" s="127"/>
       <c r="C36" s="69" t="s">
         <v>15</v>
       </c>
@@ -6119,7 +6116,7 @@
       <c r="AF36" s="103"/>
     </row>
     <row r="37" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="131"/>
+      <c r="B37" s="127"/>
       <c r="C37" s="69" t="s">
         <v>12</v>
       </c>
@@ -6452,6 +6449,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="AF4:AF7"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AE27:AF27"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B23:G27"/>
     <mergeCell ref="H27:I27"/>
@@ -6460,12 +6463,6 @@
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B4:G8"/>
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="AF4:AF7"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AE27:AF27"/>
   </mergeCells>
   <conditionalFormatting sqref="AF4 AF10:AF19">
     <cfRule type="expression" dxfId="76" priority="526">
@@ -6772,8 +6769,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BO57"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -9132,8 +9129,8 @@
       <c r="W21" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X21" s="117" t="s">
-        <v>188</v>
+      <c r="X21" s="117">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="2:66" x14ac:dyDescent="0.25">
@@ -9191,7 +9188,7 @@
         <v>184</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V22" s="6" t="s">
         <v>185</v>
@@ -9258,8 +9255,8 @@
         <v>185</v>
       </c>
       <c r="U23" s="64"/>
-      <c r="V23" s="64" t="s">
-        <v>188</v>
+      <c r="V23" s="64">
+        <v>7</v>
       </c>
       <c r="W23" s="64"/>
       <c r="X23" s="118" t="s">
@@ -9325,8 +9322,8 @@
         <v>185</v>
       </c>
       <c r="W24" s="6"/>
-      <c r="X24" s="117" t="s">
-        <v>188</v>
+      <c r="X24" s="117">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:66" x14ac:dyDescent="0.25">
@@ -9377,19 +9374,19 @@
         <v>175</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S25" s="6"/>
       <c r="T25" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U25" s="6"/>
       <c r="V25" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W25" s="6"/>
       <c r="X25" s="117" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="2:66" x14ac:dyDescent="0.25">
@@ -9439,14 +9436,14 @@
       <c r="Q26" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="R26" s="64" t="s">
-        <v>188</v>
+      <c r="R26" s="64">
+        <v>7</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>185</v>
       </c>
       <c r="T26" s="64" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U26" s="64" t="s">
         <v>186</v>
@@ -9517,8 +9514,8 @@
       <c r="T27" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="U27" s="64" t="s">
-        <v>188</v>
+      <c r="U27" s="64">
+        <v>7</v>
       </c>
       <c r="V27" s="64" t="s">
         <v>185</v>
@@ -9578,25 +9575,25 @@
         <v>58</v>
       </c>
       <c r="R28" s="64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S28" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="T28" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="T28" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="U28" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="V28" s="6" t="s">
-        <v>188</v>
+      <c r="V28" s="6">
+        <v>7</v>
       </c>
       <c r="W28" s="6" t="s">
         <v>186</v>
       </c>
       <c r="X28" s="117" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="2:66" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -9627,8 +9624,8 @@
       <c r="U29" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="V29" s="64" t="s">
-        <v>188</v>
+      <c r="V29" s="64">
+        <v>7</v>
       </c>
       <c r="W29" s="64" t="s">
         <v>185</v>
@@ -9676,8 +9673,8 @@
       <c r="V30" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="W30" s="6" t="s">
-        <v>188</v>
+      <c r="W30" s="6">
+        <v>7</v>
       </c>
       <c r="X30" s="117" t="s">
         <v>185</v>
@@ -9703,8 +9700,8 @@
       <c r="R31" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="S31" s="64" t="s">
-        <v>188</v>
+      <c r="S31" s="64">
+        <v>7</v>
       </c>
       <c r="T31" s="64" t="s">
         <v>185</v>
@@ -9742,25 +9739,25 @@
         <v>57</v>
       </c>
       <c r="R32" s="64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S32" s="64" t="s">
         <v>185</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="U32" s="64" t="s">
-        <v>188</v>
-      </c>
-      <c r="V32" s="64" t="s">
-        <v>188</v>
+        <v>193</v>
+      </c>
+      <c r="U32" s="64">
+        <v>7</v>
+      </c>
+      <c r="V32" s="64">
+        <v>7</v>
       </c>
       <c r="W32" s="64" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X32" s="118" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.35">
@@ -9782,8 +9779,8 @@
       <c r="Q33" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="R33" s="64" t="s">
-        <v>188</v>
+      <c r="R33" s="64">
+        <v>7</v>
       </c>
       <c r="S33" s="64" t="s">
         <v>185</v>
@@ -9827,10 +9824,10 @@
         <v>184</v>
       </c>
       <c r="S34" s="64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T34" s="64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U34" s="6"/>
       <c r="V34" s="6">
@@ -9868,7 +9865,7 @@
         <v>184</v>
       </c>
       <c r="U35" s="64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V35" s="6">
         <v>5</v>
@@ -9903,8 +9900,8 @@
       <c r="S36" s="120" t="s">
         <v>186</v>
       </c>
-      <c r="T36" s="121" t="s">
-        <v>188</v>
+      <c r="T36" s="121">
+        <v>7</v>
       </c>
       <c r="U36" s="121" t="s">
         <v>185</v>

--- a/Shredsheets.xlsx
+++ b/Shredsheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Shredsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1C5ABF-65D0-498B-A549-043966DC2F36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D3C634-D99E-45AB-B207-6B9ABEC507DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27090" yWindow="1080" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fretboards" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="198">
   <si>
     <t>Ionian</t>
   </si>
@@ -607,9 +607,6 @@
     <t>M7</t>
   </si>
   <si>
-    <t>m7 dim</t>
-  </si>
-  <si>
     <t>5 add 7</t>
   </si>
   <si>
@@ -635,6 +632,12 @@
   </si>
   <si>
     <t>m7 harm</t>
+  </si>
+  <si>
+    <t>m7ø</t>
+  </si>
+  <si>
+    <t>Degree Coloring</t>
   </si>
 </sst>
 </file>
@@ -958,13 +961,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Eras Bold ITC"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="6"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Eras Demi ITC"/>
@@ -1001,15 +997,22 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="14"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Eras Bold ITC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="14"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="Segoe UI Light"/>
+      <name val="Eras Bold ITC"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1057,18 +1060,9 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="40">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -1503,7 +1497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1526,80 +1520,77 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1608,17 +1599,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1633,46 +1624,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1700,7 +1691,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1711,9 +1702,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1759,46 +1747,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1807,43 +1786,49 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1855,35 +1840,405 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="119">
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8CC068"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF81B2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -1931,86 +2286,6 @@
           <color theme="1" tint="0.34998626667073579"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3040,3421 +3315,3333 @@
   </sheetPr>
   <dimension ref="B1:AF41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" style="66" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="66" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="66" customWidth="1"/>
-    <col min="4" max="4" width="0.85546875" style="66" customWidth="1"/>
-    <col min="5" max="29" width="8" style="66" customWidth="1"/>
-    <col min="30" max="30" width="4.28515625" style="66" customWidth="1"/>
-    <col min="31" max="31" width="12.85546875" style="75" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" style="66" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="66"/>
+    <col min="1" max="1" width="4" style="65" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="65" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="0.85546875" style="65" customWidth="1"/>
+    <col min="5" max="29" width="8" style="65" customWidth="1"/>
+    <col min="30" max="30" width="4.28515625" style="65" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" style="74" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" style="65" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" s="63" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="63">
+    <row r="1" spans="2:32" s="62" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="62">
         <v>0</v>
       </c>
-      <c r="F1" s="63">
-        <v>1</v>
-      </c>
-      <c r="G1" s="63">
+      <c r="F1" s="62">
+        <v>1</v>
+      </c>
+      <c r="G1" s="62">
         <v>2</v>
       </c>
-      <c r="H1" s="63">
+      <c r="H1" s="62">
         <v>3</v>
       </c>
-      <c r="I1" s="63">
+      <c r="I1" s="62">
         <v>4</v>
       </c>
-      <c r="J1" s="63">
+      <c r="J1" s="62">
         <v>5</v>
       </c>
-      <c r="K1" s="63">
+      <c r="K1" s="62">
         <v>6</v>
       </c>
-      <c r="L1" s="63">
+      <c r="L1" s="62">
         <v>7</v>
       </c>
-      <c r="M1" s="63">
+      <c r="M1" s="62">
         <v>8</v>
       </c>
-      <c r="N1" s="63">
+      <c r="N1" s="62">
         <v>9</v>
       </c>
-      <c r="O1" s="63">
+      <c r="O1" s="62">
         <v>10</v>
       </c>
-      <c r="P1" s="63">
+      <c r="P1" s="62">
         <v>11</v>
       </c>
-      <c r="Q1" s="63">
+      <c r="Q1" s="62">
         <v>12</v>
       </c>
-      <c r="R1" s="63">
+      <c r="R1" s="62">
         <v>13</v>
       </c>
-      <c r="S1" s="63">
+      <c r="S1" s="62">
         <v>14</v>
       </c>
-      <c r="T1" s="63">
+      <c r="T1" s="62">
         <v>15</v>
       </c>
-      <c r="U1" s="63">
+      <c r="U1" s="62">
         <v>16</v>
       </c>
-      <c r="V1" s="63">
+      <c r="V1" s="62">
         <v>17</v>
       </c>
-      <c r="W1" s="63">
+      <c r="W1" s="62">
         <v>18</v>
       </c>
-      <c r="X1" s="63">
+      <c r="X1" s="62">
         <v>19</v>
       </c>
-      <c r="Y1" s="63">
+      <c r="Y1" s="62">
         <v>20</v>
       </c>
-      <c r="Z1" s="63">
+      <c r="Z1" s="62">
         <v>21</v>
       </c>
-      <c r="AA1" s="63">
+      <c r="AA1" s="62">
         <v>22</v>
       </c>
-      <c r="AB1" s="63">
+      <c r="AB1" s="62">
         <v>23</v>
       </c>
-      <c r="AC1" s="63">
+      <c r="AC1" s="62">
         <v>24</v>
       </c>
-      <c r="AE1" s="93"/>
+      <c r="AE1" s="91"/>
     </row>
-    <row r="2" spans="2:32" s="63" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AE2" s="93"/>
+    <row r="2" spans="2:32" s="62" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE2" s="91"/>
     </row>
-    <row r="3" spans="2:32" s="64" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="J3" s="94" t="s">
+    <row r="3" spans="2:32" s="63" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="J3" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="77" t="s">
+      <c r="K3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="94" t="s">
+      <c r="L3" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="77" t="s">
+      <c r="M3" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="94" t="s">
+      <c r="N3" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="77" t="s">
+      <c r="O3" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="94" t="s">
+      <c r="P3" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="63"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="62"/>
     </row>
-    <row r="4" spans="2:32" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="128" t="str">
+    <row r="4" spans="2:32" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="125" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(IF(B19 = "Ionian (Major)", B10 &amp; " Major", IF(B19 = "Aolian (Minor)", B10 &amp; " Minor", B10 &amp; " " &amp; B19)), "#", "♯"), "b", "♭")</f>
         <v>C Major</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="J4" s="105">
-        <f t="shared" ref="J4:P4" si="0">IF(J8 = "", "", IF(J5 = 0, F$1, J5))</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="105">
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="K4" s="134">
+        <f>IF(J8 = "", "", IF(K5 = 0, F$1, K5))</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134">
+        <f>IF(K8 = "", "", IF(M5 = 0, G$1, M5))</f>
+        <v>2</v>
+      </c>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134">
+        <f>IF(L8 = "", "", IF(O5 = 0, H$1, O5))</f>
+        <v>3</v>
+      </c>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134">
+        <f>IF(M8 = "", "", IF(Q5 = 0, I$1, Q5))</f>
+        <v>4</v>
+      </c>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134">
+        <f>IF(N8 = "", "", IF(S5 = 0, J$1, S5))</f>
+        <v>5</v>
+      </c>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134">
+        <f>IF(O8 = "", "", IF(U5 = 0, K$1, U5))</f>
+        <v>6</v>
+      </c>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134">
+        <f>IF(P8 = "", "", IF(W5 = 0, L$1, W5))</f>
+        <v>7</v>
+      </c>
+      <c r="X4" s="134"/>
+      <c r="AE4" s="120" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF4" s="121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" s="63" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="K5" s="132">
+        <f>IFERROR(HLOOKUP(F$1, Model!$Q$1:$X$17, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132">
+        <f>IFERROR(HLOOKUP(G$1, Model!$Q$1:$X$17, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), G$1)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="132"/>
+      <c r="O5" s="132">
+        <f>IFERROR(HLOOKUP(H$1, Model!$Q$1:$X$17, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), H$1)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="132"/>
+      <c r="Q5" s="132">
+        <f>IFERROR(HLOOKUP(I$1, Model!$Q$1:$X$17, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), I$1)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="132"/>
+      <c r="S5" s="132">
+        <f>IFERROR(HLOOKUP(J$1, Model!$Q$1:$X$17, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), J$1)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="132"/>
+      <c r="U5" s="132">
+        <f>IFERROR(HLOOKUP(K$1, Model!$Q$1:$X$17, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), K$1)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="132"/>
+      <c r="W5" s="132">
+        <f>IFERROR(HLOOKUP(L$1, Model!$Q$1:$X$17, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), L$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="132"/>
+      <c r="AE5" s="120"/>
+      <c r="AF5" s="121"/>
+    </row>
+    <row r="6" spans="2:32" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="K6" s="133" t="str">
+        <f>IF(K$4="","", J$8 &amp; IFERROR(HLOOKUP(F$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), F$1))</f>
+        <v>CM7</v>
+      </c>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133" t="str">
+        <f>IF(M$4="","", K$8 &amp; IFERROR(HLOOKUP(G$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), G$1))</f>
+        <v>Dm7</v>
+      </c>
+      <c r="N6" s="133"/>
+      <c r="O6" s="133" t="str">
+        <f>IF(O$4="","", L$8 &amp; IFERROR(HLOOKUP(H$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), H$1))</f>
+        <v>Em7</v>
+      </c>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="133" t="str">
+        <f>IF(Q$4="","", M$8 &amp; IFERROR(HLOOKUP(I$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), I$1))</f>
+        <v>FM7</v>
+      </c>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133" t="str">
+        <f>IF(S$4="","", N$8 &amp; IFERROR(HLOOKUP(J$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), J$1))</f>
+        <v>G7</v>
+      </c>
+      <c r="T6" s="133"/>
+      <c r="U6" s="133" t="str">
+        <f>IF(U$4="","", O$8 &amp; IFERROR(HLOOKUP(K$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), K$1))</f>
+        <v>Am7</v>
+      </c>
+      <c r="V6" s="133"/>
+      <c r="W6" s="133" t="str">
+        <f>IF(W$4="","", P$8 &amp; IFERROR(HLOOKUP(L$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), L$1))</f>
+        <v>Bm7ø</v>
+      </c>
+      <c r="X6" s="133"/>
+      <c r="AE6" s="120"/>
+      <c r="AF6" s="121"/>
+    </row>
+    <row r="7" spans="2:32" s="64" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="AE7" s="120"/>
+      <c r="AF7" s="121"/>
+    </row>
+    <row r="8" spans="2:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="126"/>
+      <c r="J8" s="78" t="str">
+        <f>Model!J24</f>
+        <v>C</v>
+      </c>
+      <c r="K8" s="79" t="str">
+        <f>IF(Model!J22=0, "", Model!K24)</f>
+        <v>D</v>
+      </c>
+      <c r="L8" s="80" t="str">
+        <f>IF(Model!K22=0, "", Model!L24)</f>
+        <v>E</v>
+      </c>
+      <c r="M8" s="81" t="str">
+        <f>IF(Model!L22=0, "", Model!M24)</f>
+        <v>F</v>
+      </c>
+      <c r="N8" s="82" t="str">
+        <f>IF(Model!M22=0, "", Model!N24)</f>
+        <v>G</v>
+      </c>
+      <c r="O8" s="83" t="str">
+        <f>IF(Model!N22=0, "", Model!O24)</f>
+        <v>A</v>
+      </c>
+      <c r="P8" s="84" t="str">
+        <f>IF(Model!O22=0, "", Model!P24)</f>
+        <v>B</v>
+      </c>
+      <c r="S8" s="127" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="127"/>
+      <c r="U8" s="127"/>
+      <c r="V8" s="105" t="str">
+        <f>IF(Model!J22=1, "h", IF(Model!J22=2, "W", IF(Model!J22=3, "W+h", IF(Model!J22=4, "WW", IF(Model!J22=0, "", Model!J22)))))</f>
+        <v>W</v>
+      </c>
+      <c r="W8" s="85" t="str">
+        <f>IF(Model!K22=1, "h", IF(Model!K22=2, "W", IF(Model!K22=3, "W+h", IF(Model!K22=4, "WW", IF(Model!K22=0, "", Model!K22)))))</f>
+        <v>W</v>
+      </c>
+      <c r="X8" s="86" t="str">
+        <f>IF(Model!L22=1, "h", IF(Model!L22=2, "W", IF(Model!L22=3, "W+h", IF(Model!L22=4, "WW", IF(Model!L22=0, "", Model!L22)))))</f>
+        <v>h</v>
+      </c>
+      <c r="Y8" s="87" t="str">
+        <f>IF(Model!M22=1, "h", IF(Model!M22=2, "W", IF(Model!M22=3, "W+h",IF(Model!M22=4, "WW", IF(Model!M22=0, "", Model!M22)))))</f>
+        <v>W</v>
+      </c>
+      <c r="Z8" s="88" t="str">
+        <f>IF(Model!N22=1, "h", IF(Model!N22=2, "W", IF(Model!N22=3, "W+h",IF(Model!N22=4, "WW", IF(Model!N22=0, "", Model!N22)))))</f>
+        <v>W</v>
+      </c>
+      <c r="AA8" s="89" t="str">
+        <f>IF(Model!O22=1, "h", IF(Model!O22=2, "W", IF(Model!O22=3, "W+h", IF(Model!O22=4, "WW", IF(Model!O22=0, "", Model!O22)))))</f>
+        <v>W</v>
+      </c>
+      <c r="AB8" s="90" t="str">
+        <f>IF(Model!P22=1, "h", IF(Model!P22=2, "W", IF(Model!P22=3, "W+h",IF(Model!P22=4, "WW", IF(Model!P22=0, "", Model!P22)))))</f>
+        <v>h</v>
+      </c>
+      <c r="AE8" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="123"/>
+    </row>
+    <row r="9" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="54">
+        <f t="shared" ref="E9:AC9" si="0">IF($AF$4, 24-E$1, E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="53">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L4" s="105">
+      <c r="H9" s="51">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M4" s="105">
+      <c r="I9" s="53">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N4" s="105">
+      <c r="J9" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O4" s="105">
+      <c r="K9" s="53">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P4" s="105">
+      <c r="L9" s="51">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AE4" s="131" t="s">
+      <c r="M9" s="53">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="51">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O9" s="53">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P9" s="53">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q9" s="52">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R9" s="53">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="S9" s="53">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="T9" s="51">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="U9" s="53">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="V9" s="51">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="W9" s="53">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="X9" s="51">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Y9" s="53">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="AF4" s="132" t="b">
-        <v>0</v>
+      <c r="Z9" s="51">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="AA9" s="53">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AB9" s="53">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AC9" s="58">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AE9" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="104" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:32" s="64" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="J5" s="107">
-        <f>IFERROR(HLOOKUP(F$1, Model!$Q$1:$X$17, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), F$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="107">
-        <f>IFERROR(HLOOKUP(G$1, Model!$Q$1:$X$17, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), G$1)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="107">
-        <f>IFERROR(HLOOKUP(H$1, Model!$Q$1:$X$17, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), H$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="107">
-        <f>IFERROR(HLOOKUP(I$1, Model!$Q$1:$X$17, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), I$1)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="107">
-        <f>IFERROR(HLOOKUP(J$1, Model!$Q$1:$X$17, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), J$1)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="107">
-        <f>IFERROR(HLOOKUP(K$1, Model!$Q$1:$X$17, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), K$1)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="107">
-        <f>IFERROR(HLOOKUP(L$1, Model!$Q$1:$X$17, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), L$1)</f>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="131"/>
-      <c r="AF5" s="132"/>
-    </row>
-    <row r="6" spans="2:32" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="J6" s="123" t="str">
-        <f>IF(J$4="","", J$8 &amp; IFERROR(HLOOKUP(F$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), F$1))</f>
-        <v>CM7</v>
-      </c>
-      <c r="K6" s="123" t="str">
-        <f>IF(K$4="","", K$8 &amp; IFERROR(HLOOKUP(G$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), G$1))</f>
-        <v>Dm7</v>
-      </c>
-      <c r="L6" s="123" t="str">
-        <f>IF(L$4="","", L$8 &amp; IFERROR(HLOOKUP(H$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), H$1))</f>
-        <v>Em7</v>
-      </c>
-      <c r="M6" s="123" t="str">
-        <f>IF(M$4="","", M$8 &amp; IFERROR(HLOOKUP(I$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), I$1))</f>
-        <v>FM7</v>
-      </c>
-      <c r="N6" s="123" t="str">
-        <f>IF(N$4="","", N$8 &amp; IFERROR(HLOOKUP(J$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), J$1))</f>
-        <v>G7</v>
-      </c>
-      <c r="O6" s="123" t="str">
-        <f>IF(O$4="","", O$8 &amp; IFERROR(HLOOKUP(K$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), K$1))</f>
-        <v>Am7</v>
-      </c>
-      <c r="P6" s="123" t="str">
-        <f>IF(P$4="","", P$8 &amp; IFERROR(HLOOKUP(L$1, Model!$Q$20:$X$36, MATCH($B$19, Model!$Q$2:$Q$20, 0) + 1), L$1))</f>
-        <v>Bm7 dim</v>
-      </c>
-      <c r="AE6" s="131"/>
-      <c r="AF6" s="132"/>
-    </row>
-    <row r="7" spans="2:32" s="65" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="J7" s="108" t="str">
-        <f t="shared" ref="J7:P7" si="1">IF(J4="","",J3)</f>
-        <v>Tonic</v>
-      </c>
-      <c r="K7" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>Supertonic</v>
-      </c>
-      <c r="L7" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>Mediant</v>
-      </c>
-      <c r="M7" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>Subdominant</v>
-      </c>
-      <c r="N7" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>Dominant</v>
-      </c>
-      <c r="O7" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>Submediant</v>
-      </c>
-      <c r="P7" s="108" t="str">
-        <f t="shared" si="1"/>
-        <v>Leading Tone</v>
-      </c>
-      <c r="AE7" s="131"/>
-      <c r="AF7" s="132"/>
-    </row>
-    <row r="8" spans="2:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="129"/>
-      <c r="J8" s="80" t="str">
-        <f>Model!J24</f>
-        <v>C</v>
-      </c>
-      <c r="K8" s="81" t="str">
-        <f>IF(Model!J22=0, "", Model!K24)</f>
-        <v>D</v>
-      </c>
-      <c r="L8" s="82" t="str">
-        <f>IF(Model!K22=0, "", Model!L24)</f>
-        <v>E</v>
-      </c>
-      <c r="M8" s="83" t="str">
-        <f>IF(Model!L22=0, "", Model!M24)</f>
-        <v>F</v>
-      </c>
-      <c r="N8" s="84" t="str">
-        <f>IF(Model!M22=0, "", Model!N24)</f>
-        <v>G</v>
-      </c>
-      <c r="O8" s="85" t="str">
-        <f>IF(Model!N22=0, "", Model!O24)</f>
-        <v>A</v>
-      </c>
-      <c r="P8" s="86" t="str">
-        <f>IF(Model!O22=0, "", Model!P24)</f>
-        <v>B</v>
-      </c>
-      <c r="S8" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" s="130"/>
-      <c r="U8" s="130"/>
-      <c r="V8" s="111" t="str">
-        <f>IF(Model!J22=1, "h", IF(Model!J22=2, "W", IF(Model!J22=3, "W+h", IF(Model!J22=4, "WW", IF(Model!J22=0, "", Model!J22)))))</f>
-        <v>W</v>
-      </c>
-      <c r="W8" s="87" t="str">
-        <f>IF(Model!K22=1, "h", IF(Model!K22=2, "W", IF(Model!K22=3, "W+h", IF(Model!K22=4, "WW", IF(Model!K22=0, "", Model!K22)))))</f>
-        <v>W</v>
-      </c>
-      <c r="X8" s="88" t="str">
-        <f>IF(Model!L22=1, "h", IF(Model!L22=2, "W", IF(Model!L22=3, "W+h", IF(Model!L22=4, "WW", IF(Model!L22=0, "", Model!L22)))))</f>
-        <v>h</v>
-      </c>
-      <c r="Y8" s="89" t="str">
-        <f>IF(Model!M22=1, "h", IF(Model!M22=2, "W", IF(Model!M22=3, "W+h",IF(Model!M22=4, "WW", IF(Model!M22=0, "", Model!M22)))))</f>
-        <v>W</v>
-      </c>
-      <c r="Z8" s="90" t="str">
-        <f>IF(Model!N22=1, "h", IF(Model!N22=2, "W", IF(Model!N22=3, "W+h",IF(Model!N22=4, "WW", IF(Model!N22=0, "", Model!N22)))))</f>
-        <v>W</v>
-      </c>
-      <c r="AA8" s="91" t="str">
-        <f>IF(Model!O22=1, "h", IF(Model!O22=2, "W", IF(Model!O22=3, "W+h", IF(Model!O22=4, "WW", IF(Model!O22=0, "", Model!O22)))))</f>
-        <v>W</v>
-      </c>
-      <c r="AB8" s="92" t="str">
-        <f>IF(Model!P22=1, "h", IF(Model!P22=2, "W", IF(Model!P22=3, "W+h",IF(Model!P22=4, "WW", IF(Model!P22=0, "", Model!P22)))))</f>
-        <v>h</v>
-      </c>
-      <c r="AE8" s="134" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF8" s="134"/>
-    </row>
-    <row r="9" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="55">
-        <f t="shared" ref="E9:AC9" si="2">IF($AF$4, 24-E$1, E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="54">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G9" s="54">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H9" s="52">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="I9" s="54">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J9" s="52">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="K9" s="54">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="L9" s="52">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="M9" s="54">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="N9" s="52">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="O9" s="54">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="P9" s="54">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="Q9" s="53">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="R9" s="54">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="S9" s="54">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="T9" s="52">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="U9" s="54">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="V9" s="52">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="W9" s="54">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="X9" s="52">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="Y9" s="54">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="Z9" s="52">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="AA9" s="54">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="AB9" s="54">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="AC9" s="59">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="AE9" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF9" s="110" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:32" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="68" t="s">
+    <row r="10" spans="2:32" s="66" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="67" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C10), Model!$C$2:$E$41, 3)</f>
         <v>4</v>
       </c>
-      <c r="E10" s="50" t="str">
+      <c r="E10" s="49" t="str">
         <f>IFERROR(HLOOKUP(MATCH($D10+E$9, Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+E$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="F10" s="60" t="str">
+      <c r="F10" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+F$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+F$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>F : 4</v>
       </c>
-      <c r="G10" s="60" t="str">
+      <c r="G10" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+G$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+G$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="H10" s="61" t="str">
+      <c r="H10" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+H$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+H$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="I10" s="60" t="str">
+      <c r="I10" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+I$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+I$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="J10" s="61" t="str">
+      <c r="J10" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+J$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+J$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="K10" s="60" t="str">
+      <c r="K10" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+K$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+K$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="L10" s="61" t="str">
+      <c r="L10" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+L$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+L$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="M10" s="60" t="str">
+      <c r="M10" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+M$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+M$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="N10" s="61" t="str">
+      <c r="N10" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+N$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+N$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="O10" s="60" t="str">
+      <c r="O10" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+O$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+O$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="P10" s="60" t="str">
+      <c r="P10" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+P$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+P$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="Q10" s="62" t="str">
+      <c r="Q10" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+Q$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+Q$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="R10" s="60" t="str">
+      <c r="R10" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+R$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+R$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>F : 4</v>
       </c>
-      <c r="S10" s="60" t="str">
+      <c r="S10" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+S$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+S$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="T10" s="61" t="str">
+      <c r="T10" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+T$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+T$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="U10" s="60" t="str">
+      <c r="U10" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+U$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+U$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="V10" s="61" t="str">
+      <c r="V10" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+V$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+V$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="W10" s="60" t="str">
+      <c r="W10" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+W$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+W$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="X10" s="61" t="str">
+      <c r="X10" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+X$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+X$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="Y10" s="60" t="str">
+      <c r="Y10" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+Y$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+Y$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="Z10" s="61" t="str">
+      <c r="Z10" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+Z$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+Z$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="AA10" s="60" t="str">
+      <c r="AA10" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AA$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AA$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="AB10" s="60" t="str">
+      <c r="AB10" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AB$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AB$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="AC10" s="62" t="str">
+      <c r="AC10" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AC$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AC$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="AE10" s="95" t="s">
+      <c r="AE10" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="96" t="b">
+      <c r="AF10" s="94" t="b">
+        <f>HLOOKUP(F$1, Model!$J$40:$P$56, MATCH($B$19, Model!$I$40:$I$56, 0))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:32" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="133"/>
-      <c r="C11" s="68" t="s">
+    <row r="11" spans="2:32" s="66" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="122"/>
+      <c r="C11" s="67" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C11), Model!$C$2:$E$41, 3)</f>
         <v>11</v>
       </c>
-      <c r="E11" s="51" t="str">
+      <c r="E11" s="50" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+E$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+E$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="F11" s="60" t="str">
+      <c r="F11" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+F$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+F$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="G11" s="60" t="str">
+      <c r="G11" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+G$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+G$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="H11" s="61" t="str">
+      <c r="H11" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+H$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+H$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="I11" s="60" t="str">
+      <c r="I11" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+I$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+I$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="J11" s="61" t="str">
+      <c r="J11" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+J$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+J$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="K11" s="60" t="str">
+      <c r="K11" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+K$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+K$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>F : 4</v>
       </c>
-      <c r="L11" s="61" t="str">
+      <c r="L11" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+L$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+L$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="M11" s="60" t="str">
+      <c r="M11" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+M$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+M$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="N11" s="61" t="str">
+      <c r="N11" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+N$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+N$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="O11" s="60" t="str">
+      <c r="O11" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+O$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+O$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="P11" s="60" t="str">
+      <c r="P11" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+P$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+P$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="Q11" s="62" t="str">
+      <c r="Q11" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Q$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Q$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="R11" s="60" t="str">
+      <c r="R11" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+R$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+R$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="S11" s="60" t="str">
+      <c r="S11" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+S$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+S$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="T11" s="61" t="str">
+      <c r="T11" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+T$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+T$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="U11" s="60" t="str">
+      <c r="U11" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+U$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+U$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="V11" s="61" t="str">
+      <c r="V11" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+V$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+V$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="W11" s="60" t="str">
+      <c r="W11" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+W$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+W$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>F : 4</v>
       </c>
-      <c r="X11" s="61" t="str">
+      <c r="X11" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+X$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+X$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="Y11" s="60" t="str">
+      <c r="Y11" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Y$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Y$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="Z11" s="61" t="str">
+      <c r="Z11" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Z$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Z$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="AA11" s="60" t="str">
+      <c r="AA11" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AA$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AA$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="AB11" s="60" t="str">
+      <c r="AB11" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AB$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AB$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="AC11" s="62" t="str">
+      <c r="AC11" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AC$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AC$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="AE11" s="97" t="s">
+      <c r="AE11" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="AF11" s="96" t="b">
+      <c r="AF11" s="94" t="b">
+        <f>HLOOKUP(G$1, Model!$J$40:$P$56, MATCH($B$19, Model!$I$40:$I$56, 0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:32" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="133"/>
-      <c r="C12" s="68" t="s">
+    <row r="12" spans="2:32" s="66" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="122"/>
+      <c r="C12" s="67" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C12), Model!$C$2:$E$41, 3)</f>
         <v>7</v>
       </c>
-      <c r="E12" s="51" t="str">
+      <c r="E12" s="50" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+E$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+E$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="F12" s="60" t="str">
+      <c r="F12" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+F$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+F$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="G12" s="60" t="str">
+      <c r="G12" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+G$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+G$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="H12" s="61" t="str">
+      <c r="H12" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+H$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+H$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="I12" s="60" t="str">
+      <c r="I12" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+I$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+I$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="J12" s="61" t="str">
+      <c r="J12" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+J$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+J$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="K12" s="60" t="str">
+      <c r="K12" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+K$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+K$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="L12" s="61" t="str">
+      <c r="L12" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+L$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+L$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="M12" s="60" t="str">
+      <c r="M12" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+M$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+M$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="N12" s="61" t="str">
+      <c r="N12" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+N$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+N$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="O12" s="60" t="str">
+      <c r="O12" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+O$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+O$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>F : 4</v>
       </c>
-      <c r="P12" s="60" t="str">
+      <c r="P12" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+P$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+P$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="Q12" s="62" t="str">
+      <c r="Q12" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Q$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Q$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="R12" s="60" t="str">
+      <c r="R12" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+R$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+R$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="S12" s="60" t="str">
+      <c r="S12" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+S$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+S$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="T12" s="61" t="str">
+      <c r="T12" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+T$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+T$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="U12" s="60" t="str">
+      <c r="U12" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+U$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+U$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="V12" s="61" t="str">
+      <c r="V12" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+V$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+V$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="W12" s="60" t="str">
+      <c r="W12" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+W$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+W$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="X12" s="61" t="str">
+      <c r="X12" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+X$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+X$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="Y12" s="60" t="str">
+      <c r="Y12" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Y$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Y$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="Z12" s="61" t="str">
+      <c r="Z12" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Z$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Z$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="AA12" s="60" t="str">
+      <c r="AA12" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AA$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AA$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>F : 4</v>
       </c>
-      <c r="AB12" s="60" t="str">
+      <c r="AB12" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AB$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AB$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="AC12" s="62" t="str">
+      <c r="AC12" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AC$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AC$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="AE12" s="97" t="s">
+      <c r="AE12" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="AF12" s="96" t="b">
+      <c r="AF12" s="94" t="b">
+        <f>HLOOKUP(H$1, Model!$J$40:$P$56, MATCH($B$19, Model!$I$40:$I$56, 0))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:32" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="133"/>
-      <c r="C13" s="68" t="s">
+    <row r="13" spans="2:32" s="66" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="122"/>
+      <c r="C13" s="67" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C13), Model!$C$2:$E$41, 3)</f>
         <v>2</v>
       </c>
-      <c r="E13" s="51" t="str">
+      <c r="E13" s="50" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+E$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+E$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="F13" s="60" t="str">
+      <c r="F13" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+F$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+F$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="G13" s="60" t="str">
+      <c r="G13" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+G$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+G$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="H13" s="61" t="str">
+      <c r="H13" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+H$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+H$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>F : 4</v>
       </c>
-      <c r="I13" s="60" t="str">
+      <c r="I13" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+I$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+I$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="J13" s="61" t="str">
+      <c r="J13" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+J$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+J$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="K13" s="60" t="str">
+      <c r="K13" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+K$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+K$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="L13" s="61" t="str">
+      <c r="L13" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+L$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+L$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="M13" s="60" t="str">
+      <c r="M13" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+M$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+M$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="N13" s="61" t="str">
+      <c r="N13" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+N$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+N$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="O13" s="60" t="str">
+      <c r="O13" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+O$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+O$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="P13" s="60" t="str">
+      <c r="P13" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+P$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+P$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="Q13" s="62" t="str">
+      <c r="Q13" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Q$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Q$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="R13" s="60" t="str">
+      <c r="R13" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+R$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+R$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="S13" s="60" t="str">
+      <c r="S13" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+S$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+S$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="T13" s="61" t="str">
+      <c r="T13" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+T$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+T$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>F : 4</v>
       </c>
-      <c r="U13" s="60" t="str">
+      <c r="U13" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+U$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+U$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="V13" s="61" t="str">
+      <c r="V13" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+V$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+V$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="W13" s="60" t="str">
+      <c r="W13" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+W$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+W$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="X13" s="61" t="str">
+      <c r="X13" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+X$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+X$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="Y13" s="60" t="str">
+      <c r="Y13" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Y$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Y$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="Z13" s="61" t="str">
+      <c r="Z13" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Z$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Z$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="AA13" s="60" t="str">
+      <c r="AA13" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AA$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AA$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="AB13" s="60" t="str">
+      <c r="AB13" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AB$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AB$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="AC13" s="62" t="str">
+      <c r="AC13" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AC$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AC$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="AE13" s="97" t="s">
+      <c r="AE13" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="AF13" s="96" t="b">
+      <c r="AF13" s="94" t="b">
+        <f>HLOOKUP(I$1, Model!$J$40:$P$56, MATCH($B$19, Model!$I$40:$I$56, 0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:32" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="133"/>
-      <c r="C14" s="68" t="s">
+    <row r="14" spans="2:32" s="66" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="122"/>
+      <c r="C14" s="67" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C14), Model!$C$2:$E$41, 3)</f>
         <v>9</v>
       </c>
-      <c r="E14" s="51" t="str">
+      <c r="E14" s="50" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+E$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+E$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="F14" s="60" t="str">
+      <c r="F14" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+F$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+F$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="G14" s="60" t="str">
+      <c r="G14" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+G$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+G$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="H14" s="61" t="str">
+      <c r="H14" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+H$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+H$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="I14" s="60" t="str">
+      <c r="I14" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+I$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+I$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="J14" s="61" t="str">
+      <c r="J14" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+J$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+J$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="K14" s="60" t="str">
+      <c r="K14" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+K$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+K$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="L14" s="61" t="str">
+      <c r="L14" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+L$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+L$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="M14" s="60" t="str">
+      <c r="M14" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+M$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+M$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>F : 4</v>
       </c>
-      <c r="N14" s="61" t="str">
+      <c r="N14" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+N$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+N$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="O14" s="60" t="str">
+      <c r="O14" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+O$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+O$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="P14" s="60" t="str">
+      <c r="P14" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+P$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+P$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="Q14" s="62" t="str">
+      <c r="Q14" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Q$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Q$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="R14" s="60" t="str">
+      <c r="R14" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+R$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+R$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="S14" s="60" t="str">
+      <c r="S14" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+S$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+S$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="T14" s="61" t="str">
+      <c r="T14" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+T$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+T$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="U14" s="60" t="str">
+      <c r="U14" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+U$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+U$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="V14" s="61" t="str">
+      <c r="V14" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+V$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+V$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="W14" s="60" t="str">
+      <c r="W14" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+W$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+W$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="X14" s="61" t="str">
+      <c r="X14" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+X$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+X$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="Y14" s="60" t="str">
+      <c r="Y14" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Y$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Y$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>F : 4</v>
       </c>
-      <c r="Z14" s="61" t="str">
+      <c r="Z14" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Z$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Z$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="AA14" s="60" t="str">
+      <c r="AA14" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AA$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AA$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="AB14" s="60" t="str">
+      <c r="AB14" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AB$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AB$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="AC14" s="62" t="str">
+      <c r="AC14" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AC$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AC$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="AE14" s="97" t="s">
+      <c r="AE14" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="AF14" s="96" t="b">
+      <c r="AF14" s="94" t="b">
+        <f>HLOOKUP(J$1, Model!$J$40:$P$56, MATCH($B$19, Model!$I$40:$I$56, 0))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:32" s="67" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="127" t="s">
+    <row r="15" spans="2:32" s="66" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="67" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C15), Model!$C$2:$E$41, 3)</f>
         <v>4</v>
       </c>
-      <c r="E15" s="51" t="str">
+      <c r="E15" s="50" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+E$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+E$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="F15" s="60" t="str">
+      <c r="F15" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+F$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+F$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>F : 4</v>
       </c>
-      <c r="G15" s="60" t="str">
+      <c r="G15" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+G$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+G$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="H15" s="61" t="str">
+      <c r="H15" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+H$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+H$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="I15" s="60" t="str">
+      <c r="I15" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+I$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+I$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="J15" s="61" t="str">
+      <c r="J15" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+J$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+J$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="K15" s="60" t="str">
+      <c r="K15" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+K$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+K$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="L15" s="61" t="str">
+      <c r="L15" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+L$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+L$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="M15" s="60" t="str">
+      <c r="M15" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+M$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+M$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="N15" s="61" t="str">
+      <c r="N15" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+N$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+N$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="O15" s="60" t="str">
+      <c r="O15" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+O$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+O$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="P15" s="60" t="str">
+      <c r="P15" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+P$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+P$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="Q15" s="62" t="str">
+      <c r="Q15" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+Q$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+Q$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="R15" s="60" t="str">
+      <c r="R15" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+R$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+R$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>F : 4</v>
       </c>
-      <c r="S15" s="60" t="str">
+      <c r="S15" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+S$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+S$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="T15" s="61" t="str">
+      <c r="T15" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+T$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+T$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="U15" s="60" t="str">
+      <c r="U15" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+U$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+U$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="V15" s="61" t="str">
+      <c r="V15" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+V$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+V$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="W15" s="60" t="str">
+      <c r="W15" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+W$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+W$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="X15" s="61" t="str">
+      <c r="X15" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+X$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+X$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="Y15" s="60" t="str">
+      <c r="Y15" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+Y$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+Y$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="Z15" s="61" t="str">
+      <c r="Z15" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+Z$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+Z$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="AA15" s="60" t="str">
+      <c r="AA15" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AA$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AA$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="AB15" s="60" t="str">
+      <c r="AB15" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AB$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AB$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="AC15" s="62" t="str">
+      <c r="AC15" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AC$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AC$9, 12), Model!$J$23:$P$23, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="AE15" s="97" t="s">
+      <c r="AE15" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="AF15" s="96" t="b">
+      <c r="AF15" s="94" t="b">
+        <f>HLOOKUP(K$1, Model!$J$40:$P$56, MATCH($B$19, Model!$I$40:$I$56, 0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:32" s="67" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="127"/>
-      <c r="C16" s="69" t="s">
+    <row r="16" spans="2:32" s="66" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="124"/>
+      <c r="C16" s="68" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C16), Model!$C$2:$E$41, 3)</f>
         <v>11</v>
       </c>
-      <c r="E16" s="51" t="str">
+      <c r="E16" s="50" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+E$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+E$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="F16" s="60" t="str">
+      <c r="F16" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+F$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+F$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="G16" s="60" t="str">
+      <c r="G16" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+G$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+G$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="H16" s="61" t="str">
+      <c r="H16" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+H$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+H$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="I16" s="60" t="str">
+      <c r="I16" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+I$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+I$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="J16" s="61" t="str">
+      <c r="J16" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+J$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+J$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="K16" s="60" t="str">
+      <c r="K16" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+K$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+K$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>F : 4</v>
       </c>
-      <c r="L16" s="61" t="str">
+      <c r="L16" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+L$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+L$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="M16" s="60" t="str">
+      <c r="M16" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+M$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+M$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="N16" s="61" t="str">
+      <c r="N16" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+N$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+N$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="O16" s="60" t="str">
+      <c r="O16" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+O$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+O$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="P16" s="60" t="str">
+      <c r="P16" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+P$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+P$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="Q16" s="62" t="str">
+      <c r="Q16" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Q$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+Q$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="R16" s="60" t="str">
+      <c r="R16" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+R$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+R$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="S16" s="60" t="str">
+      <c r="S16" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+S$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+S$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="T16" s="61" t="str">
+      <c r="T16" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+T$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+T$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="U16" s="60" t="str">
+      <c r="U16" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+U$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+U$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="V16" s="61" t="str">
+      <c r="V16" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+V$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+V$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="W16" s="60" t="str">
+      <c r="W16" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+W$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+W$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>F : 4</v>
       </c>
-      <c r="X16" s="61" t="str">
+      <c r="X16" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+X$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+X$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="Y16" s="60" t="str">
+      <c r="Y16" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Y$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+Y$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="Z16" s="61" t="str">
+      <c r="Z16" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Z$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+Z$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="AA16" s="60" t="str">
+      <c r="AA16" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AA$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+AA$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="AB16" s="60" t="str">
+      <c r="AB16" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AB$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+AB$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="AC16" s="62" t="str">
+      <c r="AC16" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AC$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D16+AC$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="AE16" s="98"/>
-      <c r="AF16" s="99"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="97"/>
     </row>
-    <row r="17" spans="2:32" s="67" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="127"/>
-      <c r="C17" s="69" t="s">
+    <row r="17" spans="2:32" s="66" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="124"/>
+      <c r="C17" s="68" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C17), Model!$C$2:$E$41, 3)</f>
         <v>7</v>
       </c>
-      <c r="E17" s="51" t="str">
+      <c r="E17" s="50" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+E$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+E$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="F17" s="60" t="str">
+      <c r="F17" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+F$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+F$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="G17" s="60" t="str">
+      <c r="G17" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+G$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+G$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="H17" s="61" t="str">
+      <c r="H17" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+H$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+H$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="I17" s="60" t="str">
+      <c r="I17" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+I$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+I$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="J17" s="61" t="str">
+      <c r="J17" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+J$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+J$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="K17" s="60" t="str">
+      <c r="K17" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+K$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+K$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="L17" s="61" t="str">
+      <c r="L17" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+L$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+L$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="M17" s="60" t="str">
+      <c r="M17" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+M$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+M$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="N17" s="61" t="str">
+      <c r="N17" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+N$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+N$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="O17" s="60" t="str">
+      <c r="O17" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+O$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+O$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>F : 4</v>
       </c>
-      <c r="P17" s="60" t="str">
+      <c r="P17" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+P$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+P$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="Q17" s="62" t="str">
+      <c r="Q17" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Q$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+Q$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="R17" s="60" t="str">
+      <c r="R17" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+R$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+R$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="S17" s="60" t="str">
+      <c r="S17" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+S$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+S$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="T17" s="61" t="str">
+      <c r="T17" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+T$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+T$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="U17" s="60" t="str">
+      <c r="U17" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+U$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+U$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="V17" s="61" t="str">
+      <c r="V17" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+V$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+V$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="W17" s="60" t="str">
+      <c r="W17" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+W$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+W$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="X17" s="61" t="str">
+      <c r="X17" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+X$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+X$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="Y17" s="60" t="str">
+      <c r="Y17" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Y$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+Y$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="Z17" s="61" t="str">
+      <c r="Z17" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Z$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+Z$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="AA17" s="60" t="str">
+      <c r="AA17" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AA$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+AA$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>F : 4</v>
       </c>
-      <c r="AB17" s="60" t="str">
+      <c r="AB17" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AB$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+AB$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="AC17" s="62" t="str">
+      <c r="AC17" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AC$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D17+AC$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="AE17" s="100"/>
-      <c r="AF17" s="99"/>
+      <c r="AE17" s="98"/>
+      <c r="AF17" s="97"/>
     </row>
-    <row r="18" spans="2:32" s="67" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="127"/>
-      <c r="C18" s="69" t="s">
+    <row r="18" spans="2:32" s="66" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="124"/>
+      <c r="C18" s="68" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C18), Model!$C$2:$E$41, 3)</f>
         <v>2</v>
       </c>
-      <c r="E18" s="51" t="str">
+      <c r="E18" s="50" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+E$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+E$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="F18" s="60" t="str">
+      <c r="F18" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+F$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+F$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="G18" s="60" t="str">
+      <c r="G18" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+G$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+G$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="H18" s="61" t="str">
+      <c r="H18" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+H$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+H$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>F : 4</v>
       </c>
-      <c r="I18" s="60" t="str">
+      <c r="I18" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+I$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+I$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="J18" s="61" t="str">
+      <c r="J18" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+J$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+J$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="K18" s="60" t="str">
+      <c r="K18" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+K$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+K$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="L18" s="61" t="str">
+      <c r="L18" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+L$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+L$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="M18" s="60" t="str">
+      <c r="M18" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+M$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+M$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="N18" s="61" t="str">
+      <c r="N18" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+N$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+N$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="O18" s="60" t="str">
+      <c r="O18" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+O$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+O$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="P18" s="60" t="str">
+      <c r="P18" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+P$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+P$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="Q18" s="62" t="str">
+      <c r="Q18" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+Q$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+Q$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="R18" s="60" t="str">
+      <c r="R18" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+R$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+R$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="S18" s="60" t="str">
+      <c r="S18" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+S$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+S$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="T18" s="61" t="str">
+      <c r="T18" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+T$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+T$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>F : 4</v>
       </c>
-      <c r="U18" s="60" t="str">
+      <c r="U18" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+U$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+U$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="V18" s="61" t="str">
+      <c r="V18" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+V$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+V$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="W18" s="60" t="str">
+      <c r="W18" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+W$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+W$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="X18" s="61" t="str">
+      <c r="X18" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+X$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+X$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="Y18" s="60" t="str">
+      <c r="Y18" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+Y$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+Y$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="Z18" s="61" t="str">
+      <c r="Z18" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+Z$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+Z$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="AA18" s="60" t="str">
+      <c r="AA18" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+AA$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+AA$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="AB18" s="60" t="str">
+      <c r="AB18" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+AB$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+AB$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v/>
       </c>
-      <c r="AC18" s="62" t="str">
+      <c r="AC18" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+AC$9, 12), Model!$J$23:$P$23, 0), Model!$J$21:$P$28, 4) &amp; " : " &amp; MATCH(MOD($D18+AC$9, 12), Model!$J$23:$P$23, 0), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="AE18" s="101"/>
-      <c r="AF18" s="99"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="97"/>
     </row>
     <row r="19" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="71"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="55">
-        <f t="shared" ref="E19:AC19" si="3">IF($AF$4, 24-E$1, E$1)</f>
+      <c r="E19" s="54">
+        <f t="shared" ref="E19:AC19" si="1">IF($AF$4, 24-E$1, E$1)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="54">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G19" s="54">
-        <f t="shared" si="3"/>
+      <c r="F19" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="53">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H19" s="52">
-        <f t="shared" si="3"/>
+      <c r="H19" s="51">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I19" s="54">
-        <f t="shared" si="3"/>
+      <c r="I19" s="53">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J19" s="52">
-        <f t="shared" si="3"/>
+      <c r="J19" s="51">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K19" s="54">
-        <f t="shared" si="3"/>
+      <c r="K19" s="53">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L19" s="52">
-        <f t="shared" si="3"/>
+      <c r="L19" s="51">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="M19" s="54">
-        <f t="shared" si="3"/>
+      <c r="M19" s="53">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="N19" s="52">
-        <f t="shared" si="3"/>
+      <c r="N19" s="51">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="O19" s="54">
-        <f t="shared" si="3"/>
+      <c r="O19" s="53">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P19" s="54">
-        <f t="shared" si="3"/>
+      <c r="P19" s="53">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="Q19" s="53">
-        <f t="shared" si="3"/>
+      <c r="Q19" s="52">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="R19" s="54">
-        <f t="shared" si="3"/>
+      <c r="R19" s="53">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="S19" s="54">
-        <f t="shared" si="3"/>
+      <c r="S19" s="53">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="T19" s="52">
-        <f t="shared" si="3"/>
+      <c r="T19" s="51">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="U19" s="54">
-        <f t="shared" si="3"/>
+      <c r="U19" s="53">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="V19" s="52">
-        <f t="shared" si="3"/>
+      <c r="V19" s="51">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="W19" s="54">
-        <f t="shared" si="3"/>
+      <c r="W19" s="53">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="X19" s="52">
-        <f t="shared" si="3"/>
+      <c r="X19" s="51">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="Y19" s="54">
-        <f t="shared" si="3"/>
+      <c r="Y19" s="53">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="Z19" s="52">
-        <f t="shared" si="3"/>
+      <c r="Z19" s="51">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="AA19" s="54">
-        <f t="shared" si="3"/>
+      <c r="AA19" s="53">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AB19" s="54">
-        <f t="shared" si="3"/>
+      <c r="AB19" s="53">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="AC19" s="59">
-        <f t="shared" si="3"/>
+      <c r="AC19" s="58">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AE19" s="95" t="s">
+      <c r="AE19" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="AF19" s="96" t="b">
+      <c r="AF19" s="94" t="b">
+        <f>HLOOKUP(L$1, Model!$J$40:$P$56, MATCH($B$19, Model!$I$40:$I$56, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B20" s="72"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="74"/>
-      <c r="AB20" s="74"/>
-      <c r="AC20" s="74"/>
+      <c r="B20" s="71"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="73"/>
+      <c r="AC20" s="73"/>
     </row>
     <row r="21" spans="2:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="72"/>
-      <c r="E21" s="76"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="77" t="s">
+      <c r="B21" s="71"/>
+      <c r="E21" s="75"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="77" t="s">
+      <c r="K21" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="77" t="s">
+      <c r="L21" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="77" t="s">
+      <c r="M21" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="N21" s="77" t="s">
+      <c r="N21" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="O21" s="77" t="s">
+      <c r="O21" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="P21" s="77" t="s">
+      <c r="P21" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="64"/>
-      <c r="AB21" s="64"/>
-      <c r="AC21" s="64"/>
-      <c r="AD21" s="64"/>
-      <c r="AE21" s="78"/>
-      <c r="AF21" s="64"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="63"/>
+      <c r="AE21" s="77"/>
+      <c r="AF21" s="63"/>
     </row>
     <row r="22" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="72"/>
-      <c r="E22" s="76"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="64"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="64"/>
-      <c r="AB22" s="64"/>
-      <c r="AC22" s="64"/>
-      <c r="AD22" s="64"/>
-      <c r="AE22" s="78"/>
-      <c r="AF22" s="64"/>
+      <c r="B22" s="71"/>
+      <c r="E22" s="75"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="63"/>
+      <c r="AE22" s="77"/>
+      <c r="AF22" s="63"/>
     </row>
     <row r="23" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="128" t="str">
+      <c r="B23" s="125" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(IF(B38 = "Ionian (Major)", B29 &amp; " Major", IF(B38 = "Aolian (Minor)", B29 &amp; " Minor", B29 &amp; " " &amp; B38)), "#", "♯"), "b", "♭")</f>
         <v>E Pentatonic Minor</v>
       </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="105">
-        <f t="shared" ref="J23:P23" si="4">IF(J27 = "", "", IF(J24 = 0, F$1, J24))</f>
-        <v>1</v>
-      </c>
-      <c r="K23" s="105" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L23" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="K23" s="134">
+        <f>IF(J27 = "", "", IF(K24 = 0, F$1, K24))</f>
+        <v>1</v>
+      </c>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134" t="str">
+        <f>IF(K27 = "", "", IF(M24 = 0, G$1, M24))</f>
+        <v/>
+      </c>
+      <c r="N23" s="134"/>
+      <c r="O23" s="134" t="str">
+        <f>IF(L27 = "", "", IF(O24 = 0, H$1, O24))</f>
         <v>♭3</v>
       </c>
-      <c r="M23" s="105">
-        <f t="shared" si="4"/>
+      <c r="P23" s="134"/>
+      <c r="Q23" s="134">
+        <f>IF(M27 = "", "", IF(Q24 = 0, I$1, Q24))</f>
         <v>4</v>
       </c>
-      <c r="N23" s="105">
-        <f t="shared" si="4"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="134">
+        <f>IF(N27 = "", "", IF(S24 = 0, J$1, S24))</f>
         <v>5</v>
       </c>
-      <c r="O23" s="105" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P23" s="105">
-        <f t="shared" si="4"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="134" t="str">
+        <f>IF(O27 = "", "", IF(U24 = 0, K$1, U24))</f>
+        <v/>
+      </c>
+      <c r="V23" s="134"/>
+      <c r="W23" s="134">
+        <f>IF(P27 = "", "", IF(W24 = 0, L$1, W24))</f>
         <v>7</v>
       </c>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="64"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="64"/>
-      <c r="AB23" s="64"/>
-      <c r="AC23" s="64"/>
-      <c r="AD23" s="64"/>
-      <c r="AE23" s="78"/>
-      <c r="AF23" s="64"/>
+      <c r="X23" s="134"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="63"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="77"/>
+      <c r="AF23" s="63"/>
     </row>
-    <row r="24" spans="2:32" s="63" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="79">
+    <row r="24" spans="2:32" s="62" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="K24" s="135">
         <f>IFERROR(HLOOKUP(F$1, Model!$Q$1:$X$17, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), F$1)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="79">
+      <c r="L24" s="135"/>
+      <c r="M24" s="135">
         <f>IFERROR(HLOOKUP(G$1, Model!$Q$1:$X$17, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), G$1)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="79" t="str">
+      <c r="N24" s="135"/>
+      <c r="O24" s="135" t="str">
         <f>IFERROR(HLOOKUP(H$1, Model!$Q$1:$X$17, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), H$1)</f>
         <v>♭3</v>
       </c>
-      <c r="M24" s="79">
+      <c r="P24" s="135"/>
+      <c r="Q24" s="135">
         <f>IFERROR(HLOOKUP(I$1, Model!$Q$1:$X$17, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), I$1)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="79">
+      <c r="R24" s="135"/>
+      <c r="S24" s="135">
         <f>IFERROR(HLOOKUP(J$1, Model!$Q$1:$X$17, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), J$1)</f>
         <v>0</v>
       </c>
-      <c r="O24" s="79" t="str">
+      <c r="T24" s="135"/>
+      <c r="U24" s="135" t="str">
         <f>IFERROR(HLOOKUP(K$1, Model!$Q$1:$X$17, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), K$1)</f>
         <v>♭7</v>
       </c>
-      <c r="P24" s="79">
+      <c r="V24" s="135"/>
+      <c r="W24" s="135">
         <f>IFERROR(HLOOKUP(L$1, Model!$Q$1:$X$17, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), L$1)</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="64"/>
-      <c r="AA24" s="64"/>
-      <c r="AB24" s="64"/>
-      <c r="AC24" s="64"/>
-      <c r="AD24" s="64"/>
-      <c r="AE24" s="78"/>
-      <c r="AF24" s="64"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="63"/>
+      <c r="AD24" s="63"/>
+      <c r="AE24" s="77"/>
+      <c r="AF24" s="63"/>
     </row>
-    <row r="25" spans="2:32" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="124" t="str">
-        <f>IF(J$23="","", J$27 &amp; IFERROR(HLOOKUP(F$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), F$1))</f>
+    <row r="25" spans="2:32" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="K25" s="136" t="str">
+        <f>IF(K$23="","", J$27 &amp; IFERROR(HLOOKUP(F$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), F$1))</f>
         <v>Em7</v>
       </c>
-      <c r="K25" s="124" t="str">
-        <f>IF(K$23="","", K$27 &amp; IFERROR(HLOOKUP(G$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), G$1))</f>
-        <v/>
-      </c>
-      <c r="L25" s="124" t="str">
-        <f>IF(L$23="","", L$27 &amp; IFERROR(HLOOKUP(H$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), H$1))</f>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136" t="str">
+        <f>IF(M$23="","", K$27 &amp; IFERROR(HLOOKUP(G$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), G$1))</f>
+        <v/>
+      </c>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136" t="str">
+        <f>IF(O$23="","", L$27 &amp; IFERROR(HLOOKUP(H$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), H$1))</f>
         <v>GM</v>
       </c>
-      <c r="M25" s="124" t="str">
-        <f>IF(M$23="","", M$27 &amp; IFERROR(HLOOKUP(I$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), I$1))</f>
+      <c r="P25" s="136"/>
+      <c r="Q25" s="136" t="str">
+        <f>IF(Q$23="","", M$27 &amp; IFERROR(HLOOKUP(I$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), I$1))</f>
         <v>A5 ♭7</v>
       </c>
-      <c r="N25" s="124" t="str">
-        <f>IF(N$23="","", N$27 &amp; IFERROR(HLOOKUP(J$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), J$1))</f>
+      <c r="R25" s="136"/>
+      <c r="S25" s="136" t="str">
+        <f>IF(S$23="","", N$27 &amp; IFERROR(HLOOKUP(J$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), J$1))</f>
         <v>B5</v>
       </c>
-      <c r="O25" s="124" t="str">
-        <f>IF(O$23="","", O$27 &amp; IFERROR(HLOOKUP(K$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), K$1))</f>
-        <v/>
-      </c>
-      <c r="P25" s="124" t="str">
-        <f>IF(P$23="","", P$27 &amp; IFERROR(HLOOKUP(L$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), L$1))</f>
+      <c r="T25" s="136"/>
+      <c r="U25" s="136" t="str">
+        <f>IF(U$23="","", O$27 &amp; IFERROR(HLOOKUP(K$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), K$1))</f>
+        <v/>
+      </c>
+      <c r="V25" s="136"/>
+      <c r="W25" s="136" t="str">
+        <f>IF(W$23="","", P$27 &amp; IFERROR(HLOOKUP(L$1, Model!$Q$20:$X$36, MATCH($B$38, Model!$Q$2:$Q$20, 0) + 1), L$1))</f>
         <v>D5</v>
       </c>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="64"/>
-      <c r="X25" s="64"/>
-      <c r="Y25" s="64"/>
-      <c r="Z25" s="64"/>
-      <c r="AA25" s="64"/>
-      <c r="AB25" s="64"/>
-      <c r="AC25" s="64"/>
-      <c r="AD25" s="64"/>
-      <c r="AE25" s="78"/>
-      <c r="AF25" s="64"/>
+      <c r="X25" s="136"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="77"/>
+      <c r="AF25" s="63"/>
     </row>
     <row r="26" spans="2:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="106" t="str">
-        <f t="shared" ref="J26:P26" si="5">IF(J23="","", J21)</f>
-        <v>Tonic</v>
-      </c>
-      <c r="K26" s="106" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L26" s="106" t="str">
-        <f t="shared" si="5"/>
-        <v>Mediant</v>
-      </c>
-      <c r="M26" s="106" t="str">
-        <f t="shared" si="5"/>
-        <v>Subdominant</v>
-      </c>
-      <c r="N26" s="106" t="str">
-        <f t="shared" si="5"/>
-        <v>Dominant</v>
-      </c>
-      <c r="O26" s="106" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P26" s="106" t="str">
-        <f t="shared" si="5"/>
-        <v>Leading Tone</v>
-      </c>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="65"/>
-      <c r="AA26" s="65"/>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="65"/>
-      <c r="AE26" s="78"/>
-      <c r="AF26" s="65"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="64"/>
+      <c r="AE26" s="77"/>
+      <c r="AF26" s="64"/>
     </row>
     <row r="27" spans="2:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="128"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="129" t="s">
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="129"/>
-      <c r="J27" s="80" t="str">
+      <c r="I27" s="126"/>
+      <c r="J27" s="78" t="str">
         <f>Model!J28</f>
         <v>E</v>
       </c>
-      <c r="K27" s="81" t="str">
+      <c r="K27" s="79" t="str">
         <f>IF(Model!J28=0, "", Model!K28)</f>
         <v/>
       </c>
-      <c r="L27" s="82" t="str">
+      <c r="L27" s="80" t="str">
         <f>IF(Model!K28=0, "", Model!L28)</f>
         <v>G</v>
       </c>
-      <c r="M27" s="83" t="str">
+      <c r="M27" s="81" t="str">
         <f>IF(Model!L28=0, "", Model!M28)</f>
         <v>A</v>
       </c>
-      <c r="N27" s="84" t="str">
+      <c r="N27" s="82" t="str">
         <f>IF(Model!M28=0, "", Model!N28)</f>
         <v>B</v>
       </c>
-      <c r="O27" s="85" t="str">
+      <c r="O27" s="83" t="str">
         <f>IF(Model!N28=0, "", Model!O28)</f>
         <v/>
       </c>
-      <c r="P27" s="86" t="str">
+      <c r="P27" s="84" t="str">
         <f>IF(Model!O28=0, "", Model!P28)</f>
         <v>D</v>
       </c>
-      <c r="S27" s="130" t="s">
+      <c r="S27" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="T27" s="130"/>
-      <c r="U27" s="130"/>
-      <c r="V27" s="111" t="str">
+      <c r="T27" s="127"/>
+      <c r="U27" s="127"/>
+      <c r="V27" s="105" t="str">
         <f>IF(Model!J26=1, "h", IF(Model!J26=2, "W", IF(Model!J26=3, "W+h", IF(Model!J26=4, "WW", IF(Model!J26=0, "", Model!J22)))))</f>
         <v/>
       </c>
-      <c r="W27" s="87" t="str">
+      <c r="W27" s="85" t="str">
         <f>IF(Model!K26=1, "h", IF(Model!K26=2, "W", IF(Model!K26=3, "W+h", IF(Model!K26=4, "WW", IF(Model!K26=0, "", Model!K22)))))</f>
         <v>W+h</v>
       </c>
-      <c r="X27" s="88" t="str">
+      <c r="X27" s="86" t="str">
         <f>IF(Model!L26=1, "h", IF(Model!L26=2, "W", IF(Model!L26=3, "W+h", IF(Model!L26=4, "WW", IF(Model!L26=0, "", Model!L22)))))</f>
         <v>W</v>
       </c>
-      <c r="Y27" s="89" t="str">
+      <c r="Y27" s="87" t="str">
         <f>IF(Model!M26=1, "h", IF(Model!M26=2, "W", IF(Model!M26=3, "W+h", IF(Model!M26=4, "WW", IF(Model!M26=0, "", Model!M22)))))</f>
         <v>W</v>
       </c>
-      <c r="Z27" s="90" t="str">
+      <c r="Z27" s="88" t="str">
         <f>IF(Model!N26=1, "h", IF(Model!N26=2, "W", IF(Model!N26=3, "W+h", IF(Model!N26=4, "WW", IF(Model!N26=0, "", Model!N22)))))</f>
         <v/>
       </c>
-      <c r="AA27" s="91" t="str">
+      <c r="AA27" s="89" t="str">
         <f>IF(Model!O26=1, "h", IF(Model!O26=2, "W", IF(Model!O26=3, "W+h", IF(Model!O26=4, "WW", IF(Model!O26=0, "", Model!O22)))))</f>
         <v>W+h</v>
       </c>
-      <c r="AB27" s="92" t="str">
+      <c r="AB27" s="90" t="str">
         <f>IF(Model!P26=1, "h", IF(Model!P26=2, "W", IF(Model!P26=3, "W+h", IF(Model!P26=4, "WW", IF(Model!P26=0, "", Model!P22)))))</f>
         <v>W</v>
       </c>
-      <c r="AE27" s="134" t="s">
+      <c r="AE27" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="AF27" s="134"/>
+      <c r="AF27" s="123"/>
     </row>
     <row r="28" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="104" t="s">
+      <c r="C28" s="100" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C28), Model!$C$2:$E$41, 3)</f>
         <v>5</v>
       </c>
-      <c r="E28" s="55">
-        <f t="shared" ref="E28:AC28" si="6">IF($AF$4, 24-E$1, E$1)</f>
+      <c r="E28" s="54">
+        <f t="shared" ref="E28:AC28" si="2">IF($AF$4, 24-E$1, E$1)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="49">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G28" s="49">
-        <f t="shared" si="6"/>
+      <c r="F28" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="48">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H28" s="52">
-        <f t="shared" si="6"/>
+      <c r="H28" s="51">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I28" s="49">
-        <f t="shared" si="6"/>
+      <c r="I28" s="48">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J28" s="52">
-        <f t="shared" si="6"/>
+      <c r="J28" s="51">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K28" s="49">
-        <f t="shared" si="6"/>
+      <c r="K28" s="48">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L28" s="52">
-        <f t="shared" si="6"/>
+      <c r="L28" s="51">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="M28" s="49">
-        <f t="shared" si="6"/>
+      <c r="M28" s="48">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="N28" s="52">
-        <f t="shared" si="6"/>
+      <c r="N28" s="51">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="O28" s="49">
-        <f t="shared" si="6"/>
+      <c r="O28" s="48">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="P28" s="49">
-        <f t="shared" si="6"/>
+      <c r="P28" s="48">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="Q28" s="57">
-        <f t="shared" si="6"/>
+      <c r="Q28" s="56">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="R28" s="49">
-        <f t="shared" si="6"/>
+      <c r="R28" s="48">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="S28" s="49">
-        <f t="shared" si="6"/>
+      <c r="S28" s="48">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="T28" s="52">
-        <f t="shared" si="6"/>
+      <c r="T28" s="51">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="U28" s="49">
-        <f t="shared" si="6"/>
+      <c r="U28" s="48">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="V28" s="52">
-        <f t="shared" si="6"/>
+      <c r="V28" s="51">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="W28" s="49">
-        <f t="shared" si="6"/>
+      <c r="W28" s="48">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="X28" s="52">
-        <f t="shared" si="6"/>
+      <c r="X28" s="51">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="Y28" s="49">
-        <f t="shared" si="6"/>
+      <c r="Y28" s="48">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Z28" s="52">
-        <f t="shared" si="6"/>
+      <c r="Z28" s="51">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="AA28" s="49">
-        <f t="shared" si="6"/>
+      <c r="AA28" s="48">
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="AB28" s="49">
-        <f t="shared" si="6"/>
+      <c r="AB28" s="48">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="AC28" s="58">
-        <f t="shared" si="6"/>
+      <c r="AC28" s="57">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="AE28" s="109" t="s">
+      <c r="AE28" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="AF28" s="110" t="s">
+      <c r="AF28" s="104" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="133" t="s">
+      <c r="B29" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="67" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C29), Model!$C$2:$E$41, 3)</f>
         <v>4</v>
       </c>
-      <c r="E29" s="62" t="str">
+      <c r="E29" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="F29" s="60" t="str">
+      <c r="F29" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="G29" s="60" t="str">
+      <c r="G29" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="H29" s="61" t="str">
+      <c r="H29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="I29" s="60" t="str">
+      <c r="I29" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="J29" s="61" t="str">
+      <c r="J29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="K29" s="60" t="str">
+      <c r="K29" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="L29" s="61" t="str">
+      <c r="L29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="M29" s="60" t="str">
+      <c r="M29" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="N29" s="61" t="str">
+      <c r="N29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="O29" s="60" t="str">
+      <c r="O29" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="P29" s="60" t="str">
+      <c r="P29" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="Q29" s="62" t="str">
+      <c r="Q29" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="R29" s="60" t="str">
+      <c r="R29" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="S29" s="60" t="str">
+      <c r="S29" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="T29" s="61" t="str">
+      <c r="T29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="U29" s="60" t="str">
+      <c r="U29" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="V29" s="61" t="str">
+      <c r="V29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="W29" s="60" t="str">
+      <c r="W29" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="X29" s="61" t="str">
+      <c r="X29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="Y29" s="60" t="str">
+      <c r="Y29" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="Z29" s="61" t="str">
+      <c r="Z29" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="AA29" s="60" t="str">
+      <c r="AA29" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="AB29" s="60" t="str">
+      <c r="AB29" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="AC29" s="62" t="str">
+      <c r="AC29" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="AD29" s="67"/>
-      <c r="AE29" s="95" t="s">
+      <c r="AD29" s="66"/>
+      <c r="AE29" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AF29" s="102" t="b">
+      <c r="AF29" s="94" t="b">
+        <f>HLOOKUP(F$1, Model!$J$40:$P$56, MATCH($B$38, Model!$I$40:$I$56, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="133"/>
-      <c r="C30" s="68" t="s">
+      <c r="B30" s="122"/>
+      <c r="C30" s="67" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C30), Model!$C$2:$E$41, 3)</f>
         <v>11</v>
       </c>
-      <c r="E30" s="62" t="str">
+      <c r="E30" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="F30" s="60" t="str">
+      <c r="F30" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="G30" s="60" t="str">
+      <c r="G30" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="H30" s="61" t="str">
+      <c r="H30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="I30" s="60" t="str">
+      <c r="I30" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="J30" s="61" t="str">
+      <c r="J30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="K30" s="60" t="str">
+      <c r="K30" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="L30" s="61" t="str">
+      <c r="L30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="M30" s="60" t="str">
+      <c r="M30" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="N30" s="61" t="str">
+      <c r="N30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="O30" s="60" t="str">
+      <c r="O30" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="P30" s="60" t="str">
+      <c r="P30" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="Q30" s="62" t="str">
+      <c r="Q30" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="R30" s="60" t="str">
+      <c r="R30" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="S30" s="60" t="str">
+      <c r="S30" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="T30" s="61" t="str">
+      <c r="T30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="U30" s="60" t="str">
+      <c r="U30" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="V30" s="61" t="str">
+      <c r="V30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="W30" s="60" t="str">
+      <c r="W30" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="X30" s="61" t="str">
+      <c r="X30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="Y30" s="60" t="str">
+      <c r="Y30" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="Z30" s="61" t="str">
+      <c r="Z30" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="AA30" s="60" t="str">
+      <c r="AA30" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="AB30" s="60" t="str">
+      <c r="AB30" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="AC30" s="62" t="str">
+      <c r="AC30" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="AD30" s="67"/>
-      <c r="AE30" s="97" t="s">
+      <c r="AD30" s="66"/>
+      <c r="AE30" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="AF30" s="102" t="b">
+      <c r="AF30" s="94" t="b">
+        <f>HLOOKUP(G$1, Model!$J$40:$P$56, MATCH($B$38, Model!$I$40:$I$56, 0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="133"/>
-      <c r="C31" s="68" t="s">
+      <c r="B31" s="122"/>
+      <c r="C31" s="67" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C31), Model!$C$2:$E$41, 3)</f>
         <v>7</v>
       </c>
-      <c r="E31" s="62" t="str">
+      <c r="E31" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="F31" s="60" t="str">
+      <c r="F31" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="G31" s="60" t="str">
+      <c r="G31" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="H31" s="61" t="str">
+      <c r="H31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="I31" s="60" t="str">
+      <c r="I31" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="J31" s="61" t="str">
+      <c r="J31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="K31" s="60" t="str">
+      <c r="K31" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="L31" s="61" t="str">
+      <c r="L31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="M31" s="60" t="str">
+      <c r="M31" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="N31" s="61" t="str">
+      <c r="N31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="O31" s="60" t="str">
+      <c r="O31" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="P31" s="60" t="str">
+      <c r="P31" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="Q31" s="62" t="str">
+      <c r="Q31" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="R31" s="60" t="str">
+      <c r="R31" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="S31" s="60" t="str">
+      <c r="S31" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="T31" s="61" t="str">
+      <c r="T31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="U31" s="60" t="str">
+      <c r="U31" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="V31" s="61" t="str">
+      <c r="V31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="W31" s="60" t="str">
+      <c r="W31" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="X31" s="61" t="str">
+      <c r="X31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="Y31" s="60" t="str">
+      <c r="Y31" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="Z31" s="61" t="str">
+      <c r="Z31" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="AA31" s="60" t="str">
+      <c r="AA31" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="AB31" s="60" t="str">
+      <c r="AB31" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="AC31" s="62" t="str">
+      <c r="AC31" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="AD31" s="67"/>
-      <c r="AE31" s="97" t="s">
+      <c r="AD31" s="66"/>
+      <c r="AE31" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="AF31" s="102" t="b">
+      <c r="AF31" s="94" t="b">
+        <f>HLOOKUP(H$1, Model!$J$40:$P$56, MATCH($B$38, Model!$I$40:$I$56, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="133"/>
-      <c r="C32" s="68" t="s">
+      <c r="B32" s="122"/>
+      <c r="C32" s="67" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C32), Model!$C$2:$E$41, 3)</f>
         <v>2</v>
       </c>
-      <c r="E32" s="62" t="str">
+      <c r="E32" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="F32" s="60" t="str">
+      <c r="F32" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="G32" s="60" t="str">
+      <c r="G32" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="H32" s="61" t="str">
+      <c r="H32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="I32" s="60" t="str">
+      <c r="I32" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="J32" s="61" t="str">
+      <c r="J32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="K32" s="60" t="str">
+      <c r="K32" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="L32" s="61" t="str">
+      <c r="L32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="M32" s="60" t="str">
+      <c r="M32" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="N32" s="61" t="str">
+      <c r="N32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="O32" s="60" t="str">
+      <c r="O32" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="P32" s="60" t="str">
+      <c r="P32" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="Q32" s="62" t="str">
+      <c r="Q32" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="R32" s="60" t="str">
+      <c r="R32" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="S32" s="60" t="str">
+      <c r="S32" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="T32" s="61" t="str">
+      <c r="T32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="U32" s="60" t="str">
+      <c r="U32" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="V32" s="61" t="str">
+      <c r="V32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="W32" s="60" t="str">
+      <c r="W32" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="X32" s="61" t="str">
+      <c r="X32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="Y32" s="60" t="str">
+      <c r="Y32" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="Z32" s="61" t="str">
+      <c r="Z32" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="AA32" s="60" t="str">
+      <c r="AA32" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="AB32" s="60" t="str">
+      <c r="AB32" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="AC32" s="62" t="str">
+      <c r="AC32" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="AD32" s="67"/>
-      <c r="AE32" s="97" t="s">
+      <c r="AD32" s="66"/>
+      <c r="AE32" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="AF32" s="102" t="b">
+      <c r="AF32" s="94" t="b">
+        <f>HLOOKUP(I$1, Model!$J$40:$P$56, MATCH($B$38, Model!$I$40:$I$56, 0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="133"/>
-      <c r="C33" s="68" t="s">
+      <c r="B33" s="122"/>
+      <c r="C33" s="67" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C33), Model!$C$2:$E$41, 3)</f>
         <v>9</v>
       </c>
-      <c r="E33" s="62" t="str">
+      <c r="E33" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="F33" s="60" t="str">
+      <c r="F33" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="G33" s="60" t="str">
+      <c r="G33" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="H33" s="61" t="str">
+      <c r="H33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="I33" s="60" t="str">
+      <c r="I33" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="J33" s="61" t="str">
+      <c r="J33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="K33" s="60" t="str">
+      <c r="K33" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="L33" s="61" t="str">
+      <c r="L33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="M33" s="60" t="str">
+      <c r="M33" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="N33" s="61" t="str">
+      <c r="N33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="O33" s="60" t="str">
+      <c r="O33" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="P33" s="60" t="str">
+      <c r="P33" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="Q33" s="62" t="str">
+      <c r="Q33" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="R33" s="60" t="str">
+      <c r="R33" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="S33" s="60" t="str">
+      <c r="S33" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="T33" s="61" t="str">
+      <c r="T33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="U33" s="60" t="str">
+      <c r="U33" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="V33" s="61" t="str">
+      <c r="V33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="W33" s="60" t="str">
+      <c r="W33" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="X33" s="61" t="str">
+      <c r="X33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="Y33" s="60" t="str">
+      <c r="Y33" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="Z33" s="61" t="str">
+      <c r="Z33" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="AA33" s="60" t="str">
+      <c r="AA33" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="AB33" s="60" t="str">
+      <c r="AB33" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="AC33" s="62" t="str">
+      <c r="AC33" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="AD33" s="67"/>
-      <c r="AE33" s="97" t="s">
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="AF33" s="102" t="b">
+      <c r="AF33" s="94" t="b">
+        <f>HLOOKUP(J$1, Model!$J$40:$P$56, MATCH($B$38, Model!$I$40:$I$56, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="127" t="s">
+      <c r="B34" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="68" t="s">
+      <c r="C34" s="67" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C34), Model!$C$2:$E$41, 3)</f>
         <v>4</v>
       </c>
-      <c r="E34" s="62" t="str">
+      <c r="E34" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="F34" s="60" t="str">
+      <c r="F34" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="G34" s="60" t="str">
+      <c r="G34" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="H34" s="61" t="str">
+      <c r="H34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="I34" s="60" t="str">
+      <c r="I34" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="J34" s="61" t="str">
+      <c r="J34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="K34" s="60" t="str">
+      <c r="K34" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="L34" s="61" t="str">
+      <c r="L34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="M34" s="60" t="str">
+      <c r="M34" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="N34" s="61" t="str">
+      <c r="N34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="O34" s="60" t="str">
+      <c r="O34" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="P34" s="60" t="str">
+      <c r="P34" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="Q34" s="62" t="str">
+      <c r="Q34" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="R34" s="60" t="str">
+      <c r="R34" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="S34" s="60" t="str">
+      <c r="S34" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="T34" s="61" t="str">
+      <c r="T34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="U34" s="60" t="str">
+      <c r="U34" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="V34" s="61" t="str">
+      <c r="V34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="W34" s="60" t="str">
+      <c r="W34" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="X34" s="61" t="str">
+      <c r="X34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="Y34" s="60" t="str">
+      <c r="Y34" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="Z34" s="61" t="str">
+      <c r="Z34" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="AA34" s="60" t="str">
+      <c r="AA34" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="AB34" s="60" t="str">
+      <c r="AB34" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v/>
       </c>
-      <c r="AC34" s="62" t="str">
+      <c r="AC34" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$25, 6), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="AD34" s="67"/>
-      <c r="AE34" s="97" t="s">
+      <c r="AD34" s="66"/>
+      <c r="AE34" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="AF34" s="102" t="b">
+      <c r="AF34" s="94" t="b">
+        <f>HLOOKUP(K$1, Model!$J$40:$P$56, MATCH($B$38, Model!$I$40:$I$56, 0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="127"/>
-      <c r="C35" s="69" t="s">
+      <c r="B35" s="124"/>
+      <c r="C35" s="68" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C35), Model!$C$2:$E$41, 3)</f>
         <v>11</v>
       </c>
-      <c r="E35" s="62" t="str">
+      <c r="E35" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="F35" s="60" t="str">
+      <c r="F35" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="G35" s="60" t="str">
+      <c r="G35" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="H35" s="61" t="str">
+      <c r="H35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="I35" s="60" t="str">
+      <c r="I35" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="J35" s="61" t="str">
+      <c r="J35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="K35" s="60" t="str">
+      <c r="K35" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="L35" s="61" t="str">
+      <c r="L35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="M35" s="60" t="str">
+      <c r="M35" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>G : 3</v>
       </c>
-      <c r="N35" s="61" t="str">
+      <c r="N35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="O35" s="60" t="str">
+      <c r="O35" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="P35" s="60" t="str">
+      <c r="P35" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="Q35" s="62" t="str">
+      <c r="Q35" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="R35" s="60" t="str">
+      <c r="R35" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="S35" s="60" t="str">
+      <c r="S35" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="T35" s="61" t="str">
+      <c r="T35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="U35" s="60" t="str">
+      <c r="U35" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="V35" s="61" t="str">
+      <c r="V35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="W35" s="60" t="str">
+      <c r="W35" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="X35" s="61" t="str">
+      <c r="X35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="Y35" s="60" t="str">
+      <c r="Y35" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>G : 3</v>
       </c>
-      <c r="Z35" s="61" t="str">
+      <c r="Z35" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="AA35" s="60" t="str">
+      <c r="AA35" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="AB35" s="60" t="str">
+      <c r="AB35" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="AC35" s="62" t="str">
+      <c r="AC35" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="AD35" s="67"/>
-      <c r="AE35" s="98"/>
-      <c r="AF35" s="103"/>
+      <c r="AD35" s="66"/>
+      <c r="AE35" s="96"/>
+      <c r="AF35" s="97"/>
     </row>
     <row r="36" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="127"/>
-      <c r="C36" s="69" t="s">
+      <c r="B36" s="124"/>
+      <c r="C36" s="68" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C36), Model!$C$2:$E$41, 3)</f>
         <v>7</v>
       </c>
-      <c r="E36" s="62" t="str">
+      <c r="E36" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>G : 3</v>
       </c>
-      <c r="F36" s="60" t="str">
+      <c r="F36" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="G36" s="60" t="str">
+      <c r="G36" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="H36" s="61" t="str">
+      <c r="H36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="I36" s="60" t="str">
+      <c r="I36" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="J36" s="61" t="str">
+      <c r="J36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="K36" s="60" t="str">
+      <c r="K36" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="L36" s="61" t="str">
+      <c r="L36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="M36" s="60" t="str">
+      <c r="M36" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="N36" s="61" t="str">
+      <c r="N36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="O36" s="60" t="str">
+      <c r="O36" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="P36" s="60" t="str">
+      <c r="P36" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="Q36" s="62" t="str">
+      <c r="Q36" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>G : 3</v>
       </c>
-      <c r="R36" s="60" t="str">
+      <c r="R36" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="S36" s="60" t="str">
+      <c r="S36" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="T36" s="61" t="str">
+      <c r="T36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="U36" s="60" t="str">
+      <c r="U36" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="V36" s="61" t="str">
+      <c r="V36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="W36" s="60" t="str">
+      <c r="W36" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="X36" s="61" t="str">
+      <c r="X36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="Y36" s="60" t="str">
+      <c r="Y36" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="Z36" s="61" t="str">
+      <c r="Z36" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="AA36" s="60" t="str">
+      <c r="AA36" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="AB36" s="60" t="str">
+      <c r="AB36" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="AC36" s="62" t="str">
+      <c r="AC36" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>G : 3</v>
       </c>
-      <c r="AD36" s="67"/>
-      <c r="AE36" s="100"/>
-      <c r="AF36" s="103"/>
+      <c r="AD36" s="66"/>
+      <c r="AE36" s="98"/>
+      <c r="AF36" s="97"/>
     </row>
     <row r="37" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="127"/>
-      <c r="C37" s="69" t="s">
+      <c r="B37" s="124"/>
+      <c r="C37" s="68" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C37), Model!$C$2:$E$41, 3)</f>
         <v>2</v>
       </c>
-      <c r="E37" s="62" t="str">
+      <c r="E37" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+E$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="F37" s="60" t="str">
+      <c r="F37" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+F$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="G37" s="60" t="str">
+      <c r="G37" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+G$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="H37" s="61" t="str">
+      <c r="H37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+H$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="I37" s="60" t="str">
+      <c r="I37" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+I$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="J37" s="61" t="str">
+      <c r="J37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+J$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>G : 3</v>
       </c>
-      <c r="K37" s="60" t="str">
+      <c r="K37" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+K$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="L37" s="61" t="str">
+      <c r="L37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+L$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="M37" s="60" t="str">
+      <c r="M37" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+M$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="N37" s="61" t="str">
+      <c r="N37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+N$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="O37" s="60" t="str">
+      <c r="O37" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+O$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="P37" s="60" t="str">
+      <c r="P37" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+P$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="Q37" s="62" t="str">
+      <c r="Q37" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+Q$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="R37" s="60" t="str">
+      <c r="R37" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+R$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="S37" s="60" t="str">
+      <c r="S37" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+S$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="T37" s="61" t="str">
+      <c r="T37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+T$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="U37" s="60" t="str">
+      <c r="U37" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+U$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="V37" s="61" t="str">
+      <c r="V37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+V$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>G : 3</v>
       </c>
-      <c r="W37" s="60" t="str">
+      <c r="W37" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+W$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="X37" s="61" t="str">
+      <c r="X37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+X$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="Y37" s="60" t="str">
+      <c r="Y37" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+Y$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="Z37" s="61" t="str">
+      <c r="Z37" s="60" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+Z$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="AA37" s="60" t="str">
+      <c r="AA37" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+AA$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="AB37" s="60" t="str">
+      <c r="AB37" s="59" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+AB$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v/>
       </c>
-      <c r="AC37" s="62" t="str">
+      <c r="AC37" s="61" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+AC$28, 12), Model!$J$27:$P$27, 0), Model!$J$20:$P$21, 2), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="AD37" s="67"/>
-      <c r="AE37" s="101"/>
-      <c r="AF37" s="103"/>
+      <c r="AD37" s="66"/>
+      <c r="AE37" s="99"/>
+      <c r="AF37" s="97"/>
     </row>
     <row r="38" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="71"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="56">
-        <f t="shared" ref="E38:AC38" si="7">IF($AF$4, 24-E$1, E$1)</f>
+      <c r="E38" s="55">
+        <f t="shared" ref="E38:AC38" si="3">IF($AF$4, 24-E$1, E$1)</f>
         <v>0</v>
       </c>
-      <c r="F38" s="49">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="G38" s="49">
-        <f t="shared" si="7"/>
+      <c r="F38" s="48">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="48">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H38" s="52">
-        <f t="shared" si="7"/>
+      <c r="H38" s="51">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I38" s="49">
-        <f t="shared" si="7"/>
+      <c r="I38" s="48">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J38" s="52">
-        <f t="shared" si="7"/>
+      <c r="J38" s="51">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K38" s="49">
-        <f t="shared" si="7"/>
+      <c r="K38" s="48">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L38" s="52">
-        <f t="shared" si="7"/>
+      <c r="L38" s="51">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="M38" s="49">
-        <f t="shared" si="7"/>
+      <c r="M38" s="48">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="N38" s="52">
-        <f t="shared" si="7"/>
+      <c r="N38" s="51">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="O38" s="49">
-        <f t="shared" si="7"/>
+      <c r="O38" s="48">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="P38" s="49">
-        <f t="shared" si="7"/>
+      <c r="P38" s="48">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="Q38" s="57">
-        <f t="shared" si="7"/>
+      <c r="Q38" s="56">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="R38" s="49">
-        <f t="shared" si="7"/>
+      <c r="R38" s="48">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="S38" s="49">
-        <f t="shared" si="7"/>
+      <c r="S38" s="48">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="T38" s="52">
-        <f t="shared" si="7"/>
+      <c r="T38" s="51">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="U38" s="49">
-        <f t="shared" si="7"/>
+      <c r="U38" s="48">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="V38" s="52">
-        <f t="shared" si="7"/>
+      <c r="V38" s="51">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="W38" s="49">
-        <f t="shared" si="7"/>
+      <c r="W38" s="48">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="X38" s="52">
-        <f t="shared" si="7"/>
+      <c r="X38" s="51">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="Y38" s="49">
-        <f t="shared" si="7"/>
+      <c r="Y38" s="48">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Z38" s="52">
-        <f t="shared" si="7"/>
+      <c r="Z38" s="51">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="AA38" s="49">
-        <f t="shared" si="7"/>
+      <c r="AA38" s="48">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="AB38" s="49">
-        <f t="shared" si="7"/>
+      <c r="AB38" s="48">
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="AC38" s="58">
-        <f t="shared" si="7"/>
+      <c r="AC38" s="57">
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="AE38" s="95" t="s">
+      <c r="AE38" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="AF38" s="102" t="b">
+      <c r="AF38" s="94" t="b">
+        <f>HLOOKUP(L$1, Model!$J$40:$P$56, MATCH($B$38, Model!$I$40:$I$56, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="72"/>
-      <c r="E39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(E$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="F39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(F$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="G39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(G$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="H39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(H$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="I39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(I$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="J39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(J$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="K39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(K$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="L39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(L$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="M39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(M$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="N39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(N$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="O39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(O$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="P39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(P$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="Q39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(Q$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="R39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(R$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="S39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(S$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="T39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(T$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="U39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(U$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="V39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(V$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="W39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(W$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="X39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(X$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="Y39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(Y$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="Z39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(Z$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="AA39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(AA$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="AB39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(AB$38,12)),"")</f>
-        <v/>
-      </c>
-      <c r="AC39" s="74" t="str">
-        <f>IFERROR(INDEX(Model!$B$2:$B$37,MATCH(IF($B$38="Ionian (Major)","Ionian",IF($B$38="Aolian (Minor)","Aolian",$B$38)),Model!$B$2:$B$37,0)+MOD(AC$38,12)),"")</f>
-        <v/>
-      </c>
+      <c r="B39" s="71"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="73"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="73"/>
+      <c r="W39" s="73"/>
+      <c r="X39" s="73"/>
+      <c r="Y39" s="73"/>
+      <c r="Z39" s="73"/>
+      <c r="AA39" s="73"/>
+      <c r="AB39" s="73"/>
+      <c r="AC39" s="73"/>
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B41" s="125"/>
+      <c r="B41" s="117"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="AF4:AF7"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AE27:AF27"/>
+  <mergeCells count="56">
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B23:G27"/>
     <mergeCell ref="H27:I27"/>
@@ -6463,299 +6650,441 @@
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B4:G8"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="AF4:AF7"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
   </mergeCells>
   <conditionalFormatting sqref="AF4 AF10:AF19">
-    <cfRule type="expression" dxfId="76" priority="526">
+    <cfRule type="expression" dxfId="118" priority="533">
       <formula>AND($AF$15=TRUE, SEARCH("6", AF4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="527">
+    <cfRule type="expression" dxfId="117" priority="534">
       <formula>AND($AF$10=TRUE, SEARCH("1", AF4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="528">
+    <cfRule type="expression" dxfId="116" priority="535">
       <formula>AND($AF$11=TRUE, SEARCH("2", AF4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="529">
+    <cfRule type="expression" dxfId="115" priority="536">
       <formula>AND($AF$12=TRUE, SEARCH("3", AF4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="530">
+    <cfRule type="expression" dxfId="114" priority="537">
       <formula>AND($AF$13=TRUE, SEARCH("4", AF4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="531">
+    <cfRule type="expression" dxfId="113" priority="538">
       <formula>AND($AF$14=TRUE, SEARCH("5", AF4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="532">
+    <cfRule type="expression" dxfId="112" priority="539">
       <formula>AND($AF$19=TRUE, SEARCH("7", AF4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:AA8">
-    <cfRule type="containsText" dxfId="69" priority="149" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="111" priority="156" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",W8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF3">
+    <cfRule type="expression" dxfId="103" priority="92">
+      <formula>AND($AF$15=TRUE, SEARCH("6", AF3))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="93">
+      <formula>AND($AF$10=TRUE, SEARCH("1", AF3))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="94">
+      <formula>AND($AF$11=TRUE, SEARCH("2", AF3))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="95">
+      <formula>AND($AF$12=TRUE, SEARCH("3", AF3))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="96">
+      <formula>AND($AF$13=TRUE, SEARCH("4", AF3))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="97">
+      <formula>AND($AF$14=TRUE, SEARCH("5", AF3))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="98">
+      <formula>AND($AF$19=TRUE, SEARCH("7", AF3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:AC18">
+    <cfRule type="expression" dxfId="96" priority="78">
+      <formula>AND($AF$10, SEARCH("1", E10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="79">
+      <formula>AND($AF$11, SEARCH("2", E10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="80">
+      <formula>AND($AF$12, SEARCH("3", E10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="81">
+      <formula>AND($AF$13, SEARCH("4", E10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="82">
+      <formula>AND($AF$14, SEARCH("5", E10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="83">
+      <formula>AND($AF$15, SEARCH("6", E10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="84">
+      <formula>AND($AF$19, SEARCH("7", E10))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE29:AE34 AE38">
+    <cfRule type="expression" dxfId="89" priority="64">
+      <formula>AND($AF$29, SEARCH("1", AE29))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="65">
+      <formula>AND($AF$30, SEARCH("2", AE29))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="66">
+      <formula>AND($AF$31, SEARCH("3", AE29))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="67">
+      <formula>AND($AF$32, SEARCH("4", AE29))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="68">
+      <formula>AND($AF$33, SEARCH("5", AE29))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="69">
+      <formula>AND($AF$34, SEARCH("6", AE29))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="70">
+      <formula>AND($AF$38, SEARCH("7", AE29))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:AC37">
+    <cfRule type="expression" dxfId="82" priority="85">
+      <formula>AND($AF$29, SEARCH("1", E29))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="86">
+      <formula>AND($AF$30, SEARCH("2", E29))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="87">
+      <formula>AND($AF$31, SEARCH("3", E29))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="88">
+      <formula>AND($AF$32, SEARCH("4", E29))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="89">
+      <formula>AND($AF$33, SEARCH("5", E29))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="90">
+      <formula>AND($AF$34, SEARCH("6", E29))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="91">
+      <formula>AND($AF$38, SEARCH("7", E29))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE10:AE15 AE19">
+    <cfRule type="expression" dxfId="75" priority="43">
+      <formula>AND($AF$10, SEARCH("1", AE10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="44">
+      <formula>AND($AF$11, SEARCH("2", AE10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="45">
+      <formula>AND($AF$12, SEARCH("3", AE10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="46">
+      <formula>AND($AF$13, SEARCH("4", AE10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="47">
+      <formula>AND($AF$14, SEARCH("5", AE10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="48">
+      <formula>AND($AF$15, SEARCH("6", AE10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="49">
+      <formula>AND($AF$19, SEARCH("7", AE10))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V8">
+    <cfRule type="containsText" dxfId="68" priority="39" operator="containsText" text="W">
+      <formula>NOT(ISERROR(SEARCH("W",V8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB8">
+    <cfRule type="containsText" dxfId="67" priority="38" operator="containsText" text="W">
+      <formula>NOT(ISERROR(SEARCH("W",AB8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V27">
+    <cfRule type="containsText" dxfId="66" priority="30" operator="containsText" text="W">
+      <formula>NOT(ISERROR(SEARCH("W",V27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W27">
+    <cfRule type="containsText" dxfId="65" priority="29" operator="containsText" text="W">
+      <formula>NOT(ISERROR(SEARCH("W",W27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X27">
+    <cfRule type="containsText" dxfId="64" priority="28" operator="containsText" text="W">
+      <formula>NOT(ISERROR(SEARCH("W",X27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y27">
+    <cfRule type="containsText" dxfId="63" priority="27" operator="containsText" text="W">
+      <formula>NOT(ISERROR(SEARCH("W",Y27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z27">
+    <cfRule type="containsText" dxfId="62" priority="26" operator="containsText" text="W">
+      <formula>NOT(ISERROR(SEARCH("W",Z27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA27">
+    <cfRule type="containsText" dxfId="61" priority="25" operator="containsText" text="W">
+      <formula>NOT(ISERROR(SEARCH("W",AA27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB27">
+    <cfRule type="containsText" dxfId="60" priority="24" operator="containsText" text="W">
+      <formula>NOT(ISERROR(SEARCH("W",AB27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:P18">
+    <cfRule type="containsBlanks" dxfId="59" priority="543">
+      <formula>LEN(TRIM(F10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29:P37">
+    <cfRule type="containsBlanks" dxfId="58" priority="544">
+      <formula>LEN(TRIM(F29))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10:AB18">
+    <cfRule type="containsBlanks" dxfId="57" priority="545">
+      <formula>LEN(TRIM(R10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R29:AB37">
+    <cfRule type="containsBlanks" dxfId="56" priority="8">
+      <formula>LEN(TRIM(R29))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8 M27">
+    <cfRule type="expression" dxfId="55" priority="581">
+      <formula>FIND(7,Q4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="582">
+      <formula>FIND(6, Q4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="583">
+      <formula>FIND(5,Q4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="584">
+      <formula>FIND(4,Q4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="585">
+      <formula>FIND(3, Q4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="586">
+      <formula>FIND(2, Q4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="587">
+      <formula>FIND(1, Q4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8 L27">
+    <cfRule type="expression" dxfId="48" priority="595">
+      <formula>FIND(7,O4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="596">
+      <formula>FIND(6, O4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="597">
+      <formula>FIND(5,O4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="598">
+      <formula>FIND(4,O4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="599">
+      <formula>FIND(3, O4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="600">
+      <formula>FIND(2, O4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="601">
+      <formula>FIND(1, O4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8 K27">
+    <cfRule type="expression" dxfId="41" priority="609">
+      <formula>FIND(7,M4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="610">
+      <formula>FIND(6, M4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="611">
+      <formula>FIND(5,M4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="612">
+      <formula>FIND(4,M4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="613">
+      <formula>FIND(3, M4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="614">
+      <formula>FIND(2, M4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="615">
+      <formula>FIND(1, M4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8 J27">
+    <cfRule type="expression" dxfId="34" priority="623">
+      <formula>FIND(7,K4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="624">
+      <formula>FIND(6, K4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="625">
+      <formula>FIND(5,K4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="626">
+      <formula>FIND(4,K4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="627">
+      <formula>FIND(3, K4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="628">
+      <formula>FIND(2, K4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="629">
+      <formula>FIND(1, K4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8 P27">
+    <cfRule type="expression" dxfId="27" priority="630">
+      <formula>FIND(7,W4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="631">
+      <formula>FIND(6, W4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="632">
+      <formula>FIND(5,W4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="633">
+      <formula>FIND(4,W4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="634">
+      <formula>FIND(3, W4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="635">
+      <formula>FIND(2, W4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="636">
+      <formula>FIND(1, W4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8 O27">
+    <cfRule type="expression" dxfId="20" priority="637">
+      <formula>FIND(7,U4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="638">
+      <formula>FIND(6, U4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="639">
+      <formula>FIND(5,U4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="640">
+      <formula>FIND(4,U4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="641">
+      <formula>FIND(3, U4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="642">
+      <formula>FIND(2, U4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="643">
+      <formula>FIND(1, U4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8 N27">
+    <cfRule type="expression" dxfId="13" priority="644">
+      <formula>FIND(7,S4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="645">
+      <formula>FIND(6, S4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="646">
+      <formula>FIND(5,S4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="647">
+      <formula>FIND(4,S4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="648">
+      <formula>FIND(3, S4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="649">
+      <formula>FIND(2, S4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="650">
+      <formula>FIND(1, S4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF29:AF38">
-    <cfRule type="expression" dxfId="68" priority="104">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND($AF$15=TRUE, SEARCH("6", AF29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="105">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND($AF$10=TRUE, SEARCH("1", AF29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="106">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>AND($AF$11=TRUE, SEARCH("2", AF29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="107">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND($AF$12=TRUE, SEARCH("3", AF29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="108">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>AND($AF$13=TRUE, SEARCH("4", AF29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="109">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>AND($AF$14=TRUE, SEARCH("5", AF29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="110">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>AND($AF$19=TRUE, SEARCH("7", AF29))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF3">
-    <cfRule type="expression" dxfId="61" priority="85">
-      <formula>AND($AF$15=TRUE, SEARCH("6", AF3))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="86">
-      <formula>AND($AF$10=TRUE, SEARCH("1", AF3))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="87">
-      <formula>AND($AF$11=TRUE, SEARCH("2", AF3))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="88">
-      <formula>AND($AF$12=TRUE, SEARCH("3", AF3))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="89">
-      <formula>AND($AF$13=TRUE, SEARCH("4", AF3))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="90">
-      <formula>AND($AF$14=TRUE, SEARCH("5", AF3))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="91">
-      <formula>AND($AF$19=TRUE, SEARCH("7", AF3))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:AC18">
-    <cfRule type="expression" dxfId="54" priority="71">
-      <formula>AND($AF$10, SEARCH("1", E10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="72">
-      <formula>AND($AF$11, SEARCH("2", E10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="73">
-      <formula>AND($AF$12, SEARCH("3", E10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="74">
-      <formula>AND($AF$13, SEARCH("4", E10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="75">
-      <formula>AND($AF$14, SEARCH("5", E10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="76">
-      <formula>AND($AF$15, SEARCH("6", E10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="77">
-      <formula>AND($AF$19, SEARCH("7", E10))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE29:AE34 AE38">
-    <cfRule type="expression" dxfId="47" priority="57">
-      <formula>AND($AF$29, SEARCH("1", AE29))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="58">
-      <formula>AND($AF$30, SEARCH("2", AE29))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="59">
-      <formula>AND($AF$31, SEARCH("3", AE29))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="60">
-      <formula>AND($AF$32, SEARCH("4", AE29))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="61">
-      <formula>AND($AF$33, SEARCH("5", AE29))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="62">
-      <formula>AND($AF$34, SEARCH("6", AE29))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="63">
-      <formula>AND($AF$38, SEARCH("7", AE29))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:AC37">
-    <cfRule type="expression" dxfId="40" priority="78">
-      <formula>AND($AF$29, SEARCH("1", E29))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="79">
-      <formula>AND($AF$30, SEARCH("2", E29))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="80">
-      <formula>AND($AF$31, SEARCH("3", E29))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="81">
-      <formula>AND($AF$32, SEARCH("4", E29))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="82">
-      <formula>AND($AF$33, SEARCH("5", E29))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="83">
-      <formula>AND($AF$34, SEARCH("6", E29))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="84">
-      <formula>AND($AF$38, SEARCH("7", E29))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE10:AE15 AE19">
-    <cfRule type="expression" dxfId="33" priority="36">
-      <formula>AND($AF$10, SEARCH("1", AE10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="37">
-      <formula>AND($AF$11, SEARCH("2", AE10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="38">
-      <formula>AND($AF$12, SEARCH("3", AE10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="39">
-      <formula>AND($AF$13, SEARCH("4", AE10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="40">
-      <formula>AND($AF$14, SEARCH("5", AE10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="41">
-      <formula>AND($AF$15, SEARCH("6", AE10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="42">
-      <formula>AND($AF$19, SEARCH("7", AE10))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V8">
-    <cfRule type="containsText" dxfId="26" priority="32" operator="containsText" text="W">
-      <formula>NOT(ISERROR(SEARCH("W",V8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB8">
-    <cfRule type="containsText" dxfId="25" priority="31" operator="containsText" text="W">
-      <formula>NOT(ISERROR(SEARCH("W",AB8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V27">
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="W">
-      <formula>NOT(ISERROR(SEARCH("W",V27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W27">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="W">
-      <formula>NOT(ISERROR(SEARCH("W",W27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X27">
-    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="W">
-      <formula>NOT(ISERROR(SEARCH("W",X27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y27">
-    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="W">
-      <formula>NOT(ISERROR(SEARCH("W",Y27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z27">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="W">
-      <formula>NOT(ISERROR(SEARCH("W",Z27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA27">
-    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="W">
-      <formula>NOT(ISERROR(SEARCH("W",AA27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB27">
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="W">
-      <formula>NOT(ISERROR(SEARCH("W",AB27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:P8">
-    <cfRule type="expression" dxfId="17" priority="10">
-      <formula>FIND(7,J4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="11">
-      <formula>FIND(6, J4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="12">
-      <formula>FIND(5,J4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="13">
-      <formula>FIND(4,J4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>FIND(3, J4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
-      <formula>FIND(2, J4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="16">
-      <formula>FIND(1, J4)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27:P27">
-    <cfRule type="expression" dxfId="10" priority="3">
-      <formula>FIND(7,J23)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4">
-      <formula>FIND(6, J23)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="5">
-      <formula>FIND(5,J23)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="6">
-      <formula>FIND(4,J23)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>FIND(3, J23)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>FIND(2, J23)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9">
-      <formula>FIND(1, J23)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:P18">
-    <cfRule type="containsBlanks" dxfId="3" priority="536">
-      <formula>LEN(TRIM(F10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29:P37">
-    <cfRule type="containsBlanks" dxfId="2" priority="537">
-      <formula>LEN(TRIM(F29))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R10:AB18">
-    <cfRule type="containsBlanks" dxfId="1" priority="538">
-      <formula>LEN(TRIM(R10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R29:AB37">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(R29))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B29" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Cb,C,C#,Db,D,D#,Eb,E,E#,Fb,F,F#,Gb,G,G#,Ab,A,A#,Bb,B,B#"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C18 C35:C37" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"A,A#,B,C,C#,D,D#,E,e,F,F#,G,G#"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF4 AF29:AF38 AF10:AF19" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF4:AF7" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C15 C29:C34" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Cb,C,C#,Db,D,D#,Eb,e,E,E#,Fb,F,F#,Gb,G,G#,Ab,A,A#,Bb,B,B#"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B38 B19" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>"Ionian (Major),Diminished,Dominant,Dorian,Phrygian,Lydian,Mixolydian,Aolian (Minor),Locrian, Harmonic Minor, Melodic Minor, Blues, Pentatonic Major, Pentatonic Minor, Major Chord Tones, Minor Chord Tones"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B38" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>"Ionian (Major),Dorian,Phrygian,Lydian,Mixolydian,Aolian (Minor),Locrian,Pentatonic Minor,Pentatonic Major,Harmonic Minor,Melodic Minor,Blues,Major Chord Tones,Minor Chord Tones,Diminished,Dominant"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{1F036F01-1834-4895-90FF-C9DBEFA098E3}">
+      <formula1>"Ionian (Major),Dorian,Phrygian,Lydian,Mixolydian,Aolian (Minor),Locrian,Pentatonic Minor,Pentatonic Major,Harmonic Minor,Melodic Minor,Blues,Major Chord Tones,Minor Chord Tones,Diminished,Dominant"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6769,8 +7098,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BO57"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -6779,7 +7108,8 @@
     <col min="2" max="2" width="39.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="27.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="5" customWidth="1"/>
     <col min="7" max="7" width="15" style="5" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" style="5" customWidth="1"/>
     <col min="9" max="9" width="30.7109375" customWidth="1"/>
@@ -6793,153 +7123,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" s="3" customFormat="1" ht="57.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>96</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="137" t="s">
+      <c r="G1" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="138"/>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="131"/>
+      <c r="I1" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="112" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="20">
-        <v>1</v>
-      </c>
-      <c r="S1" s="20">
+      <c r="R1" s="19">
+        <v>1</v>
+      </c>
+      <c r="S1" s="19">
         <v>2</v>
       </c>
-      <c r="T1" s="20">
+      <c r="T1" s="19">
         <v>3</v>
       </c>
-      <c r="U1" s="20">
+      <c r="U1" s="19">
         <v>4</v>
       </c>
-      <c r="V1" s="20">
+      <c r="V1" s="19">
         <v>5</v>
       </c>
-      <c r="W1" s="20">
+      <c r="W1" s="19">
         <v>6</v>
       </c>
-      <c r="X1" s="20">
+      <c r="X1" s="19">
         <v>7</v>
       </c>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="41">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="41">
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="40">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="40">
         <v>2</v>
       </c>
-      <c r="AB1" s="41">
+      <c r="AB1" s="40">
         <v>3</v>
       </c>
-      <c r="AC1" s="20">
+      <c r="AC1" s="19">
         <v>4</v>
       </c>
-      <c r="AD1" s="41">
+      <c r="AD1" s="40">
         <v>5</v>
       </c>
-      <c r="AE1" s="41">
+      <c r="AE1" s="40">
         <v>6</v>
       </c>
-      <c r="AF1" s="41">
+      <c r="AF1" s="40">
         <v>7</v>
       </c>
-      <c r="AG1" s="20">
+      <c r="AG1" s="19">
         <v>8</v>
       </c>
-      <c r="AH1" s="41">
+      <c r="AH1" s="40">
         <v>9</v>
       </c>
-      <c r="AI1" s="41">
+      <c r="AI1" s="40">
         <v>10</v>
       </c>
-      <c r="AJ1" s="41">
+      <c r="AJ1" s="40">
         <v>11</v>
       </c>
-      <c r="AK1" s="20">
+      <c r="AK1" s="19">
         <v>12</v>
       </c>
-      <c r="AL1" s="41">
+      <c r="AL1" s="40">
         <v>13</v>
       </c>
-      <c r="AM1" s="41">
+      <c r="AM1" s="40">
         <v>14</v>
       </c>
-      <c r="AN1" s="41">
+      <c r="AN1" s="40">
         <v>15</v>
       </c>
-      <c r="AO1" s="20">
+      <c r="AO1" s="19">
         <v>16</v>
       </c>
-      <c r="AP1" s="41">
+      <c r="AP1" s="40">
         <v>17</v>
       </c>
-      <c r="AQ1" s="41">
+      <c r="AQ1" s="40">
         <v>18</v>
       </c>
-      <c r="AR1" s="41">
+      <c r="AR1" s="40">
         <v>19</v>
       </c>
-      <c r="AS1" s="20">
+      <c r="AS1" s="19">
         <v>20</v>
       </c>
-      <c r="AT1" s="41">
+      <c r="AT1" s="40">
         <v>21</v>
       </c>
-      <c r="AU1" s="41">
+      <c r="AU1" s="40">
         <v>22</v>
       </c>
-      <c r="AV1" s="41">
+      <c r="AV1" s="40">
         <v>23</v>
       </c>
-      <c r="AW1" s="20">
+      <c r="AW1" s="19">
         <v>24</v>
       </c>
-      <c r="AX1" s="41">
+      <c r="AX1" s="40">
         <v>25</v>
       </c>
-      <c r="AY1" s="42">
+      <c r="AY1" s="41">
         <v>26</v>
       </c>
-      <c r="BA1" s="45"/>
+      <c r="BA1" s="44"/>
       <c r="BB1" s="8"/>
       <c r="BC1" s="8"/>
       <c r="BD1" s="8"/>
       <c r="BE1" s="8"/>
       <c r="BF1" s="8"/>
       <c r="BG1" s="8"/>
-      <c r="BH1" s="46"/>
+      <c r="BH1" s="45"/>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -6951,13 +7281,13 @@
       <c r="E2" s="11">
         <v>9</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>177</v>
       </c>
       <c r="J2" s="9">
@@ -6978,10 +7308,10 @@
       <c r="O2" s="9">
         <v>2</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="138">
         <v>2</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="9" t="s">
         <v>177</v>
       </c>
       <c r="R2" s="6"/>
@@ -6997,92 +7327,92 @@
       <c r="X2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="Y2" s="43">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="28" t="s">
+      <c r="Y2" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="AB2" s="28" t="s">
+      <c r="AB2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="29"/>
-      <c r="BA2" s="47" t="s">
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="28"/>
+      <c r="BA2" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="BB2" s="47" t="s">
+      <c r="BB2" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="BC2" s="47">
-        <v>1</v>
-      </c>
-      <c r="BD2" s="47">
+      <c r="BC2" s="46">
+        <v>1</v>
+      </c>
+      <c r="BD2" s="46">
         <v>2</v>
       </c>
-      <c r="BE2" s="47">
+      <c r="BE2" s="46">
         <v>3</v>
       </c>
-      <c r="BF2" s="47">
+      <c r="BF2" s="46">
         <v>4</v>
       </c>
-      <c r="BG2" s="47">
+      <c r="BG2" s="46">
         <v>5</v>
       </c>
-      <c r="BH2" s="47">
+      <c r="BH2" s="46">
         <v>6</v>
       </c>
-      <c r="BI2" s="47">
+      <c r="BI2" s="46">
         <v>7</v>
       </c>
-      <c r="BJ2" s="47">
+      <c r="BJ2" s="46">
         <v>8</v>
       </c>
-      <c r="BK2" s="47">
+      <c r="BK2" s="46">
         <v>9</v>
       </c>
-      <c r="BL2" s="47">
+      <c r="BL2" s="46">
         <v>10</v>
       </c>
-      <c r="BM2" s="47">
+      <c r="BM2" s="46">
         <v>11</v>
       </c>
-      <c r="BN2" s="47">
+      <c r="BN2" s="46">
         <v>12</v>
       </c>
-      <c r="BO2" s="47">
+      <c r="BO2" s="46">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -7094,11 +7424,11 @@
       <c r="E3" s="11">
         <v>10</v>
       </c>
-      <c r="G3" s="135" t="s">
+      <c r="G3" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="129"/>
+      <c r="I3" s="15" t="s">
         <v>61</v>
       </c>
       <c r="J3" s="9">
@@ -7119,7 +7449,7 @@
       <c r="O3" s="9">
         <v>3</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="138">
         <v>1</v>
       </c>
       <c r="Q3" s="9" t="s">
@@ -7142,46 +7472,46 @@
       <c r="X3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="Y3" s="43">
+      <c r="Y3" s="42">
         <v>2</v>
       </c>
-      <c r="Z3" s="28" t="s">
+      <c r="Z3" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="28" t="s">
+      <c r="AA3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AB3" s="28" t="s">
+      <c r="AB3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="28" t="s">
+      <c r="AC3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="AD3" s="28" t="s">
+      <c r="AD3" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="28"/>
-      <c r="AY3" s="29"/>
-      <c r="BA3" s="45" t="s">
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="27"/>
+      <c r="AY3" s="28"/>
+      <c r="BA3" s="44" t="s">
         <v>122</v>
       </c>
       <c r="BB3" t="s">
@@ -7209,10 +7539,10 @@
       <c r="BN3" s="7"/>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -7224,7 +7554,7 @@
       <c r="E4" s="11">
         <v>11</v>
       </c>
-      <c r="G4" s="16" t="str">
+      <c r="G4" s="15" t="str">
         <f>Fretboards!B10</f>
         <v>C</v>
       </c>
@@ -7232,7 +7562,7 @@
         <f>Fretboards!B19</f>
         <v>Ionian (Major)</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>173</v>
       </c>
       <c r="J4" s="9">
@@ -7253,10 +7583,10 @@
       <c r="O4" s="9">
         <v>4</v>
       </c>
-      <c r="P4" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="16" t="s">
+      <c r="P4" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="9" t="s">
         <v>173</v>
       </c>
       <c r="R4" s="6"/>
@@ -7266,46 +7596,46 @@
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
-      <c r="Y4" s="43">
+      <c r="Y4" s="42">
         <v>3</v>
       </c>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28" t="s">
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="AC4" s="28" t="s">
+      <c r="AC4" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AD4" s="28" t="s">
+      <c r="AD4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="28" t="s">
+      <c r="AE4" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="AF4" s="28" t="s">
+      <c r="AF4" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="28"/>
-      <c r="AO4" s="28"/>
-      <c r="AP4" s="28"/>
-      <c r="AQ4" s="28"/>
-      <c r="AR4" s="28"/>
-      <c r="AS4" s="28"/>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="28"/>
-      <c r="AY4" s="29"/>
-      <c r="BA4" s="45" t="s">
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="27"/>
+      <c r="AR4" s="27"/>
+      <c r="AS4" s="27"/>
+      <c r="AT4" s="27"/>
+      <c r="AU4" s="27"/>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="27"/>
+      <c r="AX4" s="27"/>
+      <c r="AY4" s="28"/>
+      <c r="BA4" s="44" t="s">
         <v>128</v>
       </c>
       <c r="BB4" t="s">
@@ -7333,10 +7663,10 @@
       <c r="BN4" s="7"/>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -7348,11 +7678,11 @@
       <c r="E5" s="11">
         <v>8</v>
       </c>
-      <c r="G5" s="135" t="s">
+      <c r="G5" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="136"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="129"/>
+      <c r="I5" s="15" t="s">
         <v>174</v>
       </c>
       <c r="J5" s="9">
@@ -7373,10 +7703,10 @@
       <c r="O5" s="9">
         <v>3</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="138">
         <v>2</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="9" t="s">
         <v>174</v>
       </c>
       <c r="R5" s="6"/>
@@ -7390,46 +7720,46 @@
       <c r="X5" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="Y5" s="43">
+      <c r="Y5" s="42">
         <v>4</v>
       </c>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28" t="s">
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AD5" s="28" t="s">
+      <c r="AD5" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="AE5" s="28" t="s">
+      <c r="AE5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AF5" s="28" t="s">
+      <c r="AF5" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="AG5" s="28" t="s">
+      <c r="AG5" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="28"/>
-      <c r="AN5" s="28"/>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="28"/>
-      <c r="AQ5" s="28"/>
-      <c r="AR5" s="28"/>
-      <c r="AS5" s="28"/>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="28"/>
-      <c r="AX5" s="28"/>
-      <c r="AY5" s="29"/>
-      <c r="BA5" s="45" t="s">
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="27"/>
+      <c r="AS5" s="27"/>
+      <c r="AT5" s="27"/>
+      <c r="AU5" s="27"/>
+      <c r="AV5" s="27"/>
+      <c r="AW5" s="27"/>
+      <c r="AX5" s="27"/>
+      <c r="AY5" s="28"/>
+      <c r="BA5" s="44" t="s">
         <v>131</v>
       </c>
       <c r="BB5" t="s">
@@ -7455,10 +7785,10 @@
       <c r="BN5" s="7"/>
     </row>
     <row r="6" spans="1:67" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -7470,15 +7800,15 @@
       <c r="E6" s="11">
         <v>7</v>
       </c>
-      <c r="G6" s="17" t="str">
+      <c r="G6" s="16" t="str">
         <f>Fretboards!B29</f>
         <v>E</v>
       </c>
-      <c r="H6" s="18" t="str">
+      <c r="H6" s="17" t="str">
         <f>Fretboards!B38</f>
         <v>Pentatonic Minor</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>175</v>
       </c>
       <c r="J6" s="9">
@@ -7499,10 +7829,10 @@
       <c r="O6" s="9">
         <v>3</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="138">
         <v>2</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="9" t="s">
         <v>175</v>
       </c>
       <c r="R6" s="6"/>
@@ -7518,46 +7848,46 @@
       <c r="X6" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="Y6" s="43">
+      <c r="Y6" s="42">
         <v>5</v>
       </c>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28" t="s">
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="AF6" s="28" t="s">
+      <c r="AF6" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="AG6" s="28" t="s">
+      <c r="AG6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="28" t="s">
+      <c r="AH6" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="AI6" s="28" t="s">
+      <c r="AI6" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="28"/>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="28"/>
-      <c r="AQ6" s="28"/>
-      <c r="AR6" s="28"/>
-      <c r="AS6" s="28"/>
-      <c r="AT6" s="28"/>
-      <c r="AU6" s="28"/>
-      <c r="AV6" s="28"/>
-      <c r="AW6" s="28"/>
-      <c r="AX6" s="28"/>
-      <c r="AY6" s="29"/>
-      <c r="BA6" s="45" t="s">
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="27"/>
+      <c r="AO6" s="27"/>
+      <c r="AP6" s="27"/>
+      <c r="AQ6" s="27"/>
+      <c r="AR6" s="27"/>
+      <c r="AS6" s="27"/>
+      <c r="AT6" s="27"/>
+      <c r="AU6" s="27"/>
+      <c r="AV6" s="27"/>
+      <c r="AW6" s="27"/>
+      <c r="AX6" s="27"/>
+      <c r="AY6" s="28"/>
+      <c r="BA6" s="44" t="s">
         <v>134</v>
       </c>
       <c r="BB6" t="s">
@@ -7601,10 +7931,10 @@
       </c>
     </row>
     <row r="7" spans="1:67" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -7616,7 +7946,7 @@
       <c r="E7" s="11">
         <v>11</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>45</v>
       </c>
       <c r="J7" s="9">
@@ -7637,10 +7967,10 @@
       <c r="O7" s="9">
         <v>1</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="138">
         <v>2</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="Q7" s="9" t="s">
         <v>45</v>
       </c>
       <c r="R7" s="6"/>
@@ -7652,46 +7982,46 @@
       <c r="X7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="Y7" s="43">
+      <c r="Y7" s="42">
         <v>6</v>
       </c>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28" t="s">
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AH7" s="28" t="s">
+      <c r="AH7" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="AI7" s="28" t="s">
+      <c r="AI7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AJ7" s="28" t="s">
+      <c r="AJ7" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="AK7" s="28" t="s">
+      <c r="AK7" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="28"/>
-      <c r="AR7" s="28"/>
-      <c r="AS7" s="28"/>
-      <c r="AT7" s="28"/>
-      <c r="AU7" s="28"/>
-      <c r="AV7" s="28"/>
-      <c r="AW7" s="28"/>
-      <c r="AX7" s="28"/>
-      <c r="AY7" s="29"/>
-      <c r="BA7" s="48" t="s">
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="27"/>
+      <c r="AQ7" s="27"/>
+      <c r="AR7" s="27"/>
+      <c r="AS7" s="27"/>
+      <c r="AT7" s="27"/>
+      <c r="AU7" s="27"/>
+      <c r="AV7" s="27"/>
+      <c r="AW7" s="27"/>
+      <c r="AX7" s="27"/>
+      <c r="AY7" s="28"/>
+      <c r="BA7" s="47" t="s">
         <v>141</v>
       </c>
       <c r="BB7" t="s">
@@ -7719,10 +8049,10 @@
       <c r="BN7" s="7"/>
     </row>
     <row r="8" spans="1:67" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -7734,7 +8064,7 @@
       <c r="E8" s="11">
         <v>0</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="9">
@@ -7755,7 +8085,7 @@
       <c r="O8" s="9">
         <v>1</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="138">
         <v>2</v>
       </c>
       <c r="Q8" s="9" t="s">
@@ -7772,50 +8102,50 @@
       <c r="X8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="Y8" s="43">
+      <c r="Y8" s="42">
         <v>7</v>
       </c>
-      <c r="Z8" s="28" t="s">
+      <c r="Z8" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="AA8" s="28" t="s">
+      <c r="AA8" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28" t="s">
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="AJ8" s="28" t="s">
+      <c r="AJ8" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="AK8" s="28" t="s">
+      <c r="AK8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AL8" s="28" t="s">
+      <c r="AL8" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="AM8" s="28" t="s">
+      <c r="AM8" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="28"/>
-      <c r="AQ8" s="28"/>
-      <c r="AR8" s="28"/>
-      <c r="AS8" s="28"/>
-      <c r="AT8" s="28"/>
-      <c r="AU8" s="28"/>
-      <c r="AV8" s="28"/>
-      <c r="AW8" s="28"/>
-      <c r="AX8" s="28"/>
-      <c r="AY8" s="29"/>
-      <c r="BA8" s="48" t="s">
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="27"/>
+      <c r="AP8" s="27"/>
+      <c r="AQ8" s="27"/>
+      <c r="AR8" s="27"/>
+      <c r="AS8" s="27"/>
+      <c r="AT8" s="27"/>
+      <c r="AU8" s="27"/>
+      <c r="AV8" s="27"/>
+      <c r="AW8" s="27"/>
+      <c r="AX8" s="27"/>
+      <c r="AY8" s="28"/>
+      <c r="BA8" s="47" t="s">
         <v>143</v>
       </c>
       <c r="BB8" t="s">
@@ -7843,7 +8173,7 @@
       <c r="BN8" s="7"/>
     </row>
     <row r="9" spans="1:67" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -7855,7 +8185,7 @@
       <c r="E9" s="11">
         <v>13</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>58</v>
       </c>
       <c r="J9" s="9">
@@ -7876,7 +8206,7 @@
       <c r="O9" s="9">
         <v>3</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="138">
         <v>1</v>
       </c>
       <c r="Q9" s="9" t="s">
@@ -7889,56 +8219,56 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
-      <c r="Y9" s="43">
+      <c r="Y9" s="42">
         <v>8</v>
       </c>
-      <c r="Z9" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="28" t="s">
+      <c r="Z9" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="AB9" s="28" t="s">
+      <c r="AB9" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="AC9" s="28" t="s">
+      <c r="AC9" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28" t="s">
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="AK9" s="28" t="s">
+      <c r="AK9" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="AL9" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM9" s="28" t="s">
+      <c r="AL9" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="AN9" s="28" t="s">
+      <c r="AN9" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="AO9" s="28" t="s">
+      <c r="AO9" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="AP9" s="28"/>
-      <c r="AQ9" s="28"/>
-      <c r="AR9" s="28"/>
-      <c r="AS9" s="28"/>
-      <c r="AT9" s="28"/>
-      <c r="AU9" s="28"/>
-      <c r="AV9" s="28"/>
-      <c r="AW9" s="28"/>
-      <c r="AX9" s="28"/>
-      <c r="AY9" s="29"/>
-      <c r="BA9" s="48" t="s">
+      <c r="AP9" s="27"/>
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="27"/>
+      <c r="AS9" s="27"/>
+      <c r="AT9" s="27"/>
+      <c r="AU9" s="27"/>
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="27"/>
+      <c r="AX9" s="27"/>
+      <c r="AY9" s="28"/>
+      <c r="BA9" s="47" t="s">
         <v>145</v>
       </c>
       <c r="BB9" t="s">
@@ -7980,7 +8310,7 @@
       <c r="BN9" s="7"/>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -7992,7 +8322,7 @@
       <c r="E10" s="9">
         <v>10</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="15" t="s">
         <v>172</v>
       </c>
       <c r="J10" s="9">
@@ -8013,10 +8343,10 @@
       <c r="O10" s="9">
         <v>2</v>
       </c>
-      <c r="P10" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="16" t="s">
+      <c r="P10" s="138">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9" t="s">
         <v>172</v>
       </c>
       <c r="R10" s="6"/>
@@ -8026,56 +8356,56 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
-      <c r="Y10" s="43">
+      <c r="Y10" s="42">
         <v>9</v>
       </c>
-      <c r="Z10" s="28" t="s">
+      <c r="Z10" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AA10" s="28" t="s">
+      <c r="AA10" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AB10" s="28" t="s">
+      <c r="AB10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AC10" s="28" t="s">
+      <c r="AC10" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="AD10" s="28" t="s">
+      <c r="AD10" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
-      <c r="AK10" s="28"/>
-      <c r="AL10" s="28" t="s">
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AM10" s="28" t="s">
+      <c r="AM10" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AN10" s="28" t="s">
+      <c r="AN10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AO10" s="28" t="s">
+      <c r="AO10" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="AP10" s="28" t="s">
+      <c r="AP10" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="AQ10" s="28"/>
-      <c r="AR10" s="28"/>
-      <c r="AS10" s="28"/>
-      <c r="AT10" s="28"/>
-      <c r="AU10" s="28"/>
-      <c r="AV10" s="28"/>
-      <c r="AW10" s="28"/>
-      <c r="AX10" s="28"/>
-      <c r="AY10" s="29"/>
-      <c r="BA10" s="48" t="s">
+      <c r="AQ10" s="27"/>
+      <c r="AR10" s="27"/>
+      <c r="AS10" s="27"/>
+      <c r="AT10" s="27"/>
+      <c r="AU10" s="27"/>
+      <c r="AV10" s="27"/>
+      <c r="AW10" s="27"/>
+      <c r="AX10" s="27"/>
+      <c r="AY10" s="28"/>
+      <c r="BA10" s="47" t="s">
         <v>149</v>
       </c>
       <c r="BB10" t="s">
@@ -8113,7 +8443,7 @@
       <c r="BN10" s="7"/>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -8125,7 +8455,7 @@
       <c r="E11" s="11">
         <v>9</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="9">
@@ -8146,7 +8476,7 @@
       <c r="O11" s="9">
         <v>2</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="138">
         <v>2</v>
       </c>
       <c r="Q11" s="9" t="s">
@@ -8169,56 +8499,56 @@
       <c r="X11" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="Y11" s="43">
+      <c r="Y11" s="42">
         <v>10</v>
       </c>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28" t="s">
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="AC11" s="28" t="s">
+      <c r="AC11" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AD11" s="28" t="s">
+      <c r="AD11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AE11" s="28" t="s">
+      <c r="AE11" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="AF11" s="28" t="s">
+      <c r="AF11" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="28"/>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="28" t="s">
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="AO11" s="28" t="s">
+      <c r="AO11" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AP11" s="28" t="s">
+      <c r="AP11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AQ11" s="28" t="s">
+      <c r="AQ11" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="AR11" s="28" t="s">
+      <c r="AR11" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="AS11" s="28"/>
-      <c r="AT11" s="28"/>
-      <c r="AU11" s="28"/>
-      <c r="AV11" s="28"/>
-      <c r="AW11" s="28"/>
-      <c r="AX11" s="28"/>
-      <c r="AY11" s="29"/>
-      <c r="BA11" s="48" t="s">
+      <c r="AS11" s="27"/>
+      <c r="AT11" s="27"/>
+      <c r="AU11" s="27"/>
+      <c r="AV11" s="27"/>
+      <c r="AW11" s="27"/>
+      <c r="AX11" s="27"/>
+      <c r="AY11" s="28"/>
+      <c r="BA11" s="47" t="s">
         <v>151</v>
       </c>
       <c r="BB11" t="s">
@@ -8244,7 +8574,7 @@
       <c r="BN11" s="7"/>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -8256,7 +8586,7 @@
       <c r="E12" s="12">
         <v>0</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="15" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="9">
@@ -8277,7 +8607,7 @@
       <c r="O12" s="9">
         <v>2</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="138">
         <v>1</v>
       </c>
       <c r="Q12" s="9" t="s">
@@ -8292,56 +8622,56 @@
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
-      <c r="Y12" s="43">
+      <c r="Y12" s="42">
         <v>11</v>
       </c>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28" t="s">
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AD12" s="28" t="s">
+      <c r="AD12" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="AE12" s="28" t="s">
+      <c r="AE12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AF12" s="28" t="s">
+      <c r="AF12" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="AG12" s="28" t="s">
+      <c r="AG12" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="28"/>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="28" t="s">
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AP12" s="28" t="s">
+      <c r="AP12" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="AQ12" s="28" t="s">
+      <c r="AQ12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AR12" s="28" t="s">
+      <c r="AR12" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="AS12" s="28" t="s">
+      <c r="AS12" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="AT12" s="28"/>
-      <c r="AU12" s="28"/>
-      <c r="AV12" s="28"/>
-      <c r="AW12" s="28"/>
-      <c r="AX12" s="28"/>
-      <c r="AY12" s="29"/>
-      <c r="BA12" s="48" t="s">
+      <c r="AT12" s="27"/>
+      <c r="AU12" s="27"/>
+      <c r="AV12" s="27"/>
+      <c r="AW12" s="27"/>
+      <c r="AX12" s="27"/>
+      <c r="AY12" s="28"/>
+      <c r="BA12" s="47" t="s">
         <v>152</v>
       </c>
       <c r="BB12" t="s">
@@ -8377,7 +8707,7 @@
       <c r="BN12" s="7"/>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -8389,7 +8719,7 @@
       <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>57</v>
       </c>
       <c r="J13" s="9">
@@ -8410,7 +8740,7 @@
       <c r="O13" s="9">
         <v>2</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="138">
         <v>1</v>
       </c>
       <c r="Q13" s="9" t="s">
@@ -8425,56 +8755,56 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
-      <c r="Y13" s="43">
+      <c r="Y13" s="42">
         <v>12</v>
       </c>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28" t="s">
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="AF13" s="28" t="s">
+      <c r="AF13" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="AG13" s="28" t="s">
+      <c r="AG13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AH13" s="28" t="s">
+      <c r="AH13" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="AI13" s="28" t="s">
+      <c r="AI13" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="28"/>
-      <c r="AL13" s="28"/>
-      <c r="AM13" s="28"/>
-      <c r="AN13" s="28"/>
-      <c r="AO13" s="28"/>
-      <c r="AP13" s="28"/>
-      <c r="AQ13" s="28" t="s">
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="27"/>
+      <c r="AP13" s="27"/>
+      <c r="AQ13" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="AR13" s="28" t="s">
+      <c r="AR13" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="AS13" s="28" t="s">
+      <c r="AS13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AT13" s="28" t="s">
+      <c r="AT13" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="AU13" s="28" t="s">
+      <c r="AU13" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="AV13" s="28"/>
-      <c r="AW13" s="28"/>
-      <c r="AX13" s="28"/>
-      <c r="AY13" s="29"/>
-      <c r="BA13" s="48" t="s">
+      <c r="AV13" s="27"/>
+      <c r="AW13" s="27"/>
+      <c r="AX13" s="27"/>
+      <c r="AY13" s="28"/>
+      <c r="BA13" s="47" t="s">
         <v>160</v>
       </c>
       <c r="BB13" t="s">
@@ -8521,7 +8851,7 @@
       </c>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -8533,7 +8863,7 @@
       <c r="E14" s="11">
         <v>2</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="15" t="s">
         <v>21</v>
       </c>
       <c r="J14" s="9">
@@ -8554,7 +8884,7 @@
       <c r="O14" s="9">
         <v>1</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="138">
         <v>2</v>
       </c>
       <c r="Q14" s="9" t="s">
@@ -8569,56 +8899,56 @@
       <c r="X14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="Y14" s="43">
+      <c r="Y14" s="42">
         <v>13</v>
       </c>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28" t="s">
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AH14" s="28" t="s">
+      <c r="AH14" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="AI14" s="28" t="s">
+      <c r="AI14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AJ14" s="28" t="s">
+      <c r="AJ14" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="AK14" s="28" t="s">
+      <c r="AK14" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="AL14" s="28"/>
-      <c r="AM14" s="29"/>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="28"/>
-      <c r="AP14" s="28"/>
-      <c r="AQ14" s="28"/>
-      <c r="AR14" s="28"/>
-      <c r="AS14" s="28" t="s">
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="27"/>
+      <c r="AR14" s="27"/>
+      <c r="AS14" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AT14" s="28" t="s">
+      <c r="AT14" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="AU14" s="28" t="s">
+      <c r="AU14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AV14" s="28" t="s">
+      <c r="AV14" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="AW14" s="28" t="s">
+      <c r="AW14" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="AX14" s="28"/>
-      <c r="AY14" s="29"/>
-      <c r="BA14" s="48" t="s">
+      <c r="AX14" s="27"/>
+      <c r="AY14" s="28"/>
+      <c r="BA14" s="47" t="s">
         <v>163</v>
       </c>
       <c r="BB14" t="s">
@@ -8654,7 +8984,7 @@
       <c r="BN14" s="7"/>
     </row>
     <row r="15" spans="1:67" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -8666,7 +8996,7 @@
       <c r="E15" s="11">
         <v>11</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="15" t="s">
         <v>104</v>
       </c>
       <c r="J15" s="9">
@@ -8687,10 +9017,10 @@
       <c r="O15" s="9">
         <v>0</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="138">
         <v>2</v>
       </c>
-      <c r="Q15" s="16" t="s">
+      <c r="Q15" s="9" t="s">
         <v>104</v>
       </c>
       <c r="R15" s="6"/>
@@ -8700,56 +9030,56 @@
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
-      <c r="Y15" s="44">
+      <c r="Y15" s="43">
         <v>14</v>
       </c>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="30" t="s">
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="AJ15" s="30" t="s">
+      <c r="AJ15" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="AK15" s="30" t="s">
+      <c r="AK15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AL15" s="30" t="s">
+      <c r="AL15" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="AM15" s="31" t="s">
+      <c r="AM15" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="AN15" s="30"/>
-      <c r="AO15" s="30"/>
-      <c r="AP15" s="30"/>
-      <c r="AQ15" s="30"/>
-      <c r="AR15" s="30"/>
-      <c r="AS15" s="30"/>
-      <c r="AT15" s="30"/>
-      <c r="AU15" s="30" t="s">
+      <c r="AN15" s="29"/>
+      <c r="AO15" s="29"/>
+      <c r="AP15" s="29"/>
+      <c r="AQ15" s="29"/>
+      <c r="AR15" s="29"/>
+      <c r="AS15" s="29"/>
+      <c r="AT15" s="29"/>
+      <c r="AU15" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="AV15" s="30" t="s">
+      <c r="AV15" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="AW15" s="30" t="s">
+      <c r="AW15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AX15" s="30" t="s">
+      <c r="AX15" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="AY15" s="31" t="s">
+      <c r="AY15" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="BA15" s="48" t="s">
+      <c r="BA15" s="47" t="s">
         <v>166</v>
       </c>
       <c r="BB15" t="s">
@@ -8787,7 +9117,7 @@
       <c r="BN15" s="7"/>
     </row>
     <row r="16" spans="1:67" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -8799,7 +9129,7 @@
       <c r="E16" s="11">
         <v>10</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="15" t="s">
         <v>105</v>
       </c>
       <c r="J16" s="9">
@@ -8820,10 +9150,10 @@
       <c r="O16" s="9">
         <v>3</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="138">
         <v>2</v>
       </c>
-      <c r="Q16" s="16" t="s">
+      <c r="Q16" s="9" t="s">
         <v>105</v>
       </c>
       <c r="R16" s="6"/>
@@ -8842,7 +9172,7 @@
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
-      <c r="BA16" s="48" t="s">
+      <c r="BA16" s="47" t="s">
         <v>168</v>
       </c>
       <c r="BB16" t="s">
@@ -8880,7 +9210,7 @@
       <c r="BN16" s="7"/>
     </row>
     <row r="17" spans="2:66" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -8892,49 +9222,49 @@
       <c r="E17" s="11">
         <v>2</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="18">
-        <v>1</v>
-      </c>
-      <c r="K17" s="18">
+      <c r="J17" s="17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="17">
         <v>2</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="17">
         <v>2</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="17">
         <v>2</v>
       </c>
-      <c r="N17" s="18">
-        <v>1</v>
-      </c>
-      <c r="O17" s="18">
+      <c r="N17" s="17">
+        <v>1</v>
+      </c>
+      <c r="O17" s="17">
         <v>2</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P17" s="139">
         <v>2</v>
       </c>
-      <c r="Q17" s="18" t="s">
+      <c r="Q17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21" t="s">
+      <c r="R17" s="20"/>
+      <c r="S17" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="T17" s="21" t="s">
+      <c r="T17" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21" t="s">
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="X17" s="21" t="s">
+      <c r="X17" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="BA17" s="48" t="s">
+      <c r="BA17" s="47" t="s">
         <v>169</v>
       </c>
       <c r="BB17" t="s">
@@ -8962,7 +9292,7 @@
       <c r="BN17" s="7"/>
     </row>
     <row r="18" spans="2:66" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -8974,7 +9304,7 @@
       <c r="E18" s="11">
         <v>3</v>
       </c>
-      <c r="BA18" s="48"/>
+      <c r="BA18" s="47"/>
       <c r="BC18" s="7"/>
       <c r="BD18" s="7"/>
       <c r="BE18" s="7"/>
@@ -8989,7 +9319,7 @@
       <c r="BN18" s="7"/>
     </row>
     <row r="19" spans="2:66" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -9003,7 +9333,7 @@
       </c>
     </row>
     <row r="20" spans="2:66" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -9015,57 +9345,57 @@
       <c r="E20" s="11">
         <v>1</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="J20" s="23">
-        <v>1</v>
-      </c>
-      <c r="K20" s="23">
+      <c r="J20" s="22">
+        <v>1</v>
+      </c>
+      <c r="K20" s="22">
         <v>2</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="22">
         <v>3</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="22">
         <v>4</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="22">
         <v>5</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="22">
         <v>6</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="22">
         <v>7</v>
       </c>
-      <c r="Q20" s="113" t="s">
+      <c r="Q20" s="107" t="s">
         <v>183</v>
       </c>
-      <c r="R20" s="114">
-        <v>1</v>
-      </c>
-      <c r="S20" s="114">
+      <c r="R20" s="108">
+        <v>1</v>
+      </c>
+      <c r="S20" s="108">
         <v>2</v>
       </c>
-      <c r="T20" s="114">
+      <c r="T20" s="108">
         <v>3</v>
       </c>
-      <c r="U20" s="114">
+      <c r="U20" s="108">
         <v>4</v>
       </c>
-      <c r="V20" s="114">
+      <c r="V20" s="108">
         <v>5</v>
       </c>
-      <c r="W20" s="114">
+      <c r="W20" s="108">
         <v>6</v>
       </c>
-      <c r="X20" s="115">
+      <c r="X20" s="109">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -9077,7 +9407,7 @@
       <c r="E21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="23" t="s">
         <v>62</v>
       </c>
       <c r="J21" s="9">
@@ -9108,33 +9438,33 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Q21" s="116" t="s">
+      <c r="Q21" s="110" t="s">
         <v>177</v>
       </c>
       <c r="R21" s="6" t="s">
         <v>185</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="T21" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="U21" s="64" t="s">
+      <c r="U21" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="V21" s="64" t="s">
+      <c r="V21" s="63" t="s">
         <v>185</v>
       </c>
       <c r="W21" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X21" s="117">
+      <c r="X21" s="111">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -9146,7 +9476,7 @@
       <c r="E22" s="11">
         <v>4</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="24" t="s">
         <v>64</v>
       </c>
       <c r="J22" s="9">
@@ -9177,7 +9507,7 @@
         <f>VLOOKUP(Model!$H$4, Model!$I$2:$P$17,  Model!P20 + 1, FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Q22" s="116" t="s">
+      <c r="Q22" s="110" t="s">
         <v>61</v>
       </c>
       <c r="R22" s="6" t="s">
@@ -9188,7 +9518,7 @@
         <v>184</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V22" s="6" t="s">
         <v>185</v>
@@ -9196,12 +9526,12 @@
       <c r="W22" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X22" s="117" t="s">
+      <c r="X22" s="111" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="23" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -9213,7 +9543,7 @@
       <c r="E23" s="11">
         <v>5</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="24" t="s">
         <v>59</v>
       </c>
       <c r="J23" s="9">
@@ -9244,27 +9574,27 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="Q23" s="116" t="s">
+      <c r="Q23" s="110" t="s">
         <v>173</v>
       </c>
       <c r="R23" s="6" t="s">
         <v>186</v>
       </c>
       <c r="S23" s="6"/>
-      <c r="T23" s="64" t="s">
+      <c r="T23" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="U23" s="64"/>
-      <c r="V23" s="64">
+      <c r="U23" s="63"/>
+      <c r="V23" s="63">
         <v>7</v>
       </c>
-      <c r="W23" s="64"/>
-      <c r="X23" s="118" t="s">
-        <v>187</v>
+      <c r="W23" s="63"/>
+      <c r="X23" s="112" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -9276,7 +9606,7 @@
       <c r="E24" s="11">
         <v>5</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="24" t="s">
         <v>55</v>
       </c>
       <c r="J24" s="9" t="str">
@@ -9307,7 +9637,7 @@
         <f>IF(O22=0, "", INDEX($Z$2:$AY$15,VLOOKUP($G$4, $C$2:$E$41, 2, FALSE) + P20 - 1, VLOOKUP($G$4, $C$2:$E$41, 3, FALSE) + SUM($I$22:O22) + 1))</f>
         <v>B</v>
       </c>
-      <c r="Q24" s="116" t="s">
+      <c r="Q24" s="110" t="s">
         <v>174</v>
       </c>
       <c r="R24" s="6" t="s">
@@ -9317,17 +9647,17 @@
       <c r="T24" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64" t="s">
+      <c r="U24" s="63"/>
+      <c r="V24" s="63" t="s">
         <v>185</v>
       </c>
       <c r="W24" s="6"/>
-      <c r="X24" s="117">
+      <c r="X24" s="111">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -9339,7 +9669,7 @@
       <c r="E25" s="11">
         <v>6</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="23" t="s">
         <v>62</v>
       </c>
       <c r="J25" s="9">
@@ -9370,27 +9700,27 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="Q25" s="116" t="s">
+      <c r="Q25" s="110" t="s">
         <v>175</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S25" s="6"/>
       <c r="T25" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U25" s="6"/>
       <c r="V25" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W25" s="6"/>
-      <c r="X25" s="117" t="s">
-        <v>189</v>
+      <c r="X25" s="111" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -9402,7 +9732,7 @@
       <c r="E26" s="11">
         <v>3</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="24" t="s">
         <v>94</v>
       </c>
       <c r="J26" s="9">
@@ -9433,33 +9763,33 @@
         <f>VLOOKUP($H$6, Model!$I$2:$P$17, Model!P20 + 1, FALSE)</f>
         <v>2</v>
       </c>
-      <c r="Q26" s="116" t="s">
+      <c r="Q26" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="R26" s="64">
+      <c r="R26" s="63">
         <v>7</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T26" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="U26" s="64" t="s">
+      <c r="T26" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="U26" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="V26" s="64" t="s">
+      <c r="V26" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="W26" s="64" t="s">
+      <c r="W26" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="X26" s="118" t="s">
+      <c r="X26" s="112" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="27" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -9471,7 +9801,7 @@
       <c r="E27" s="11">
         <v>2</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="24" t="s">
         <v>95</v>
       </c>
       <c r="J27" s="9">
@@ -9502,7 +9832,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="Q27" s="116" t="s">
+      <c r="Q27" s="110" t="s">
         <v>27</v>
       </c>
       <c r="R27" s="6" t="s">
@@ -9514,21 +9844,21 @@
       <c r="T27" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="U27" s="64">
+      <c r="U27" s="63">
         <v>7</v>
       </c>
-      <c r="V27" s="64" t="s">
+      <c r="V27" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="W27" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="X27" s="117" t="s">
+      <c r="W27" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="X27" s="111" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="28" spans="2:66" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -9540,48 +9870,48 @@
       <c r="E28" s="11">
         <v>5</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="J28" s="27" t="str">
+      <c r="J28" s="26" t="str">
         <f>INDEX($Z$2:$AY$15,VLOOKUP($G$6, $C$2:$E$41, 2, FALSE) + J20 - 1, VLOOKUP($G$6, $C$2:$E$41, 3,FALSE) + SUM($I$26:I26) + 1)</f>
         <v>E</v>
       </c>
-      <c r="K28" s="27" t="str">
+      <c r="K28" s="26" t="str">
         <f>IF(J26=0, "", INDEX($Z$2:$AY$15,VLOOKUP($G$6, $C$2:$E$41, 2, FALSE) + K20 - 1, VLOOKUP($G$6, $C$2:$E$41, 3, FALSE) + SUM($I$26:J26) + 1))</f>
         <v/>
       </c>
-      <c r="L28" s="27" t="str">
+      <c r="L28" s="26" t="str">
         <f>IF(K26=0, "", INDEX($Z$2:$AY$15,VLOOKUP($G$6, $C$2:$E$41, 2, FALSE) + L20 - 1, VLOOKUP($G$6, $C$2:$E$41, 3, FALSE) + SUM($I$26:K26) + 1))</f>
         <v>G</v>
       </c>
-      <c r="M28" s="27" t="str">
+      <c r="M28" s="26" t="str">
         <f>IF(L26=0, "", INDEX($Z$2:$AY$15,VLOOKUP($G$6, $C$2:$E$41, 2, FALSE) + M20 - 1, VLOOKUP($G$6, $C$2:$E$41, 3, FALSE) + SUM($I$26:L26) + 1))</f>
         <v>A</v>
       </c>
-      <c r="N28" s="27" t="str">
+      <c r="N28" s="26" t="str">
         <f>IF(M26=0, "", INDEX($Z$2:$AY$15,VLOOKUP($G$6, $C$2:$E$41, 2, FALSE) + N20 - 1, VLOOKUP($G$6, $C$2:$E$41, 3, FALSE) + SUM($I$26:M26) + 1))</f>
         <v>B</v>
       </c>
-      <c r="O28" s="27" t="str">
+      <c r="O28" s="26" t="str">
         <f>IF(N26=0, "", INDEX($Z$2:$AY$15,VLOOKUP($G$6, $C$2:$E$41, 2, FALSE) + O20 - 1, VLOOKUP($G$6, $C$2:$E$41, 3, FALSE) + SUM($I$26:N26) + 1))</f>
         <v/>
       </c>
-      <c r="P28" s="27" t="str">
+      <c r="P28" s="26" t="str">
         <f>IF(O26=0, "", INDEX($Z$2:$AY$15,VLOOKUP($G$6, $C$2:$E$41, 2, FALSE) + P20 - 1, VLOOKUP($G$6, $C$2:$E$41, 3, FALSE) + SUM($I$26:O26) + 1))</f>
         <v>D</v>
       </c>
-      <c r="Q28" s="116" t="s">
+      <c r="Q28" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="R28" s="64" t="s">
-        <v>196</v>
+      <c r="R28" s="63" t="s">
+        <v>195</v>
       </c>
       <c r="S28" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="T28" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="T28" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="U28" s="6" t="s">
         <v>185</v>
@@ -9592,12 +9922,12 @@
       <c r="W28" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X28" s="117" t="s">
-        <v>189</v>
+      <c r="X28" s="111" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="2:66" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -9609,7 +9939,7 @@
       <c r="E29" s="11">
         <v>6</v>
       </c>
-      <c r="Q29" s="116" t="s">
+      <c r="Q29" s="110" t="s">
         <v>172</v>
       </c>
       <c r="R29" s="6" t="s">
@@ -9618,24 +9948,24 @@
       <c r="S29" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T29" s="64" t="s">
+      <c r="T29" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="U29" s="64" t="s">
+      <c r="U29" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="V29" s="64">
+      <c r="V29" s="63">
         <v>7</v>
       </c>
-      <c r="W29" s="64" t="s">
+      <c r="W29" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="X29" s="118" t="s">
-        <v>187</v>
+      <c r="X29" s="112" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -9655,19 +9985,19 @@
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="116" t="s">
+      <c r="Q30" s="110" t="s">
         <v>30</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="S30" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="T30" s="64" t="s">
+      <c r="T30" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="U30" s="64" t="s">
+      <c r="U30" s="63" t="s">
         <v>185</v>
       </c>
       <c r="V30" s="6" t="s">
@@ -9676,12 +10006,12 @@
       <c r="W30" s="6">
         <v>7</v>
       </c>
-      <c r="X30" s="117" t="s">
+      <c r="X30" s="111" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="31" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -9694,20 +10024,20 @@
         <v>4</v>
       </c>
       <c r="I31" s="7"/>
-      <c r="Q31" s="116" t="s">
+      <c r="Q31" s="110" t="s">
         <v>26</v>
       </c>
       <c r="R31" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="S31" s="64">
+      <c r="S31" s="63">
         <v>7</v>
       </c>
-      <c r="T31" s="64" t="s">
+      <c r="T31" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="U31" s="64" t="s">
-        <v>187</v>
+      <c r="U31" s="63" t="s">
+        <v>196</v>
       </c>
       <c r="V31" s="6" t="s">
         <v>186</v>
@@ -9715,12 +10045,12 @@
       <c r="W31" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="X31" s="118" t="s">
+      <c r="X31" s="112" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="32" spans="2:66" x14ac:dyDescent="0.35">
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -9732,36 +10062,36 @@
       <c r="E32" s="11">
         <v>3</v>
       </c>
-      <c r="I32" s="126" t="s">
+      <c r="I32" s="118" t="s">
         <v>172</v>
       </c>
-      <c r="Q32" s="116" t="s">
+      <c r="Q32" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="R32" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="S32" s="64" t="s">
+      <c r="R32" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="S32" s="63" t="s">
         <v>185</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="U32" s="64">
+        <v>192</v>
+      </c>
+      <c r="U32" s="63">
         <v>7</v>
       </c>
-      <c r="V32" s="64">
+      <c r="V32" s="63">
         <v>7</v>
       </c>
-      <c r="W32" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="X32" s="118" t="s">
-        <v>190</v>
+      <c r="W32" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="X32" s="112" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -9773,20 +10103,20 @@
       <c r="E33" s="11">
         <v>7</v>
       </c>
-      <c r="I33" s="126" t="s">
+      <c r="I33" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="Q33" s="116" t="s">
+      <c r="Q33" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="R33" s="64">
+      <c r="R33" s="63">
         <v>7</v>
       </c>
-      <c r="S33" s="64" t="s">
+      <c r="S33" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="T33" s="64" t="s">
-        <v>187</v>
+      <c r="T33" s="63" t="s">
+        <v>196</v>
       </c>
       <c r="U33" s="6" t="s">
         <v>186</v>
@@ -9794,15 +10124,15 @@
       <c r="V33" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="W33" s="64" t="s">
+      <c r="W33" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="X33" s="117" t="s">
+      <c r="X33" s="111" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -9814,32 +10144,32 @@
       <c r="E34" s="11">
         <v>8</v>
       </c>
-      <c r="I34" s="126" t="s">
+      <c r="I34" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="Q34" s="116" t="s">
+      <c r="Q34" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="R34" s="64" t="s">
+      <c r="R34" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="S34" s="64" t="s">
-        <v>188</v>
-      </c>
-      <c r="T34" s="64" t="s">
-        <v>194</v>
+      <c r="S34" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="T34" s="63" t="s">
+        <v>193</v>
       </c>
       <c r="U34" s="6"/>
       <c r="V34" s="6">
         <v>5</v>
       </c>
-      <c r="W34" s="64" t="s">
+      <c r="W34" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="X34" s="117"/>
+      <c r="X34" s="111"/>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -9851,32 +10181,32 @@
       <c r="E35" s="11">
         <v>9</v>
       </c>
-      <c r="I35" s="126" t="s">
+      <c r="I35" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="Q35" s="116" t="s">
+      <c r="Q35" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="R35" s="64" t="s">
+      <c r="R35" s="63" t="s">
         <v>185</v>
       </c>
       <c r="S35" s="6"/>
       <c r="T35" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="U35" s="64" t="s">
-        <v>195</v>
+      <c r="U35" s="63" t="s">
+        <v>194</v>
       </c>
       <c r="V35" s="6">
         <v>5</v>
       </c>
       <c r="W35" s="6"/>
-      <c r="X35" s="117">
+      <c r="X35" s="111">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -9888,36 +10218,36 @@
       <c r="E36" s="11">
         <v>6</v>
       </c>
-      <c r="I36" s="126" t="s">
+      <c r="I36" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="Q36" s="119" t="s">
+      <c r="Q36" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="R36" s="120" t="s">
+      <c r="R36" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="S36" s="120" t="s">
+      <c r="S36" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="T36" s="121">
+      <c r="T36" s="115">
         <v>7</v>
       </c>
-      <c r="U36" s="121" t="s">
+      <c r="U36" s="115" t="s">
         <v>185</v>
       </c>
-      <c r="V36" s="121" t="s">
-        <v>187</v>
-      </c>
-      <c r="W36" s="120" t="s">
+      <c r="V36" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="W36" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="X36" s="122" t="s">
+      <c r="X36" s="116" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="37" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -9929,41 +10259,182 @@
       <c r="E37" s="11">
         <v>5</v>
       </c>
-      <c r="I37" s="126" t="s">
+      <c r="I37" s="118" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="38" spans="2:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="E38" s="11"/>
-      <c r="I38" s="126" t="s">
+      <c r="I38" s="118" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="11"/>
+      <c r="I40" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="J40" s="106">
+        <v>1</v>
+      </c>
+      <c r="K40" s="106">
+        <v>2</v>
+      </c>
+      <c r="L40" s="106">
+        <v>3</v>
+      </c>
+      <c r="M40" s="106">
+        <v>4</v>
+      </c>
+      <c r="N40" s="106">
+        <v>5</v>
+      </c>
+      <c r="O40" s="106">
+        <v>6</v>
+      </c>
+      <c r="P40" s="141">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="14"/>
+      <c r="I41" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="J41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" s="138" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="2:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P42" s="138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="I43" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J43" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43" s="138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="I44" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" s="138" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="I45" s="7"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
+      <c r="I45" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" s="138" t="b">
+        <v>1</v>
+      </c>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
@@ -9973,14 +10444,30 @@
       <c r="W45" s="8"/>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="I46" s="7"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
+      <c r="I46" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="J46" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O46" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P46" s="138" t="b">
+        <v>1</v>
+      </c>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
@@ -9990,14 +10477,30 @@
       <c r="W46" s="8"/>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="I47" s="7"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
+      <c r="I47" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O47" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P47" s="138" t="b">
+        <v>1</v>
+      </c>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
@@ -10007,14 +10510,30 @@
       <c r="W47" s="8"/>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="I48" s="7"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
+      <c r="I48" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J48" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P48" s="138" t="b">
+        <v>1</v>
+      </c>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
@@ -10024,14 +10543,30 @@
       <c r="W48" s="8"/>
     </row>
     <row r="49" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I49" s="7"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
+      <c r="I49" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J49" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" s="138" t="b">
+        <v>1</v>
+      </c>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
@@ -10041,14 +10576,30 @@
       <c r="W49" s="8"/>
     </row>
     <row r="50" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I50" s="7"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
+      <c r="I50" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J50" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" s="138" t="b">
+        <v>1</v>
+      </c>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
@@ -10058,14 +10609,30 @@
       <c r="W50" s="8"/>
     </row>
     <row r="51" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I51" s="7"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
+      <c r="I51" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" s="138" t="b">
+        <v>1</v>
+      </c>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
@@ -10075,14 +10642,30 @@
       <c r="W51" s="8"/>
     </row>
     <row r="52" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I52" s="7"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
+      <c r="I52" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J52" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" s="138" t="b">
+        <v>1</v>
+      </c>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
@@ -10092,14 +10675,30 @@
       <c r="W52" s="8"/>
     </row>
     <row r="53" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I53" s="7"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
+      <c r="I53" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J53" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53" s="138" t="b">
+        <v>1</v>
+      </c>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
       <c r="S53" s="8"/>
@@ -10109,14 +10708,30 @@
       <c r="W53" s="8"/>
     </row>
     <row r="54" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I54" s="7"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
+      <c r="I54" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="J54" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O54" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P54" s="138" t="b">
+        <v>1</v>
+      </c>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
@@ -10126,14 +10741,30 @@
       <c r="W54" s="8"/>
     </row>
     <row r="55" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I55" s="7"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
+      <c r="I55" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="J55" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M55" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O55" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P55" s="138" t="b">
+        <v>1</v>
+      </c>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
       <c r="S55" s="8"/>
@@ -10142,15 +10773,31 @@
       <c r="V55" s="8"/>
       <c r="W55" s="8"/>
     </row>
-    <row r="56" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I56" s="7"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
+    <row r="56" spans="9:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I56" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J56" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O56" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P56" s="139" t="b">
+        <v>1</v>
+      </c>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
       <c r="S56" s="8"/>
@@ -10159,7 +10806,7 @@
       <c r="V56" s="8"/>
       <c r="W56" s="8"/>
     </row>
-    <row r="57" spans="9:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:23" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I57" s="7"/>
     </row>
   </sheetData>

--- a/Shredsheets.xlsx
+++ b/Shredsheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Shredsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFF0691-8CF4-43CB-A24A-EE05FBAC4B9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3990C60E-FFA1-4E6B-AA1B-6E8E30ABC4C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26460" windowHeight="19635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="1965" windowWidth="26460" windowHeight="19635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fretboards" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="197">
   <si>
     <t>Ionian</t>
   </si>
@@ -632,6 +632,9 @@
   </si>
   <si>
     <t>Degree Coloring</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1793,42 +1796,54 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1839,25 +1854,235 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="141">
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF642C76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8CFF19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB567F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4DA3E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE4D2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3788CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF642C76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8CFF19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB567F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4DA3E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE4D2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3788CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF642C76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8CFF19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB567F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4DA3E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE4D2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3788CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3172,10 +3397,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B1:AF41"/>
+  <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3191,7 +3416,7 @@
     <col min="33" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" s="59" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="59" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="59">
         <v>0</v>
       </c>
@@ -3269,10 +3494,10 @@
       </c>
       <c r="AE1" s="86"/>
     </row>
-    <row r="2" spans="2:32" s="59" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="59" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE2" s="86"/>
     </row>
-    <row r="3" spans="2:32" s="60" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" s="60" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
       <c r="D3" s="59"/>
@@ -3303,161 +3528,164 @@
       <c r="AE3" s="86"/>
       <c r="AF3" s="59"/>
     </row>
-    <row r="4" spans="2:32" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="128" t="str">
+    <row r="4" spans="1:32" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="133" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(IF(B19 = "Ionian (Major)", B10 &amp; " Major", IF(B19 = "Aolian (Minor)", B10 &amp; " Minor", B10 &amp; " " &amp; B19)), "#", "♯"), "b", "♭")</f>
-        <v>C Major</v>
-      </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="K4" s="123">
+        <v>C Lydian</v>
+      </c>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="K4" s="130">
         <f>IF(J8 = "", "", IF(K5 = 0, F$1, K5))</f>
         <v>1</v>
       </c>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123">
+      <c r="L4" s="130"/>
+      <c r="M4" s="130">
         <f>IF(K8 = "", "", IF(M5 = 0, G$1, M5))</f>
         <v>2</v>
       </c>
-      <c r="N4" s="123"/>
-      <c r="O4" s="123">
+      <c r="N4" s="130"/>
+      <c r="O4" s="130">
         <f>IF(L8 = "", "", IF(O5 = 0, H$1, O5))</f>
         <v>3</v>
       </c>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123">
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130" t="str">
         <f>IF(M8 = "", "", IF(Q5 = 0, I$1, Q5))</f>
-        <v>4</v>
-      </c>
-      <c r="R4" s="123"/>
-      <c r="S4" s="123">
+        <v>♯4</v>
+      </c>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130">
         <f>IF(N8 = "", "", IF(S5 = 0, J$1, S5))</f>
         <v>5</v>
       </c>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123">
+      <c r="T4" s="130"/>
+      <c r="U4" s="130">
         <f>IF(O8 = "", "", IF(U5 = 0, K$1, U5))</f>
         <v>6</v>
       </c>
-      <c r="V4" s="123"/>
-      <c r="W4" s="123">
+      <c r="V4" s="130"/>
+      <c r="W4" s="130">
         <f>IF(P8 = "", "", IF(W5 = 0, L$1, W5))</f>
         <v>7</v>
       </c>
-      <c r="X4" s="123"/>
-      <c r="Z4" s="131" t="s">
+      <c r="X4" s="130"/>
+      <c r="Z4" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="141" t="b">
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="126" t="b">
         <v>0</v>
       </c>
-      <c r="AC4" s="141"/>
+      <c r="AC4" s="126"/>
     </row>
-    <row r="5" spans="2:32" s="60" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="K5" s="125">
+    <row r="5" spans="1:32" s="60" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="K5" s="131">
         <f>IFERROR(HLOOKUP(F$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), F$1)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125">
+      <c r="L5" s="131"/>
+      <c r="M5" s="131">
         <f>IFERROR(HLOOKUP(G$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), G$1)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125">
+      <c r="N5" s="131"/>
+      <c r="O5" s="131">
         <f>IFERROR(HLOOKUP(H$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), H$1)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125">
+      <c r="P5" s="131"/>
+      <c r="Q5" s="131" t="str">
         <f>IFERROR(HLOOKUP(I$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), I$1)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125">
+        <v>♯4</v>
+      </c>
+      <c r="R5" s="131"/>
+      <c r="S5" s="131">
         <f>IFERROR(HLOOKUP(J$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), J$1)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125">
+      <c r="T5" s="131"/>
+      <c r="U5" s="131">
         <f>IFERROR(HLOOKUP(K$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), K$1)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125">
+      <c r="V5" s="131"/>
+      <c r="W5" s="131">
         <f>IFERROR(HLOOKUP(L$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), L$1)</f>
         <v>0</v>
       </c>
-      <c r="X5" s="125"/>
-      <c r="Z5" s="131"/>
-      <c r="AA5" s="131"/>
-      <c r="AB5" s="141"/>
-      <c r="AC5" s="141"/>
+      <c r="X5" s="131"/>
+      <c r="Z5" s="125"/>
+      <c r="AA5" s="125"/>
+      <c r="AB5" s="126"/>
+      <c r="AC5" s="126"/>
     </row>
-    <row r="6" spans="2:32" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="K6" s="126" t="str">
+    <row r="6" spans="1:32" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="K6" s="129" t="str">
         <f>IF(K$4="","", J$8 &amp; IFERROR(HLOOKUP(F$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), F$1))</f>
         <v>CM7</v>
       </c>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126" t="str">
+      <c r="L6" s="129"/>
+      <c r="M6" s="129" t="str">
         <f>IF(M$4="","", K$8 &amp; IFERROR(HLOOKUP(G$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), G$1))</f>
-        <v>Dm7</v>
-      </c>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126" t="str">
+        <v>D7</v>
+      </c>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129" t="str">
         <f>IF(O$4="","", L$8 &amp; IFERROR(HLOOKUP(H$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), H$1))</f>
         <v>Em7</v>
       </c>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126" t="str">
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129" t="str">
         <f>IF(Q$4="","", M$8 &amp; IFERROR(HLOOKUP(I$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), I$1))</f>
-        <v>FM7</v>
-      </c>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126" t="str">
+        <v>F♯m7ø</v>
+      </c>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129" t="str">
         <f>IF(S$4="","", N$8 &amp; IFERROR(HLOOKUP(J$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), J$1))</f>
-        <v>G7</v>
-      </c>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126" t="str">
+        <v>GM7</v>
+      </c>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129" t="str">
         <f>IF(U$4="","", O$8 &amp; IFERROR(HLOOKUP(K$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), K$1))</f>
         <v>Am7</v>
       </c>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126" t="str">
+      <c r="V6" s="129"/>
+      <c r="W6" s="129" t="str">
         <f>IF(W$4="","", P$8 &amp; IFERROR(HLOOKUP(L$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), L$1))</f>
-        <v>Bm7ø</v>
-      </c>
-      <c r="X6" s="126"/>
-      <c r="Z6" s="131"/>
-      <c r="AA6" s="131"/>
-      <c r="AB6" s="141"/>
-      <c r="AC6" s="141"/>
+        <v>Bm7</v>
+      </c>
+      <c r="X6" s="129"/>
+      <c r="Z6" s="125"/>
+      <c r="AA6" s="125"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
     </row>
-    <row r="7" spans="2:32" s="61" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
+    <row r="7" spans="1:32" s="61" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
       <c r="J7" s="95"/>
       <c r="K7" s="95"/>
       <c r="L7" s="95"/>
@@ -3465,22 +3693,22 @@
       <c r="N7" s="95"/>
       <c r="O7" s="95"/>
       <c r="P7" s="95"/>
-      <c r="Z7" s="131"/>
-      <c r="AA7" s="131"/>
-      <c r="AB7" s="141"/>
-      <c r="AC7" s="141"/>
+      <c r="Z7" s="125"/>
+      <c r="AA7" s="125"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
     </row>
-    <row r="8" spans="2:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="129" t="s">
+    <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="129"/>
+      <c r="I8" s="134"/>
       <c r="J8" s="73" t="str">
         <f>Model!I24</f>
         <v>C</v>
@@ -3495,7 +3723,7 @@
       </c>
       <c r="M8" s="76" t="str">
         <f>IF(Model!K22=0, "", Model!L24)</f>
-        <v>F</v>
+        <v>F♯</v>
       </c>
       <c r="N8" s="77" t="str">
         <f>IF(Model!L22=0, "", Model!M24)</f>
@@ -3509,11 +3737,11 @@
         <f>IF(Model!N22=0, "", Model!O24)</f>
         <v>B</v>
       </c>
-      <c r="S8" s="130" t="s">
+      <c r="S8" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="130"/>
-      <c r="U8" s="130"/>
+      <c r="T8" s="135"/>
+      <c r="U8" s="135"/>
       <c r="V8" s="98" t="str">
         <f>IF(Model!I22=1, "h", IF(Model!I22=2, "W", IF(Model!I22=3, "W+h", IF(Model!I22=4, "WW", IF(Model!I22=0, "", Model!I22)))))</f>
         <v>W</v>
@@ -3524,11 +3752,11 @@
       </c>
       <c r="X8" s="81" t="str">
         <f>IF(Model!K22=1, "h", IF(Model!K22=2, "W", IF(Model!K22=3, "W+h", IF(Model!K22=4, "WW", IF(Model!K22=0, "", Model!K22)))))</f>
-        <v>h</v>
+        <v>W</v>
       </c>
       <c r="Y8" s="82" t="str">
         <f>IF(Model!L22=1, "h", IF(Model!L22=2, "W", IF(Model!L22=3, "W+h",IF(Model!L22=4, "WW", IF(Model!L22=0, "", Model!L22)))))</f>
-        <v>W</v>
+        <v>h</v>
       </c>
       <c r="Z8" s="83" t="str">
         <f>IF(Model!M22=1, "h", IF(Model!M22=2, "W", IF(Model!M22=3, "W+h",IF(Model!M22=4, "WW", IF(Model!M22=0, "", Model!M22)))))</f>
@@ -3542,12 +3770,12 @@
         <f>IF(Model!O22=1, "h", IF(Model!O22=2, "W", IF(Model!O22=3, "W+h",IF(Model!O22=4, "WW", IF(Model!O22=0, "", Model!O22)))))</f>
         <v>h</v>
       </c>
-      <c r="AE8" s="133" t="s">
+      <c r="AE8" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="AF8" s="133"/>
+      <c r="AF8" s="128"/>
     </row>
-    <row r="9" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="93" t="s">
         <v>13</v>
       </c>
@@ -3555,104 +3783,104 @@
         <v>17</v>
       </c>
       <c r="D9" s="37"/>
-      <c r="E9" s="138">
-        <f>IF($AB$4, 24-E$1, E$1)</f>
+      <c r="E9" s="122">
+        <f t="shared" ref="E9:AC9" si="0">IF($AB$4, 24-E$1, E$1)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="140">
-        <f>IF($AB$4, 24-F$1, F$1)</f>
+      <c r="F9" s="124">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G9" s="50">
-        <f>IF($AB$4, 24-G$1, G$1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H9" s="48">
-        <f>IF($AB$4, 24-H$1, H$1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I9" s="50">
-        <f>IF($AB$4, 24-I$1, I$1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J9" s="48">
-        <f>IF($AB$4, 24-J$1, J$1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K9" s="50">
-        <f>IF($AB$4, 24-K$1, K$1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L9" s="48">
-        <f>IF($AB$4, 24-L$1, L$1)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="M9" s="50">
-        <f>IF($AB$4, 24-M$1, M$1)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="N9" s="48">
-        <f>IF($AB$4, 24-N$1, N$1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="O9" s="50">
-        <f>IF($AB$4, 24-O$1, O$1)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="P9" s="50">
-        <f>IF($AB$4, 24-P$1, P$1)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="Q9" s="49">
-        <f>IF($AB$4, 24-Q$1, Q$1)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="R9" s="50">
-        <f>IF($AB$4, 24-R$1, R$1)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="S9" s="50">
-        <f>IF($AB$4, 24-S$1, S$1)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="T9" s="48">
-        <f>IF($AB$4, 24-T$1, T$1)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="U9" s="50">
-        <f>IF($AB$4, 24-U$1, U$1)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="V9" s="48">
-        <f>IF($AB$4, 24-V$1, V$1)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="W9" s="50">
-        <f>IF($AB$4, 24-W$1, W$1)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="X9" s="48">
-        <f>IF($AB$4, 24-X$1, X$1)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="Y9" s="50">
-        <f>IF($AB$4, 24-Y$1, Y$1)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Z9" s="48">
-        <f>IF($AB$4, 24-Z$1, Z$1)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="AA9" s="50">
-        <f>IF($AB$4, 24-AA$1, AA$1)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="AB9" s="50">
-        <f>IF($AB$4, 24-AB$1, AB$1)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="AC9" s="55">
-        <f>IF($AB$4, 24-AC$1, AC$1)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="AE9" s="96" t="s">
@@ -3662,8 +3890,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="132" t="s">
+    <row r="10" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="127" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="64" t="s">
@@ -3673,17 +3901,17 @@
         <f>VLOOKUP(UPPER(Fretboards!C10), Model!$B$2:$D$41, 3)</f>
         <v>4</v>
       </c>
-      <c r="E10" s="118" t="str">
-        <f>IFERROR(HLOOKUP(MATCH($D10+E$9, Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+      <c r="E10" s="58" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>E : 3</v>
       </c>
       <c r="F10" s="119" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="G10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F♯ : ♯4</v>
       </c>
       <c r="H10" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -3727,11 +3955,11 @@
       </c>
       <c r="R10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="S10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F♯ : ♯4</v>
       </c>
       <c r="T10" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -3781,8 +4009,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="132"/>
+    <row r="11" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="127"/>
       <c r="C11" s="64" t="s">
         <v>16</v>
       </c>
@@ -3790,7 +4018,7 @@
         <f>VLOOKUP(UPPER(Fretboards!C11), Model!$B$2:$D$41, 3)</f>
         <v>11</v>
       </c>
-      <c r="E11" s="118" t="str">
+      <c r="E11" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>B : 7</v>
       </c>
@@ -3816,11 +4044,11 @@
       </c>
       <c r="K11" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="L11" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F♯ : ♯4</v>
       </c>
       <c r="M11" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -3864,11 +4092,11 @@
       </c>
       <c r="W11" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="X11" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F♯ : ♯4</v>
       </c>
       <c r="Y11" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -3898,8 +4126,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="132"/>
+    <row r="12" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="127"/>
       <c r="C12" s="64" t="s">
         <v>15</v>
       </c>
@@ -3907,7 +4135,7 @@
         <f>VLOOKUP(UPPER(Fretboards!C12), Model!$B$2:$D$41, 3)</f>
         <v>7</v>
       </c>
-      <c r="E12" s="118" t="str">
+      <c r="E12" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>G : 5</v>
       </c>
@@ -3949,11 +4177,11 @@
       </c>
       <c r="O12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="P12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F♯ : ♯4</v>
       </c>
       <c r="Q12" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -3997,11 +4225,11 @@
       </c>
       <c r="AA12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="AB12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F♯ : ♯4</v>
       </c>
       <c r="AC12" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4015,8 +4243,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="132"/>
+    <row r="13" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="127"/>
       <c r="C13" s="64" t="s">
         <v>12</v>
       </c>
@@ -4024,7 +4252,7 @@
         <f>VLOOKUP(UPPER(Fretboards!C13), Model!$B$2:$D$41, 3)</f>
         <v>2</v>
       </c>
-      <c r="E13" s="118" t="str">
+      <c r="E13" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>D : 2</v>
       </c>
@@ -4038,11 +4266,11 @@
       </c>
       <c r="H13" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="I13" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F♯ : ♯4</v>
       </c>
       <c r="J13" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4086,11 +4314,11 @@
       </c>
       <c r="T13" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="U13" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F♯ : ♯4</v>
       </c>
       <c r="V13" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4129,11 +4357,11 @@
       </c>
       <c r="AF13" s="120" t="b">
         <f>HLOOKUP(I$1, Model!$I$40:$O$56, MATCH($B$19, Model!$H$40:$H$56, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="132"/>
+    <row r="14" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="127"/>
       <c r="C14" s="64" t="s">
         <v>14</v>
       </c>
@@ -4141,7 +4369,7 @@
         <f>VLOOKUP(UPPER(Fretboards!C14), Model!$B$2:$D$41, 3)</f>
         <v>9</v>
       </c>
-      <c r="E14" s="118" t="str">
+      <c r="E14" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>A : 6</v>
       </c>
@@ -4175,11 +4403,11 @@
       </c>
       <c r="M14" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="N14" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F♯ : ♯4</v>
       </c>
       <c r="O14" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4223,11 +4451,11 @@
       </c>
       <c r="Y14" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="Z14" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F♯ : ♯4</v>
       </c>
       <c r="AA14" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4246,11 +4474,11 @@
       </c>
       <c r="AF14" s="120" t="b">
         <f>HLOOKUP(J$1, Model!$I$40:$O$56, MATCH($B$19, Model!$H$40:$H$56, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="127" t="s">
+    <row r="15" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="132" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="64" t="s">
@@ -4260,17 +4488,17 @@
         <f>VLOOKUP(UPPER(Fretboards!C15), Model!$B$2:$D$41, 3)</f>
         <v>4</v>
       </c>
-      <c r="E15" s="118" t="str">
+      <c r="E15" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>E : 3</v>
       </c>
       <c r="F15" s="119" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="G15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F♯ : ♯4</v>
       </c>
       <c r="H15" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4314,11 +4542,11 @@
       </c>
       <c r="R15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="S15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F♯ : ♯4</v>
       </c>
       <c r="T15" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4365,11 +4593,11 @@
       </c>
       <c r="AF15" s="120" t="b">
         <f>HLOOKUP(K$1, Model!$I$40:$O$56, MATCH($B$19, Model!$H$40:$H$56, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:32" s="63" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="127"/>
+    <row r="16" spans="1:32" s="63" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="132"/>
       <c r="C16" s="64" t="s">
         <v>16</v>
       </c>
@@ -4377,7 +4605,7 @@
         <f>VLOOKUP(UPPER(Fretboards!C16), Model!$B$2:$D$41, 3)</f>
         <v>11</v>
       </c>
-      <c r="E16" s="118" t="str">
+      <c r="E16" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+E$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>B : 7</v>
       </c>
@@ -4403,11 +4631,11 @@
       </c>
       <c r="K16" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+K$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="L16" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+L$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>F♯ : 4</v>
       </c>
       <c r="M16" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+M$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4451,11 +4679,11 @@
       </c>
       <c r="W16" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+W$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="X16" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+X$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>F♯ : 4</v>
       </c>
       <c r="Y16" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+Y$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4481,7 +4709,7 @@
       <c r="AF16" s="121"/>
     </row>
     <row r="17" spans="2:32" s="63" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="127"/>
+      <c r="B17" s="132"/>
       <c r="C17" s="64" t="s">
         <v>15</v>
       </c>
@@ -4489,7 +4717,7 @@
         <f>VLOOKUP(UPPER(Fretboards!C17), Model!$B$2:$D$41, 3)</f>
         <v>7</v>
       </c>
-      <c r="E17" s="118" t="str">
+      <c r="E17" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+E$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>G : 5</v>
       </c>
@@ -4531,11 +4759,11 @@
       </c>
       <c r="O17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+O$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="P17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+P$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>F♯ : 4</v>
       </c>
       <c r="Q17" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+Q$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4579,11 +4807,11 @@
       </c>
       <c r="AA17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+AA$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="AB17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+AB$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>F♯ : 4</v>
       </c>
       <c r="AC17" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+AC$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4593,7 +4821,7 @@
       <c r="AF17" s="121"/>
     </row>
     <row r="18" spans="2:32" s="63" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="127"/>
+      <c r="B18" s="132"/>
       <c r="C18" s="64" t="s">
         <v>12</v>
       </c>
@@ -4601,7 +4829,7 @@
         <f>VLOOKUP(UPPER(Fretboards!C18), Model!$B$2:$D$41, 3)</f>
         <v>2</v>
       </c>
-      <c r="E18" s="118" t="str">
+      <c r="E18" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+E$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>D : 2</v>
       </c>
@@ -4615,11 +4843,11 @@
       </c>
       <c r="H18" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+H$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="I18" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+I$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>F♯ : 4</v>
       </c>
       <c r="J18" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+J$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4663,11 +4891,11 @@
       </c>
       <c r="T18" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+T$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="U18" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+U$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>F♯ : 4</v>
       </c>
       <c r="V18" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+V$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4706,108 +4934,108 @@
     </row>
     <row r="19" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="67" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="1"/>
       <c r="E19" s="51">
-        <f>IF($AB$4, 24-E$1, E$1)</f>
+        <f t="shared" ref="E19:AC19" si="1">IF($AB$4, 24-E$1, E$1)</f>
         <v>0</v>
       </c>
       <c r="F19" s="50">
-        <f>IF($AB$4, 24-F$1, F$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G19" s="50">
-        <f>IF($AB$4, 24-G$1, G$1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H19" s="48">
-        <f>IF($AB$4, 24-H$1, H$1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I19" s="50">
-        <f>IF($AB$4, 24-I$1, I$1)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J19" s="48">
-        <f>IF($AB$4, 24-J$1, J$1)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K19" s="50">
-        <f>IF($AB$4, 24-K$1, K$1)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L19" s="48">
-        <f>IF($AB$4, 24-L$1, L$1)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="M19" s="50">
-        <f>IF($AB$4, 24-M$1, M$1)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N19" s="48">
-        <f>IF($AB$4, 24-N$1, N$1)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="O19" s="50">
-        <f>IF($AB$4, 24-O$1, O$1)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="P19" s="50">
-        <f>IF($AB$4, 24-P$1, P$1)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="Q19" s="49">
-        <f>IF($AB$4, 24-Q$1, Q$1)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="R19" s="50">
-        <f>IF($AB$4, 24-R$1, R$1)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="S19" s="50">
-        <f>IF($AB$4, 24-S$1, S$1)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="T19" s="48">
-        <f>IF($AB$4, 24-T$1, T$1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="U19" s="50">
-        <f>IF($AB$4, 24-U$1, U$1)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="V19" s="48">
-        <f>IF($AB$4, 24-V$1, V$1)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="W19" s="50">
-        <f>IF($AB$4, 24-W$1, W$1)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="X19" s="48">
-        <f>IF($AB$4, 24-X$1, X$1)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="Y19" s="50">
-        <f>IF($AB$4, 24-Y$1, Y$1)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="Z19" s="48">
-        <f>IF($AB$4, 24-Z$1, Z$1)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="AA19" s="50">
-        <f>IF($AB$4, 24-AA$1, AA$1)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="AB19" s="50">
-        <f>IF($AB$4, 24-AB$1, AB$1)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="AC19" s="55">
-        <f>IF($AB$4, 24-AC$1, AC$1)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="AE19" s="88" t="s">
@@ -4815,7 +5043,7 @@
       </c>
       <c r="AF19" s="120" t="b">
         <f>HLOOKUP(L$1, Model!$I$40:$O$56, MATCH($B$19, Model!$H$40:$H$56, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.3">
@@ -4904,50 +5132,50 @@
       <c r="AF22" s="60"/>
     </row>
     <row r="23" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="128" t="str">
+      <c r="B23" s="133" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(IF(B38 = "Ionian (Major)", B29 &amp; " Major", IF(B38 = "Aolian (Minor)", B29 &amp; " Minor", B29 &amp; " " &amp; B38)), "#", "♯"), "b", "♭")</f>
         <v>E Pentatonic Minor</v>
       </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="K23" s="123">
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
+      <c r="K23" s="130">
         <f>IF(J27 = "", "", IF(K24 = 0, F$1, K24))</f>
         <v>1</v>
       </c>
-      <c r="L23" s="123"/>
-      <c r="M23" s="123" t="str">
+      <c r="L23" s="130"/>
+      <c r="M23" s="130" t="str">
         <f>IF(K27 = "", "", IF(M24 = 0, G$1, M24))</f>
         <v/>
       </c>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123" t="str">
+      <c r="N23" s="130"/>
+      <c r="O23" s="130" t="str">
         <f>IF(L27 = "", "", IF(O24 = 0, H$1, O24))</f>
         <v>♭3</v>
       </c>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123">
+      <c r="P23" s="130"/>
+      <c r="Q23" s="130">
         <f>IF(M27 = "", "", IF(Q24 = 0, I$1, Q24))</f>
         <v>4</v>
       </c>
-      <c r="R23" s="123"/>
-      <c r="S23" s="123">
+      <c r="R23" s="130"/>
+      <c r="S23" s="130">
         <f>IF(N27 = "", "", IF(S24 = 0, J$1, S24))</f>
         <v>5</v>
       </c>
-      <c r="T23" s="123"/>
-      <c r="U23" s="123" t="str">
+      <c r="T23" s="130"/>
+      <c r="U23" s="130" t="str">
         <f>IF(O27 = "", "", IF(U24 = 0, K$1, U24))</f>
         <v/>
       </c>
-      <c r="V23" s="123"/>
-      <c r="W23" s="123" t="str">
+      <c r="V23" s="130"/>
+      <c r="W23" s="130" t="str">
         <f>IF(P27 = "", "", IF(W24 = 0, L$1, W24))</f>
         <v>♭7</v>
       </c>
-      <c r="X23" s="123"/>
+      <c r="X23" s="130"/>
       <c r="Y23" s="60"/>
       <c r="Z23" s="60"/>
       <c r="AA23" s="60"/>
@@ -4958,47 +5186,47 @@
       <c r="AF23" s="60"/>
     </row>
     <row r="24" spans="2:32" s="59" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="K24" s="124">
+      <c r="B24" s="133"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="K24" s="136">
         <f>IFERROR(HLOOKUP(F$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), F$1)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="124"/>
-      <c r="M24" s="124">
+      <c r="L24" s="136"/>
+      <c r="M24" s="136">
         <f>IFERROR(HLOOKUP(G$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), G$1)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="124"/>
-      <c r="O24" s="124" t="str">
+      <c r="N24" s="136"/>
+      <c r="O24" s="136" t="str">
         <f>IFERROR(HLOOKUP(H$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), H$1)</f>
         <v>♭3</v>
       </c>
-      <c r="P24" s="124"/>
-      <c r="Q24" s="124">
+      <c r="P24" s="136"/>
+      <c r="Q24" s="136">
         <f>IFERROR(HLOOKUP(I$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), I$1)</f>
         <v>0</v>
       </c>
-      <c r="R24" s="124"/>
-      <c r="S24" s="124">
+      <c r="R24" s="136"/>
+      <c r="S24" s="136">
         <f>IFERROR(HLOOKUP(J$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), J$1)</f>
         <v>0</v>
       </c>
-      <c r="T24" s="124"/>
-      <c r="U24" s="124">
+      <c r="T24" s="136"/>
+      <c r="U24" s="136">
         <f>IFERROR(HLOOKUP(K$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), K$1)</f>
         <v>0</v>
       </c>
-      <c r="V24" s="124"/>
-      <c r="W24" s="124" t="str">
+      <c r="V24" s="136"/>
+      <c r="W24" s="136" t="str">
         <f>IFERROR(HLOOKUP(L$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), L$1)</f>
         <v>♭7</v>
       </c>
-      <c r="X24" s="124"/>
+      <c r="X24" s="136"/>
       <c r="Y24" s="60"/>
       <c r="Z24" s="60"/>
       <c r="AA24" s="60"/>
@@ -5009,47 +5237,47 @@
       <c r="AF24" s="60"/>
     </row>
     <row r="25" spans="2:32" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="K25" s="122" t="str">
+      <c r="B25" s="133"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
+      <c r="K25" s="137" t="str">
         <f>IF(K$23="","", J$27 &amp; IFERROR(HLOOKUP(F$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), F$1))</f>
         <v>Em7</v>
       </c>
-      <c r="L25" s="122"/>
-      <c r="M25" s="122" t="str">
+      <c r="L25" s="137"/>
+      <c r="M25" s="137" t="str">
         <f>IF(M$23="","", K$27 &amp; IFERROR(HLOOKUP(G$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), G$1))</f>
         <v/>
       </c>
-      <c r="N25" s="122"/>
-      <c r="O25" s="122" t="str">
+      <c r="N25" s="137"/>
+      <c r="O25" s="137" t="str">
         <f>IF(O$23="","", L$27 &amp; IFERROR(HLOOKUP(H$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), H$1))</f>
         <v>GM</v>
       </c>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="122" t="str">
+      <c r="P25" s="137"/>
+      <c r="Q25" s="137" t="str">
         <f>IF(Q$23="","", M$27 &amp; IFERROR(HLOOKUP(I$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), I$1))</f>
         <v>A5 ♭7</v>
       </c>
-      <c r="R25" s="122"/>
-      <c r="S25" s="122" t="str">
+      <c r="R25" s="137"/>
+      <c r="S25" s="137" t="str">
         <f>IF(S$23="","", N$27 &amp; IFERROR(HLOOKUP(J$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), J$1))</f>
         <v>B5</v>
       </c>
-      <c r="T25" s="122"/>
-      <c r="U25" s="122" t="str">
+      <c r="T25" s="137"/>
+      <c r="U25" s="137" t="str">
         <f>IF(U$23="","", O$27 &amp; IFERROR(HLOOKUP(K$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), K$1))</f>
         <v/>
       </c>
-      <c r="V25" s="122"/>
-      <c r="W25" s="122" t="str">
+      <c r="V25" s="137"/>
+      <c r="W25" s="137" t="str">
         <f>IF(W$23="","", P$27 &amp; IFERROR(HLOOKUP(L$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), L$1))</f>
         <v>D5</v>
       </c>
-      <c r="X25" s="122"/>
+      <c r="X25" s="137"/>
       <c r="Y25" s="60"/>
       <c r="Z25" s="60"/>
       <c r="AA25" s="60"/>
@@ -5060,12 +5288,12 @@
       <c r="AF25" s="60"/>
     </row>
     <row r="26" spans="2:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
       <c r="H26" s="61"/>
       <c r="I26" s="61"/>
       <c r="J26" s="94"/>
@@ -5093,16 +5321,16 @@
       <c r="AF26" s="61"/>
     </row>
     <row r="27" spans="2:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="128"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="129" t="s">
+      <c r="B27" s="133"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="129"/>
+      <c r="I27" s="134"/>
       <c r="J27" s="73" t="str">
         <f>Model!I28</f>
         <v>E</v>
@@ -5131,11 +5359,11 @@
         <f>IF(Model!N28=0, "", Model!O28)</f>
         <v>D</v>
       </c>
-      <c r="S27" s="130" t="s">
+      <c r="S27" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="T27" s="130"/>
-      <c r="U27" s="130"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
       <c r="V27" s="98" t="str">
         <f>IF(Model!I26=1, "h", IF(Model!I26=2, "W", IF(Model!I26=3, "W+h", IF(Model!I26=4, "WW", IF(Model!I26=0, "", Model!I22)))))</f>
         <v/>
@@ -5164,10 +5392,10 @@
         <f>IF(Model!O26=1, "h", IF(Model!O26=2, "W", IF(Model!O26=3, "W+h", IF(Model!O26=4, "WW", IF(Model!O26=0, "", Model!O22)))))</f>
         <v>W</v>
       </c>
-      <c r="AE27" s="133" t="s">
+      <c r="AE27" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="AF27" s="133"/>
+      <c r="AF27" s="128"/>
     </row>
     <row r="28" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="93" t="s">
@@ -5180,104 +5408,104 @@
         <f>VLOOKUP(UPPER(Fretboards!C28), Model!$B$2:$D$41, 3)</f>
         <v>5</v>
       </c>
-      <c r="E28" s="138">
-        <f>IF($AB$4, 24-E$1, E$1)</f>
+      <c r="E28" s="122">
+        <f t="shared" ref="E28:AC28" si="2">IF($AB$4, 24-E$1, E$1)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="139">
-        <f>IF($AB$4, 24-F$1, F$1)</f>
+      <c r="F28" s="123">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G28" s="47">
-        <f>IF($AB$4, 24-G$1, G$1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H28" s="48">
-        <f>IF($AB$4, 24-H$1, H$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I28" s="47">
-        <f>IF($AB$4, 24-I$1, I$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J28" s="48">
-        <f>IF($AB$4, 24-J$1, J$1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K28" s="47">
-        <f>IF($AB$4, 24-K$1, K$1)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="L28" s="48">
-        <f>IF($AB$4, 24-L$1, L$1)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="M28" s="47">
-        <f>IF($AB$4, 24-M$1, M$1)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="N28" s="48">
-        <f>IF($AB$4, 24-N$1, N$1)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O28" s="47">
-        <f>IF($AB$4, 24-O$1, O$1)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="P28" s="47">
-        <f>IF($AB$4, 24-P$1, P$1)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="Q28" s="53">
-        <f>IF($AB$4, 24-Q$1, Q$1)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="R28" s="47">
-        <f>IF($AB$4, 24-R$1, R$1)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="S28" s="47">
-        <f>IF($AB$4, 24-S$1, S$1)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="T28" s="48">
-        <f>IF($AB$4, 24-T$1, T$1)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="U28" s="47">
-        <f>IF($AB$4, 24-U$1, U$1)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="V28" s="48">
-        <f>IF($AB$4, 24-V$1, V$1)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="W28" s="47">
-        <f>IF($AB$4, 24-W$1, W$1)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="X28" s="48">
-        <f>IF($AB$4, 24-X$1, X$1)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="Y28" s="47">
-        <f>IF($AB$4, 24-Y$1, Y$1)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="Z28" s="48">
-        <f>IF($AB$4, 24-Z$1, Z$1)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="AA28" s="47">
-        <f>IF($AB$4, 24-AA$1, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="AB28" s="47">
-        <f>IF($AB$4, 24-AB$1, AB$1)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="AC28" s="54">
-        <f>IF($AB$4, 24-AC$1, AC$1)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="AE28" s="96" t="s">
@@ -5288,7 +5516,7 @@
       </c>
     </row>
     <row r="29" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="132" t="s">
+      <c r="B29" s="127" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="64" t="s">
@@ -5408,7 +5636,7 @@
       </c>
     </row>
     <row r="30" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="132"/>
+      <c r="B30" s="127"/>
       <c r="C30" s="64" t="s">
         <v>16</v>
       </c>
@@ -5526,7 +5754,7 @@
       </c>
     </row>
     <row r="31" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="132"/>
+      <c r="B31" s="127"/>
       <c r="C31" s="64" t="s">
         <v>15</v>
       </c>
@@ -5644,7 +5872,7 @@
       </c>
     </row>
     <row r="32" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="132"/>
+      <c r="B32" s="127"/>
       <c r="C32" s="64" t="s">
         <v>12</v>
       </c>
@@ -5762,7 +5990,7 @@
       </c>
     </row>
     <row r="33" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="132"/>
+      <c r="B33" s="127"/>
       <c r="C33" s="64" t="s">
         <v>14</v>
       </c>
@@ -5880,7 +6108,7 @@
       </c>
     </row>
     <row r="34" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="127" t="s">
+      <c r="B34" s="132" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="64" t="s">
@@ -6000,7 +6228,7 @@
       </c>
     </row>
     <row r="35" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="127"/>
+      <c r="B35" s="132"/>
       <c r="C35" s="64" t="s">
         <v>16</v>
       </c>
@@ -6050,7 +6278,7 @@
       </c>
       <c r="O35" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+O$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+O$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : 4</v>
+        <v>A : ♯4</v>
       </c>
       <c r="P35" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+P$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+P$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -6098,7 +6326,7 @@
       </c>
       <c r="AA35" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+AA$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+AA$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : 4</v>
+        <v>A : ♯4</v>
       </c>
       <c r="AB35" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+AB$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+AB$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -6113,7 +6341,7 @@
       <c r="AF35" s="121"/>
     </row>
     <row r="36" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="127"/>
+      <c r="B36" s="132"/>
       <c r="C36" s="64" t="s">
         <v>15</v>
       </c>
@@ -6131,7 +6359,7 @@
       </c>
       <c r="G36" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+G$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+G$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : 4</v>
+        <v>A : ♯4</v>
       </c>
       <c r="H36" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+H$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+H$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -6179,7 +6407,7 @@
       </c>
       <c r="S36" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+S$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+S$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : 4</v>
+        <v>A : ♯4</v>
       </c>
       <c r="T36" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+T$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+T$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -6226,7 +6454,7 @@
       <c r="AF36" s="121"/>
     </row>
     <row r="37" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="127"/>
+      <c r="B37" s="132"/>
       <c r="C37" s="64" t="s">
         <v>12</v>
       </c>
@@ -6264,7 +6492,7 @@
       </c>
       <c r="L37" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+L$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+L$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : 4</v>
+        <v>A : ♯4</v>
       </c>
       <c r="M37" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+M$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+M$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -6312,7 +6540,7 @@
       </c>
       <c r="X37" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+X$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+X$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : 4</v>
+        <v>A : ♯4</v>
       </c>
       <c r="Y37" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+Y$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+Y$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -6345,103 +6573,103 @@
       <c r="C38" s="65"/>
       <c r="D38" s="1"/>
       <c r="E38" s="52">
-        <f>IF($AB$4, 24-E$1, E$1)</f>
+        <f t="shared" ref="E38:AC38" si="3">IF($AB$4, 24-E$1, E$1)</f>
         <v>0</v>
       </c>
       <c r="F38" s="47">
-        <f>IF($AB$4, 24-F$1, F$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G38" s="47">
-        <f>IF($AB$4, 24-G$1, G$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H38" s="48">
-        <f>IF($AB$4, 24-H$1, H$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I38" s="47">
-        <f>IF($AB$4, 24-I$1, I$1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J38" s="48">
-        <f>IF($AB$4, 24-J$1, J$1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K38" s="47">
-        <f>IF($AB$4, 24-K$1, K$1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="L38" s="48">
-        <f>IF($AB$4, 24-L$1, L$1)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="M38" s="47">
-        <f>IF($AB$4, 24-M$1, M$1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N38" s="48">
-        <f>IF($AB$4, 24-N$1, N$1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="O38" s="47">
-        <f>IF($AB$4, 24-O$1, O$1)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="P38" s="47">
-        <f>IF($AB$4, 24-P$1, P$1)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="Q38" s="53">
-        <f>IF($AB$4, 24-Q$1, Q$1)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="R38" s="47">
-        <f>IF($AB$4, 24-R$1, R$1)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="S38" s="47">
-        <f>IF($AB$4, 24-S$1, S$1)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="T38" s="48">
-        <f>IF($AB$4, 24-T$1, T$1)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="U38" s="47">
-        <f>IF($AB$4, 24-U$1, U$1)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="V38" s="48">
-        <f>IF($AB$4, 24-V$1, V$1)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="W38" s="47">
-        <f>IF($AB$4, 24-W$1, W$1)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="X38" s="48">
-        <f>IF($AB$4, 24-X$1, X$1)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="Y38" s="47">
-        <f>IF($AB$4, 24-Y$1, Y$1)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="Z38" s="48">
-        <f>IF($AB$4, 24-Z$1, Z$1)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="AA38" s="47">
-        <f>IF($AB$4, 24-AA$1, AA$1)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="AB38" s="47">
-        <f>IF($AB$4, 24-AB$1, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="AC38" s="54">
-        <f>IF($AB$4, 24-AC$1, AC$1)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="AE38" s="88" t="s">
@@ -6485,6 +6713,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B23:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B4:G8"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
     <mergeCell ref="Z4:AA7"/>
     <mergeCell ref="AB4:AC7"/>
     <mergeCell ref="B10:B14"/>
@@ -6501,468 +6769,451 @@
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B23:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B4:G8"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
   </mergeCells>
   <conditionalFormatting sqref="AB4 AF10:AF19">
-    <cfRule type="expression" dxfId="119" priority="541">
+    <cfRule type="expression" dxfId="140" priority="548">
       <formula>AND($AF$15=TRUE, SEARCH("6", AB4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="542">
+    <cfRule type="expression" dxfId="139" priority="549">
       <formula>AND($AF$10=TRUE, SEARCH("1", AB4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="543">
+    <cfRule type="expression" dxfId="138" priority="550">
       <formula>AND($AF$11=TRUE, SEARCH("2", AB4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="544">
+    <cfRule type="expression" dxfId="137" priority="551">
       <formula>AND($AF$12=TRUE, SEARCH("3", AB4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="545">
+    <cfRule type="expression" dxfId="136" priority="552">
       <formula>AND($AF$13=TRUE, SEARCH("4", AB4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="546">
+    <cfRule type="expression" dxfId="135" priority="553">
       <formula>AND($AF$14=TRUE, SEARCH("5", AB4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="547">
+    <cfRule type="expression" dxfId="134" priority="554">
       <formula>AND($AF$19=TRUE, SEARCH("7", AB4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:AA8">
-    <cfRule type="containsText" dxfId="112" priority="164" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="133" priority="171" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",W8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3">
-    <cfRule type="expression" dxfId="111" priority="100">
+    <cfRule type="expression" dxfId="132" priority="107">
       <formula>AND($AF$15=TRUE, SEARCH("6", AF3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="101">
+    <cfRule type="expression" dxfId="131" priority="108">
       <formula>AND($AF$10=TRUE, SEARCH("1", AF3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="102">
+    <cfRule type="expression" dxfId="130" priority="109">
       <formula>AND($AF$11=TRUE, SEARCH("2", AF3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="103">
+    <cfRule type="expression" dxfId="129" priority="110">
       <formula>AND($AF$12=TRUE, SEARCH("3", AF3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="104">
+    <cfRule type="expression" dxfId="128" priority="111">
       <formula>AND($AF$13=TRUE, SEARCH("4", AF3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="105">
+    <cfRule type="expression" dxfId="127" priority="112">
       <formula>AND($AF$14=TRUE, SEARCH("5", AF3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="106">
+    <cfRule type="expression" dxfId="126" priority="113">
       <formula>AND($AF$19=TRUE, SEARCH("7", AF3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:AC18">
-    <cfRule type="expression" dxfId="104" priority="86">
+    <cfRule type="expression" dxfId="125" priority="93">
       <formula>AND($AF$10, SEARCH("1", G10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="87">
+    <cfRule type="expression" dxfId="124" priority="94">
       <formula>AND($AF$11, SEARCH("2", G10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="88">
+    <cfRule type="expression" dxfId="123" priority="95">
       <formula>AND($AF$12, SEARCH("3", G10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="89">
+    <cfRule type="expression" dxfId="122" priority="96">
       <formula>AND($AF$13, SEARCH("4", G10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="90">
+    <cfRule type="expression" dxfId="121" priority="97">
       <formula>AND($AF$14, SEARCH("5", G10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="91">
+    <cfRule type="expression" dxfId="120" priority="98">
       <formula>AND($AF$15, SEARCH("6", G10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="92">
+    <cfRule type="expression" dxfId="119" priority="99">
       <formula>AND($AF$19, SEARCH("7", G10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE29:AE34 AE38">
-    <cfRule type="expression" dxfId="97" priority="72">
+    <cfRule type="expression" dxfId="118" priority="79">
       <formula>AND($AF$29, SEARCH("1", AE29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="73">
+    <cfRule type="expression" dxfId="117" priority="80">
       <formula>AND($AF$30, SEARCH("2", AE29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="74">
+    <cfRule type="expression" dxfId="116" priority="81">
       <formula>AND($AF$31, SEARCH("3", AE29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="75">
+    <cfRule type="expression" dxfId="115" priority="82">
       <formula>AND($AF$32, SEARCH("4", AE29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="76">
+    <cfRule type="expression" dxfId="114" priority="83">
       <formula>AND($AF$33, SEARCH("5", AE29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="77">
+    <cfRule type="expression" dxfId="113" priority="84">
       <formula>AND($AF$34, SEARCH("6", AE29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="78">
+    <cfRule type="expression" dxfId="112" priority="85">
       <formula>AND($AF$38, SEARCH("7", AE29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:AC37">
-    <cfRule type="expression" dxfId="90" priority="93">
+    <cfRule type="expression" dxfId="111" priority="100">
       <formula>AND($AF$29, SEARCH("1", E29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="94">
+    <cfRule type="expression" dxfId="110" priority="101">
       <formula>AND($AF$30, SEARCH("2", E29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="95">
+    <cfRule type="expression" dxfId="109" priority="102">
       <formula>AND($AF$31, SEARCH("3", E29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="96">
+    <cfRule type="expression" dxfId="108" priority="103">
       <formula>AND($AF$32, SEARCH("4", E29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="97">
+    <cfRule type="expression" dxfId="107" priority="104">
       <formula>AND($AF$33, SEARCH("5", E29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="98">
+    <cfRule type="expression" dxfId="106" priority="105">
       <formula>AND($AF$34, SEARCH("6", E29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="99">
+    <cfRule type="expression" dxfId="105" priority="106">
       <formula>AND($AF$38, SEARCH("7", E29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE10:AE15 AE19">
-    <cfRule type="expression" dxfId="83" priority="51">
+    <cfRule type="expression" dxfId="104" priority="58">
       <formula>AND($AF$10, SEARCH("1", AE10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="52">
+    <cfRule type="expression" dxfId="103" priority="59">
       <formula>AND($AF$11, SEARCH("2", AE10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="53">
+    <cfRule type="expression" dxfId="102" priority="60">
       <formula>AND($AF$12, SEARCH("3", AE10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="54">
+    <cfRule type="expression" dxfId="101" priority="61">
       <formula>AND($AF$13, SEARCH("4", AE10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="55">
+    <cfRule type="expression" dxfId="100" priority="62">
       <formula>AND($AF$14, SEARCH("5", AE10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="56">
+    <cfRule type="expression" dxfId="99" priority="63">
       <formula>AND($AF$15, SEARCH("6", AE10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="57">
+    <cfRule type="expression" dxfId="98" priority="64">
       <formula>AND($AF$19, SEARCH("7", AE10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8">
-    <cfRule type="containsText" dxfId="76" priority="47" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="97" priority="54" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",V8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8">
-    <cfRule type="containsText" dxfId="75" priority="46" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="96" priority="53" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",AB8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V27">
-    <cfRule type="containsText" dxfId="74" priority="38" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="95" priority="45" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",V27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W27">
-    <cfRule type="containsText" dxfId="73" priority="37" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="94" priority="44" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",W27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27">
-    <cfRule type="containsText" dxfId="72" priority="36" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="93" priority="43" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",X27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y27">
-    <cfRule type="containsText" dxfId="71" priority="35" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="92" priority="42" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",Y27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z27">
-    <cfRule type="containsText" dxfId="70" priority="34" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="91" priority="41" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",Z27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA27">
-    <cfRule type="containsText" dxfId="69" priority="33" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="90" priority="40" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",AA27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB27">
-    <cfRule type="containsText" dxfId="68" priority="32" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="89" priority="39" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",AB27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:P18">
-    <cfRule type="containsBlanks" dxfId="67" priority="551">
+    <cfRule type="containsBlanks" dxfId="88" priority="558">
       <formula>LEN(TRIM(G10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:P37">
-    <cfRule type="containsBlanks" dxfId="66" priority="552">
+    <cfRule type="containsBlanks" dxfId="87" priority="559">
       <formula>LEN(TRIM(F29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:AB18">
-    <cfRule type="containsBlanks" dxfId="65" priority="553">
+    <cfRule type="containsBlanks" dxfId="86" priority="560">
       <formula>LEN(TRIM(R10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R29:AB37">
-    <cfRule type="containsBlanks" dxfId="64" priority="16">
+    <cfRule type="containsBlanks" dxfId="85" priority="23">
       <formula>LEN(TRIM(R29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8 M27">
-    <cfRule type="expression" dxfId="63" priority="589">
+    <cfRule type="expression" dxfId="84" priority="596">
       <formula>FIND(7,Q4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="590">
+    <cfRule type="expression" dxfId="83" priority="597">
       <formula>FIND(6, Q4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="591">
+    <cfRule type="expression" dxfId="82" priority="598">
       <formula>FIND(5,Q4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="592">
+    <cfRule type="expression" dxfId="81" priority="599">
       <formula>FIND(4,Q4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="593">
+    <cfRule type="expression" dxfId="80" priority="600">
       <formula>FIND(3, Q4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="594">
+    <cfRule type="expression" dxfId="79" priority="601">
       <formula>FIND(2, Q4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="595">
+    <cfRule type="expression" dxfId="78" priority="602">
       <formula>FIND(1, Q4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8 L27">
-    <cfRule type="expression" dxfId="56" priority="603">
+    <cfRule type="expression" dxfId="77" priority="610">
       <formula>FIND(7,O4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="604">
+    <cfRule type="expression" dxfId="76" priority="611">
       <formula>FIND(6, O4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="605">
+    <cfRule type="expression" dxfId="75" priority="612">
       <formula>FIND(5,O4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="606">
+    <cfRule type="expression" dxfId="74" priority="613">
       <formula>FIND(4,O4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="607">
+    <cfRule type="expression" dxfId="73" priority="614">
       <formula>FIND(3, O4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="608">
+    <cfRule type="expression" dxfId="72" priority="615">
       <formula>FIND(2, O4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="609">
+    <cfRule type="expression" dxfId="71" priority="616">
       <formula>FIND(1, O4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8 K27">
-    <cfRule type="expression" dxfId="49" priority="617">
+    <cfRule type="expression" dxfId="70" priority="624">
       <formula>FIND(7,M4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="618">
+    <cfRule type="expression" dxfId="69" priority="625">
       <formula>FIND(6, M4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="619">
+    <cfRule type="expression" dxfId="68" priority="626">
       <formula>FIND(5,M4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="620">
+    <cfRule type="expression" dxfId="67" priority="627">
       <formula>FIND(4,M4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="621">
+    <cfRule type="expression" dxfId="66" priority="628">
       <formula>FIND(3, M4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="622">
+    <cfRule type="expression" dxfId="65" priority="629">
       <formula>FIND(2, M4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="623">
+    <cfRule type="expression" dxfId="64" priority="630">
       <formula>FIND(1, M4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8 J27">
-    <cfRule type="expression" dxfId="42" priority="631">
+    <cfRule type="expression" dxfId="63" priority="638">
       <formula>FIND(7,K4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="632">
+    <cfRule type="expression" dxfId="62" priority="639">
       <formula>FIND(6, K4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="633">
+    <cfRule type="expression" dxfId="61" priority="640">
       <formula>FIND(5,K4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="634">
+    <cfRule type="expression" dxfId="60" priority="641">
       <formula>FIND(4,K4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="635">
+    <cfRule type="expression" dxfId="59" priority="642">
       <formula>FIND(3, K4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="636">
+    <cfRule type="expression" dxfId="58" priority="643">
       <formula>FIND(2, K4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="637">
+    <cfRule type="expression" dxfId="57" priority="644">
       <formula>FIND(1, K4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8 P27">
-    <cfRule type="expression" dxfId="35" priority="638">
+    <cfRule type="expression" dxfId="56" priority="645">
       <formula>FIND(7,W4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="639">
+    <cfRule type="expression" dxfId="55" priority="646">
       <formula>FIND(6, W4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="640">
+    <cfRule type="expression" dxfId="54" priority="647">
       <formula>FIND(5,W4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="641">
+    <cfRule type="expression" dxfId="53" priority="648">
       <formula>FIND(4,W4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="642">
+    <cfRule type="expression" dxfId="52" priority="649">
       <formula>FIND(3, W4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="643">
+    <cfRule type="expression" dxfId="51" priority="650">
       <formula>FIND(2, W4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="644">
+    <cfRule type="expression" dxfId="50" priority="651">
       <formula>FIND(1, W4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8 O27">
-    <cfRule type="expression" dxfId="28" priority="645">
+    <cfRule type="expression" dxfId="49" priority="652">
       <formula>FIND(7,U4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="646">
+    <cfRule type="expression" dxfId="48" priority="653">
       <formula>FIND(6, U4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="647">
+    <cfRule type="expression" dxfId="47" priority="654">
       <formula>FIND(5,U4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="648">
+    <cfRule type="expression" dxfId="46" priority="655">
       <formula>FIND(4,U4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="649">
+    <cfRule type="expression" dxfId="45" priority="656">
       <formula>FIND(3, U4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="650">
+    <cfRule type="expression" dxfId="44" priority="657">
       <formula>FIND(2, U4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="651">
+    <cfRule type="expression" dxfId="43" priority="658">
       <formula>FIND(1, U4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8 N27">
-    <cfRule type="expression" dxfId="21" priority="652">
+    <cfRule type="expression" dxfId="42" priority="659">
       <formula>FIND(7,S4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="653">
+    <cfRule type="expression" dxfId="41" priority="660">
       <formula>FIND(6, S4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="654">
+    <cfRule type="expression" dxfId="40" priority="661">
       <formula>FIND(5,S4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="655">
+    <cfRule type="expression" dxfId="39" priority="662">
       <formula>FIND(4,S4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="656">
+    <cfRule type="expression" dxfId="38" priority="663">
       <formula>FIND(3, S4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="657">
+    <cfRule type="expression" dxfId="37" priority="664">
       <formula>FIND(2, S4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="658">
+    <cfRule type="expression" dxfId="36" priority="665">
       <formula>FIND(1, S4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF29:AF38">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="35" priority="16">
       <formula>AND($AF$15=TRUE, SEARCH("6", AF29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="10">
+    <cfRule type="expression" dxfId="34" priority="17">
       <formula>AND($AF$10=TRUE, SEARCH("1", AF29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="11">
+    <cfRule type="expression" dxfId="33" priority="18">
       <formula>AND($AF$11=TRUE, SEARCH("2", AF29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="32" priority="19">
       <formula>AND($AF$12=TRUE, SEARCH("3", AF29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="31" priority="20">
       <formula>AND($AF$13=TRUE, SEARCH("4", AF29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="30" priority="21">
       <formula>AND($AF$14=TRUE, SEARCH("5", AF29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="15">
+    <cfRule type="expression" dxfId="29" priority="22">
       <formula>AND($AF$19=TRUE, SEARCH("7", AF29))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:F18">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>AND($AF$29, SEARCH("1", E10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>AND($AF$30, SEARCH("2", E10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>AND($AF$31, SEARCH("3", E10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>AND($AF$32, SEARCH("4", E10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>AND($AF$33, SEARCH("5", E10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>AND($AF$34, SEARCH("6", E10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>AND($AF$38, SEARCH("7", E10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F18">
-    <cfRule type="containsBlanks" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="28" priority="8">
+      <formula>AND($AF$29, SEARCH("1", F10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="9">
+      <formula>AND($AF$30, SEARCH("2", F10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="10">
+      <formula>AND($AF$31, SEARCH("3", F10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="11">
+      <formula>AND($AF$32, SEARCH("4", F10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="12">
+      <formula>AND($AF$33, SEARCH("5", F10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="13">
+      <formula>AND($AF$34, SEARCH("6", F10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="14">
+      <formula>AND($AF$38, SEARCH("7", F10))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F18">
+    <cfRule type="containsBlanks" dxfId="21" priority="15">
       <formula>LEN(TRIM(F10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
+  <conditionalFormatting sqref="E10:E18">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>AND($AF$10, SEARCH("1", E10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>AND($AF$11, SEARCH("2", E10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>AND($AF$12, SEARCH("3", E10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND($AF$13, SEARCH("4", E10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>AND($AF$14, SEARCH("5", E10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>AND($AF$15, SEARCH("6", E10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>AND($AF$19, SEARCH("7", E10))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B29" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Cb,C,C#,Db,D,D#,Eb,E,E#,Fb,F,F#,Gb,G,G#,Ab,A,A#,Bb,B,B#"</formula1>
     </dataValidation>
@@ -6975,8 +7226,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C15 C29:C34" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Cb,C,C#,Db,D,D#,Eb,e,E,E#,Fb,F,F#,Gb,G,G#,Ab,A,A#,Bb,B,B#"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B38 B19" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>"Ionian (Major),Dorian,Phrygian,Lydian,Mixolydian,Aolian (Minor),Locrian,Pentatonic Minor,Pentatonic Major,Harmonic Minor,Melodic Minor,Blues,Major Chord Tones,Minor Chord Tones,Diminished,Dominant"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B38" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>"Ionian (Major),Dorian,Phrygian,Lydian,Mixolydian,Aolian (Minor),Locrian,Pentatonic Minor,Pentatonic Major,Harmonic Minor,Melodic Minor,Blues,Major Chord Tones,Minor Chord Tones,Diminished"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{63CD6973-FBAC-467C-9C35-B07B23726C70}">
+      <formula1>"Ionian (Major),Dorian,Phrygian,Lydian,Mixolydian,Aolian (Minor),Locrian,Pentatonic Minor,Pentatonic Major,Harmonic Minor,Melodic Minor,Blues,Major Chord Tones,Minor Chord Tones,Diminished"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6989,8 +7243,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BN57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView topLeftCell="E4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -7025,10 +7279,10 @@
         <v>94</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="136" t="s">
+      <c r="F1" s="140" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="137"/>
+      <c r="G1" s="141"/>
       <c r="H1" s="112" t="s">
         <v>22</v>
       </c>
@@ -7304,10 +7558,10 @@
       <c r="D3" s="11">
         <v>10</v>
       </c>
-      <c r="F3" s="134" t="s">
+      <c r="F3" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="135"/>
+      <c r="G3" s="139"/>
       <c r="H3" s="14" t="s">
         <v>59</v>
       </c>
@@ -7437,7 +7691,7 @@
       </c>
       <c r="G4" s="9" t="str">
         <f>Fretboards!B19</f>
-        <v>Ionian (Major)</v>
+        <v>Lydian</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>171</v>
@@ -7552,10 +7806,10 @@
       <c r="D5" s="11">
         <v>8</v>
       </c>
-      <c r="F5" s="134" t="s">
+      <c r="F5" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="135"/>
+      <c r="G5" s="139"/>
       <c r="H5" s="14" t="s">
         <v>172</v>
       </c>
@@ -7814,42 +8068,22 @@
       <c r="D7" s="11">
         <v>11</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="9">
-        <v>2</v>
-      </c>
-      <c r="J7" s="9">
-        <v>2</v>
-      </c>
-      <c r="K7" s="9">
-        <v>1</v>
-      </c>
-      <c r="L7" s="9">
-        <v>2</v>
-      </c>
-      <c r="M7" s="9">
-        <v>2</v>
-      </c>
-      <c r="N7" s="9">
-        <v>1</v>
-      </c>
-      <c r="O7" s="114">
-        <v>2</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="9"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
-      <c r="W7" s="6" t="s">
-        <v>98</v>
-      </c>
+      <c r="W7" s="6"/>
       <c r="X7" s="41">
         <v>6</v>
       </c>
@@ -9247,9 +9481,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>♯4</v>
       </c>
       <c r="M21" s="9">
         <f t="shared" si="0"/>
@@ -9311,11 +9545,11 @@
       </c>
       <c r="K22" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$2:$O$17,  Model!K20 + 1, FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$2:$O$17,  Model!L20 + 1, FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$2:$O$17,  Model!M20 + 1, FALSE)</f>
@@ -9379,7 +9613,7 @@
       </c>
       <c r="L23" s="9">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="1"/>
@@ -9439,7 +9673,7 @@
       </c>
       <c r="L24" s="9" t="str">
         <f>IF(K22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + L20 - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:K22) + 1))</f>
-        <v>F</v>
+        <v>F♯</v>
       </c>
       <c r="M24" s="9" t="str">
         <f>IF(L22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + M20 - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:L22) + 1))</f>
@@ -9573,30 +9807,14 @@
         <f>VLOOKUP($G$6, Model!$H$2:$O$17, Model!O20 + 1, FALSE)</f>
         <v>2</v>
       </c>
-      <c r="P26" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q26" s="60">
-        <v>7</v>
-      </c>
-      <c r="R26" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="S26" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="T26" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="U26" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="V26" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="W26" s="105" t="s">
-        <v>184</v>
-      </c>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="105"/>
     </row>
     <row r="27" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
@@ -10143,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="114" t="b">
         <v>1</v>
@@ -10166,7 +10384,7 @@
         <v>1</v>
       </c>
       <c r="M44" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="9" t="b">
         <v>0</v>
@@ -10539,30 +10757,14 @@
       <c r="V55" s="8"/>
     </row>
     <row r="56" spans="8:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H56" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I56" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K56" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N56" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="O56" s="115" t="b">
-        <v>1</v>
-      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="115"/>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>

--- a/Shredsheets.xlsx
+++ b/Shredsheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Shredsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3990C60E-FFA1-4E6B-AA1B-6E8E30ABC4C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71A45CF-767A-4BB6-AA3F-A08146B45853}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1965" windowWidth="26460" windowHeight="19635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11970" yWindow="2475" windowWidth="26460" windowHeight="19635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fretboards" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="201">
   <si>
     <t>Ionian</t>
   </si>
@@ -635,6 +635,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Augmented</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>♯5</t>
+  </si>
+  <si>
+    <t>♯2</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1805,6 +1817,33 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1817,33 +1856,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1854,13 +1866,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="141">
+  <dxfs count="254">
     <dxf>
       <font>
         <color theme="0" tint="-4.9989318521683403E-2"/>
@@ -1936,6 +1951,765 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF372F2D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF642C76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8CFF19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB567F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4DA3E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE4D2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3788CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8CC068"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF81B2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF372F2D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF372F2D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF372F2D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF372F2D"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF813997"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8CFF19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB567F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4DA3E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE4D2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3788CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF642C76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8CFF19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB567F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4DA3E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE4D2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3788CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF642C76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8CFF19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB567F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4DA3E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE4D2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3788CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
@@ -2006,6 +2780,160 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF3788CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8CC068"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF81B2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8CC068"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF81B2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3400,7 +4328,7 @@
   <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3408,7 +4336,7 @@
     <col min="1" max="1" width="4" style="62" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="62" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="62" customWidth="1"/>
-    <col min="4" max="4" width="1.28515625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="1.140625" style="62" customWidth="1"/>
     <col min="5" max="29" width="8" style="62" customWidth="1"/>
     <col min="30" max="30" width="4.28515625" style="62" customWidth="1"/>
     <col min="31" max="31" width="12.85546875" style="69" bestFit="1" customWidth="1"/>
@@ -3532,113 +4460,113 @@
       <c r="A4" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="133" t="str">
+      <c r="B4" s="131" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(IF(B19 = "Ionian (Major)", B10 &amp; " Major", IF(B19 = "Aolian (Minor)", B10 &amp; " Minor", B10 &amp; " " &amp; B19)), "#", "♯"), "b", "♭")</f>
-        <v>C Lydian</v>
-      </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="K4" s="130">
+        <v>C Major</v>
+      </c>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="K4" s="126">
         <f>IF(J8 = "", "", IF(K5 = 0, F$1, K5))</f>
         <v>1</v>
       </c>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130">
+      <c r="L4" s="126"/>
+      <c r="M4" s="126">
         <f>IF(K8 = "", "", IF(M5 = 0, G$1, M5))</f>
         <v>2</v>
       </c>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130">
+      <c r="N4" s="126"/>
+      <c r="O4" s="126">
         <f>IF(L8 = "", "", IF(O5 = 0, H$1, O5))</f>
         <v>3</v>
       </c>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="130" t="str">
+      <c r="P4" s="126"/>
+      <c r="Q4" s="126">
         <f>IF(M8 = "", "", IF(Q5 = 0, I$1, Q5))</f>
-        <v>♯4</v>
-      </c>
-      <c r="R4" s="130"/>
-      <c r="S4" s="130">
+        <v>4</v>
+      </c>
+      <c r="R4" s="126"/>
+      <c r="S4" s="126">
         <f>IF(N8 = "", "", IF(S5 = 0, J$1, S5))</f>
         <v>5</v>
       </c>
-      <c r="T4" s="130"/>
-      <c r="U4" s="130">
+      <c r="T4" s="126"/>
+      <c r="U4" s="126">
         <f>IF(O8 = "", "", IF(U5 = 0, K$1, U5))</f>
         <v>6</v>
       </c>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130">
+      <c r="V4" s="126"/>
+      <c r="W4" s="126">
         <f>IF(P8 = "", "", IF(W5 = 0, L$1, W5))</f>
         <v>7</v>
       </c>
-      <c r="X4" s="130"/>
-      <c r="Z4" s="125" t="s">
+      <c r="X4" s="126"/>
+      <c r="Z4" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="AA4" s="125"/>
-      <c r="AB4" s="126" t="b">
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="135" t="b">
         <v>0</v>
       </c>
-      <c r="AC4" s="126"/>
+      <c r="AC4" s="135"/>
     </row>
     <row r="5" spans="1:32" s="60" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="K5" s="131">
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="K5" s="128">
         <f>IFERROR(HLOOKUP(F$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), F$1)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131">
+      <c r="L5" s="128"/>
+      <c r="M5" s="128">
         <f>IFERROR(HLOOKUP(G$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), G$1)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131">
+      <c r="N5" s="128"/>
+      <c r="O5" s="128">
         <f>IFERROR(HLOOKUP(H$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), H$1)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131" t="str">
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128">
         <f>IFERROR(HLOOKUP(I$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), I$1)</f>
-        <v>♯4</v>
-      </c>
-      <c r="R5" s="131"/>
-      <c r="S5" s="131">
+        <v>0</v>
+      </c>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128">
         <f>IFERROR(HLOOKUP(J$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), J$1)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="131"/>
-      <c r="U5" s="131">
+      <c r="T5" s="128"/>
+      <c r="U5" s="128">
         <f>IFERROR(HLOOKUP(K$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), K$1)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="131"/>
-      <c r="W5" s="131">
+      <c r="V5" s="128"/>
+      <c r="W5" s="128">
         <f>IFERROR(HLOOKUP(L$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), L$1)</f>
         <v>0</v>
       </c>
-      <c r="X5" s="131"/>
-      <c r="Z5" s="125"/>
-      <c r="AA5" s="125"/>
-      <c r="AB5" s="126"/>
-      <c r="AC5" s="126"/>
+      <c r="X5" s="128"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="135"/>
+      <c r="AC5" s="135"/>
     </row>
     <row r="6" spans="1:32" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
       <c r="K6" s="129" t="str">
         <f>IF(K$4="","", J$8 &amp; IFERROR(HLOOKUP(F$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), F$1))</f>
         <v>CM7</v>
@@ -3646,7 +4574,7 @@
       <c r="L6" s="129"/>
       <c r="M6" s="129" t="str">
         <f>IF(M$4="","", K$8 &amp; IFERROR(HLOOKUP(G$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), G$1))</f>
-        <v>D7</v>
+        <v>Dm7</v>
       </c>
       <c r="N6" s="129"/>
       <c r="O6" s="129" t="str">
@@ -3656,12 +4584,12 @@
       <c r="P6" s="129"/>
       <c r="Q6" s="129" t="str">
         <f>IF(Q$4="","", M$8 &amp; IFERROR(HLOOKUP(I$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), I$1))</f>
-        <v>F♯m7ø</v>
+        <v>FM7</v>
       </c>
       <c r="R6" s="129"/>
       <c r="S6" s="129" t="str">
         <f>IF(S$4="","", N$8 &amp; IFERROR(HLOOKUP(J$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), J$1))</f>
-        <v>GM7</v>
+        <v>G7</v>
       </c>
       <c r="T6" s="129"/>
       <c r="U6" s="129" t="str">
@@ -3671,21 +4599,21 @@
       <c r="V6" s="129"/>
       <c r="W6" s="129" t="str">
         <f>IF(W$4="","", P$8 &amp; IFERROR(HLOOKUP(L$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), L$1))</f>
-        <v>Bm7</v>
+        <v>Bm7ø</v>
       </c>
       <c r="X6" s="129"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
+      <c r="Z6" s="134"/>
+      <c r="AA6" s="134"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="135"/>
     </row>
     <row r="7" spans="1:32" s="61" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
       <c r="J7" s="95"/>
       <c r="K7" s="95"/>
       <c r="L7" s="95"/>
@@ -3693,22 +4621,22 @@
       <c r="N7" s="95"/>
       <c r="O7" s="95"/>
       <c r="P7" s="95"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="125"/>
-      <c r="AB7" s="126"/>
-      <c r="AC7" s="126"/>
+      <c r="Z7" s="134"/>
+      <c r="AA7" s="134"/>
+      <c r="AB7" s="135"/>
+      <c r="AC7" s="135"/>
     </row>
     <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="134" t="s">
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="134"/>
+      <c r="I8" s="132"/>
       <c r="J8" s="73" t="str">
         <f>Model!I24</f>
         <v>C</v>
@@ -3723,7 +4651,7 @@
       </c>
       <c r="M8" s="76" t="str">
         <f>IF(Model!K22=0, "", Model!L24)</f>
-        <v>F♯</v>
+        <v>F</v>
       </c>
       <c r="N8" s="77" t="str">
         <f>IF(Model!L22=0, "", Model!M24)</f>
@@ -3737,11 +4665,11 @@
         <f>IF(Model!N22=0, "", Model!O24)</f>
         <v>B</v>
       </c>
-      <c r="S8" s="135" t="s">
+      <c r="S8" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="135"/>
-      <c r="U8" s="135"/>
+      <c r="T8" s="133"/>
+      <c r="U8" s="133"/>
       <c r="V8" s="98" t="str">
         <f>IF(Model!I22=1, "h", IF(Model!I22=2, "W", IF(Model!I22=3, "W+h", IF(Model!I22=4, "WW", IF(Model!I22=0, "", Model!I22)))))</f>
         <v>W</v>
@@ -3752,11 +4680,11 @@
       </c>
       <c r="X8" s="81" t="str">
         <f>IF(Model!K22=1, "h", IF(Model!K22=2, "W", IF(Model!K22=3, "W+h", IF(Model!K22=4, "WW", IF(Model!K22=0, "", Model!K22)))))</f>
-        <v>W</v>
+        <v>h</v>
       </c>
       <c r="Y8" s="82" t="str">
         <f>IF(Model!L22=1, "h", IF(Model!L22=2, "W", IF(Model!L22=3, "W+h",IF(Model!L22=4, "WW", IF(Model!L22=0, "", Model!L22)))))</f>
-        <v>h</v>
+        <v>W</v>
       </c>
       <c r="Z8" s="83" t="str">
         <f>IF(Model!M22=1, "h", IF(Model!M22=2, "W", IF(Model!M22=3, "W+h",IF(Model!M22=4, "WW", IF(Model!M22=0, "", Model!M22)))))</f>
@@ -3770,10 +4698,10 @@
         <f>IF(Model!O22=1, "h", IF(Model!O22=2, "W", IF(Model!O22=3, "W+h",IF(Model!O22=4, "WW", IF(Model!O22=0, "", Model!O22)))))</f>
         <v>h</v>
       </c>
-      <c r="AE8" s="128" t="s">
+      <c r="AE8" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="AF8" s="128"/>
+      <c r="AF8" s="137"/>
     </row>
     <row r="9" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="93" t="s">
@@ -3891,7 +4819,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="136" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="64" t="s">
@@ -3902,115 +4830,115 @@
         <v>4</v>
       </c>
       <c r="E10" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>E : 3</v>
       </c>
       <c r="F10" s="119" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v>F : 4</v>
       </c>
       <c r="G10" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F♯ : ♯4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v/>
       </c>
       <c r="H10" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>G : 5</v>
       </c>
       <c r="I10" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="J10" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>A : 6</v>
       </c>
       <c r="K10" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="L10" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>B : 7</v>
       </c>
       <c r="M10" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>C : 1</v>
       </c>
       <c r="N10" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="O10" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>D : 2</v>
       </c>
       <c r="P10" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="Q10" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>E : 3</v>
       </c>
       <c r="R10" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v>F : 4</v>
       </c>
       <c r="S10" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F♯ : ♯4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v/>
       </c>
       <c r="T10" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>G : 5</v>
       </c>
       <c r="U10" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="V10" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>A : 6</v>
       </c>
       <c r="W10" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="X10" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>B : 7</v>
       </c>
       <c r="Y10" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>C : 1</v>
       </c>
       <c r="Z10" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="AA10" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>D : 2</v>
       </c>
       <c r="AB10" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="AC10" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>E : 3</v>
       </c>
       <c r="AE10" s="88" t="s">
         <v>3</v>
       </c>
       <c r="AF10" s="120" t="b">
-        <f>HLOOKUP(F$1, Model!$I$40:$O$56, MATCH($B$19, Model!$H$40:$H$56, 0))</f>
+        <f>HLOOKUP(F$1, Model!$I$41:$O$57, MATCH($B$19, Model!$H$41:$H$57, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="127"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="64" t="s">
         <v>16</v>
       </c>
@@ -4019,115 +4947,115 @@
         <v>11</v>
       </c>
       <c r="E11" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>B : 7</v>
       </c>
       <c r="F11" s="119" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>C : 1</v>
       </c>
       <c r="G11" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="H11" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>D : 2</v>
       </c>
       <c r="I11" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="J11" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>E : 3</v>
       </c>
       <c r="K11" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v>F : 4</v>
       </c>
       <c r="L11" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F♯ : ♯4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v/>
       </c>
       <c r="M11" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>G : 5</v>
       </c>
       <c r="N11" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="O11" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>A : 6</v>
       </c>
       <c r="P11" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="Q11" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>B : 7</v>
       </c>
       <c r="R11" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>C : 1</v>
       </c>
       <c r="S11" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="T11" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>D : 2</v>
       </c>
       <c r="U11" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="V11" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>E : 3</v>
       </c>
       <c r="W11" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v>F : 4</v>
       </c>
       <c r="X11" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F♯ : ♯4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v/>
       </c>
       <c r="Y11" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>G : 5</v>
       </c>
       <c r="Z11" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="AA11" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>A : 6</v>
       </c>
       <c r="AB11" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="AC11" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>B : 7</v>
       </c>
       <c r="AE11" s="89" t="s">
         <v>4</v>
       </c>
       <c r="AF11" s="120" t="b">
-        <f>HLOOKUP(G$1, Model!$I$40:$O$56, MATCH($B$19, Model!$H$40:$H$56, 0))</f>
+        <f>HLOOKUP(G$1, Model!$I$41:$O$57, MATCH($B$19, Model!$H$41:$H$57, 0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="127"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="64" t="s">
         <v>15</v>
       </c>
@@ -4136,115 +5064,115 @@
         <v>7</v>
       </c>
       <c r="E12" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>G : 5</v>
       </c>
       <c r="F12" s="119" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="G12" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>A : 6</v>
       </c>
       <c r="H12" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="I12" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>B : 7</v>
       </c>
       <c r="J12" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>C : 1</v>
       </c>
       <c r="K12" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="L12" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>D : 2</v>
       </c>
       <c r="M12" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="N12" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>E : 3</v>
       </c>
       <c r="O12" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v>F : 4</v>
       </c>
       <c r="P12" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F♯ : ♯4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v/>
       </c>
       <c r="Q12" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>G : 5</v>
       </c>
       <c r="R12" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="S12" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>A : 6</v>
       </c>
       <c r="T12" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="U12" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>B : 7</v>
       </c>
       <c r="V12" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>C : 1</v>
       </c>
       <c r="W12" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="X12" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>D : 2</v>
       </c>
       <c r="Y12" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="Z12" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>E : 3</v>
       </c>
       <c r="AA12" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v>F : 4</v>
       </c>
       <c r="AB12" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F♯ : ♯4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v/>
       </c>
       <c r="AC12" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>G : 5</v>
       </c>
       <c r="AE12" s="89" t="s">
         <v>5</v>
       </c>
       <c r="AF12" s="120" t="b">
-        <f>HLOOKUP(H$1, Model!$I$40:$O$56, MATCH($B$19, Model!$H$40:$H$56, 0))</f>
+        <f>HLOOKUP(H$1, Model!$I$41:$O$57, MATCH($B$19, Model!$H$41:$H$57, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="127"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="64" t="s">
         <v>12</v>
       </c>
@@ -4253,115 +5181,115 @@
         <v>2</v>
       </c>
       <c r="E13" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>D : 2</v>
       </c>
       <c r="F13" s="119" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="G13" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>E : 3</v>
       </c>
       <c r="H13" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v>F : 4</v>
       </c>
       <c r="I13" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F♯ : ♯4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v/>
       </c>
       <c r="J13" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>G : 5</v>
       </c>
       <c r="K13" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="L13" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>A : 6</v>
       </c>
       <c r="M13" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="N13" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>B : 7</v>
       </c>
       <c r="O13" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>C : 1</v>
       </c>
       <c r="P13" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="Q13" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>D : 2</v>
       </c>
       <c r="R13" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="S13" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>E : 3</v>
       </c>
       <c r="T13" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v>F : 4</v>
       </c>
       <c r="U13" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F♯ : ♯4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v/>
       </c>
       <c r="V13" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>G : 5</v>
       </c>
       <c r="W13" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="X13" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>A : 6</v>
       </c>
       <c r="Y13" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="Z13" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>B : 7</v>
       </c>
       <c r="AA13" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>C : 1</v>
       </c>
       <c r="AB13" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="AC13" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>D : 2</v>
       </c>
       <c r="AE13" s="89" t="s">
         <v>6</v>
       </c>
       <c r="AF13" s="120" t="b">
-        <f>HLOOKUP(I$1, Model!$I$40:$O$56, MATCH($B$19, Model!$H$40:$H$56, 0))</f>
-        <v>1</v>
+        <f>HLOOKUP(I$1, Model!$I$41:$O$57, MATCH($B$19, Model!$H$41:$H$57, 0))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="127"/>
+      <c r="B14" s="136"/>
       <c r="C14" s="64" t="s">
         <v>14</v>
       </c>
@@ -4370,115 +5298,115 @@
         <v>9</v>
       </c>
       <c r="E14" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>A : 6</v>
       </c>
       <c r="F14" s="119" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="G14" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>B : 7</v>
       </c>
       <c r="H14" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>C : 1</v>
       </c>
       <c r="I14" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="J14" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>D : 2</v>
       </c>
       <c r="K14" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="L14" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>E : 3</v>
       </c>
       <c r="M14" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v>F : 4</v>
       </c>
       <c r="N14" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F♯ : ♯4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v/>
       </c>
       <c r="O14" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>G : 5</v>
       </c>
       <c r="P14" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="Q14" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>A : 6</v>
       </c>
       <c r="R14" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="S14" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>B : 7</v>
       </c>
       <c r="T14" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>C : 1</v>
       </c>
       <c r="U14" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="V14" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>D : 2</v>
       </c>
       <c r="W14" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="X14" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>E : 3</v>
       </c>
       <c r="Y14" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v>F : 4</v>
       </c>
       <c r="Z14" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F♯ : ♯4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v/>
       </c>
       <c r="AA14" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>G : 5</v>
       </c>
       <c r="AB14" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="AC14" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>A : 6</v>
       </c>
       <c r="AE14" s="89" t="s">
         <v>7</v>
       </c>
       <c r="AF14" s="120" t="b">
-        <f>HLOOKUP(J$1, Model!$I$40:$O$56, MATCH($B$19, Model!$H$40:$H$56, 0))</f>
-        <v>1</v>
+        <f>HLOOKUP(J$1, Model!$I$41:$O$57, MATCH($B$19, Model!$H$41:$H$57, 0))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="130" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="64" t="s">
@@ -4489,115 +5417,115 @@
         <v>4</v>
       </c>
       <c r="E15" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>E : 3</v>
       </c>
       <c r="F15" s="119" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v>F : 4</v>
       </c>
       <c r="G15" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F♯ : ♯4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v/>
       </c>
       <c r="H15" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>G : 5</v>
       </c>
       <c r="I15" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="J15" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>A : 6</v>
       </c>
       <c r="K15" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="L15" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>B : 7</v>
       </c>
       <c r="M15" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>C : 1</v>
       </c>
       <c r="N15" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="O15" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>D : 2</v>
       </c>
       <c r="P15" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="Q15" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>E : 3</v>
       </c>
       <c r="R15" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v>F : 4</v>
       </c>
       <c r="S15" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F♯ : ♯4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <v/>
       </c>
       <c r="T15" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>G : 5</v>
       </c>
       <c r="U15" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="V15" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>A : 6</v>
       </c>
       <c r="W15" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="X15" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>B : 7</v>
       </c>
       <c r="Y15" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>C : 1</v>
       </c>
       <c r="Z15" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="AA15" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>D : 2</v>
       </c>
       <c r="AB15" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
       <c r="AC15" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>E : 3</v>
       </c>
       <c r="AE15" s="89" t="s">
         <v>8</v>
       </c>
       <c r="AF15" s="120" t="b">
-        <f>HLOOKUP(K$1, Model!$I$40:$O$56, MATCH($B$19, Model!$H$40:$H$56, 0))</f>
-        <v>0</v>
+        <f>HLOOKUP(K$1, Model!$I$41:$O$57, MATCH($B$19, Model!$H$41:$H$57, 0))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:32" s="63" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="132"/>
+      <c r="B16" s="130"/>
       <c r="C16" s="64" t="s">
         <v>16</v>
       </c>
@@ -4606,335 +5534,335 @@
         <v>11</v>
       </c>
       <c r="E16" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+E$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+E$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>B : 7</v>
       </c>
       <c r="F16" s="119" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+F$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+F$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>C : 1</v>
       </c>
       <c r="G16" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+G$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+G$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v/>
       </c>
       <c r="H16" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+H$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+H$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>D : 2</v>
       </c>
       <c r="I16" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+I$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+I$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v/>
       </c>
       <c r="J16" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+J$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+J$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>E : 3</v>
       </c>
       <c r="K16" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+K$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+K$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v>F : 4</v>
       </c>
       <c r="L16" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+L$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>F♯ : 4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+L$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
       </c>
       <c r="M16" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+M$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+M$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>G : 5</v>
       </c>
       <c r="N16" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+N$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+N$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v/>
       </c>
       <c r="O16" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+O$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+O$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>A : 6</v>
       </c>
       <c r="P16" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+P$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+P$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v/>
       </c>
       <c r="Q16" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+Q$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+Q$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>B : 7</v>
       </c>
       <c r="R16" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+R$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+R$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>C : 1</v>
       </c>
       <c r="S16" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+S$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+S$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v/>
       </c>
       <c r="T16" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+T$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+T$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>D : 2</v>
       </c>
       <c r="U16" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+U$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+U$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v/>
       </c>
       <c r="V16" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+V$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+V$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>E : 3</v>
       </c>
       <c r="W16" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+W$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+W$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v>F : 4</v>
       </c>
       <c r="X16" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+X$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>F♯ : 4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+X$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
       </c>
       <c r="Y16" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+Y$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+Y$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>G : 5</v>
       </c>
       <c r="Z16" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+Z$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+Z$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v/>
       </c>
       <c r="AA16" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+AA$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+AA$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>A : 6</v>
       </c>
       <c r="AB16" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+AB$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+AB$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v/>
       </c>
       <c r="AC16" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D16+AC$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+AC$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>B : 7</v>
       </c>
       <c r="AE16" s="90"/>
       <c r="AF16" s="121"/>
     </row>
-    <row r="17" spans="2:32" s="63" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="132"/>
+    <row r="17" spans="2:32" s="63" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="130"/>
       <c r="C17" s="64" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C17), Model!$B$2:$D$41, 3)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+E$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+E$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
+      </c>
+      <c r="F17" s="119" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+F$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="F17" s="119" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+F$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
-      </c>
       <c r="G17" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+G$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+G$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
+      </c>
+      <c r="H17" s="57" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+H$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="H17" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+H$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
-      </c>
       <c r="I17" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+I$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+I$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
+      </c>
+      <c r="J17" s="57" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+J$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="J17" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+J$9, 12), Model!$I$23:$O$23, 0), "")</f>
+      <c r="K17" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+K$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="K17" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+K$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
-      </c>
       <c r="L17" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+L$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+L$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
+      </c>
+      <c r="M17" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+M$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="M17" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+M$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
-      </c>
       <c r="N17" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+N$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+N$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
+      </c>
+      <c r="O17" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+O$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="O17" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+O$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
-      </c>
       <c r="P17" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+P$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>F♯ : 4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+P$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v>F : 4</v>
       </c>
       <c r="Q17" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+Q$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+Q$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
+      </c>
+      <c r="R17" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+R$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="R17" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+R$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
-      </c>
       <c r="S17" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+S$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+S$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
+      </c>
+      <c r="T17" s="57" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+T$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="T17" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+T$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
-      </c>
       <c r="U17" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+U$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+U$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
+      </c>
+      <c r="V17" s="57" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+V$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="V17" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+V$9, 12), Model!$I$23:$O$23, 0), "")</f>
+      <c r="W17" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+W$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="W17" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+W$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
-      </c>
       <c r="X17" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+X$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+X$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
+      </c>
+      <c r="Y17" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+Y$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="Y17" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+Y$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
-      </c>
       <c r="Z17" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+Z$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+Z$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
+      </c>
+      <c r="AA17" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+AA$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="AA17" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+AA$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
-      </c>
       <c r="AB17" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+AB$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>F♯ : 4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+AB$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v>F : 4</v>
       </c>
       <c r="AC17" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D17+AC$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>G : 5</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+AC$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
       </c>
       <c r="AE17" s="91"/>
       <c r="AF17" s="121"/>
     </row>
     <row r="18" spans="2:32" s="63" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="132"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="64" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C18), Model!$B$2:$D$41, 3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+E$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+E$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
+      </c>
+      <c r="F18" s="119" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+F$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="F18" s="119" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+F$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
-      </c>
       <c r="G18" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+G$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+G$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
+      </c>
+      <c r="H18" s="57" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+H$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="H18" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+H$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
-      </c>
       <c r="I18" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+I$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>F♯ : 4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+I$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v>F : 4</v>
       </c>
       <c r="J18" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+J$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+J$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
+      </c>
+      <c r="K18" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+K$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="K18" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+K$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
-      </c>
       <c r="L18" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+L$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+L$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
+      </c>
+      <c r="M18" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+M$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="M18" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+M$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
-      </c>
       <c r="N18" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+N$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+N$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
+      </c>
+      <c r="O18" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+O$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="O18" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+O$9, 12), Model!$I$23:$O$23, 0), "")</f>
+      <c r="P18" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+P$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="P18" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+P$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
-      </c>
       <c r="Q18" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+Q$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+Q$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
+      </c>
+      <c r="R18" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+R$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>D : 2</v>
       </c>
-      <c r="R18" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+R$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
-      </c>
       <c r="S18" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+S$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+S$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
+      </c>
+      <c r="T18" s="57" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+T$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="T18" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+T$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
-      </c>
       <c r="U18" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+U$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>F♯ : 4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+U$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v>F : 4</v>
       </c>
       <c r="V18" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+V$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+V$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
+      </c>
+      <c r="W18" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+W$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="W18" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+W$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
-      </c>
       <c r="X18" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+X$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+X$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
+      </c>
+      <c r="Y18" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+Y$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>A : 6</v>
       </c>
-      <c r="Y18" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+Y$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
-      </c>
       <c r="Z18" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+Z$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+Z$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
+      </c>
+      <c r="AA18" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+AA$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="AA18" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+AA$9, 12), Model!$I$23:$O$23, 0), "")</f>
+      <c r="AB18" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+AB$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>C : 1</v>
       </c>
-      <c r="AB18" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+AB$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
-      </c>
       <c r="AC18" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$28, 5) &amp; " : " &amp; MATCH(MOD($D18+AC$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>D : 2</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D18+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+AC$9, 12), Model!$I$23:$O$23, 0), "")</f>
+        <v/>
       </c>
       <c r="AE18" s="92"/>
       <c r="AF18" s="121"/>
     </row>
     <row r="19" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="67" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="1"/>
@@ -5042,8 +5970,8 @@
         <v>9</v>
       </c>
       <c r="AF19" s="120" t="b">
-        <f>HLOOKUP(L$1, Model!$I$40:$O$56, MATCH($B$19, Model!$H$40:$H$56, 0))</f>
-        <v>0</v>
+        <f>HLOOKUP(L$1, Model!$I$41:$O$57, MATCH($B$19, Model!$H$41:$H$57, 0))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.3">
@@ -5132,50 +6060,50 @@
       <c r="AF22" s="60"/>
     </row>
     <row r="23" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="133" t="str">
+      <c r="B23" s="131" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(IF(B38 = "Ionian (Major)", B29 &amp; " Major", IF(B38 = "Aolian (Minor)", B29 &amp; " Minor", B29 &amp; " " &amp; B38)), "#", "♯"), "b", "♭")</f>
         <v>E Pentatonic Minor</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="K23" s="130">
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="K23" s="126">
         <f>IF(J27 = "", "", IF(K24 = 0, F$1, K24))</f>
         <v>1</v>
       </c>
-      <c r="L23" s="130"/>
-      <c r="M23" s="130" t="str">
+      <c r="L23" s="126"/>
+      <c r="M23" s="126" t="str">
         <f>IF(K27 = "", "", IF(M24 = 0, G$1, M24))</f>
         <v/>
       </c>
-      <c r="N23" s="130"/>
-      <c r="O23" s="130" t="str">
+      <c r="N23" s="126"/>
+      <c r="O23" s="126" t="str">
         <f>IF(L27 = "", "", IF(O24 = 0, H$1, O24))</f>
         <v>♭3</v>
       </c>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="130">
+      <c r="P23" s="126"/>
+      <c r="Q23" s="126">
         <f>IF(M27 = "", "", IF(Q24 = 0, I$1, Q24))</f>
         <v>4</v>
       </c>
-      <c r="R23" s="130"/>
-      <c r="S23" s="130">
+      <c r="R23" s="126"/>
+      <c r="S23" s="126">
         <f>IF(N27 = "", "", IF(S24 = 0, J$1, S24))</f>
         <v>5</v>
       </c>
-      <c r="T23" s="130"/>
-      <c r="U23" s="130" t="str">
+      <c r="T23" s="126"/>
+      <c r="U23" s="126" t="str">
         <f>IF(O27 = "", "", IF(U24 = 0, K$1, U24))</f>
         <v/>
       </c>
-      <c r="V23" s="130"/>
-      <c r="W23" s="130" t="str">
+      <c r="V23" s="126"/>
+      <c r="W23" s="126" t="str">
         <f>IF(P27 = "", "", IF(W24 = 0, L$1, W24))</f>
         <v>♭7</v>
       </c>
-      <c r="X23" s="130"/>
+      <c r="X23" s="126"/>
       <c r="Y23" s="60"/>
       <c r="Z23" s="60"/>
       <c r="AA23" s="60"/>
@@ -5186,47 +6114,47 @@
       <c r="AF23" s="60"/>
     </row>
     <row r="24" spans="2:32" s="59" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="133"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="133"/>
-      <c r="K24" s="136">
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="K24" s="127">
         <f>IFERROR(HLOOKUP(F$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), F$1)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="136"/>
-      <c r="M24" s="136">
+      <c r="L24" s="127"/>
+      <c r="M24" s="127">
         <f>IFERROR(HLOOKUP(G$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), G$1)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="136"/>
-      <c r="O24" s="136" t="str">
+      <c r="N24" s="127"/>
+      <c r="O24" s="127" t="str">
         <f>IFERROR(HLOOKUP(H$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), H$1)</f>
         <v>♭3</v>
       </c>
-      <c r="P24" s="136"/>
-      <c r="Q24" s="136">
+      <c r="P24" s="127"/>
+      <c r="Q24" s="127">
         <f>IFERROR(HLOOKUP(I$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), I$1)</f>
         <v>0</v>
       </c>
-      <c r="R24" s="136"/>
-      <c r="S24" s="136">
+      <c r="R24" s="127"/>
+      <c r="S24" s="127">
         <f>IFERROR(HLOOKUP(J$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), J$1)</f>
         <v>0</v>
       </c>
-      <c r="T24" s="136"/>
-      <c r="U24" s="136">
+      <c r="T24" s="127"/>
+      <c r="U24" s="127">
         <f>IFERROR(HLOOKUP(K$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), K$1)</f>
         <v>0</v>
       </c>
-      <c r="V24" s="136"/>
-      <c r="W24" s="136" t="str">
+      <c r="V24" s="127"/>
+      <c r="W24" s="127" t="str">
         <f>IFERROR(HLOOKUP(L$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), L$1)</f>
         <v>♭7</v>
       </c>
-      <c r="X24" s="136"/>
+      <c r="X24" s="127"/>
       <c r="Y24" s="60"/>
       <c r="Z24" s="60"/>
       <c r="AA24" s="60"/>
@@ -5237,47 +6165,47 @@
       <c r="AF24" s="60"/>
     </row>
     <row r="25" spans="2:32" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="133"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="K25" s="137" t="str">
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
+      <c r="K25" s="125" t="str">
         <f>IF(K$23="","", J$27 &amp; IFERROR(HLOOKUP(F$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), F$1))</f>
         <v>Em7</v>
       </c>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137" t="str">
+      <c r="L25" s="125"/>
+      <c r="M25" s="125" t="str">
         <f>IF(M$23="","", K$27 &amp; IFERROR(HLOOKUP(G$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), G$1))</f>
         <v/>
       </c>
-      <c r="N25" s="137"/>
-      <c r="O25" s="137" t="str">
+      <c r="N25" s="125"/>
+      <c r="O25" s="125" t="str">
         <f>IF(O$23="","", L$27 &amp; IFERROR(HLOOKUP(H$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), H$1))</f>
         <v>GM</v>
       </c>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="137" t="str">
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125" t="str">
         <f>IF(Q$23="","", M$27 &amp; IFERROR(HLOOKUP(I$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), I$1))</f>
         <v>A5 ♭7</v>
       </c>
-      <c r="R25" s="137"/>
-      <c r="S25" s="137" t="str">
+      <c r="R25" s="125"/>
+      <c r="S25" s="125" t="str">
         <f>IF(S$23="","", N$27 &amp; IFERROR(HLOOKUP(J$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), J$1))</f>
         <v>B5</v>
       </c>
-      <c r="T25" s="137"/>
-      <c r="U25" s="137" t="str">
+      <c r="T25" s="125"/>
+      <c r="U25" s="125" t="str">
         <f>IF(U$23="","", O$27 &amp; IFERROR(HLOOKUP(K$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), K$1))</f>
         <v/>
       </c>
-      <c r="V25" s="137"/>
-      <c r="W25" s="137" t="str">
+      <c r="V25" s="125"/>
+      <c r="W25" s="125" t="str">
         <f>IF(W$23="","", P$27 &amp; IFERROR(HLOOKUP(L$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), L$1))</f>
         <v>D5</v>
       </c>
-      <c r="X25" s="137"/>
+      <c r="X25" s="125"/>
       <c r="Y25" s="60"/>
       <c r="Z25" s="60"/>
       <c r="AA25" s="60"/>
@@ -5288,12 +6216,12 @@
       <c r="AF25" s="60"/>
     </row>
     <row r="26" spans="2:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
       <c r="H26" s="61"/>
       <c r="I26" s="61"/>
       <c r="J26" s="94"/>
@@ -5321,81 +6249,81 @@
       <c r="AF26" s="61"/>
     </row>
     <row r="27" spans="2:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="133"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="134" t="s">
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="134"/>
+      <c r="I27" s="132"/>
       <c r="J27" s="73" t="str">
-        <f>Model!I28</f>
+        <f>Model!I29</f>
         <v>E</v>
       </c>
       <c r="K27" s="74" t="str">
-        <f>IF(Model!I28=0, "", Model!J28)</f>
+        <f>IF(Model!I29=0, "", Model!J29)</f>
         <v/>
       </c>
       <c r="L27" s="75" t="str">
-        <f>IF(Model!J28=0, "", Model!K28)</f>
+        <f>IF(Model!J29=0, "", Model!K29)</f>
         <v>G</v>
       </c>
       <c r="M27" s="76" t="str">
-        <f>IF(Model!K28=0, "", Model!L28)</f>
+        <f>IF(Model!K29=0, "", Model!L29)</f>
         <v>A</v>
       </c>
       <c r="N27" s="77" t="str">
-        <f>IF(Model!L28=0, "", Model!M28)</f>
+        <f>IF(Model!L29=0, "", Model!M29)</f>
         <v>B</v>
       </c>
       <c r="O27" s="78" t="str">
-        <f>IF(Model!M28=0, "", Model!N28)</f>
+        <f>IF(Model!M29=0, "", Model!N29)</f>
         <v/>
       </c>
       <c r="P27" s="79" t="str">
-        <f>IF(Model!N28=0, "", Model!O28)</f>
+        <f>IF(Model!N29=0, "", Model!O29)</f>
         <v>D</v>
       </c>
-      <c r="S27" s="135" t="s">
+      <c r="S27" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="T27" s="135"/>
-      <c r="U27" s="135"/>
+      <c r="T27" s="133"/>
+      <c r="U27" s="133"/>
       <c r="V27" s="98" t="str">
-        <f>IF(Model!I26=1, "h", IF(Model!I26=2, "W", IF(Model!I26=3, "W+h", IF(Model!I26=4, "WW", IF(Model!I26=0, "", Model!I22)))))</f>
+        <f>IF(Model!I27=1, "h", IF(Model!I27=2, "W", IF(Model!I27=3, "W+h", IF(Model!I27=4, "WW", IF(Model!I27=0, "", Model!I22)))))</f>
         <v/>
       </c>
       <c r="W27" s="80" t="str">
-        <f>IF(Model!J26=1, "h", IF(Model!J26=2, "W", IF(Model!J26=3, "W+h", IF(Model!J26=4, "WW", IF(Model!J26=0, "", Model!J22)))))</f>
+        <f>IF(Model!J27=1, "h", IF(Model!J27=2, "W", IF(Model!J27=3, "W+h", IF(Model!J27=4, "WW", IF(Model!J27=0, "", Model!J22)))))</f>
         <v>W+h</v>
       </c>
       <c r="X27" s="81" t="str">
-        <f>IF(Model!K26=1, "h", IF(Model!K26=2, "W", IF(Model!K26=3, "W+h", IF(Model!K26=4, "WW", IF(Model!K26=0, "", Model!K22)))))</f>
+        <f>IF(Model!K27=1, "h", IF(Model!K27=2, "W", IF(Model!K27=3, "W+h", IF(Model!K27=4, "WW", IF(Model!K27=0, "", Model!K22)))))</f>
         <v>W</v>
       </c>
       <c r="Y27" s="82" t="str">
-        <f>IF(Model!L26=1, "h", IF(Model!L26=2, "W", IF(Model!L26=3, "W+h", IF(Model!L26=4, "WW", IF(Model!L26=0, "", Model!L22)))))</f>
+        <f>IF(Model!L27=1, "h", IF(Model!L27=2, "W", IF(Model!L27=3, "W+h", IF(Model!L27=4, "WW", IF(Model!L27=0, "", Model!L22)))))</f>
         <v>W</v>
       </c>
       <c r="Z27" s="83" t="str">
-        <f>IF(Model!M26=1, "h", IF(Model!M26=2, "W", IF(Model!M26=3, "W+h", IF(Model!M26=4, "WW", IF(Model!M26=0, "", Model!M22)))))</f>
+        <f>IF(Model!M27=1, "h", IF(Model!M27=2, "W", IF(Model!M27=3, "W+h", IF(Model!M27=4, "WW", IF(Model!M27=0, "", Model!M22)))))</f>
         <v/>
       </c>
       <c r="AA27" s="84" t="str">
-        <f>IF(Model!N26=1, "h", IF(Model!N26=2, "W", IF(Model!N26=3, "W+h", IF(Model!N26=4, "WW", IF(Model!N26=0, "", Model!N22)))))</f>
+        <f>IF(Model!N27=1, "h", IF(Model!N27=2, "W", IF(Model!N27=3, "W+h", IF(Model!N27=4, "WW", IF(Model!N27=0, "", Model!N22)))))</f>
         <v>W+h</v>
       </c>
       <c r="AB27" s="85" t="str">
-        <f>IF(Model!O26=1, "h", IF(Model!O26=2, "W", IF(Model!O26=3, "W+h", IF(Model!O26=4, "WW", IF(Model!O26=0, "", Model!O22)))))</f>
+        <f>IF(Model!O27=1, "h", IF(Model!O27=2, "W", IF(Model!O27=3, "W+h", IF(Model!O27=4, "WW", IF(Model!O27=0, "", Model!O22)))))</f>
         <v>W</v>
       </c>
-      <c r="AE27" s="128" t="s">
+      <c r="AE27" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="AF27" s="128"/>
+      <c r="AF27" s="137"/>
     </row>
     <row r="28" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="93" t="s">
@@ -5404,10 +6332,7 @@
       <c r="C28" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="2">
-        <f>VLOOKUP(UPPER(Fretboards!C28), Model!$B$2:$D$41, 3)</f>
-        <v>5</v>
-      </c>
+      <c r="D28" s="2"/>
       <c r="E28" s="122">
         <f t="shared" ref="E28:AC28" si="2">IF($AB$4, 24-E$1, E$1)</f>
         <v>0</v>
@@ -5516,7 +6441,7 @@
       </c>
     </row>
     <row r="29" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="127" t="s">
+      <c r="B29" s="136" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="64" t="s">
@@ -5527,103 +6452,103 @@
         <v>4</v>
       </c>
       <c r="E29" s="118" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+E$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+E$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
       <c r="F29" s="119" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+F$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+F$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="G29" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+G$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+G$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+G$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+G$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="H29" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+H$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+H$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>G : ♭3</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+H$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+H$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>G : 3</v>
       </c>
       <c r="I29" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+I$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+I$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+I$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+I$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="J29" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+J$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+J$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+J$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+J$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>A : 4</v>
       </c>
       <c r="K29" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+K$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+K$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+K$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+K$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="L29" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+L$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+L$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+L$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+L$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
       <c r="M29" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+M$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+M$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+M$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+M$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="N29" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+N$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+N$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+N$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+N$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="O29" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+O$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+O$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>D : ♭7</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+O$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+O$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>D : 7</v>
       </c>
       <c r="P29" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+P$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+P$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+P$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+P$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="Q29" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+Q$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+Q$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+Q$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+Q$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
       <c r="R29" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+R$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+R$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+R$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+R$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="S29" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+S$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+S$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+S$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+S$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="T29" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+T$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+T$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>G : ♭3</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+T$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+T$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>G : 3</v>
       </c>
       <c r="U29" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+U$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+U$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+U$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+U$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="V29" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+V$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+V$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+V$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+V$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>A : 4</v>
       </c>
       <c r="W29" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+W$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+W$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+W$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+W$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="X29" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+X$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+X$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+X$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+X$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
       <c r="Y29" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+Y$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+Y$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+Y$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+Y$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="Z29" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+Z$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+Z$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+Z$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+Z$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="AA29" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+AA$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+AA$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>D : ♭7</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+AA$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+AA$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>D : 7</v>
       </c>
       <c r="AB29" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+AB$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+AB$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+AB$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+AB$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="AC29" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+AC$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+AC$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+AC$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+AC$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
       <c r="AD29" s="63"/>
@@ -5631,12 +6556,12 @@
         <v>3</v>
       </c>
       <c r="AF29" s="120" t="b">
-        <f>HLOOKUP(F$1, Model!$I$40:$O$56, MATCH($B$38, Model!$H$40:$H$56, 0))</f>
+        <f>HLOOKUP(F$1, Model!$I$41:$O$57, MATCH($B$38, Model!$H$41:$H$57, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="127"/>
+      <c r="B30" s="136"/>
       <c r="C30" s="64" t="s">
         <v>16</v>
       </c>
@@ -5645,103 +6570,103 @@
         <v>11</v>
       </c>
       <c r="E30" s="118" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+E$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+E$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
       <c r="F30" s="119" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+F$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+F$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="G30" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+G$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+G$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+G$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+G$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="H30" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+H$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+H$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>D : ♭7</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+H$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+H$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>D : 7</v>
       </c>
       <c r="I30" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+I$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+I$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+I$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+I$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="J30" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+J$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+J$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+J$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+J$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
       <c r="K30" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+K$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+K$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+K$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+K$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="L30" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+L$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+L$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+L$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+L$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="M30" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+M$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+M$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>G : ♭3</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+M$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+M$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>G : 3</v>
       </c>
       <c r="N30" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+N$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+N$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+N$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+N$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="O30" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+O$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+O$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+O$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+O$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>A : 4</v>
       </c>
       <c r="P30" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+P$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+P$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+P$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+P$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="Q30" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+Q$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+Q$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+Q$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+Q$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
       <c r="R30" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+R$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+R$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+R$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+R$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="S30" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+S$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+S$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+S$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+S$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="T30" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+T$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+T$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>D : ♭7</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+T$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+T$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>D : 7</v>
       </c>
       <c r="U30" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+U$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+U$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+U$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+U$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="V30" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+V$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+V$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+V$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+V$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
       <c r="W30" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+W$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+W$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+W$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+W$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="X30" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+X$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+X$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+X$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+X$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="Y30" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+Y$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+Y$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>G : ♭3</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+Y$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+Y$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>G : 3</v>
       </c>
       <c r="Z30" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+Z$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+Z$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+Z$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+Z$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="AA30" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+AA$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+AA$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+AA$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+AA$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>A : 4</v>
       </c>
       <c r="AB30" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+AB$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+AB$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+AB$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+AB$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="AC30" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+AC$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+AC$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+AC$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+AC$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
       <c r="AD30" s="63"/>
@@ -5749,12 +6674,12 @@
         <v>4</v>
       </c>
       <c r="AF30" s="120" t="b">
-        <f>HLOOKUP(G$1, Model!$I$40:$O$56, MATCH($B$38, Model!$H$40:$H$56, 0))</f>
+        <f>HLOOKUP(G$1, Model!$I$41:$O$57, MATCH($B$38, Model!$H$41:$H$57, 0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="127"/>
+      <c r="B31" s="136"/>
       <c r="C31" s="64" t="s">
         <v>15</v>
       </c>
@@ -5763,116 +6688,116 @@
         <v>7</v>
       </c>
       <c r="E31" s="118" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+E$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+E$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>G : ♭3</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>G : 3</v>
       </c>
       <c r="F31" s="119" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+F$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+F$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="G31" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+G$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+G$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+G$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+G$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>A : 4</v>
       </c>
       <c r="H31" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+H$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+H$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+H$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+H$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="I31" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+I$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+I$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+I$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+I$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
       <c r="J31" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+J$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+J$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+J$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+J$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="K31" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+K$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+K$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+K$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+K$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="L31" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+L$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+L$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>D : ♭7</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+L$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+L$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>D : 7</v>
       </c>
       <c r="M31" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+M$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+M$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+M$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+M$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="N31" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+N$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+N$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+N$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+N$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
       <c r="O31" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+O$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+O$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+O$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+O$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="P31" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+P$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+P$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+P$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+P$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="Q31" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+Q$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+Q$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>G : ♭3</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+Q$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+Q$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>G : 3</v>
       </c>
       <c r="R31" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+R$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+R$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+R$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+R$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="S31" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+S$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+S$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+S$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+S$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>A : 4</v>
       </c>
       <c r="T31" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+T$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+T$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+T$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+T$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="U31" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+U$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+U$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+U$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+U$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
       <c r="V31" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+V$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+V$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+V$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+V$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="W31" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+W$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+W$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+W$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+W$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="X31" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+X$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+X$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>D : ♭7</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+X$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+X$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>D : 7</v>
       </c>
       <c r="Y31" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+Y$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+Y$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+Y$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+Y$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="Z31" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+Z$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+Z$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+Z$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+Z$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
       <c r="AA31" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+AA$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+AA$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+AA$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+AA$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="AB31" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+AB$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+AB$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+AB$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+AB$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="AC31" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+AC$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+AC$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>G : ♭3</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+AC$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+AC$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>G : 3</v>
       </c>
       <c r="AD31" s="63"/>
       <c r="AE31" s="89" t="s">
         <v>5</v>
       </c>
       <c r="AF31" s="120" t="b">
-        <f>HLOOKUP(H$1, Model!$I$40:$O$56, MATCH($B$38, Model!$H$40:$H$56, 0))</f>
+        <f>HLOOKUP(H$1, Model!$I$41:$O$57, MATCH($B$38, Model!$H$41:$H$57, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="127"/>
+      <c r="B32" s="136"/>
       <c r="C32" s="64" t="s">
         <v>12</v>
       </c>
@@ -5881,116 +6806,116 @@
         <v>2</v>
       </c>
       <c r="E32" s="118" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+E$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+E$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>D : ♭7</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>D : 7</v>
       </c>
       <c r="F32" s="119" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+F$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+F$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="G32" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+G$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+G$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+G$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+G$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
       <c r="H32" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+H$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+H$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+H$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+H$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="I32" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+I$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+I$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+I$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+I$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="J32" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+J$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+J$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>G : ♭3</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+J$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+J$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>G : 3</v>
       </c>
       <c r="K32" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+K$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+K$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+K$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+K$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="L32" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+L$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+L$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+L$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+L$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>A : 4</v>
       </c>
       <c r="M32" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+M$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+M$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+M$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+M$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="N32" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+N$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+N$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+N$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+N$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
       <c r="O32" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+O$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+O$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+O$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+O$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="P32" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+P$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+P$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+P$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+P$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="Q32" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+Q$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+Q$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>D : ♭7</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+Q$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+Q$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>D : 7</v>
       </c>
       <c r="R32" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+R$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+R$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+R$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+R$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="S32" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+S$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+S$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+S$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+S$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
       <c r="T32" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+T$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+T$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+T$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+T$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="U32" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+U$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+U$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+U$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+U$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="V32" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+V$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+V$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>G : ♭3</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+V$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+V$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>G : 3</v>
       </c>
       <c r="W32" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+W$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+W$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+W$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+W$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="X32" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+X$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+X$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+X$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+X$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>A : 4</v>
       </c>
       <c r="Y32" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+Y$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+Y$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+Y$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+Y$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="Z32" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+Z$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+Z$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+Z$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+Z$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
       <c r="AA32" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+AA$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+AA$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+AA$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+AA$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="AB32" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+AB$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+AB$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+AB$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+AB$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="AC32" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+AC$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+AC$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>D : ♭7</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+AC$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+AC$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>D : 7</v>
       </c>
       <c r="AD32" s="63"/>
       <c r="AE32" s="89" t="s">
         <v>6</v>
       </c>
       <c r="AF32" s="120" t="b">
-        <f>HLOOKUP(I$1, Model!$I$40:$O$56, MATCH($B$38, Model!$H$40:$H$56, 0))</f>
+        <f>HLOOKUP(I$1, Model!$I$41:$O$57, MATCH($B$38, Model!$H$41:$H$57, 0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="127"/>
+      <c r="B33" s="136"/>
       <c r="C33" s="64" t="s">
         <v>14</v>
       </c>
@@ -5999,103 +6924,103 @@
         <v>9</v>
       </c>
       <c r="E33" s="118" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+E$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+E$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>A : 4</v>
       </c>
       <c r="F33" s="119" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+F$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+F$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="G33" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+G$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+G$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+G$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+G$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
       <c r="H33" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+H$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+H$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+H$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+H$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="I33" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+I$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+I$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+I$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+I$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="J33" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+J$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+J$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>D : ♭7</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+J$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+J$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>D : 7</v>
       </c>
       <c r="K33" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+K$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+K$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+K$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+K$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="L33" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+L$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+L$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+L$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+L$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
       <c r="M33" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+M$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+M$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+M$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+M$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="N33" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+N$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+N$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+N$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+N$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="O33" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+O$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+O$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>G : ♭3</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+O$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+O$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>G : 3</v>
       </c>
       <c r="P33" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+P$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+P$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+P$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+P$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="Q33" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+Q$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+Q$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+Q$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+Q$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>A : 4</v>
       </c>
       <c r="R33" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+R$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+R$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+R$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+R$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="S33" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+S$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+S$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+S$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+S$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
       <c r="T33" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+T$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+T$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+T$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+T$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="U33" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+U$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+U$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+U$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+U$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="V33" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+V$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+V$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>D : ♭7</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+V$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+V$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>D : 7</v>
       </c>
       <c r="W33" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+W$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+W$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+W$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+W$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="X33" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+X$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+X$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+X$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+X$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
       <c r="Y33" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+Y$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+Y$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+Y$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+Y$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="Z33" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+Z$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+Z$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+Z$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+Z$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="AA33" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+AA$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+AA$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>G : ♭3</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+AA$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+AA$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>G : 3</v>
       </c>
       <c r="AB33" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+AB$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+AB$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+AB$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+AB$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="AC33" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+AC$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+AC$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+AC$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+AC$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>A : 4</v>
       </c>
       <c r="AD33" s="63"/>
@@ -6103,12 +7028,12 @@
         <v>7</v>
       </c>
       <c r="AF33" s="120" t="b">
-        <f>HLOOKUP(J$1, Model!$I$40:$O$56, MATCH($B$38, Model!$H$40:$H$56, 0))</f>
+        <f>HLOOKUP(J$1, Model!$I$41:$O$57, MATCH($B$38, Model!$H$41:$H$57, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="132" t="s">
+      <c r="B34" s="130" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="64" t="s">
@@ -6119,103 +7044,103 @@
         <v>4</v>
       </c>
       <c r="E34" s="118" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+E$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+E$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
       <c r="F34" s="119" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+F$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+F$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="G34" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+G$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+G$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+G$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+G$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="H34" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+H$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+H$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>G : ♭3</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+H$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+H$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>G : 3</v>
       </c>
       <c r="I34" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+I$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+I$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+I$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+I$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="J34" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+J$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+J$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+J$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+J$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>A : 4</v>
       </c>
       <c r="K34" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+K$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+K$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+K$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+K$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="L34" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+L$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+L$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+L$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+L$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
       <c r="M34" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+M$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+M$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+M$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+M$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="N34" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+N$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+N$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+N$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+N$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="O34" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+O$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+O$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>D : ♭7</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+O$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+O$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>D : 7</v>
       </c>
       <c r="P34" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+P$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+P$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+P$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+P$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="Q34" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+Q$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+Q$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+Q$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+Q$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
       <c r="R34" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+R$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+R$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+R$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+R$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="S34" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+S$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+S$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+S$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+S$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="T34" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+T$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+T$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>G : ♭3</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+T$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+T$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>G : 3</v>
       </c>
       <c r="U34" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+U$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+U$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+U$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+U$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="V34" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+V$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+V$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+V$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+V$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>A : 4</v>
       </c>
       <c r="W34" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+W$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+W$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+W$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+W$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="X34" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+X$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+X$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+X$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+X$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
       <c r="Y34" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+Y$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+Y$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+Y$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+Y$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="Z34" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+Z$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+Z$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+Z$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+Z$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="AA34" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+AA$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+AA$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
-        <v>D : ♭7</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+AA$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+AA$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>D : 7</v>
       </c>
       <c r="AB34" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+AB$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+AB$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+AB$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+AB$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="AC34" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+AC$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+AC$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$25, 6), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+AC$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+AC$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
       <c r="AD34" s="63"/>
@@ -6223,12 +7148,12 @@
         <v>8</v>
       </c>
       <c r="AF34" s="120" t="b">
-        <f>HLOOKUP(K$1, Model!$I$40:$O$56, MATCH($B$38, Model!$H$40:$H$56, 0))</f>
+        <f>HLOOKUP(K$1, Model!$I$41:$O$57, MATCH($B$38, Model!$H$41:$H$57, 0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="132"/>
+      <c r="B35" s="130"/>
       <c r="C35" s="64" t="s">
         <v>16</v>
       </c>
@@ -6237,103 +7162,103 @@
         <v>11</v>
       </c>
       <c r="E35" s="118" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+E$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+E$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
       <c r="F35" s="119" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+F$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+F$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="G35" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+G$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+G$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+G$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+G$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="H35" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+H$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+H$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+H$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+H$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>D : 7</v>
       </c>
       <c r="I35" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+I$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+I$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+I$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+I$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="J35" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+J$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+J$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+J$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+J$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
       <c r="K35" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+K$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+K$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+K$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+K$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="L35" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+L$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+L$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+L$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+L$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="M35" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+M$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+M$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+M$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+M$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>G : 3</v>
       </c>
       <c r="N35" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+N$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+N$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+N$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+N$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="O35" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+O$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+O$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : ♯4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+O$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+O$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>A : 4</v>
       </c>
       <c r="P35" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+P$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+P$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+P$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+P$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="Q35" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+Q$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+Q$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+Q$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+Q$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
       <c r="R35" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+R$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+R$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+R$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+R$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="S35" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+S$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+S$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+S$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+S$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="T35" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+T$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+T$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+T$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+T$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>D : 7</v>
       </c>
       <c r="U35" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+U$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+U$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+U$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+U$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="V35" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+V$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+V$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+V$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+V$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
       <c r="W35" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+W$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+W$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+W$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+W$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="X35" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+X$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+X$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+X$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+X$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="Y35" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+Y$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+Y$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+Y$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+Y$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>G : 3</v>
       </c>
       <c r="Z35" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+Z$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+Z$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+Z$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+Z$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="AA35" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+AA$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+AA$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : ♯4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+AA$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+AA$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>A : 4</v>
       </c>
       <c r="AB35" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+AB$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+AB$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+AB$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+AB$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="AC35" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+AC$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+AC$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+AC$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+AC$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
       <c r="AD35" s="63"/>
@@ -6341,226 +7266,226 @@
       <c r="AF35" s="121"/>
     </row>
     <row r="36" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="132"/>
+      <c r="B36" s="130"/>
       <c r="C36" s="64" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C36), Model!$B$2:$D$41, 3)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36" s="118" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+E$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+E$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
+      </c>
+      <c r="F36" s="119" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>G : 3</v>
       </c>
-      <c r="F36" s="119" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+F$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+F$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
-      </c>
       <c r="G36" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+G$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+G$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : ♯4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+G$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+G$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
       </c>
       <c r="H36" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+H$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+H$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+H$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+H$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>A : 4</v>
       </c>
       <c r="I36" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+I$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+I$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+I$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+I$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
+      </c>
+      <c r="J36" s="57" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+J$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+J$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="J36" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+J$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+J$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
-      </c>
       <c r="K36" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+K$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+K$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+K$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+K$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="L36" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+L$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+L$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+L$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+L$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
+      </c>
+      <c r="M36" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+M$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+M$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="M36" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+M$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+M$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
-      </c>
       <c r="N36" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+N$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+N$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+N$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+N$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
+      </c>
+      <c r="O36" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+O$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+O$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="O36" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+O$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+O$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
-      </c>
       <c r="P36" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+P$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+P$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+P$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+P$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="Q36" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+Q$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+Q$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+Q$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+Q$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
+      </c>
+      <c r="R36" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+R$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+R$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>G : 3</v>
       </c>
-      <c r="R36" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+R$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+R$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
-      </c>
       <c r="S36" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+S$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+S$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : ♯4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+S$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+S$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
       </c>
       <c r="T36" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+T$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+T$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+T$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+T$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>A : 4</v>
       </c>
       <c r="U36" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+U$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+U$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+U$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+U$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
+      </c>
+      <c r="V36" s="57" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+V$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+V$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="V36" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+V$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+V$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
-      </c>
       <c r="W36" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+W$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+W$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+W$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+W$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="X36" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+X$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+X$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+X$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+X$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
+      </c>
+      <c r="Y36" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+Y$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+Y$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="Y36" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+Y$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+Y$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
-      </c>
       <c r="Z36" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+Z$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+Z$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+Z$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+Z$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
+      </c>
+      <c r="AA36" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+AA$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+AA$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="AA36" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+AA$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+AA$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
-      </c>
       <c r="AB36" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+AB$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+AB$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+AB$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+AB$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="AC36" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+AC$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+AC$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>G : 3</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D36+AC$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+AC$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
       </c>
       <c r="AD36" s="63"/>
       <c r="AE36" s="91"/>
       <c r="AF36" s="121"/>
     </row>
     <row r="37" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="132"/>
+      <c r="B37" s="130"/>
       <c r="C37" s="64" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C37), Model!$B$2:$D$41, 3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="118" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+E$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+E$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
+      </c>
+      <c r="F37" s="119" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="F37" s="119" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+F$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+F$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
-      </c>
       <c r="G37" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+G$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+G$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+G$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+G$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
+      </c>
+      <c r="H37" s="57" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+H$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+H$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="H37" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+H$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+H$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
-      </c>
       <c r="I37" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+I$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+I$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+I$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+I$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="J37" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+J$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+J$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+J$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+J$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
+      </c>
+      <c r="K37" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+K$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+K$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>G : 3</v>
       </c>
-      <c r="K37" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+K$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+K$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
-      </c>
       <c r="L37" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+L$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+L$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : ♯4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+L$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+L$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
       </c>
       <c r="M37" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+M$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+M$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+M$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+M$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>A : 4</v>
       </c>
       <c r="N37" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+N$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+N$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+N$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+N$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
+      </c>
+      <c r="O37" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+O$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+O$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="O37" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+O$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+O$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
-      </c>
       <c r="P37" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+P$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+P$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+P$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+P$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="Q37" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+Q$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+Q$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+Q$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+Q$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
+      </c>
+      <c r="R37" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+R$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+R$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="R37" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+R$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+R$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
-      </c>
       <c r="S37" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+S$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+S$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+S$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+S$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
+      </c>
+      <c r="T37" s="57" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+T$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+T$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="T37" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+T$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+T$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
-      </c>
       <c r="U37" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+U$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+U$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+U$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+U$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="V37" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+V$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+V$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+V$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+V$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
+      </c>
+      <c r="W37" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+W$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+W$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>G : 3</v>
       </c>
-      <c r="W37" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+W$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+W$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
-      </c>
       <c r="X37" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+X$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+X$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : ♯4</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+X$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+X$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
       </c>
       <c r="Y37" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+Y$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+Y$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+Y$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+Y$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v>A : 4</v>
       </c>
       <c r="Z37" s="57" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+Z$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+Z$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+Z$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+Z$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
+      </c>
+      <c r="AA37" s="56" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+AA$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+AA$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="AA37" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+AA$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+AA$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
-      </c>
       <c r="AB37" s="56" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+AB$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+AB$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+AB$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+AB$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
       <c r="AC37" s="58" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+AC$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$28, 9) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+AC$28, 12), Model!$I$27:$O$27, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D : 7</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D37+AC$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+AC$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
+        <v/>
       </c>
       <c r="AD37" s="63"/>
       <c r="AE37" s="92"/>
@@ -6676,7 +7601,7 @@
         <v>9</v>
       </c>
       <c r="AF38" s="120" t="b">
-        <f>HLOOKUP(L$1, Model!$I$40:$O$56, MATCH($B$38, Model!$H$40:$H$56, 0))</f>
+        <f>HLOOKUP(L$1, Model!$I$41:$O$57, MATCH($B$38, Model!$H$41:$H$57, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -6713,30 +7638,22 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Z4:AA7"/>
+    <mergeCell ref="AB4:AC7"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B23:G27"/>
     <mergeCell ref="H27:I27"/>
@@ -6753,440 +7670,448 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Z4:AA7"/>
-    <mergeCell ref="AB4:AC7"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
   </mergeCells>
   <conditionalFormatting sqref="AB4 AF10:AF19">
-    <cfRule type="expression" dxfId="140" priority="548">
+    <cfRule type="expression" dxfId="126" priority="548">
       <formula>AND($AF$15=TRUE, SEARCH("6", AB4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="549">
+    <cfRule type="expression" dxfId="125" priority="549">
       <formula>AND($AF$10=TRUE, SEARCH("1", AB4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="550">
+    <cfRule type="expression" dxfId="124" priority="550">
       <formula>AND($AF$11=TRUE, SEARCH("2", AB4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="551">
+    <cfRule type="expression" dxfId="123" priority="551">
       <formula>AND($AF$12=TRUE, SEARCH("3", AB4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="552">
+    <cfRule type="expression" dxfId="122" priority="552">
       <formula>AND($AF$13=TRUE, SEARCH("4", AB4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="553">
+    <cfRule type="expression" dxfId="121" priority="553">
       <formula>AND($AF$14=TRUE, SEARCH("5", AB4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="554">
+    <cfRule type="expression" dxfId="120" priority="554">
       <formula>AND($AF$19=TRUE, SEARCH("7", AB4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:AA8">
-    <cfRule type="containsText" dxfId="133" priority="171" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="119" priority="171" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",W8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3">
-    <cfRule type="expression" dxfId="132" priority="107">
+    <cfRule type="expression" dxfId="118" priority="107">
       <formula>AND($AF$15=TRUE, SEARCH("6", AF3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="108">
+    <cfRule type="expression" dxfId="117" priority="108">
       <formula>AND($AF$10=TRUE, SEARCH("1", AF3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="109">
+    <cfRule type="expression" dxfId="116" priority="109">
       <formula>AND($AF$11=TRUE, SEARCH("2", AF3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="110">
+    <cfRule type="expression" dxfId="115" priority="110">
       <formula>AND($AF$12=TRUE, SEARCH("3", AF3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="111">
+    <cfRule type="expression" dxfId="114" priority="111">
       <formula>AND($AF$13=TRUE, SEARCH("4", AF3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="112">
+    <cfRule type="expression" dxfId="113" priority="112">
       <formula>AND($AF$14=TRUE, SEARCH("5", AF3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="113">
+    <cfRule type="expression" dxfId="112" priority="113">
       <formula>AND($AF$19=TRUE, SEARCH("7", AF3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:AC18">
-    <cfRule type="expression" dxfId="125" priority="93">
+    <cfRule type="expression" dxfId="111" priority="93">
       <formula>AND($AF$10, SEARCH("1", G10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="94">
+    <cfRule type="expression" dxfId="110" priority="94">
       <formula>AND($AF$11, SEARCH("2", G10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="95">
+    <cfRule type="expression" dxfId="109" priority="95">
       <formula>AND($AF$12, SEARCH("3", G10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="96">
+    <cfRule type="expression" dxfId="108" priority="96">
       <formula>AND($AF$13, SEARCH("4", G10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="97">
+    <cfRule type="expression" dxfId="107" priority="97">
       <formula>AND($AF$14, SEARCH("5", G10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="98">
+    <cfRule type="expression" dxfId="106" priority="98">
       <formula>AND($AF$15, SEARCH("6", G10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="99">
+    <cfRule type="expression" dxfId="105" priority="99">
       <formula>AND($AF$19, SEARCH("7", G10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE29:AE34 AE38">
-    <cfRule type="expression" dxfId="118" priority="79">
+    <cfRule type="expression" dxfId="104" priority="79">
       <formula>AND($AF$29, SEARCH("1", AE29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="80">
+    <cfRule type="expression" dxfId="103" priority="80">
       <formula>AND($AF$30, SEARCH("2", AE29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="81">
+    <cfRule type="expression" dxfId="102" priority="81">
       <formula>AND($AF$31, SEARCH("3", AE29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="82">
+    <cfRule type="expression" dxfId="101" priority="82">
       <formula>AND($AF$32, SEARCH("4", AE29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="83">
+    <cfRule type="expression" dxfId="100" priority="83">
       <formula>AND($AF$33, SEARCH("5", AE29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="84">
+    <cfRule type="expression" dxfId="99" priority="84">
       <formula>AND($AF$34, SEARCH("6", AE29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="85">
+    <cfRule type="expression" dxfId="98" priority="85">
       <formula>AND($AF$38, SEARCH("7", AE29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:AC37">
-    <cfRule type="expression" dxfId="111" priority="100">
+    <cfRule type="expression" dxfId="97" priority="100">
       <formula>AND($AF$29, SEARCH("1", E29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="101">
+    <cfRule type="expression" dxfId="96" priority="101">
       <formula>AND($AF$30, SEARCH("2", E29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="102">
+    <cfRule type="expression" dxfId="95" priority="102">
       <formula>AND($AF$31, SEARCH("3", E29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="103">
+    <cfRule type="expression" dxfId="94" priority="103">
       <formula>AND($AF$32, SEARCH("4", E29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="104">
+    <cfRule type="expression" dxfId="93" priority="104">
       <formula>AND($AF$33, SEARCH("5", E29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="105">
+    <cfRule type="expression" dxfId="92" priority="105">
       <formula>AND($AF$34, SEARCH("6", E29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="106">
+    <cfRule type="expression" dxfId="91" priority="106">
       <formula>AND($AF$38, SEARCH("7", E29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE10:AE15 AE19">
-    <cfRule type="expression" dxfId="104" priority="58">
+    <cfRule type="expression" dxfId="90" priority="58">
       <formula>AND($AF$10, SEARCH("1", AE10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="59">
+    <cfRule type="expression" dxfId="89" priority="59">
       <formula>AND($AF$11, SEARCH("2", AE10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="60">
+    <cfRule type="expression" dxfId="88" priority="60">
       <formula>AND($AF$12, SEARCH("3", AE10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="61">
+    <cfRule type="expression" dxfId="87" priority="61">
       <formula>AND($AF$13, SEARCH("4", AE10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="62">
+    <cfRule type="expression" dxfId="86" priority="62">
       <formula>AND($AF$14, SEARCH("5", AE10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="63">
+    <cfRule type="expression" dxfId="85" priority="63">
       <formula>AND($AF$15, SEARCH("6", AE10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="64">
+    <cfRule type="expression" dxfId="84" priority="64">
       <formula>AND($AF$19, SEARCH("7", AE10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8">
-    <cfRule type="containsText" dxfId="97" priority="54" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="83" priority="54" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",V8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8">
-    <cfRule type="containsText" dxfId="96" priority="53" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="82" priority="53" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",AB8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V27">
-    <cfRule type="containsText" dxfId="95" priority="45" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="81" priority="45" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",V27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W27">
-    <cfRule type="containsText" dxfId="94" priority="44" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="80" priority="44" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",W27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27">
-    <cfRule type="containsText" dxfId="93" priority="43" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="79" priority="43" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",X27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y27">
-    <cfRule type="containsText" dxfId="92" priority="42" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="78" priority="42" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",Y27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z27">
-    <cfRule type="containsText" dxfId="91" priority="41" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="77" priority="41" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",Z27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA27">
-    <cfRule type="containsText" dxfId="90" priority="40" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="76" priority="40" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",AA27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB27">
-    <cfRule type="containsText" dxfId="89" priority="39" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="75" priority="39" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",AB27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:P18">
-    <cfRule type="containsBlanks" dxfId="88" priority="558">
+    <cfRule type="containsBlanks" dxfId="74" priority="558">
       <formula>LEN(TRIM(G10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:P37">
-    <cfRule type="containsBlanks" dxfId="87" priority="559">
+    <cfRule type="containsBlanks" dxfId="73" priority="559">
       <formula>LEN(TRIM(F29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:AB18">
-    <cfRule type="containsBlanks" dxfId="86" priority="560">
+    <cfRule type="containsBlanks" dxfId="72" priority="560">
       <formula>LEN(TRIM(R10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R29:AB37">
-    <cfRule type="containsBlanks" dxfId="85" priority="23">
+    <cfRule type="containsBlanks" dxfId="71" priority="23">
       <formula>LEN(TRIM(R29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8 M27">
-    <cfRule type="expression" dxfId="84" priority="596">
+    <cfRule type="expression" dxfId="70" priority="596">
       <formula>FIND(7,Q4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="597">
+    <cfRule type="expression" dxfId="69" priority="597">
       <formula>FIND(6, Q4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="598">
+    <cfRule type="expression" dxfId="68" priority="598">
       <formula>FIND(5,Q4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="599">
+    <cfRule type="expression" dxfId="67" priority="599">
       <formula>FIND(4,Q4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="600">
+    <cfRule type="expression" dxfId="66" priority="600">
       <formula>FIND(3, Q4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="601">
+    <cfRule type="expression" dxfId="65" priority="601">
       <formula>FIND(2, Q4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="602">
+    <cfRule type="expression" dxfId="64" priority="602">
       <formula>FIND(1, Q4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8 L27">
-    <cfRule type="expression" dxfId="77" priority="610">
+    <cfRule type="expression" dxfId="63" priority="610">
       <formula>FIND(7,O4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="611">
+    <cfRule type="expression" dxfId="62" priority="611">
       <formula>FIND(6, O4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="612">
+    <cfRule type="expression" dxfId="61" priority="612">
       <formula>FIND(5,O4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="613">
+    <cfRule type="expression" dxfId="60" priority="613">
       <formula>FIND(4,O4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="614">
+    <cfRule type="expression" dxfId="59" priority="614">
       <formula>FIND(3, O4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="615">
+    <cfRule type="expression" dxfId="58" priority="615">
       <formula>FIND(2, O4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="616">
+    <cfRule type="expression" dxfId="57" priority="616">
       <formula>FIND(1, O4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8 K27">
-    <cfRule type="expression" dxfId="70" priority="624">
+    <cfRule type="expression" dxfId="56" priority="624">
       <formula>FIND(7,M4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="625">
+    <cfRule type="expression" dxfId="55" priority="625">
       <formula>FIND(6, M4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="626">
+    <cfRule type="expression" dxfId="54" priority="626">
       <formula>FIND(5,M4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="627">
+    <cfRule type="expression" dxfId="53" priority="627">
       <formula>FIND(4,M4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="628">
+    <cfRule type="expression" dxfId="52" priority="628">
       <formula>FIND(3, M4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="629">
+    <cfRule type="expression" dxfId="51" priority="629">
       <formula>FIND(2, M4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="630">
+    <cfRule type="expression" dxfId="50" priority="630">
       <formula>FIND(1, M4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8 J27">
-    <cfRule type="expression" dxfId="63" priority="638">
+    <cfRule type="expression" dxfId="49" priority="638">
       <formula>FIND(7,K4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="639">
+    <cfRule type="expression" dxfId="48" priority="639">
       <formula>FIND(6, K4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="640">
+    <cfRule type="expression" dxfId="47" priority="640">
       <formula>FIND(5,K4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="641">
+    <cfRule type="expression" dxfId="46" priority="641">
       <formula>FIND(4,K4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="642">
+    <cfRule type="expression" dxfId="45" priority="642">
       <formula>FIND(3, K4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="643">
+    <cfRule type="expression" dxfId="44" priority="643">
       <formula>FIND(2, K4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="644">
+    <cfRule type="expression" dxfId="43" priority="644">
       <formula>FIND(1, K4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8 P27">
-    <cfRule type="expression" dxfId="56" priority="645">
+    <cfRule type="expression" dxfId="42" priority="645">
       <formula>FIND(7,W4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="646">
+    <cfRule type="expression" dxfId="41" priority="646">
       <formula>FIND(6, W4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="647">
+    <cfRule type="expression" dxfId="40" priority="647">
       <formula>FIND(5,W4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="648">
+    <cfRule type="expression" dxfId="39" priority="648">
       <formula>FIND(4,W4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="649">
+    <cfRule type="expression" dxfId="38" priority="649">
       <formula>FIND(3, W4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="650">
+    <cfRule type="expression" dxfId="37" priority="650">
       <formula>FIND(2, W4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="651">
+    <cfRule type="expression" dxfId="36" priority="651">
       <formula>FIND(1, W4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8 O27">
-    <cfRule type="expression" dxfId="49" priority="652">
+    <cfRule type="expression" dxfId="35" priority="652">
       <formula>FIND(7,U4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="653">
+    <cfRule type="expression" dxfId="34" priority="653">
       <formula>FIND(6, U4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="654">
+    <cfRule type="expression" dxfId="33" priority="654">
       <formula>FIND(5,U4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="655">
+    <cfRule type="expression" dxfId="32" priority="655">
       <formula>FIND(4,U4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="656">
+    <cfRule type="expression" dxfId="31" priority="656">
       <formula>FIND(3, U4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="657">
+    <cfRule type="expression" dxfId="30" priority="657">
       <formula>FIND(2, U4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="658">
+    <cfRule type="expression" dxfId="29" priority="658">
       <formula>FIND(1, U4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8 N27">
-    <cfRule type="expression" dxfId="42" priority="659">
+    <cfRule type="expression" dxfId="28" priority="659">
       <formula>FIND(7,S4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="660">
+    <cfRule type="expression" dxfId="27" priority="660">
       <formula>FIND(6, S4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="661">
+    <cfRule type="expression" dxfId="26" priority="661">
       <formula>FIND(5,S4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="662">
+    <cfRule type="expression" dxfId="25" priority="662">
       <formula>FIND(4,S4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="663">
+    <cfRule type="expression" dxfId="24" priority="663">
       <formula>FIND(3, S4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="664">
+    <cfRule type="expression" dxfId="23" priority="664">
       <formula>FIND(2, S4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="665">
+    <cfRule type="expression" dxfId="22" priority="665">
       <formula>FIND(1, S4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF29:AF38">
-    <cfRule type="expression" dxfId="35" priority="16">
+    <cfRule type="expression" dxfId="21" priority="16">
       <formula>AND($AF$15=TRUE, SEARCH("6", AF29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="17">
+    <cfRule type="expression" dxfId="20" priority="17">
       <formula>AND($AF$10=TRUE, SEARCH("1", AF29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="18">
+    <cfRule type="expression" dxfId="19" priority="18">
       <formula>AND($AF$11=TRUE, SEARCH("2", AF29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>AND($AF$12=TRUE, SEARCH("3", AF29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="20">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>AND($AF$13=TRUE, SEARCH("4", AF29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="21">
+    <cfRule type="expression" dxfId="16" priority="21">
       <formula>AND($AF$14=TRUE, SEARCH("5", AF29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="22">
+    <cfRule type="expression" dxfId="15" priority="22">
       <formula>AND($AF$19=TRUE, SEARCH("7", AF29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F18">
-    <cfRule type="expression" dxfId="28" priority="8">
-      <formula>AND($AF$29, SEARCH("1", F10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="9">
-      <formula>AND($AF$30, SEARCH("2", F10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="10">
-      <formula>AND($AF$31, SEARCH("3", F10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="11">
-      <formula>AND($AF$32, SEARCH("4", F10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="12">
-      <formula>AND($AF$33, SEARCH("5", F10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="13">
-      <formula>AND($AF$34, SEARCH("6", F10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="14">
-      <formula>AND($AF$38, SEARCH("7", F10))</formula>
+    <cfRule type="expression" dxfId="14" priority="8">
+      <formula>AND($AF$10, SEARCH("1", F10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="9">
+      <formula>AND($AF$11, SEARCH("2", F10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="10">
+      <formula>AND($AF$12, SEARCH("3", F10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>AND($AF$13, SEARCH("4", F10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>AND($AF$14, SEARCH("5", F10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="13">
+      <formula>AND($AF$15, SEARCH("6", F10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="14">
+      <formula>AND($AF$19, SEARCH("7", F10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F18">
-    <cfRule type="containsBlanks" dxfId="21" priority="15">
+    <cfRule type="containsBlanks" dxfId="7" priority="15">
       <formula>LEN(TRIM(F10))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7213,7 +8138,7 @@
       <formula>AND($AF$19, SEARCH("7", E10))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B29" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Cb,C,C#,Db,D,D#,Eb,E,E#,Fb,F,F#,Gb,G,G#,Ab,A,A#,Bb,B,B#"</formula1>
     </dataValidation>
@@ -7226,11 +8151,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C15 C29:C34" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Cb,C,C#,Db,D,D#,Eb,e,E,E#,Fb,F,F#,Gb,G,G#,Ab,A,A#,Bb,B,B#"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B38" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>"Ionian (Major),Dorian,Phrygian,Lydian,Mixolydian,Aolian (Minor),Locrian,Pentatonic Minor,Pentatonic Major,Harmonic Minor,Melodic Minor,Blues,Major Chord Tones,Minor Chord Tones,Diminished"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{63CD6973-FBAC-467C-9C35-B07B23726C70}">
-      <formula1>"Ionian (Major),Dorian,Phrygian,Lydian,Mixolydian,Aolian (Minor),Locrian,Pentatonic Minor,Pentatonic Major,Harmonic Minor,Melodic Minor,Blues,Major Chord Tones,Minor Chord Tones,Diminished"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B38 B19" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>"Ionian (Major),Dorian,Phrygian,Lydian,Mixolydian,Aolian (Minor),Locrian,Pentatonic Minor,Pentatonic Major,Harmonic Minor,Melodic Minor,Blues,Major Chord Tones,Minor Chord Tones,Diminished,Augmented"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7241,10 +8163,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:BN57"/>
+  <dimension ref="A1:BN58"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28:O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -7284,7 +8206,7 @@
       </c>
       <c r="G1" s="141"/>
       <c r="H1" s="112" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
@@ -7691,7 +8613,7 @@
       </c>
       <c r="G4" s="9" t="str">
         <f>Fretboards!B19</f>
-        <v>Lydian</v>
+        <v>Ionian (Major)</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>171</v>
@@ -8068,21 +8990,43 @@
       <c r="D7" s="11">
         <v>11</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="9"/>
+      <c r="H7" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I7" s="9">
+        <v>3</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>3</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9">
+        <v>3</v>
+      </c>
+      <c r="O7" s="114">
+        <v>1</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>197</v>
+      </c>
       <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="R7" s="6" t="s">
+        <v>200</v>
+      </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
+      <c r="V7" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="W7" s="6"/>
       <c r="X7" s="41">
         <v>6</v>
@@ -9481,9 +10425,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L21" s="9" t="str">
+      <c r="L21" s="9">
         <f t="shared" si="0"/>
-        <v>♯4</v>
+        <v>4</v>
       </c>
       <c r="M21" s="9">
         <f t="shared" si="0"/>
@@ -9545,11 +10489,11 @@
       </c>
       <c r="K22" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$2:$O$17,  Model!K20 + 1, FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$2:$O$17,  Model!L20 + 1, FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$2:$O$17,  Model!M20 + 1, FALSE)</f>
@@ -9613,7 +10557,7 @@
       </c>
       <c r="L23" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="1"/>
@@ -9646,7 +10590,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:65" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
         <v>36</v>
       </c>
@@ -9660,31 +10604,31 @@
         <v>53</v>
       </c>
       <c r="I24" s="9" t="str">
-        <f>INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + I20 - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:H22) + 1)</f>
+        <f>INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(I21, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:H22) + 1)</f>
         <v>C</v>
       </c>
       <c r="J24" s="9" t="str">
-        <f>IF(I22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + J20 - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:I22) + 1))</f>
+        <f>IF(I22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(J21, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:I22) + 1))</f>
         <v>D</v>
       </c>
       <c r="K24" s="9" t="str">
-        <f>IF(J22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + K20 - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:J22) + 1))</f>
+        <f>IF(J22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(K21, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:J22) + 1))</f>
         <v>E</v>
       </c>
       <c r="L24" s="9" t="str">
-        <f>IF(K22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + L20 - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:K22) + 1))</f>
-        <v>F♯</v>
+        <f>IF(K22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(L21, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:K22) + 1))</f>
+        <v>F</v>
       </c>
       <c r="M24" s="9" t="str">
-        <f>IF(L22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + M20 - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:L22) + 1))</f>
+        <f>IF(L22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(M21, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:L22) + 1))</f>
         <v>G</v>
       </c>
       <c r="N24" s="9" t="str">
-        <f>IF(M22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + N20 - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:M22) + 1))</f>
+        <f>IF(M22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(N21, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:M22) + 1))</f>
         <v>A</v>
       </c>
       <c r="O24" s="9" t="str">
-        <f>IF(N22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + O20 - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:N22) + 1))</f>
+        <f>IF(N22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(O21, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:N22) + 1))</f>
         <v>B</v>
       </c>
       <c r="P24" s="103" t="s">
@@ -9706,7 +10650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:65" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>108</v>
       </c>
@@ -9716,36 +10660,29 @@
       <c r="D25" s="11">
         <v>6</v>
       </c>
-      <c r="H25" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="9">
-        <f>IF(VLOOKUP($G$6,$P$2:$W$19, 1+I20, FALSE) = 0, I20, VLOOKUP($G$6,$P$2:$W$19, 1+I20, FALSE))</f>
-        <v>1</v>
-      </c>
-      <c r="J25" s="9">
-        <f t="shared" ref="J25:O25" si="2">IF(VLOOKUP($G$6,$P$2:$W$19, 1+J20, FALSE) = 0, J20, VLOOKUP($G$6,$P$2:$W$19, 1+J20, FALSE))</f>
+      <c r="H25" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="21">
+        <v>1</v>
+      </c>
+      <c r="J25" s="21">
         <v>2</v>
       </c>
-      <c r="K25" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>♭3</v>
-      </c>
-      <c r="L25" s="9">
-        <f t="shared" si="2"/>
+      <c r="K25" s="21">
+        <v>3</v>
+      </c>
+      <c r="L25" s="21">
         <v>4</v>
       </c>
-      <c r="M25" s="9">
-        <f t="shared" si="2"/>
+      <c r="M25" s="21">
         <v>5</v>
       </c>
-      <c r="N25" s="9">
-        <f t="shared" si="2"/>
+      <c r="N25" s="21">
         <v>6</v>
       </c>
-      <c r="O25" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>♭7</v>
+      <c r="O25" s="21">
+        <v>7</v>
       </c>
       <c r="P25" s="103" t="s">
         <v>173</v>
@@ -9776,39 +10713,43 @@
       <c r="D26" s="11">
         <v>3</v>
       </c>
-      <c r="H26" s="23" t="s">
-        <v>92</v>
+      <c r="H26" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="I26" s="9">
-        <f>VLOOKUP($G$6, Model!$H$2:$O$17, Model!I20 + 1, FALSE)</f>
-        <v>0</v>
+        <f>IF(VLOOKUP($G$6,$P$2:$W$19, 1+I20, FALSE) = 0, I20, VLOOKUP($G$6,$P$2:$W$19, 1+I20, FALSE))</f>
+        <v>1</v>
       </c>
       <c r="J26" s="9">
-        <f>VLOOKUP($G$6, Model!$H$2:$O$17, Model!J20 + 1, FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="K26" s="9">
-        <f>VLOOKUP($G$6, Model!$H$2:$O$17, Model!K20 + 1, FALSE)</f>
+        <f>IF(VLOOKUP($G$6,$P$2:$W$19, 1+J20, FALSE) = 0, J20, VLOOKUP($G$6,$P$2:$W$19, 1+J20, FALSE))</f>
         <v>2</v>
       </c>
+      <c r="K26" s="9" t="str">
+        <f>IF(VLOOKUP($G$6,$P$2:$W$19, 1+K20, FALSE) = 0, K20, VLOOKUP($G$6,$P$2:$W$19, 1+K20, FALSE))</f>
+        <v>♭3</v>
+      </c>
       <c r="L26" s="9">
-        <f>VLOOKUP($G$6, Model!$H$2:$O$17, Model!L20 + 1, FALSE)</f>
-        <v>2</v>
+        <f>IF(VLOOKUP($G$6,$P$2:$W$19, 1+L20, FALSE) = 0, L20, VLOOKUP($G$6,$P$2:$W$19, 1+L20, FALSE))</f>
+        <v>4</v>
       </c>
       <c r="M26" s="9">
-        <f>VLOOKUP($G$6, Model!$H$2:$O$17, Model!M20 + 1, FALSE)</f>
-        <v>0</v>
+        <f>IF(VLOOKUP($G$6,$P$2:$W$19, 1+M20, FALSE) = 0, M20, VLOOKUP($G$6,$P$2:$W$19, 1+M20, FALSE))</f>
+        <v>5</v>
       </c>
       <c r="N26" s="9">
-        <f>VLOOKUP($G$6, Model!$H$2:$O$17, Model!N20 + 1, FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="O26" s="9">
-        <f>VLOOKUP($G$6, Model!$H$2:$O$17, Model!O20 + 1, FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="60"/>
+        <f>IF(VLOOKUP($G$6,$P$2:$W$19, 1+N20, FALSE) = 0, N20, VLOOKUP($G$6,$P$2:$W$19, 1+N20, FALSE))</f>
+        <v>6</v>
+      </c>
+      <c r="O26" s="9" t="str">
+        <f>IF(VLOOKUP($G$6,$P$2:$W$19, 1+O20, FALSE) = 0, O20, VLOOKUP($G$6,$P$2:$W$19, 1+O20, FALSE))</f>
+        <v>♭7</v>
+      </c>
+      <c r="P26" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q26" s="60" t="s">
+        <v>198</v>
+      </c>
       <c r="R26" s="6"/>
       <c r="S26" s="60"/>
       <c r="T26" s="60"/>
@@ -9827,34 +10768,34 @@
         <v>2</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I27" s="9">
-        <f>IFERROR(VLOOKUP(SUBSTITUTE(SUBSTITUTE(I28, "♭", "b"), "♯","#"), $B$2:$D$41, 3, FALSE), "")</f>
-        <v>4</v>
-      </c>
-      <c r="J27" s="9" t="str">
-        <f t="shared" ref="J27:O27" si="3">IFERROR(VLOOKUP(SUBSTITUTE(SUBSTITUTE(J28, "♭", "b"), "♯","#"), $B$2:$D$41, 3, FALSE), "")</f>
-        <v/>
+        <f>VLOOKUP($G$6, Model!$H$2:$O$17, Model!I20 + 1, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="9">
+        <f>VLOOKUP($G$6, Model!$H$2:$O$17, Model!J20 + 1, FALSE)</f>
+        <v>3</v>
       </c>
       <c r="K27" s="9">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f>VLOOKUP($G$6, Model!$H$2:$O$17, Model!K20 + 1, FALSE)</f>
+        <v>2</v>
       </c>
       <c r="L27" s="9">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f>VLOOKUP($G$6, Model!$H$2:$O$17, Model!L20 + 1, FALSE)</f>
+        <v>2</v>
       </c>
       <c r="M27" s="9">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="N27" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>VLOOKUP($G$6, Model!$H$2:$O$17, Model!M20 + 1, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="9">
+        <f>VLOOKUP($G$6, Model!$H$2:$O$17, Model!N20 + 1, FALSE)</f>
+        <v>3</v>
       </c>
       <c r="O27" s="9">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP($G$6, Model!$H$2:$O$17, Model!O20 + 1, FALSE)</f>
         <v>2</v>
       </c>
       <c r="P27" s="103" t="s">
@@ -9882,7 +10823,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="2:65" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>24</v>
       </c>
@@ -9892,36 +10833,36 @@
       <c r="D28" s="11">
         <v>5</v>
       </c>
-      <c r="H28" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="I28" s="25" t="str">
-        <f>INDEX($Y$2:$AX$15,VLOOKUP($F$6, $B$2:$D$41, 2, FALSE) + I20 - 1, VLOOKUP($F$6, $B$2:$D$41, 3,FALSE) + SUM($H$26:H26) + 1)</f>
-        <v>E</v>
-      </c>
-      <c r="J28" s="25" t="str">
-        <f>IF(I26=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$6, $B$2:$D$41, 2, FALSE) + J20 - 1, VLOOKUP($F$6, $B$2:$D$41, 3, FALSE) + SUM($H$26:I26) + 1))</f>
-        <v/>
-      </c>
-      <c r="K28" s="25" t="str">
-        <f>IF(J26=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$6, $B$2:$D$41, 2, FALSE) + K20 - 1, VLOOKUP($F$6, $B$2:$D$41, 3, FALSE) + SUM($H$26:J26) + 1))</f>
-        <v>G</v>
-      </c>
-      <c r="L28" s="25" t="str">
-        <f>IF(K26=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$6, $B$2:$D$41, 2, FALSE) + L20 - 1, VLOOKUP($F$6, $B$2:$D$41, 3, FALSE) + SUM($H$26:K26) + 1))</f>
-        <v>A</v>
-      </c>
-      <c r="M28" s="25" t="str">
-        <f>IF(L26=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$6, $B$2:$D$41, 2, FALSE) + M20 - 1, VLOOKUP($F$6, $B$2:$D$41, 3, FALSE) + SUM($H$26:L26) + 1))</f>
-        <v>B</v>
-      </c>
-      <c r="N28" s="25" t="str">
-        <f>IF(M26=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$6, $B$2:$D$41, 2, FALSE) + N20 - 1, VLOOKUP($F$6, $B$2:$D$41, 3, FALSE) + SUM($H$26:M26) + 1))</f>
-        <v/>
-      </c>
-      <c r="O28" s="25" t="str">
-        <f>IF(N26=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$6, $B$2:$D$41, 2, FALSE) + O20 - 1, VLOOKUP($F$6, $B$2:$D$41, 3, FALSE) + SUM($H$26:N26) + 1))</f>
-        <v>D</v>
+      <c r="H28" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="142">
+        <f>IFERROR(VLOOKUP(SUBSTITUTE(SUBSTITUTE(I29, "♭", "b"), "♯","#"), $B$2:$D$41, 3, FALSE), "")</f>
+        <v>4</v>
+      </c>
+      <c r="J28" s="142" t="str">
+        <f t="shared" ref="J28:O28" si="2">IFERROR(VLOOKUP(SUBSTITUTE(SUBSTITUTE(J29, "♭", "b"), "♯","#"), $B$2:$D$41, 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="K28" s="142">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L28" s="142">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="M28" s="142">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N28" s="142" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O28" s="142">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="P28" s="103" t="s">
         <v>56</v>
@@ -9948,7 +10889,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="2:65" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:65" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
         <v>32</v>
       </c>
@@ -9958,6 +10899,37 @@
       <c r="D29" s="11">
         <v>6</v>
       </c>
+      <c r="H29" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="25" t="str">
+        <f>INDEX($Y$2:$AX$15,VLOOKUP($F$6, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(I26, "♯", ""),"♭","") - 1, VLOOKUP($F$6, $B$2:$D$41, 3,FALSE) + SUM($H$27:H27) + 1)</f>
+        <v>E</v>
+      </c>
+      <c r="J29" s="25" t="str">
+        <f>IF(I27=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$6, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(J26, "♯", ""),"♭","") - 1, VLOOKUP($F$6, $B$2:$D$41, 3, FALSE) + SUM($H$27:I27) + 1))</f>
+        <v/>
+      </c>
+      <c r="K29" s="25" t="str">
+        <f>IF(J27=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$6, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(K26, "♯", ""),"♭","") - 1, VLOOKUP($F$6, $B$2:$D$41, 3, FALSE) + SUM($H$27:J27) + 1))</f>
+        <v>G</v>
+      </c>
+      <c r="L29" s="25" t="str">
+        <f>IF(K27=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$6, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(L26, "♯", ""),"♭","") - 1, VLOOKUP($F$6, $B$2:$D$41, 3, FALSE) + SUM($H$27:K27) + 1))</f>
+        <v>A</v>
+      </c>
+      <c r="M29" s="25" t="str">
+        <f>IF(L27=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$6, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(M26, "♯", ""),"♭","") - 1, VLOOKUP($F$6, $B$2:$D$41, 3, FALSE) + SUM($H$27:L27) + 1))</f>
+        <v>B</v>
+      </c>
+      <c r="N29" s="25" t="str">
+        <f>IF(M27=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$6, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(N26, "♯", ""),"♭","") - 1, VLOOKUP($F$6, $B$2:$D$41, 3, FALSE) + SUM($H$27:M27) + 1))</f>
+        <v/>
+      </c>
+      <c r="O29" s="25" t="str">
+        <f>IF(N27=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$6, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(O26, "♯", ""),"♭","") - 1, VLOOKUP($F$6, $B$2:$D$41, 3, FALSE) + SUM($H$27:N27) + 1))</f>
+        <v>D</v>
+      </c>
       <c r="P29" s="103" t="s">
         <v>170</v>
       </c>
@@ -9983,7 +10955,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:65" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>109</v>
       </c>
@@ -9993,14 +10965,6 @@
       <c r="D30" s="11">
         <v>7</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
       <c r="P30" s="103" t="s">
         <v>29</v>
       </c>
@@ -10037,6 +11001,13 @@
         <v>4</v>
       </c>
       <c r="H31" s="7"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
       <c r="P31" s="103" t="s">
         <v>25</v>
       </c>
@@ -10062,7 +11033,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="2:65" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>116</v>
       </c>
@@ -10072,7 +11043,7 @@
       <c r="D32" s="11">
         <v>3</v>
       </c>
-      <c r="H32" s="111"/>
+      <c r="H32" s="7"/>
       <c r="P32" s="103" t="s">
         <v>55</v>
       </c>
@@ -10250,74 +11221,51 @@
       <c r="D38" s="11"/>
       <c r="H38" s="111"/>
     </row>
-    <row r="39" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="11"/>
+      <c r="H39" s="111"/>
     </row>
-    <row r="40" spans="2:23" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="11"/>
-      <c r="H40" s="116" t="s">
-        <v>195</v>
-      </c>
-      <c r="I40" s="99">
-        <v>1</v>
-      </c>
-      <c r="J40" s="99">
-        <v>2</v>
-      </c>
-      <c r="K40" s="99">
-        <v>3</v>
-      </c>
-      <c r="L40" s="99">
-        <v>4</v>
-      </c>
-      <c r="M40" s="99">
-        <v>5</v>
-      </c>
-      <c r="N40" s="99">
-        <v>6</v>
-      </c>
-      <c r="O40" s="117">
-        <v>7</v>
-      </c>
     </row>
-    <row r="41" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="13"/>
-      <c r="H41" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="I41" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M41" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N41" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O41" s="114" t="b">
-        <v>1</v>
+      <c r="H41" s="116" t="s">
+        <v>195</v>
+      </c>
+      <c r="I41" s="99">
+        <v>1</v>
+      </c>
+      <c r="J41" s="99">
+        <v>2</v>
+      </c>
+      <c r="K41" s="99">
+        <v>3</v>
+      </c>
+      <c r="L41" s="99">
+        <v>4</v>
+      </c>
+      <c r="M41" s="99">
+        <v>5</v>
+      </c>
+      <c r="N41" s="99">
+        <v>6</v>
+      </c>
+      <c r="O41" s="117">
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="2:23" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="H42" s="14" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="I42" s="9" t="b">
         <v>1</v>
@@ -10343,13 +11291,13 @@
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H43" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9" t="b">
         <v>1</v>
       </c>
       <c r="J43" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="9" t="b">
         <v>1</v>
@@ -10369,33 +11317,33 @@
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H44" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9" t="b">
         <v>1</v>
       </c>
       <c r="J44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K44" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" s="9" t="b">
-        <v>1</v>
-      </c>
       <c r="M44" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H45" s="14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9" t="b">
         <v>1</v>
@@ -10407,16 +11355,16 @@
         <v>1</v>
       </c>
       <c r="L45" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="9" t="b">
         <v>0</v>
       </c>
       <c r="O45" s="114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
@@ -10428,7 +11376,7 @@
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H46" s="14" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9" t="b">
         <v>1</v>
@@ -10446,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="114" t="b">
         <v>1</v>
@@ -10461,13 +11409,13 @@
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H47" s="14" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="I47" s="9" t="b">
         <v>1</v>
       </c>
       <c r="J47" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="9" t="b">
         <v>1</v>
@@ -10476,10 +11424,10 @@
         <v>0</v>
       </c>
       <c r="M47" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="114" t="b">
         <v>1</v>
@@ -10494,13 +11442,13 @@
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H48" s="14" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9" t="b">
         <v>1</v>
       </c>
       <c r="J48" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="9" t="b">
         <v>1</v>
@@ -10527,7 +11475,7 @@
     </row>
     <row r="49" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H49" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I49" s="9" t="b">
         <v>1</v>
@@ -10560,7 +11508,7 @@
     </row>
     <row r="50" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H50" s="14" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="I50" s="9" t="b">
         <v>1</v>
@@ -10575,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="9" t="b">
         <v>0</v>
@@ -10593,7 +11541,7 @@
     </row>
     <row r="51" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H51" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I51" s="9" t="b">
         <v>1</v>
@@ -10626,7 +11574,7 @@
     </row>
     <row r="52" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H52" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I52" s="9" t="b">
         <v>1</v>
@@ -10641,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" s="9" t="b">
         <v>0</v>
@@ -10659,7 +11607,7 @@
     </row>
     <row r="53" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H53" s="14" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="I53" s="9" t="b">
         <v>1</v>
@@ -10692,7 +11640,7 @@
     </row>
     <row r="54" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H54" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I54" s="9" t="b">
         <v>1</v>
@@ -10725,7 +11673,7 @@
     </row>
     <row r="55" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H55" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I55" s="9" t="b">
         <v>1</v>
@@ -10756,15 +11704,31 @@
       <c r="U55" s="8"/>
       <c r="V55" s="8"/>
     </row>
-    <row r="56" spans="8:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H56" s="15"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="115"/>
+    <row r="56" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H56" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I56" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N56" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O56" s="114" t="b">
+        <v>1</v>
+      </c>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
@@ -10773,11 +11737,37 @@
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
     </row>
-    <row r="57" spans="8:22" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H57" s="7"/>
+    <row r="57" spans="8:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H57" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I57" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N57" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O57" s="115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="8:22" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D45">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D46">
     <sortCondition ref="B2"/>
   </sortState>
   <mergeCells count="3">
@@ -10785,8 +11775,8 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F1:G1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I41:O56" xr:uid="{9E77CF2C-8DC6-4DA2-8C23-71D2EAF5B912}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I42:O57" xr:uid="{9E77CF2C-8DC6-4DA2-8C23-71D2EAF5B912}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Shredsheets.xlsx
+++ b/Shredsheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Shredsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71A45CF-767A-4BB6-AA3F-A08146B45853}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E701B99-6D30-494E-BC68-A8E03B29FAEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11970" yWindow="2475" windowWidth="26460" windowHeight="19635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12315" yWindow="1740" windowWidth="26460" windowHeight="19635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fretboards" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="204">
   <si>
     <t>Ionian</t>
   </si>
@@ -647,6 +647,15 @@
   </si>
   <si>
     <t>♯2</t>
+  </si>
+  <si>
+    <t>4♭♭7</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>+M7</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1768,14 +1777,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1817,45 +1821,48 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1868,1075 +1875,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="254">
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF642C76"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CFF19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB567F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4DA3E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE4D2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3788CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF372F2D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF642C76"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CFF19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB567F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4DA3E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE4D2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3788CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CC068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF81B2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF372F2D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF372F2D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF372F2D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF372F2D"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF813997"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CFF19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB567F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4DA3E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE4D2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3788CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF642C76"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CFF19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB567F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4DA3E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE4D2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3788CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF642C76"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CFF19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB567F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4DA3E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE4D2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3788CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF642C76"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CFF19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB567F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4DA3E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE4D2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3788CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CC068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF81B2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CC068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF81B2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="127">
     <dxf>
       <font>
         <color theme="0" tint="-4.9989318521683403E-2"/>
@@ -4328,7 +3278,7 @@
   <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="Q25" sqref="Q25:R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4460,23 +3410,23 @@
       <c r="A4" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="131" t="str">
+      <c r="B4" s="129" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(IF(B19 = "Ionian (Major)", B10 &amp; " Major", IF(B19 = "Aolian (Minor)", B10 &amp; " Minor", B10 &amp; " " &amp; B19)), "#", "♯"), "b", "♭")</f>
-        <v>C Major</v>
-      </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
+        <v>C Augmented</v>
+      </c>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
       <c r="K4" s="126">
         <f>IF(J8 = "", "", IF(K5 = 0, F$1, K5))</f>
         <v>1</v>
       </c>
       <c r="L4" s="126"/>
-      <c r="M4" s="126">
+      <c r="M4" s="126" t="str">
         <f>IF(K8 = "", "", IF(M5 = 0, G$1, M5))</f>
-        <v>2</v>
+        <v>♯2</v>
       </c>
       <c r="N4" s="126"/>
       <c r="O4" s="126">
@@ -4484,9 +3434,9 @@
         <v>3</v>
       </c>
       <c r="P4" s="126"/>
-      <c r="Q4" s="126">
+      <c r="Q4" s="126" t="str">
         <f>IF(M8 = "", "", IF(Q5 = 0, I$1, Q5))</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="R4" s="126"/>
       <c r="S4" s="126">
@@ -4494,9 +3444,9 @@
         <v>5</v>
       </c>
       <c r="T4" s="126"/>
-      <c r="U4" s="126">
+      <c r="U4" s="126" t="str">
         <f>IF(O8 = "", "", IF(U5 = 0, K$1, U5))</f>
-        <v>6</v>
+        <v>♯5</v>
       </c>
       <c r="V4" s="126"/>
       <c r="W4" s="126">
@@ -4504,116 +3454,116 @@
         <v>7</v>
       </c>
       <c r="X4" s="126"/>
-      <c r="Z4" s="134" t="s">
+      <c r="Z4" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="AA4" s="134"/>
-      <c r="AB4" s="135" t="b">
+      <c r="AA4" s="121"/>
+      <c r="AB4" s="122" t="b">
         <v>0</v>
       </c>
-      <c r="AC4" s="135"/>
+      <c r="AC4" s="122"/>
     </row>
     <row r="5" spans="1:32" s="60" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="K5" s="128">
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="K5" s="127">
         <f>IFERROR(HLOOKUP(F$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), F$1)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128">
+      <c r="L5" s="127"/>
+      <c r="M5" s="127" t="str">
         <f>IFERROR(HLOOKUP(G$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), G$1)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128">
+        <v>♯2</v>
+      </c>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127">
         <f>IFERROR(HLOOKUP(H$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), H$1)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128">
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127">
         <f>IFERROR(HLOOKUP(I$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), I$1)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128">
+      <c r="R5" s="127"/>
+      <c r="S5" s="127">
         <f>IFERROR(HLOOKUP(J$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), J$1)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128">
+      <c r="T5" s="127"/>
+      <c r="U5" s="127" t="str">
         <f>IFERROR(HLOOKUP(K$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), K$1)</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128">
+        <v>♯5</v>
+      </c>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127">
         <f>IFERROR(HLOOKUP(L$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), L$1)</f>
         <v>0</v>
       </c>
-      <c r="X5" s="128"/>
-      <c r="Z5" s="134"/>
-      <c r="AA5" s="134"/>
-      <c r="AB5" s="135"/>
-      <c r="AC5" s="135"/>
+      <c r="X5" s="127"/>
+      <c r="Z5" s="121"/>
+      <c r="AA5" s="121"/>
+      <c r="AB5" s="122"/>
+      <c r="AC5" s="122"/>
     </row>
     <row r="6" spans="1:32" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="K6" s="129" t="str">
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="K6" s="125" t="str">
         <f>IF(K$4="","", J$8 &amp; IFERROR(HLOOKUP(F$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), F$1))</f>
-        <v>CM7</v>
-      </c>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129" t="str">
+        <v>C+M7</v>
+      </c>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125" t="str">
         <f>IF(M$4="","", K$8 &amp; IFERROR(HLOOKUP(G$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), G$1))</f>
-        <v>Dm7</v>
-      </c>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129" t="str">
+        <v>D♯4♭♭7</v>
+      </c>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125" t="str">
         <f>IF(O$4="","", L$8 &amp; IFERROR(HLOOKUP(H$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), H$1))</f>
-        <v>Em7</v>
-      </c>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129" t="str">
+        <v>EM7</v>
+      </c>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125" t="str">
         <f>IF(Q$4="","", M$8 &amp; IFERROR(HLOOKUP(I$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), I$1))</f>
-        <v>FM7</v>
-      </c>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129" t="str">
+        <v/>
+      </c>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125" t="str">
         <f>IF(S$4="","", N$8 &amp; IFERROR(HLOOKUP(J$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), J$1))</f>
-        <v>G7</v>
-      </c>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129" t="str">
+        <v>G+</v>
+      </c>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125" t="str">
         <f>IF(U$4="","", O$8 &amp; IFERROR(HLOOKUP(K$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), K$1))</f>
-        <v>Am7</v>
-      </c>
-      <c r="V6" s="129"/>
-      <c r="W6" s="129" t="str">
+        <v>G♯m</v>
+      </c>
+      <c r="V6" s="125"/>
+      <c r="W6" s="125" t="str">
         <f>IF(W$4="","", P$8 &amp; IFERROR(HLOOKUP(L$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), L$1))</f>
-        <v>Bm7ø</v>
-      </c>
-      <c r="X6" s="129"/>
-      <c r="Z6" s="134"/>
-      <c r="AA6" s="134"/>
-      <c r="AB6" s="135"/>
-      <c r="AC6" s="135"/>
+        <v>B6</v>
+      </c>
+      <c r="X6" s="125"/>
+      <c r="Z6" s="121"/>
+      <c r="AA6" s="121"/>
+      <c r="AB6" s="122"/>
+      <c r="AC6" s="122"/>
     </row>
     <row r="7" spans="1:32" s="61" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
       <c r="J7" s="95"/>
       <c r="K7" s="95"/>
       <c r="L7" s="95"/>
@@ -4621,29 +3571,29 @@
       <c r="N7" s="95"/>
       <c r="O7" s="95"/>
       <c r="P7" s="95"/>
-      <c r="Z7" s="134"/>
-      <c r="AA7" s="134"/>
-      <c r="AB7" s="135"/>
-      <c r="AC7" s="135"/>
+      <c r="Z7" s="121"/>
+      <c r="AA7" s="121"/>
+      <c r="AB7" s="122"/>
+      <c r="AC7" s="122"/>
     </row>
     <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="132" t="s">
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="132"/>
+      <c r="I8" s="130"/>
       <c r="J8" s="73" t="str">
         <f>Model!I24</f>
         <v>C</v>
       </c>
       <c r="K8" s="74" t="str">
         <f>IF(Model!I22=0, "", Model!J24)</f>
-        <v>D</v>
+        <v>D♯</v>
       </c>
       <c r="L8" s="75" t="str">
         <f>IF(Model!J22=0, "", Model!K24)</f>
@@ -4651,7 +3601,7 @@
       </c>
       <c r="M8" s="76" t="str">
         <f>IF(Model!K22=0, "", Model!L24)</f>
-        <v>F</v>
+        <v/>
       </c>
       <c r="N8" s="77" t="str">
         <f>IF(Model!L22=0, "", Model!M24)</f>
@@ -4659,49 +3609,49 @@
       </c>
       <c r="O8" s="78" t="str">
         <f>IF(Model!M22=0, "", Model!N24)</f>
-        <v>A</v>
+        <v>G♯</v>
       </c>
       <c r="P8" s="79" t="str">
         <f>IF(Model!N22=0, "", Model!O24)</f>
         <v>B</v>
       </c>
-      <c r="S8" s="133" t="s">
+      <c r="S8" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="133"/>
-      <c r="U8" s="133"/>
+      <c r="T8" s="131"/>
+      <c r="U8" s="131"/>
       <c r="V8" s="98" t="str">
         <f>IF(Model!I22=1, "h", IF(Model!I22=2, "W", IF(Model!I22=3, "W+h", IF(Model!I22=4, "WW", IF(Model!I22=0, "", Model!I22)))))</f>
-        <v>W</v>
+        <v>W+h</v>
       </c>
       <c r="W8" s="80" t="str">
         <f>IF(Model!J22=1, "h", IF(Model!J22=2, "W", IF(Model!J22=3, "W+h", IF(Model!J22=4, "WW", IF(Model!J22=0, "", Model!J22)))))</f>
-        <v>W</v>
+        <v>h</v>
       </c>
       <c r="X8" s="81" t="str">
         <f>IF(Model!K22=1, "h", IF(Model!K22=2, "W", IF(Model!K22=3, "W+h", IF(Model!K22=4, "WW", IF(Model!K22=0, "", Model!K22)))))</f>
-        <v>h</v>
+        <v/>
       </c>
       <c r="Y8" s="82" t="str">
         <f>IF(Model!L22=1, "h", IF(Model!L22=2, "W", IF(Model!L22=3, "W+h",IF(Model!L22=4, "WW", IF(Model!L22=0, "", Model!L22)))))</f>
-        <v>W</v>
+        <v>W+h</v>
       </c>
       <c r="Z8" s="83" t="str">
         <f>IF(Model!M22=1, "h", IF(Model!M22=2, "W", IF(Model!M22=3, "W+h",IF(Model!M22=4, "WW", IF(Model!M22=0, "", Model!M22)))))</f>
-        <v>W</v>
+        <v>h</v>
       </c>
       <c r="AA8" s="84" t="str">
         <f>IF(Model!N22=1, "h", IF(Model!N22=2, "W", IF(Model!N22=3, "W+h", IF(Model!N22=4, "WW", IF(Model!N22=0, "", Model!N22)))))</f>
-        <v>W</v>
+        <v>W+h</v>
       </c>
       <c r="AB8" s="85" t="str">
         <f>IF(Model!O22=1, "h", IF(Model!O22=2, "W", IF(Model!O22=3, "W+h",IF(Model!O22=4, "WW", IF(Model!O22=0, "", Model!O22)))))</f>
         <v>h</v>
       </c>
-      <c r="AE8" s="137" t="s">
+      <c r="AE8" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="AF8" s="137"/>
+      <c r="AF8" s="124"/>
     </row>
     <row r="9" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="93" t="s">
@@ -4711,11 +3661,11 @@
         <v>17</v>
       </c>
       <c r="D9" s="37"/>
-      <c r="E9" s="122">
+      <c r="E9" s="117">
         <f t="shared" ref="E9:AC9" si="0">IF($AB$4, 24-E$1, E$1)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="124">
+      <c r="F9" s="119">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4819,7 +3769,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="123" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="64" t="s">
@@ -4833,9 +3783,9 @@
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="F10" s="119" t="str">
+      <c r="F10" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="G10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4847,11 +3797,11 @@
       </c>
       <c r="I10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>G♯ : ♯5</v>
       </c>
       <c r="J10" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="K10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4871,11 +3821,11 @@
       </c>
       <c r="O10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="P10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D♯ : ♯2</v>
       </c>
       <c r="Q10" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4883,7 +3833,7 @@
       </c>
       <c r="R10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="S10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4895,11 +3845,11 @@
       </c>
       <c r="U10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>G♯ : ♯5</v>
       </c>
       <c r="V10" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="W10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4919,11 +3869,11 @@
       </c>
       <c r="AA10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="AB10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D♯ : ♯2</v>
       </c>
       <c r="AC10" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4932,13 +3882,13 @@
       <c r="AE10" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="120" t="b">
+      <c r="AF10" s="115" t="b">
         <f>HLOOKUP(F$1, Model!$I$41:$O$57, MATCH($B$19, Model!$H$41:$H$57, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="136"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="64" t="s">
         <v>16</v>
       </c>
@@ -4950,7 +3900,7 @@
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="F11" s="119" t="str">
+      <c r="F11" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>C : 1</v>
       </c>
@@ -4960,11 +3910,11 @@
       </c>
       <c r="H11" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="I11" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D♯ : ♯2</v>
       </c>
       <c r="J11" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4972,7 +3922,7 @@
       </c>
       <c r="K11" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="L11" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4984,11 +3934,11 @@
       </c>
       <c r="N11" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>G♯ : ♯5</v>
       </c>
       <c r="O11" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="P11" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5008,11 +3958,11 @@
       </c>
       <c r="T11" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="U11" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D♯ : ♯2</v>
       </c>
       <c r="V11" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5020,7 +3970,7 @@
       </c>
       <c r="W11" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="X11" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5032,11 +3982,11 @@
       </c>
       <c r="Z11" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>G♯ : ♯5</v>
       </c>
       <c r="AA11" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="AB11" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5049,13 +3999,13 @@
       <c r="AE11" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="AF11" s="120" t="b">
+      <c r="AF11" s="115" t="b">
         <f>HLOOKUP(G$1, Model!$I$41:$O$57, MATCH($B$19, Model!$H$41:$H$57, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="136"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="64" t="s">
         <v>15</v>
       </c>
@@ -5067,13 +4017,13 @@
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>G : 5</v>
       </c>
-      <c r="F12" s="119" t="str">
+      <c r="F12" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>G♯ : ♯5</v>
       </c>
       <c r="G12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="H12" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5093,11 +4043,11 @@
       </c>
       <c r="L12" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="M12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D♯ : ♯2</v>
       </c>
       <c r="N12" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5105,7 +4055,7 @@
       </c>
       <c r="O12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="P12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5117,11 +4067,11 @@
       </c>
       <c r="R12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>G♯ : ♯5</v>
       </c>
       <c r="S12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="T12" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5141,11 +4091,11 @@
       </c>
       <c r="X12" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="Y12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D♯ : ♯2</v>
       </c>
       <c r="Z12" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5153,7 +4103,7 @@
       </c>
       <c r="AA12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="AB12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5166,13 +4116,13 @@
       <c r="AE12" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AF12" s="120" t="b">
+      <c r="AF12" s="115" t="b">
         <f>HLOOKUP(H$1, Model!$I$41:$O$57, MATCH($B$19, Model!$H$41:$H$57, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="136"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="64" t="s">
         <v>12</v>
       </c>
@@ -5182,11 +4132,11 @@
       </c>
       <c r="E13" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D : 2</v>
-      </c>
-      <c r="F13" s="119" t="str">
+        <v/>
+      </c>
+      <c r="F13" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D♯ : ♯2</v>
       </c>
       <c r="G13" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5194,7 +4144,7 @@
       </c>
       <c r="H13" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="I13" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5206,11 +4156,11 @@
       </c>
       <c r="K13" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>G♯ : ♯5</v>
       </c>
       <c r="L13" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="M13" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5230,11 +4180,11 @@
       </c>
       <c r="Q13" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="R13" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D♯ : ♯2</v>
       </c>
       <c r="S13" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5242,7 +4192,7 @@
       </c>
       <c r="T13" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="U13" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5254,11 +4204,11 @@
       </c>
       <c r="W13" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>G♯ : ♯5</v>
       </c>
       <c r="X13" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="Y13" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5278,18 +4228,18 @@
       </c>
       <c r="AC13" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="AE13" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="AF13" s="120" t="b">
+      <c r="AF13" s="115" t="b">
         <f>HLOOKUP(I$1, Model!$I$41:$O$57, MATCH($B$19, Model!$H$41:$H$57, 0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="136"/>
+      <c r="B14" s="123"/>
       <c r="C14" s="64" t="s">
         <v>14</v>
       </c>
@@ -5299,9 +4249,9 @@
       </c>
       <c r="E14" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : 6</v>
-      </c>
-      <c r="F14" s="119" t="str">
+        <v/>
+      </c>
+      <c r="F14" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v/>
       </c>
@@ -5319,11 +4269,11 @@
       </c>
       <c r="J14" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="K14" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D♯ : ♯2</v>
       </c>
       <c r="L14" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5331,7 +4281,7 @@
       </c>
       <c r="M14" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="N14" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5343,11 +4293,11 @@
       </c>
       <c r="P14" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>G♯ : ♯5</v>
       </c>
       <c r="Q14" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="R14" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5367,11 +4317,11 @@
       </c>
       <c r="V14" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="W14" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D♯ : ♯2</v>
       </c>
       <c r="X14" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5379,7 +4329,7 @@
       </c>
       <c r="Y14" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="Z14" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5391,22 +4341,22 @@
       </c>
       <c r="AB14" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>G♯ : ♯5</v>
       </c>
       <c r="AC14" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="AE14" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="AF14" s="120" t="b">
+      <c r="AF14" s="115" t="b">
         <f>HLOOKUP(J$1, Model!$I$41:$O$57, MATCH($B$19, Model!$H$41:$H$57, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="128" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="64" t="s">
@@ -5420,9 +4370,9 @@
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
         <v>E : 3</v>
       </c>
-      <c r="F15" s="119" t="str">
+      <c r="F15" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="G15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5434,11 +4384,11 @@
       </c>
       <c r="I15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>G♯ : ♯5</v>
       </c>
       <c r="J15" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="K15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5458,11 +4408,11 @@
       </c>
       <c r="O15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="P15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D♯ : ♯2</v>
       </c>
       <c r="Q15" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5470,7 +4420,7 @@
       </c>
       <c r="R15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="S15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5482,11 +4432,11 @@
       </c>
       <c r="U15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>G♯ : ♯5</v>
       </c>
       <c r="V15" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="W15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5506,11 +4456,11 @@
       </c>
       <c r="AA15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="AB15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D♯ : ♯2</v>
       </c>
       <c r="AC15" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -5519,13 +4469,13 @@
       <c r="AE15" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="AF15" s="120" t="b">
+      <c r="AF15" s="115" t="b">
         <f>HLOOKUP(K$1, Model!$I$41:$O$57, MATCH($B$19, Model!$H$41:$H$57, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:32" s="63" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="130"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="64" t="s">
         <v>16</v>
       </c>
@@ -5537,7 +4487,7 @@
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+E$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>B : 7</v>
       </c>
-      <c r="F16" s="119" t="str">
+      <c r="F16" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+F$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>C : 1</v>
       </c>
@@ -5547,11 +4497,11 @@
       </c>
       <c r="H16" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+H$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="I16" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+I$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>D♯ : 2</v>
       </c>
       <c r="J16" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+J$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -5559,7 +4509,7 @@
       </c>
       <c r="K16" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+K$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="L16" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+L$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -5571,11 +4521,11 @@
       </c>
       <c r="N16" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+N$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>G♯ : 6</v>
       </c>
       <c r="O16" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+O$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="P16" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+P$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -5595,11 +4545,11 @@
       </c>
       <c r="T16" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+T$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="U16" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+U$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>D♯ : 2</v>
       </c>
       <c r="V16" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+V$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -5607,7 +4557,7 @@
       </c>
       <c r="W16" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+W$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="X16" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+X$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -5619,11 +4569,11 @@
       </c>
       <c r="Z16" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+Z$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>G♯ : 6</v>
       </c>
       <c r="AA16" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+AA$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="AB16" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+AB$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -5634,10 +4584,10 @@
         <v>B : 7</v>
       </c>
       <c r="AE16" s="90"/>
-      <c r="AF16" s="121"/>
+      <c r="AF16" s="116"/>
     </row>
     <row r="17" spans="2:32" s="63" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="130"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="64" t="s">
         <v>32</v>
       </c>
@@ -5649,17 +4599,17 @@
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+E$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v/>
       </c>
-      <c r="F17" s="119" t="str">
+      <c r="F17" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+F$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v>G : 5</v>
       </c>
       <c r="G17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+G$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>G♯ : 6</v>
       </c>
       <c r="H17" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+H$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="I17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+I$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -5679,11 +4629,11 @@
       </c>
       <c r="M17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+M$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="N17" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+N$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>D♯ : 2</v>
       </c>
       <c r="O17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+O$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -5691,7 +4641,7 @@
       </c>
       <c r="P17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+P$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="Q17" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+Q$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -5703,11 +4653,11 @@
       </c>
       <c r="S17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+S$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>G♯ : 6</v>
       </c>
       <c r="T17" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+T$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="U17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+U$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -5727,11 +4677,11 @@
       </c>
       <c r="Y17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+Y$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="Z17" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+Z$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>D♯ : 2</v>
       </c>
       <c r="AA17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+AA$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -5739,17 +4689,17 @@
       </c>
       <c r="AB17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+AB$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="AC17" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+AC$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v/>
       </c>
       <c r="AE17" s="91"/>
-      <c r="AF17" s="121"/>
+      <c r="AF17" s="116"/>
     </row>
     <row r="18" spans="2:32" s="63" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="130"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="64" t="s">
         <v>30</v>
       </c>
@@ -5761,13 +4711,13 @@
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+E$9, 12), Model!$I$23:$O$23, 0), "")</f>
         <v/>
       </c>
-      <c r="F18" s="119" t="str">
+      <c r="F18" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+F$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="G18" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+G$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>D♯ : 2</v>
       </c>
       <c r="H18" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+H$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -5775,7 +4725,7 @@
       </c>
       <c r="I18" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+I$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="J18" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+J$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -5787,11 +4737,11 @@
       </c>
       <c r="L18" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+L$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>G♯ : 6</v>
       </c>
       <c r="M18" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+M$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="N18" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+N$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -5811,11 +4761,11 @@
       </c>
       <c r="R18" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+R$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="S18" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+S$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>D♯ : 2</v>
       </c>
       <c r="T18" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+T$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -5823,7 +4773,7 @@
       </c>
       <c r="U18" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+U$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="V18" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+V$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -5835,11 +4785,11 @@
       </c>
       <c r="X18" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+X$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>G♯ : 6</v>
       </c>
       <c r="Y18" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+Y$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="Z18" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+Z$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -5858,11 +4808,11 @@
         <v/>
       </c>
       <c r="AE18" s="92"/>
-      <c r="AF18" s="121"/>
+      <c r="AF18" s="116"/>
     </row>
     <row r="19" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="67" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="1"/>
@@ -5969,7 +4919,7 @@
       <c r="AE19" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="AF19" s="120" t="b">
+      <c r="AF19" s="115" t="b">
         <f>HLOOKUP(L$1, Model!$I$41:$O$57, MATCH($B$19, Model!$H$41:$H$57, 0))</f>
         <v>1</v>
       </c>
@@ -6060,15 +5010,15 @@
       <c r="AF22" s="60"/>
     </row>
     <row r="23" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="131" t="str">
+      <c r="B23" s="129" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(IF(B38 = "Ionian (Major)", B29 &amp; " Major", IF(B38 = "Aolian (Minor)", B29 &amp; " Minor", B29 &amp; " " &amp; B38)), "#", "♯"), "b", "♭")</f>
         <v>E Pentatonic Minor</v>
       </c>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
       <c r="K23" s="126">
         <f>IF(J27 = "", "", IF(K24 = 0, F$1, K24))</f>
         <v>1</v>
@@ -6114,47 +5064,47 @@
       <c r="AF23" s="60"/>
     </row>
     <row r="24" spans="2:32" s="59" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="K24" s="127">
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="K24" s="132">
         <f>IFERROR(HLOOKUP(F$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), F$1)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="127"/>
-      <c r="M24" s="127">
+      <c r="L24" s="132"/>
+      <c r="M24" s="132">
         <f>IFERROR(HLOOKUP(G$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), G$1)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127" t="str">
+      <c r="N24" s="132"/>
+      <c r="O24" s="132" t="str">
         <f>IFERROR(HLOOKUP(H$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), H$1)</f>
         <v>♭3</v>
       </c>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="127">
+      <c r="P24" s="132"/>
+      <c r="Q24" s="132">
         <f>IFERROR(HLOOKUP(I$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), I$1)</f>
         <v>0</v>
       </c>
-      <c r="R24" s="127"/>
-      <c r="S24" s="127">
+      <c r="R24" s="132"/>
+      <c r="S24" s="132">
         <f>IFERROR(HLOOKUP(J$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), J$1)</f>
         <v>0</v>
       </c>
-      <c r="T24" s="127"/>
-      <c r="U24" s="127">
+      <c r="T24" s="132"/>
+      <c r="U24" s="132">
         <f>IFERROR(HLOOKUP(K$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), K$1)</f>
         <v>0</v>
       </c>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127" t="str">
+      <c r="V24" s="132"/>
+      <c r="W24" s="132" t="str">
         <f>IFERROR(HLOOKUP(L$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), L$1)</f>
         <v>♭7</v>
       </c>
-      <c r="X24" s="127"/>
+      <c r="X24" s="132"/>
       <c r="Y24" s="60"/>
       <c r="Z24" s="60"/>
       <c r="AA24" s="60"/>
@@ -6165,47 +5115,47 @@
       <c r="AF24" s="60"/>
     </row>
     <row r="25" spans="2:32" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="131"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="131"/>
-      <c r="K25" s="125" t="str">
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="K25" s="133" t="str">
         <f>IF(K$23="","", J$27 &amp; IFERROR(HLOOKUP(F$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), F$1))</f>
         <v>Em7</v>
       </c>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125" t="str">
+      <c r="L25" s="133"/>
+      <c r="M25" s="133" t="str">
         <f>IF(M$23="","", K$27 &amp; IFERROR(HLOOKUP(G$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), G$1))</f>
         <v/>
       </c>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125" t="str">
+      <c r="N25" s="133"/>
+      <c r="O25" s="133" t="str">
         <f>IF(O$23="","", L$27 &amp; IFERROR(HLOOKUP(H$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), H$1))</f>
         <v>GM</v>
       </c>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="125" t="str">
+      <c r="P25" s="133"/>
+      <c r="Q25" s="133" t="str">
         <f>IF(Q$23="","", M$27 &amp; IFERROR(HLOOKUP(I$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), I$1))</f>
         <v>A5 ♭7</v>
       </c>
-      <c r="R25" s="125"/>
-      <c r="S25" s="125" t="str">
+      <c r="R25" s="133"/>
+      <c r="S25" s="133" t="str">
         <f>IF(S$23="","", N$27 &amp; IFERROR(HLOOKUP(J$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), J$1))</f>
         <v>B5</v>
       </c>
-      <c r="T25" s="125"/>
-      <c r="U25" s="125" t="str">
+      <c r="T25" s="133"/>
+      <c r="U25" s="133" t="str">
         <f>IF(U$23="","", O$27 &amp; IFERROR(HLOOKUP(K$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), K$1))</f>
         <v/>
       </c>
-      <c r="V25" s="125"/>
-      <c r="W25" s="125" t="str">
+      <c r="V25" s="133"/>
+      <c r="W25" s="133" t="str">
         <f>IF(W$23="","", P$27 &amp; IFERROR(HLOOKUP(L$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), L$1))</f>
         <v>D5</v>
       </c>
-      <c r="X25" s="125"/>
+      <c r="X25" s="133"/>
       <c r="Y25" s="60"/>
       <c r="Z25" s="60"/>
       <c r="AA25" s="60"/>
@@ -6216,12 +5166,12 @@
       <c r="AF25" s="60"/>
     </row>
     <row r="26" spans="2:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="131"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="131"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
       <c r="H26" s="61"/>
       <c r="I26" s="61"/>
       <c r="J26" s="94"/>
@@ -6249,16 +5199,16 @@
       <c r="AF26" s="61"/>
     </row>
     <row r="27" spans="2:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="131"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="132" t="s">
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="132"/>
+      <c r="I27" s="130"/>
       <c r="J27" s="73" t="str">
         <f>Model!I29</f>
         <v>E</v>
@@ -6287,11 +5237,11 @@
         <f>IF(Model!N29=0, "", Model!O29)</f>
         <v>D</v>
       </c>
-      <c r="S27" s="133" t="s">
+      <c r="S27" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="T27" s="133"/>
-      <c r="U27" s="133"/>
+      <c r="T27" s="131"/>
+      <c r="U27" s="131"/>
       <c r="V27" s="98" t="str">
         <f>IF(Model!I27=1, "h", IF(Model!I27=2, "W", IF(Model!I27=3, "W+h", IF(Model!I27=4, "WW", IF(Model!I27=0, "", Model!I22)))))</f>
         <v/>
@@ -6320,10 +5270,10 @@
         <f>IF(Model!O27=1, "h", IF(Model!O27=2, "W", IF(Model!O27=3, "W+h", IF(Model!O27=4, "WW", IF(Model!O27=0, "", Model!O22)))))</f>
         <v>W</v>
       </c>
-      <c r="AE27" s="137" t="s">
+      <c r="AE27" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="AF27" s="137"/>
+      <c r="AF27" s="124"/>
     </row>
     <row r="28" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="93" t="s">
@@ -6333,11 +5283,11 @@
         <v>17</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="122">
+      <c r="E28" s="117">
         <f t="shared" ref="E28:AC28" si="2">IF($AB$4, 24-E$1, E$1)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="123">
+      <c r="F28" s="118">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6441,7 +5391,7 @@
       </c>
     </row>
     <row r="29" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="136" t="s">
+      <c r="B29" s="123" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="64" t="s">
@@ -6451,11 +5401,11 @@
         <f>VLOOKUP(UPPER(Fretboards!C29), Model!$B$2:$D$41, 3)</f>
         <v>4</v>
       </c>
-      <c r="E29" s="118" t="str">
+      <c r="E29" s="113" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="F29" s="119" t="str">
+      <c r="F29" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D29+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
@@ -6555,13 +5505,13 @@
       <c r="AE29" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="AF29" s="120" t="b">
+      <c r="AF29" s="115" t="b">
         <f>HLOOKUP(F$1, Model!$I$41:$O$57, MATCH($B$38, Model!$H$41:$H$57, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="136"/>
+      <c r="B30" s="123"/>
       <c r="C30" s="64" t="s">
         <v>16</v>
       </c>
@@ -6569,11 +5519,11 @@
         <f>VLOOKUP(UPPER(Fretboards!C30), Model!$B$2:$D$41, 3)</f>
         <v>11</v>
       </c>
-      <c r="E30" s="118" t="str">
+      <c r="E30" s="113" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="F30" s="119" t="str">
+      <c r="F30" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D30+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
@@ -6673,13 +5623,13 @@
       <c r="AE30" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="AF30" s="120" t="b">
+      <c r="AF30" s="115" t="b">
         <f>HLOOKUP(G$1, Model!$I$41:$O$57, MATCH($B$38, Model!$H$41:$H$57, 0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="136"/>
+      <c r="B31" s="123"/>
       <c r="C31" s="64" t="s">
         <v>15</v>
       </c>
@@ -6687,11 +5637,11 @@
         <f>VLOOKUP(UPPER(Fretboards!C31), Model!$B$2:$D$41, 3)</f>
         <v>7</v>
       </c>
-      <c r="E31" s="118" t="str">
+      <c r="E31" s="113" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>G : 3</v>
       </c>
-      <c r="F31" s="119" t="str">
+      <c r="F31" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D31+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
@@ -6791,13 +5741,13 @@
       <c r="AE31" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AF31" s="120" t="b">
+      <c r="AF31" s="115" t="b">
         <f>HLOOKUP(H$1, Model!$I$41:$O$57, MATCH($B$38, Model!$H$41:$H$57, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="136"/>
+      <c r="B32" s="123"/>
       <c r="C32" s="64" t="s">
         <v>12</v>
       </c>
@@ -6805,11 +5755,11 @@
         <f>VLOOKUP(UPPER(Fretboards!C32), Model!$B$2:$D$41, 3)</f>
         <v>2</v>
       </c>
-      <c r="E32" s="118" t="str">
+      <c r="E32" s="113" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>D : 7</v>
       </c>
-      <c r="F32" s="119" t="str">
+      <c r="F32" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D32+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
@@ -6909,13 +5859,13 @@
       <c r="AE32" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="AF32" s="120" t="b">
+      <c r="AF32" s="115" t="b">
         <f>HLOOKUP(I$1, Model!$I$41:$O$57, MATCH($B$38, Model!$H$41:$H$57, 0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="136"/>
+      <c r="B33" s="123"/>
       <c r="C33" s="64" t="s">
         <v>14</v>
       </c>
@@ -6923,11 +5873,11 @@
         <f>VLOOKUP(UPPER(Fretboards!C33), Model!$B$2:$D$41, 3)</f>
         <v>9</v>
       </c>
-      <c r="E33" s="118" t="str">
+      <c r="E33" s="113" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="F33" s="119" t="str">
+      <c r="F33" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D33+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
@@ -7027,13 +5977,13 @@
       <c r="AE33" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="AF33" s="120" t="b">
+      <c r="AF33" s="115" t="b">
         <f>HLOOKUP(J$1, Model!$I$41:$O$57, MATCH($B$38, Model!$H$41:$H$57, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="130" t="s">
+      <c r="B34" s="128" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="64" t="s">
@@ -7043,11 +5993,11 @@
         <f>VLOOKUP(UPPER(Fretboards!C34), Model!$B$2:$D$41, 3)</f>
         <v>4</v>
       </c>
-      <c r="E34" s="118" t="str">
+      <c r="E34" s="113" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="F34" s="119" t="str">
+      <c r="F34" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D34+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
@@ -7147,13 +6097,13 @@
       <c r="AE34" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="AF34" s="120" t="b">
+      <c r="AF34" s="115" t="b">
         <f>HLOOKUP(K$1, Model!$I$41:$O$57, MATCH($B$38, Model!$H$41:$H$57, 0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="130"/>
+      <c r="B35" s="128"/>
       <c r="C35" s="64" t="s">
         <v>16</v>
       </c>
@@ -7161,11 +6111,11 @@
         <f>VLOOKUP(UPPER(Fretboards!C35), Model!$B$2:$D$41, 3)</f>
         <v>11</v>
       </c>
-      <c r="E35" s="118" t="str">
+      <c r="E35" s="113" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="F35" s="119" t="str">
+      <c r="F35" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D35+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
@@ -7263,10 +6213,10 @@
       </c>
       <c r="AD35" s="63"/>
       <c r="AE35" s="90"/>
-      <c r="AF35" s="121"/>
+      <c r="AF35" s="116"/>
     </row>
     <row r="36" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="130"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="64" t="s">
         <v>32</v>
       </c>
@@ -7274,11 +6224,11 @@
         <f>VLOOKUP(UPPER(Fretboards!C36), Model!$B$2:$D$41, 3)</f>
         <v>6</v>
       </c>
-      <c r="E36" s="118" t="str">
+      <c r="E36" s="113" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
-      <c r="F36" s="119" t="str">
+      <c r="F36" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D36+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D36+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>G : 3</v>
       </c>
@@ -7376,10 +6326,10 @@
       </c>
       <c r="AD36" s="63"/>
       <c r="AE36" s="91"/>
-      <c r="AF36" s="121"/>
+      <c r="AF36" s="116"/>
     </row>
     <row r="37" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="130"/>
+      <c r="B37" s="128"/>
       <c r="C37" s="64" t="s">
         <v>30</v>
       </c>
@@ -7387,11 +6337,11 @@
         <f>VLOOKUP(UPPER(Fretboards!C37), Model!$B$2:$D$41, 3)</f>
         <v>1</v>
       </c>
-      <c r="E37" s="118" t="str">
+      <c r="E37" s="113" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+E$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v/>
       </c>
-      <c r="F37" s="119" t="str">
+      <c r="F37" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D37+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$29, 10) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D37+F$28, 12), Model!$I$28:$O$28, 0), Model!$I$20:$O$26, 6), "")</f>
         <v>D : 7</v>
       </c>
@@ -7489,7 +6439,7 @@
       </c>
       <c r="AD37" s="63"/>
       <c r="AE37" s="92"/>
-      <c r="AF37" s="121"/>
+      <c r="AF37" s="116"/>
     </row>
     <row r="38" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="67" t="s">
@@ -7600,7 +6550,7 @@
       <c r="AE38" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="AF38" s="120" t="b">
+      <c r="AF38" s="115" t="b">
         <f>HLOOKUP(L$1, Model!$I$41:$O$57, MATCH($B$38, Model!$H$41:$H$57, 0))</f>
         <v>1</v>
       </c>
@@ -7634,10 +6584,50 @@
       <c r="AC39" s="68"/>
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B41" s="110"/>
+      <c r="B41" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B23:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B4:G8"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
     <mergeCell ref="Z4:AA7"/>
     <mergeCell ref="AB4:AC7"/>
     <mergeCell ref="B10:B14"/>
@@ -7654,46 +6644,6 @@
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B23:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B4:G8"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
   </mergeCells>
   <conditionalFormatting sqref="AB4 AF10:AF19">
     <cfRule type="expression" dxfId="126" priority="548">
@@ -8166,7 +7116,7 @@
   <dimension ref="A1:BN58"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28:O28"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -8201,11 +7151,11 @@
         <v>94</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="140" t="s">
+      <c r="F1" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="141"/>
-      <c r="H1" s="112" t="s">
+      <c r="G1" s="137"/>
+      <c r="H1" s="107" t="s">
         <v>19</v>
       </c>
       <c r="I1" s="17"/>
@@ -8214,7 +7164,7 @@
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
-      <c r="O1" s="113"/>
+      <c r="O1" s="108"/>
       <c r="P1" s="99" t="s">
         <v>60</v>
       </c>
@@ -8367,7 +7317,7 @@
       <c r="N2" s="9">
         <v>2</v>
       </c>
-      <c r="O2" s="114">
+      <c r="O2" s="109">
         <v>2</v>
       </c>
       <c r="P2" s="9" t="s">
@@ -8480,10 +7430,10 @@
       <c r="D3" s="11">
         <v>10</v>
       </c>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="139"/>
+      <c r="G3" s="135"/>
       <c r="H3" s="14" t="s">
         <v>59</v>
       </c>
@@ -8505,7 +7455,7 @@
       <c r="N3" s="9">
         <v>3</v>
       </c>
-      <c r="O3" s="114">
+      <c r="O3" s="109">
         <v>1</v>
       </c>
       <c r="P3" s="9" t="s">
@@ -8613,7 +7563,7 @@
       </c>
       <c r="G4" s="9" t="str">
         <f>Fretboards!B19</f>
-        <v>Ionian (Major)</v>
+        <v>Augmented</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>171</v>
@@ -8636,7 +7586,7 @@
       <c r="N4" s="9">
         <v>4</v>
       </c>
-      <c r="O4" s="114">
+      <c r="O4" s="109">
         <v>1</v>
       </c>
       <c r="P4" s="9" t="s">
@@ -8728,10 +7678,10 @@
       <c r="D5" s="11">
         <v>8</v>
       </c>
-      <c r="F5" s="138" t="s">
+      <c r="F5" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="139"/>
+      <c r="G5" s="135"/>
       <c r="H5" s="14" t="s">
         <v>172</v>
       </c>
@@ -8753,7 +7703,7 @@
       <c r="N5" s="9">
         <v>3</v>
       </c>
-      <c r="O5" s="114">
+      <c r="O5" s="109">
         <v>2</v>
       </c>
       <c r="P5" s="9" t="s">
@@ -8876,7 +7826,7 @@
       <c r="N6" s="9">
         <v>3</v>
       </c>
-      <c r="O6" s="114">
+      <c r="O6" s="109">
         <v>2</v>
       </c>
       <c r="P6" s="9" t="s">
@@ -9011,7 +7961,7 @@
       <c r="N7" s="9">
         <v>3</v>
       </c>
-      <c r="O7" s="114">
+      <c r="O7" s="109">
         <v>1</v>
       </c>
       <c r="P7" s="9" t="s">
@@ -9128,7 +8078,7 @@
       <c r="N8" s="9">
         <v>1</v>
       </c>
-      <c r="O8" s="114">
+      <c r="O8" s="109">
         <v>2</v>
       </c>
       <c r="P8" s="9" t="s">
@@ -9246,7 +8196,7 @@
       <c r="N9" s="9">
         <v>3</v>
       </c>
-      <c r="O9" s="114">
+      <c r="O9" s="109">
         <v>1</v>
       </c>
       <c r="P9" s="9" t="s">
@@ -9380,7 +8330,7 @@
       <c r="N10" s="9">
         <v>2</v>
       </c>
-      <c r="O10" s="114">
+      <c r="O10" s="109">
         <v>1</v>
       </c>
       <c r="P10" s="9" t="s">
@@ -9510,7 +8460,7 @@
       <c r="N11" s="9">
         <v>2</v>
       </c>
-      <c r="O11" s="114">
+      <c r="O11" s="109">
         <v>2</v>
       </c>
       <c r="P11" s="9" t="s">
@@ -9638,7 +8588,7 @@
       <c r="N12" s="9">
         <v>2</v>
       </c>
-      <c r="O12" s="114">
+      <c r="O12" s="109">
         <v>1</v>
       </c>
       <c r="P12" s="9" t="s">
@@ -9768,7 +8718,7 @@
       <c r="N13" s="9">
         <v>2</v>
       </c>
-      <c r="O13" s="114">
+      <c r="O13" s="109">
         <v>1</v>
       </c>
       <c r="P13" s="9" t="s">
@@ -9909,7 +8859,7 @@
       <c r="N14" s="9">
         <v>1</v>
       </c>
-      <c r="O14" s="114">
+      <c r="O14" s="109">
         <v>2</v>
       </c>
       <c r="P14" s="9" t="s">
@@ -10039,7 +8989,7 @@
       <c r="N15" s="9">
         <v>0</v>
       </c>
-      <c r="O15" s="114">
+      <c r="O15" s="109">
         <v>2</v>
       </c>
       <c r="P15" s="9" t="s">
@@ -10169,7 +9119,7 @@
       <c r="N16" s="9">
         <v>3</v>
       </c>
-      <c r="O16" s="114">
+      <c r="O16" s="109">
         <v>2</v>
       </c>
       <c r="P16" s="9" t="s">
@@ -10258,7 +9208,7 @@
       <c r="N17" s="16">
         <v>2</v>
       </c>
-      <c r="O17" s="115">
+      <c r="O17" s="110">
         <v>2</v>
       </c>
       <c r="P17" s="16" t="s">
@@ -10417,9 +9367,9 @@
         <f>IF(VLOOKUP($G$4,$P$2:$W$17, 1+I20, FALSE) = 0, I20, VLOOKUP($G$4,$P$2:$W$17, 1+I20, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="9" t="str">
         <f t="shared" ref="J21:O21" si="0">IF(VLOOKUP($G$4,$P$2:$W$17, 1+J20, FALSE) = 0, J20, VLOOKUP($G$4,$P$2:$W$17, 1+J20, FALSE))</f>
-        <v>2</v>
+        <v>♯2</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="0"/>
@@ -10433,9 +9383,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>♯5</v>
       </c>
       <c r="O21" s="9">
         <f t="shared" si="0"/>
@@ -10444,25 +9394,25 @@
       <c r="P21" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="139" t="s">
         <v>183</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="139" t="s">
         <v>194</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="S21" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="T21" s="60" t="s">
+      <c r="T21" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="U21" s="60" t="s">
+      <c r="U21" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="V21" s="6" t="s">
+      <c r="V21" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="W21" s="104">
+      <c r="W21" s="140">
         <v>7</v>
       </c>
     </row>
@@ -10481,27 +9431,27 @@
       </c>
       <c r="I22" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$2:$O$17,  Model!I20 + 1, FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$2:$O$17,  Model!J20 + 1, FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$2:$O$17,  Model!K20 + 1, FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$2:$O$17,  Model!L20 + 1, FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M22" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$2:$O$17,  Model!M20 + 1, FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$2:$O$17,  Model!N20 + 1, FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O22" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$2:$O$17,  Model!O20 + 1, FALSE)</f>
@@ -10510,23 +9460,23 @@
       <c r="P22" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="Q22" s="6" t="s">
+      <c r="Q22" s="139" t="s">
         <v>183</v>
       </c>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6" t="s">
+      <c r="R22" s="139"/>
+      <c r="S22" s="139" t="s">
         <v>182</v>
       </c>
-      <c r="T22" s="6" t="s">
+      <c r="T22" s="139" t="s">
         <v>189</v>
       </c>
-      <c r="U22" s="6" t="s">
+      <c r="U22" s="139" t="s">
         <v>183</v>
       </c>
-      <c r="V22" s="6" t="s">
+      <c r="V22" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="W22" s="104" t="s">
+      <c r="W22" s="140" t="s">
         <v>183</v>
       </c>
     </row>
@@ -10549,15 +9499,15 @@
       </c>
       <c r="J23" s="9">
         <f t="shared" ref="J23:O23" si="1">IFERROR(VLOOKUP(SUBSTITUTE(SUBSTITUTE(J24, "♭", "b"), "♯","#"), $B$2:$D$41, 3, FALSE), "")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="1"/>
@@ -10565,7 +9515,7 @@
       </c>
       <c r="N23" s="9">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O23" s="9">
         <f t="shared" si="1"/>
@@ -10574,19 +9524,19 @@
       <c r="P23" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="Q23" s="6" t="s">
+      <c r="Q23" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="R23" s="6"/>
-      <c r="S23" s="60" t="s">
+      <c r="R23" s="139"/>
+      <c r="S23" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60">
+      <c r="T23" s="138"/>
+      <c r="U23" s="138">
         <v>7</v>
       </c>
-      <c r="V23" s="60"/>
-      <c r="W23" s="105" t="s">
+      <c r="V23" s="138"/>
+      <c r="W23" s="141" t="s">
         <v>194</v>
       </c>
     </row>
@@ -10609,7 +9559,7 @@
       </c>
       <c r="J24" s="9" t="str">
         <f>IF(I22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(J21, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:I22) + 1))</f>
-        <v>D</v>
+        <v>D♯</v>
       </c>
       <c r="K24" s="9" t="str">
         <f>IF(J22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(K21, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:J22) + 1))</f>
@@ -10617,7 +9567,7 @@
       </c>
       <c r="L24" s="9" t="str">
         <f>IF(K22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(L21, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:K22) + 1))</f>
-        <v>F</v>
+        <v/>
       </c>
       <c r="M24" s="9" t="str">
         <f>IF(L22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(M21, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:L22) + 1))</f>
@@ -10625,7 +9575,7 @@
       </c>
       <c r="N24" s="9" t="str">
         <f>IF(M22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(N21, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:M22) + 1))</f>
-        <v>A</v>
+        <v>G♯</v>
       </c>
       <c r="O24" s="9" t="str">
         <f>IF(N22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(O21, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:N22) + 1))</f>
@@ -10634,19 +9584,19 @@
       <c r="P24" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" s="139" t="s">
         <v>183</v>
       </c>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6" t="s">
+      <c r="R24" s="139"/>
+      <c r="S24" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60" t="s">
+      <c r="T24" s="138"/>
+      <c r="U24" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="V24" s="6"/>
-      <c r="W24" s="104">
+      <c r="V24" s="139"/>
+      <c r="W24" s="140">
         <v>7</v>
       </c>
     </row>
@@ -10687,19 +9637,19 @@
       <c r="P25" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="139" t="s">
         <v>186</v>
       </c>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6" t="s">
+      <c r="R25" s="139"/>
+      <c r="S25" s="139" t="s">
         <v>186</v>
       </c>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6" t="s">
+      <c r="T25" s="139"/>
+      <c r="U25" s="139" t="s">
         <v>186</v>
       </c>
-      <c r="V25" s="6"/>
-      <c r="W25" s="104" t="s">
+      <c r="V25" s="139"/>
+      <c r="W25" s="140" t="s">
         <v>186</v>
       </c>
     </row>
@@ -10717,45 +9667,55 @@
         <v>60</v>
       </c>
       <c r="I26" s="9">
-        <f>IF(VLOOKUP($G$6,$P$2:$W$19, 1+I20, FALSE) = 0, I20, VLOOKUP($G$6,$P$2:$W$19, 1+I20, FALSE))</f>
+        <f t="shared" ref="I26:O26" si="2">IF(VLOOKUP($G$6,$P$2:$W$19, 1+I20, FALSE) = 0, I20, VLOOKUP($G$6,$P$2:$W$19, 1+I20, FALSE))</f>
         <v>1</v>
       </c>
       <c r="J26" s="9">
-        <f>IF(VLOOKUP($G$6,$P$2:$W$19, 1+J20, FALSE) = 0, J20, VLOOKUP($G$6,$P$2:$W$19, 1+J20, FALSE))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K26" s="9" t="str">
-        <f>IF(VLOOKUP($G$6,$P$2:$W$19, 1+K20, FALSE) = 0, K20, VLOOKUP($G$6,$P$2:$W$19, 1+K20, FALSE))</f>
+        <f t="shared" si="2"/>
         <v>♭3</v>
       </c>
       <c r="L26" s="9">
-        <f>IF(VLOOKUP($G$6,$P$2:$W$19, 1+L20, FALSE) = 0, L20, VLOOKUP($G$6,$P$2:$W$19, 1+L20, FALSE))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M26" s="9">
-        <f>IF(VLOOKUP($G$6,$P$2:$W$19, 1+M20, FALSE) = 0, M20, VLOOKUP($G$6,$P$2:$W$19, 1+M20, FALSE))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="N26" s="9">
-        <f>IF(VLOOKUP($G$6,$P$2:$W$19, 1+N20, FALSE) = 0, N20, VLOOKUP($G$6,$P$2:$W$19, 1+N20, FALSE))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O26" s="9" t="str">
-        <f>IF(VLOOKUP($G$6,$P$2:$W$19, 1+O20, FALSE) = 0, O20, VLOOKUP($G$6,$P$2:$W$19, 1+O20, FALSE))</f>
+        <f t="shared" si="2"/>
         <v>♭7</v>
       </c>
       <c r="P26" s="103" t="s">
         <v>197</v>
       </c>
-      <c r="Q26" s="60" t="s">
+      <c r="Q26" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="R26" s="139" t="s">
+        <v>201</v>
+      </c>
+      <c r="S26" s="139" t="s">
+        <v>184</v>
+      </c>
+      <c r="T26" s="138"/>
+      <c r="U26" s="138" t="s">
         <v>198</v>
       </c>
-      <c r="R26" s="6"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="105"/>
+      <c r="V26" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="W26" s="141">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="2:65" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
@@ -10801,25 +9761,25 @@
       <c r="P27" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="6" t="s">
+      <c r="Q27" s="139" t="s">
         <v>183</v>
       </c>
-      <c r="R27" s="6" t="s">
+      <c r="R27" s="139" t="s">
         <v>183</v>
       </c>
-      <c r="S27" s="6" t="s">
+      <c r="S27" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="T27" s="60">
+      <c r="T27" s="138">
         <v>7</v>
       </c>
-      <c r="U27" s="60" t="s">
+      <c r="U27" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="V27" s="60" t="s">
+      <c r="V27" s="138" t="s">
         <v>194</v>
       </c>
-      <c r="W27" s="104" t="s">
+      <c r="W27" s="140" t="s">
         <v>184</v>
       </c>
     </row>
@@ -10836,56 +9796,56 @@
       <c r="H28" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="I28" s="142">
+      <c r="I28" s="120">
         <f>IFERROR(VLOOKUP(SUBSTITUTE(SUBSTITUTE(I29, "♭", "b"), "♯","#"), $B$2:$D$41, 3, FALSE), "")</f>
         <v>4</v>
       </c>
-      <c r="J28" s="142" t="str">
-        <f t="shared" ref="J28:O28" si="2">IFERROR(VLOOKUP(SUBSTITUTE(SUBSTITUTE(J29, "♭", "b"), "♯","#"), $B$2:$D$41, 3, FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="K28" s="142">
-        <f t="shared" si="2"/>
+      <c r="J28" s="120" t="str">
+        <f t="shared" ref="J28:O28" si="3">IFERROR(VLOOKUP(SUBSTITUTE(SUBSTITUTE(J29, "♭", "b"), "♯","#"), $B$2:$D$41, 3, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="K28" s="120">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="L28" s="142">
-        <f t="shared" si="2"/>
+      <c r="L28" s="120">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="M28" s="142">
-        <f t="shared" si="2"/>
+      <c r="M28" s="120">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="N28" s="142" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O28" s="142">
-        <f t="shared" si="2"/>
+      <c r="N28" s="120" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O28" s="120">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="P28" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="Q28" s="60" t="s">
+      <c r="Q28" s="138" t="s">
         <v>193</v>
       </c>
-      <c r="R28" s="6" t="s">
+      <c r="R28" s="139" t="s">
         <v>187</v>
       </c>
-      <c r="S28" s="6" t="s">
+      <c r="S28" s="139" t="s">
         <v>188</v>
       </c>
-      <c r="T28" s="6" t="s">
+      <c r="T28" s="139" t="s">
         <v>183</v>
       </c>
-      <c r="U28" s="6">
+      <c r="U28" s="139">
         <v>7</v>
       </c>
-      <c r="V28" s="6" t="s">
+      <c r="V28" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="W28" s="104" t="s">
+      <c r="W28" s="140" t="s">
         <v>186</v>
       </c>
     </row>
@@ -10933,25 +9893,25 @@
       <c r="P29" s="103" t="s">
         <v>170</v>
       </c>
-      <c r="Q29" s="6" t="s">
+      <c r="Q29" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="R29" s="6" t="s">
+      <c r="R29" s="139" t="s">
         <v>183</v>
       </c>
-      <c r="S29" s="60" t="s">
+      <c r="S29" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="T29" s="60" t="s">
+      <c r="T29" s="138" t="s">
         <v>184</v>
       </c>
-      <c r="U29" s="60">
+      <c r="U29" s="138">
         <v>7</v>
       </c>
-      <c r="V29" s="60" t="s">
+      <c r="V29" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="W29" s="105" t="s">
+      <c r="W29" s="141" t="s">
         <v>194</v>
       </c>
     </row>
@@ -10968,25 +9928,25 @@
       <c r="P30" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="Q30" s="6" t="s">
+      <c r="Q30" s="139" t="s">
         <v>194</v>
       </c>
-      <c r="R30" s="6" t="s">
+      <c r="R30" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="S30" s="60" t="s">
+      <c r="S30" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="T30" s="60" t="s">
+      <c r="T30" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="U30" s="6" t="s">
+      <c r="U30" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="V30" s="6">
+      <c r="V30" s="139">
         <v>7</v>
       </c>
-      <c r="W30" s="104" t="s">
+      <c r="W30" s="140" t="s">
         <v>183</v>
       </c>
     </row>
@@ -11011,25 +9971,25 @@
       <c r="P31" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="Q31" s="6" t="s">
+      <c r="Q31" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="R31" s="60">
+      <c r="R31" s="138">
         <v>7</v>
       </c>
-      <c r="S31" s="60" t="s">
+      <c r="S31" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="T31" s="60" t="s">
+      <c r="T31" s="138" t="s">
         <v>194</v>
       </c>
-      <c r="U31" s="6" t="s">
+      <c r="U31" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="V31" s="6" t="s">
+      <c r="V31" s="139" t="s">
         <v>183</v>
       </c>
-      <c r="W31" s="105" t="s">
+      <c r="W31" s="141" t="s">
         <v>183</v>
       </c>
     </row>
@@ -11047,25 +10007,25 @@
       <c r="P32" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="Q32" s="60" t="s">
+      <c r="Q32" s="138" t="s">
         <v>193</v>
       </c>
-      <c r="R32" s="60" t="s">
+      <c r="R32" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="S32" s="6" t="s">
+      <c r="S32" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="T32" s="60">
+      <c r="T32" s="138">
         <v>7</v>
       </c>
-      <c r="U32" s="60">
+      <c r="U32" s="138">
         <v>7</v>
       </c>
-      <c r="V32" s="60" t="s">
+      <c r="V32" s="138" t="s">
         <v>187</v>
       </c>
-      <c r="W32" s="105" t="s">
+      <c r="W32" s="141" t="s">
         <v>187</v>
       </c>
     </row>
@@ -11079,29 +10039,29 @@
       <c r="D33" s="11">
         <v>7</v>
       </c>
-      <c r="H33" s="111"/>
+      <c r="H33" s="106"/>
       <c r="P33" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="Q33" s="60">
+      <c r="Q33" s="138">
         <v>7</v>
       </c>
-      <c r="R33" s="60" t="s">
+      <c r="R33" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="S33" s="60" t="s">
+      <c r="S33" s="138" t="s">
         <v>194</v>
       </c>
-      <c r="T33" s="6" t="s">
+      <c r="T33" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="U33" s="6" t="s">
+      <c r="U33" s="139" t="s">
         <v>183</v>
       </c>
-      <c r="V33" s="60" t="s">
+      <c r="V33" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="W33" s="104" t="s">
+      <c r="W33" s="140" t="s">
         <v>184</v>
       </c>
     </row>
@@ -11115,27 +10075,27 @@
       <c r="D34" s="11">
         <v>8</v>
       </c>
-      <c r="H34" s="111"/>
+      <c r="H34" s="106"/>
       <c r="P34" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="Q34" s="60" t="s">
+      <c r="Q34" s="138" t="s">
         <v>182</v>
       </c>
-      <c r="R34" s="60" t="s">
+      <c r="R34" s="138" t="s">
         <v>185</v>
       </c>
-      <c r="S34" s="60" t="s">
+      <c r="S34" s="138" t="s">
         <v>191</v>
       </c>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6">
+      <c r="T34" s="139"/>
+      <c r="U34" s="139">
         <v>5</v>
       </c>
-      <c r="V34" s="60" t="s">
+      <c r="V34" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="W34" s="104"/>
+      <c r="W34" s="140"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B35" s="9" t="s">
@@ -11147,25 +10107,25 @@
       <c r="D35" s="11">
         <v>9</v>
       </c>
-      <c r="H35" s="111"/>
+      <c r="H35" s="106"/>
       <c r="P35" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="Q35" s="60" t="s">
+      <c r="Q35" s="138" t="s">
         <v>183</v>
       </c>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6" t="s">
+      <c r="R35" s="139"/>
+      <c r="S35" s="139" t="s">
         <v>182</v>
       </c>
-      <c r="T35" s="60" t="s">
+      <c r="T35" s="138" t="s">
         <v>192</v>
       </c>
-      <c r="U35" s="6">
+      <c r="U35" s="139">
         <v>5</v>
       </c>
-      <c r="V35" s="6"/>
-      <c r="W35" s="104">
+      <c r="V35" s="139"/>
+      <c r="W35" s="140">
         <v>5</v>
       </c>
     </row>
@@ -11179,29 +10139,29 @@
       <c r="D36" s="11">
         <v>6</v>
       </c>
-      <c r="H36" s="111"/>
-      <c r="P36" s="106" t="s">
+      <c r="H36" s="106"/>
+      <c r="P36" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="Q36" s="107" t="s">
+      <c r="Q36" s="142" t="s">
         <v>183</v>
       </c>
-      <c r="R36" s="107" t="s">
+      <c r="R36" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="S36" s="108">
+      <c r="S36" s="143">
         <v>7</v>
       </c>
-      <c r="T36" s="108" t="s">
+      <c r="T36" s="143" t="s">
         <v>183</v>
       </c>
-      <c r="U36" s="108" t="s">
+      <c r="U36" s="143" t="s">
         <v>194</v>
       </c>
-      <c r="V36" s="107" t="s">
+      <c r="V36" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="W36" s="109" t="s">
+      <c r="W36" s="144" t="s">
         <v>183</v>
       </c>
     </row>
@@ -11215,17 +10175,17 @@
       <c r="D37" s="11">
         <v>5</v>
       </c>
-      <c r="H37" s="111"/>
+      <c r="H37" s="106"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.35">
       <c r="D38" s="11"/>
-      <c r="H38" s="111"/>
+      <c r="H38" s="106"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="11"/>
-      <c r="H39" s="111"/>
+      <c r="H39" s="106"/>
     </row>
     <row r="40" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
@@ -11236,7 +10196,7 @@
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="13"/>
-      <c r="H41" s="116" t="s">
+      <c r="H41" s="111" t="s">
         <v>195</v>
       </c>
       <c r="I41" s="99">
@@ -11257,7 +10217,7 @@
       <c r="N41" s="99">
         <v>6</v>
       </c>
-      <c r="O41" s="117">
+      <c r="O41" s="112">
         <v>7</v>
       </c>
     </row>
@@ -11285,7 +10245,7 @@
       <c r="N42" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="O42" s="114" t="b">
+      <c r="O42" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11311,7 +10271,7 @@
       <c r="N43" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="O43" s="114" t="b">
+      <c r="O43" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11337,7 +10297,7 @@
       <c r="N44" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="O44" s="114" t="b">
+      <c r="O44" s="109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11363,7 +10323,7 @@
       <c r="N45" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O45" s="114" t="b">
+      <c r="O45" s="109" t="b">
         <v>0</v>
       </c>
       <c r="P45" s="8"/>
@@ -11396,7 +10356,7 @@
       <c r="N46" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O46" s="114" t="b">
+      <c r="O46" s="109" t="b">
         <v>1</v>
       </c>
       <c r="P46" s="8"/>
@@ -11429,7 +10389,7 @@
       <c r="N47" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="O47" s="114" t="b">
+      <c r="O47" s="109" t="b">
         <v>1</v>
       </c>
       <c r="P47" s="8"/>
@@ -11462,7 +10422,7 @@
       <c r="N48" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O48" s="114" t="b">
+      <c r="O48" s="109" t="b">
         <v>1</v>
       </c>
       <c r="P48" s="8"/>
@@ -11495,7 +10455,7 @@
       <c r="N49" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O49" s="114" t="b">
+      <c r="O49" s="109" t="b">
         <v>1</v>
       </c>
       <c r="P49" s="8"/>
@@ -11528,7 +10488,7 @@
       <c r="N50" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O50" s="114" t="b">
+      <c r="O50" s="109" t="b">
         <v>1</v>
       </c>
       <c r="P50" s="8"/>
@@ -11561,7 +10521,7 @@
       <c r="N51" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O51" s="114" t="b">
+      <c r="O51" s="109" t="b">
         <v>1</v>
       </c>
       <c r="P51" s="8"/>
@@ -11594,7 +10554,7 @@
       <c r="N52" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O52" s="114" t="b">
+      <c r="O52" s="109" t="b">
         <v>1</v>
       </c>
       <c r="P52" s="8"/>
@@ -11627,7 +10587,7 @@
       <c r="N53" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O53" s="114" t="b">
+      <c r="O53" s="109" t="b">
         <v>1</v>
       </c>
       <c r="P53" s="8"/>
@@ -11660,7 +10620,7 @@
       <c r="N54" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O54" s="114" t="b">
+      <c r="O54" s="109" t="b">
         <v>1</v>
       </c>
       <c r="P54" s="8"/>
@@ -11693,7 +10653,7 @@
       <c r="N55" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O55" s="114" t="b">
+      <c r="O55" s="109" t="b">
         <v>1</v>
       </c>
       <c r="P55" s="8"/>
@@ -11726,7 +10686,7 @@
       <c r="N56" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O56" s="114" t="b">
+      <c r="O56" s="109" t="b">
         <v>1</v>
       </c>
       <c r="P56" s="8"/>
@@ -11759,7 +10719,7 @@
       <c r="N57" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="O57" s="115" t="b">
+      <c r="O57" s="110" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Shredsheets.xlsx
+++ b/Shredsheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Shredsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E701B99-6D30-494E-BC68-A8E03B29FAEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6809AE7C-AE3C-4643-AB6F-96D51BB16E08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12315" yWindow="1740" windowWidth="26460" windowHeight="19635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1365" windowWidth="26460" windowHeight="19635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fretboards" sheetId="1" r:id="rId1"/>
@@ -1824,57 +1824,6 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1882,6 +1831,57 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3277,8 +3277,8 @@
   </sheetPr>
   <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25:R25"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3410,160 +3410,160 @@
       <c r="A4" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="129" t="str">
+      <c r="B4" s="134" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(IF(B19 = "Ionian (Major)", B10 &amp; " Major", IF(B19 = "Aolian (Minor)", B10 &amp; " Minor", B10 &amp; " " &amp; B19)), "#", "♯"), "b", "♭")</f>
-        <v>C Augmented</v>
-      </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="K4" s="126">
+        <v>C Major</v>
+      </c>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="K4" s="129">
         <f>IF(J8 = "", "", IF(K5 = 0, F$1, K5))</f>
         <v>1</v>
       </c>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126" t="str">
+      <c r="L4" s="129"/>
+      <c r="M4" s="129">
         <f>IF(K8 = "", "", IF(M5 = 0, G$1, M5))</f>
-        <v>♯2</v>
-      </c>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126">
+        <v>2</v>
+      </c>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129">
         <f>IF(L8 = "", "", IF(O5 = 0, H$1, O5))</f>
         <v>3</v>
       </c>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126" t="str">
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129">
         <f>IF(M8 = "", "", IF(Q5 = 0, I$1, Q5))</f>
-        <v/>
-      </c>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126">
+        <v>4</v>
+      </c>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129">
         <f>IF(N8 = "", "", IF(S5 = 0, J$1, S5))</f>
         <v>5</v>
       </c>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126" t="str">
+      <c r="T4" s="129"/>
+      <c r="U4" s="129">
         <f>IF(O8 = "", "", IF(U5 = 0, K$1, U5))</f>
-        <v>♯5</v>
-      </c>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126">
+        <v>6</v>
+      </c>
+      <c r="V4" s="129"/>
+      <c r="W4" s="129">
         <f>IF(P8 = "", "", IF(W5 = 0, L$1, W5))</f>
         <v>7</v>
       </c>
-      <c r="X4" s="126"/>
-      <c r="Z4" s="121" t="s">
+      <c r="X4" s="129"/>
+      <c r="Z4" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="AA4" s="121"/>
-      <c r="AB4" s="122" t="b">
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="138" t="b">
         <v>0</v>
       </c>
-      <c r="AC4" s="122"/>
+      <c r="AC4" s="138"/>
     </row>
     <row r="5" spans="1:32" s="60" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="K5" s="127">
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="K5" s="131">
         <f>IFERROR(HLOOKUP(F$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), F$1)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127" t="str">
+      <c r="L5" s="131"/>
+      <c r="M5" s="131">
         <f>IFERROR(HLOOKUP(G$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), G$1)</f>
-        <v>♯2</v>
-      </c>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127">
+        <v>0</v>
+      </c>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131">
         <f>IFERROR(HLOOKUP(H$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), H$1)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127">
+      <c r="P5" s="131"/>
+      <c r="Q5" s="131">
         <f>IFERROR(HLOOKUP(I$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), I$1)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127">
+      <c r="R5" s="131"/>
+      <c r="S5" s="131">
         <f>IFERROR(HLOOKUP(J$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), J$1)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127" t="str">
+      <c r="T5" s="131"/>
+      <c r="U5" s="131">
         <f>IFERROR(HLOOKUP(K$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), K$1)</f>
-        <v>♯5</v>
-      </c>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127">
+        <v>0</v>
+      </c>
+      <c r="V5" s="131"/>
+      <c r="W5" s="131">
         <f>IFERROR(HLOOKUP(L$1, Model!$P$1:$W$17, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), L$1)</f>
         <v>0</v>
       </c>
-      <c r="X5" s="127"/>
-      <c r="Z5" s="121"/>
-      <c r="AA5" s="121"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
+      <c r="X5" s="131"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="137"/>
+      <c r="AB5" s="138"/>
+      <c r="AC5" s="138"/>
     </row>
     <row r="6" spans="1:32" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="K6" s="125" t="str">
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="K6" s="132" t="str">
         <f>IF(K$4="","", J$8 &amp; IFERROR(HLOOKUP(F$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), F$1))</f>
-        <v>C+M7</v>
-      </c>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125" t="str">
+        <v>CM7</v>
+      </c>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132" t="str">
         <f>IF(M$4="","", K$8 &amp; IFERROR(HLOOKUP(G$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), G$1))</f>
-        <v>D♯4♭♭7</v>
-      </c>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125" t="str">
+        <v>Dm7</v>
+      </c>
+      <c r="N6" s="132"/>
+      <c r="O6" s="132" t="str">
         <f>IF(O$4="","", L$8 &amp; IFERROR(HLOOKUP(H$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), H$1))</f>
-        <v>EM7</v>
-      </c>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125" t="str">
+        <v>Em7</v>
+      </c>
+      <c r="P6" s="132"/>
+      <c r="Q6" s="132" t="str">
         <f>IF(Q$4="","", M$8 &amp; IFERROR(HLOOKUP(I$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), I$1))</f>
-        <v/>
-      </c>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125" t="str">
+        <v>FM7</v>
+      </c>
+      <c r="R6" s="132"/>
+      <c r="S6" s="132" t="str">
         <f>IF(S$4="","", N$8 &amp; IFERROR(HLOOKUP(J$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), J$1))</f>
-        <v>G+</v>
-      </c>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125" t="str">
+        <v>G7</v>
+      </c>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132" t="str">
         <f>IF(U$4="","", O$8 &amp; IFERROR(HLOOKUP(K$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), K$1))</f>
-        <v>G♯m</v>
-      </c>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125" t="str">
+        <v>Am7</v>
+      </c>
+      <c r="V6" s="132"/>
+      <c r="W6" s="132" t="str">
         <f>IF(W$4="","", P$8 &amp; IFERROR(HLOOKUP(L$1, Model!$P$20:$W$36, MATCH($B$19, Model!$P$2:$P$20, 0) + 1), L$1))</f>
-        <v>B6</v>
-      </c>
-      <c r="X6" s="125"/>
-      <c r="Z6" s="121"/>
-      <c r="AA6" s="121"/>
-      <c r="AB6" s="122"/>
-      <c r="AC6" s="122"/>
+        <v>Bm7ø</v>
+      </c>
+      <c r="X6" s="132"/>
+      <c r="Z6" s="137"/>
+      <c r="AA6" s="137"/>
+      <c r="AB6" s="138"/>
+      <c r="AC6" s="138"/>
     </row>
     <row r="7" spans="1:32" s="61" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
       <c r="J7" s="95"/>
       <c r="K7" s="95"/>
       <c r="L7" s="95"/>
@@ -3571,29 +3571,29 @@
       <c r="N7" s="95"/>
       <c r="O7" s="95"/>
       <c r="P7" s="95"/>
-      <c r="Z7" s="121"/>
-      <c r="AA7" s="121"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="122"/>
+      <c r="Z7" s="137"/>
+      <c r="AA7" s="137"/>
+      <c r="AB7" s="138"/>
+      <c r="AC7" s="138"/>
     </row>
     <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="130" t="s">
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="130"/>
+      <c r="I8" s="135"/>
       <c r="J8" s="73" t="str">
         <f>Model!I24</f>
         <v>C</v>
       </c>
       <c r="K8" s="74" t="str">
         <f>IF(Model!I22=0, "", Model!J24)</f>
-        <v>D♯</v>
+        <v>D</v>
       </c>
       <c r="L8" s="75" t="str">
         <f>IF(Model!J22=0, "", Model!K24)</f>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="M8" s="76" t="str">
         <f>IF(Model!K22=0, "", Model!L24)</f>
-        <v/>
+        <v>F</v>
       </c>
       <c r="N8" s="77" t="str">
         <f>IF(Model!L22=0, "", Model!M24)</f>
@@ -3609,49 +3609,49 @@
       </c>
       <c r="O8" s="78" t="str">
         <f>IF(Model!M22=0, "", Model!N24)</f>
-        <v>G♯</v>
+        <v>A</v>
       </c>
       <c r="P8" s="79" t="str">
         <f>IF(Model!N22=0, "", Model!O24)</f>
         <v>B</v>
       </c>
-      <c r="S8" s="131" t="s">
+      <c r="S8" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="131"/>
-      <c r="U8" s="131"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
       <c r="V8" s="98" t="str">
         <f>IF(Model!I22=1, "h", IF(Model!I22=2, "W", IF(Model!I22=3, "W+h", IF(Model!I22=4, "WW", IF(Model!I22=0, "", Model!I22)))))</f>
-        <v>W+h</v>
+        <v>W</v>
       </c>
       <c r="W8" s="80" t="str">
         <f>IF(Model!J22=1, "h", IF(Model!J22=2, "W", IF(Model!J22=3, "W+h", IF(Model!J22=4, "WW", IF(Model!J22=0, "", Model!J22)))))</f>
-        <v>h</v>
+        <v>W</v>
       </c>
       <c r="X8" s="81" t="str">
         <f>IF(Model!K22=1, "h", IF(Model!K22=2, "W", IF(Model!K22=3, "W+h", IF(Model!K22=4, "WW", IF(Model!K22=0, "", Model!K22)))))</f>
-        <v/>
+        <v>h</v>
       </c>
       <c r="Y8" s="82" t="str">
         <f>IF(Model!L22=1, "h", IF(Model!L22=2, "W", IF(Model!L22=3, "W+h",IF(Model!L22=4, "WW", IF(Model!L22=0, "", Model!L22)))))</f>
-        <v>W+h</v>
+        <v>W</v>
       </c>
       <c r="Z8" s="83" t="str">
         <f>IF(Model!M22=1, "h", IF(Model!M22=2, "W", IF(Model!M22=3, "W+h",IF(Model!M22=4, "WW", IF(Model!M22=0, "", Model!M22)))))</f>
-        <v>h</v>
+        <v>W</v>
       </c>
       <c r="AA8" s="84" t="str">
         <f>IF(Model!N22=1, "h", IF(Model!N22=2, "W", IF(Model!N22=3, "W+h", IF(Model!N22=4, "WW", IF(Model!N22=0, "", Model!N22)))))</f>
-        <v>W+h</v>
+        <v>W</v>
       </c>
       <c r="AB8" s="85" t="str">
         <f>IF(Model!O22=1, "h", IF(Model!O22=2, "W", IF(Model!O22=3, "W+h",IF(Model!O22=4, "WW", IF(Model!O22=0, "", Model!O22)))))</f>
         <v>h</v>
       </c>
-      <c r="AE8" s="124" t="s">
+      <c r="AE8" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="AF8" s="124"/>
+      <c r="AF8" s="140"/>
     </row>
     <row r="9" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="93" t="s">
@@ -3769,7 +3769,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="139" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="64" t="s">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="F10" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F : 4</v>
       </c>
       <c r="G10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -3797,11 +3797,11 @@
       </c>
       <c r="I10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>G♯ : ♯5</v>
+        <v/>
       </c>
       <c r="J10" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="K10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -3821,11 +3821,11 @@
       </c>
       <c r="O10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="P10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D♯ : ♯2</v>
+        <v/>
       </c>
       <c r="Q10" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="R10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F : 4</v>
       </c>
       <c r="S10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -3845,11 +3845,11 @@
       </c>
       <c r="U10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>G♯ : ♯5</v>
+        <v/>
       </c>
       <c r="V10" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="W10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -3869,11 +3869,11 @@
       </c>
       <c r="AA10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="AB10" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D♯ : ♯2</v>
+        <v/>
       </c>
       <c r="AC10" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -3888,7 +3888,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="123"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="64" t="s">
         <v>16</v>
       </c>
@@ -3910,11 +3910,11 @@
       </c>
       <c r="H11" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="I11" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D♯ : ♯2</v>
+        <v/>
       </c>
       <c r="J11" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="K11" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F : 4</v>
       </c>
       <c r="L11" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -3934,11 +3934,11 @@
       </c>
       <c r="N11" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>G♯ : ♯5</v>
+        <v/>
       </c>
       <c r="O11" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="P11" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -3958,11 +3958,11 @@
       </c>
       <c r="T11" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="U11" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D♯ : ♯2</v>
+        <v/>
       </c>
       <c r="V11" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="W11" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F : 4</v>
       </c>
       <c r="X11" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="Z11" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>G♯ : ♯5</v>
+        <v/>
       </c>
       <c r="AA11" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="AB11" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4001,11 +4001,11 @@
       </c>
       <c r="AF11" s="115" t="b">
         <f>HLOOKUP(G$1, Model!$I$41:$O$57, MATCH($B$19, Model!$H$41:$H$57, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="123"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="64" t="s">
         <v>15</v>
       </c>
@@ -4019,11 +4019,11 @@
       </c>
       <c r="F12" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>G♯ : ♯5</v>
+        <v/>
       </c>
       <c r="G12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="H12" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4043,11 +4043,11 @@
       </c>
       <c r="L12" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="M12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D♯ : ♯2</v>
+        <v/>
       </c>
       <c r="N12" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="O12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F : 4</v>
       </c>
       <c r="P12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4067,11 +4067,11 @@
       </c>
       <c r="R12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>G♯ : ♯5</v>
+        <v/>
       </c>
       <c r="S12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="T12" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4091,11 +4091,11 @@
       </c>
       <c r="X12" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="Y12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D♯ : ♯2</v>
+        <v/>
       </c>
       <c r="Z12" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="AA12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F : 4</v>
       </c>
       <c r="AB12" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4122,7 +4122,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="123"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="64" t="s">
         <v>12</v>
       </c>
@@ -4132,11 +4132,11 @@
       </c>
       <c r="E13" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="F13" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D♯ : ♯2</v>
+        <v/>
       </c>
       <c r="G13" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="H13" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F : 4</v>
       </c>
       <c r="I13" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4156,11 +4156,11 @@
       </c>
       <c r="K13" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>G♯ : ♯5</v>
+        <v/>
       </c>
       <c r="L13" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="M13" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4180,11 +4180,11 @@
       </c>
       <c r="Q13" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="R13" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D♯ : ♯2</v>
+        <v/>
       </c>
       <c r="S13" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="T13" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F : 4</v>
       </c>
       <c r="U13" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4204,11 +4204,11 @@
       </c>
       <c r="W13" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>G♯ : ♯5</v>
+        <v/>
       </c>
       <c r="X13" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="Y13" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="AC13" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="AE13" s="89" t="s">
         <v>6</v>
@@ -4239,7 +4239,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="123"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="64" t="s">
         <v>14</v>
       </c>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="E14" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+E$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="F14" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4269,11 +4269,11 @@
       </c>
       <c r="J14" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="K14" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D♯ : ♯2</v>
+        <v/>
       </c>
       <c r="L14" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="M14" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F : 4</v>
       </c>
       <c r="N14" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4293,11 +4293,11 @@
       </c>
       <c r="P14" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>G♯ : ♯5</v>
+        <v/>
       </c>
       <c r="Q14" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="R14" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4317,11 +4317,11 @@
       </c>
       <c r="V14" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="W14" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D♯ : ♯2</v>
+        <v/>
       </c>
       <c r="X14" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="Y14" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F : 4</v>
       </c>
       <c r="Z14" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4341,22 +4341,22 @@
       </c>
       <c r="AB14" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>G♯ : ♯5</v>
+        <v/>
       </c>
       <c r="AC14" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="AE14" s="89" t="s">
         <v>7</v>
       </c>
       <c r="AF14" s="115" t="b">
         <f>HLOOKUP(J$1, Model!$I$41:$O$57, MATCH($B$19, Model!$H$41:$H$57, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:32" s="63" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="133" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="64" t="s">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="F15" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F : 4</v>
       </c>
       <c r="G15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4384,11 +4384,11 @@
       </c>
       <c r="I15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>G♯ : ♯5</v>
+        <v/>
       </c>
       <c r="J15" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="K15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4408,11 +4408,11 @@
       </c>
       <c r="O15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="P15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D♯ : ♯2</v>
+        <v/>
       </c>
       <c r="Q15" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="R15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>F : 4</v>
       </c>
       <c r="S15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4432,11 +4432,11 @@
       </c>
       <c r="U15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>G♯ : ♯5</v>
+        <v/>
       </c>
       <c r="V15" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="W15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4456,11 +4456,11 @@
       </c>
       <c r="AA15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="AB15" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
-        <v>D♯ : ♯2</v>
+        <v/>
       </c>
       <c r="AC15" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$21, 2), "")</f>
@@ -4471,11 +4471,11 @@
       </c>
       <c r="AF15" s="115" t="b">
         <f>HLOOKUP(K$1, Model!$I$41:$O$57, MATCH($B$19, Model!$H$41:$H$57, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:32" s="63" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="128"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="64" t="s">
         <v>16</v>
       </c>
@@ -4497,11 +4497,11 @@
       </c>
       <c r="H16" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+H$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="I16" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+I$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>D♯ : 2</v>
+        <v/>
       </c>
       <c r="J16" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+J$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="K16" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+K$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+K$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>F : 4</v>
       </c>
       <c r="L16" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+L$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4521,11 +4521,11 @@
       </c>
       <c r="N16" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+N$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>G♯ : 6</v>
+        <v/>
       </c>
       <c r="O16" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+O$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="P16" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+P$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4545,11 +4545,11 @@
       </c>
       <c r="T16" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+T$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="U16" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+U$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>D♯ : 2</v>
+        <v/>
       </c>
       <c r="V16" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+V$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="W16" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+W$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+W$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>F : 4</v>
       </c>
       <c r="X16" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+X$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4569,11 +4569,11 @@
       </c>
       <c r="Z16" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+Z$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>G♯ : 6</v>
+        <v/>
       </c>
       <c r="AA16" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+AA$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="AB16" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D16+AB$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4587,7 +4587,7 @@
       <c r="AF16" s="116"/>
     </row>
     <row r="17" spans="2:32" s="63" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="128"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="64" t="s">
         <v>32</v>
       </c>
@@ -4605,11 +4605,11 @@
       </c>
       <c r="G17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+G$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>G♯ : 6</v>
+        <v/>
       </c>
       <c r="H17" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+H$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="I17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+I$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4629,11 +4629,11 @@
       </c>
       <c r="M17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+M$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="N17" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+N$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>D♯ : 2</v>
+        <v/>
       </c>
       <c r="O17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+O$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+O$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="P17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+P$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+P$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>F : 4</v>
       </c>
       <c r="Q17" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Q$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+Q$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4653,11 +4653,11 @@
       </c>
       <c r="S17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+S$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>G♯ : 6</v>
+        <v/>
       </c>
       <c r="T17" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+T$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="U17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+U$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4677,11 +4677,11 @@
       </c>
       <c r="Y17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+Y$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="Z17" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+Z$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>D♯ : 2</v>
+        <v/>
       </c>
       <c r="AA17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AA$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+AA$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="AB17" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AB$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+AB$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>F : 4</v>
       </c>
       <c r="AC17" s="58" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AC$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D17+AC$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4699,7 +4699,7 @@
       <c r="AF17" s="116"/>
     </row>
     <row r="18" spans="2:32" s="63" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="128"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="64" t="s">
         <v>30</v>
       </c>
@@ -4713,11 +4713,11 @@
       </c>
       <c r="F18" s="114" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+F$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+F$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="G18" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+G$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+G$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>D♯ : 2</v>
+        <v/>
       </c>
       <c r="H18" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+H$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+H$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="I18" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+I$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+I$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>F : 4</v>
       </c>
       <c r="J18" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+J$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+J$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4737,11 +4737,11 @@
       </c>
       <c r="L18" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+L$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+L$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>G♯ : 6</v>
+        <v/>
       </c>
       <c r="M18" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+M$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+M$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="N18" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+N$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+N$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4761,11 +4761,11 @@
       </c>
       <c r="R18" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+R$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+R$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="S18" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+S$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+S$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>D♯ : 2</v>
+        <v/>
       </c>
       <c r="T18" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+T$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+T$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="U18" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+U$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+U$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>F : 4</v>
       </c>
       <c r="V18" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+V$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+V$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4785,11 +4785,11 @@
       </c>
       <c r="X18" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+X$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+X$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v>G♯ : 6</v>
+        <v/>
       </c>
       <c r="Y18" s="56" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+Y$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+Y$9, 12), Model!$I$23:$O$23, 0), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="Z18" s="57" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+Z$9, 12), Model!$I$23:$O$23, 0), Model!$I$20:$O$29, 5) &amp; " : " &amp; MATCH(MOD($D18+Z$9, 12), Model!$I$23:$O$23, 0), "")</f>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="19" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="67" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="1"/>
@@ -5010,50 +5010,50 @@
       <c r="AF22" s="60"/>
     </row>
     <row r="23" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="129" t="str">
+      <c r="B23" s="134" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(IF(B38 = "Ionian (Major)", B29 &amp; " Major", IF(B38 = "Aolian (Minor)", B29 &amp; " Minor", B29 &amp; " " &amp; B38)), "#", "♯"), "b", "♭")</f>
         <v>E Pentatonic Minor</v>
       </c>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="K23" s="126">
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="K23" s="129">
         <f>IF(J27 = "", "", IF(K24 = 0, F$1, K24))</f>
         <v>1</v>
       </c>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126" t="str">
+      <c r="L23" s="129"/>
+      <c r="M23" s="129" t="str">
         <f>IF(K27 = "", "", IF(M24 = 0, G$1, M24))</f>
         <v/>
       </c>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126" t="str">
+      <c r="N23" s="129"/>
+      <c r="O23" s="129" t="str">
         <f>IF(L27 = "", "", IF(O24 = 0, H$1, O24))</f>
         <v>♭3</v>
       </c>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126">
+      <c r="P23" s="129"/>
+      <c r="Q23" s="129">
         <f>IF(M27 = "", "", IF(Q24 = 0, I$1, Q24))</f>
         <v>4</v>
       </c>
-      <c r="R23" s="126"/>
-      <c r="S23" s="126">
+      <c r="R23" s="129"/>
+      <c r="S23" s="129">
         <f>IF(N27 = "", "", IF(S24 = 0, J$1, S24))</f>
         <v>5</v>
       </c>
-      <c r="T23" s="126"/>
-      <c r="U23" s="126" t="str">
+      <c r="T23" s="129"/>
+      <c r="U23" s="129" t="str">
         <f>IF(O27 = "", "", IF(U24 = 0, K$1, U24))</f>
         <v/>
       </c>
-      <c r="V23" s="126"/>
-      <c r="W23" s="126" t="str">
+      <c r="V23" s="129"/>
+      <c r="W23" s="129" t="str">
         <f>IF(P27 = "", "", IF(W24 = 0, L$1, W24))</f>
         <v>♭7</v>
       </c>
-      <c r="X23" s="126"/>
+      <c r="X23" s="129"/>
       <c r="Y23" s="60"/>
       <c r="Z23" s="60"/>
       <c r="AA23" s="60"/>
@@ -5064,47 +5064,47 @@
       <c r="AF23" s="60"/>
     </row>
     <row r="24" spans="2:32" s="59" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="129"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="K24" s="132">
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="K24" s="130">
         <f>IFERROR(HLOOKUP(F$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), F$1)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132">
+      <c r="L24" s="130"/>
+      <c r="M24" s="130">
         <f>IFERROR(HLOOKUP(G$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), G$1)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="132"/>
-      <c r="O24" s="132" t="str">
+      <c r="N24" s="130"/>
+      <c r="O24" s="130" t="str">
         <f>IFERROR(HLOOKUP(H$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), H$1)</f>
         <v>♭3</v>
       </c>
-      <c r="P24" s="132"/>
-      <c r="Q24" s="132">
+      <c r="P24" s="130"/>
+      <c r="Q24" s="130">
         <f>IFERROR(HLOOKUP(I$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), I$1)</f>
         <v>0</v>
       </c>
-      <c r="R24" s="132"/>
-      <c r="S24" s="132">
+      <c r="R24" s="130"/>
+      <c r="S24" s="130">
         <f>IFERROR(HLOOKUP(J$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), J$1)</f>
         <v>0</v>
       </c>
-      <c r="T24" s="132"/>
-      <c r="U24" s="132">
+      <c r="T24" s="130"/>
+      <c r="U24" s="130">
         <f>IFERROR(HLOOKUP(K$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), K$1)</f>
         <v>0</v>
       </c>
-      <c r="V24" s="132"/>
-      <c r="W24" s="132" t="str">
+      <c r="V24" s="130"/>
+      <c r="W24" s="130" t="str">
         <f>IFERROR(HLOOKUP(L$1, Model!$P$1:$W$17, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), L$1)</f>
         <v>♭7</v>
       </c>
-      <c r="X24" s="132"/>
+      <c r="X24" s="130"/>
       <c r="Y24" s="60"/>
       <c r="Z24" s="60"/>
       <c r="AA24" s="60"/>
@@ -5115,47 +5115,47 @@
       <c r="AF24" s="60"/>
     </row>
     <row r="25" spans="2:32" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="K25" s="133" t="str">
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="K25" s="128" t="str">
         <f>IF(K$23="","", J$27 &amp; IFERROR(HLOOKUP(F$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), F$1))</f>
         <v>Em7</v>
       </c>
-      <c r="L25" s="133"/>
-      <c r="M25" s="133" t="str">
+      <c r="L25" s="128"/>
+      <c r="M25" s="128" t="str">
         <f>IF(M$23="","", K$27 &amp; IFERROR(HLOOKUP(G$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), G$1))</f>
         <v/>
       </c>
-      <c r="N25" s="133"/>
-      <c r="O25" s="133" t="str">
+      <c r="N25" s="128"/>
+      <c r="O25" s="128" t="str">
         <f>IF(O$23="","", L$27 &amp; IFERROR(HLOOKUP(H$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), H$1))</f>
         <v>GM</v>
       </c>
-      <c r="P25" s="133"/>
-      <c r="Q25" s="133" t="str">
+      <c r="P25" s="128"/>
+      <c r="Q25" s="128" t="str">
         <f>IF(Q$23="","", M$27 &amp; IFERROR(HLOOKUP(I$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), I$1))</f>
         <v>A5 ♭7</v>
       </c>
-      <c r="R25" s="133"/>
-      <c r="S25" s="133" t="str">
+      <c r="R25" s="128"/>
+      <c r="S25" s="128" t="str">
         <f>IF(S$23="","", N$27 &amp; IFERROR(HLOOKUP(J$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), J$1))</f>
         <v>B5</v>
       </c>
-      <c r="T25" s="133"/>
-      <c r="U25" s="133" t="str">
+      <c r="T25" s="128"/>
+      <c r="U25" s="128" t="str">
         <f>IF(U$23="","", O$27 &amp; IFERROR(HLOOKUP(K$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), K$1))</f>
         <v/>
       </c>
-      <c r="V25" s="133"/>
-      <c r="W25" s="133" t="str">
+      <c r="V25" s="128"/>
+      <c r="W25" s="128" t="str">
         <f>IF(W$23="","", P$27 &amp; IFERROR(HLOOKUP(L$1, Model!$P$20:$W$36, MATCH($B$38, Model!$P$2:$P$20, 0) + 1), L$1))</f>
         <v>D5</v>
       </c>
-      <c r="X25" s="133"/>
+      <c r="X25" s="128"/>
       <c r="Y25" s="60"/>
       <c r="Z25" s="60"/>
       <c r="AA25" s="60"/>
@@ -5166,12 +5166,12 @@
       <c r="AF25" s="60"/>
     </row>
     <row r="26" spans="2:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
       <c r="H26" s="61"/>
       <c r="I26" s="61"/>
       <c r="J26" s="94"/>
@@ -5199,16 +5199,16 @@
       <c r="AF26" s="61"/>
     </row>
     <row r="27" spans="2:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="130" t="s">
+      <c r="B27" s="134"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="130"/>
+      <c r="I27" s="135"/>
       <c r="J27" s="73" t="str">
         <f>Model!I29</f>
         <v>E</v>
@@ -5237,11 +5237,11 @@
         <f>IF(Model!N29=0, "", Model!O29)</f>
         <v>D</v>
       </c>
-      <c r="S27" s="131" t="s">
+      <c r="S27" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="T27" s="131"/>
-      <c r="U27" s="131"/>
+      <c r="T27" s="136"/>
+      <c r="U27" s="136"/>
       <c r="V27" s="98" t="str">
         <f>IF(Model!I27=1, "h", IF(Model!I27=2, "W", IF(Model!I27=3, "W+h", IF(Model!I27=4, "WW", IF(Model!I27=0, "", Model!I22)))))</f>
         <v/>
@@ -5270,10 +5270,10 @@
         <f>IF(Model!O27=1, "h", IF(Model!O27=2, "W", IF(Model!O27=3, "W+h", IF(Model!O27=4, "WW", IF(Model!O27=0, "", Model!O22)))))</f>
         <v>W</v>
       </c>
-      <c r="AE27" s="124" t="s">
+      <c r="AE27" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="AF27" s="124"/>
+      <c r="AF27" s="140"/>
     </row>
     <row r="28" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="93" t="s">
@@ -5391,7 +5391,7 @@
       </c>
     </row>
     <row r="29" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="139" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="64" t="s">
@@ -5511,7 +5511,7 @@
       </c>
     </row>
     <row r="30" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="123"/>
+      <c r="B30" s="139"/>
       <c r="C30" s="64" t="s">
         <v>16</v>
       </c>
@@ -5629,7 +5629,7 @@
       </c>
     </row>
     <row r="31" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="123"/>
+      <c r="B31" s="139"/>
       <c r="C31" s="64" t="s">
         <v>15</v>
       </c>
@@ -5747,7 +5747,7 @@
       </c>
     </row>
     <row r="32" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="123"/>
+      <c r="B32" s="139"/>
       <c r="C32" s="64" t="s">
         <v>12</v>
       </c>
@@ -5865,7 +5865,7 @@
       </c>
     </row>
     <row r="33" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="123"/>
+      <c r="B33" s="139"/>
       <c r="C33" s="64" t="s">
         <v>14</v>
       </c>
@@ -5983,7 +5983,7 @@
       </c>
     </row>
     <row r="34" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="128" t="s">
+      <c r="B34" s="133" t="s">
         <v>58</v>
       </c>
       <c r="C34" s="64" t="s">
@@ -6103,7 +6103,7 @@
       </c>
     </row>
     <row r="35" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="128"/>
+      <c r="B35" s="133"/>
       <c r="C35" s="64" t="s">
         <v>16</v>
       </c>
@@ -6216,7 +6216,7 @@
       <c r="AF35" s="116"/>
     </row>
     <row r="36" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="128"/>
+      <c r="B36" s="133"/>
       <c r="C36" s="64" t="s">
         <v>32</v>
       </c>
@@ -6329,7 +6329,7 @@
       <c r="AF36" s="116"/>
     </row>
     <row r="37" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="128"/>
+      <c r="B37" s="133"/>
       <c r="C37" s="64" t="s">
         <v>30</v>
       </c>
@@ -6588,30 +6588,22 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Z4:AA7"/>
+    <mergeCell ref="AB4:AC7"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B23:G27"/>
     <mergeCell ref="H27:I27"/>
@@ -6628,22 +6620,30 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Z4:AA7"/>
-    <mergeCell ref="AB4:AC7"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
   </mergeCells>
   <conditionalFormatting sqref="AB4 AF10:AF19">
     <cfRule type="expression" dxfId="126" priority="548">
@@ -7151,10 +7151,10 @@
         <v>94</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="136" t="s">
+      <c r="F1" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="137"/>
+      <c r="G1" s="144"/>
       <c r="H1" s="107" t="s">
         <v>19</v>
       </c>
@@ -7430,10 +7430,10 @@
       <c r="D3" s="11">
         <v>10</v>
       </c>
-      <c r="F3" s="134" t="s">
+      <c r="F3" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="135"/>
+      <c r="G3" s="142"/>
       <c r="H3" s="14" t="s">
         <v>59</v>
       </c>
@@ -7563,7 +7563,7 @@
       </c>
       <c r="G4" s="9" t="str">
         <f>Fretboards!B19</f>
-        <v>Augmented</v>
+        <v>Ionian (Major)</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>171</v>
@@ -7678,10 +7678,10 @@
       <c r="D5" s="11">
         <v>8</v>
       </c>
-      <c r="F5" s="134" t="s">
+      <c r="F5" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="135"/>
+      <c r="G5" s="142"/>
       <c r="H5" s="14" t="s">
         <v>172</v>
       </c>
@@ -9367,9 +9367,9 @@
         <f>IF(VLOOKUP($G$4,$P$2:$W$17, 1+I20, FALSE) = 0, I20, VLOOKUP($G$4,$P$2:$W$17, 1+I20, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="J21" s="9" t="str">
+      <c r="J21" s="9">
         <f t="shared" ref="J21:O21" si="0">IF(VLOOKUP($G$4,$P$2:$W$17, 1+J20, FALSE) = 0, J20, VLOOKUP($G$4,$P$2:$W$17, 1+J20, FALSE))</f>
-        <v>♯2</v>
+        <v>2</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="0"/>
@@ -9383,9 +9383,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N21" s="9" t="str">
+      <c r="N21" s="9">
         <f t="shared" si="0"/>
-        <v>♯5</v>
+        <v>6</v>
       </c>
       <c r="O21" s="9">
         <f t="shared" si="0"/>
@@ -9394,25 +9394,25 @@
       <c r="P21" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="Q21" s="139" t="s">
+      <c r="Q21" s="122" t="s">
         <v>183</v>
       </c>
-      <c r="R21" s="139" t="s">
+      <c r="R21" s="122" t="s">
         <v>194</v>
       </c>
-      <c r="S21" s="139" t="s">
+      <c r="S21" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="T21" s="138" t="s">
+      <c r="T21" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="U21" s="138" t="s">
+      <c r="U21" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="V21" s="139" t="s">
+      <c r="V21" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="W21" s="140">
+      <c r="W21" s="123">
         <v>7</v>
       </c>
     </row>
@@ -9431,27 +9431,27 @@
       </c>
       <c r="I22" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$2:$O$17,  Model!I20 + 1, FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$2:$O$17,  Model!J20 + 1, FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$2:$O$17,  Model!K20 + 1, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$2:$O$17,  Model!L20 + 1, FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$2:$O$17,  Model!M20 + 1, FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$2:$O$17,  Model!N20 + 1, FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O22" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$2:$O$17,  Model!O20 + 1, FALSE)</f>
@@ -9460,23 +9460,23 @@
       <c r="P22" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="Q22" s="139" t="s">
+      <c r="Q22" s="122" t="s">
         <v>183</v>
       </c>
-      <c r="R22" s="139"/>
-      <c r="S22" s="139" t="s">
+      <c r="R22" s="122"/>
+      <c r="S22" s="122" t="s">
         <v>182</v>
       </c>
-      <c r="T22" s="139" t="s">
+      <c r="T22" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="U22" s="139" t="s">
+      <c r="U22" s="122" t="s">
         <v>183</v>
       </c>
-      <c r="V22" s="139" t="s">
+      <c r="V22" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="W22" s="140" t="s">
+      <c r="W22" s="123" t="s">
         <v>183</v>
       </c>
     </row>
@@ -9499,15 +9499,15 @@
       </c>
       <c r="J23" s="9">
         <f t="shared" ref="J23:O23" si="1">IFERROR(VLOOKUP(SUBSTITUTE(SUBSTITUTE(J24, "♭", "b"), "♯","#"), $B$2:$D$41, 3, FALSE), "")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L23" s="9" t="str">
+      <c r="L23" s="9">
         <f t="shared" si="1"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="1"/>
@@ -9515,7 +9515,7 @@
       </c>
       <c r="N23" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O23" s="9">
         <f t="shared" si="1"/>
@@ -9524,19 +9524,19 @@
       <c r="P23" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="Q23" s="139" t="s">
+      <c r="Q23" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="R23" s="139"/>
-      <c r="S23" s="138" t="s">
+      <c r="R23" s="122"/>
+      <c r="S23" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="T23" s="138"/>
-      <c r="U23" s="138">
+      <c r="T23" s="121"/>
+      <c r="U23" s="121">
         <v>7</v>
       </c>
-      <c r="V23" s="138"/>
-      <c r="W23" s="141" t="s">
+      <c r="V23" s="121"/>
+      <c r="W23" s="124" t="s">
         <v>194</v>
       </c>
     </row>
@@ -9559,7 +9559,7 @@
       </c>
       <c r="J24" s="9" t="str">
         <f>IF(I22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(J21, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:I22) + 1))</f>
-        <v>D♯</v>
+        <v>D</v>
       </c>
       <c r="K24" s="9" t="str">
         <f>IF(J22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(K21, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:J22) + 1))</f>
@@ -9567,7 +9567,7 @@
       </c>
       <c r="L24" s="9" t="str">
         <f>IF(K22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(L21, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:K22) + 1))</f>
-        <v/>
+        <v>F</v>
       </c>
       <c r="M24" s="9" t="str">
         <f>IF(L22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(M21, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:L22) + 1))</f>
@@ -9575,7 +9575,7 @@
       </c>
       <c r="N24" s="9" t="str">
         <f>IF(M22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(N21, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:M22) + 1))</f>
-        <v>G♯</v>
+        <v>A</v>
       </c>
       <c r="O24" s="9" t="str">
         <f>IF(N22=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$41, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(O21, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$41, 3, FALSE) + SUM($H$22:N22) + 1))</f>
@@ -9584,19 +9584,19 @@
       <c r="P24" s="103" t="s">
         <v>172</v>
       </c>
-      <c r="Q24" s="139" t="s">
+      <c r="Q24" s="122" t="s">
         <v>183</v>
       </c>
-      <c r="R24" s="139"/>
-      <c r="S24" s="139" t="s">
+      <c r="R24" s="122"/>
+      <c r="S24" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="T24" s="138"/>
-      <c r="U24" s="138" t="s">
+      <c r="T24" s="121"/>
+      <c r="U24" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="V24" s="139"/>
-      <c r="W24" s="140">
+      <c r="V24" s="122"/>
+      <c r="W24" s="123">
         <v>7</v>
       </c>
     </row>
@@ -9637,19 +9637,19 @@
       <c r="P25" s="103" t="s">
         <v>173</v>
       </c>
-      <c r="Q25" s="139" t="s">
+      <c r="Q25" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="R25" s="139"/>
-      <c r="S25" s="139" t="s">
+      <c r="R25" s="122"/>
+      <c r="S25" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="T25" s="139"/>
-      <c r="U25" s="139" t="s">
+      <c r="T25" s="122"/>
+      <c r="U25" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="V25" s="139"/>
-      <c r="W25" s="140" t="s">
+      <c r="V25" s="122"/>
+      <c r="W25" s="123" t="s">
         <v>186</v>
       </c>
     </row>
@@ -9697,23 +9697,23 @@
       <c r="P26" s="103" t="s">
         <v>197</v>
       </c>
-      <c r="Q26" s="138" t="s">
+      <c r="Q26" s="121" t="s">
         <v>203</v>
       </c>
-      <c r="R26" s="139" t="s">
+      <c r="R26" s="122" t="s">
         <v>201</v>
       </c>
-      <c r="S26" s="139" t="s">
+      <c r="S26" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="T26" s="138"/>
-      <c r="U26" s="138" t="s">
+      <c r="T26" s="121"/>
+      <c r="U26" s="121" t="s">
         <v>198</v>
       </c>
-      <c r="V26" s="138" t="s">
+      <c r="V26" s="121" t="s">
         <v>202</v>
       </c>
-      <c r="W26" s="141">
+      <c r="W26" s="124">
         <v>6</v>
       </c>
     </row>
@@ -9761,25 +9761,25 @@
       <c r="P27" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="139" t="s">
+      <c r="Q27" s="122" t="s">
         <v>183</v>
       </c>
-      <c r="R27" s="139" t="s">
+      <c r="R27" s="122" t="s">
         <v>183</v>
       </c>
-      <c r="S27" s="139" t="s">
+      <c r="S27" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="T27" s="138">
+      <c r="T27" s="121">
         <v>7</v>
       </c>
-      <c r="U27" s="138" t="s">
+      <c r="U27" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="V27" s="138" t="s">
+      <c r="V27" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="W27" s="140" t="s">
+      <c r="W27" s="123" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9827,25 +9827,25 @@
       <c r="P28" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="Q28" s="138" t="s">
+      <c r="Q28" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="R28" s="139" t="s">
+      <c r="R28" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="S28" s="139" t="s">
+      <c r="S28" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="T28" s="139" t="s">
+      <c r="T28" s="122" t="s">
         <v>183</v>
       </c>
-      <c r="U28" s="139">
+      <c r="U28" s="122">
         <v>7</v>
       </c>
-      <c r="V28" s="139" t="s">
+      <c r="V28" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="W28" s="140" t="s">
+      <c r="W28" s="123" t="s">
         <v>186</v>
       </c>
     </row>
@@ -9893,25 +9893,25 @@
       <c r="P29" s="103" t="s">
         <v>170</v>
       </c>
-      <c r="Q29" s="139" t="s">
+      <c r="Q29" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="R29" s="139" t="s">
+      <c r="R29" s="122" t="s">
         <v>183</v>
       </c>
-      <c r="S29" s="138" t="s">
+      <c r="S29" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="T29" s="138" t="s">
+      <c r="T29" s="121" t="s">
         <v>184</v>
       </c>
-      <c r="U29" s="138">
+      <c r="U29" s="121">
         <v>7</v>
       </c>
-      <c r="V29" s="138" t="s">
+      <c r="V29" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="W29" s="141" t="s">
+      <c r="W29" s="124" t="s">
         <v>194</v>
       </c>
     </row>
@@ -9928,25 +9928,25 @@
       <c r="P30" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="Q30" s="139" t="s">
+      <c r="Q30" s="122" t="s">
         <v>194</v>
       </c>
-      <c r="R30" s="139" t="s">
+      <c r="R30" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="S30" s="138" t="s">
+      <c r="S30" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="T30" s="138" t="s">
+      <c r="T30" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="U30" s="139" t="s">
+      <c r="U30" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="V30" s="139">
+      <c r="V30" s="122">
         <v>7</v>
       </c>
-      <c r="W30" s="140" t="s">
+      <c r="W30" s="123" t="s">
         <v>183</v>
       </c>
     </row>
@@ -9971,25 +9971,25 @@
       <c r="P31" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="Q31" s="139" t="s">
+      <c r="Q31" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="R31" s="138">
+      <c r="R31" s="121">
         <v>7</v>
       </c>
-      <c r="S31" s="138" t="s">
+      <c r="S31" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="T31" s="138" t="s">
+      <c r="T31" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="U31" s="139" t="s">
+      <c r="U31" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="V31" s="139" t="s">
+      <c r="V31" s="122" t="s">
         <v>183</v>
       </c>
-      <c r="W31" s="141" t="s">
+      <c r="W31" s="124" t="s">
         <v>183</v>
       </c>
     </row>
@@ -10007,25 +10007,25 @@
       <c r="P32" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="Q32" s="138" t="s">
+      <c r="Q32" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="R32" s="138" t="s">
+      <c r="R32" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="S32" s="139" t="s">
+      <c r="S32" s="122" t="s">
         <v>190</v>
       </c>
-      <c r="T32" s="138">
+      <c r="T32" s="121">
         <v>7</v>
       </c>
-      <c r="U32" s="138">
+      <c r="U32" s="121">
         <v>7</v>
       </c>
-      <c r="V32" s="138" t="s">
+      <c r="V32" s="121" t="s">
         <v>187</v>
       </c>
-      <c r="W32" s="141" t="s">
+      <c r="W32" s="124" t="s">
         <v>187</v>
       </c>
     </row>
@@ -10043,25 +10043,25 @@
       <c r="P33" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="Q33" s="138">
+      <c r="Q33" s="121">
         <v>7</v>
       </c>
-      <c r="R33" s="138" t="s">
+      <c r="R33" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="S33" s="138" t="s">
+      <c r="S33" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="T33" s="139" t="s">
+      <c r="T33" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="U33" s="139" t="s">
+      <c r="U33" s="122" t="s">
         <v>183</v>
       </c>
-      <c r="V33" s="138" t="s">
+      <c r="V33" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="W33" s="140" t="s">
+      <c r="W33" s="123" t="s">
         <v>184</v>
       </c>
     </row>
@@ -10079,23 +10079,23 @@
       <c r="P34" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="Q34" s="138" t="s">
+      <c r="Q34" s="121" t="s">
         <v>182</v>
       </c>
-      <c r="R34" s="138" t="s">
+      <c r="R34" s="121" t="s">
         <v>185</v>
       </c>
-      <c r="S34" s="138" t="s">
+      <c r="S34" s="121" t="s">
         <v>191</v>
       </c>
-      <c r="T34" s="139"/>
-      <c r="U34" s="139">
+      <c r="T34" s="122"/>
+      <c r="U34" s="122">
         <v>5</v>
       </c>
-      <c r="V34" s="138" t="s">
+      <c r="V34" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="W34" s="140"/>
+      <c r="W34" s="123"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B35" s="9" t="s">
@@ -10111,21 +10111,21 @@
       <c r="P35" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="Q35" s="138" t="s">
+      <c r="Q35" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="R35" s="139"/>
-      <c r="S35" s="139" t="s">
+      <c r="R35" s="122"/>
+      <c r="S35" s="122" t="s">
         <v>182</v>
       </c>
-      <c r="T35" s="138" t="s">
+      <c r="T35" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="U35" s="139">
+      <c r="U35" s="122">
         <v>5</v>
       </c>
-      <c r="V35" s="139"/>
-      <c r="W35" s="140">
+      <c r="V35" s="122"/>
+      <c r="W35" s="123">
         <v>5</v>
       </c>
     </row>
@@ -10143,25 +10143,25 @@
       <c r="P36" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="Q36" s="142" t="s">
+      <c r="Q36" s="125" t="s">
         <v>183</v>
       </c>
-      <c r="R36" s="142" t="s">
+      <c r="R36" s="125" t="s">
         <v>184</v>
       </c>
-      <c r="S36" s="143">
+      <c r="S36" s="126">
         <v>7</v>
       </c>
-      <c r="T36" s="143" t="s">
+      <c r="T36" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="U36" s="143" t="s">
+      <c r="U36" s="126" t="s">
         <v>194</v>
       </c>
-      <c r="V36" s="142" t="s">
+      <c r="V36" s="125" t="s">
         <v>184</v>
       </c>
-      <c r="W36" s="144" t="s">
+      <c r="W36" s="127" t="s">
         <v>183</v>
       </c>
     </row>

--- a/Shredsheets.xlsx
+++ b/Shredsheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Shredsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72078827-D8E2-4BEE-8FEF-4F33265D6CA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEFB8D9-C5D6-45D6-8566-18C326242B35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="1440" windowWidth="26970" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24810" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fretboards" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <definedName name="ReversedNotes">{"C","B","A#","A","G#","G","F#","F","E","D#","D","C#","C","B","A#","A","G#","G","F#","F","E","D#","D","C#","C"}</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1831,43 +1832,43 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3287,7 +3288,7 @@
   <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3419,160 +3420,160 @@
       <c r="A4" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="136" t="str">
+      <c r="B4" s="138" t="str">
         <f>IF(B19 = "Ionian (Major)", B10 &amp; " Major", IF(B19 = "Aolian (Minor)", B10 &amp; " Minor", B10 &amp; " " &amp; B19))</f>
-        <v>C Major</v>
-      </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="K4" s="131">
-        <f>IF(J8 = "", "", IF(K5 = 0, F$1, K5))</f>
-        <v>1</v>
-      </c>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131">
-        <f>IF(K8 = "", "", IF(M5 = 0, G$1, M5))</f>
-        <v>2</v>
-      </c>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131">
-        <f>IF(L8 = "", "", IF(O5 = 0, H$1, O5))</f>
-        <v>3</v>
-      </c>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131">
-        <f>IF(M8 = "", "", IF(Q5 = 0, I$1, Q5))</f>
+        <v>C Locrian</v>
+      </c>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="K4" s="135">
+        <f>IF(Model!I3="0","",Model!I3)</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135" t="str">
+        <f>IF(Model!J3="0","",Model!J3)</f>
+        <v>♭2</v>
+      </c>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135" t="str">
+        <f>IF(Model!K3="0","",Model!K3)</f>
+        <v>♭3</v>
+      </c>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135">
+        <f>IF(Model!L3="0","",Model!L3)</f>
         <v>4</v>
       </c>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131">
-        <f>IF(N8 = "", "", IF(S5 = 0, J$1, S5))</f>
-        <v>5</v>
-      </c>
-      <c r="T4" s="131"/>
-      <c r="U4" s="131">
-        <f>IF(O8 = "", "", IF(U5 = 0, K$1, U5))</f>
-        <v>6</v>
-      </c>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131">
-        <f>IF(P8 = "", "", IF(W5 = 0, L$1, W5))</f>
-        <v>7</v>
-      </c>
-      <c r="X4" s="131"/>
-      <c r="Z4" s="139" t="s">
+      <c r="R4" s="135"/>
+      <c r="S4" s="135" t="str">
+        <f>IF(Model!M3="0","",Model!M3)</f>
+        <v>♭5</v>
+      </c>
+      <c r="T4" s="135"/>
+      <c r="U4" s="135" t="str">
+        <f>IF(Model!N3="0","",Model!N3)</f>
+        <v>♭6</v>
+      </c>
+      <c r="V4" s="135"/>
+      <c r="W4" s="135" t="str">
+        <f>IF(Model!O3="0","",Model!O3)</f>
+        <v>♭7</v>
+      </c>
+      <c r="X4" s="135"/>
+      <c r="Z4" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="140" t="b">
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="131" t="b">
         <v>0</v>
       </c>
-      <c r="AC4" s="140"/>
+      <c r="AC4" s="131"/>
     </row>
     <row r="5" spans="1:32" s="50" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="K5" s="133">
-        <f>IFERROR(HLOOKUP(F$1, Model!$P$18:$W$41, MATCH($B$19, Model!$P$24:$P$43, 0) + 1), F$1)</f>
-        <v>1</v>
-      </c>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133">
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="K5" s="135">
+        <f>Model!I4</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="135"/>
+      <c r="M5" s="136">
         <f>IFERROR(HLOOKUP(G$1, Model!$P$18:$W$41, MATCH($B$19, Model!$P$24:$P$43, 0) + 1), G$1)</f>
-        <v>2</v>
-      </c>
-      <c r="N5" s="133"/>
-      <c r="O5" s="133">
+        <v>0</v>
+      </c>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136" t="str">
         <f>IFERROR(HLOOKUP(H$1, Model!$P$18:$W$41, MATCH($B$19, Model!$P$24:$P$43, 0) + 1), H$1)</f>
-        <v>3</v>
-      </c>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="133">
+        <v>♭3</v>
+      </c>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136">
         <f>IFERROR(HLOOKUP(I$1, Model!$P$18:$W$41, MATCH($B$19, Model!$P$24:$P$43, 0) + 1), I$1)</f>
-        <v>4</v>
-      </c>
-      <c r="R5" s="133"/>
-      <c r="S5" s="133">
+        <v>0</v>
+      </c>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136">
         <f>IFERROR(HLOOKUP(J$1, Model!$P$18:$W$41, MATCH($B$19, Model!$P$24:$P$43, 0) + 1), J$1)</f>
-        <v>5</v>
-      </c>
-      <c r="T5" s="133"/>
-      <c r="U5" s="133">
+        <v>0</v>
+      </c>
+      <c r="T5" s="136"/>
+      <c r="U5" s="136">
         <f>IFERROR(HLOOKUP(K$1, Model!$P$18:$W$41, MATCH($B$19, Model!$P$24:$P$43, 0) + 1), K$1)</f>
-        <v>6</v>
-      </c>
-      <c r="V5" s="133"/>
-      <c r="W5" s="133">
+        <v>0</v>
+      </c>
+      <c r="V5" s="136"/>
+      <c r="W5" s="136" t="str">
         <f>IFERROR(HLOOKUP(L$1, Model!$P$18:$W$41, MATCH($B$19, Model!$P$24:$P$43, 0) + 1), L$1)</f>
-        <v>7</v>
-      </c>
-      <c r="X5" s="133"/>
-      <c r="Z5" s="139"/>
-      <c r="AA5" s="139"/>
-      <c r="AB5" s="140"/>
-      <c r="AC5" s="140"/>
+        <v>♭7</v>
+      </c>
+      <c r="X5" s="136"/>
+      <c r="Z5" s="130"/>
+      <c r="AA5" s="130"/>
+      <c r="AB5" s="131"/>
+      <c r="AC5" s="131"/>
     </row>
     <row r="6" spans="1:32" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
       <c r="K6" s="134" t="str">
         <f>IF(K$4="","", J$8 &amp; IFERROR(HLOOKUP(F$1, Model!$P$43:$W$65, MATCH($B$19, Model!$P$44:$P$65, 0) + 1), F$1))</f>
-        <v>CM7</v>
+        <v>Cm7ø</v>
       </c>
       <c r="L6" s="134"/>
       <c r="M6" s="134" t="str">
         <f>IF(M$4="","", K$8 &amp; IFERROR(HLOOKUP(G$1, Model!$P$43:$W$65, MATCH($B$19, Model!$P$44:$P$65, 0) + 1), G$1))</f>
-        <v>Dm7</v>
+        <v>D♭M7</v>
       </c>
       <c r="N6" s="134"/>
       <c r="O6" s="134" t="str">
         <f>IF(O$4="","", L$8 &amp; IFERROR(HLOOKUP(H$1, Model!$P$43:$W$65, MATCH($B$19, Model!$P$44:$P$65, 0) + 1), H$1))</f>
-        <v>Em7</v>
+        <v>E♭m7</v>
       </c>
       <c r="P6" s="134"/>
       <c r="Q6" s="134" t="str">
         <f>IF(Q$4="","", M$8 &amp; IFERROR(HLOOKUP(I$1, Model!$P$43:$W$65, MATCH($B$19, Model!$P$44:$P$65, 0) + 1), I$1))</f>
-        <v>FM7</v>
+        <v>Fm7</v>
       </c>
       <c r="R6" s="134"/>
       <c r="S6" s="134" t="str">
         <f>IF(S$4="","", N$8 &amp; IFERROR(HLOOKUP(J$1, Model!$P$43:$W$65, MATCH($B$19, Model!$P$44:$P$65, 0) + 1), J$1))</f>
-        <v>G7</v>
+        <v>G♭M7</v>
       </c>
       <c r="T6" s="134"/>
       <c r="U6" s="134" t="str">
         <f>IF(U$4="","", O$8 &amp; IFERROR(HLOOKUP(K$1, Model!$P$43:$W$65, MATCH($B$19, Model!$P$44:$P$65, 0) + 1), K$1))</f>
-        <v>Am7</v>
+        <v>A♭7</v>
       </c>
       <c r="V6" s="134"/>
       <c r="W6" s="134" t="str">
         <f>IF(W$4="","", P$8 &amp; IFERROR(HLOOKUP(L$1, Model!$P$43:$W$65, MATCH($B$19, Model!$P$44:$P$65, 0) + 1), L$1))</f>
-        <v>Bm7ø</v>
+        <v>B♭m7</v>
       </c>
       <c r="X6" s="134"/>
-      <c r="Z6" s="139"/>
-      <c r="AA6" s="139"/>
-      <c r="AB6" s="140"/>
-      <c r="AC6" s="140"/>
+      <c r="Z6" s="130"/>
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="131"/>
     </row>
     <row r="7" spans="1:32" s="51" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
       <c r="J7" s="85"/>
       <c r="K7" s="85"/>
       <c r="L7" s="85"/>
@@ -3580,33 +3581,33 @@
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
       <c r="P7" s="85"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="139"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="131"/>
+      <c r="AC7" s="131"/>
     </row>
     <row r="8" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="137" t="s">
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="137"/>
+      <c r="I8" s="139"/>
       <c r="J8" s="63" t="str">
         <f>Model!I6</f>
         <v>C</v>
       </c>
       <c r="K8" s="64" t="str">
         <f>IF(Model!I4=0, "", Model!J6)</f>
-        <v>D</v>
+        <v>D♭</v>
       </c>
       <c r="L8" s="65" t="str">
         <f>IF(Model!J4=0, "", Model!K6)</f>
-        <v>E</v>
+        <v>E♭</v>
       </c>
       <c r="M8" s="66" t="str">
         <f>IF(Model!K4=0, "", Model!L6)</f>
@@ -3614,24 +3615,24 @@
       </c>
       <c r="N8" s="67" t="str">
         <f>IF(Model!L4=0, "", Model!M6)</f>
-        <v>G</v>
+        <v>G♭</v>
       </c>
       <c r="O8" s="68" t="str">
         <f>IF(Model!M4=0, "", Model!N6)</f>
-        <v>A</v>
+        <v>A♭</v>
       </c>
       <c r="P8" s="69" t="str">
         <f>IF(Model!N4=0, "", Model!O6)</f>
-        <v>B</v>
-      </c>
-      <c r="S8" s="138" t="s">
+        <v>B♭</v>
+      </c>
+      <c r="S8" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="138"/>
-      <c r="U8" s="138"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="140"/>
       <c r="V8" s="88" t="str">
         <f>IF(Model!I4=1, "h", IF(Model!I4=2, "W", IF(Model!I4=3, "W+h", IF(Model!I4=4, "WW", IF(Model!I4=0, "", Model!I4)))))</f>
-        <v>W</v>
+        <v>h</v>
       </c>
       <c r="W8" s="70" t="str">
         <f>IF(Model!J4=1, "h", IF(Model!J4=2, "W", IF(Model!J4=3, "W+h", IF(Model!J4=4, "WW", IF(Model!J4=0, "", Model!J4)))))</f>
@@ -3639,11 +3640,11 @@
       </c>
       <c r="X8" s="71" t="str">
         <f>IF(Model!K4=1, "h", IF(Model!K4=2, "W", IF(Model!K4=3, "W+h", IF(Model!K4=4, "WW", IF(Model!K4=0, "", Model!K4)))))</f>
-        <v>h</v>
+        <v>W</v>
       </c>
       <c r="Y8" s="72" t="str">
         <f>IF(Model!L4=1, "h", IF(Model!L4=2, "W", IF(Model!L4=3, "W+h",IF(Model!L4=4, "WW", IF(Model!L4=0, "", Model!L4)))))</f>
-        <v>W</v>
+        <v>h</v>
       </c>
       <c r="Z8" s="73" t="str">
         <f>IF(Model!M4=1, "h", IF(Model!M4=2, "W", IF(Model!M4=3, "W+h",IF(Model!M4=4, "WW", IF(Model!M4=0, "", Model!M4)))))</f>
@@ -3655,12 +3656,12 @@
       </c>
       <c r="AB8" s="75" t="str">
         <f>IF(Model!O4=1, "h", IF(Model!O4=2, "W", IF(Model!O4=3, "W+h",IF(Model!O4=4, "WW", IF(Model!O4=0, "", Model!O4)))))</f>
-        <v>h</v>
-      </c>
-      <c r="AE8" s="142" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="142"/>
+        <v>W</v>
+      </c>
+      <c r="AE8" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="133"/>
     </row>
     <row r="9" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="83" t="s">
@@ -3778,7 +3779,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" s="53" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="132" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="54" t="s">
@@ -3790,7 +3791,7 @@
       </c>
       <c r="E10" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E : 3</v>
+        <v/>
       </c>
       <c r="F10" s="91" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -3798,27 +3799,27 @@
       </c>
       <c r="G10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G♭ : ♭5</v>
       </c>
       <c r="H10" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G : 5</v>
+        <v/>
       </c>
       <c r="I10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A♭ : ♭6</v>
       </c>
       <c r="J10" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="K10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B♭ : ♭7</v>
       </c>
       <c r="L10" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B : 7</v>
+        <v/>
       </c>
       <c r="M10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -3826,19 +3827,19 @@
       </c>
       <c r="N10" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D♭ : ♭2</v>
       </c>
       <c r="O10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="P10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E♭ : ♭3</v>
       </c>
       <c r="Q10" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E : 3</v>
+        <v/>
       </c>
       <c r="R10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -3846,27 +3847,27 @@
       </c>
       <c r="S10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G♭ : ♭5</v>
       </c>
       <c r="T10" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G : 5</v>
+        <v/>
       </c>
       <c r="U10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A♭ : ♭6</v>
       </c>
       <c r="V10" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="W10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B♭ : ♭7</v>
       </c>
       <c r="X10" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B : 7</v>
+        <v/>
       </c>
       <c r="Y10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -3874,19 +3875,19 @@
       </c>
       <c r="Z10" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D♭ : ♭2</v>
       </c>
       <c r="AA10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="AB10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E♭ : ♭3</v>
       </c>
       <c r="AC10" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E : 3</v>
+        <v/>
       </c>
       <c r="AE10" s="78" t="s">
         <v>2</v>
@@ -3897,7 +3898,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" s="53" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="141"/>
+      <c r="B11" s="132"/>
       <c r="C11" s="54" t="s">
         <v>15</v>
       </c>
@@ -3907,7 +3908,7 @@
       </c>
       <c r="E11" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B : 7</v>
+        <v/>
       </c>
       <c r="F11" s="91" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -3915,19 +3916,19 @@
       </c>
       <c r="G11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D♭ : ♭2</v>
       </c>
       <c r="H11" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="I11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E♭ : ♭3</v>
       </c>
       <c r="J11" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E : 3</v>
+        <v/>
       </c>
       <c r="K11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -3935,27 +3936,27 @@
       </c>
       <c r="L11" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G♭ : ♭5</v>
       </c>
       <c r="M11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G : 5</v>
+        <v/>
       </c>
       <c r="N11" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A♭ : ♭6</v>
       </c>
       <c r="O11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="P11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B♭ : ♭7</v>
       </c>
       <c r="Q11" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B : 7</v>
+        <v/>
       </c>
       <c r="R11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -3963,19 +3964,19 @@
       </c>
       <c r="S11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D♭ : ♭2</v>
       </c>
       <c r="T11" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="U11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E♭ : ♭3</v>
       </c>
       <c r="V11" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E : 3</v>
+        <v/>
       </c>
       <c r="W11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -3983,38 +3984,38 @@
       </c>
       <c r="X11" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G♭ : ♭5</v>
       </c>
       <c r="Y11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G : 5</v>
+        <v/>
       </c>
       <c r="Z11" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A♭ : ♭6</v>
       </c>
       <c r="AA11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="AB11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B♭ : ♭7</v>
       </c>
       <c r="AC11" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B : 7</v>
+        <v/>
       </c>
       <c r="AE11" s="79" t="s">
         <v>3</v>
       </c>
       <c r="AF11" s="92" t="b">
         <f>HLOOKUP(G$1, Model!$I$43:$O$65, MATCH($B$19, Model!$H$43:$H$65, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:32" s="53" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="141"/>
+      <c r="B12" s="132"/>
       <c r="C12" s="54" t="s">
         <v>14</v>
       </c>
@@ -4024,23 +4025,23 @@
       </c>
       <c r="E12" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G : 5</v>
+        <v/>
       </c>
       <c r="F12" s="91" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A♭ : ♭6</v>
       </c>
       <c r="G12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="H12" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B♭ : ♭7</v>
       </c>
       <c r="I12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B : 7</v>
+        <v/>
       </c>
       <c r="J12" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4048,19 +4049,19 @@
       </c>
       <c r="K12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D♭ : ♭2</v>
       </c>
       <c r="L12" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="M12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E♭ : ♭3</v>
       </c>
       <c r="N12" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E : 3</v>
+        <v/>
       </c>
       <c r="O12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4068,27 +4069,27 @@
       </c>
       <c r="P12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G♭ : ♭5</v>
       </c>
       <c r="Q12" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G : 5</v>
+        <v/>
       </c>
       <c r="R12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A♭ : ♭6</v>
       </c>
       <c r="S12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="T12" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B♭ : ♭7</v>
       </c>
       <c r="U12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B : 7</v>
+        <v/>
       </c>
       <c r="V12" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4096,19 +4097,19 @@
       </c>
       <c r="W12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D♭ : ♭2</v>
       </c>
       <c r="X12" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="Y12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E♭ : ♭3</v>
       </c>
       <c r="Z12" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E : 3</v>
+        <v/>
       </c>
       <c r="AA12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4116,11 +4117,11 @@
       </c>
       <c r="AB12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G♭ : ♭5</v>
       </c>
       <c r="AC12" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G : 5</v>
+        <v/>
       </c>
       <c r="AE12" s="79" t="s">
         <v>4</v>
@@ -4131,7 +4132,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" s="53" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="141"/>
+      <c r="B13" s="132"/>
       <c r="C13" s="54" t="s">
         <v>11</v>
       </c>
@@ -4141,15 +4142,15 @@
       </c>
       <c r="E13" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="F13" s="91" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E♭ : ♭3</v>
       </c>
       <c r="G13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E : 3</v>
+        <v/>
       </c>
       <c r="H13" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4157,27 +4158,27 @@
       </c>
       <c r="I13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G♭ : ♭5</v>
       </c>
       <c r="J13" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G : 5</v>
+        <v/>
       </c>
       <c r="K13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A♭ : ♭6</v>
       </c>
       <c r="L13" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="M13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B♭ : ♭7</v>
       </c>
       <c r="N13" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B : 7</v>
+        <v/>
       </c>
       <c r="O13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4185,19 +4186,19 @@
       </c>
       <c r="P13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D♭ : ♭2</v>
       </c>
       <c r="Q13" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="R13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E♭ : ♭3</v>
       </c>
       <c r="S13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E : 3</v>
+        <v/>
       </c>
       <c r="T13" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4205,27 +4206,27 @@
       </c>
       <c r="U13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G♭ : ♭5</v>
       </c>
       <c r="V13" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G : 5</v>
+        <v/>
       </c>
       <c r="W13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A♭ : ♭6</v>
       </c>
       <c r="X13" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="Y13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B♭ : ♭7</v>
       </c>
       <c r="Z13" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B : 7</v>
+        <v/>
       </c>
       <c r="AA13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4233,11 +4234,11 @@
       </c>
       <c r="AB13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D♭ : ♭2</v>
       </c>
       <c r="AC13" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="AE13" s="79" t="s">
         <v>5</v>
@@ -4248,7 +4249,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" s="53" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="141"/>
+      <c r="B14" s="132"/>
       <c r="C14" s="54" t="s">
         <v>13</v>
       </c>
@@ -4258,15 +4259,15 @@
       </c>
       <c r="E14" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="F14" s="91" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B♭ : ♭7</v>
       </c>
       <c r="G14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B : 7</v>
+        <v/>
       </c>
       <c r="H14" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4274,19 +4275,19 @@
       </c>
       <c r="I14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D♭ : ♭2</v>
       </c>
       <c r="J14" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="K14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E♭ : ♭3</v>
       </c>
       <c r="L14" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E : 3</v>
+        <v/>
       </c>
       <c r="M14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4294,27 +4295,27 @@
       </c>
       <c r="N14" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G♭ : ♭5</v>
       </c>
       <c r="O14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G : 5</v>
+        <v/>
       </c>
       <c r="P14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A♭ : ♭6</v>
       </c>
       <c r="Q14" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="R14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B♭ : ♭7</v>
       </c>
       <c r="S14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B : 7</v>
+        <v/>
       </c>
       <c r="T14" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4322,19 +4323,19 @@
       </c>
       <c r="U14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D♭ : ♭2</v>
       </c>
       <c r="V14" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="W14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E♭ : ♭3</v>
       </c>
       <c r="X14" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E : 3</v>
+        <v/>
       </c>
       <c r="Y14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4342,30 +4343,30 @@
       </c>
       <c r="Z14" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G♭ : ♭5</v>
       </c>
       <c r="AA14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G : 5</v>
+        <v/>
       </c>
       <c r="AB14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A♭ : ♭6</v>
       </c>
       <c r="AC14" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="AE14" s="79" t="s">
         <v>6</v>
       </c>
       <c r="AF14" s="92" t="b">
         <f>HLOOKUP(J$1, Model!$I$43:$O$65, MATCH($B$19, Model!$H$43:$H$65, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:32" s="53" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="137" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="54" t="s">
@@ -4377,7 +4378,7 @@
       </c>
       <c r="E15" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E : 3</v>
+        <v/>
       </c>
       <c r="F15" s="91" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4385,27 +4386,27 @@
       </c>
       <c r="G15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G♭ : ♭5</v>
       </c>
       <c r="H15" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G : 5</v>
+        <v/>
       </c>
       <c r="I15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A♭ : ♭6</v>
       </c>
       <c r="J15" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="K15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B♭ : ♭7</v>
       </c>
       <c r="L15" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B : 7</v>
+        <v/>
       </c>
       <c r="M15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4413,19 +4414,19 @@
       </c>
       <c r="N15" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D♭ : ♭2</v>
       </c>
       <c r="O15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="P15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E♭ : ♭3</v>
       </c>
       <c r="Q15" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E : 3</v>
+        <v/>
       </c>
       <c r="R15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4433,27 +4434,27 @@
       </c>
       <c r="S15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G♭ : ♭5</v>
       </c>
       <c r="T15" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G : 5</v>
+        <v/>
       </c>
       <c r="U15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A♭ : ♭6</v>
       </c>
       <c r="V15" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="W15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B♭ : ♭7</v>
       </c>
       <c r="X15" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B : 7</v>
+        <v/>
       </c>
       <c r="Y15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4461,30 +4462,30 @@
       </c>
       <c r="Z15" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D♭ : ♭2</v>
       </c>
       <c r="AA15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="AB15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E♭ : ♭3</v>
       </c>
       <c r="AC15" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E : 3</v>
+        <v/>
       </c>
       <c r="AE15" s="79" t="s">
         <v>7</v>
       </c>
       <c r="AF15" s="92" t="b">
         <f>HLOOKUP(K$1, Model!$I$43:$O$65, MATCH($B$19, Model!$H$43:$H$65, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:32" s="53" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="135"/>
+      <c r="B16" s="137"/>
       <c r="C16" s="54" t="s">
         <v>15</v>
       </c>
@@ -4494,7 +4495,7 @@
       </c>
       <c r="E16" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B : 7</v>
+        <v/>
       </c>
       <c r="F16" s="91" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4502,19 +4503,19 @@
       </c>
       <c r="G16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D♭ : ♭2</v>
       </c>
       <c r="H16" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="I16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E♭ : ♭3</v>
       </c>
       <c r="J16" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E : 3</v>
+        <v/>
       </c>
       <c r="K16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4522,27 +4523,27 @@
       </c>
       <c r="L16" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G♭ : ♭5</v>
       </c>
       <c r="M16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G : 5</v>
+        <v/>
       </c>
       <c r="N16" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A♭ : ♭6</v>
       </c>
       <c r="O16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="P16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B♭ : ♭7</v>
       </c>
       <c r="Q16" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B : 7</v>
+        <v/>
       </c>
       <c r="R16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4550,19 +4551,19 @@
       </c>
       <c r="S16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D♭ : ♭2</v>
       </c>
       <c r="T16" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="U16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E♭ : ♭3</v>
       </c>
       <c r="V16" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E : 3</v>
+        <v/>
       </c>
       <c r="W16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4570,33 +4571,33 @@
       </c>
       <c r="X16" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G♭ : ♭5</v>
       </c>
       <c r="Y16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G : 5</v>
+        <v/>
       </c>
       <c r="Z16" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A♭ : ♭6</v>
       </c>
       <c r="AA16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="AB16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B♭ : ♭7</v>
       </c>
       <c r="AC16" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B : 7</v>
+        <v/>
       </c>
       <c r="AE16" s="80"/>
       <c r="AF16" s="93"/>
     </row>
     <row r="17" spans="2:32" s="53" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="135"/>
+      <c r="B17" s="137"/>
       <c r="C17" s="54" t="s">
         <v>66</v>
       </c>
@@ -4606,27 +4607,27 @@
       </c>
       <c r="E17" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G♭ : ♭5</v>
       </c>
       <c r="F17" s="91" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G : 5</v>
+        <v/>
       </c>
       <c r="G17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A♭ : ♭6</v>
       </c>
       <c r="H17" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="I17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B♭ : ♭7</v>
       </c>
       <c r="J17" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B : 7</v>
+        <v/>
       </c>
       <c r="K17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4634,19 +4635,19 @@
       </c>
       <c r="L17" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D♭ : ♭2</v>
       </c>
       <c r="M17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="N17" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E♭ : ♭3</v>
       </c>
       <c r="O17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E : 3</v>
+        <v/>
       </c>
       <c r="P17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4654,27 +4655,27 @@
       </c>
       <c r="Q17" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G♭ : ♭5</v>
       </c>
       <c r="R17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G : 5</v>
+        <v/>
       </c>
       <c r="S17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A♭ : ♭6</v>
       </c>
       <c r="T17" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="U17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B♭ : ♭7</v>
       </c>
       <c r="V17" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B : 7</v>
+        <v/>
       </c>
       <c r="W17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4682,19 +4683,19 @@
       </c>
       <c r="X17" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D♭ : ♭2</v>
       </c>
       <c r="Y17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="Z17" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E♭ : ♭3</v>
       </c>
       <c r="AA17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E : 3</v>
+        <v/>
       </c>
       <c r="AB17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4702,13 +4703,13 @@
       </c>
       <c r="AC17" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G♭ : ♭5</v>
       </c>
       <c r="AE17" s="81"/>
       <c r="AF17" s="93"/>
     </row>
     <row r="18" spans="2:32" s="53" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="135"/>
+      <c r="B18" s="137"/>
       <c r="C18" s="54" t="s">
         <v>60</v>
       </c>
@@ -4718,19 +4719,19 @@
       </c>
       <c r="E18" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D♭ : ♭2</v>
       </c>
       <c r="F18" s="91" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="G18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E♭ : ♭3</v>
       </c>
       <c r="H18" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E : 3</v>
+        <v/>
       </c>
       <c r="I18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4738,27 +4739,27 @@
       </c>
       <c r="J18" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G♭ : ♭5</v>
       </c>
       <c r="K18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G : 5</v>
+        <v/>
       </c>
       <c r="L18" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A♭ : ♭6</v>
       </c>
       <c r="M18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="N18" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B♭ : ♭7</v>
       </c>
       <c r="O18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B : 7</v>
+        <v/>
       </c>
       <c r="P18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4766,19 +4767,19 @@
       </c>
       <c r="Q18" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D♭ : ♭2</v>
       </c>
       <c r="R18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D : 2</v>
+        <v/>
       </c>
       <c r="S18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E♭ : ♭3</v>
       </c>
       <c r="T18" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E : 3</v>
+        <v/>
       </c>
       <c r="U18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4786,27 +4787,27 @@
       </c>
       <c r="V18" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G♭ : ♭5</v>
       </c>
       <c r="W18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G : 5</v>
+        <v/>
       </c>
       <c r="X18" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A♭ : ♭6</v>
       </c>
       <c r="Y18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A : 6</v>
+        <v/>
       </c>
       <c r="Z18" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B♭ : ♭7</v>
       </c>
       <c r="AA18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B : 7</v>
+        <v/>
       </c>
       <c r="AB18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4814,14 +4815,14 @@
       </c>
       <c r="AC18" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D♭ : ♭2</v>
       </c>
       <c r="AE18" s="82"/>
       <c r="AF18" s="93"/>
     </row>
     <row r="19" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="57" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="1"/>
@@ -5007,62 +5008,61 @@
     <row r="22" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="56"/>
       <c r="E22" s="60"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="62"/>
-      <c r="AF22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="50"/>
+      <c r="AE22" s="52"/>
     </row>
     <row r="23" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="136" t="str">
+      <c r="B23" s="138" t="str">
         <f>IF(B38 = "Ionian (Major)", B29 &amp; " Major", IF(B38 = "Aolian (Minor)", B29 &amp; " Minor", B29 &amp; " " &amp; B38))</f>
         <v>C Pentatonic Minor</v>
       </c>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="K23" s="131">
-        <f>IF(J27 = "", "", IF(K24 = 0, F$1, K24))</f>
-        <v>1</v>
-      </c>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131" t="str">
-        <f>IF(K27 = "", "", IF(M24 = 0, G$1, M24))</f>
-        <v/>
-      </c>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131">
-        <f>IF(L27 = "", "", IF(O24 = 0, H$1, O24))</f>
-        <v>3</v>
-      </c>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="131" t="str">
-        <f>IF(M27 = "", "", IF(Q24 = 0, I$1, Q24))</f>
-        <v>♯4</v>
-      </c>
-      <c r="R23" s="131"/>
-      <c r="S23" s="131">
-        <f>IF(N27 = "", "", IF(S24 = 0, J$1, S24))</f>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="K23" s="135">
+        <f>IF(Model!I10="0","",Model!I10)</f>
+        <v>1</v>
+      </c>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135" t="str">
+        <f>IF(Model!J10="0","",Model!J10)</f>
+        <v/>
+      </c>
+      <c r="N23" s="135"/>
+      <c r="O23" s="135" t="str">
+        <f>IF(Model!K10="0","",Model!K10)</f>
+        <v>♭3</v>
+      </c>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="135">
+        <f>IF(Model!L10="0","",Model!L10)</f>
+        <v>4</v>
+      </c>
+      <c r="R23" s="135"/>
+      <c r="S23" s="135">
+        <f>IF(Model!M10="0","",Model!M10)</f>
         <v>5</v>
       </c>
-      <c r="T23" s="131"/>
-      <c r="U23" s="131" t="str">
-        <f>IF(O27 = "", "", IF(U24 = 0, K$1, U24))</f>
-        <v/>
-      </c>
-      <c r="V23" s="131"/>
-      <c r="W23" s="131">
-        <f>IF(P27 = "", "", IF(W24 = 0, L$1, W24))</f>
-        <v>7</v>
-      </c>
-      <c r="X23" s="131"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135" t="str">
+        <f>IF(Model!N10="0","",Model!N10)</f>
+        <v/>
+      </c>
+      <c r="V23" s="135"/>
+      <c r="W23" s="135" t="str">
+        <f>IF(Model!O10="0","",Model!O10)</f>
+        <v>♭7</v>
+      </c>
+      <c r="X23" s="135"/>
       <c r="Y23" s="50"/>
       <c r="Z23" s="50"/>
       <c r="AA23" s="50"/>
@@ -5073,47 +5073,47 @@
       <c r="AF23" s="50"/>
     </row>
     <row r="24" spans="2:32" s="49" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="136"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="K24" s="132">
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="K24" s="141">
         <f>IFERROR(HLOOKUP(F$1, Model!$P$18:$W$41, MATCH($B$38, Model!$P$24:$P$43, 0) + 1), F$1)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132">
+      <c r="L24" s="141"/>
+      <c r="M24" s="141">
         <f>IFERROR(HLOOKUP(G$1, Model!$P$18:$W$41, MATCH($B$38, Model!$P$24:$P$43, 0) + 1), G$1)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="132"/>
-      <c r="O24" s="132">
+      <c r="N24" s="141"/>
+      <c r="O24" s="141">
         <f>IFERROR(HLOOKUP(H$1, Model!$P$18:$W$41, MATCH($B$38, Model!$P$24:$P$43, 0) + 1), H$1)</f>
         <v>0</v>
       </c>
-      <c r="P24" s="132"/>
-      <c r="Q24" s="132" t="str">
+      <c r="P24" s="141"/>
+      <c r="Q24" s="141" t="str">
         <f>IFERROR(HLOOKUP(I$1, Model!$P$18:$W$41, MATCH($B$38, Model!$P$24:$P$43, 0) + 1), I$1)</f>
         <v>♯4</v>
       </c>
-      <c r="R24" s="132"/>
-      <c r="S24" s="132">
+      <c r="R24" s="141"/>
+      <c r="S24" s="141">
         <f>IFERROR(HLOOKUP(J$1, Model!$P$18:$W$41, MATCH($B$38, Model!$P$24:$P$43, 0) + 1), J$1)</f>
         <v>0</v>
       </c>
-      <c r="T24" s="132"/>
-      <c r="U24" s="132">
+      <c r="T24" s="141"/>
+      <c r="U24" s="141">
         <f>IFERROR(HLOOKUP(K$1, Model!$P$18:$W$41, MATCH($B$38, Model!$P$24:$P$43, 0) + 1), K$1)</f>
         <v>0</v>
       </c>
-      <c r="V24" s="132"/>
-      <c r="W24" s="132">
+      <c r="V24" s="141"/>
+      <c r="W24" s="141">
         <f>IFERROR(HLOOKUP(L$1, Model!$P$18:$W$41, MATCH($B$38, Model!$P$24:$P$43, 0) + 1), L$1)</f>
         <v>0</v>
       </c>
-      <c r="X24" s="132"/>
+      <c r="X24" s="141"/>
       <c r="Y24" s="50"/>
       <c r="Z24" s="50"/>
       <c r="AA24" s="50"/>
@@ -5124,47 +5124,47 @@
       <c r="AF24" s="50"/>
     </row>
     <row r="25" spans="2:32" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="136"/>
-      <c r="C25" s="136"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
-      <c r="K25" s="130" t="str">
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="K25" s="142" t="str">
         <f>IF(K$23="","", J$27 &amp; IFERROR(HLOOKUP(F$1, Model!$P$43:$W$65, MATCH($B$38, Model!$P$44:$P$65, 0) + 1), F$1))</f>
         <v>Cm7</v>
       </c>
-      <c r="L25" s="130"/>
-      <c r="M25" s="130" t="str">
+      <c r="L25" s="142"/>
+      <c r="M25" s="142" t="str">
         <f>IF(M$23="","", K$27 &amp; IFERROR(HLOOKUP(G$1, Model!$P$43:$W$65, MATCH($B$38, Model!$P$44:$P$65, 0) + 1), G$1))</f>
         <v/>
       </c>
-      <c r="N25" s="130"/>
-      <c r="O25" s="130" t="str">
+      <c r="N25" s="142"/>
+      <c r="O25" s="142" t="str">
         <f>IF(O$23="","", L$27 &amp; IFERROR(HLOOKUP(H$1, Model!$P$43:$W$65, MATCH($B$38, Model!$P$44:$P$65, 0) + 1), H$1))</f>
         <v>E♭M</v>
       </c>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="130" t="str">
+      <c r="P25" s="142"/>
+      <c r="Q25" s="142" t="str">
         <f>IF(Q$23="","", M$27 &amp; IFERROR(HLOOKUP(I$1, Model!$P$43:$W$65, MATCH($B$38, Model!$P$44:$P$65, 0) + 1), I$1))</f>
         <v>F5 ♭7</v>
       </c>
-      <c r="R25" s="130"/>
-      <c r="S25" s="130" t="str">
+      <c r="R25" s="142"/>
+      <c r="S25" s="142" t="str">
         <f>IF(S$23="","", N$27 &amp; IFERROR(HLOOKUP(J$1, Model!$P$43:$W$65, MATCH($B$38, Model!$P$44:$P$65, 0) + 1), J$1))</f>
         <v>G♭3 ♭7</v>
       </c>
-      <c r="T25" s="130"/>
-      <c r="U25" s="130" t="str">
+      <c r="T25" s="142"/>
+      <c r="U25" s="142" t="str">
         <f>IF(U$23="","", O$27 &amp; IFERROR(HLOOKUP(K$1, Model!$P$43:$W$65, MATCH($B$38, Model!$P$44:$P$65, 0) + 1), K$1))</f>
         <v/>
       </c>
-      <c r="V25" s="130"/>
-      <c r="W25" s="130" t="str">
+      <c r="V25" s="142"/>
+      <c r="W25" s="142" t="str">
         <f>IF(W$23="","", P$27 &amp; IFERROR(HLOOKUP(L$1, Model!$P$43:$W$65, MATCH($B$38, Model!$P$44:$P$65, 0) + 1), L$1))</f>
         <v>B♭5</v>
       </c>
-      <c r="X25" s="130"/>
+      <c r="X25" s="142"/>
       <c r="Y25" s="50"/>
       <c r="Z25" s="50"/>
       <c r="AA25" s="50"/>
@@ -5175,12 +5175,12 @@
       <c r="AF25" s="50"/>
     </row>
     <row r="26" spans="2:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="136"/>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="136"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="136"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
       <c r="H26" s="51"/>
       <c r="I26" s="51"/>
       <c r="J26" s="84"/>
@@ -5208,16 +5208,16 @@
       <c r="AF26" s="51"/>
     </row>
     <row r="27" spans="2:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="136"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="137" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="137"/>
+      <c r="I27" s="139"/>
       <c r="J27" s="63" t="str">
         <f>Model!I13</f>
         <v>C</v>
@@ -5246,11 +5246,11 @@
         <f>IF(Model!N13=0, "", Model!O13)</f>
         <v>B♭</v>
       </c>
-      <c r="S27" s="138" t="s">
+      <c r="S27" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="T27" s="138"/>
-      <c r="U27" s="138"/>
+      <c r="T27" s="140"/>
+      <c r="U27" s="140"/>
       <c r="V27" s="88" t="str">
         <f>IF(Model!I11=1, "h", IF(Model!I11=2, "W", IF(Model!I11=3, "W+h", IF(Model!I11=4, "WW", IF(Model!I11=0, "", Model!I4)))))</f>
         <v/>
@@ -5279,10 +5279,10 @@
         <f>IF(Model!O11=1, "h", IF(Model!O11=2, "W", IF(Model!O11=3, "W+h", IF(Model!O11=4, "WW", IF(Model!O11=0, "", Model!O4)))))</f>
         <v>W</v>
       </c>
-      <c r="AE27" s="142" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="142"/>
+      <c r="AE27" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="133"/>
     </row>
     <row r="28" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="83" t="s">
@@ -5400,7 +5400,7 @@
       </c>
     </row>
     <row r="29" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="141" t="s">
+      <c r="B29" s="132" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="54" t="s">
@@ -5520,7 +5520,7 @@
       </c>
     </row>
     <row r="30" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="141"/>
+      <c r="B30" s="132"/>
       <c r="C30" s="54" t="s">
         <v>15</v>
       </c>
@@ -5638,7 +5638,7 @@
       </c>
     </row>
     <row r="31" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="141"/>
+      <c r="B31" s="132"/>
       <c r="C31" s="54" t="s">
         <v>14</v>
       </c>
@@ -5756,7 +5756,7 @@
       </c>
     </row>
     <row r="32" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="141"/>
+      <c r="B32" s="132"/>
       <c r="C32" s="54" t="s">
         <v>11</v>
       </c>
@@ -5874,7 +5874,7 @@
       </c>
     </row>
     <row r="33" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="141"/>
+      <c r="B33" s="132"/>
       <c r="C33" s="54" t="s">
         <v>13</v>
       </c>
@@ -5992,7 +5992,7 @@
       </c>
     </row>
     <row r="34" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="135" t="s">
+      <c r="B34" s="137" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="54" t="s">
@@ -6112,7 +6112,7 @@
       </c>
     </row>
     <row r="35" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="135"/>
+      <c r="B35" s="137"/>
       <c r="C35" s="54" t="s">
         <v>15</v>
       </c>
@@ -6225,7 +6225,7 @@
       <c r="AF35" s="93"/>
     </row>
     <row r="36" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="135"/>
+      <c r="B36" s="137"/>
       <c r="C36" s="54" t="s">
         <v>66</v>
       </c>
@@ -6338,7 +6338,7 @@
       <c r="AF36" s="93"/>
     </row>
     <row r="37" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="135"/>
+      <c r="B37" s="137"/>
       <c r="C37" s="54" t="s">
         <v>60</v>
       </c>
@@ -6597,6 +6597,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B23:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B4:G8"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
     <mergeCell ref="Z4:AA7"/>
     <mergeCell ref="AB4:AC7"/>
     <mergeCell ref="B10:B14"/>
@@ -6613,46 +6653,6 @@
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B23:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B4:G8"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
   </mergeCells>
   <conditionalFormatting sqref="AB4 AF10:AF19">
     <cfRule type="expression" dxfId="126" priority="548">
@@ -7097,7 +7097,7 @@
       <formula>AND($AF$19, SEARCH("7", E10))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB4" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
@@ -7106,7 +7106,7 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Model!$A$2:$A$23</xm:f>
@@ -7130,8 +7130,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BN68"/>
   <sheetViews>
-    <sheetView topLeftCell="E22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -7424,29 +7424,29 @@
         <f>IF(VLOOKUP($G$4,$P$19:$W$40, 1+I2, FALSE) = 0, I2, VLOOKUP($G$4,$P$19:$W$40, 1+I2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="J3" s="9">
-        <f t="shared" ref="J3:O3" si="0">IF(VLOOKUP($G$4,$P$19:$W$40, 1+J2, FALSE) = 0, J2, VLOOKUP($G$4,$P$19:$W$40, 1+J2, FALSE))</f>
-        <v>2</v>
-      </c>
-      <c r="K3" s="9">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="J3" s="9" t="str">
+        <f>IF(I4=0,"",IF(VLOOKUP($G$4,$P$19:$W$40,1+J2,FALSE)=0,J2,VLOOKUP($G$4,$P$19:$W$40,1+J2,FALSE)))</f>
+        <v>♭2</v>
+      </c>
+      <c r="K3" s="9" t="str">
+        <f t="shared" ref="K3:O3" si="0">IF(J4=0,"",IF(VLOOKUP($G$4,$P$19:$W$40,1+K2,FALSE)=0,K2,VLOOKUP($G$4,$P$19:$W$40,1+K2,FALSE)))</f>
+        <v>♭3</v>
       </c>
       <c r="L3" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N3" s="9">
+        <v>♭5</v>
+      </c>
+      <c r="N3" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O3" s="105">
+        <v>♭6</v>
+      </c>
+      <c r="O3" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>♭7</v>
       </c>
       <c r="X3" s="100">
         <v>2</v>
@@ -7533,14 +7533,14 @@
       </c>
       <c r="G4" s="9" t="str">
         <f>Fretboards!B19</f>
-        <v>Ionian (Major)</v>
+        <v>Locrian</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>45</v>
       </c>
       <c r="I4" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$19:$O$40,  Model!I2 + 1, FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$19:$O$40,  Model!J2 + 1, FALSE)</f>
@@ -7548,11 +7548,11 @@
       </c>
       <c r="K4" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$19:$O$40,  Model!K2 + 1, FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$19:$O$40,  Model!L2 + 1, FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$19:$O$40,  Model!M2 + 1, FALSE)</f>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="O4" s="105">
         <f>VLOOKUP(Model!$G$4, Model!$H$19:$O$40,  Model!O2 + 1, FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X4" s="100">
         <v>3</v>
@@ -7658,11 +7658,11 @@
       </c>
       <c r="J5" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="1"/>
@@ -7670,15 +7670,15 @@
       </c>
       <c r="M5" s="9">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O5" s="105">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X5" s="100">
         <v>4</v>
@@ -7774,11 +7774,11 @@
       </c>
       <c r="J6" s="21" t="str">
         <f>IF(I4=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(J3, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$34, 3, FALSE) + SUM($H$4:I4) + 1))</f>
-        <v>D</v>
+        <v>D♭</v>
       </c>
       <c r="K6" s="21" t="str">
         <f>IF(J4=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(K3, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$34, 3, FALSE) + SUM($H$4:J4) + 1))</f>
-        <v>E</v>
+        <v>E♭</v>
       </c>
       <c r="L6" s="21" t="str">
         <f>IF(K4=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(L3, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$34, 3, FALSE) + SUM($H$4:K4) + 1))</f>
@@ -7786,15 +7786,15 @@
       </c>
       <c r="M6" s="21" t="str">
         <f>IF(L4=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(M3, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$34, 3, FALSE) + SUM($H$4:L4) + 1))</f>
-        <v>G</v>
+        <v>G♭</v>
       </c>
       <c r="N6" s="21" t="str">
         <f>IF(M4=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(N3, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$34, 3, FALSE) + SUM($H$4:M4) + 1))</f>
-        <v>A</v>
+        <v>A♭</v>
       </c>
       <c r="O6" s="107" t="str">
         <f>IF(N4=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(O3, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$34, 3, FALSE) + SUM($H$4:N4) + 1))</f>
-        <v>B</v>
+        <v>B♭</v>
       </c>
       <c r="X6" s="100">
         <v>5</v>
@@ -8205,12 +8205,12 @@
         <f>IF(VLOOKUP($G$6,$P$19:$W$40, 1+I2, FALSE) = 0, I2, VLOOKUP($G$6,$P$19:$W$40, 1+I2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="J10" s="9">
-        <f t="shared" ref="J10:O10" si="2">IF(VLOOKUP($G$6,$P$19:$W$40, 1+J2, FALSE) = 0, J2, VLOOKUP($G$6,$P$19:$W$40, 1+J2, FALSE))</f>
-        <v>2</v>
+      <c r="J10" s="9" t="str">
+        <f>IF(I11=0,"",IF(VLOOKUP($G$6,$P$19:$W$40,1+J2,FALSE)=0,J2,VLOOKUP($G$6,$P$19:$W$40,1+J2,FALSE)))</f>
+        <v/>
       </c>
       <c r="K10" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K10:O10" si="2">IF(J11=0,"",IF(VLOOKUP($G$6,$P$19:$W$40,1+K2,FALSE)=0,K2,VLOOKUP($G$6,$P$19:$W$40,1+K2,FALSE)))</f>
         <v>♭3</v>
       </c>
       <c r="L10" s="9">
@@ -8221,11 +8221,11 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="O10" s="105" t="str">
+        <v/>
+      </c>
+      <c r="O10" s="9" t="str">
         <f t="shared" si="2"/>
         <v>♭7</v>
       </c>
@@ -11270,7 +11270,7 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:O1"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I44:O65" xr:uid="{9E77CF2C-8DC6-4DA2-8C23-71D2EAF5B912}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>

--- a/Shredsheets.xlsx
+++ b/Shredsheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Shredsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEFB8D9-C5D6-45D6-8566-18C326242B35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED7C0E4-ED62-43D8-8371-CCF2D30FBF00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24810" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3288,7 +3288,7 @@
   <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="B4" s="138" t="str">
         <f>IF(B19 = "Ionian (Major)", B10 &amp; " Major", IF(B19 = "Aolian (Minor)", B10 &amp; " Minor", B10 &amp; " " &amp; B19))</f>
-        <v>C Locrian</v>
+        <v>C Major</v>
       </c>
       <c r="C4" s="138"/>
       <c r="D4" s="138"/>
@@ -3434,14 +3434,14 @@
         <v>1</v>
       </c>
       <c r="L4" s="135"/>
-      <c r="M4" s="135" t="str">
+      <c r="M4" s="135">
         <f>IF(Model!J3="0","",Model!J3)</f>
-        <v>♭2</v>
+        <v>2</v>
       </c>
       <c r="N4" s="135"/>
-      <c r="O4" s="135" t="str">
+      <c r="O4" s="135">
         <f>IF(Model!K3="0","",Model!K3)</f>
-        <v>♭3</v>
+        <v>3</v>
       </c>
       <c r="P4" s="135"/>
       <c r="Q4" s="135">
@@ -3449,19 +3449,19 @@
         <v>4</v>
       </c>
       <c r="R4" s="135"/>
-      <c r="S4" s="135" t="str">
+      <c r="S4" s="135">
         <f>IF(Model!M3="0","",Model!M3)</f>
-        <v>♭5</v>
+        <v>5</v>
       </c>
       <c r="T4" s="135"/>
-      <c r="U4" s="135" t="str">
+      <c r="U4" s="135">
         <f>IF(Model!N3="0","",Model!N3)</f>
-        <v>♭6</v>
+        <v>6</v>
       </c>
       <c r="V4" s="135"/>
-      <c r="W4" s="135" t="str">
+      <c r="W4" s="135">
         <f>IF(Model!O3="0","",Model!O3)</f>
-        <v>♭7</v>
+        <v>7</v>
       </c>
       <c r="X4" s="135"/>
       <c r="Z4" s="130" t="s">
@@ -3482,37 +3482,37 @@
       <c r="G5" s="138"/>
       <c r="K5" s="135">
         <f>Model!I4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" s="135"/>
       <c r="M5" s="136">
         <f>IFERROR(HLOOKUP(G$1, Model!$P$18:$W$41, MATCH($B$19, Model!$P$24:$P$43, 0) + 1), G$1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="136"/>
-      <c r="O5" s="136" t="str">
+      <c r="O5" s="136">
         <f>IFERROR(HLOOKUP(H$1, Model!$P$18:$W$41, MATCH($B$19, Model!$P$24:$P$43, 0) + 1), H$1)</f>
-        <v>♭3</v>
+        <v>3</v>
       </c>
       <c r="P5" s="136"/>
       <c r="Q5" s="136">
         <f>IFERROR(HLOOKUP(I$1, Model!$P$18:$W$41, MATCH($B$19, Model!$P$24:$P$43, 0) + 1), I$1)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R5" s="136"/>
       <c r="S5" s="136">
         <f>IFERROR(HLOOKUP(J$1, Model!$P$18:$W$41, MATCH($B$19, Model!$P$24:$P$43, 0) + 1), J$1)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T5" s="136"/>
       <c r="U5" s="136">
         <f>IFERROR(HLOOKUP(K$1, Model!$P$18:$W$41, MATCH($B$19, Model!$P$24:$P$43, 0) + 1), K$1)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V5" s="136"/>
-      <c r="W5" s="136" t="str">
+      <c r="W5" s="136">
         <f>IFERROR(HLOOKUP(L$1, Model!$P$18:$W$41, MATCH($B$19, Model!$P$24:$P$43, 0) + 1), L$1)</f>
-        <v>♭7</v>
+        <v>7</v>
       </c>
       <c r="X5" s="136"/>
       <c r="Z5" s="130"/>
@@ -3529,37 +3529,37 @@
       <c r="G6" s="138"/>
       <c r="K6" s="134" t="str">
         <f>IF(K$4="","", J$8 &amp; IFERROR(HLOOKUP(F$1, Model!$P$43:$W$65, MATCH($B$19, Model!$P$44:$P$65, 0) + 1), F$1))</f>
-        <v>Cm7ø</v>
+        <v>CM7</v>
       </c>
       <c r="L6" s="134"/>
       <c r="M6" s="134" t="str">
         <f>IF(M$4="","", K$8 &amp; IFERROR(HLOOKUP(G$1, Model!$P$43:$W$65, MATCH($B$19, Model!$P$44:$P$65, 0) + 1), G$1))</f>
-        <v>D♭M7</v>
+        <v>Dm7</v>
       </c>
       <c r="N6" s="134"/>
       <c r="O6" s="134" t="str">
         <f>IF(O$4="","", L$8 &amp; IFERROR(HLOOKUP(H$1, Model!$P$43:$W$65, MATCH($B$19, Model!$P$44:$P$65, 0) + 1), H$1))</f>
-        <v>E♭m7</v>
+        <v>Em7</v>
       </c>
       <c r="P6" s="134"/>
       <c r="Q6" s="134" t="str">
         <f>IF(Q$4="","", M$8 &amp; IFERROR(HLOOKUP(I$1, Model!$P$43:$W$65, MATCH($B$19, Model!$P$44:$P$65, 0) + 1), I$1))</f>
-        <v>Fm7</v>
+        <v>FM7</v>
       </c>
       <c r="R6" s="134"/>
       <c r="S6" s="134" t="str">
         <f>IF(S$4="","", N$8 &amp; IFERROR(HLOOKUP(J$1, Model!$P$43:$W$65, MATCH($B$19, Model!$P$44:$P$65, 0) + 1), J$1))</f>
-        <v>G♭M7</v>
+        <v>G7</v>
       </c>
       <c r="T6" s="134"/>
       <c r="U6" s="134" t="str">
         <f>IF(U$4="","", O$8 &amp; IFERROR(HLOOKUP(K$1, Model!$P$43:$W$65, MATCH($B$19, Model!$P$44:$P$65, 0) + 1), K$1))</f>
-        <v>A♭7</v>
+        <v>Am7</v>
       </c>
       <c r="V6" s="134"/>
       <c r="W6" s="134" t="str">
         <f>IF(W$4="","", P$8 &amp; IFERROR(HLOOKUP(L$1, Model!$P$43:$W$65, MATCH($B$19, Model!$P$44:$P$65, 0) + 1), L$1))</f>
-        <v>B♭m7</v>
+        <v>Bm7ø</v>
       </c>
       <c r="X6" s="134"/>
       <c r="Z6" s="130"/>
@@ -3603,11 +3603,11 @@
       </c>
       <c r="K8" s="64" t="str">
         <f>IF(Model!I4=0, "", Model!J6)</f>
-        <v>D♭</v>
+        <v>D</v>
       </c>
       <c r="L8" s="65" t="str">
         <f>IF(Model!J4=0, "", Model!K6)</f>
-        <v>E♭</v>
+        <v>E</v>
       </c>
       <c r="M8" s="66" t="str">
         <f>IF(Model!K4=0, "", Model!L6)</f>
@@ -3615,15 +3615,15 @@
       </c>
       <c r="N8" s="67" t="str">
         <f>IF(Model!L4=0, "", Model!M6)</f>
-        <v>G♭</v>
+        <v>G</v>
       </c>
       <c r="O8" s="68" t="str">
         <f>IF(Model!M4=0, "", Model!N6)</f>
-        <v>A♭</v>
+        <v>A</v>
       </c>
       <c r="P8" s="69" t="str">
         <f>IF(Model!N4=0, "", Model!O6)</f>
-        <v>B♭</v>
+        <v>B</v>
       </c>
       <c r="S8" s="140" t="s">
         <v>18</v>
@@ -3632,7 +3632,7 @@
       <c r="U8" s="140"/>
       <c r="V8" s="88" t="str">
         <f>IF(Model!I4=1, "h", IF(Model!I4=2, "W", IF(Model!I4=3, "W+h", IF(Model!I4=4, "WW", IF(Model!I4=0, "", Model!I4)))))</f>
-        <v>h</v>
+        <v>W</v>
       </c>
       <c r="W8" s="70" t="str">
         <f>IF(Model!J4=1, "h", IF(Model!J4=2, "W", IF(Model!J4=3, "W+h", IF(Model!J4=4, "WW", IF(Model!J4=0, "", Model!J4)))))</f>
@@ -3640,11 +3640,11 @@
       </c>
       <c r="X8" s="71" t="str">
         <f>IF(Model!K4=1, "h", IF(Model!K4=2, "W", IF(Model!K4=3, "W+h", IF(Model!K4=4, "WW", IF(Model!K4=0, "", Model!K4)))))</f>
-        <v>W</v>
+        <v>h</v>
       </c>
       <c r="Y8" s="72" t="str">
         <f>IF(Model!L4=1, "h", IF(Model!L4=2, "W", IF(Model!L4=3, "W+h",IF(Model!L4=4, "WW", IF(Model!L4=0, "", Model!L4)))))</f>
-        <v>h</v>
+        <v>W</v>
       </c>
       <c r="Z8" s="73" t="str">
         <f>IF(Model!M4=1, "h", IF(Model!M4=2, "W", IF(Model!M4=3, "W+h",IF(Model!M4=4, "WW", IF(Model!M4=0, "", Model!M4)))))</f>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="AB8" s="75" t="str">
         <f>IF(Model!O4=1, "h", IF(Model!O4=2, "W", IF(Model!O4=3, "W+h",IF(Model!O4=4, "WW", IF(Model!O4=0, "", Model!O4)))))</f>
-        <v>W</v>
+        <v>h</v>
       </c>
       <c r="AE8" s="133" t="s">
         <v>1</v>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="E10" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E : 3</v>
       </c>
       <c r="F10" s="91" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -3799,27 +3799,27 @@
       </c>
       <c r="G10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G♭ : ♭5</v>
+        <v/>
       </c>
       <c r="H10" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G : 5</v>
       </c>
       <c r="I10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A♭ : ♭6</v>
+        <v/>
       </c>
       <c r="J10" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="K10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B♭ : ♭7</v>
+        <v/>
       </c>
       <c r="L10" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B : 7</v>
       </c>
       <c r="M10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -3827,19 +3827,19 @@
       </c>
       <c r="N10" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D♭ : ♭2</v>
+        <v/>
       </c>
       <c r="O10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="P10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E♭ : ♭3</v>
+        <v/>
       </c>
       <c r="Q10" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E : 3</v>
       </c>
       <c r="R10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -3847,27 +3847,27 @@
       </c>
       <c r="S10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G♭ : ♭5</v>
+        <v/>
       </c>
       <c r="T10" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G : 5</v>
       </c>
       <c r="U10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A♭ : ♭6</v>
+        <v/>
       </c>
       <c r="V10" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="W10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B♭ : ♭7</v>
+        <v/>
       </c>
       <c r="X10" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B : 7</v>
       </c>
       <c r="Y10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -3875,19 +3875,19 @@
       </c>
       <c r="Z10" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D♭ : ♭2</v>
+        <v/>
       </c>
       <c r="AA10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="AB10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E♭ : ♭3</v>
+        <v/>
       </c>
       <c r="AC10" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E : 3</v>
       </c>
       <c r="AE10" s="78" t="s">
         <v>2</v>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="E11" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B : 7</v>
       </c>
       <c r="F11" s="91" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -3916,19 +3916,19 @@
       </c>
       <c r="G11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D♭ : ♭2</v>
+        <v/>
       </c>
       <c r="H11" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="I11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E♭ : ♭3</v>
+        <v/>
       </c>
       <c r="J11" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E : 3</v>
       </c>
       <c r="K11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -3936,27 +3936,27 @@
       </c>
       <c r="L11" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G♭ : ♭5</v>
+        <v/>
       </c>
       <c r="M11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G : 5</v>
       </c>
       <c r="N11" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A♭ : ♭6</v>
+        <v/>
       </c>
       <c r="O11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="P11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B♭ : ♭7</v>
+        <v/>
       </c>
       <c r="Q11" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B : 7</v>
       </c>
       <c r="R11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -3964,19 +3964,19 @@
       </c>
       <c r="S11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D♭ : ♭2</v>
+        <v/>
       </c>
       <c r="T11" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="U11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E♭ : ♭3</v>
+        <v/>
       </c>
       <c r="V11" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E : 3</v>
       </c>
       <c r="W11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -3984,34 +3984,34 @@
       </c>
       <c r="X11" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G♭ : ♭5</v>
+        <v/>
       </c>
       <c r="Y11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G : 5</v>
       </c>
       <c r="Z11" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A♭ : ♭6</v>
+        <v/>
       </c>
       <c r="AA11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="AB11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B♭ : ♭7</v>
+        <v/>
       </c>
       <c r="AC11" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B : 7</v>
       </c>
       <c r="AE11" s="79" t="s">
         <v>3</v>
       </c>
       <c r="AF11" s="92" t="b">
         <f>HLOOKUP(G$1, Model!$I$43:$O$65, MATCH($B$19, Model!$H$43:$H$65, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32" s="53" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4025,23 +4025,23 @@
       </c>
       <c r="E12" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G : 5</v>
       </c>
       <c r="F12" s="91" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A♭ : ♭6</v>
+        <v/>
       </c>
       <c r="G12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="H12" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B♭ : ♭7</v>
+        <v/>
       </c>
       <c r="I12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B : 7</v>
       </c>
       <c r="J12" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4049,19 +4049,19 @@
       </c>
       <c r="K12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D♭ : ♭2</v>
+        <v/>
       </c>
       <c r="L12" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="M12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E♭ : ♭3</v>
+        <v/>
       </c>
       <c r="N12" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E : 3</v>
       </c>
       <c r="O12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4069,27 +4069,27 @@
       </c>
       <c r="P12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G♭ : ♭5</v>
+        <v/>
       </c>
       <c r="Q12" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G : 5</v>
       </c>
       <c r="R12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A♭ : ♭6</v>
+        <v/>
       </c>
       <c r="S12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="T12" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B♭ : ♭7</v>
+        <v/>
       </c>
       <c r="U12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B : 7</v>
       </c>
       <c r="V12" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4097,19 +4097,19 @@
       </c>
       <c r="W12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D♭ : ♭2</v>
+        <v/>
       </c>
       <c r="X12" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="Y12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E♭ : ♭3</v>
+        <v/>
       </c>
       <c r="Z12" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E : 3</v>
       </c>
       <c r="AA12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4117,11 +4117,11 @@
       </c>
       <c r="AB12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G♭ : ♭5</v>
+        <v/>
       </c>
       <c r="AC12" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G : 5</v>
       </c>
       <c r="AE12" s="79" t="s">
         <v>4</v>
@@ -4142,15 +4142,15 @@
       </c>
       <c r="E13" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="F13" s="91" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E♭ : ♭3</v>
+        <v/>
       </c>
       <c r="G13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E : 3</v>
       </c>
       <c r="H13" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4158,27 +4158,27 @@
       </c>
       <c r="I13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G♭ : ♭5</v>
+        <v/>
       </c>
       <c r="J13" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G : 5</v>
       </c>
       <c r="K13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A♭ : ♭6</v>
+        <v/>
       </c>
       <c r="L13" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="M13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B♭ : ♭7</v>
+        <v/>
       </c>
       <c r="N13" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B : 7</v>
       </c>
       <c r="O13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4186,19 +4186,19 @@
       </c>
       <c r="P13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D♭ : ♭2</v>
+        <v/>
       </c>
       <c r="Q13" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="R13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E♭ : ♭3</v>
+        <v/>
       </c>
       <c r="S13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E : 3</v>
       </c>
       <c r="T13" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4206,27 +4206,27 @@
       </c>
       <c r="U13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G♭ : ♭5</v>
+        <v/>
       </c>
       <c r="V13" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G : 5</v>
       </c>
       <c r="W13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A♭ : ♭6</v>
+        <v/>
       </c>
       <c r="X13" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="Y13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B♭ : ♭7</v>
+        <v/>
       </c>
       <c r="Z13" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B : 7</v>
       </c>
       <c r="AA13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4234,11 +4234,11 @@
       </c>
       <c r="AB13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D♭ : ♭2</v>
+        <v/>
       </c>
       <c r="AC13" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="AE13" s="79" t="s">
         <v>5</v>
@@ -4259,15 +4259,15 @@
       </c>
       <c r="E14" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="F14" s="91" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B♭ : ♭7</v>
+        <v/>
       </c>
       <c r="G14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B : 7</v>
       </c>
       <c r="H14" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4275,19 +4275,19 @@
       </c>
       <c r="I14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D♭ : ♭2</v>
+        <v/>
       </c>
       <c r="J14" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="K14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E♭ : ♭3</v>
+        <v/>
       </c>
       <c r="L14" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E : 3</v>
       </c>
       <c r="M14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4295,27 +4295,27 @@
       </c>
       <c r="N14" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G♭ : ♭5</v>
+        <v/>
       </c>
       <c r="O14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G : 5</v>
       </c>
       <c r="P14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A♭ : ♭6</v>
+        <v/>
       </c>
       <c r="Q14" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="R14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B♭ : ♭7</v>
+        <v/>
       </c>
       <c r="S14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B : 7</v>
       </c>
       <c r="T14" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4323,19 +4323,19 @@
       </c>
       <c r="U14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D♭ : ♭2</v>
+        <v/>
       </c>
       <c r="V14" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="W14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E♭ : ♭3</v>
+        <v/>
       </c>
       <c r="X14" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E : 3</v>
       </c>
       <c r="Y14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4343,26 +4343,26 @@
       </c>
       <c r="Z14" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G♭ : ♭5</v>
+        <v/>
       </c>
       <c r="AA14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G : 5</v>
       </c>
       <c r="AB14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A♭ : ♭6</v>
+        <v/>
       </c>
       <c r="AC14" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="AE14" s="79" t="s">
         <v>6</v>
       </c>
       <c r="AF14" s="92" t="b">
         <f>HLOOKUP(J$1, Model!$I$43:$O$65, MATCH($B$19, Model!$H$43:$H$65, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:32" s="53" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="E15" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E : 3</v>
       </c>
       <c r="F15" s="91" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4386,27 +4386,27 @@
       </c>
       <c r="G15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G♭ : ♭5</v>
+        <v/>
       </c>
       <c r="H15" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G : 5</v>
       </c>
       <c r="I15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A♭ : ♭6</v>
+        <v/>
       </c>
       <c r="J15" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="K15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B♭ : ♭7</v>
+        <v/>
       </c>
       <c r="L15" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B : 7</v>
       </c>
       <c r="M15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4414,19 +4414,19 @@
       </c>
       <c r="N15" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D♭ : ♭2</v>
+        <v/>
       </c>
       <c r="O15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="P15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E♭ : ♭3</v>
+        <v/>
       </c>
       <c r="Q15" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E : 3</v>
       </c>
       <c r="R15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4434,27 +4434,27 @@
       </c>
       <c r="S15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G♭ : ♭5</v>
+        <v/>
       </c>
       <c r="T15" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G : 5</v>
       </c>
       <c r="U15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A♭ : ♭6</v>
+        <v/>
       </c>
       <c r="V15" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="W15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B♭ : ♭7</v>
+        <v/>
       </c>
       <c r="X15" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B : 7</v>
       </c>
       <c r="Y15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4462,26 +4462,26 @@
       </c>
       <c r="Z15" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D♭ : ♭2</v>
+        <v/>
       </c>
       <c r="AA15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="AB15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E♭ : ♭3</v>
+        <v/>
       </c>
       <c r="AC15" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E : 3</v>
       </c>
       <c r="AE15" s="79" t="s">
         <v>7</v>
       </c>
       <c r="AF15" s="92" t="b">
         <f>HLOOKUP(K$1, Model!$I$43:$O$65, MATCH($B$19, Model!$H$43:$H$65, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:32" s="53" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="E16" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B : 7</v>
       </c>
       <c r="F16" s="91" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4503,19 +4503,19 @@
       </c>
       <c r="G16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D♭ : ♭2</v>
+        <v/>
       </c>
       <c r="H16" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="I16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E♭ : ♭3</v>
+        <v/>
       </c>
       <c r="J16" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E : 3</v>
       </c>
       <c r="K16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4523,27 +4523,27 @@
       </c>
       <c r="L16" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G♭ : ♭5</v>
+        <v/>
       </c>
       <c r="M16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G : 5</v>
       </c>
       <c r="N16" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A♭ : ♭6</v>
+        <v/>
       </c>
       <c r="O16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="P16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B♭ : ♭7</v>
+        <v/>
       </c>
       <c r="Q16" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B : 7</v>
       </c>
       <c r="R16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4551,19 +4551,19 @@
       </c>
       <c r="S16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D♭ : ♭2</v>
+        <v/>
       </c>
       <c r="T16" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="U16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E♭ : ♭3</v>
+        <v/>
       </c>
       <c r="V16" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E : 3</v>
       </c>
       <c r="W16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4571,27 +4571,27 @@
       </c>
       <c r="X16" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G♭ : ♭5</v>
+        <v/>
       </c>
       <c r="Y16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G : 5</v>
       </c>
       <c r="Z16" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A♭ : ♭6</v>
+        <v/>
       </c>
       <c r="AA16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="AB16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B♭ : ♭7</v>
+        <v/>
       </c>
       <c r="AC16" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B : 7</v>
       </c>
       <c r="AE16" s="80"/>
       <c r="AF16" s="93"/>
@@ -4607,27 +4607,27 @@
       </c>
       <c r="E17" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G♭ : ♭5</v>
+        <v/>
       </c>
       <c r="F17" s="91" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G : 5</v>
       </c>
       <c r="G17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A♭ : ♭6</v>
+        <v/>
       </c>
       <c r="H17" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="I17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B♭ : ♭7</v>
+        <v/>
       </c>
       <c r="J17" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B : 7</v>
       </c>
       <c r="K17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4635,19 +4635,19 @@
       </c>
       <c r="L17" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D♭ : ♭2</v>
+        <v/>
       </c>
       <c r="M17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="N17" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E♭ : ♭3</v>
+        <v/>
       </c>
       <c r="O17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E : 3</v>
       </c>
       <c r="P17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4655,27 +4655,27 @@
       </c>
       <c r="Q17" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G♭ : ♭5</v>
+        <v/>
       </c>
       <c r="R17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G : 5</v>
       </c>
       <c r="S17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A♭ : ♭6</v>
+        <v/>
       </c>
       <c r="T17" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="U17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B♭ : ♭7</v>
+        <v/>
       </c>
       <c r="V17" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B : 7</v>
       </c>
       <c r="W17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4683,19 +4683,19 @@
       </c>
       <c r="X17" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D♭ : ♭2</v>
+        <v/>
       </c>
       <c r="Y17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="Z17" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E♭ : ♭3</v>
+        <v/>
       </c>
       <c r="AA17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E : 3</v>
       </c>
       <c r="AB17" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="AC17" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D17+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D17+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G♭ : ♭5</v>
+        <v/>
       </c>
       <c r="AE17" s="81"/>
       <c r="AF17" s="93"/>
@@ -4719,19 +4719,19 @@
       </c>
       <c r="E18" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+E$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D♭ : ♭2</v>
+        <v/>
       </c>
       <c r="F18" s="91" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+F$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="G18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+G$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E♭ : ♭3</v>
+        <v/>
       </c>
       <c r="H18" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+H$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E : 3</v>
       </c>
       <c r="I18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+I$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4739,27 +4739,27 @@
       </c>
       <c r="J18" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+J$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G♭ : ♭5</v>
+        <v/>
       </c>
       <c r="K18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+K$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G : 5</v>
       </c>
       <c r="L18" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+L$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A♭ : ♭6</v>
+        <v/>
       </c>
       <c r="M18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+M$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="N18" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+N$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B♭ : ♭7</v>
+        <v/>
       </c>
       <c r="O18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+O$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B : 7</v>
       </c>
       <c r="P18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+P$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4767,19 +4767,19 @@
       </c>
       <c r="Q18" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+Q$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D♭ : ♭2</v>
+        <v/>
       </c>
       <c r="R18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+R$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>D : 2</v>
       </c>
       <c r="S18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+S$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>E♭ : ♭3</v>
+        <v/>
       </c>
       <c r="T18" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+T$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>E : 3</v>
       </c>
       <c r="U18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+U$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4787,27 +4787,27 @@
       </c>
       <c r="V18" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+V$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>G♭ : ♭5</v>
+        <v/>
       </c>
       <c r="W18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+W$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>G : 5</v>
       </c>
       <c r="X18" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+X$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>A♭ : ♭6</v>
+        <v/>
       </c>
       <c r="Y18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+Y$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>A : 6</v>
       </c>
       <c r="Z18" s="47" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+Z$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>B♭ : ♭7</v>
+        <v/>
       </c>
       <c r="AA18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+AA$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v/>
+        <v>B : 7</v>
       </c>
       <c r="AB18" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+AB$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
@@ -4815,14 +4815,14 @@
       </c>
       <c r="AC18" s="48" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D18+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D18+AC$9, 12), Model!$I$5:$O$5, 0), Model!$I$2:$O$3, 2), "")</f>
-        <v>D♭ : ♭2</v>
+        <v/>
       </c>
       <c r="AE18" s="82"/>
       <c r="AF18" s="93"/>
     </row>
     <row r="19" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="57" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="1"/>
@@ -7097,7 +7097,7 @@
       <formula>AND($AF$19, SEARCH("7", E10))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB4" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
@@ -7106,7 +7106,7 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Model!$A$2:$A$23</xm:f>
@@ -7424,29 +7424,29 @@
         <f>IF(VLOOKUP($G$4,$P$19:$W$40, 1+I2, FALSE) = 0, I2, VLOOKUP($G$4,$P$19:$W$40, 1+I2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="J3" s="9" t="str">
+      <c r="J3" s="9">
         <f>IF(I4=0,"",IF(VLOOKUP($G$4,$P$19:$W$40,1+J2,FALSE)=0,J2,VLOOKUP($G$4,$P$19:$W$40,1+J2,FALSE)))</f>
-        <v>♭2</v>
-      </c>
-      <c r="K3" s="9" t="str">
+        <v>2</v>
+      </c>
+      <c r="K3" s="9">
         <f t="shared" ref="K3:O3" si="0">IF(J4=0,"",IF(VLOOKUP($G$4,$P$19:$W$40,1+K2,FALSE)=0,K2,VLOOKUP($G$4,$P$19:$W$40,1+K2,FALSE)))</f>
-        <v>♭3</v>
+        <v>3</v>
       </c>
       <c r="L3" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M3" s="9" t="str">
+      <c r="M3" s="9">
         <f t="shared" si="0"/>
-        <v>♭5</v>
-      </c>
-      <c r="N3" s="9" t="str">
+        <v>5</v>
+      </c>
+      <c r="N3" s="9">
         <f t="shared" si="0"/>
-        <v>♭6</v>
-      </c>
-      <c r="O3" s="9" t="str">
+        <v>6</v>
+      </c>
+      <c r="O3" s="9">
         <f t="shared" si="0"/>
-        <v>♭7</v>
+        <v>7</v>
       </c>
       <c r="X3" s="100">
         <v>2</v>
@@ -7533,14 +7533,14 @@
       </c>
       <c r="G4" s="9" t="str">
         <f>Fretboards!B19</f>
-        <v>Locrian</v>
+        <v>Ionian (Major)</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>45</v>
       </c>
       <c r="I4" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$19:$O$40,  Model!I2 + 1, FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$19:$O$40,  Model!J2 + 1, FALSE)</f>
@@ -7548,11 +7548,11 @@
       </c>
       <c r="K4" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$19:$O$40,  Model!K2 + 1, FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$19:$O$40,  Model!L2 + 1, FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$H$19:$O$40,  Model!M2 + 1, FALSE)</f>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="O4" s="105">
         <f>VLOOKUP(Model!$G$4, Model!$H$19:$O$40,  Model!O2 + 1, FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X4" s="100">
         <v>3</v>
@@ -7658,11 +7658,11 @@
       </c>
       <c r="J5" s="9">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="1"/>
@@ -7670,15 +7670,15 @@
       </c>
       <c r="M5" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" s="105">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X5" s="100">
         <v>4</v>
@@ -7774,11 +7774,11 @@
       </c>
       <c r="J6" s="21" t="str">
         <f>IF(I4=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(J3, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$34, 3, FALSE) + SUM($H$4:I4) + 1))</f>
-        <v>D♭</v>
+        <v>D</v>
       </c>
       <c r="K6" s="21" t="str">
         <f>IF(J4=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(K3, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$34, 3, FALSE) + SUM($H$4:J4) + 1))</f>
-        <v>E♭</v>
+        <v>E</v>
       </c>
       <c r="L6" s="21" t="str">
         <f>IF(K4=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(L3, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$34, 3, FALSE) + SUM($H$4:K4) + 1))</f>
@@ -7786,15 +7786,15 @@
       </c>
       <c r="M6" s="21" t="str">
         <f>IF(L4=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(M3, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$34, 3, FALSE) + SUM($H$4:L4) + 1))</f>
-        <v>G♭</v>
+        <v>G</v>
       </c>
       <c r="N6" s="21" t="str">
         <f>IF(M4=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(N3, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$34, 3, FALSE) + SUM($H$4:M4) + 1))</f>
-        <v>A♭</v>
+        <v>A</v>
       </c>
       <c r="O6" s="107" t="str">
         <f>IF(N4=0, "", INDEX($Y$2:$AX$15,VLOOKUP($F$4, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(O3, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$34, 3, FALSE) + SUM($H$4:N4) + 1))</f>
-        <v>B♭</v>
+        <v>B</v>
       </c>
       <c r="X6" s="100">
         <v>5</v>

--- a/Shredsheets.xlsx
+++ b/Shredsheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Shredsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6250F522-709F-498C-81DD-7BB6B1AF72C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1A6CC2-C1DD-46F4-B54E-7DB3D5951D4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24810" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fretboards" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <definedName name="ReversedNotes">{"C","B","A#","A","G#","G","F#","F","E","D#","D","C#","C","B","A#","A","G#","G","F#","F","E","D#","D","C#","C"}</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="207">
   <si>
     <t>C</t>
   </si>
@@ -652,6 +651,21 @@
   </si>
   <si>
     <t>Scale Default</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Chromatic</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Cool</t>
+  </si>
+  <si>
+    <t>Cool 2</t>
   </si>
 </sst>
 </file>
@@ -971,7 +985,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1014,8 +1028,110 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB567F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3788CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4DA3E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF642C76"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3B5E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF75E604"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCEE00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF49B4E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF893DA1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC07DF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2992D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70C3FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC07DE2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7EE00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF63D218"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA63AB8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="46">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1510,11 +1626,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1817,6 +2038,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1826,30 +2167,12 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1862,975 +2185,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="253">
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CC068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF81B2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CC068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF81B2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CC068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF81B2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CC068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF81B2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CC068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF81B2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CC068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF81B2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CC068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF81B2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CC068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF81B2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CC068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF81B2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CC068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF81B2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CC068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF81B2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CC068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF81B2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="119">
     <dxf>
       <font>
         <color theme="0" tint="-4.9989318521683403E-2"/>
@@ -3003,7 +2374,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
@@ -3023,7 +2394,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.14996795556505021"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
@@ -3065,7 +2436,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
       <fill>
         <patternFill>
@@ -3139,7 +2510,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
@@ -3287,80 +2658,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF642C76"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CFF19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB567F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4DA3E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE4D2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3788CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
@@ -3425,7 +2722,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF3788CB"/>
+        <color rgb="FF2992D9"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -3435,267 +2732,27 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFD3B5E9"/>
+        <color rgb="FFC07DE2"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFF4DA3E"/>
+        <color rgb="FF70C3FC"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFB567F5"/>
+        <color rgb="FFB7EE00"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF75E604"/>
+        <color rgb="FF63D218"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
+        <color rgb="FFA63AB8"/>
       </font>
     </dxf>
     <dxf>
@@ -4018,27 +3075,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF372F2D"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4102,16 +3138,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF372F2D"/>
       <color rgb="FFFF66FF"/>
-      <color rgb="FF642C76"/>
-      <color rgb="FF75E604"/>
+      <color rgb="FFA63AB8"/>
+      <color rgb="FF63D218"/>
+      <color rgb="FFB7EE00"/>
+      <color rgb="FF70C3FC"/>
+      <color rgb="FFC07DE2"/>
+      <color rgb="FF2992D9"/>
+      <color rgb="FF75F00F"/>
+      <color rgb="FFC07DF7"/>
       <color rgb="FFB567F5"/>
-      <color rgb="FFF4DA3E"/>
-      <color rgb="FFD3B5E9"/>
-      <color rgb="FF3788CB"/>
-      <color rgb="FF0066CC"/>
-      <color rgb="FF49390B"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4425,13 +3461,13 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AD56"/>
+  <dimension ref="A1:AD40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:K39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="50" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="50" customWidth="1"/>
@@ -4524,169 +3560,169 @@
       <c r="A3" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="121" t="str">
+      <c r="B3" s="167" t="str">
         <f>IF(B17 = "Ionian (Major)", B8 &amp; " Major", IF(B17 = "Aolian (Minor)", B8 &amp; " Minor", B8 &amp; " " &amp; B17))</f>
         <v>C Major</v>
       </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="K3" s="119">
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="K3" s="164">
         <f>IF(Model!J3="0","",Model!J3)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119">
+      <c r="L3" s="164"/>
+      <c r="M3" s="164">
         <f>IF(Model!K3="0","",Model!K3)</f>
         <v>2</v>
       </c>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119">
+      <c r="N3" s="164"/>
+      <c r="O3" s="164">
         <f>IF(Model!L3="0","",Model!L3)</f>
         <v>3</v>
       </c>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119">
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164">
         <f>IF(Model!M3="0","",Model!M3)</f>
         <v>4</v>
       </c>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119">
+      <c r="R3" s="164"/>
+      <c r="S3" s="164">
         <f>IF(Model!N3="0","",Model!N3)</f>
         <v>5</v>
       </c>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119">
+      <c r="T3" s="164"/>
+      <c r="U3" s="164">
         <f>IF(Model!O3="0","",Model!O3)</f>
         <v>6</v>
       </c>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119">
+      <c r="V3" s="164"/>
+      <c r="W3" s="164">
         <f>IF(Model!P3="0","",Model!P3)</f>
         <v>7</v>
       </c>
-      <c r="X3" s="119"/>
-      <c r="Z3" s="114" t="s">
+      <c r="X3" s="164"/>
+      <c r="Z3" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="115" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="115"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="169" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="169"/>
     </row>
     <row r="4" spans="1:29" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="K4" s="118" t="str">
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="K4" s="166" t="str">
         <f>Model!J7</f>
         <v>CM7</v>
       </c>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118" t="str">
+      <c r="L4" s="166"/>
+      <c r="M4" s="166" t="str">
         <f>Model!K7</f>
         <v>Dm7</v>
       </c>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118" t="str">
+      <c r="N4" s="166"/>
+      <c r="O4" s="166" t="str">
         <f>Model!L7</f>
         <v>Em7</v>
       </c>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118" t="str">
+      <c r="P4" s="166"/>
+      <c r="Q4" s="166" t="str">
         <f>Model!M7</f>
         <v>FM7</v>
       </c>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118" t="str">
+      <c r="R4" s="166"/>
+      <c r="S4" s="166" t="str">
         <f>Model!N7</f>
         <v>G7</v>
       </c>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118" t="str">
+      <c r="T4" s="166"/>
+      <c r="U4" s="166" t="str">
         <f>Model!O7</f>
         <v>Am7</v>
       </c>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118" t="str">
+      <c r="V4" s="166"/>
+      <c r="W4" s="166" t="str">
         <f>Model!P7</f>
         <v>Bm7ø</v>
       </c>
-      <c r="X4" s="118"/>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="115"/>
-      <c r="AC4" s="115"/>
+      <c r="X4" s="166"/>
+      <c r="Z4" s="168"/>
+      <c r="AA4" s="168"/>
+      <c r="AB4" s="169"/>
+      <c r="AC4" s="169"/>
     </row>
     <row r="5" spans="1:29" s="49" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
       <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="74"/>
       <c r="M5" s="74"/>
       <c r="N5" s="74"/>
       <c r="O5" s="74"/>
       <c r="P5" s="74"/>
-      <c r="Z5" s="114"/>
-      <c r="AA5" s="114"/>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="115"/>
+      <c r="Z5" s="168"/>
+      <c r="AA5" s="168"/>
+      <c r="AB5" s="169"/>
+      <c r="AC5" s="169"/>
     </row>
     <row r="6" spans="1:29" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="122" t="s">
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="171" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="122"/>
+      <c r="I6" s="171"/>
       <c r="J6" s="57" t="str">
-        <f>Model!J6</f>
+        <f>IF(Model!J6=0,"", Model!J6)</f>
         <v>C</v>
       </c>
-      <c r="K6" s="58" t="str">
-        <f>IF(Model!J4=0, "", Model!K6)</f>
+      <c r="K6" s="57" t="str">
+        <f>IF(Model!K6=0,"", Model!K6)</f>
         <v>D</v>
       </c>
-      <c r="L6" s="59" t="str">
-        <f>IF(Model!K4=0, "", Model!L6)</f>
+      <c r="L6" s="57" t="str">
+        <f>IF(Model!L6=0,"", Model!L6)</f>
         <v>E</v>
       </c>
-      <c r="M6" s="60" t="str">
-        <f>IF(Model!L4=0, "", Model!M6)</f>
+      <c r="M6" s="57" t="str">
+        <f>IF(Model!M6=0,"", Model!M6)</f>
         <v>F</v>
       </c>
-      <c r="N6" s="61" t="str">
-        <f>IF(Model!M4=0, "", Model!N6)</f>
+      <c r="N6" s="57" t="str">
+        <f>IF(Model!N6=0,"", Model!N6)</f>
         <v>G</v>
       </c>
-      <c r="O6" s="62" t="str">
-        <f>IF(Model!N4=0, "", Model!O6)</f>
+      <c r="O6" s="57" t="str">
+        <f>IF(Model!O6=0,"", Model!O6)</f>
         <v>A</v>
       </c>
-      <c r="P6" s="63" t="str">
-        <f>IF(Model!O4=0, "", Model!P6)</f>
+      <c r="P6" s="57" t="str">
+        <f>IF(Model!P6=0,"", Model!P6)</f>
         <v>B</v>
       </c>
-      <c r="S6" s="123" t="s">
+      <c r="S6" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="123"/>
-      <c r="U6" s="123"/>
+      <c r="T6" s="172"/>
+      <c r="U6" s="172"/>
       <c r="V6" s="75" t="str">
         <f>IF(Model!J4=1, "h", IF(Model!J4=2, "W", IF(Model!J4=3, "W+h", IF(Model!J4=4, "WW", IF(Model!J4=0, "", Model!J4)))))</f>
         <v>W</v>
@@ -4725,108 +3761,108 @@
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="79">
-        <f>IF($AB$3, 24-E$1, E$1)</f>
+        <f t="shared" ref="E7:AC7" si="0">IF($AB$3, 24-E$1, E$1)</f>
         <v>0</v>
       </c>
       <c r="F7" s="81">
-        <f>IF($AB$3, 24-F$1, F$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" s="38">
-        <f>IF($AB$3, 24-G$1, G$1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H7" s="36">
-        <f>IF($AB$3, 24-H$1, H$1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I7" s="38">
-        <f>IF($AB$3, 24-I$1, I$1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J7" s="36">
-        <f>IF($AB$3, 24-J$1, J$1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K7" s="38">
-        <f>IF($AB$3, 24-K$1, K$1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L7" s="36">
-        <f>IF($AB$3, 24-L$1, L$1)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="M7" s="38">
-        <f>IF($AB$3, 24-M$1, M$1)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="N7" s="36">
-        <f>IF($AB$3, 24-N$1, N$1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="O7" s="38">
-        <f>IF($AB$3, 24-O$1, O$1)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="P7" s="38">
-        <f>IF($AB$3, 24-P$1, P$1)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="Q7" s="37">
-        <f>IF($AB$3, 24-Q$1, Q$1)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="R7" s="38">
-        <f>IF($AB$3, 24-R$1, R$1)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="S7" s="38">
-        <f>IF($AB$3, 24-S$1, S$1)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="T7" s="36">
-        <f>IF($AB$3, 24-T$1, T$1)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="U7" s="38">
-        <f>IF($AB$3, 24-U$1, U$1)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="V7" s="36">
-        <f>IF($AB$3, 24-V$1, V$1)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="W7" s="38">
-        <f>IF($AB$3, 24-W$1, W$1)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="X7" s="36">
-        <f>IF($AB$3, 24-X$1, X$1)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="Y7" s="38">
-        <f>IF($AB$3, 24-Y$1, Y$1)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Z7" s="36">
-        <f>IF($AB$3, 24-Z$1, Z$1)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="AA7" s="38">
-        <f>IF($AB$3, 24-AA$1, AA$1)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="AB7" s="38">
-        <f>IF($AB$3, 24-AB$1, AB$1)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="AC7" s="43">
-        <f>IF($AB$3, 24-AC$1, AC$1)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="170" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="52" t="s">
@@ -4938,7 +3974,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="116"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="52" t="s">
         <v>14</v>
       </c>
@@ -5048,7 +4084,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="116"/>
+      <c r="B10" s="170"/>
       <c r="C10" s="52" t="s">
         <v>13</v>
       </c>
@@ -5158,7 +4194,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="116"/>
+      <c r="B11" s="170"/>
       <c r="C11" s="52" t="s">
         <v>10</v>
       </c>
@@ -5268,7 +4304,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="116"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="52" t="s">
         <v>12</v>
       </c>
@@ -5378,7 +4414,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="165" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="52" t="s">
@@ -5490,7 +4526,7 @@
       </c>
     </row>
     <row r="14" spans="1:29" s="51" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="120"/>
+      <c r="B14" s="165"/>
       <c r="C14" s="52" t="s">
         <v>14</v>
       </c>
@@ -5600,7 +4636,7 @@
       </c>
     </row>
     <row r="15" spans="1:29" s="51" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="120"/>
+      <c r="B15" s="165"/>
       <c r="C15" s="52" t="s">
         <v>57</v>
       </c>
@@ -5710,7 +4746,7 @@
       </c>
     </row>
     <row r="16" spans="1:29" s="51" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="120"/>
+      <c r="B16" s="165"/>
       <c r="C16" s="52" t="s">
         <v>51</v>
       </c>
@@ -5826,107 +4862,107 @@
       <c r="C17" s="53"/>
       <c r="D17" s="1"/>
       <c r="E17" s="39">
-        <f>IF($AB$3, 24-E$1, E$1)</f>
+        <f t="shared" ref="E17:AC17" si="1">IF($AB$3, 24-E$1, E$1)</f>
         <v>0</v>
       </c>
       <c r="F17" s="38">
-        <f>IF($AB$3, 24-F$1, F$1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G17" s="38">
-        <f>IF($AB$3, 24-G$1, G$1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H17" s="36">
-        <f>IF($AB$3, 24-H$1, H$1)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I17" s="38">
-        <f>IF($AB$3, 24-I$1, I$1)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J17" s="36">
-        <f>IF($AB$3, 24-J$1, J$1)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K17" s="38">
-        <f>IF($AB$3, 24-K$1, K$1)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L17" s="36">
-        <f>IF($AB$3, 24-L$1, L$1)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="M17" s="38">
-        <f>IF($AB$3, 24-M$1, M$1)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N17" s="36">
-        <f>IF($AB$3, 24-N$1, N$1)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="O17" s="38">
-        <f>IF($AB$3, 24-O$1, O$1)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="P17" s="38">
-        <f>IF($AB$3, 24-P$1, P$1)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="Q17" s="37">
-        <f>IF($AB$3, 24-Q$1, Q$1)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="R17" s="38">
-        <f>IF($AB$3, 24-R$1, R$1)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="S17" s="38">
-        <f>IF($AB$3, 24-S$1, S$1)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="T17" s="36">
-        <f>IF($AB$3, 24-T$1, T$1)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="U17" s="38">
-        <f>IF($AB$3, 24-U$1, U$1)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="V17" s="36">
-        <f>IF($AB$3, 24-V$1, V$1)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="W17" s="38">
-        <f>IF($AB$3, 24-W$1, W$1)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="X17" s="36">
-        <f>IF($AB$3, 24-X$1, X$1)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="Y17" s="38">
-        <f>IF($AB$3, 24-Y$1, Y$1)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="Z17" s="36">
-        <f>IF($AB$3, 24-Z$1, Z$1)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="AA17" s="38">
-        <f>IF($AB$3, 24-AA$1, AA$1)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="AB17" s="38">
-        <f>IF($AB$3, 24-AB$1, AB$1)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="AC17" s="43">
-        <f>IF($AB$3, 24-AC$1, AC$1)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="54"/>
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
@@ -5955,149 +4991,149 @@
       <c r="AC18" s="56"/>
     </row>
     <row r="19" spans="2:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="117"/>
-      <c r="E19" s="153" t="s">
+      <c r="B19" s="161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="161"/>
+      <c r="E19" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="154" t="s">
+      <c r="F19" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="154" t="s">
+      <c r="G19" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="154" t="s">
+      <c r="H19" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="154" t="s">
+      <c r="I19" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="154" t="s">
+      <c r="J19" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="153" t="s">
+      <c r="K19" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="131"/>
-      <c r="S19" s="131"/>
-      <c r="T19" s="131"/>
-      <c r="U19" s="131"/>
-      <c r="V19" s="131"/>
-      <c r="W19" s="131"/>
-      <c r="X19" s="131"/>
-      <c r="Y19" s="131"/>
-      <c r="Z19" s="131"/>
-      <c r="AA19" s="131"/>
-      <c r="AB19" s="131"/>
-      <c r="AC19" s="131"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="114"/>
+      <c r="R19" s="114"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="114"/>
+      <c r="U19" s="114"/>
+      <c r="V19" s="114"/>
+      <c r="W19" s="114"/>
+      <c r="X19" s="114"/>
+      <c r="Y19" s="114"/>
+      <c r="Z19" s="114"/>
+      <c r="AA19" s="114"/>
+      <c r="AB19" s="114"/>
+      <c r="AC19" s="114"/>
     </row>
     <row r="20" spans="2:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="E20" s="152" t="s">
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="E20" s="162" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="152"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="131"/>
-      <c r="S20" s="131"/>
-      <c r="T20" s="131"/>
-      <c r="U20" s="131"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="131"/>
-      <c r="X20" s="131"/>
-      <c r="Y20" s="131"/>
-      <c r="Z20" s="131"/>
-      <c r="AA20" s="131"/>
-      <c r="AB20" s="131"/>
-      <c r="AC20" s="131"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="114"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="114"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="114"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="114"/>
+      <c r="Z20" s="114"/>
+      <c r="AA20" s="114"/>
+      <c r="AB20" s="114"/>
+      <c r="AC20" s="114"/>
     </row>
     <row r="21" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B21" s="54"/>
       <c r="C21" s="54"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="135"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="131"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="131"/>
-      <c r="X21" s="131"/>
-      <c r="Y21" s="131"/>
-      <c r="Z21" s="131"/>
-      <c r="AA21" s="131"/>
-      <c r="AB21" s="131"/>
-      <c r="AC21" s="131"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="114"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="114"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="114"/>
+      <c r="W21" s="114"/>
+      <c r="X21" s="114"/>
+      <c r="Y21" s="114"/>
+      <c r="Z21" s="114"/>
+      <c r="AA21" s="114"/>
+      <c r="AB21" s="114"/>
+      <c r="AC21" s="114"/>
     </row>
     <row r="22" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="121" t="str">
+      <c r="B22" s="167" t="str">
         <f>IF(B36 = "Ionian (Major)", B27 &amp; " Major", IF(B36 = "Aolian (Minor)", B27 &amp; " Minor", B27 &amp; " " &amp; B36))</f>
         <v>E Pentatonic Minor</v>
       </c>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="K22" s="119">
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="K22" s="164">
         <f>IF(Model!J12="0","",Model!J12)</f>
         <v>1</v>
       </c>
-      <c r="L22" s="119"/>
-      <c r="M22" s="119" t="str">
+      <c r="L22" s="164"/>
+      <c r="M22" s="164" t="str">
         <f>IF(Model!K12="0","",Model!K12)</f>
         <v/>
       </c>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119" t="str">
+      <c r="N22" s="164"/>
+      <c r="O22" s="164" t="str">
         <f>IF(Model!L12="0","",Model!L12)</f>
         <v>♭3</v>
       </c>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="119">
+      <c r="P22" s="164"/>
+      <c r="Q22" s="164">
         <f>IF(Model!M12="0","",Model!M12)</f>
         <v>4</v>
       </c>
-      <c r="R22" s="119"/>
-      <c r="S22" s="119">
+      <c r="R22" s="164"/>
+      <c r="S22" s="164">
         <f>IF(Model!N12="0","",Model!N12)</f>
         <v>5</v>
       </c>
-      <c r="T22" s="119"/>
-      <c r="U22" s="119" t="str">
+      <c r="T22" s="164"/>
+      <c r="U22" s="164" t="str">
         <f>IF(Model!O12="0","",Model!O12)</f>
         <v/>
       </c>
-      <c r="V22" s="119"/>
-      <c r="W22" s="119" t="str">
+      <c r="V22" s="164"/>
+      <c r="W22" s="164" t="str">
         <f>IF(Model!P12="0","",Model!P12)</f>
         <v>♭7</v>
       </c>
-      <c r="X22" s="119"/>
+      <c r="X22" s="164"/>
       <c r="Y22" s="48"/>
       <c r="Z22" s="48"/>
       <c r="AA22" s="48"/>
@@ -6106,53 +5142,53 @@
       <c r="AD22" s="48"/>
     </row>
     <row r="23" spans="2:30" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="K23" s="124" t="str">
+      <c r="B23" s="167"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="K23" s="163" t="str">
         <f>Model!J$16</f>
         <v>Em7</v>
       </c>
-      <c r="L23" s="124" t="str">
+      <c r="L23" s="163" t="str">
         <f>Model!K$16</f>
         <v/>
       </c>
-      <c r="M23" s="124" t="str">
+      <c r="M23" s="163" t="str">
         <f>Model!K$16</f>
         <v/>
       </c>
-      <c r="N23" s="124" t="str">
+      <c r="N23" s="163" t="str">
         <f>Model!M$16</f>
         <v>A5 ♭7</v>
       </c>
-      <c r="O23" s="124" t="str">
+      <c r="O23" s="163" t="str">
         <f>Model!L$16</f>
         <v>GM</v>
       </c>
-      <c r="P23" s="124"/>
-      <c r="Q23" s="124" t="str">
+      <c r="P23" s="163"/>
+      <c r="Q23" s="163" t="str">
         <f>Model!M$16</f>
         <v>A5 ♭7</v>
       </c>
-      <c r="R23" s="124"/>
-      <c r="S23" s="124" t="str">
+      <c r="R23" s="163"/>
+      <c r="S23" s="163" t="str">
         <f>Model!N$16</f>
         <v>B♭3 ♭7</v>
       </c>
-      <c r="T23" s="124"/>
-      <c r="U23" s="124" t="str">
+      <c r="T23" s="163"/>
+      <c r="U23" s="163" t="str">
         <f>Model!O$16</f>
         <v/>
       </c>
-      <c r="V23" s="124"/>
-      <c r="W23" s="124" t="str">
+      <c r="V23" s="163"/>
+      <c r="W23" s="163" t="str">
         <f>Model!P$16</f>
         <v>D5</v>
       </c>
-      <c r="X23" s="124"/>
+      <c r="X23" s="163"/>
       <c r="Y23" s="48"/>
       <c r="Z23" s="48"/>
       <c r="AA23" s="48"/>
@@ -6161,12 +5197,12 @@
       <c r="AD23" s="48"/>
     </row>
     <row r="24" spans="2:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
+      <c r="B24" s="167"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
       <c r="H24" s="49"/>
       <c r="I24" s="49"/>
       <c r="J24" s="73"/>
@@ -6192,49 +5228,49 @@
       <c r="AD24" s="49"/>
     </row>
     <row r="25" spans="2:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="122" t="s">
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="171" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="122"/>
+      <c r="I25" s="171"/>
       <c r="J25" s="57" t="str">
         <f>Model!J15</f>
         <v>E</v>
       </c>
       <c r="K25" s="58" t="str">
-        <f>IF(Model!J15=0, "", Model!K15)</f>
+        <f>IF(Model!K15=0, "", Model!K15)</f>
         <v/>
       </c>
       <c r="L25" s="59" t="str">
-        <f>IF(Model!K15=0, "", Model!L15)</f>
+        <f>IF(Model!L15=0, "", Model!L15)</f>
         <v>G</v>
       </c>
       <c r="M25" s="60" t="str">
-        <f>IF(Model!L15=0, "", Model!M15)</f>
+        <f>IF(Model!M15=0, "", Model!M15)</f>
         <v>A</v>
       </c>
       <c r="N25" s="61" t="str">
-        <f>IF(Model!M15=0, "", Model!N15)</f>
+        <f>IF(Model!N15=0, "", Model!N15)</f>
         <v>B</v>
       </c>
       <c r="O25" s="62" t="str">
-        <f>IF(Model!N15=0, "", Model!O15)</f>
+        <f>IF(Model!O15=0, "", Model!O15)</f>
         <v/>
       </c>
       <c r="P25" s="63" t="str">
-        <f>IF(Model!O15=0, "", Model!P15)</f>
+        <f>IF(Model!P15=0, "", Model!P15)</f>
         <v>D</v>
       </c>
-      <c r="S25" s="123" t="s">
+      <c r="S25" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="T25" s="123"/>
-      <c r="U25" s="123"/>
+      <c r="T25" s="172"/>
+      <c r="U25" s="172"/>
       <c r="V25" s="75" t="str">
         <f>IF(Model!J13=1, "h", IF(Model!J13=2, "W", IF(Model!J13=3, "W+h", IF(Model!J13=4, "WW", IF(Model!J13=0, "", Model!J4)))))</f>
         <v/>
@@ -6273,108 +5309,108 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="79">
-        <f>IF($AB$3, 24-E$1, E$1)</f>
+        <f t="shared" ref="E26:AC26" si="2">IF($AB$3, 24-E$1, E$1)</f>
         <v>0</v>
       </c>
       <c r="F26" s="80">
-        <f>IF($AB$3, 24-F$1, F$1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G26" s="35">
-        <f>IF($AB$3, 24-G$1, G$1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H26" s="36">
-        <f>IF($AB$3, 24-H$1, H$1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I26" s="35">
-        <f>IF($AB$3, 24-I$1, I$1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J26" s="36">
-        <f>IF($AB$3, 24-J$1, J$1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K26" s="35">
-        <f>IF($AB$3, 24-K$1, K$1)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="L26" s="36">
-        <f>IF($AB$3, 24-L$1, L$1)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="M26" s="35">
-        <f>IF($AB$3, 24-M$1, M$1)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="N26" s="36">
-        <f>IF($AB$3, 24-N$1, N$1)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O26" s="35">
-        <f>IF($AB$3, 24-O$1, O$1)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="P26" s="35">
-        <f>IF($AB$3, 24-P$1, P$1)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="Q26" s="41">
-        <f>IF($AB$3, 24-Q$1, Q$1)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="R26" s="35">
-        <f>IF($AB$3, 24-R$1, R$1)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="S26" s="35">
-        <f>IF($AB$3, 24-S$1, S$1)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="T26" s="36">
-        <f>IF($AB$3, 24-T$1, T$1)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="U26" s="35">
-        <f>IF($AB$3, 24-U$1, U$1)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="V26" s="36">
-        <f>IF($AB$3, 24-V$1, V$1)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="W26" s="35">
-        <f>IF($AB$3, 24-W$1, W$1)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="X26" s="36">
-        <f>IF($AB$3, 24-X$1, X$1)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="Y26" s="35">
-        <f>IF($AB$3, 24-Y$1, Y$1)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="Z26" s="36">
-        <f>IF($AB$3, 24-Z$1, Z$1)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="AA26" s="35">
-        <f>IF($AB$3, 24-AA$1, AA$1)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="AB26" s="35">
-        <f>IF($AB$3, 24-AB$1, AB$1)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="AC26" s="42">
-        <f>IF($AB$3, 24-AC$1, AC$1)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="116" t="s">
+      <c r="B27" s="170" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="52" t="s">
@@ -6487,7 +5523,7 @@
       <c r="AD27" s="51"/>
     </row>
     <row r="28" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="116"/>
+      <c r="B28" s="170"/>
       <c r="C28" s="52" t="s">
         <v>14</v>
       </c>
@@ -6598,7 +5634,7 @@
       <c r="AD28" s="51"/>
     </row>
     <row r="29" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="116"/>
+      <c r="B29" s="170"/>
       <c r="C29" s="52" t="s">
         <v>13</v>
       </c>
@@ -6709,7 +5745,7 @@
       <c r="AD29" s="51"/>
     </row>
     <row r="30" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="116"/>
+      <c r="B30" s="170"/>
       <c r="C30" s="52" t="s">
         <v>10</v>
       </c>
@@ -6820,7 +5856,7 @@
       <c r="AD30" s="51"/>
     </row>
     <row r="31" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="116"/>
+      <c r="B31" s="170"/>
       <c r="C31" s="52" t="s">
         <v>12</v>
       </c>
@@ -6931,7 +5967,7 @@
       <c r="AD31" s="51"/>
     </row>
     <row r="32" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="120" t="s">
+      <c r="B32" s="165" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="52" t="s">
@@ -7044,7 +6080,7 @@
       <c r="AD32" s="51"/>
     </row>
     <row r="33" spans="2:30" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="120"/>
+      <c r="B33" s="165"/>
       <c r="C33" s="52" t="s">
         <v>14</v>
       </c>
@@ -7155,7 +6191,7 @@
       <c r="AD33" s="51"/>
     </row>
     <row r="34" spans="2:30" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="120"/>
+      <c r="B34" s="165"/>
       <c r="C34" s="52" t="s">
         <v>57</v>
       </c>
@@ -7266,7 +6302,7 @@
       <c r="AD34" s="51"/>
     </row>
     <row r="35" spans="2:30" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="120"/>
+      <c r="B35" s="165"/>
       <c r="C35" s="52" t="s">
         <v>51</v>
       </c>
@@ -7383,103 +6419,103 @@
       <c r="C36" s="53"/>
       <c r="D36" s="1"/>
       <c r="E36" s="40">
-        <f>IF($AB$3, 24-E$1, E$1)</f>
+        <f t="shared" ref="E36:AC36" si="3">IF($AB$3, 24-E$1, E$1)</f>
         <v>0</v>
       </c>
       <c r="F36" s="35">
-        <f>IF($AB$3, 24-F$1, F$1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G36" s="35">
-        <f>IF($AB$3, 24-G$1, G$1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H36" s="36">
-        <f>IF($AB$3, 24-H$1, H$1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I36" s="35">
-        <f>IF($AB$3, 24-I$1, I$1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J36" s="36">
-        <f>IF($AB$3, 24-J$1, J$1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K36" s="35">
-        <f>IF($AB$3, 24-K$1, K$1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="L36" s="36">
-        <f>IF($AB$3, 24-L$1, L$1)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="M36" s="35">
-        <f>IF($AB$3, 24-M$1, M$1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N36" s="36">
-        <f>IF($AB$3, 24-N$1, N$1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="O36" s="35">
-        <f>IF($AB$3, 24-O$1, O$1)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="P36" s="35">
-        <f>IF($AB$3, 24-P$1, P$1)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="Q36" s="41">
-        <f>IF($AB$3, 24-Q$1, Q$1)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="R36" s="35">
-        <f>IF($AB$3, 24-R$1, R$1)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="S36" s="35">
-        <f>IF($AB$3, 24-S$1, S$1)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="T36" s="36">
-        <f>IF($AB$3, 24-T$1, T$1)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="U36" s="35">
-        <f>IF($AB$3, 24-U$1, U$1)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="V36" s="36">
-        <f>IF($AB$3, 24-V$1, V$1)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="W36" s="35">
-        <f>IF($AB$3, 24-W$1, W$1)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="X36" s="36">
-        <f>IF($AB$3, 24-X$1, X$1)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="Y36" s="35">
-        <f>IF($AB$3, 24-Y$1, Y$1)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="Z36" s="36">
-        <f>IF($AB$3, 24-Z$1, Z$1)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="AA36" s="35">
-        <f>IF($AB$3, 24-AA$1, AA$1)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="AB36" s="35">
-        <f>IF($AB$3, 24-AB$1, AB$1)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="AC36" s="42">
-        <f>IF($AB$3, 24-AC$1, AC$1)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
     </row>
@@ -7512,10 +6548,10 @@
       <c r="AC37" s="56"/>
     </row>
     <row r="38" spans="2:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="117"/>
+      <c r="B38" s="161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="161"/>
       <c r="E38" s="70" t="s">
         <v>2</v>
       </c>
@@ -7539,32 +6575,51 @@
       </c>
     </row>
     <row r="39" spans="2:30" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="B39" s="117"/>
-      <c r="C39" s="117"/>
-      <c r="E39" s="151" t="s">
+      <c r="B39" s="161"/>
+      <c r="C39" s="161"/>
+      <c r="E39" s="160" t="s">
         <v>192</v>
       </c>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="160"/>
+      <c r="K39" s="160"/>
     </row>
-    <row r="40" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B40" s="76"/>
     </row>
-    <row r="44" spans="2:30" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:30" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:30" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:30" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:30" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="Z3:AA5"/>
+    <mergeCell ref="AB3:AC5"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="B22:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="W22:X22"/>
     <mergeCell ref="E39:K39"/>
     <mergeCell ref="B38:C39"/>
     <mergeCell ref="E20:K20"/>
@@ -7580,438 +6635,244 @@
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="W22:X22"/>
     <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B22:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Z3:AA5"/>
-    <mergeCell ref="AB3:AC5"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
   </mergeCells>
   <conditionalFormatting sqref="W6:AA6">
-    <cfRule type="containsText" dxfId="252" priority="171" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="118" priority="185" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",W6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="containsText" dxfId="251" priority="54" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="117" priority="68" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",V6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6">
-    <cfRule type="containsText" dxfId="250" priority="53" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="116" priority="67" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",AB6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25">
-    <cfRule type="containsText" dxfId="249" priority="45" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="115" priority="59" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",V25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25">
-    <cfRule type="containsText" dxfId="248" priority="44" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="114" priority="58" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",W25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25">
-    <cfRule type="containsText" dxfId="247" priority="43" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="113" priority="57" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",X25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y25">
-    <cfRule type="containsText" dxfId="246" priority="42" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="112" priority="56" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",Y25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z25">
-    <cfRule type="containsText" dxfId="245" priority="41" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="111" priority="55" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",Z25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA25">
-    <cfRule type="containsText" dxfId="244" priority="40" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="110" priority="54" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",AA25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB25">
-    <cfRule type="containsText" dxfId="243" priority="39" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="109" priority="53" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",AB25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:P16">
-    <cfRule type="containsBlanks" dxfId="242" priority="558">
-      <formula>LEN(TRIM(G8))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F27:P35">
-    <cfRule type="containsBlanks" dxfId="241" priority="559">
+    <cfRule type="containsBlanks" dxfId="108" priority="573">
       <formula>LEN(TRIM(F27))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:AB16">
-    <cfRule type="containsBlanks" dxfId="240" priority="560">
+    <cfRule type="containsBlanks" dxfId="107" priority="574">
       <formula>LEN(TRIM(R8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27:AB35">
-    <cfRule type="containsBlanks" dxfId="239" priority="23">
+    <cfRule type="containsBlanks" dxfId="106" priority="37">
       <formula>LEN(TRIM(R27))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25">
-    <cfRule type="expression" dxfId="238" priority="596">
+    <cfRule type="expression" dxfId="105" priority="610">
       <formula>FIND(7,Q22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="597">
+    <cfRule type="expression" dxfId="104" priority="611">
       <formula>FIND(6, Q22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="598">
+    <cfRule type="expression" dxfId="103" priority="612">
       <formula>FIND(5,Q22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="599">
+    <cfRule type="expression" dxfId="102" priority="613">
       <formula>FIND(4,Q22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="600">
+    <cfRule type="expression" dxfId="101" priority="614">
       <formula>FIND(3, Q22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="601">
+    <cfRule type="expression" dxfId="100" priority="615">
       <formula>FIND(2, Q22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="602">
+    <cfRule type="expression" dxfId="99" priority="616">
       <formula>FIND(1, Q22)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="expression" dxfId="231" priority="610">
+    <cfRule type="expression" dxfId="98" priority="624">
       <formula>FIND(7,O22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="611">
+    <cfRule type="expression" dxfId="97" priority="625">
       <formula>FIND(6, O22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="612">
+    <cfRule type="expression" dxfId="96" priority="626">
       <formula>FIND(5,O22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="613">
+    <cfRule type="expression" dxfId="95" priority="627">
       <formula>FIND(4,O22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="614">
+    <cfRule type="expression" dxfId="94" priority="628">
       <formula>FIND(3, O22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="615">
+    <cfRule type="expression" dxfId="93" priority="629">
       <formula>FIND(2, O22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="616">
+    <cfRule type="expression" dxfId="92" priority="630">
       <formula>FIND(1, O22)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="224" priority="624">
+    <cfRule type="expression" dxfId="91" priority="638">
       <formula>FIND(7,M22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="625">
+    <cfRule type="expression" dxfId="90" priority="639">
       <formula>FIND(6, M22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="626">
+    <cfRule type="expression" dxfId="89" priority="640">
       <formula>FIND(5,M22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="627">
+    <cfRule type="expression" dxfId="88" priority="641">
       <formula>FIND(4,M22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="628">
+    <cfRule type="expression" dxfId="87" priority="642">
       <formula>FIND(3, M22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="629">
+    <cfRule type="expression" dxfId="86" priority="643">
       <formula>FIND(2, M22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="630">
+    <cfRule type="expression" dxfId="85" priority="644">
       <formula>FIND(1, M22)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="expression" dxfId="217" priority="638">
+    <cfRule type="expression" dxfId="84" priority="652">
       <formula>FIND(7,K22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="639">
+    <cfRule type="expression" dxfId="83" priority="653">
       <formula>FIND(6, K22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="640">
+    <cfRule type="expression" dxfId="82" priority="654">
       <formula>FIND(5,K22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="641">
+    <cfRule type="expression" dxfId="81" priority="655">
       <formula>FIND(4,K22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="642">
+    <cfRule type="expression" dxfId="80" priority="656">
       <formula>FIND(3, K22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="643">
+    <cfRule type="expression" dxfId="79" priority="657">
       <formula>FIND(2, K22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="644">
+    <cfRule type="expression" dxfId="78" priority="658">
       <formula>FIND(1, K22)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25">
-    <cfRule type="expression" dxfId="210" priority="645">
+    <cfRule type="expression" dxfId="77" priority="659">
       <formula>FIND(7,W22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="646">
+    <cfRule type="expression" dxfId="76" priority="660">
       <formula>FIND(6, W22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="647">
+    <cfRule type="expression" dxfId="75" priority="661">
       <formula>FIND(5,W22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="648">
+    <cfRule type="expression" dxfId="74" priority="662">
       <formula>FIND(4,W22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="649">
+    <cfRule type="expression" dxfId="73" priority="663">
       <formula>FIND(3, W22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="650">
+    <cfRule type="expression" dxfId="72" priority="664">
       <formula>FIND(2, W22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="651">
+    <cfRule type="expression" dxfId="71" priority="665">
       <formula>FIND(1, W22)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25">
-    <cfRule type="expression" dxfId="203" priority="652">
+    <cfRule type="expression" dxfId="70" priority="666">
       <formula>FIND(7,U22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="653">
+    <cfRule type="expression" dxfId="69" priority="667">
       <formula>FIND(6, U22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="654">
+    <cfRule type="expression" dxfId="68" priority="668">
       <formula>FIND(5,U22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="655">
+    <cfRule type="expression" dxfId="67" priority="669">
       <formula>FIND(4,U22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="656">
+    <cfRule type="expression" dxfId="66" priority="670">
       <formula>FIND(3, U22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="657">
+    <cfRule type="expression" dxfId="65" priority="671">
       <formula>FIND(2, U22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="658">
+    <cfRule type="expression" dxfId="64" priority="672">
       <formula>FIND(1, U22)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25">
-    <cfRule type="expression" dxfId="196" priority="659">
+    <cfRule type="expression" dxfId="63" priority="673">
       <formula>FIND(7,S22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="660">
+    <cfRule type="expression" dxfId="62" priority="674">
       <formula>FIND(6, S22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="661">
+    <cfRule type="expression" dxfId="61" priority="675">
       <formula>FIND(5,S22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="662">
+    <cfRule type="expression" dxfId="60" priority="676">
       <formula>FIND(4,S22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="663">
+    <cfRule type="expression" dxfId="59" priority="677">
       <formula>FIND(3, S22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="664">
+    <cfRule type="expression" dxfId="58" priority="678">
       <formula>FIND(2, S22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="665">
+    <cfRule type="expression" dxfId="57" priority="679">
       <formula>FIND(1, S22)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F16">
-    <cfRule type="containsBlanks" dxfId="189" priority="15">
+  <conditionalFormatting sqref="F8:P16">
+    <cfRule type="containsBlanks" dxfId="56" priority="29">
       <formula>LEN(TRIM(F8))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="188" priority="687">
-      <formula>FIND(7,Q3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="187" priority="688">
-      <formula>FIND(6, Q3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="689">
-      <formula>FIND(5,Q3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="185" priority="690">
-      <formula>FIND(4,Q3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="691">
-      <formula>FIND(3, Q3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="183" priority="692">
-      <formula>FIND(2, Q3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="693">
-      <formula>FIND(1, Q3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="181" priority="694">
-      <formula>FIND(7,O3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="695">
-      <formula>FIND(6, O3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="179" priority="696">
-      <formula>FIND(5,O3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="697">
-      <formula>FIND(4,O3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="698">
-      <formula>FIND(3, O3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="699">
-      <formula>FIND(2, O3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="175" priority="700">
-      <formula>FIND(1, O3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="174" priority="701">
-      <formula>FIND(7,M3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="173" priority="702">
-      <formula>FIND(6, M3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="703">
-      <formula>FIND(5,M3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="171" priority="704">
-      <formula>FIND(4,M3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="705">
-      <formula>FIND(3, M3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="706">
-      <formula>FIND(2, M3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="707">
-      <formula>FIND(1, M3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="167" priority="708">
-      <formula>FIND(7,K3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="709">
-      <formula>FIND(6, K3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="165" priority="710">
-      <formula>FIND(5,K3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="711">
-      <formula>FIND(4,K3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="163" priority="712">
-      <formula>FIND(3, K3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="713">
-      <formula>FIND(2, K3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="161" priority="714">
-      <formula>FIND(1, K3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6">
-    <cfRule type="expression" dxfId="160" priority="715">
-      <formula>FIND(7,W3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="159" priority="716">
-      <formula>FIND(6, W3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="717">
-      <formula>FIND(5,W3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="157" priority="718">
-      <formula>FIND(4,W3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="719">
-      <formula>FIND(3, W3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="155" priority="720">
-      <formula>FIND(2, W3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="721">
-      <formula>FIND(1, W3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="153" priority="722">
-      <formula>FIND(7,U3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="723">
-      <formula>FIND(6, U3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="151" priority="724">
-      <formula>FIND(5,U3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="725">
-      <formula>FIND(4,U3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="726">
-      <formula>FIND(3, U3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="727">
-      <formula>FIND(2, U3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="728">
-      <formula>FIND(1, U3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="146" priority="729">
-      <formula>FIND(7,S3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="730">
-      <formula>FIND(6, S3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="731">
-      <formula>FIND(5,S3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="732">
-      <formula>FIND(4,S3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="733">
-      <formula>FIND(3, S3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="734">
-      <formula>FIND(2, S3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="735">
-      <formula>FIND(1, S3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations xWindow="573" yWindow="743" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21 B21" xr:uid="{B68EA209-63EF-4D62-8809-EC6365A5BF0B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:C21" xr:uid="{B68EA209-63EF-4D62-8809-EC6365A5BF0B}">
       <formula1>"Default, Chords"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8021,7 +6882,71 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1499" id="{00000000-000E-0000-0000-000024020000}">
+          <x14:cfRule type="expression" priority="722" id="{00000000-000E-0000-0000-0000C4020000}">
+            <xm:f>SEARCH("7", Model!J$3)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF66FF"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="723" id="{00000000-000E-0000-0000-0000C5020000}">
+            <xm:f>SEARCH("6", Model!J$3)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFA63AB8"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="724" id="{00000000-000E-0000-0000-0000C6020000}">
+            <xm:f>SEARCH("5", Model!J$3)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF63D218"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="725" id="{00000000-000E-0000-0000-0000C7020000}">
+            <xm:f>SEARCH("4", Model!J$3)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFB7EE00"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="726" id="{00000000-000E-0000-0000-0000C8020000}">
+            <xm:f>SEARCH("3", Model!J$3)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF70C3FC"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="727" id="{00000000-000E-0000-0000-0000C9020000}">
+            <xm:f>SEARCH("2", Model!J$3)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFC07DE2"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="728" id="{00000000-000E-0000-0000-0000CA020000}">
+            <xm:f>SEARCH("1", Model!J$3)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF2992D9"/>
+              </font>
+              <fill>
+                <patternFill patternType="none">
+                  <bgColor auto="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J6:P6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1513" id="{00000000-000E-0000-0000-000024020000}">
             <xm:f>AND(Model!$O$8=TRUE, SEARCH("6", AB3))</xm:f>
             <x14:dxf>
               <font>
@@ -8034,7 +6959,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1500" id="{00000000-000E-0000-0000-000025020000}">
+          <x14:cfRule type="expression" priority="1514" id="{00000000-000E-0000-0000-000025020000}">
             <xm:f>AND(Model!$J$8=TRUE, SEARCH("1", AB3))</xm:f>
             <x14:dxf>
               <font>
@@ -8049,7 +6974,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1501" id="{00000000-000E-0000-0000-000026020000}">
+          <x14:cfRule type="expression" priority="1515" id="{00000000-000E-0000-0000-000026020000}">
             <xm:f>AND(Model!$K$8=TRUE, SEARCH("2", AB3))</xm:f>
             <x14:dxf>
               <font>
@@ -8062,7 +6987,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1502" id="{00000000-000E-0000-0000-000027020000}">
+          <x14:cfRule type="expression" priority="1516" id="{00000000-000E-0000-0000-000027020000}">
             <xm:f>AND(Model!$L$8=TRUE, SEARCH("3", AB3))</xm:f>
             <x14:dxf>
               <font>
@@ -8075,7 +7000,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1503" id="{00000000-000E-0000-0000-000028020000}">
+          <x14:cfRule type="expression" priority="1517" id="{00000000-000E-0000-0000-000028020000}">
             <xm:f>AND(Model!$M$8=TRUE, SEARCH("4", AB3))</xm:f>
             <x14:dxf>
               <font>
@@ -8088,7 +7013,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1504" id="{00000000-000E-0000-0000-000029020000}">
+          <x14:cfRule type="expression" priority="1518" id="{00000000-000E-0000-0000-000029020000}">
             <xm:f>AND(Model!$N$8=TRUE, SEARCH("5", AB3))</xm:f>
             <x14:dxf>
               <font>
@@ -8103,7 +7028,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1505" id="{00000000-000E-0000-0000-00002A020000}">
+          <x14:cfRule type="expression" priority="1519" id="{00000000-000E-0000-0000-00002A020000}">
             <xm:f>AND(Model!$P$8=TRUE, SEARCH("7", AB3))</xm:f>
             <x14:dxf>
               <font>
@@ -8119,105 +7044,7 @@
           <xm:sqref>AB3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1520" id="{00000000-000E-0000-0000-00005D000000}">
-            <xm:f>AND(Model!$J$8, SEARCH("1", E8))</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF3788CB"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="1521" id="{00000000-000E-0000-0000-00005E000000}">
-            <xm:f>AND(Model!$K$8, SEARCH("2", E8))</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1" tint="0.14996795556505021"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFE4D2F2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="1522" id="{00000000-000E-0000-0000-00005F000000}">
-            <xm:f>AND(Model!$L$8, SEARCH("3", E8))</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFF4DA3E"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="1523" id="{00000000-000E-0000-0000-000060000000}">
-            <xm:f>AND(Model!$M$8, SEARCH("4", E8))</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1" tint="0.14996795556505021"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFB567F5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="1524" id="{00000000-000E-0000-0000-000061000000}">
-            <xm:f>AND(Model!$N$8, SEARCH("5", E8))</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color auto="1"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF8CFF19"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="1525" id="{00000000-000E-0000-0000-000062000000}">
-            <xm:f>AND(Model!$O$8, SEARCH("6", E8))</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0" tint="-4.9989318521683403E-2"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF642C76"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="1526" id="{00000000-000E-0000-0000-000063000000}">
-            <xm:f>AND(Model!$P$8, SEARCH("7", E8))</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0" tint="-4.9989318521683403E-2"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF66FF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G8:AC16 E8:E16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1534" id="{00000000-000E-0000-0000-00003A000000}">
+          <x14:cfRule type="expression" priority="1548" id="{00000000-000E-0000-0000-00003A000000}">
             <xm:f>AND(Model!$J$8, SEARCH("1", E19))</xm:f>
             <x14:dxf>
               <font>
@@ -8232,7 +7059,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1535" id="{00000000-000E-0000-0000-00003B000000}">
+          <x14:cfRule type="expression" priority="1549" id="{00000000-000E-0000-0000-00003B000000}">
             <xm:f>AND(Model!$K$8, SEARCH("2", E19))</xm:f>
             <x14:dxf>
               <font>
@@ -8245,7 +7072,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1536" id="{00000000-000E-0000-0000-00003C000000}">
+          <x14:cfRule type="expression" priority="1550" id="{00000000-000E-0000-0000-00003C000000}">
             <xm:f>AND(Model!$L$8, SEARCH("3", E19))</xm:f>
             <x14:dxf>
               <font>
@@ -8258,7 +7085,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1537" id="{00000000-000E-0000-0000-00003D000000}">
+          <x14:cfRule type="expression" priority="1551" id="{00000000-000E-0000-0000-00003D000000}">
             <xm:f>AND(Model!$M$8, SEARCH("4", E19))</xm:f>
             <x14:dxf>
               <font>
@@ -8271,7 +7098,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1538" id="{00000000-000E-0000-0000-00003E000000}">
+          <x14:cfRule type="expression" priority="1552" id="{00000000-000E-0000-0000-00003E000000}">
             <xm:f>AND(Model!$N$8, SEARCH("5", E19))</xm:f>
             <x14:dxf>
               <font>
@@ -8286,7 +7113,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1539" id="{00000000-000E-0000-0000-00003F000000}">
+          <x14:cfRule type="expression" priority="1553" id="{00000000-000E-0000-0000-00003F000000}">
             <xm:f>AND(Model!$O$8, SEARCH("6", E19))</xm:f>
             <x14:dxf>
               <font>
@@ -8299,7 +7126,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1540" id="{00000000-000E-0000-0000-000040000000}">
+          <x14:cfRule type="expression" priority="1554" id="{00000000-000E-0000-0000-000040000000}">
             <xm:f>AND(Model!$P$8, SEARCH("7", E19))</xm:f>
             <x14:dxf>
               <font>
@@ -8315,105 +7142,7 @@
           <xm:sqref>E19:K19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1541" id="{00000000-000E-0000-0000-000008000000}">
-            <xm:f>AND(Model!$J$8, SEARCH("1", F8))</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF3788CB"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="1542" id="{00000000-000E-0000-0000-000009000000}">
-            <xm:f>AND(Model!$K$8, SEARCH("2", F8))</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1" tint="0.14996795556505021"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFE4D2F2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="1543" id="{00000000-000E-0000-0000-00000A000000}">
-            <xm:f>AND(Model!$L$8, SEARCH("3", F8))</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1" tint="0.14996795556505021"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFF4DA3E"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="1544" id="{00000000-000E-0000-0000-00000B000000}">
-            <xm:f>AND(Model!$M$8, SEARCH("4", F8))</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1" tint="0.14996795556505021"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFB567F5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="1545" id="{00000000-000E-0000-0000-00000C000000}">
-            <xm:f>AND(Model!$N$8, SEARCH("5", F8))</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="1" tint="4.9989318521683403E-2"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF8CFF19"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="1546" id="{00000000-000E-0000-0000-00000D000000}">
-            <xm:f>AND(Model!$O$8, SEARCH("6", F8))</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0" tint="-4.9989318521683403E-2"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF642C76"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="1547" id="{00000000-000E-0000-0000-00000E000000}">
-            <xm:f>AND(Model!$P$8, SEARCH("7", F8))</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0" tint="-4.9989318521683403E-2"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF66FF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F8:F16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1674" id="{00000000-000E-0000-0000-00004F000000}">
+          <x14:cfRule type="expression" priority="1688" id="{00000000-000E-0000-0000-00004F000000}">
             <xm:f>AND(Model!$J$17, SEARCH("1", E38))</xm:f>
             <x14:dxf>
               <font>
@@ -8428,7 +7157,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1675" id="{00000000-000E-0000-0000-000050000000}">
+          <x14:cfRule type="expression" priority="1689" id="{00000000-000E-0000-0000-000050000000}">
             <xm:f>AND(Model!$K$17, SEARCH("2", E38))</xm:f>
             <x14:dxf>
               <font>
@@ -8441,7 +7170,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1676" id="{00000000-000E-0000-0000-000051000000}">
+          <x14:cfRule type="expression" priority="1690" id="{00000000-000E-0000-0000-000051000000}">
             <xm:f>AND(Model!$L$17, SEARCH("3", E38))</xm:f>
             <x14:dxf>
               <font>
@@ -8454,7 +7183,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1677" id="{00000000-000E-0000-0000-000052000000}">
+          <x14:cfRule type="expression" priority="1691" id="{00000000-000E-0000-0000-000052000000}">
             <xm:f>AND(Model!$M$17, SEARCH("4", E38))</xm:f>
             <x14:dxf>
               <font>
@@ -8467,7 +7196,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1678" id="{00000000-000E-0000-0000-000053000000}">
+          <x14:cfRule type="expression" priority="1692" id="{00000000-000E-0000-0000-000053000000}">
             <xm:f>AND(Model!$N$17, SEARCH("5", E38))</xm:f>
             <x14:dxf>
               <font>
@@ -8482,7 +7211,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1679" id="{00000000-000E-0000-0000-000054000000}">
+          <x14:cfRule type="expression" priority="1693" id="{00000000-000E-0000-0000-000054000000}">
             <xm:f>AND(Model!$O$17, SEARCH("6", E38))</xm:f>
             <x14:dxf>
               <font>
@@ -8495,7 +7224,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1680" id="{00000000-000E-0000-0000-000055000000}">
+          <x14:cfRule type="expression" priority="1694" id="{00000000-000E-0000-0000-000055000000}">
             <xm:f>AND(Model!$P$17, SEARCH("7", E38))</xm:f>
             <x14:dxf>
               <font>
@@ -8511,7 +7240,7 @@
           <xm:sqref>E38:K38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1688" id="{00000000-000E-0000-0000-000064000000}">
+          <x14:cfRule type="expression" priority="1702" id="{00000000-000E-0000-0000-000064000000}">
             <xm:f>AND(Model!$J$17, SEARCH("1", E27))</xm:f>
             <x14:dxf>
               <font>
@@ -8526,7 +7255,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1689" id="{00000000-000E-0000-0000-000065000000}">
+          <x14:cfRule type="expression" priority="1703" id="{00000000-000E-0000-0000-000065000000}">
             <xm:f>AND(Model!$K$17, SEARCH("2", E27))</xm:f>
             <x14:dxf>
               <font>
@@ -8539,7 +7268,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1690" id="{00000000-000E-0000-0000-000066000000}">
+          <x14:cfRule type="expression" priority="1704" id="{00000000-000E-0000-0000-000066000000}">
             <xm:f>AND(Model!$L$17, SEARCH("3", E27))</xm:f>
             <x14:dxf>
               <font>
@@ -8552,7 +7281,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1691" id="{00000000-000E-0000-0000-000067000000}">
+          <x14:cfRule type="expression" priority="1705" id="{00000000-000E-0000-0000-000067000000}">
             <xm:f>AND(Model!$M$17, SEARCH("4", E27))</xm:f>
             <x14:dxf>
               <font>
@@ -8565,7 +7294,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1692" id="{00000000-000E-0000-0000-000068000000}">
+          <x14:cfRule type="expression" priority="1706" id="{00000000-000E-0000-0000-000068000000}">
             <xm:f>AND(Model!$N$17, SEARCH("5", E27))</xm:f>
             <x14:dxf>
               <font>
@@ -8580,7 +7309,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1693" id="{00000000-000E-0000-0000-000069000000}">
+          <x14:cfRule type="expression" priority="1707" id="{00000000-000E-0000-0000-000069000000}">
             <xm:f>AND(Model!$O$17, SEARCH("6", E27))</xm:f>
             <x14:dxf>
               <font>
@@ -8593,7 +7322,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1694" id="{00000000-000E-0000-0000-00006A000000}">
+          <x14:cfRule type="expression" priority="1708" id="{00000000-000E-0000-0000-00006A000000}">
             <xm:f>AND(Model!$P$17, SEARCH("7", E27))</xm:f>
             <x14:dxf>
               <font>
@@ -8608,10 +7337,108 @@
           </x14:cfRule>
           <xm:sqref>E27:AC35</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1534" id="{00000000-000E-0000-0000-00005D000000}">
+            <xm:f>AND(Model!$J$8, SEARCH("1", E8))</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF3788CB"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="1535" id="{00000000-000E-0000-0000-00005E000000}">
+            <xm:f>AND(Model!$K$8, SEARCH("2", E8))</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1" tint="0.14996795556505021"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFE4D2F2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="1536" id="{00000000-000E-0000-0000-00005F000000}">
+            <xm:f>AND(Model!$L$8, SEARCH("3", E8))</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFF4DA3E"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="1537" id="{00000000-000E-0000-0000-000060000000}">
+            <xm:f>AND(Model!$M$8, SEARCH("4", E8))</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1" tint="0.14996795556505021"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFB567F5"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="1538" id="{00000000-000E-0000-0000-000061000000}">
+            <xm:f>AND(Model!$N$8, SEARCH("5", E8))</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color auto="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF8CFF19"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="1539" id="{00000000-000E-0000-0000-000062000000}">
+            <xm:f>AND(Model!$O$8, SEARCH("6", E8))</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0" tint="-4.9989318521683403E-2"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF642C76"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="1540" id="{00000000-000E-0000-0000-000063000000}">
+            <xm:f>AND(Model!$P$8, SEARCH("7", E8))</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0" tint="-4.9989318521683403E-2"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF66FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E8:AC16</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="573" yWindow="743" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Model!$A$2:$A$23</xm:f>
@@ -8626,13 +7453,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid chord" error="Select the chord you'd like highlighted." promptTitle="Chord Highlighting" prompt="Select a chord to color the relevant scale degrees on the fretboard." xr:uid="{28768B73-CCCE-4317-821A-3774E55295FC}">
           <x14:formula1>
-            <xm:f>Model!$I$72:$I$79</xm:f>
+            <xm:f>Model!$I$72:$I$81</xm:f>
           </x14:formula1>
           <xm:sqref>E20:K20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71B76236-27A3-4A75-AE6D-9F6C76C970BF}">
           <x14:formula1>
-            <xm:f>Model!$Q$72:$Q$79</xm:f>
+            <xm:f>Model!$Q$72:$Q$81</xm:f>
           </x14:formula1>
           <xm:sqref>E39:K39</xm:sqref>
         </x14:dataValidation>
@@ -8645,10 +7472,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:BO80"/>
+  <dimension ref="A1:BO90"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView topLeftCell="H64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -8683,21 +7510,21 @@
         <v>68</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="145"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="126" t="s">
+      <c r="G1" s="179"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
@@ -8813,10 +7640,10 @@
       <c r="G2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="128" t="s">
         <v>199</v>
       </c>
-      <c r="I2" s="144" t="s">
+      <c r="I2" s="127" t="s">
         <v>65</v>
       </c>
       <c r="J2" s="18">
@@ -8934,11 +7761,11 @@
       <c r="D3" s="11">
         <v>10</v>
       </c>
-      <c r="F3" s="127" t="s">
+      <c r="F3" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="128"/>
-      <c r="H3" s="149"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="177"/>
       <c r="I3" s="85" t="s">
         <v>34</v>
       </c>
@@ -8947,27 +7774,27 @@
         <v>1</v>
       </c>
       <c r="K3" s="9">
-        <f>IF(J4=0,"",IF(VLOOKUP($G$4,$Q$22:$X$43,1+K2,FALSE)=0,K2,VLOOKUP($G$4,$Q$22:$X$43,1+K2,FALSE)))</f>
+        <f t="shared" ref="K3:P3" si="0">IF(J4=0,"",IF(VLOOKUP($G$4,$Q$22:$X$43,1+K2,FALSE)=0,K2,VLOOKUP($G$4,$Q$22:$X$43,1+K2,FALSE)))</f>
         <v>2</v>
       </c>
       <c r="L3" s="9">
-        <f>IF(K4=0,"",IF(VLOOKUP($G$4,$Q$22:$X$43,1+L2,FALSE)=0,L2,VLOOKUP($G$4,$Q$22:$X$43,1+L2,FALSE)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="M3" s="9">
-        <f>IF(L4=0,"",IF(VLOOKUP($G$4,$Q$22:$X$43,1+M2,FALSE)=0,M2,VLOOKUP($G$4,$Q$22:$X$43,1+M2,FALSE)))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N3" s="9">
-        <f>IF(M4=0,"",IF(VLOOKUP($G$4,$Q$22:$X$43,1+N2,FALSE)=0,N2,VLOOKUP($G$4,$Q$22:$X$43,1+N2,FALSE)))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="O3" s="9">
-        <f>IF(N4=0,"",IF(VLOOKUP($G$4,$Q$22:$X$43,1+O2,FALSE)=0,O2,VLOOKUP($G$4,$Q$22:$X$43,1+O2,FALSE)))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P3" s="90">
-        <f>IF(O4=0,"",IF(VLOOKUP($G$4,$Q$22:$X$43,1+P2,FALSE)=0,P2,VLOOKUP($G$4,$Q$22:$X$43,1+P2,FALSE)))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="Y3" s="85">
@@ -9057,7 +7884,7 @@
         <f>Fretboards!B17</f>
         <v>Ionian (Major)</v>
       </c>
-      <c r="H4" s="147" t="str">
+      <c r="H4" s="129" t="str">
         <f>Fretboards!$E$20</f>
         <v>Scale Default</v>
       </c>
@@ -9171,40 +7998,40 @@
       <c r="D5" s="11">
         <v>8</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="128"/>
-      <c r="H5" s="149"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="177"/>
       <c r="I5" s="113" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="9">
-        <f>IFERROR(VLOOKUP(J6, $B$2:$D$37, 3, FALSE), "")</f>
+        <f t="shared" ref="J5:P5" si="1">IFERROR(VLOOKUP(J6, $B$2:$D$37, 3, FALSE), "")</f>
         <v>0</v>
       </c>
       <c r="K5" s="9">
-        <f>IFERROR(VLOOKUP(K6, $B$2:$D$37, 3, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L5" s="9">
-        <f>IFERROR(VLOOKUP(L6, $B$2:$D$37, 3, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M5" s="9">
-        <f>IFERROR(VLOOKUP(M6, $B$2:$D$37, 3, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N5" s="9">
-        <f>IFERROR(VLOOKUP(N6, $B$2:$D$37, 3, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="O5" s="9">
-        <f>IFERROR(VLOOKUP(O6, $B$2:$D$37, 3, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="P5" s="90">
-        <f>IFERROR(VLOOKUP(P6, $B$2:$D$37, 3, FALSE), "")</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="Y5" s="85">
@@ -9292,7 +8119,7 @@
         <f>Fretboards!B36</f>
         <v>Pentatonic Minor</v>
       </c>
-      <c r="H6" s="148" t="str">
+      <c r="H6" s="130" t="str">
         <f>Fretboards!$E$39</f>
         <v>1 Chord</v>
       </c>
@@ -9532,35 +8359,35 @@
       <c r="D8" s="11">
         <v>0</v>
       </c>
-      <c r="I8" s="132" t="s">
+      <c r="I8" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="J8" s="133" t="b">
-        <f>HLOOKUP(Fretboards!F$1, $J$71:$P$79, MATCH($H$4, $I$71:$I$79, 0))</f>
-        <v>1</v>
-      </c>
-      <c r="K8" s="133" t="b">
-        <f>HLOOKUP(Fretboards!G$1, $J$71:$P$79, MATCH($H$4, $I$71:$I$79, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="133" t="b">
-        <f>HLOOKUP(Fretboards!H$1, $J$71:$P$79, MATCH($H$4, $I$71:$I$79, 0))</f>
-        <v>1</v>
-      </c>
-      <c r="M8" s="133" t="b">
-        <f>HLOOKUP(Fretboards!I$1, $J$71:$P$79, MATCH($H$4, $I$71:$I$79, 0))</f>
-        <v>1</v>
-      </c>
-      <c r="N8" s="133" t="b">
-        <f>HLOOKUP(Fretboards!J$1, $J$71:$P$79, MATCH($H$4, $I$71:$I$79, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="133" t="b">
-        <f>HLOOKUP(Fretboards!K$1, $J$71:$P$79, MATCH($H$4, $I$71:$I$79, 0))</f>
-        <v>1</v>
-      </c>
-      <c r="P8" s="134" t="b">
-        <f>HLOOKUP(Fretboards!L$1, $J$71:$P$79, MATCH($H$4, $I$71:$I$79, 0))</f>
+      <c r="J8" s="116" t="b">
+        <f>HLOOKUP(Fretboards!F$1, $J$71:$P$81, MATCH($H$4, $I$71:$I$81, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="116" t="b">
+        <f>HLOOKUP(Fretboards!G$1, $J$71:$P$81, MATCH($H$4, $I$71:$I$81, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="116" t="b">
+        <f>HLOOKUP(Fretboards!H$1, $J$71:$P$81, MATCH($H$4, $I$71:$I$81, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="116" t="b">
+        <f>HLOOKUP(Fretboards!I$1, $J$71:$P$81, MATCH($H$4, $I$71:$I$81, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="N8" s="116" t="b">
+        <f>HLOOKUP(Fretboards!J$1, $J$71:$P$81, MATCH($H$4, $I$71:$I$81, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="116" t="b">
+        <f>HLOOKUP(Fretboards!K$1, $J$71:$P$81, MATCH($H$4, $I$71:$I$81, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="P8" s="117" t="b">
+        <f>HLOOKUP(Fretboards!L$1, $J$71:$P$81, MATCH($H$4, $I$71:$I$81, 0))</f>
         <v>1</v>
       </c>
       <c r="Y8" s="85">
@@ -9646,16 +8473,16 @@
       <c r="D9" s="11">
         <v>13</v>
       </c>
-      <c r="I9" s="125" t="s">
+      <c r="I9" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="173"/>
+      <c r="L9" s="173"/>
+      <c r="M9" s="173"/>
+      <c r="N9" s="173"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="173"/>
       <c r="Y9" s="85">
         <v>8</v>
       </c>
@@ -9759,14 +8586,14 @@
       <c r="D10" s="9">
         <v>10</v>
       </c>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="174"/>
+      <c r="O10" s="174"/>
+      <c r="P10" s="174"/>
       <c r="Y10" s="85">
         <v>9</v>
       </c>
@@ -9985,27 +8812,27 @@
         <v>1</v>
       </c>
       <c r="K12" s="9" t="str">
-        <f>IF(J13=0,"",IF(VLOOKUP($G$6,$Q$22:$X$43,1+K2,FALSE)=0,K2,VLOOKUP($G$6,$Q$22:$X$43,1+K2,FALSE)))</f>
+        <f t="shared" ref="K12:P12" si="2">IF(J13=0,"",IF(VLOOKUP($G$6,$Q$22:$X$43,1+K2,FALSE)=0,K2,VLOOKUP($G$6,$Q$22:$X$43,1+K2,FALSE)))</f>
         <v/>
       </c>
       <c r="L12" s="9" t="str">
-        <f>IF(K13=0,"",IF(VLOOKUP($G$6,$Q$22:$X$43,1+L2,FALSE)=0,L2,VLOOKUP($G$6,$Q$22:$X$43,1+L2,FALSE)))</f>
+        <f t="shared" si="2"/>
         <v>♭3</v>
       </c>
       <c r="M12" s="9">
-        <f>IF(L13=0,"",IF(VLOOKUP($G$6,$Q$22:$X$43,1+M2,FALSE)=0,M2,VLOOKUP($G$6,$Q$22:$X$43,1+M2,FALSE)))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N12" s="9">
-        <f>IF(M13=0,"",IF(VLOOKUP($G$6,$Q$22:$X$43,1+N2,FALSE)=0,N2,VLOOKUP($G$6,$Q$22:$X$43,1+N2,FALSE)))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O12" s="9" t="str">
-        <f>IF(N13=0,"",IF(VLOOKUP($G$6,$Q$22:$X$43,1+O2,FALSE)=0,O2,VLOOKUP($G$6,$Q$22:$X$43,1+O2,FALSE)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P12" s="90" t="str">
-        <f>IF(O13=0,"",IF(VLOOKUP($G$6,$Q$22:$X$43,1+P2,FALSE)=0,P2,VLOOKUP($G$6,$Q$22:$X$43,1+P2,FALSE)))</f>
+        <f t="shared" si="2"/>
         <v>♭7</v>
       </c>
       <c r="Y12" s="85">
@@ -10248,31 +9075,31 @@
         <v>67</v>
       </c>
       <c r="J14" s="82">
-        <f t="shared" ref="J14:P14" si="0">IFERROR(VLOOKUP(J15, $B$2:$D$37, 3, FALSE), "")</f>
+        <f t="shared" ref="J14:P14" si="3">IFERROR(VLOOKUP(J15, $B$2:$D$37, 3, FALSE), "")</f>
         <v>4</v>
       </c>
       <c r="K14" s="82" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L14" s="82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="M14" s="82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="N14" s="82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="O14" s="82" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P14" s="91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Y14" s="85">
@@ -10588,35 +9415,35 @@
       <c r="D17" s="11">
         <v>2</v>
       </c>
-      <c r="I17" s="132" t="s">
+      <c r="I17" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="J17" s="133" t="b">
-        <f>HLOOKUP(Fretboards!F$1, $R$71:$X$79, MATCH($H$6, $Q$71:$Q$79, 0))</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="133" t="b">
-        <f>HLOOKUP(Fretboards!G$1, $R$71:$X$79, MATCH($H$6, $Q$71:$Q$79, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="133" t="b">
-        <f>HLOOKUP(Fretboards!H$1, $R$71:$X$79, MATCH($H$6, $Q$71:$Q$79, 0))</f>
-        <v>1</v>
-      </c>
-      <c r="M17" s="133" t="b">
-        <f>HLOOKUP(Fretboards!I$1, $R$71:$X$79, MATCH($H$6, $Q$71:$Q$79, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="133" t="b">
-        <f>HLOOKUP(Fretboards!J$1, $R$71:$X$79, MATCH($H$6, $Q$71:$Q$79, 0))</f>
-        <v>1</v>
-      </c>
-      <c r="O17" s="133" t="b">
-        <f>HLOOKUP(Fretboards!K$1, $R$71:$X$79, MATCH($H$6, $Q$71:$Q$79, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="134" t="b">
-        <f>HLOOKUP(Fretboards!L$1, $R$71:$X$79, MATCH($H$6, $Q$71:$Q$79, 0))</f>
+      <c r="J17" s="116" t="b">
+        <f>HLOOKUP(Fretboards!F$1, $R$71:$X$81, MATCH($H$6, $Q$71:$Q$81, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="116" t="b">
+        <f>HLOOKUP(Fretboards!G$1, $R$71:$X$81, MATCH($H$6, $Q$71:$Q$81, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="116" t="b">
+        <f>HLOOKUP(Fretboards!H$1, $R$71:$X$81, MATCH($H$6, $Q$71:$Q$81, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="116" t="b">
+        <f>HLOOKUP(Fretboards!I$1, $R$71:$X$81, MATCH($H$6, $Q$71:$Q$81, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="116" t="b">
+        <f>HLOOKUP(Fretboards!J$1, $R$71:$X$81, MATCH($H$6, $Q$71:$Q$81, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="O17" s="116" t="b">
+        <f>HLOOKUP(Fretboards!K$1, $R$71:$X$81, MATCH($H$6, $Q$71:$Q$81, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="117" t="b">
+        <f>HLOOKUP(Fretboards!L$1, $R$71:$X$81, MATCH($H$6, $Q$71:$Q$81, 0))</f>
         <v>1</v>
       </c>
       <c r="BA17" s="34" t="s">
@@ -10686,13 +9513,13 @@
       <c r="D19" s="11">
         <v>4</v>
       </c>
-      <c r="J19" s="150"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="150"/>
-      <c r="M19" s="150"/>
-      <c r="N19" s="150"/>
-      <c r="O19" s="150"/>
-      <c r="P19" s="150"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="131"/>
+      <c r="O19" s="131"/>
+      <c r="P19" s="131"/>
     </row>
     <row r="20" spans="1:66" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="88" t="s">
@@ -12929,470 +11756,654 @@
     <row r="69" spans="9:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="9:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="9:24" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="I71" s="136" t="s">
+      <c r="I71" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="J71" s="137">
-        <v>1</v>
-      </c>
-      <c r="K71" s="137">
+      <c r="J71" s="120">
+        <v>1</v>
+      </c>
+      <c r="K71" s="120">
         <v>2</v>
       </c>
-      <c r="L71" s="137">
+      <c r="L71" s="120">
         <v>3</v>
       </c>
-      <c r="M71" s="137">
+      <c r="M71" s="120">
         <v>4</v>
       </c>
-      <c r="N71" s="137">
+      <c r="N71" s="120">
         <v>5</v>
       </c>
-      <c r="O71" s="137">
+      <c r="O71" s="120">
         <v>6</v>
       </c>
-      <c r="P71" s="138">
+      <c r="P71" s="121">
         <v>7</v>
       </c>
-      <c r="Q71" s="136" t="s">
+      <c r="Q71" s="119" t="s">
         <v>200</v>
       </c>
-      <c r="R71" s="137">
-        <v>1</v>
-      </c>
-      <c r="S71" s="137">
+      <c r="R71" s="120">
+        <v>1</v>
+      </c>
+      <c r="S71" s="120">
         <v>2</v>
       </c>
-      <c r="T71" s="137">
+      <c r="T71" s="120">
         <v>3</v>
       </c>
-      <c r="U71" s="137">
+      <c r="U71" s="120">
         <v>4</v>
       </c>
-      <c r="V71" s="137">
+      <c r="V71" s="120">
         <v>5</v>
       </c>
-      <c r="W71" s="137">
+      <c r="W71" s="120">
         <v>6</v>
       </c>
-      <c r="X71" s="138">
+      <c r="X71" s="121">
         <v>7</v>
       </c>
     </row>
     <row r="72" spans="9:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I72" s="142" t="s">
+      <c r="I72" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="J72" s="113" t="b">
+      <c r="J72" s="134" t="b">
         <f>HLOOKUP(Fretboards!F$1, Model!$J$46:$P$68, MATCH($G$4, Model!$I$46:$I$68, 0))</f>
         <v>1</v>
       </c>
-      <c r="K72" s="113" t="b">
+      <c r="K72" s="134" t="b">
         <f>HLOOKUP(Fretboards!G$1, Model!$J$46:$P$68, MATCH($G$4, Model!$I$46:$I$68, 0))</f>
         <v>0</v>
       </c>
-      <c r="L72" s="113" t="b">
+      <c r="L72" s="134" t="b">
         <f>HLOOKUP(Fretboards!H$1, Model!$J$46:$P$68, MATCH($G$4, Model!$I$46:$I$68, 0))</f>
         <v>1</v>
       </c>
-      <c r="M72" s="113" t="b">
+      <c r="M72" s="134" t="b">
         <f>HLOOKUP(Fretboards!I$1, Model!$J$46:$P$68, MATCH($G$4, Model!$I$46:$I$68, 0))</f>
         <v>1</v>
       </c>
-      <c r="N72" s="113" t="b">
+      <c r="N72" s="134" t="b">
         <f>HLOOKUP(Fretboards!J$1, Model!$J$46:$P$68, MATCH($G$4, Model!$I$46:$I$68, 0))</f>
         <v>0</v>
       </c>
-      <c r="O72" s="113" t="b">
+      <c r="O72" s="134" t="b">
         <f>HLOOKUP(Fretboards!K$1, Model!$J$46:$P$68, MATCH($G$4, Model!$I$46:$I$68, 0))</f>
         <v>1</v>
       </c>
-      <c r="P72" s="113" t="b">
+      <c r="P72" s="122" t="b">
         <f>HLOOKUP(Fretboards!L$1, Model!$J$46:$P$68, MATCH($G$4, Model!$I$46:$I$68, 0))</f>
         <v>1</v>
       </c>
-      <c r="Q72" s="142" t="s">
+      <c r="Q72" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="R72" s="113" t="b">
+      <c r="R72" s="134" t="b">
         <f>HLOOKUP(R71, Model!$J$46:$P$68, MATCH($G$6, Model!$I$46:$I$68, 0))</f>
         <v>1</v>
       </c>
-      <c r="S72" s="113" t="b">
+      <c r="S72" s="134" t="b">
         <f>HLOOKUP(S71, Model!$J$46:$P$68, MATCH($G$6, Model!$I$46:$I$68, 0))</f>
         <v>0</v>
       </c>
-      <c r="T72" s="113" t="b">
+      <c r="T72" s="134" t="b">
         <f>HLOOKUP(T71, Model!$J$46:$P$68, MATCH($G$6, Model!$I$46:$I$68, 0))</f>
         <v>1</v>
       </c>
-      <c r="U72" s="113" t="b">
+      <c r="U72" s="134" t="b">
         <f>HLOOKUP(U71, Model!$J$46:$P$68, MATCH($G$6, Model!$I$46:$I$68, 0))</f>
         <v>0</v>
       </c>
-      <c r="V72" s="113" t="b">
+      <c r="V72" s="134" t="b">
         <f>HLOOKUP(V71, Model!$J$46:$P$68, MATCH($G$6, Model!$I$46:$I$68, 0))</f>
         <v>1</v>
       </c>
-      <c r="W72" s="113" t="b">
+      <c r="W72" s="134" t="b">
         <f>HLOOKUP(W71, Model!$J$46:$P$68, MATCH($G$6, Model!$I$46:$I$68, 0))</f>
         <v>0</v>
       </c>
-      <c r="X72" s="139" t="b">
+      <c r="X72" s="122" t="b">
         <f>HLOOKUP(X71, Model!$J$46:$P$68, MATCH($G$6, Model!$I$46:$I$68, 0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="9:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I73" s="142" t="s">
+      <c r="I73" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="J73" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="K73" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="L73" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="M73" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="N73" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="O73" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="P73" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="142" t="s">
+      <c r="J73" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="K73" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="O73" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="P73" s="122" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="R73" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="S73" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="T73" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="U73" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="V73" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="W73" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="X73" s="139" t="b">
+      <c r="R73" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="S73" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="T73" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="U73" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="V73" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="W73" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="X73" s="122" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="9:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I74" s="142" t="s">
+      <c r="I74" s="125" t="s">
         <v>193</v>
       </c>
-      <c r="J74" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="K74" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="L74" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="M74" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="N74" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="O74" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="P74" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="142" t="s">
+      <c r="J74" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="K74" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="N74" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="O74" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="P74" s="122" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="125" t="s">
         <v>193</v>
       </c>
-      <c r="R74" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="S74" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="T74" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="U74" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="V74" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="W74" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="X74" s="139" t="b">
+      <c r="R74" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="S74" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="T74" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="U74" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="V74" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="W74" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="X74" s="122" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="9:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I75" s="142" t="s">
+      <c r="I75" s="125" t="s">
         <v>194</v>
       </c>
-      <c r="J75" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="K75" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="M75" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="N75" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="O75" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="P75" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="142" t="s">
+      <c r="J75" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="O75" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="P75" s="122" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="125" t="s">
         <v>194</v>
       </c>
-      <c r="R75" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="S75" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="T75" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="U75" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="V75" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="W75" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="X75" s="139" t="b">
+      <c r="R75" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="S75" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="T75" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="U75" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="V75" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="W75" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="X75" s="122" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="9:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I76" s="142" t="s">
+      <c r="I76" s="125" t="s">
         <v>195</v>
       </c>
-      <c r="J76" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="K76" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="M76" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="N76" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="O76" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="P76" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="142" t="s">
+      <c r="J76" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="N76" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="O76" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="P76" s="122" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="125" t="s">
         <v>195</v>
       </c>
-      <c r="R76" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="S76" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="T76" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="U76" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="V76" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="W76" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="X76" s="139" t="b">
+      <c r="R76" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="S76" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="T76" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="U76" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="V76" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="W76" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="X76" s="122" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="9:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I77" s="142" t="s">
+      <c r="I77" s="125" t="s">
         <v>196</v>
       </c>
-      <c r="J77" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="M77" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="N77" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="O77" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="P77" s="139" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="142" t="s">
+      <c r="J77" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="N77" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="O77" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="P77" s="122" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="125" t="s">
         <v>196</v>
       </c>
-      <c r="R77" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="S77" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="T77" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="U77" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="V77" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="W77" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="X77" s="139" t="b">
+      <c r="R77" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="S77" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="T77" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="U77" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="V77" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="W77" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="X77" s="122" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="9:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I78" s="142" t="s">
+      <c r="I78" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="J78" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="K78" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="M78" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="N78" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="O78" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="P78" s="139" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="142" t="s">
+      <c r="J78" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="K78" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="M78" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="O78" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="P78" s="122" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="R78" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="S78" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="T78" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="U78" s="113" t="b">
-        <v>0</v>
-      </c>
-      <c r="V78" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="W78" s="113" t="b">
-        <v>1</v>
-      </c>
-      <c r="X78" s="139" t="b">
+      <c r="R78" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="S78" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="T78" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="U78" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="V78" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="W78" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="X78" s="122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="9:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I79" s="143" t="s">
+    <row r="79" spans="9:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I79" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="J79" s="140" t="b">
-        <v>0</v>
-      </c>
-      <c r="K79" s="140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" s="140" t="b">
-        <v>0</v>
-      </c>
-      <c r="M79" s="140" t="b">
-        <v>1</v>
-      </c>
-      <c r="N79" s="140" t="b">
-        <v>0</v>
-      </c>
-      <c r="O79" s="140" t="b">
-        <v>1</v>
-      </c>
-      <c r="P79" s="141" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="143" t="s">
+      <c r="J79" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="N79" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="O79" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="P79" s="122" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="R79" s="140" t="b">
-        <v>0</v>
-      </c>
-      <c r="S79" s="140" t="b">
-        <v>1</v>
-      </c>
-      <c r="T79" s="140" t="b">
-        <v>0</v>
-      </c>
-      <c r="U79" s="140" t="b">
-        <v>1</v>
-      </c>
-      <c r="V79" s="140" t="b">
-        <v>0</v>
-      </c>
-      <c r="W79" s="140" t="b">
-        <v>1</v>
-      </c>
-      <c r="X79" s="141" t="b">
+      <c r="R79" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="S79" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="T79" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="U79" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="V79" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="W79" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="X79" s="122" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="9:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I80" s="125" t="s">
+        <v>203</v>
+      </c>
+      <c r="J80" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="K80" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="N80" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="O80" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="P80" s="122" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="125" t="s">
+        <v>203</v>
+      </c>
+      <c r="R80" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="S80" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="T80" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="U80" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="V80" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="W80" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="X80" s="122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="9:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I81" s="126" t="s">
+        <v>202</v>
+      </c>
+      <c r="J81" s="123" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" s="123" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="123" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" s="123" t="b">
+        <v>0</v>
+      </c>
+      <c r="N81" s="123" t="b">
+        <v>0</v>
+      </c>
+      <c r="O81" s="123" t="b">
+        <v>0</v>
+      </c>
+      <c r="P81" s="124" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="126" t="s">
+        <v>202</v>
+      </c>
+      <c r="R81" s="123" t="b">
+        <v>0</v>
+      </c>
+      <c r="S81" s="123" t="b">
+        <v>0</v>
+      </c>
+      <c r="T81" s="123" t="b">
+        <v>0</v>
+      </c>
+      <c r="U81" s="123" t="b">
+        <v>0</v>
+      </c>
+      <c r="V81" s="123" t="b">
+        <v>0</v>
+      </c>
+      <c r="W81" s="123" t="b">
+        <v>0</v>
+      </c>
+      <c r="X81" s="124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="9:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="9:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="9:24" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I84" s="145" t="s">
+        <v>1</v>
+      </c>
+      <c r="J84" s="146">
+        <v>1</v>
+      </c>
+      <c r="K84" s="146">
+        <v>2</v>
+      </c>
+      <c r="L84" s="146">
+        <v>3</v>
+      </c>
+      <c r="M84" s="146">
+        <v>4</v>
+      </c>
+      <c r="N84" s="146">
+        <v>5</v>
+      </c>
+      <c r="O84" s="146">
+        <v>6</v>
+      </c>
+      <c r="P84" s="147">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="9:24" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I85" s="148" t="s">
+        <v>204</v>
+      </c>
+      <c r="J85" s="135"/>
+      <c r="K85" s="136"/>
+      <c r="L85" s="137"/>
+      <c r="M85" s="138"/>
+      <c r="N85" s="139"/>
+      <c r="O85" s="140"/>
+      <c r="P85" s="149"/>
+    </row>
+    <row r="86" spans="9:24" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I86" s="148"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="150"/>
+    </row>
+    <row r="87" spans="9:24" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I87" s="148" t="s">
+        <v>205</v>
+      </c>
+      <c r="J87" s="135"/>
+      <c r="K87" s="144"/>
+      <c r="L87" s="142"/>
+      <c r="M87" s="141"/>
+      <c r="N87" s="139"/>
+      <c r="O87" s="143"/>
+      <c r="P87" s="149"/>
+    </row>
+    <row r="88" spans="9:24" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I88" s="151"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="150"/>
+    </row>
+    <row r="89" spans="9:24" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I89" s="152" t="s">
+        <v>206</v>
+      </c>
+      <c r="J89" s="153"/>
+      <c r="K89" s="154"/>
+      <c r="L89" s="155"/>
+      <c r="M89" s="156"/>
+      <c r="N89" s="157"/>
+      <c r="O89" s="158"/>
+      <c r="P89" s="159"/>
+    </row>
+    <row r="90" spans="9:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="I9:P10"/>
@@ -13402,53 +12413,53 @@
     <mergeCell ref="F1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="J17:P17">
-    <cfRule type="expression" dxfId="97" priority="43">
+    <cfRule type="expression" dxfId="13" priority="57">
       <formula>AND($O$8=TRUE, SEARCH("6", J17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="44">
+    <cfRule type="expression" dxfId="12" priority="58">
       <formula>AND($J$8=TRUE, SEARCH("1", J17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="45">
+    <cfRule type="expression" dxfId="11" priority="59">
       <formula>AND($K$8=TRUE, SEARCH("2", J17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="46">
+    <cfRule type="expression" dxfId="10" priority="60">
       <formula>AND($L$8=TRUE, SEARCH("3", J17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="47">
+    <cfRule type="expression" dxfId="9" priority="61">
       <formula>AND($M$8=TRUE, SEARCH("4", J17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="48">
+    <cfRule type="expression" dxfId="8" priority="62">
       <formula>AND($N$8=TRUE, SEARCH("5", J17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="49">
+    <cfRule type="expression" dxfId="7" priority="63">
       <formula>AND($P$8=TRUE, SEARCH("7", J17))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="expression" dxfId="48" priority="1695">
+    <cfRule type="expression" dxfId="6" priority="1709">
       <formula>AND($K$23=TRUE, SEARCH("6", J8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="1696">
+    <cfRule type="expression" dxfId="5" priority="1710">
       <formula>AND($E$21=TRUE, SEARCH("1", J8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="1697">
+    <cfRule type="expression" dxfId="4" priority="1711">
       <formula>AND($F$21=TRUE, SEARCH("2", J8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="1698">
+    <cfRule type="expression" dxfId="3" priority="1712">
       <formula>AND($G$21=TRUE, SEARCH("3", J8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="1699">
+    <cfRule type="expression" dxfId="2" priority="1713">
       <formula>AND($I$23=TRUE, SEARCH("4", J8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="1700">
+    <cfRule type="expression" dxfId="1" priority="1714">
       <formula>AND($J$23=TRUE, SEARCH("5", J8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="1701">
+    <cfRule type="expression" dxfId="0" priority="1715">
       <formula>AND($L$23=TRUE, SEARCH("7", J8))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J47:P68 J72:P79 R72:X79" xr:uid="{9E77CF2C-8DC6-4DA2-8C23-71D2EAF5B912}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J47:P68 J72:P81 R72:X81" xr:uid="{9E77CF2C-8DC6-4DA2-8C23-71D2EAF5B912}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Shredsheets.xlsx
+++ b/Shredsheets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Shredsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1A6CC2-C1DD-46F4-B54E-7DB3D5951D4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79F7A23-C88D-4B6D-AB6F-76F1AAF6433D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="209">
   <si>
     <t>C</t>
   </si>
@@ -666,13 +669,19 @@
   </si>
   <si>
     <t>Cool 2</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Color it?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -983,6 +992,39 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Segoe UI Semibold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Segoe UI Semibold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Segoe UI Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="25">
@@ -1612,21 +1654,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color auto="1"/>
       </left>
@@ -1731,11 +1758,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2090,12 +2126,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2109,70 +2139,67 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2195,13 +2222,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="119">
+  <dxfs count="238">
     <dxf>
       <font>
         <color theme="0" tint="-4.9989318521683403E-2"/>
@@ -2214,6 +2271,80 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF813997"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8CFF19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB567F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4DA3E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE4D2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3788CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
@@ -2288,6 +2419,228 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF642C76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8CFF19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB567F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4DA3E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE4D2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3788CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF642C76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8CFF19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB567F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4DA3E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE4D2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3788CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF642C76"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8CFF19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB567F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4DA3E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE4D2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3788CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
@@ -2352,6 +2705,420 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF2992D9"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC07DE2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF70C3FC"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7EE00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF63D218"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA63AB8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF372F2D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF3788CB"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD3B5E9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF4DA3E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB567F5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF75E604"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF642C76"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF66FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF372F2D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF372F2D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF372F2D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
       <fill>
@@ -2366,7 +3133,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF642C76"/>
+          <bgColor rgb="FF813997"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2374,7 +3141,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color auto="1"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
@@ -2394,7 +3161,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <color theme="1" tint="0.14996795556505021"/>
       </font>
       <fill>
         <patternFill>
@@ -2436,6 +3203,80 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8CC068"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF81B2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
       <fill>
@@ -2448,7 +3289,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
@@ -2468,7 +3309,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.14996795556505021"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
@@ -2510,7 +3351,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
       <fill>
         <patternFill>
@@ -2584,11 +3425,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF813997"/>
+          <bgColor rgb="FF642C76"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2596,7 +3437,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
       </font>
       <fill>
         <patternFill>
@@ -3133,6 +3974,154 @@
         <b/>
         <i val="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8CC068"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF81B2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8CC068"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF81B2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3461,10 +4450,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AD40"/>
+  <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,7 +4467,7 @@
     <col min="31" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="47" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="47" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="47">
         <v>0</v>
       </c>
@@ -3555,118 +4544,118 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:29" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:32" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="167" t="str">
+      <c r="B3" s="163" t="str">
         <f>IF(B17 = "Ionian (Major)", B8 &amp; " Major", IF(B17 = "Aolian (Minor)", B8 &amp; " Minor", B8 &amp; " " &amp; B17))</f>
-        <v>C Major</v>
-      </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="K3" s="164">
+        <v>E Pentatonic Minor</v>
+      </c>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="K3" s="162">
         <f>IF(Model!J3="0","",Model!J3)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164">
+      <c r="L3" s="162"/>
+      <c r="M3" s="162" t="str">
         <f>IF(Model!K3="0","",Model!K3)</f>
-        <v>2</v>
-      </c>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164">
+        <v/>
+      </c>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162" t="str">
         <f>IF(Model!L3="0","",Model!L3)</f>
-        <v>3</v>
-      </c>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="164">
+        <v>♭3</v>
+      </c>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="162">
         <f>IF(Model!M3="0","",Model!M3)</f>
         <v>4</v>
       </c>
-      <c r="R3" s="164"/>
-      <c r="S3" s="164">
+      <c r="R3" s="162"/>
+      <c r="S3" s="162">
         <f>IF(Model!N3="0","",Model!N3)</f>
         <v>5</v>
       </c>
-      <c r="T3" s="164"/>
-      <c r="U3" s="164">
+      <c r="T3" s="162"/>
+      <c r="U3" s="162" t="str">
         <f>IF(Model!O3="0","",Model!O3)</f>
-        <v>6</v>
-      </c>
-      <c r="V3" s="164"/>
-      <c r="W3" s="164">
+        <v/>
+      </c>
+      <c r="V3" s="162"/>
+      <c r="W3" s="162" t="str">
         <f>IF(Model!P3="0","",Model!P3)</f>
-        <v>7</v>
-      </c>
-      <c r="X3" s="164"/>
-      <c r="Z3" s="168" t="s">
+        <v>♭7</v>
+      </c>
+      <c r="X3" s="162"/>
+      <c r="Z3" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="169" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="169"/>
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="159"/>
     </row>
-    <row r="4" spans="1:29" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="K4" s="166" t="str">
+    <row r="4" spans="1:32" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="K4" s="161" t="str">
         <f>Model!J7</f>
-        <v>CM7</v>
-      </c>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166" t="str">
+        <v>Em7</v>
+      </c>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161" t="str">
         <f>Model!K7</f>
-        <v>Dm7</v>
-      </c>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166" t="str">
+        <v/>
+      </c>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161" t="str">
         <f>Model!L7</f>
-        <v>Em7</v>
-      </c>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="166" t="str">
+        <v>GM</v>
+      </c>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161" t="str">
         <f>Model!M7</f>
-        <v>FM7</v>
-      </c>
-      <c r="R4" s="166"/>
-      <c r="S4" s="166" t="str">
+        <v>A5 ♭7</v>
+      </c>
+      <c r="R4" s="161"/>
+      <c r="S4" s="161" t="str">
         <f>Model!N7</f>
-        <v>G7</v>
-      </c>
-      <c r="T4" s="166"/>
-      <c r="U4" s="166" t="str">
+        <v>B♭3 ♭7</v>
+      </c>
+      <c r="T4" s="161"/>
+      <c r="U4" s="161" t="str">
         <f>Model!O7</f>
-        <v>Am7</v>
-      </c>
-      <c r="V4" s="166"/>
-      <c r="W4" s="166" t="str">
+        <v/>
+      </c>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161" t="str">
         <f>Model!P7</f>
-        <v>Bm7ø</v>
-      </c>
-      <c r="X4" s="166"/>
-      <c r="Z4" s="168"/>
-      <c r="AA4" s="168"/>
-      <c r="AB4" s="169"/>
-      <c r="AC4" s="169"/>
+        <v>D5</v>
+      </c>
+      <c r="X4" s="161"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="159"/>
+      <c r="AC4" s="159"/>
     </row>
-    <row r="5" spans="1:29" s="49" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
+    <row r="5" spans="1:32" s="49" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
       <c r="J5" s="74"/>
       <c r="K5" s="58"/>
       <c r="L5" s="74"/>
@@ -3674,66 +4663,66 @@
       <c r="N5" s="74"/>
       <c r="O5" s="74"/>
       <c r="P5" s="74"/>
-      <c r="Z5" s="168"/>
-      <c r="AA5" s="168"/>
-      <c r="AB5" s="169"/>
-      <c r="AC5" s="169"/>
+      <c r="Z5" s="158"/>
+      <c r="AA5" s="158"/>
+      <c r="AB5" s="159"/>
+      <c r="AC5" s="159"/>
     </row>
-    <row r="6" spans="1:29" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="171" t="s">
+    <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="171"/>
+      <c r="I6" s="164"/>
       <c r="J6" s="57" t="str">
         <f>IF(Model!J6=0,"", Model!J6)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="K6" s="57" t="str">
         <f>IF(Model!K6=0,"", Model!K6)</f>
-        <v>D</v>
+        <v/>
       </c>
       <c r="L6" s="57" t="str">
         <f>IF(Model!L6=0,"", Model!L6)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="M6" s="57" t="str">
         <f>IF(Model!M6=0,"", Model!M6)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="N6" s="57" t="str">
         <f>IF(Model!N6=0,"", Model!N6)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="O6" s="57" t="str">
         <f>IF(Model!O6=0,"", Model!O6)</f>
-        <v>A</v>
+        <v/>
       </c>
       <c r="P6" s="57" t="str">
         <f>IF(Model!P6=0,"", Model!P6)</f>
-        <v>B</v>
-      </c>
-      <c r="S6" s="172" t="s">
+        <v>D</v>
+      </c>
+      <c r="S6" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="172"/>
-      <c r="U6" s="172"/>
+      <c r="T6" s="165"/>
+      <c r="U6" s="165"/>
       <c r="V6" s="75" t="str">
         <f>IF(Model!J4=1, "h", IF(Model!J4=2, "W", IF(Model!J4=3, "W+h", IF(Model!J4=4, "WW", IF(Model!J4=0, "", Model!J4)))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="W6" s="64" t="str">
         <f>IF(Model!K4=1, "h", IF(Model!K4=2, "W", IF(Model!K4=3, "W+h", IF(Model!K4=4, "WW", IF(Model!K4=0, "", Model!K4)))))</f>
-        <v>W</v>
+        <v>W+h</v>
       </c>
       <c r="X6" s="65" t="str">
         <f>IF(Model!L4=1, "h", IF(Model!L4=2, "W", IF(Model!L4=3, "W+h", IF(Model!L4=4, "WW", IF(Model!L4=0, "", Model!L4)))))</f>
-        <v>h</v>
+        <v>W</v>
       </c>
       <c r="Y6" s="66" t="str">
         <f>IF(Model!M4=1, "h", IF(Model!M4=2, "W", IF(Model!M4=3, "W+h",IF(Model!M4=4, "WW", IF(Model!M4=0, "", Model!M4)))))</f>
@@ -3741,18 +4730,22 @@
       </c>
       <c r="Z6" s="67" t="str">
         <f>IF(Model!N4=1, "h", IF(Model!N4=2, "W", IF(Model!N4=3, "W+h",IF(Model!N4=4, "WW", IF(Model!N4=0, "", Model!N4)))))</f>
-        <v>W</v>
+        <v/>
       </c>
       <c r="AA6" s="68" t="str">
         <f>IF(Model!O4=1, "h", IF(Model!O4=2, "W", IF(Model!O4=3, "W+h", IF(Model!O4=4, "WW", IF(Model!O4=0, "", Model!O4)))))</f>
-        <v>W</v>
+        <v>W+h</v>
       </c>
       <c r="AB6" s="69" t="str">
         <f>IF(Model!P4=1, "h", IF(Model!P4=2, "W", IF(Model!P4=3, "W+h",IF(Model!P4=4, "WW", IF(Model!P4=0, "", Model!P4)))))</f>
-        <v>h</v>
-      </c>
+        <v>W</v>
+      </c>
+      <c r="AE6" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="178"/>
     </row>
-    <row r="7" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="72" t="s">
         <v>11</v>
       </c>
@@ -3860,10 +4853,16 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="AE7" s="179" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF7" s="180" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="170" t="s">
-        <v>0</v>
+    <row r="8" spans="1:32" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="160" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>16</v>
@@ -3874,11 +4873,11 @@
       </c>
       <c r="E8" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+E$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+E$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>E : 3</v>
+        <v>E : 1</v>
       </c>
       <c r="F8" s="78" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+F$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+F$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="G8" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+G$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+G$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -3886,7 +4885,7 @@
       </c>
       <c r="H8" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+H$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+H$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>G : 5</v>
+        <v>G : ♭3</v>
       </c>
       <c r="I8" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+I$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+I$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -3894,7 +4893,7 @@
       </c>
       <c r="J8" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+J$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+J$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>A : 6</v>
+        <v>A : 4</v>
       </c>
       <c r="K8" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+K$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+K$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -3902,11 +4901,11 @@
       </c>
       <c r="L8" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+L$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+L$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>B : 7</v>
+        <v>B : 5</v>
       </c>
       <c r="M8" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+M$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+M$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>C : 1</v>
+        <v/>
       </c>
       <c r="N8" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+N$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+N$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -3914,7 +4913,7 @@
       </c>
       <c r="O8" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+O$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+O$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>D : 2</v>
+        <v>D : ♭7</v>
       </c>
       <c r="P8" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+P$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+P$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -3922,11 +4921,11 @@
       </c>
       <c r="Q8" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+Q$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+Q$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>E : 3</v>
+        <v>E : 1</v>
       </c>
       <c r="R8" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+R$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+R$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="S8" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+S$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+S$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -3934,7 +4933,7 @@
       </c>
       <c r="T8" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+T$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+T$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>G : 5</v>
+        <v>G : ♭3</v>
       </c>
       <c r="U8" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+U$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+U$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -3942,7 +4941,7 @@
       </c>
       <c r="V8" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+V$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+V$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>A : 6</v>
+        <v>A : 4</v>
       </c>
       <c r="W8" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+W$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+W$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -3950,11 +4949,11 @@
       </c>
       <c r="X8" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+X$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+X$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>B : 7</v>
+        <v>B : 5</v>
       </c>
       <c r="Y8" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+Y$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+Y$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>C : 1</v>
+        <v/>
       </c>
       <c r="Z8" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+Z$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+Z$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -3962,7 +4961,7 @@
       </c>
       <c r="AA8" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+AA$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+AA$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>D : 2</v>
+        <v>D : ♭7</v>
       </c>
       <c r="AB8" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+AB$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+AB$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -3970,11 +4969,17 @@
       </c>
       <c r="AC8" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>E : 3</v>
+        <v>E : 1</v>
+      </c>
+      <c r="AE8" s="181" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="182" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="170"/>
+    <row r="9" spans="1:32" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="160"/>
       <c r="C9" s="52" t="s">
         <v>14</v>
       </c>
@@ -3984,11 +4989,11 @@
       </c>
       <c r="E9" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+E$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+E$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>B : 7</v>
+        <v>B : 5</v>
       </c>
       <c r="F9" s="78" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+F$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+F$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>C : 1</v>
+        <v/>
       </c>
       <c r="G9" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+G$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+G$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -3996,7 +5001,7 @@
       </c>
       <c r="H9" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+H$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+H$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>D : 2</v>
+        <v>D : ♭7</v>
       </c>
       <c r="I9" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+I$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+I$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4004,11 +5009,11 @@
       </c>
       <c r="J9" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+J$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+J$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>E : 3</v>
+        <v>E : 1</v>
       </c>
       <c r="K9" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+K$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+K$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="L9" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+L$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+L$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4016,7 +5021,7 @@
       </c>
       <c r="M9" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+M$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+M$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>G : 5</v>
+        <v>G : ♭3</v>
       </c>
       <c r="N9" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+N$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+N$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4024,7 +5029,7 @@
       </c>
       <c r="O9" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+O$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+O$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>A : 6</v>
+        <v>A : 4</v>
       </c>
       <c r="P9" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+P$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+P$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4032,11 +5037,11 @@
       </c>
       <c r="Q9" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+Q$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+Q$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>B : 7</v>
+        <v>B : 5</v>
       </c>
       <c r="R9" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+R$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+R$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>C : 1</v>
+        <v/>
       </c>
       <c r="S9" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+S$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+S$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4044,7 +5049,7 @@
       </c>
       <c r="T9" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+T$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+T$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>D : 2</v>
+        <v>D : ♭7</v>
       </c>
       <c r="U9" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+U$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+U$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4052,11 +5057,11 @@
       </c>
       <c r="V9" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+V$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+V$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>E : 3</v>
+        <v>E : 1</v>
       </c>
       <c r="W9" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+W$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+W$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="X9" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+X$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+X$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4064,7 +5069,7 @@
       </c>
       <c r="Y9" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+Y$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+Y$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>G : 5</v>
+        <v>G : ♭3</v>
       </c>
       <c r="Z9" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+Z$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+Z$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4072,7 +5077,7 @@
       </c>
       <c r="AA9" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+AA$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+AA$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>A : 6</v>
+        <v>A : 4</v>
       </c>
       <c r="AB9" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+AB$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+AB$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4080,11 +5085,17 @@
       </c>
       <c r="AC9" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>B : 7</v>
+        <v>B : 5</v>
+      </c>
+      <c r="AE9" s="183" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF9" s="182" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="170"/>
+    <row r="10" spans="1:32" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="160"/>
       <c r="C10" s="52" t="s">
         <v>13</v>
       </c>
@@ -4094,7 +5105,7 @@
       </c>
       <c r="E10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+E$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+E$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>G : 5</v>
+        <v>G : ♭3</v>
       </c>
       <c r="F10" s="78" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+F$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+F$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4102,7 +5113,7 @@
       </c>
       <c r="G10" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+G$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+G$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>A : 6</v>
+        <v>A : 4</v>
       </c>
       <c r="H10" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+H$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+H$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4110,11 +5121,11 @@
       </c>
       <c r="I10" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+I$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+I$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>B : 7</v>
+        <v>B : 5</v>
       </c>
       <c r="J10" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+J$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+J$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>C : 1</v>
+        <v/>
       </c>
       <c r="K10" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+K$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+K$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4122,7 +5133,7 @@
       </c>
       <c r="L10" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+L$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+L$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>D : 2</v>
+        <v>D : ♭7</v>
       </c>
       <c r="M10" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+M$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+M$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4130,11 +5141,11 @@
       </c>
       <c r="N10" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+N$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+N$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>E : 3</v>
+        <v>E : 1</v>
       </c>
       <c r="O10" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+O$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+O$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="P10" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+P$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+P$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4142,7 +5153,7 @@
       </c>
       <c r="Q10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+Q$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+Q$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>G : 5</v>
+        <v>G : ♭3</v>
       </c>
       <c r="R10" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+R$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+R$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4150,7 +5161,7 @@
       </c>
       <c r="S10" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+S$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+S$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>A : 6</v>
+        <v>A : 4</v>
       </c>
       <c r="T10" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+T$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+T$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4158,11 +5169,11 @@
       </c>
       <c r="U10" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+U$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+U$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>B : 7</v>
+        <v>B : 5</v>
       </c>
       <c r="V10" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+V$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+V$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>C : 1</v>
+        <v/>
       </c>
       <c r="W10" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+W$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+W$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4170,7 +5181,7 @@
       </c>
       <c r="X10" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+X$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+X$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>D : 2</v>
+        <v>D : ♭7</v>
       </c>
       <c r="Y10" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+Y$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+Y$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4178,11 +5189,11 @@
       </c>
       <c r="Z10" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+Z$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+Z$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>E : 3</v>
+        <v>E : 1</v>
       </c>
       <c r="AA10" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AA$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AA$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="AB10" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AB$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AB$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4190,11 +5201,17 @@
       </c>
       <c r="AC10" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>G : 5</v>
+        <v>G : ♭3</v>
+      </c>
+      <c r="AE10" s="183" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF10" s="182" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="170"/>
+    <row r="11" spans="1:32" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="160"/>
       <c r="C11" s="52" t="s">
         <v>10</v>
       </c>
@@ -4204,7 +5221,7 @@
       </c>
       <c r="E11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+E$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+E$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>D : 2</v>
+        <v>D : ♭7</v>
       </c>
       <c r="F11" s="78" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+F$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+F$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4212,11 +5229,11 @@
       </c>
       <c r="G11" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+G$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+G$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>E : 3</v>
+        <v>E : 1</v>
       </c>
       <c r="H11" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+H$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+H$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="I11" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+I$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+I$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4224,7 +5241,7 @@
       </c>
       <c r="J11" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+J$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+J$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>G : 5</v>
+        <v>G : ♭3</v>
       </c>
       <c r="K11" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+K$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+K$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4232,7 +5249,7 @@
       </c>
       <c r="L11" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+L$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+L$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>A : 6</v>
+        <v>A : 4</v>
       </c>
       <c r="M11" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+M$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+M$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4240,11 +5257,11 @@
       </c>
       <c r="N11" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+N$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+N$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>B : 7</v>
+        <v>B : 5</v>
       </c>
       <c r="O11" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+O$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+O$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>C : 1</v>
+        <v/>
       </c>
       <c r="P11" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+P$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+P$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4252,7 +5269,7 @@
       </c>
       <c r="Q11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Q$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Q$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>D : 2</v>
+        <v>D : ♭7</v>
       </c>
       <c r="R11" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+R$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+R$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4260,11 +5277,11 @@
       </c>
       <c r="S11" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+S$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+S$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>E : 3</v>
+        <v>E : 1</v>
       </c>
       <c r="T11" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+T$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+T$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="U11" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+U$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+U$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4272,7 +5289,7 @@
       </c>
       <c r="V11" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+V$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+V$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>G : 5</v>
+        <v>G : ♭3</v>
       </c>
       <c r="W11" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+W$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+W$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4280,7 +5297,7 @@
       </c>
       <c r="X11" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+X$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+X$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>A : 6</v>
+        <v>A : 4</v>
       </c>
       <c r="Y11" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Y$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Y$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4288,11 +5305,11 @@
       </c>
       <c r="Z11" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+Z$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+Z$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>B : 7</v>
+        <v>B : 5</v>
       </c>
       <c r="AA11" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AA$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AA$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>C : 1</v>
+        <v/>
       </c>
       <c r="AB11" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AB$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AB$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4300,11 +5317,17 @@
       </c>
       <c r="AC11" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>D : 2</v>
+        <v>D : ♭7</v>
+      </c>
+      <c r="AE11" s="183" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="182" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="170"/>
+    <row r="12" spans="1:32" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="160"/>
       <c r="C12" s="52" t="s">
         <v>12</v>
       </c>
@@ -4314,7 +5337,7 @@
       </c>
       <c r="E12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+E$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+E$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>A : 6</v>
+        <v>A : 4</v>
       </c>
       <c r="F12" s="78" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+F$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+F$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4322,11 +5345,11 @@
       </c>
       <c r="G12" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+G$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+G$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>B : 7</v>
+        <v>B : 5</v>
       </c>
       <c r="H12" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+H$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+H$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>C : 1</v>
+        <v/>
       </c>
       <c r="I12" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+I$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+I$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4334,7 +5357,7 @@
       </c>
       <c r="J12" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+J$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+J$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>D : 2</v>
+        <v>D : ♭7</v>
       </c>
       <c r="K12" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+K$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+K$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4342,11 +5365,11 @@
       </c>
       <c r="L12" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+L$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+L$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>E : 3</v>
+        <v>E : 1</v>
       </c>
       <c r="M12" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+M$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+M$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="N12" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+N$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+N$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4354,7 +5377,7 @@
       </c>
       <c r="O12" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+O$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+O$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>G : 5</v>
+        <v>G : ♭3</v>
       </c>
       <c r="P12" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+P$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+P$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4362,7 +5385,7 @@
       </c>
       <c r="Q12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Q$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Q$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>A : 6</v>
+        <v>A : 4</v>
       </c>
       <c r="R12" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+R$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+R$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4370,11 +5393,11 @@
       </c>
       <c r="S12" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+S$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+S$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>B : 7</v>
+        <v>B : 5</v>
       </c>
       <c r="T12" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+T$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+T$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>C : 1</v>
+        <v/>
       </c>
       <c r="U12" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+U$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+U$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4382,7 +5405,7 @@
       </c>
       <c r="V12" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+V$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+V$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>D : 2</v>
+        <v>D : ♭7</v>
       </c>
       <c r="W12" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+W$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+W$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4390,11 +5413,11 @@
       </c>
       <c r="X12" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+X$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+X$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>E : 3</v>
+        <v>E : 1</v>
       </c>
       <c r="Y12" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Y$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Y$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="Z12" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+Z$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+Z$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4402,7 +5425,7 @@
       </c>
       <c r="AA12" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AA$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AA$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>G : 5</v>
+        <v>G : ♭3</v>
       </c>
       <c r="AB12" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AB$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AB$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4410,11 +5433,17 @@
       </c>
       <c r="AC12" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>A : 6</v>
+        <v>A : 4</v>
+      </c>
+      <c r="AE12" s="183" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF12" s="182" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="165" t="s">
+    <row r="13" spans="1:32" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="166" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="52" t="s">
@@ -4426,11 +5455,11 @@
       </c>
       <c r="E13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+E$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+E$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>E : 3</v>
+        <v>E : 1</v>
       </c>
       <c r="F13" s="78" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+F$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+F$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="G13" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+G$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+G$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4438,7 +5467,7 @@
       </c>
       <c r="H13" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+H$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+H$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>G : 5</v>
+        <v>G : ♭3</v>
       </c>
       <c r="I13" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+I$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+I$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4446,7 +5475,7 @@
       </c>
       <c r="J13" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+J$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+J$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>A : 6</v>
+        <v>A : 4</v>
       </c>
       <c r="K13" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+K$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+K$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4454,11 +5483,11 @@
       </c>
       <c r="L13" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+L$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+L$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>B : 7</v>
+        <v>B : 5</v>
       </c>
       <c r="M13" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+M$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+M$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>C : 1</v>
+        <v/>
       </c>
       <c r="N13" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+N$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+N$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4466,7 +5495,7 @@
       </c>
       <c r="O13" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+O$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+O$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>D : 2</v>
+        <v>D : ♭7</v>
       </c>
       <c r="P13" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+P$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+P$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4474,11 +5503,11 @@
       </c>
       <c r="Q13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Q$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Q$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>E : 3</v>
+        <v>E : 1</v>
       </c>
       <c r="R13" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+R$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+R$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="S13" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+S$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+S$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4486,7 +5515,7 @@
       </c>
       <c r="T13" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+T$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+T$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>G : 5</v>
+        <v>G : ♭3</v>
       </c>
       <c r="U13" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+U$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+U$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4494,7 +5523,7 @@
       </c>
       <c r="V13" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+V$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+V$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>A : 6</v>
+        <v>A : 4</v>
       </c>
       <c r="W13" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+W$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+W$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4502,11 +5531,11 @@
       </c>
       <c r="X13" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+X$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+X$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>B : 7</v>
+        <v>B : 5</v>
       </c>
       <c r="Y13" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Y$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Y$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>C : 1</v>
+        <v/>
       </c>
       <c r="Z13" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+Z$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+Z$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4514,7 +5543,7 @@
       </c>
       <c r="AA13" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AA$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AA$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>D : 2</v>
+        <v>D : ♭7</v>
       </c>
       <c r="AB13" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AB$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AB$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4522,11 +5551,17 @@
       </c>
       <c r="AC13" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>E : 3</v>
+        <v>E : 1</v>
+      </c>
+      <c r="AE13" s="183" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF13" s="182" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="51" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="165"/>
+    <row r="14" spans="1:32" s="51" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="166"/>
       <c r="C14" s="52" t="s">
         <v>14</v>
       </c>
@@ -4536,11 +5571,11 @@
       </c>
       <c r="E14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+E$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+E$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>B : 7</v>
+        <v>B : 5</v>
       </c>
       <c r="F14" s="78" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+F$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+F$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>C : 1</v>
+        <v/>
       </c>
       <c r="G14" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+G$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+G$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4548,7 +5583,7 @@
       </c>
       <c r="H14" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+H$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+H$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>D : 2</v>
+        <v>D : ♭7</v>
       </c>
       <c r="I14" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+I$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+I$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4556,11 +5591,11 @@
       </c>
       <c r="J14" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+J$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+J$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>E : 3</v>
+        <v>E : 1</v>
       </c>
       <c r="K14" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+K$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+K$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="L14" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+L$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+L$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4568,7 +5603,7 @@
       </c>
       <c r="M14" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+M$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+M$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>G : 5</v>
+        <v>G : ♭3</v>
       </c>
       <c r="N14" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+N$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+N$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4576,7 +5611,7 @@
       </c>
       <c r="O14" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+O$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+O$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>A : 6</v>
+        <v>A : 4</v>
       </c>
       <c r="P14" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+P$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+P$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4584,11 +5619,11 @@
       </c>
       <c r="Q14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Q$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Q$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>B : 7</v>
+        <v>B : 5</v>
       </c>
       <c r="R14" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+R$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+R$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>C : 1</v>
+        <v/>
       </c>
       <c r="S14" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+S$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+S$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4596,7 +5631,7 @@
       </c>
       <c r="T14" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+T$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+T$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>D : 2</v>
+        <v>D : ♭7</v>
       </c>
       <c r="U14" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+U$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+U$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4604,11 +5639,11 @@
       </c>
       <c r="V14" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+V$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+V$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>E : 3</v>
+        <v>E : 1</v>
       </c>
       <c r="W14" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+W$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+W$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="X14" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+X$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+X$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4616,7 +5651,7 @@
       </c>
       <c r="Y14" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Y$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Y$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>G : 5</v>
+        <v>G : ♭3</v>
       </c>
       <c r="Z14" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+Z$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+Z$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4624,7 +5659,7 @@
       </c>
       <c r="AA14" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AA$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AA$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>A : 6</v>
+        <v>A : 4</v>
       </c>
       <c r="AB14" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AB$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AB$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4632,11 +5667,13 @@
       </c>
       <c r="AC14" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>B : 7</v>
-      </c>
+        <v>B : 5</v>
+      </c>
+      <c r="AE14" s="184"/>
+      <c r="AF14" s="185"/>
     </row>
-    <row r="15" spans="1:29" s="51" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="165"/>
+    <row r="15" spans="1:32" s="51" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="166"/>
       <c r="C15" s="52" t="s">
         <v>57</v>
       </c>
@@ -4650,7 +5687,7 @@
       </c>
       <c r="F15" s="78" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+F$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+F$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>G : 5</v>
+        <v>G : ♭3</v>
       </c>
       <c r="G15" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+G$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+G$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4658,7 +5695,7 @@
       </c>
       <c r="H15" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+H$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+H$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>A : 6</v>
+        <v>A : 4</v>
       </c>
       <c r="I15" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+I$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+I$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4666,11 +5703,11 @@
       </c>
       <c r="J15" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+J$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+J$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>B : 7</v>
+        <v>B : 5</v>
       </c>
       <c r="K15" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+K$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+K$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>C : 1</v>
+        <v/>
       </c>
       <c r="L15" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+L$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+L$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4678,7 +5715,7 @@
       </c>
       <c r="M15" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+M$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+M$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>D : 2</v>
+        <v>D : ♭7</v>
       </c>
       <c r="N15" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+N$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+N$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4686,11 +5723,11 @@
       </c>
       <c r="O15" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+O$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+O$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>E : 3</v>
+        <v>E : 1</v>
       </c>
       <c r="P15" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+P$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+P$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="Q15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+Q$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+Q$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4698,7 +5735,7 @@
       </c>
       <c r="R15" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+R$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+R$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>G : 5</v>
+        <v>G : ♭3</v>
       </c>
       <c r="S15" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+S$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+S$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4706,7 +5743,7 @@
       </c>
       <c r="T15" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+T$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+T$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>A : 6</v>
+        <v>A : 4</v>
       </c>
       <c r="U15" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+U$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+U$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4714,11 +5751,11 @@
       </c>
       <c r="V15" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+V$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+V$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>B : 7</v>
+        <v>B : 5</v>
       </c>
       <c r="W15" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+W$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+W$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>C : 1</v>
+        <v/>
       </c>
       <c r="X15" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+X$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+X$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4726,7 +5763,7 @@
       </c>
       <c r="Y15" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+Y$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+Y$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>D : 2</v>
+        <v>D : ♭7</v>
       </c>
       <c r="Z15" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+Z$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+Z$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4734,19 +5771,21 @@
       </c>
       <c r="AA15" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AA$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AA$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>E : 3</v>
+        <v>E : 1</v>
       </c>
       <c r="AB15" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AB$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AB$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="AC15" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
         <v/>
       </c>
+      <c r="AE15" s="186"/>
+      <c r="AF15" s="185"/>
     </row>
-    <row r="16" spans="1:29" s="51" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="165"/>
+    <row r="16" spans="1:32" s="51" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="166"/>
       <c r="C16" s="52" t="s">
         <v>51</v>
       </c>
@@ -4760,7 +5799,7 @@
       </c>
       <c r="F16" s="78" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+F$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+F$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>D : 2</v>
+        <v>D : ♭7</v>
       </c>
       <c r="G16" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+G$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+G$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4768,11 +5807,11 @@
       </c>
       <c r="H16" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+H$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+H$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>E : 3</v>
+        <v>E : 1</v>
       </c>
       <c r="I16" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+I$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+I$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="J16" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+J$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+J$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4780,7 +5819,7 @@
       </c>
       <c r="K16" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+K$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+K$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>G : 5</v>
+        <v>G : ♭3</v>
       </c>
       <c r="L16" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+L$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+L$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4788,7 +5827,7 @@
       </c>
       <c r="M16" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+M$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+M$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>A : 6</v>
+        <v>A : 4</v>
       </c>
       <c r="N16" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+N$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+N$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4796,11 +5835,11 @@
       </c>
       <c r="O16" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+O$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+O$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>B : 7</v>
+        <v>B : 5</v>
       </c>
       <c r="P16" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+P$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+P$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>C : 1</v>
+        <v/>
       </c>
       <c r="Q16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Q$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+Q$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4808,7 +5847,7 @@
       </c>
       <c r="R16" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+R$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+R$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>D : 2</v>
+        <v>D : ♭7</v>
       </c>
       <c r="S16" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+S$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+S$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4816,11 +5855,11 @@
       </c>
       <c r="T16" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+T$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+T$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>E : 3</v>
+        <v>E : 1</v>
       </c>
       <c r="U16" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+U$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+U$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>F : 4</v>
+        <v/>
       </c>
       <c r="V16" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+V$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+V$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4828,7 +5867,7 @@
       </c>
       <c r="W16" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+W$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+W$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>G : 5</v>
+        <v>G : ♭3</v>
       </c>
       <c r="X16" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+X$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+X$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4836,7 +5875,7 @@
       </c>
       <c r="Y16" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Y$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+Y$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>A : 6</v>
+        <v>A : 4</v>
       </c>
       <c r="Z16" s="45" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+Z$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+Z$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
@@ -4844,20 +5883,22 @@
       </c>
       <c r="AA16" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AA$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+AA$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>B : 7</v>
+        <v>B : 5</v>
       </c>
       <c r="AB16" s="44" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AB$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+AB$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
-        <v>C : 1</v>
+        <v/>
       </c>
       <c r="AC16" s="46" t="str">
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
         <v/>
       </c>
+      <c r="AE16" s="187"/>
+      <c r="AF16" s="185"/>
     </row>
-    <row r="17" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="55" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="1"/>
@@ -4961,8 +6002,14 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
+      <c r="AE17" s="181" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF17" s="182" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B18" s="54"/>
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
@@ -4990,38 +6037,16 @@
       <c r="AB18" s="56"/>
       <c r="AC18" s="56"/>
     </row>
-    <row r="19" spans="2:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="161" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="161"/>
-      <c r="E19" s="132" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="133" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="133" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="133" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="133" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="133" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="132" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="114"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="114"/>
-      <c r="Q19" s="114"/>
+    <row r="19" spans="2:32" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
       <c r="R19" s="114"/>
       <c r="S19" s="114"/>
       <c r="T19" s="114"/>
@@ -5035,1567 +6060,1540 @@
       <c r="AB19" s="114"/>
       <c r="AC19" s="114"/>
     </row>
-    <row r="20" spans="2:30" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="E20" s="162" t="s">
-        <v>201</v>
-      </c>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="162"/>
-      <c r="K20" s="162"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="114"/>
-      <c r="S20" s="114"/>
-      <c r="T20" s="114"/>
-      <c r="U20" s="114"/>
-      <c r="V20" s="114"/>
-      <c r="W20" s="114"/>
-      <c r="X20" s="114"/>
-      <c r="Y20" s="114"/>
-      <c r="Z20" s="114"/>
-      <c r="AA20" s="114"/>
-      <c r="AB20" s="114"/>
-      <c r="AC20" s="114"/>
-    </row>
-    <row r="21" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="118"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="114"/>
-      <c r="S21" s="114"/>
-      <c r="T21" s="114"/>
-      <c r="U21" s="114"/>
-      <c r="V21" s="114"/>
-      <c r="W21" s="114"/>
-      <c r="X21" s="114"/>
-      <c r="Y21" s="114"/>
-      <c r="Z21" s="114"/>
-      <c r="AA21" s="114"/>
-      <c r="AB21" s="114"/>
-      <c r="AC21" s="114"/>
-    </row>
-    <row r="22" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="167" t="str">
-        <f>IF(B36 = "Ionian (Major)", B27 &amp; " Major", IF(B36 = "Aolian (Minor)", B27 &amp; " Minor", B27 &amp; " " &amp; B36))</f>
-        <v>E Pentatonic Minor</v>
-      </c>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="K22" s="164">
+    <row r="20" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="163" t="str">
+        <f>IF(B34 = "Ionian (Major)", B25 &amp; " Major", IF(B34 = "Aolian (Minor)", B25 &amp; " Minor", B25 &amp; " " &amp; B34))</f>
+        <v>E Aeolian (Minor)</v>
+      </c>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="K20" s="162">
         <f>IF(Model!J12="0","",Model!J12)</f>
         <v>1</v>
       </c>
-      <c r="L22" s="164"/>
-      <c r="M22" s="164" t="str">
+      <c r="L20" s="162"/>
+      <c r="M20" s="162">
         <f>IF(Model!K12="0","",Model!K12)</f>
-        <v/>
-      </c>
-      <c r="N22" s="164"/>
-      <c r="O22" s="164" t="str">
+        <v>2</v>
+      </c>
+      <c r="N20" s="162"/>
+      <c r="O20" s="162" t="str">
         <f>IF(Model!L12="0","",Model!L12)</f>
         <v>♭3</v>
       </c>
-      <c r="P22" s="164"/>
-      <c r="Q22" s="164">
+      <c r="P20" s="162"/>
+      <c r="Q20" s="162">
         <f>IF(Model!M12="0","",Model!M12)</f>
         <v>4</v>
       </c>
-      <c r="R22" s="164"/>
-      <c r="S22" s="164">
+      <c r="R20" s="162"/>
+      <c r="S20" s="162">
         <f>IF(Model!N12="0","",Model!N12)</f>
         <v>5</v>
       </c>
-      <c r="T22" s="164"/>
-      <c r="U22" s="164" t="str">
+      <c r="T20" s="162"/>
+      <c r="U20" s="162" t="str">
         <f>IF(Model!O12="0","",Model!O12)</f>
-        <v/>
-      </c>
-      <c r="V22" s="164"/>
-      <c r="W22" s="164" t="str">
+        <v>♭6</v>
+      </c>
+      <c r="V20" s="162"/>
+      <c r="W20" s="162" t="str">
         <f>IF(Model!P12="0","",Model!P12)</f>
         <v>♭7</v>
       </c>
-      <c r="X22" s="164"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
+      <c r="X20" s="162"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
     </row>
-    <row r="23" spans="2:30" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="167"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="K23" s="163" t="str">
+    <row r="21" spans="2:32" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="163"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="K21" s="169" t="str">
         <f>Model!J$16</f>
         <v>Em7</v>
       </c>
-      <c r="L23" s="163" t="str">
+      <c r="L21" s="169" t="str">
         <f>Model!K$16</f>
-        <v/>
-      </c>
-      <c r="M23" s="163" t="str">
+        <v>F♯m7ø</v>
+      </c>
+      <c r="M21" s="169" t="str">
         <f>Model!K$16</f>
-        <v/>
-      </c>
-      <c r="N23" s="163" t="str">
+        <v>F♯m7ø</v>
+      </c>
+      <c r="N21" s="169" t="str">
         <f>Model!M$16</f>
-        <v>A5 ♭7</v>
-      </c>
-      <c r="O23" s="163" t="str">
+        <v>Am7</v>
+      </c>
+      <c r="O21" s="169" t="str">
         <f>Model!L$16</f>
-        <v>GM</v>
-      </c>
-      <c r="P23" s="163"/>
-      <c r="Q23" s="163" t="str">
+        <v>GM7</v>
+      </c>
+      <c r="P21" s="169"/>
+      <c r="Q21" s="169" t="str">
         <f>Model!M$16</f>
-        <v>A5 ♭7</v>
-      </c>
-      <c r="R23" s="163"/>
-      <c r="S23" s="163" t="str">
+        <v>Am7</v>
+      </c>
+      <c r="R21" s="169"/>
+      <c r="S21" s="169" t="str">
         <f>Model!N$16</f>
-        <v>B♭3 ♭7</v>
-      </c>
-      <c r="T23" s="163"/>
-      <c r="U23" s="163" t="str">
+        <v>Bm7</v>
+      </c>
+      <c r="T21" s="169"/>
+      <c r="U21" s="169" t="str">
         <f>Model!O$16</f>
-        <v/>
-      </c>
-      <c r="V23" s="163"/>
-      <c r="W23" s="163" t="str">
+        <v>CM7</v>
+      </c>
+      <c r="V21" s="169"/>
+      <c r="W21" s="169" t="str">
         <f>Model!P$16</f>
-        <v>D5</v>
-      </c>
-      <c r="X23" s="163"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="48"/>
+        <v>D7</v>
+      </c>
+      <c r="X21" s="169"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
     </row>
-    <row r="24" spans="2:30" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="167"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
+    <row r="22" spans="2:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="163"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
     </row>
-    <row r="25" spans="2:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="167"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="171" t="s">
+    <row r="23" spans="2:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="163"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="171"/>
-      <c r="J25" s="57" t="str">
+      <c r="I23" s="164"/>
+      <c r="J23" s="57" t="str">
         <f>Model!J15</f>
         <v>E</v>
       </c>
-      <c r="K25" s="58" t="str">
+      <c r="K23" s="58" t="str">
         <f>IF(Model!K15=0, "", Model!K15)</f>
-        <v/>
-      </c>
-      <c r="L25" s="59" t="str">
+        <v>F♯</v>
+      </c>
+      <c r="L23" s="59" t="str">
         <f>IF(Model!L15=0, "", Model!L15)</f>
         <v>G</v>
       </c>
-      <c r="M25" s="60" t="str">
+      <c r="M23" s="60" t="str">
         <f>IF(Model!M15=0, "", Model!M15)</f>
         <v>A</v>
       </c>
-      <c r="N25" s="61" t="str">
+      <c r="N23" s="61" t="str">
         <f>IF(Model!N15=0, "", Model!N15)</f>
         <v>B</v>
       </c>
-      <c r="O25" s="62" t="str">
+      <c r="O23" s="62" t="str">
         <f>IF(Model!O15=0, "", Model!O15)</f>
-        <v/>
-      </c>
-      <c r="P25" s="63" t="str">
+        <v>C</v>
+      </c>
+      <c r="P23" s="63" t="str">
         <f>IF(Model!P15=0, "", Model!P15)</f>
         <v>D</v>
       </c>
-      <c r="S25" s="172" t="s">
+      <c r="S23" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="T25" s="172"/>
-      <c r="U25" s="172"/>
-      <c r="V25" s="75" t="str">
+      <c r="T23" s="165"/>
+      <c r="U23" s="165"/>
+      <c r="V23" s="75" t="str">
         <f>IF(Model!J13=1, "h", IF(Model!J13=2, "W", IF(Model!J13=3, "W+h", IF(Model!J13=4, "WW", IF(Model!J13=0, "", Model!J4)))))</f>
-        <v/>
-      </c>
-      <c r="W25" s="64" t="str">
+        <v>W</v>
+      </c>
+      <c r="W23" s="64" t="str">
         <f>IF(Model!K13=1, "h", IF(Model!K13=2, "W", IF(Model!K13=3, "W+h", IF(Model!K13=4, "WW", IF(Model!K13=0, "", Model!K4)))))</f>
-        <v>W+h</v>
-      </c>
-      <c r="X25" s="65" t="str">
+        <v>h</v>
+      </c>
+      <c r="X23" s="65" t="str">
         <f>IF(Model!L13=1, "h", IF(Model!L13=2, "W", IF(Model!L13=3, "W+h", IF(Model!L13=4, "WW", IF(Model!L13=0, "", Model!L4)))))</f>
         <v>W</v>
       </c>
-      <c r="Y25" s="66" t="str">
+      <c r="Y23" s="66" t="str">
         <f>IF(Model!M13=1, "h", IF(Model!M13=2, "W", IF(Model!M13=3, "W+h", IF(Model!M13=4, "WW", IF(Model!M13=0, "", Model!M4)))))</f>
         <v>W</v>
       </c>
-      <c r="Z25" s="67" t="str">
+      <c r="Z23" s="67" t="str">
         <f>IF(Model!N13=1, "h", IF(Model!N13=2, "W", IF(Model!N13=3, "W+h", IF(Model!N13=4, "WW", IF(Model!N13=0, "", Model!N4)))))</f>
-        <v/>
-      </c>
-      <c r="AA25" s="68" t="str">
+        <v>h</v>
+      </c>
+      <c r="AA23" s="68" t="str">
         <f>IF(Model!O13=1, "h", IF(Model!O13=2, "W", IF(Model!O13=3, "W+h", IF(Model!O13=4, "WW", IF(Model!O13=0, "", Model!O4)))))</f>
-        <v>W+h</v>
-      </c>
-      <c r="AB25" s="69" t="str">
+        <v>W</v>
+      </c>
+      <c r="AB23" s="69" t="str">
         <f>IF(Model!P13=1, "h", IF(Model!P13=2, "W", IF(Model!P13=3, "W+h", IF(Model!P13=4, "WW", IF(Model!P13=0, "", Model!P4)))))</f>
         <v>W</v>
       </c>
     </row>
-    <row r="26" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="72" t="s">
+    <row r="24" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C24" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="79">
-        <f t="shared" ref="E26:AC26" si="2">IF($AB$3, 24-E$1, E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="80">
+      <c r="D24" s="2"/>
+      <c r="E24" s="79">
+        <f t="shared" ref="E24:AC24" si="2">IF($AB$3, 24-E$1, E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="80">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G26" s="35">
+      <c r="G24" s="35">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H24" s="36">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I26" s="35">
+      <c r="I24" s="35">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J24" s="36">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K26" s="35">
+      <c r="K24" s="35">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L26" s="36">
+      <c r="L24" s="36">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="M26" s="35">
+      <c r="M24" s="35">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="N26" s="36">
+      <c r="N24" s="36">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="O26" s="35">
+      <c r="O24" s="35">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="P26" s="35">
+      <c r="P24" s="35">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="Q26" s="41">
+      <c r="Q24" s="41">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="R26" s="35">
+      <c r="R24" s="35">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="S26" s="35">
+      <c r="S24" s="35">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="T26" s="36">
+      <c r="T24" s="36">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="U26" s="35">
+      <c r="U24" s="35">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="V26" s="36">
+      <c r="V24" s="36">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="W26" s="35">
+      <c r="W24" s="35">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="X26" s="36">
+      <c r="X24" s="36">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="Y26" s="35">
+      <c r="Y24" s="35">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Z26" s="36">
+      <c r="Z24" s="36">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="AA26" s="35">
+      <c r="AA24" s="35">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="AB26" s="35">
+      <c r="AB24" s="35">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="AC26" s="42">
+      <c r="AC24" s="42">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="170" t="s">
+    <row r="25" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="160" t="s">
         <v>9</v>
       </c>
+      <c r="C25" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2">
+        <f>VLOOKUP(UPPER(Fretboards!C25), Model!$B$2:$D$34, 3)</f>
+        <v>4</v>
+      </c>
+      <c r="E25" s="77" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+E$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+E$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>E : 1</v>
+      </c>
+      <c r="F25" s="78" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+F$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+F$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="G25" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+G$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+G$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>F♯ : 2</v>
+      </c>
+      <c r="H25" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+H$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+H$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>G : ♭3</v>
+      </c>
+      <c r="I25" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+I$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+I$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="J25" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+J$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+J$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>A : 4</v>
+      </c>
+      <c r="K25" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+K$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+K$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="L25" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+L$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+L$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>B : 5</v>
+      </c>
+      <c r="M25" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+M$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+M$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>C : ♭6</v>
+      </c>
+      <c r="N25" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+N$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+N$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="O25" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+O$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+O$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>D : ♭7</v>
+      </c>
+      <c r="P25" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+P$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+P$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="Q25" s="46" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+Q$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+Q$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>E : 1</v>
+      </c>
+      <c r="R25" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+R$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+R$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="S25" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+S$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+S$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>F♯ : 2</v>
+      </c>
+      <c r="T25" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+T$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+T$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>G : ♭3</v>
+      </c>
+      <c r="U25" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+U$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+U$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="V25" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+V$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+V$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>A : 4</v>
+      </c>
+      <c r="W25" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+W$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+W$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="X25" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+X$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+X$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>B : 5</v>
+      </c>
+      <c r="Y25" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+Y$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+Y$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>C : ♭6</v>
+      </c>
+      <c r="Z25" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+Z$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+Z$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="AA25" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+AA$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+AA$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>D : ♭7</v>
+      </c>
+      <c r="AB25" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+AB$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+AB$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="AC25" s="46" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D25+AC$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D25+AC$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>E : 1</v>
+      </c>
+      <c r="AD25" s="51"/>
+    </row>
+    <row r="26" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="160"/>
+      <c r="C26" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2">
+        <f>VLOOKUP(UPPER(Fretboards!C26), Model!$B$2:$D$34, 3)</f>
+        <v>11</v>
+      </c>
+      <c r="E26" s="77" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+E$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+E$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>B : 5</v>
+      </c>
+      <c r="F26" s="78" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+F$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+F$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>C : ♭6</v>
+      </c>
+      <c r="G26" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+G$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+G$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="H26" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+H$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+H$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>D : ♭7</v>
+      </c>
+      <c r="I26" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+I$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+I$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="J26" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+J$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+J$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>E : 1</v>
+      </c>
+      <c r="K26" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+K$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+K$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="L26" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+L$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+L$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>F♯ : 2</v>
+      </c>
+      <c r="M26" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+M$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+M$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>G : ♭3</v>
+      </c>
+      <c r="N26" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+N$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+N$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="O26" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+O$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+O$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>A : 4</v>
+      </c>
+      <c r="P26" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+P$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+P$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="Q26" s="46" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+Q$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+Q$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>B : 5</v>
+      </c>
+      <c r="R26" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+R$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+R$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>C : ♭6</v>
+      </c>
+      <c r="S26" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+S$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+S$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="T26" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+T$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+T$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>D : ♭7</v>
+      </c>
+      <c r="U26" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+U$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+U$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="V26" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+V$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+V$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>E : 1</v>
+      </c>
+      <c r="W26" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+W$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+W$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="X26" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+X$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+X$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>F♯ : 2</v>
+      </c>
+      <c r="Y26" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+Y$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+Y$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>G : ♭3</v>
+      </c>
+      <c r="Z26" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+Z$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+Z$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="AA26" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+AA$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+AA$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>A : 4</v>
+      </c>
+      <c r="AB26" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+AB$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+AB$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="AC26" s="46" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D26+AC$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D26+AC$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>B : 5</v>
+      </c>
+      <c r="AD26" s="51"/>
+    </row>
+    <row r="27" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="160"/>
       <c r="C27" s="52" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C27), Model!$B$2:$D$34, 3)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E27" s="77" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+E$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+E$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+E$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+E$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>G : ♭3</v>
+      </c>
+      <c r="F27" s="78" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+F$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+F$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="G27" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+G$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+G$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>A : 4</v>
+      </c>
+      <c r="H27" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+H$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+H$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="I27" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+I$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+I$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>B : 5</v>
+      </c>
+      <c r="J27" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+J$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+J$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>C : ♭6</v>
+      </c>
+      <c r="K27" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+K$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+K$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="L27" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+L$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+L$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>D : ♭7</v>
+      </c>
+      <c r="M27" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+M$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+M$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="N27" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+N$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+N$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="F27" s="78" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+F$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+F$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="G27" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+G$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+G$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="H27" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+H$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+H$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="O27" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+O$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+O$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="P27" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+P$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+P$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>F♯ : 2</v>
+      </c>
+      <c r="Q27" s="46" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+Q$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+Q$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="I27" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+I$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+I$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="J27" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+J$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+J$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="R27" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+R$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+R$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="S27" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+S$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+S$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="K27" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+K$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+K$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="L27" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+L$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+L$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="T27" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+T$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+T$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="U27" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+U$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+U$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="M27" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+M$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+M$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="N27" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+N$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+N$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="O27" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+O$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+O$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="V27" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+V$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+V$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>C : ♭6</v>
+      </c>
+      <c r="W27" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+W$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+W$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="X27" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+X$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+X$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>D : ♭7</v>
       </c>
-      <c r="P27" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+P$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+P$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="Q27" s="46" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+Q$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+Q$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="Y27" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+Y$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+Y$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="Z27" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+Z$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+Z$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="R27" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+R$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+R$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="S27" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+S$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+S$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="T27" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+T$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+T$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="AA27" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+AA$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+AA$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="AB27" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+AB$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+AB$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>F♯ : 2</v>
+      </c>
+      <c r="AC27" s="46" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+AC$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+AC$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>G : ♭3</v>
-      </c>
-      <c r="U27" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+U$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+U$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="V27" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+V$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+V$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>A : 4</v>
-      </c>
-      <c r="W27" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+W$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+W$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="X27" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+X$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+X$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>B : 5</v>
-      </c>
-      <c r="Y27" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+Y$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+Y$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="Z27" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+Z$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+Z$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="AA27" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+AA$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+AA$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>D : ♭7</v>
-      </c>
-      <c r="AB27" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+AB$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+AB$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="AC27" s="46" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D27+AC$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D27+AC$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>E : 1</v>
       </c>
       <c r="AD27" s="51"/>
     </row>
-    <row r="28" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="170"/>
+    <row r="28" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="160"/>
       <c r="C28" s="52" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C28), Model!$B$2:$D$34, 3)</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E28" s="77" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+E$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+E$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+E$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+E$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>D : ♭7</v>
+      </c>
+      <c r="F28" s="78" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+F$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+F$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="G28" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+G$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+G$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>E : 1</v>
+      </c>
+      <c r="H28" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+H$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+H$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="I28" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+I$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+I$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>F♯ : 2</v>
+      </c>
+      <c r="J28" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+J$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+J$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>G : ♭3</v>
+      </c>
+      <c r="K28" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+K$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+K$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="L28" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+L$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+L$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>A : 4</v>
+      </c>
+      <c r="M28" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+M$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+M$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="N28" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+N$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+N$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="F28" s="78" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+F$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+F$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="G28" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+G$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+G$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="H28" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+H$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+H$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="O28" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+O$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+O$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>C : ♭6</v>
+      </c>
+      <c r="P28" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+P$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+P$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="Q28" s="46" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+Q$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+Q$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>D : ♭7</v>
       </c>
-      <c r="I28" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+I$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+I$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="J28" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+J$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+J$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="R28" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+R$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+R$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="S28" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+S$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+S$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="K28" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+K$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+K$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="L28" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+L$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+L$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="M28" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+M$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+M$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="T28" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+T$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+T$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="U28" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+U$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+U$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>F♯ : 2</v>
+      </c>
+      <c r="V28" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+V$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+V$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="N28" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+N$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+N$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="O28" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+O$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+O$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="W28" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+W$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+W$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="X28" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+X$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+X$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="P28" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+P$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+P$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="Q28" s="46" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+Q$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+Q$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="Y28" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+Y$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+Y$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="Z28" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+Z$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+Z$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="R28" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+R$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+R$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="S28" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+S$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+S$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="T28" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+T$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+T$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="AA28" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+AA$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+AA$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>C : ♭6</v>
+      </c>
+      <c r="AB28" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+AB$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+AB$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="AC28" s="46" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+AC$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+AC$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>D : ♭7</v>
-      </c>
-      <c r="U28" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+U$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+U$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="V28" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+V$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+V$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>E : 1</v>
-      </c>
-      <c r="W28" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+W$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+W$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="X28" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+X$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+X$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="Y28" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+Y$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+Y$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>G : ♭3</v>
-      </c>
-      <c r="Z28" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+Z$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+Z$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="AA28" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+AA$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+AA$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>A : 4</v>
-      </c>
-      <c r="AB28" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+AB$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+AB$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="AC28" s="46" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D28+AC$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D28+AC$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>B : 5</v>
       </c>
       <c r="AD28" s="51"/>
     </row>
-    <row r="29" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="170"/>
+    <row r="29" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="160"/>
       <c r="C29" s="52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C29), Model!$B$2:$D$34, 3)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E29" s="77" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+E$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+E$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+E$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+E$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>A : 4</v>
+      </c>
+      <c r="F29" s="78" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+F$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+F$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="G29" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+G$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+G$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>B : 5</v>
+      </c>
+      <c r="H29" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+H$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+H$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>C : ♭6</v>
+      </c>
+      <c r="I29" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+I$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+I$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="J29" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+J$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+J$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>D : ♭7</v>
+      </c>
+      <c r="K29" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+K$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+K$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="L29" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+L$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+L$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>E : 1</v>
+      </c>
+      <c r="M29" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+M$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+M$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="N29" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+N$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+N$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>F♯ : 2</v>
+      </c>
+      <c r="O29" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+O$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+O$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="F29" s="78" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+F$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+F$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="G29" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+G$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+G$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="P29" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+P$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+P$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="Q29" s="46" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+Q$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+Q$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="H29" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+H$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+H$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="I29" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+I$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+I$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="R29" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+R$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+R$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="S29" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+S$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+S$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="J29" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+J$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+J$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="K29" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+K$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+K$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="L29" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+L$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+L$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="T29" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+T$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+T$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>C : ♭6</v>
+      </c>
+      <c r="U29" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+U$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+U$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="V29" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+V$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+V$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>D : ♭7</v>
       </c>
-      <c r="M29" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+M$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+M$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="N29" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+N$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+N$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="W29" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+W$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+W$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="X29" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+X$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+X$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="O29" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+O$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+O$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="P29" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+P$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+P$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="Q29" s="46" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+Q$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+Q$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="Y29" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+Y$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+Y$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="Z29" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+Z$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+Z$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>F♯ : 2</v>
+      </c>
+      <c r="AA29" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+AA$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+AA$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="R29" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+R$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+R$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="S29" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+S$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+S$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="AB29" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+AB$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+AB$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="AC29" s="46" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+AC$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+AC$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>A : 4</v>
-      </c>
-      <c r="T29" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+T$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+T$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="U29" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+U$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+U$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>B : 5</v>
-      </c>
-      <c r="V29" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+V$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+V$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="W29" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+W$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+W$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="X29" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+X$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+X$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>D : ♭7</v>
-      </c>
-      <c r="Y29" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+Y$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+Y$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="Z29" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+Z$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+Z$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>E : 1</v>
-      </c>
-      <c r="AA29" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+AA$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+AA$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="AB29" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+AB$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+AB$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="AC29" s="46" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D29+AC$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D29+AC$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>G : ♭3</v>
       </c>
       <c r="AD29" s="51"/>
     </row>
-    <row r="30" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="170"/>
+    <row r="30" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="166" t="s">
+        <v>32</v>
+      </c>
       <c r="C30" s="52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C30), Model!$B$2:$D$34, 3)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" s="77" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+E$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+E$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+E$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+E$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>E : 1</v>
+      </c>
+      <c r="F30" s="78" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+F$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+F$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="G30" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+G$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+G$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>F♯ : 2</v>
+      </c>
+      <c r="H30" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+H$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+H$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>G : ♭3</v>
+      </c>
+      <c r="I30" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+I$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+I$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="J30" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+J$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+J$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>A : 4</v>
+      </c>
+      <c r="K30" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+K$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+K$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="L30" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+L$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+L$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>B : 5</v>
+      </c>
+      <c r="M30" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+M$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+M$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>C : ♭6</v>
+      </c>
+      <c r="N30" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+N$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+N$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="O30" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+O$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+O$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>D : ♭7</v>
       </c>
-      <c r="F30" s="78" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+F$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+F$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="G30" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+G$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+G$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="P30" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+P$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+P$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="Q30" s="46" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+Q$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+Q$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="H30" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+H$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+H$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="I30" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+I$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+I$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="J30" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+J$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+J$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="R30" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+R$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+R$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="S30" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+S$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+S$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>F♯ : 2</v>
+      </c>
+      <c r="T30" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+T$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+T$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="K30" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+K$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+K$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="L30" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+L$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+L$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="U30" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+U$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+U$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="V30" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+V$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+V$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="M30" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+M$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+M$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="N30" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+N$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+N$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="W30" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+W$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+W$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="X30" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+X$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+X$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="O30" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+O$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+O$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="P30" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+P$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+P$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="Q30" s="46" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+Q$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+Q$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="Y30" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+Y$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+Y$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>C : ♭6</v>
+      </c>
+      <c r="Z30" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+Z$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+Z$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="AA30" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+AA$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+AA$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>D : ♭7</v>
       </c>
-      <c r="R30" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+R$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+R$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="S30" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+S$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+S$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="AB30" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+AB$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+AB$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="AC30" s="46" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+AC$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+AC$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>E : 1</v>
-      </c>
-      <c r="T30" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+T$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+T$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="U30" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+U$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+U$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="V30" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+V$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+V$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>G : ♭3</v>
-      </c>
-      <c r="W30" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+W$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+W$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="X30" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+X$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+X$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>A : 4</v>
-      </c>
-      <c r="Y30" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+Y$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+Y$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="Z30" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+Z$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+Z$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>B : 5</v>
-      </c>
-      <c r="AA30" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+AA$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+AA$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="AB30" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+AB$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+AB$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="AC30" s="46" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D30+AC$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D30+AC$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>D : ♭7</v>
       </c>
       <c r="AD30" s="51"/>
     </row>
-    <row r="31" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="170"/>
+    <row r="31" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="166"/>
       <c r="C31" s="52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C31), Model!$B$2:$D$34, 3)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E31" s="77" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+E$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+E$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+E$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+E$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>B : 5</v>
+      </c>
+      <c r="F31" s="78" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+F$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+F$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>C : ♭6</v>
+      </c>
+      <c r="G31" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+G$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+G$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="H31" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+H$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+H$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>D : ♭7</v>
+      </c>
+      <c r="I31" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+I$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+I$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="J31" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+J$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+J$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>E : 1</v>
+      </c>
+      <c r="K31" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+K$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+K$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="L31" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+L$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+L$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>F♯ : 2</v>
+      </c>
+      <c r="M31" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+M$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+M$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>G : ♭3</v>
+      </c>
+      <c r="N31" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+N$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+N$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="O31" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+O$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+O$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="F31" s="78" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+F$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+F$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="G31" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+G$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+G$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="P31" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+P$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+P$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="Q31" s="46" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+Q$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+Q$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="H31" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+H$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+H$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="I31" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+I$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+I$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="J31" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+J$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+J$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="R31" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+R$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+R$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>C : ♭6</v>
+      </c>
+      <c r="S31" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+S$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+S$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="T31" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+T$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+T$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>D : ♭7</v>
       </c>
-      <c r="K31" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+K$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+K$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="L31" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+L$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+L$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="U31" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+U$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+U$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="V31" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+V$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+V$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="M31" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+M$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+M$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="N31" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+N$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+N$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="O31" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+O$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+O$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="W31" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+W$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+W$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="X31" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+X$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+X$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>F♯ : 2</v>
+      </c>
+      <c r="Y31" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+Y$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+Y$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="P31" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+P$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+P$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="Q31" s="46" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+Q$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+Q$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="Z31" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+Z$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+Z$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="AA31" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+AA$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+AA$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="R31" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+R$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+R$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="S31" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+S$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+S$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="AB31" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+AB$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+AB$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="AC31" s="46" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+AC$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+AC$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>B : 5</v>
-      </c>
-      <c r="T31" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+T$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+T$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="U31" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+U$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+U$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="V31" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+V$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+V$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>D : ♭7</v>
-      </c>
-      <c r="W31" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+W$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+W$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="X31" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+X$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+X$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>E : 1</v>
-      </c>
-      <c r="Y31" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+Y$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+Y$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="Z31" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+Z$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+Z$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="AA31" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+AA$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+AA$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>G : ♭3</v>
-      </c>
-      <c r="AB31" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+AB$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+AB$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="AC31" s="46" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D31+AC$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D31+AC$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>A : 4</v>
       </c>
       <c r="AD31" s="51"/>
     </row>
-    <row r="32" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="165" t="s">
-        <v>32</v>
-      </c>
+    <row r="32" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="166"/>
       <c r="C32" s="52" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D32" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C32), Model!$B$2:$D$34, 3)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E32" s="77" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+E$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+E$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+E$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+E$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>F♯ : 2</v>
+      </c>
+      <c r="F32" s="78" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+F$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+F$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>G : ♭3</v>
+      </c>
+      <c r="G32" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+G$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+G$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="H32" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+H$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+H$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>A : 4</v>
+      </c>
+      <c r="I32" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+I$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+I$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="J32" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+J$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+J$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>B : 5</v>
+      </c>
+      <c r="K32" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+K$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+K$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>C : ♭6</v>
+      </c>
+      <c r="L32" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+L$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+L$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="M32" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+M$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+M$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>D : ♭7</v>
+      </c>
+      <c r="N32" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+N$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+N$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="O32" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+O$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+O$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="F32" s="78" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+F$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+F$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="G32" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+G$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+G$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="H32" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+H$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+H$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="P32" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+P$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+P$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="Q32" s="46" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+Q$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+Q$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>F♯ : 2</v>
+      </c>
+      <c r="R32" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+R$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+R$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="I32" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+I$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+I$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="J32" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+J$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+J$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="S32" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+S$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+S$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="T32" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+T$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+T$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="K32" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+K$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+K$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="L32" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+L$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+L$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="U32" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+U$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+U$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="V32" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+V$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+V$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="M32" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+M$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+M$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="N32" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+N$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+N$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="O32" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+O$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+O$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="W32" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+W$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+W$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>C : ♭6</v>
+      </c>
+      <c r="X32" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+X$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+X$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="Y32" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+Y$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+Y$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>D : ♭7</v>
       </c>
-      <c r="P32" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+P$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+P$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="Q32" s="46" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+Q$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+Q$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="Z32" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+Z$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+Z$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="AA32" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+AA$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+AA$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="R32" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+R$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+R$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="S32" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+S$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+S$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="T32" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+T$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+T$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>G : ♭3</v>
-      </c>
-      <c r="U32" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+U$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+U$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="V32" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+V$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+V$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>A : 4</v>
-      </c>
-      <c r="W32" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+W$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+W$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="X32" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+X$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+X$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>B : 5</v>
-      </c>
-      <c r="Y32" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+Y$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+Y$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="Z32" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+Z$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+Z$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="AA32" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+AA$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+AA$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>D : ♭7</v>
-      </c>
       <c r="AB32" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+AB$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+AB$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+AB$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+AB$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v/>
       </c>
       <c r="AC32" s="46" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+AC$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+AC$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>E : 1</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D32+AC$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D32+AC$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>F♯ : 2</v>
       </c>
       <c r="AD32" s="51"/>
     </row>
     <row r="33" spans="2:30" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="165"/>
+      <c r="B33" s="166"/>
       <c r="C33" s="52" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D33" s="2">
         <f>VLOOKUP(UPPER(Fretboards!C33), Model!$B$2:$D$34, 3)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E33" s="77" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+E$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+E$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+E$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+E$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="F33" s="78" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+F$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+F$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>D : ♭7</v>
+      </c>
+      <c r="G33" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+G$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+G$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="H33" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+H$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+H$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>E : 1</v>
+      </c>
+      <c r="I33" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+I$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+I$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="J33" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+J$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+J$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>F♯ : 2</v>
+      </c>
+      <c r="K33" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+K$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+K$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>G : ♭3</v>
+      </c>
+      <c r="L33" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+L$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+L$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="M33" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+M$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+M$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>A : 4</v>
+      </c>
+      <c r="N33" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+N$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+N$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="O33" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+O$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+O$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="F33" s="78" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+F$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+F$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="G33" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+G$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+G$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="H33" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+H$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+H$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="P33" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+P$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+P$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>C : ♭6</v>
+      </c>
+      <c r="Q33" s="46" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+Q$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+Q$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="R33" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+R$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+R$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>D : ♭7</v>
       </c>
-      <c r="I33" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+I$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+I$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="J33" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+J$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+J$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="S33" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+S$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+S$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="T33" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+T$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+T$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="K33" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+K$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+K$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="L33" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+L$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+L$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="M33" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+M$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+M$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="U33" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+U$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+U$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="V33" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+V$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+V$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>F♯ : 2</v>
+      </c>
+      <c r="W33" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+W$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+W$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="N33" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+N$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+N$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="O33" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+O$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+O$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="X33" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+X$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+X$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="Y33" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+Y$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+Y$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="P33" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+P$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+P$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="Q33" s="46" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+Q$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+Q$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+      <c r="Z33" s="45" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+Z$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+Z$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
+      </c>
+      <c r="AA33" s="44" t="str">
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+AA$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+AA$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="R33" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+R$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+R$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="S33" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+S$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+S$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="T33" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+T$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+T$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>D : ♭7</v>
-      </c>
-      <c r="U33" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+U$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+U$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="V33" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+V$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+V$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>E : 1</v>
-      </c>
-      <c r="W33" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+W$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+W$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="X33" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+X$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+X$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="Y33" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+Y$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+Y$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>G : ♭3</v>
-      </c>
-      <c r="Z33" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+Z$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+Z$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="AA33" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+AA$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+AA$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>A : 4</v>
-      </c>
       <c r="AB33" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+AB$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+AB$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+AB$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+AB$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v>C : ♭6</v>
       </c>
       <c r="AC33" s="46" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+AC$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+AC$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>B : 5</v>
+        <f>IFERROR(HLOOKUP(MATCH(MOD($D33+AC$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D33+AC$24, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
+        <v/>
       </c>
       <c r="AD33" s="51"/>
     </row>
-    <row r="34" spans="2:30" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="165"/>
-      <c r="C34" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="2">
-        <f>VLOOKUP(UPPER(Fretboards!C34), Model!$B$2:$D$34, 3)</f>
-        <v>6</v>
-      </c>
-      <c r="E34" s="77" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+E$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+E$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="F34" s="78" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+F$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+F$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>G : ♭3</v>
-      </c>
-      <c r="G34" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+G$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+G$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="H34" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+H$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+H$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>A : 4</v>
-      </c>
-      <c r="I34" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+I$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+I$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="J34" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+J$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+J$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>B : 5</v>
-      </c>
-      <c r="K34" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+K$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+K$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="L34" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+L$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+L$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="M34" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+M$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+M$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>D : ♭7</v>
-      </c>
-      <c r="N34" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+N$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+N$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="O34" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+O$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+O$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>E : 1</v>
-      </c>
-      <c r="P34" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+P$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+P$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="Q34" s="46" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+Q$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+Q$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="R34" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+R$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+R$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>G : ♭3</v>
-      </c>
-      <c r="S34" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+S$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+S$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="T34" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+T$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+T$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>A : 4</v>
-      </c>
-      <c r="U34" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+U$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+U$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="V34" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+V$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+V$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>B : 5</v>
-      </c>
-      <c r="W34" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+W$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+W$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="X34" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+X$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+X$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="Y34" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+Y$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+Y$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>D : ♭7</v>
-      </c>
-      <c r="Z34" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+Z$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+Z$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="AA34" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+AA$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+AA$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>E : 1</v>
-      </c>
-      <c r="AB34" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+AB$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+AB$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="AC34" s="46" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D34+AC$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D34+AC$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="AD34" s="51"/>
-    </row>
-    <row r="35" spans="2:30" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="165"/>
-      <c r="C35" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="2">
-        <f>VLOOKUP(UPPER(Fretboards!C35), Model!$B$2:$D$34, 3)</f>
-        <v>1</v>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+E$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+E$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="F35" s="78" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+F$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+F$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>D : ♭7</v>
-      </c>
-      <c r="G35" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+G$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+G$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="H35" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+H$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+H$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>E : 1</v>
-      </c>
-      <c r="I35" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+I$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+I$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="J35" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+J$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+J$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="K35" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+K$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+K$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>G : ♭3</v>
-      </c>
-      <c r="L35" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+L$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+L$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="M35" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+M$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+M$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>A : 4</v>
-      </c>
-      <c r="N35" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+N$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+N$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="O35" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+O$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+O$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>B : 5</v>
-      </c>
-      <c r="P35" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+P$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+P$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="Q35" s="46" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+Q$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+Q$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="R35" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+R$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+R$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>D : ♭7</v>
-      </c>
-      <c r="S35" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+S$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+S$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="T35" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+T$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+T$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>E : 1</v>
-      </c>
-      <c r="U35" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+U$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+U$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="V35" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+V$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+V$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="W35" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+W$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+W$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>G : ♭3</v>
-      </c>
-      <c r="X35" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+X$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+X$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="Y35" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+Y$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+Y$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>A : 4</v>
-      </c>
-      <c r="Z35" s="45" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+Z$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+Z$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="AA35" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+AA$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+AA$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v>B : 5</v>
-      </c>
-      <c r="AB35" s="44" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+AB$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+AB$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="AC35" s="46" t="str">
-        <f>IFERROR(HLOOKUP(MATCH(MOD($D35+AC$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$15, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D35+AC$26, 12), Model!$J$14:$P$14, 0), Model!$J$11:$P$12, 2), "")</f>
-        <v/>
-      </c>
-      <c r="AD35" s="51"/>
-    </row>
-    <row r="36" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="40">
-        <f t="shared" ref="E36:AC36" si="3">IF($AB$3, 24-E$1, E$1)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="35">
+    <row r="34" spans="2:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="53"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="40">
+        <f t="shared" ref="E34:AC34" si="3">IF($AB$3, 24-E$1, E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="35">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G34" s="35">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H34" s="36">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I36" s="35">
+      <c r="I34" s="35">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J34" s="36">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K36" s="35">
+      <c r="K34" s="35">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="L36" s="36">
+      <c r="L34" s="36">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="M36" s="35">
+      <c r="M34" s="35">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="N36" s="36">
+      <c r="N34" s="36">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="O36" s="35">
+      <c r="O34" s="35">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="P36" s="35">
+      <c r="P34" s="35">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="Q36" s="41">
+      <c r="Q34" s="41">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="R36" s="35">
+      <c r="R34" s="35">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="S36" s="35">
+      <c r="S34" s="35">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="T36" s="36">
+      <c r="T34" s="36">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="U36" s="35">
+      <c r="U34" s="35">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="V36" s="36">
+      <c r="V34" s="36">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="W36" s="35">
+      <c r="W34" s="35">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="X36" s="36">
+      <c r="X34" s="36">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="Y36" s="35">
+      <c r="Y34" s="35">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Z36" s="36">
+      <c r="Z34" s="36">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="AA36" s="35">
+      <c r="AA34" s="35">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="AB36" s="35">
+      <c r="AB34" s="35">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="AC36" s="42">
+      <c r="AC34" s="42">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="54"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="56"/>
-      <c r="AC37" s="56"/>
+    <row r="35" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="54"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="56"/>
+      <c r="AC35" s="56"/>
     </row>
-    <row r="38" spans="2:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="161" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="161"/>
-      <c r="E38" s="70" t="s">
+    <row r="36" spans="2:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="168" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="168"/>
+      <c r="E36" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="71" t="s">
+      <c r="F36" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="71" t="s">
+      <c r="G36" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H38" s="71" t="s">
+      <c r="H36" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="I38" s="71" t="s">
+      <c r="I36" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="J38" s="71" t="s">
+      <c r="J36" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="70" t="s">
+      <c r="K36" s="70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:30" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="B39" s="161"/>
-      <c r="C39" s="161"/>
-      <c r="E39" s="160" t="s">
+    <row r="37" spans="2:30" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="E37" s="167" t="s">
         <v>192</v>
       </c>
-      <c r="F39" s="160"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="160"/>
-      <c r="J39" s="160"/>
-      <c r="K39" s="160"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="167"/>
+      <c r="K37" s="167"/>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B40" s="76"/>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B38" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="43">
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="E37:K37"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="Z3:AA5"/>
     <mergeCell ref="AB3:AC5"/>
     <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B25:B29"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="Q4:R4"/>
@@ -6603,276 +7601,294 @@
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="B22:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="B20:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="S23:U23"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="S6:U6"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="E39:K39"/>
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <conditionalFormatting sqref="W6:AA6">
-    <cfRule type="containsText" dxfId="118" priority="185" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="223" priority="199" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",W6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="containsText" dxfId="117" priority="68" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="222" priority="82" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",V6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6">
-    <cfRule type="containsText" dxfId="116" priority="67" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="221" priority="81" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",AB6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V25">
-    <cfRule type="containsText" dxfId="115" priority="59" operator="containsText" text="W">
-      <formula>NOT(ISERROR(SEARCH("W",V25)))</formula>
+  <conditionalFormatting sqref="V23">
+    <cfRule type="containsText" dxfId="220" priority="73" operator="containsText" text="W">
+      <formula>NOT(ISERROR(SEARCH("W",V23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W25">
-    <cfRule type="containsText" dxfId="114" priority="58" operator="containsText" text="W">
-      <formula>NOT(ISERROR(SEARCH("W",W25)))</formula>
+  <conditionalFormatting sqref="W23">
+    <cfRule type="containsText" dxfId="219" priority="72" operator="containsText" text="W">
+      <formula>NOT(ISERROR(SEARCH("W",W23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X25">
-    <cfRule type="containsText" dxfId="113" priority="57" operator="containsText" text="W">
-      <formula>NOT(ISERROR(SEARCH("W",X25)))</formula>
+  <conditionalFormatting sqref="X23">
+    <cfRule type="containsText" dxfId="218" priority="71" operator="containsText" text="W">
+      <formula>NOT(ISERROR(SEARCH("W",X23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y25">
-    <cfRule type="containsText" dxfId="112" priority="56" operator="containsText" text="W">
-      <formula>NOT(ISERROR(SEARCH("W",Y25)))</formula>
+  <conditionalFormatting sqref="Y23">
+    <cfRule type="containsText" dxfId="217" priority="70" operator="containsText" text="W">
+      <formula>NOT(ISERROR(SEARCH("W",Y23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z25">
-    <cfRule type="containsText" dxfId="111" priority="55" operator="containsText" text="W">
-      <formula>NOT(ISERROR(SEARCH("W",Z25)))</formula>
+  <conditionalFormatting sqref="Z23">
+    <cfRule type="containsText" dxfId="216" priority="69" operator="containsText" text="W">
+      <formula>NOT(ISERROR(SEARCH("W",Z23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA25">
-    <cfRule type="containsText" dxfId="110" priority="54" operator="containsText" text="W">
-      <formula>NOT(ISERROR(SEARCH("W",AA25)))</formula>
+  <conditionalFormatting sqref="AA23">
+    <cfRule type="containsText" dxfId="215" priority="68" operator="containsText" text="W">
+      <formula>NOT(ISERROR(SEARCH("W",AA23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB25">
-    <cfRule type="containsText" dxfId="109" priority="53" operator="containsText" text="W">
-      <formula>NOT(ISERROR(SEARCH("W",AB25)))</formula>
+  <conditionalFormatting sqref="AB23">
+    <cfRule type="containsText" dxfId="214" priority="67" operator="containsText" text="W">
+      <formula>NOT(ISERROR(SEARCH("W",AB23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:P35">
-    <cfRule type="containsBlanks" dxfId="108" priority="573">
-      <formula>LEN(TRIM(F27))=0</formula>
+  <conditionalFormatting sqref="F25:P33">
+    <cfRule type="containsBlanks" dxfId="213" priority="587">
+      <formula>LEN(TRIM(F25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:AB16">
-    <cfRule type="containsBlanks" dxfId="107" priority="574">
+    <cfRule type="containsBlanks" dxfId="212" priority="588">
       <formula>LEN(TRIM(R8))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R27:AB35">
-    <cfRule type="containsBlanks" dxfId="106" priority="37">
-      <formula>LEN(TRIM(R27))=0</formula>
+  <conditionalFormatting sqref="R25:AB33">
+    <cfRule type="containsBlanks" dxfId="211" priority="51">
+      <formula>LEN(TRIM(R25))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M25">
-    <cfRule type="expression" dxfId="105" priority="610">
-      <formula>FIND(7,Q22)</formula>
+  <conditionalFormatting sqref="M23">
+    <cfRule type="expression" dxfId="210" priority="624">
+      <formula>FIND(7,Q20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="611">
-      <formula>FIND(6, Q22)</formula>
+    <cfRule type="expression" dxfId="209" priority="625">
+      <formula>FIND(6, Q20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="612">
-      <formula>FIND(5,Q22)</formula>
+    <cfRule type="expression" dxfId="208" priority="626">
+      <formula>FIND(5,Q20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="613">
-      <formula>FIND(4,Q22)</formula>
+    <cfRule type="expression" dxfId="207" priority="627">
+      <formula>FIND(4,Q20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="614">
-      <formula>FIND(3, Q22)</formula>
+    <cfRule type="expression" dxfId="206" priority="628">
+      <formula>FIND(3, Q20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="615">
-      <formula>FIND(2, Q22)</formula>
+    <cfRule type="expression" dxfId="205" priority="629">
+      <formula>FIND(2, Q20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="616">
-      <formula>FIND(1, Q22)</formula>
+    <cfRule type="expression" dxfId="204" priority="630">
+      <formula>FIND(1, Q20)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
-    <cfRule type="expression" dxfId="98" priority="624">
-      <formula>FIND(7,O22)</formula>
+  <conditionalFormatting sqref="L23">
+    <cfRule type="expression" dxfId="203" priority="638">
+      <formula>FIND(7,O20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="625">
-      <formula>FIND(6, O22)</formula>
+    <cfRule type="expression" dxfId="202" priority="639">
+      <formula>FIND(6, O20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="626">
-      <formula>FIND(5,O22)</formula>
+    <cfRule type="expression" dxfId="201" priority="640">
+      <formula>FIND(5,O20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="627">
-      <formula>FIND(4,O22)</formula>
+    <cfRule type="expression" dxfId="200" priority="641">
+      <formula>FIND(4,O20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="628">
-      <formula>FIND(3, O22)</formula>
+    <cfRule type="expression" dxfId="199" priority="642">
+      <formula>FIND(3, O20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="629">
-      <formula>FIND(2, O22)</formula>
+    <cfRule type="expression" dxfId="198" priority="643">
+      <formula>FIND(2, O20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="630">
-      <formula>FIND(1, O22)</formula>
+    <cfRule type="expression" dxfId="197" priority="644">
+      <formula>FIND(1, O20)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="91" priority="638">
-      <formula>FIND(7,M22)</formula>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="expression" dxfId="196" priority="652">
+      <formula>FIND(7,M20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="639">
-      <formula>FIND(6, M22)</formula>
+    <cfRule type="expression" dxfId="195" priority="653">
+      <formula>FIND(6, M20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="640">
-      <formula>FIND(5,M22)</formula>
+    <cfRule type="expression" dxfId="194" priority="654">
+      <formula>FIND(5,M20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="641">
-      <formula>FIND(4,M22)</formula>
+    <cfRule type="expression" dxfId="193" priority="655">
+      <formula>FIND(4,M20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="642">
-      <formula>FIND(3, M22)</formula>
+    <cfRule type="expression" dxfId="192" priority="656">
+      <formula>FIND(3, M20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="643">
-      <formula>FIND(2, M22)</formula>
+    <cfRule type="expression" dxfId="191" priority="657">
+      <formula>FIND(2, M20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="644">
-      <formula>FIND(1, M22)</formula>
+    <cfRule type="expression" dxfId="190" priority="658">
+      <formula>FIND(1, M20)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="expression" dxfId="84" priority="652">
-      <formula>FIND(7,K22)</formula>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="expression" dxfId="189" priority="666">
+      <formula>FIND(7,K20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="653">
-      <formula>FIND(6, K22)</formula>
+    <cfRule type="expression" dxfId="188" priority="667">
+      <formula>FIND(6, K20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="654">
-      <formula>FIND(5,K22)</formula>
+    <cfRule type="expression" dxfId="187" priority="668">
+      <formula>FIND(5,K20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="655">
-      <formula>FIND(4,K22)</formula>
+    <cfRule type="expression" dxfId="186" priority="669">
+      <formula>FIND(4,K20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="656">
-      <formula>FIND(3, K22)</formula>
+    <cfRule type="expression" dxfId="185" priority="670">
+      <formula>FIND(3, K20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="657">
-      <formula>FIND(2, K22)</formula>
+    <cfRule type="expression" dxfId="184" priority="671">
+      <formula>FIND(2, K20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="658">
-      <formula>FIND(1, K22)</formula>
+    <cfRule type="expression" dxfId="183" priority="672">
+      <formula>FIND(1, K20)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P25">
-    <cfRule type="expression" dxfId="77" priority="659">
-      <formula>FIND(7,W22)</formula>
+  <conditionalFormatting sqref="P23">
+    <cfRule type="expression" dxfId="182" priority="673">
+      <formula>FIND(7,W20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="660">
-      <formula>FIND(6, W22)</formula>
+    <cfRule type="expression" dxfId="181" priority="674">
+      <formula>FIND(6, W20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="661">
-      <formula>FIND(5,W22)</formula>
+    <cfRule type="expression" dxfId="180" priority="675">
+      <formula>FIND(5,W20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="662">
-      <formula>FIND(4,W22)</formula>
+    <cfRule type="expression" dxfId="179" priority="676">
+      <formula>FIND(4,W20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="663">
-      <formula>FIND(3, W22)</formula>
+    <cfRule type="expression" dxfId="178" priority="677">
+      <formula>FIND(3, W20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="664">
-      <formula>FIND(2, W22)</formula>
+    <cfRule type="expression" dxfId="177" priority="678">
+      <formula>FIND(2, W20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="665">
-      <formula>FIND(1, W22)</formula>
+    <cfRule type="expression" dxfId="176" priority="679">
+      <formula>FIND(1, W20)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O25">
-    <cfRule type="expression" dxfId="70" priority="666">
-      <formula>FIND(7,U22)</formula>
+  <conditionalFormatting sqref="O23">
+    <cfRule type="expression" dxfId="175" priority="680">
+      <formula>FIND(7,U20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="667">
-      <formula>FIND(6, U22)</formula>
+    <cfRule type="expression" dxfId="174" priority="681">
+      <formula>FIND(6, U20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="668">
-      <formula>FIND(5,U22)</formula>
+    <cfRule type="expression" dxfId="173" priority="682">
+      <formula>FIND(5,U20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="669">
-      <formula>FIND(4,U22)</formula>
+    <cfRule type="expression" dxfId="172" priority="683">
+      <formula>FIND(4,U20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="670">
-      <formula>FIND(3, U22)</formula>
+    <cfRule type="expression" dxfId="171" priority="684">
+      <formula>FIND(3, U20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="671">
-      <formula>FIND(2, U22)</formula>
+    <cfRule type="expression" dxfId="170" priority="685">
+      <formula>FIND(2, U20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="672">
-      <formula>FIND(1, U22)</formula>
+    <cfRule type="expression" dxfId="169" priority="686">
+      <formula>FIND(1, U20)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N25">
-    <cfRule type="expression" dxfId="63" priority="673">
-      <formula>FIND(7,S22)</formula>
+  <conditionalFormatting sqref="N23">
+    <cfRule type="expression" dxfId="168" priority="687">
+      <formula>FIND(7,S20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="674">
-      <formula>FIND(6, S22)</formula>
+    <cfRule type="expression" dxfId="167" priority="688">
+      <formula>FIND(6, S20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="675">
-      <formula>FIND(5,S22)</formula>
+    <cfRule type="expression" dxfId="166" priority="689">
+      <formula>FIND(5,S20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="676">
-      <formula>FIND(4,S22)</formula>
+    <cfRule type="expression" dxfId="165" priority="690">
+      <formula>FIND(4,S20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="677">
-      <formula>FIND(3, S22)</formula>
+    <cfRule type="expression" dxfId="164" priority="691">
+      <formula>FIND(3, S20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="678">
-      <formula>FIND(2, S22)</formula>
+    <cfRule type="expression" dxfId="163" priority="692">
+      <formula>FIND(2, S20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="679">
-      <formula>FIND(1, S22)</formula>
+    <cfRule type="expression" dxfId="162" priority="693">
+      <formula>FIND(1, S20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:P16">
-    <cfRule type="containsBlanks" dxfId="56" priority="29">
+    <cfRule type="containsBlanks" dxfId="161" priority="43">
       <formula>LEN(TRIM(F8))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AF8:AF17">
+    <cfRule type="expression" dxfId="125" priority="1730">
+      <formula>AND($AF$15=TRUE, SEARCH("6", AF8))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="1731">
+      <formula>AND($AF$10=TRUE, SEARCH("1", AF8))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="1732">
+      <formula>AND($AF$11=TRUE, SEARCH("2", AF8))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="1733">
+      <formula>AND($AF$12=TRUE, SEARCH("3", AF8))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="1734">
+      <formula>AND($AF$13=TRUE, SEARCH("4", AF8))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="1735">
+      <formula>AND($AF$14=TRUE, SEARCH("5", AF8))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="1736">
+      <formula>AND(#REF!=TRUE, SEARCH("7", AF8))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE8:AE13 AE17">
+    <cfRule type="expression" dxfId="118" priority="1737">
+      <formula>AND($AF$8, SEARCH("1", AE8))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="1738">
+      <formula>AND($AF$9, SEARCH("2", AE8))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="1739">
+      <formula>AND($AF$10, SEARCH("3", AE8))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="1740">
+      <formula>AND($AF$11, SEARCH("4", AE8))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="1741">
+      <formula>AND($AF$12, SEARCH("5", AE8))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="1742">
+      <formula>AND($AF$13, SEARCH("6", AE8))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="1743">
+      <formula>AND($AF$17, SEARCH("7", AE8))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations xWindow="573" yWindow="743" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3 AF8:AF17" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:C21" xr:uid="{B68EA209-63EF-4D62-8809-EC6365A5BF0B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:C19" xr:uid="{B68EA209-63EF-4D62-8809-EC6365A5BF0B}">
       <formula1>"Default, Chords"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6882,7 +7898,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="722" id="{00000000-000E-0000-0000-0000C4020000}">
+          <x14:cfRule type="expression" priority="736" id="{00000000-000E-0000-0000-0000C4020000}">
             <xm:f>SEARCH("7", Model!J$3)</xm:f>
             <x14:dxf>
               <font>
@@ -6890,7 +7906,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="723" id="{00000000-000E-0000-0000-0000C5020000}">
+          <x14:cfRule type="expression" priority="737" id="{00000000-000E-0000-0000-0000C5020000}">
             <xm:f>SEARCH("6", Model!J$3)</xm:f>
             <x14:dxf>
               <font>
@@ -6898,7 +7914,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="724" id="{00000000-000E-0000-0000-0000C6020000}">
+          <x14:cfRule type="expression" priority="738" id="{00000000-000E-0000-0000-0000C6020000}">
             <xm:f>SEARCH("5", Model!J$3)</xm:f>
             <x14:dxf>
               <font>
@@ -6906,7 +7922,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="725" id="{00000000-000E-0000-0000-0000C7020000}">
+          <x14:cfRule type="expression" priority="739" id="{00000000-000E-0000-0000-0000C7020000}">
             <xm:f>SEARCH("4", Model!J$3)</xm:f>
             <x14:dxf>
               <font>
@@ -6914,7 +7930,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="726" id="{00000000-000E-0000-0000-0000C8020000}">
+          <x14:cfRule type="expression" priority="740" id="{00000000-000E-0000-0000-0000C8020000}">
             <xm:f>SEARCH("3", Model!J$3)</xm:f>
             <x14:dxf>
               <font>
@@ -6922,7 +7938,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="727" id="{00000000-000E-0000-0000-0000C9020000}">
+          <x14:cfRule type="expression" priority="741" id="{00000000-000E-0000-0000-0000C9020000}">
             <xm:f>SEARCH("2", Model!J$3)</xm:f>
             <x14:dxf>
               <font>
@@ -6930,7 +7946,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="728" id="{00000000-000E-0000-0000-0000CA020000}">
+          <x14:cfRule type="expression" priority="742" id="{00000000-000E-0000-0000-0000CA020000}">
             <xm:f>SEARCH("1", Model!J$3)</xm:f>
             <x14:dxf>
               <font>
@@ -6946,7 +7962,7 @@
           <xm:sqref>J6:P6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1513" id="{00000000-000E-0000-0000-000024020000}">
+          <x14:cfRule type="expression" priority="1527" id="{00000000-000E-0000-0000-000024020000}">
             <xm:f>AND(Model!$O$8=TRUE, SEARCH("6", AB3))</xm:f>
             <x14:dxf>
               <font>
@@ -6959,7 +7975,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1514" id="{00000000-000E-0000-0000-000025020000}">
+          <x14:cfRule type="expression" priority="1528" id="{00000000-000E-0000-0000-000025020000}">
             <xm:f>AND(Model!$J$8=TRUE, SEARCH("1", AB3))</xm:f>
             <x14:dxf>
               <font>
@@ -6974,7 +7990,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1515" id="{00000000-000E-0000-0000-000026020000}">
+          <x14:cfRule type="expression" priority="1529" id="{00000000-000E-0000-0000-000026020000}">
             <xm:f>AND(Model!$K$8=TRUE, SEARCH("2", AB3))</xm:f>
             <x14:dxf>
               <font>
@@ -6987,7 +8003,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1516" id="{00000000-000E-0000-0000-000027020000}">
+          <x14:cfRule type="expression" priority="1530" id="{00000000-000E-0000-0000-000027020000}">
             <xm:f>AND(Model!$L$8=TRUE, SEARCH("3", AB3))</xm:f>
             <x14:dxf>
               <font>
@@ -7000,7 +8016,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1517" id="{00000000-000E-0000-0000-000028020000}">
+          <x14:cfRule type="expression" priority="1531" id="{00000000-000E-0000-0000-000028020000}">
             <xm:f>AND(Model!$M$8=TRUE, SEARCH("4", AB3))</xm:f>
             <x14:dxf>
               <font>
@@ -7013,7 +8029,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1518" id="{00000000-000E-0000-0000-000029020000}">
+          <x14:cfRule type="expression" priority="1532" id="{00000000-000E-0000-0000-000029020000}">
             <xm:f>AND(Model!$N$8=TRUE, SEARCH("5", AB3))</xm:f>
             <x14:dxf>
               <font>
@@ -7028,7 +8044,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1519" id="{00000000-000E-0000-0000-00002A020000}">
+          <x14:cfRule type="expression" priority="1533" id="{00000000-000E-0000-0000-00002A020000}">
             <xm:f>AND(Model!$P$8=TRUE, SEARCH("7", AB3))</xm:f>
             <x14:dxf>
               <font>
@@ -7044,8 +8060,8 @@
           <xm:sqref>AB3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1548" id="{00000000-000E-0000-0000-00003A000000}">
-            <xm:f>AND(Model!$J$8, SEARCH("1", E19))</xm:f>
+          <x14:cfRule type="expression" priority="1702" id="{00000000-000E-0000-0000-00004F000000}">
+            <xm:f>AND(Model!$J$17, SEARCH("1", E36))</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -7059,8 +8075,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1549" id="{00000000-000E-0000-0000-00003B000000}">
-            <xm:f>AND(Model!$K$8, SEARCH("2", E19))</xm:f>
+          <x14:cfRule type="expression" priority="1703" id="{00000000-000E-0000-0000-000050000000}">
+            <xm:f>AND(Model!$K$17, SEARCH("2", E36))</xm:f>
             <x14:dxf>
               <font>
                 <color theme="1" tint="0.14996795556505021"/>
@@ -7072,8 +8088,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1550" id="{00000000-000E-0000-0000-00003C000000}">
-            <xm:f>AND(Model!$L$8, SEARCH("3", E19))</xm:f>
+          <x14:cfRule type="expression" priority="1704" id="{00000000-000E-0000-0000-000051000000}">
+            <xm:f>AND(Model!$L$17, SEARCH("3", E36))</xm:f>
             <x14:dxf>
               <font>
                 <color theme="1" tint="0.14996795556505021"/>
@@ -7085,8 +8101,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1551" id="{00000000-000E-0000-0000-00003D000000}">
-            <xm:f>AND(Model!$M$8, SEARCH("4", E19))</xm:f>
+          <x14:cfRule type="expression" priority="1705" id="{00000000-000E-0000-0000-000052000000}">
+            <xm:f>AND(Model!$M$17, SEARCH("4", E36))</xm:f>
             <x14:dxf>
               <font>
                 <color theme="1" tint="0.14996795556505021"/>
@@ -7098,13 +8114,13 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1552" id="{00000000-000E-0000-0000-00003E000000}">
-            <xm:f>AND(Model!$N$8, SEARCH("5", E19))</xm:f>
+          <x14:cfRule type="expression" priority="1706" id="{00000000-000E-0000-0000-000053000000}">
+            <xm:f>AND(Model!$N$17, SEARCH("5", E36))</xm:f>
             <x14:dxf>
               <font>
                 <b/>
                 <i val="0"/>
-                <color theme="1"/>
+                <color theme="1" tint="4.9989318521683403E-2"/>
               </font>
               <fill>
                 <patternFill>
@@ -7113,21 +8129,21 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1553" id="{00000000-000E-0000-0000-00003F000000}">
-            <xm:f>AND(Model!$O$8, SEARCH("6", E19))</xm:f>
+          <x14:cfRule type="expression" priority="1707" id="{00000000-000E-0000-0000-000054000000}">
+            <xm:f>AND(Model!$O$17, SEARCH("6", E36))</xm:f>
             <x14:dxf>
               <font>
-                <color theme="0" tint="-4.9989318521683403E-2"/>
+                <color theme="0"/>
               </font>
               <fill>
                 <patternFill>
-                  <bgColor rgb="FF813997"/>
+                  <bgColor rgb="FF642C76"/>
                 </patternFill>
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1554" id="{00000000-000E-0000-0000-000040000000}">
-            <xm:f>AND(Model!$P$8, SEARCH("7", E19))</xm:f>
+          <x14:cfRule type="expression" priority="1708" id="{00000000-000E-0000-0000-000055000000}">
+            <xm:f>AND(Model!$P$17, SEARCH("7", E36))</xm:f>
             <x14:dxf>
               <font>
                 <color theme="0" tint="-4.9989318521683403E-2"/>
@@ -7139,11 +8155,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E19:K19</xm:sqref>
+          <xm:sqref>E36:K36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1688" id="{00000000-000E-0000-0000-00004F000000}">
-            <xm:f>AND(Model!$J$17, SEARCH("1", E38))</xm:f>
+          <x14:cfRule type="expression" priority="1716" id="{00000000-000E-0000-0000-000064000000}">
+            <xm:f>AND(Model!$J$17, SEARCH("1", E25))</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -7157,8 +8173,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1689" id="{00000000-000E-0000-0000-000050000000}">
-            <xm:f>AND(Model!$K$17, SEARCH("2", E38))</xm:f>
+          <x14:cfRule type="expression" priority="1717" id="{00000000-000E-0000-0000-000065000000}">
+            <xm:f>AND(Model!$K$17, SEARCH("2", E25))</xm:f>
             <x14:dxf>
               <font>
                 <color theme="1" tint="0.14996795556505021"/>
@@ -7170,8 +8186,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1690" id="{00000000-000E-0000-0000-000051000000}">
-            <xm:f>AND(Model!$L$17, SEARCH("3", E38))</xm:f>
+          <x14:cfRule type="expression" priority="1718" id="{00000000-000E-0000-0000-000066000000}">
+            <xm:f>AND(Model!$L$17, SEARCH("3", E25))</xm:f>
             <x14:dxf>
               <font>
                 <color theme="1" tint="0.14996795556505021"/>
@@ -7183,8 +8199,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1691" id="{00000000-000E-0000-0000-000052000000}">
-            <xm:f>AND(Model!$M$17, SEARCH("4", E38))</xm:f>
+          <x14:cfRule type="expression" priority="1719" id="{00000000-000E-0000-0000-000067000000}">
+            <xm:f>AND(Model!$M$17, SEARCH("4", E25))</xm:f>
             <x14:dxf>
               <font>
                 <color theme="1" tint="0.14996795556505021"/>
@@ -7196,8 +8212,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1692" id="{00000000-000E-0000-0000-000053000000}">
-            <xm:f>AND(Model!$N$17, SEARCH("5", E38))</xm:f>
+          <x14:cfRule type="expression" priority="1720" id="{00000000-000E-0000-0000-000068000000}">
+            <xm:f>AND(Model!$N$17, SEARCH("5", E25))</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -7211,11 +8227,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1693" id="{00000000-000E-0000-0000-000054000000}">
-            <xm:f>AND(Model!$O$17, SEARCH("6", E38))</xm:f>
+          <x14:cfRule type="expression" priority="1721" id="{00000000-000E-0000-0000-000069000000}">
+            <xm:f>AND(Model!$O$17, SEARCH("6", E25))</xm:f>
             <x14:dxf>
               <font>
-                <color theme="0"/>
+                <color theme="0" tint="-4.9989318521683403E-2"/>
               </font>
               <fill>
                 <patternFill>
@@ -7224,8 +8240,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1694" id="{00000000-000E-0000-0000-000055000000}">
-            <xm:f>AND(Model!$P$17, SEARCH("7", E38))</xm:f>
+          <x14:cfRule type="expression" priority="1722" id="{00000000-000E-0000-0000-00006A000000}">
+            <xm:f>AND(Model!$P$17, SEARCH("7", E25))</xm:f>
             <x14:dxf>
               <font>
                 <color theme="0" tint="-4.9989318521683403E-2"/>
@@ -7237,108 +8253,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E38:K38</xm:sqref>
+          <xm:sqref>E25:AC33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1702" id="{00000000-000E-0000-0000-000064000000}">
-            <xm:f>AND(Model!$J$17, SEARCH("1", E27))</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF3788CB"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="1703" id="{00000000-000E-0000-0000-000065000000}">
-            <xm:f>AND(Model!$K$17, SEARCH("2", E27))</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1" tint="0.14996795556505021"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFE4D2F2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="1704" id="{00000000-000E-0000-0000-000066000000}">
-            <xm:f>AND(Model!$L$17, SEARCH("3", E27))</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1" tint="0.14996795556505021"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFF4DA3E"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="1705" id="{00000000-000E-0000-0000-000067000000}">
-            <xm:f>AND(Model!$M$17, SEARCH("4", E27))</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1" tint="0.14996795556505021"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFB567F5"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="1706" id="{00000000-000E-0000-0000-000068000000}">
-            <xm:f>AND(Model!$N$17, SEARCH("5", E27))</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="1" tint="4.9989318521683403E-2"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF8CFF19"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="1707" id="{00000000-000E-0000-0000-000069000000}">
-            <xm:f>AND(Model!$O$17, SEARCH("6", E27))</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0" tint="-4.9989318521683403E-2"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF642C76"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="1708" id="{00000000-000E-0000-0000-00006A000000}">
-            <xm:f>AND(Model!$P$17, SEARCH("7", E27))</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="0" tint="-4.9989318521683403E-2"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF66FF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E27:AC35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1534" id="{00000000-000E-0000-0000-00005D000000}">
+          <x14:cfRule type="expression" priority="1548" id="{00000000-000E-0000-0000-00005D000000}">
             <xm:f>AND(Model!$J$8, SEARCH("1", E8))</xm:f>
             <x14:dxf>
               <font>
@@ -7353,7 +8271,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1535" id="{00000000-000E-0000-0000-00005E000000}">
+          <x14:cfRule type="expression" priority="1549" id="{00000000-000E-0000-0000-00005E000000}">
             <xm:f>AND(Model!$K$8, SEARCH("2", E8))</xm:f>
             <x14:dxf>
               <font>
@@ -7366,7 +8284,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1536" id="{00000000-000E-0000-0000-00005F000000}">
+          <x14:cfRule type="expression" priority="1550" id="{00000000-000E-0000-0000-00005F000000}">
             <xm:f>AND(Model!$L$8, SEARCH("3", E8))</xm:f>
             <x14:dxf>
               <font>
@@ -7379,7 +8297,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1537" id="{00000000-000E-0000-0000-000060000000}">
+          <x14:cfRule type="expression" priority="1551" id="{00000000-000E-0000-0000-000060000000}">
             <xm:f>AND(Model!$M$8, SEARCH("4", E8))</xm:f>
             <x14:dxf>
               <font>
@@ -7392,7 +8310,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1538" id="{00000000-000E-0000-0000-000061000000}">
+          <x14:cfRule type="expression" priority="1552" id="{00000000-000E-0000-0000-000061000000}">
             <xm:f>AND(Model!$N$8, SEARCH("5", E8))</xm:f>
             <x14:dxf>
               <font>
@@ -7407,7 +8325,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1539" id="{00000000-000E-0000-0000-000062000000}">
+          <x14:cfRule type="expression" priority="1553" id="{00000000-000E-0000-0000-000062000000}">
             <xm:f>AND(Model!$O$8, SEARCH("6", E8))</xm:f>
             <x14:dxf>
               <font>
@@ -7420,7 +8338,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="1540" id="{00000000-000E-0000-0000-000063000000}">
+          <x14:cfRule type="expression" priority="1554" id="{00000000-000E-0000-0000-000063000000}">
             <xm:f>AND(Model!$P$8, SEARCH("7", E8))</xm:f>
             <x14:dxf>
               <font>
@@ -7438,30 +8356,24 @@
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="573" yWindow="743" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="573" yWindow="743" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Model!$A$2:$A$23</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C16 B27:B31 B8:B12 C27:C35</xm:sqref>
+          <xm:sqref>C8:C16 B25:B29 B8:B12 C25:C33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Model!$I$47:$I$68</xm:f>
           </x14:formula1>
-          <xm:sqref>B36 B17</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid chord" error="Select the chord you'd like highlighted." promptTitle="Chord Highlighting" prompt="Select a chord to color the relevant scale degrees on the fretboard." xr:uid="{28768B73-CCCE-4317-821A-3774E55295FC}">
-          <x14:formula1>
-            <xm:f>Model!$I$72:$I$81</xm:f>
-          </x14:formula1>
-          <xm:sqref>E20:K20</xm:sqref>
+          <xm:sqref>B34 B17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71B76236-27A3-4A75-AE6D-9F6C76C970BF}">
           <x14:formula1>
             <xm:f>Model!$Q$72:$Q$81</xm:f>
           </x14:formula1>
-          <xm:sqref>E39:K39</xm:sqref>
+          <xm:sqref>E37:K37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7474,8 +8386,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BO90"/>
   <sheetViews>
-    <sheetView topLeftCell="H64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView topLeftCell="F49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -7510,21 +8422,21 @@
         <v>68</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="178" t="s">
+      <c r="F1" s="175" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="179"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="174" t="s">
+      <c r="G1" s="176"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
@@ -7761,11 +8673,11 @@
       <c r="D3" s="11">
         <v>10</v>
       </c>
-      <c r="F3" s="175" t="s">
+      <c r="F3" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="176"/>
-      <c r="H3" s="177"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="174"/>
       <c r="I3" s="85" t="s">
         <v>34</v>
       </c>
@@ -7773,13 +8685,13 @@
         <f>IF(VLOOKUP($G$4,$Q$22:$X$43, 1+J2, FALSE) = 0, J2, VLOOKUP($G$4,$Q$22:$X$43, 1+J2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="9" t="str">
         <f t="shared" ref="K3:P3" si="0">IF(J4=0,"",IF(VLOOKUP($G$4,$Q$22:$X$43,1+K2,FALSE)=0,K2,VLOOKUP($G$4,$Q$22:$X$43,1+K2,FALSE)))</f>
-        <v>2</v>
-      </c>
-      <c r="L3" s="9">
+        <v/>
+      </c>
+      <c r="L3" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>♭3</v>
       </c>
       <c r="M3" s="9">
         <f t="shared" si="0"/>
@@ -7789,13 +8701,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="P3" s="90">
+        <v/>
+      </c>
+      <c r="P3" s="90" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>♭7</v>
       </c>
       <c r="Y3" s="85">
         <v>2</v>
@@ -7878,30 +8790,30 @@
       </c>
       <c r="F4" s="13" t="str">
         <f>Fretboards!B8</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="G4" s="9" t="str">
         <f>Fretboards!B17</f>
-        <v>Ionian (Major)</v>
-      </c>
-      <c r="H4" s="129" t="str">
-        <f>Fretboards!$E$20</f>
-        <v>Scale Default</v>
+        <v>Pentatonic Minor</v>
+      </c>
+      <c r="H4" s="129" t="e">
+        <f>Fretboards!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="I4" s="113" t="s">
         <v>36</v>
       </c>
       <c r="J4" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$I$22:$P$43,  Model!J2 + 1, FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$I$22:$P$43,  Model!K2 + 1, FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$I$22:$P$43,  Model!L2 + 1, FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$I$22:$P$43,  Model!M2 + 1, FALSE)</f>
@@ -7909,15 +8821,15 @@
       </c>
       <c r="N4" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$I$22:$P$43,  Model!N2 + 1, FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f>VLOOKUP(Model!$G$4, Model!$I$22:$P$43,  Model!O2 + 1, FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" s="90">
         <f>VLOOKUP(Model!$G$4, Model!$I$22:$P$43,  Model!P2 + 1, FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y4" s="85">
         <v>3</v>
@@ -7998,41 +8910,41 @@
       <c r="D5" s="11">
         <v>8</v>
       </c>
-      <c r="F5" s="175" t="s">
+      <c r="F5" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="176"/>
-      <c r="H5" s="177"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="174"/>
       <c r="I5" s="113" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" ref="J5:P5" si="1">IFERROR(VLOOKUP(J6, $B$2:$D$37, 3, FALSE), "")</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
+        <v>4</v>
+      </c>
+      <c r="K5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N5" s="9">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="O5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P5" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
-      </c>
-      <c r="L5" s="9">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="M5" s="9">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="N5" s="9">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="O5" s="9">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="P5" s="90">
-        <f t="shared" si="1"/>
-        <v>11</v>
       </c>
       <c r="Y5" s="85">
         <v>4</v>
@@ -8112,15 +9024,15 @@
         <v>7</v>
       </c>
       <c r="F6" s="14" t="str">
-        <f>Fretboards!B27</f>
+        <f>Fretboards!B25</f>
         <v>E</v>
       </c>
       <c r="G6" s="15" t="str">
-        <f>Fretboards!B36</f>
-        <v>Pentatonic Minor</v>
+        <f>Fretboards!B34</f>
+        <v>Aeolian (Minor)</v>
       </c>
       <c r="H6" s="130" t="str">
-        <f>Fretboards!$E$39</f>
+        <f>Fretboards!$E$37</f>
         <v>1 Chord</v>
       </c>
       <c r="I6" s="113" t="s">
@@ -8128,31 +9040,31 @@
       </c>
       <c r="J6" s="9" t="str">
         <f>INDEX($Z$2:$AY$15,VLOOKUP($F$4, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(J3, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$34, 3, FALSE) + SUM($I$4:I4) + 1)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="K6" s="9" t="str">
         <f>IF(J4=0, "", INDEX($Z$2:$AY$15,VLOOKUP($F$4, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(K3, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$34, 3, FALSE) + SUM($I$4:J4) + 1))</f>
-        <v>D</v>
+        <v/>
       </c>
       <c r="L6" s="9" t="str">
         <f>IF(K4=0, "", INDEX($Z$2:$AY$15,VLOOKUP($F$4, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(L3, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$34, 3, FALSE) + SUM($I$4:K4) + 1))</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="M6" s="9" t="str">
         <f>IF(L4=0, "", INDEX($Z$2:$AY$15,VLOOKUP($F$4, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(M3, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$34, 3, FALSE) + SUM($I$4:L4) + 1))</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="N6" s="9" t="str">
         <f>IF(M4=0, "", INDEX($Z$2:$AY$15,VLOOKUP($F$4, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(N3, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$34, 3, FALSE) + SUM($I$4:M4) + 1))</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="O6" s="9" t="str">
         <f>IF(N4=0, "", INDEX($Z$2:$AY$15,VLOOKUP($F$4, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(O3, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$34, 3, FALSE) + SUM($I$4:N4) + 1))</f>
-        <v>A</v>
+        <v/>
       </c>
       <c r="P6" s="90" t="str">
         <f>IF(O4=0, "", INDEX($Z$2:$AY$15,VLOOKUP($F$4, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(P3, "♯", ""),"♭","") - 1, VLOOKUP($F$4, $B$2:$D$34, 3, FALSE) + SUM($I$4:O4) + 1))</f>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="Y6" s="85">
         <v>5</v>
@@ -8254,31 +9166,31 @@
       </c>
       <c r="J7" s="9" t="str">
         <f>Model!J6 &amp; HLOOKUP(Model!J2, Model!$Q$46:$X$68, MATCH(Model!$G$4, Model!$Q$47:$Q$68, 0) + 1)</f>
-        <v>CM7</v>
+        <v>Em7</v>
       </c>
       <c r="K7" s="9" t="str">
         <f>Model!K6 &amp; HLOOKUP(Model!K2, Model!$Q$46:$X$68, MATCH(Model!$G$4, Model!$Q$47:$Q$68, 0) + 1)</f>
-        <v>Dm7</v>
+        <v/>
       </c>
       <c r="L7" s="9" t="str">
         <f>Model!L6 &amp; HLOOKUP(Model!L2, Model!$Q$46:$X$68, MATCH(Model!$G$4, Model!$Q$47:$Q$68, 0) + 1)</f>
-        <v>Em7</v>
+        <v>GM</v>
       </c>
       <c r="M7" s="9" t="str">
         <f>Model!M6 &amp; HLOOKUP(Model!M2, Model!$Q$46:$X$68, MATCH(Model!$G$4, Model!$Q$47:$Q$68, 0) + 1)</f>
-        <v>FM7</v>
+        <v>A5 ♭7</v>
       </c>
       <c r="N7" s="9" t="str">
         <f>Model!N6 &amp; HLOOKUP(Model!N2, Model!$Q$46:$X$68, MATCH(Model!$G$4, Model!$Q$47:$Q$68, 0) + 1)</f>
-        <v>G7</v>
+        <v>B♭3 ♭7</v>
       </c>
       <c r="O7" s="9" t="str">
         <f>Model!O6 &amp; HLOOKUP(Model!O2, Model!$Q$46:$X$68, MATCH(Model!$G$4, Model!$Q$47:$Q$68, 0) + 1)</f>
-        <v>Am7</v>
+        <v/>
       </c>
       <c r="P7" s="90" t="str">
         <f>Model!P6 &amp; HLOOKUP(Model!P2, Model!$Q$46:$X$68, MATCH(Model!$G$4, Model!$Q$47:$Q$68, 0) + 1)</f>
-        <v>Bm7ø</v>
+        <v>D5</v>
       </c>
       <c r="Y7" s="85">
         <v>6</v>
@@ -8363,32 +9275,32 @@
         <v>190</v>
       </c>
       <c r="J8" s="116" t="b">
-        <f>HLOOKUP(Fretboards!F$1, $J$71:$P$81, MATCH($H$4, $I$71:$I$81, 0))</f>
+        <f>Fretboards!AF8</f>
         <v>1</v>
       </c>
       <c r="K8" s="116" t="b">
-        <f>HLOOKUP(Fretboards!G$1, $J$71:$P$81, MATCH($H$4, $I$71:$I$81, 0))</f>
+        <f>Fretboards!AF9</f>
         <v>0</v>
       </c>
       <c r="L8" s="116" t="b">
-        <f>HLOOKUP(Fretboards!H$1, $J$71:$P$81, MATCH($H$4, $I$71:$I$81, 0))</f>
+        <f>Fretboards!AF10</f>
         <v>1</v>
       </c>
       <c r="M8" s="116" t="b">
-        <f>HLOOKUP(Fretboards!I$1, $J$71:$P$81, MATCH($H$4, $I$71:$I$81, 0))</f>
-        <v>1</v>
+        <f>Fretboards!AF11</f>
+        <v>0</v>
       </c>
       <c r="N8" s="116" t="b">
-        <f>HLOOKUP(Fretboards!J$1, $J$71:$P$81, MATCH($H$4, $I$71:$I$81, 0))</f>
-        <v>0</v>
+        <f>Fretboards!AF12</f>
+        <v>1</v>
       </c>
       <c r="O8" s="116" t="b">
-        <f>HLOOKUP(Fretboards!K$1, $J$71:$P$81, MATCH($H$4, $I$71:$I$81, 0))</f>
-        <v>1</v>
+        <f>Fretboards!AF13</f>
+        <v>0</v>
       </c>
       <c r="P8" s="117" t="b">
-        <f>HLOOKUP(Fretboards!L$1, $J$71:$P$81, MATCH($H$4, $I$71:$I$81, 0))</f>
-        <v>1</v>
+        <f>Fretboards!AF17</f>
+        <v>0</v>
       </c>
       <c r="Y8" s="85">
         <v>7</v>
@@ -8473,16 +9385,16 @@
       <c r="D9" s="11">
         <v>13</v>
       </c>
-      <c r="I9" s="173" t="s">
+      <c r="I9" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="173"/>
-      <c r="K9" s="173"/>
-      <c r="L9" s="173"/>
-      <c r="M9" s="173"/>
-      <c r="N9" s="173"/>
-      <c r="O9" s="173"/>
-      <c r="P9" s="173"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="170"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="170"/>
       <c r="Y9" s="85">
         <v>8</v>
       </c>
@@ -8586,14 +9498,14 @@
       <c r="D10" s="9">
         <v>10</v>
       </c>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="174"/>
-      <c r="N10" s="174"/>
-      <c r="O10" s="174"/>
-      <c r="P10" s="174"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="171"/>
+      <c r="O10" s="171"/>
+      <c r="P10" s="171"/>
       <c r="Y10" s="85">
         <v>9</v>
       </c>
@@ -8811,9 +9723,9 @@
         <f>IF(VLOOKUP($G$6,$Q$22:$X$43, 1+J2, FALSE) = 0, J2, VLOOKUP($G$6,$Q$22:$X$43, 1+J2, FALSE))</f>
         <v>1</v>
       </c>
-      <c r="K12" s="9" t="str">
+      <c r="K12" s="9">
         <f t="shared" ref="K12:P12" si="2">IF(J13=0,"",IF(VLOOKUP($G$6,$Q$22:$X$43,1+K2,FALSE)=0,K2,VLOOKUP($G$6,$Q$22:$X$43,1+K2,FALSE)))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="L12" s="9" t="str">
         <f t="shared" si="2"/>
@@ -8829,7 +9741,7 @@
       </c>
       <c r="O12" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>♭6</v>
       </c>
       <c r="P12" s="90" t="str">
         <f t="shared" si="2"/>
@@ -8937,11 +9849,11 @@
       </c>
       <c r="J13" s="9">
         <f>VLOOKUP($G$6, Model!$I$22:$P$43, Model!J2 + 1, FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" s="9">
         <f>VLOOKUP($G$6, Model!$I$22:$P$43, Model!K2 + 1, FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13" s="9">
         <f>VLOOKUP($G$6, Model!$I$22:$P$43, Model!L2 + 1, FALSE)</f>
@@ -8953,11 +9865,11 @@
       </c>
       <c r="N13" s="9">
         <f>VLOOKUP($G$6, Model!$I$22:$P$43, Model!N2 + 1, FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="9">
         <f>VLOOKUP($G$6, Model!$I$22:$P$43, Model!O2 + 1, FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P13" s="90">
         <f>VLOOKUP($G$6, Model!$I$22:$P$43, Model!P2 + 1, FALSE)</f>
@@ -9078,9 +9990,9 @@
         <f t="shared" ref="J14:P14" si="3">IFERROR(VLOOKUP(J15, $B$2:$D$37, 3, FALSE), "")</f>
         <v>4</v>
       </c>
-      <c r="K14" s="82" t="str">
+      <c r="K14" s="82">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="L14" s="82">
         <f t="shared" si="3"/>
@@ -9094,9 +10006,9 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="O14" s="82" t="str">
+      <c r="O14" s="82">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P14" s="91">
         <f t="shared" si="3"/>
@@ -9208,7 +10120,7 @@
       </c>
       <c r="K15" s="9" t="str">
         <f>IF(J13=0, "", INDEX($Z$2:$AY$15,VLOOKUP($F$6, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(K12, "♯", ""),"♭","") - 1, VLOOKUP($F$6, $B$2:$D$34, 3, FALSE) + SUM($I$13:J13) + 1))</f>
-        <v/>
+        <v>F♯</v>
       </c>
       <c r="L15" s="9" t="str">
         <f>IF(K13=0, "", INDEX($Z$2:$AY$15,VLOOKUP($F$6, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(L12, "♯", ""),"♭","") - 1, VLOOKUP($F$6, $B$2:$D$34, 3, FALSE) + SUM($I$13:K13) + 1))</f>
@@ -9224,7 +10136,7 @@
       </c>
       <c r="O15" s="9" t="str">
         <f>IF(N13=0, "", INDEX($Z$2:$AY$15,VLOOKUP($F$6, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(O12, "♯", ""),"♭","") - 1, VLOOKUP($F$6, $B$2:$D$34, 3, FALSE) + SUM($I$13:N13) + 1))</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="P15" s="90" t="str">
         <f>IF(O13=0, "", INDEX($Z$2:$AY$15,VLOOKUP($F$6, $B$2:$D$34, 2, FALSE) + SUBSTITUTE(SUBSTITUTE(P12, "♯", ""),"♭","") - 1, VLOOKUP($F$6, $B$2:$D$34, 3, FALSE) + SUM($I$13:O13) + 1))</f>
@@ -9338,27 +10250,27 @@
       </c>
       <c r="K16" s="9" t="str">
         <f>Model!K15 &amp; HLOOKUP(Model!K11, Model!$Q$46:$X$68, MATCH(Model!$G$6, Model!$Q$47:$Q$68, 0) + 1)</f>
-        <v/>
+        <v>F♯m7ø</v>
       </c>
       <c r="L16" s="9" t="str">
         <f>Model!L15 &amp; HLOOKUP(Model!L11, Model!$Q$46:$X$68, MATCH(Model!$G$6, Model!$Q$47:$Q$68, 0) + 1)</f>
-        <v>GM</v>
+        <v>GM7</v>
       </c>
       <c r="M16" s="9" t="str">
         <f>Model!M15 &amp; HLOOKUP(Model!M11, Model!$Q$46:$X$68, MATCH(Model!$G$6, Model!$Q$47:$Q$68, 0) + 1)</f>
-        <v>A5 ♭7</v>
+        <v>Am7</v>
       </c>
       <c r="N16" s="9" t="str">
         <f>Model!N15 &amp; HLOOKUP(Model!N11, Model!$Q$46:$X$68, MATCH(Model!$G$6, Model!$Q$47:$Q$68, 0) + 1)</f>
-        <v>B♭3 ♭7</v>
+        <v>Bm7</v>
       </c>
       <c r="O16" s="9" t="str">
         <f>Model!O15 &amp; HLOOKUP(Model!O11, Model!$Q$46:$X$68, MATCH(Model!$G$6, Model!$Q$47:$Q$68, 0) + 1)</f>
-        <v/>
+        <v>CM7</v>
       </c>
       <c r="P16" s="90" t="str">
         <f>Model!P15 &amp; HLOOKUP(Model!P11, Model!$Q$46:$X$68, MATCH(Model!$G$6, Model!$Q$47:$Q$68, 0) + 1)</f>
-        <v>D5</v>
+        <v>D7</v>
       </c>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
@@ -11809,29 +12721,29 @@
       <c r="I72" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="J72" s="134" t="b">
+      <c r="J72" s="132" t="b">
         <f>HLOOKUP(Fretboards!F$1, Model!$J$46:$P$68, MATCH($G$4, Model!$I$46:$I$68, 0))</f>
         <v>1</v>
       </c>
-      <c r="K72" s="134" t="b">
+      <c r="K72" s="132" t="b">
         <f>HLOOKUP(Fretboards!G$1, Model!$J$46:$P$68, MATCH($G$4, Model!$I$46:$I$68, 0))</f>
         <v>0</v>
       </c>
-      <c r="L72" s="134" t="b">
+      <c r="L72" s="132" t="b">
         <f>HLOOKUP(Fretboards!H$1, Model!$J$46:$P$68, MATCH($G$4, Model!$I$46:$I$68, 0))</f>
         <v>1</v>
       </c>
-      <c r="M72" s="134" t="b">
+      <c r="M72" s="132" t="b">
         <f>HLOOKUP(Fretboards!I$1, Model!$J$46:$P$68, MATCH($G$4, Model!$I$46:$I$68, 0))</f>
-        <v>1</v>
-      </c>
-      <c r="N72" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" s="132" t="b">
         <f>HLOOKUP(Fretboards!J$1, Model!$J$46:$P$68, MATCH($G$4, Model!$I$46:$I$68, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="O72" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="O72" s="132" t="b">
         <f>HLOOKUP(Fretboards!K$1, Model!$J$46:$P$68, MATCH($G$4, Model!$I$46:$I$68, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P72" s="122" t="b">
         <f>HLOOKUP(Fretboards!L$1, Model!$J$46:$P$68, MATCH($G$4, Model!$I$46:$I$68, 0))</f>
@@ -11840,29 +12752,29 @@
       <c r="Q72" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="R72" s="134" t="b">
+      <c r="R72" s="132" t="b">
         <f>HLOOKUP(R71, Model!$J$46:$P$68, MATCH($G$6, Model!$I$46:$I$68, 0))</f>
         <v>1</v>
       </c>
-      <c r="S72" s="134" t="b">
+      <c r="S72" s="132" t="b">
         <f>HLOOKUP(S71, Model!$J$46:$P$68, MATCH($G$6, Model!$I$46:$I$68, 0))</f>
         <v>0</v>
       </c>
-      <c r="T72" s="134" t="b">
+      <c r="T72" s="132" t="b">
         <f>HLOOKUP(T71, Model!$J$46:$P$68, MATCH($G$6, Model!$I$46:$I$68, 0))</f>
         <v>1</v>
       </c>
-      <c r="U72" s="134" t="b">
+      <c r="U72" s="132" t="b">
         <f>HLOOKUP(U71, Model!$J$46:$P$68, MATCH($G$6, Model!$I$46:$I$68, 0))</f>
         <v>0</v>
       </c>
-      <c r="V72" s="134" t="b">
+      <c r="V72" s="132" t="b">
         <f>HLOOKUP(V71, Model!$J$46:$P$68, MATCH($G$6, Model!$I$46:$I$68, 0))</f>
-        <v>1</v>
-      </c>
-      <c r="W72" s="134" t="b">
+        <v>0</v>
+      </c>
+      <c r="W72" s="132" t="b">
         <f>HLOOKUP(W71, Model!$J$46:$P$68, MATCH($G$6, Model!$I$46:$I$68, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X72" s="122" t="b">
         <f>HLOOKUP(X71, Model!$J$46:$P$68, MATCH($G$6, Model!$I$46:$I$68, 0))</f>
@@ -11873,22 +12785,22 @@
       <c r="I73" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="J73" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="K73" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="L73" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="M73" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="N73" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="O73" s="134" t="b">
+      <c r="J73" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="K73" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="O73" s="132" t="b">
         <v>0</v>
       </c>
       <c r="P73" s="122" t="b">
@@ -11897,22 +12809,22 @@
       <c r="Q73" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="R73" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="S73" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="T73" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="U73" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="V73" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="W73" s="134" t="b">
+      <c r="R73" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="S73" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="T73" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="U73" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="V73" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="W73" s="132" t="b">
         <v>0</v>
       </c>
       <c r="X73" s="122" t="b">
@@ -11923,22 +12835,22 @@
       <c r="I74" s="125" t="s">
         <v>193</v>
       </c>
-      <c r="J74" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="K74" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L74" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="M74" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="N74" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="O74" s="134" t="b">
+      <c r="J74" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="K74" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="N74" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="O74" s="132" t="b">
         <v>1</v>
       </c>
       <c r="P74" s="122" t="b">
@@ -11947,22 +12859,22 @@
       <c r="Q74" s="125" t="s">
         <v>193</v>
       </c>
-      <c r="R74" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="S74" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="T74" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="U74" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="V74" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="W74" s="134" t="b">
+      <c r="R74" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="S74" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="T74" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="U74" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="V74" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="W74" s="132" t="b">
         <v>1</v>
       </c>
       <c r="X74" s="122" t="b">
@@ -11973,22 +12885,22 @@
       <c r="I75" s="125" t="s">
         <v>194</v>
       </c>
-      <c r="J75" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="K75" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="M75" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="N75" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="O75" s="134" t="b">
+      <c r="J75" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="O75" s="132" t="b">
         <v>0</v>
       </c>
       <c r="P75" s="122" t="b">
@@ -11997,22 +12909,22 @@
       <c r="Q75" s="125" t="s">
         <v>194</v>
       </c>
-      <c r="R75" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="S75" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="T75" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="U75" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="V75" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="W75" s="134" t="b">
+      <c r="R75" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="S75" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="T75" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="U75" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="V75" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="W75" s="132" t="b">
         <v>0</v>
       </c>
       <c r="X75" s="122" t="b">
@@ -12023,22 +12935,22 @@
       <c r="I76" s="125" t="s">
         <v>195</v>
       </c>
-      <c r="J76" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="K76" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="M76" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="N76" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="O76" s="134" t="b">
+      <c r="J76" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="N76" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="O76" s="132" t="b">
         <v>1</v>
       </c>
       <c r="P76" s="122" t="b">
@@ -12047,22 +12959,22 @@
       <c r="Q76" s="125" t="s">
         <v>195</v>
       </c>
-      <c r="R76" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="S76" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="T76" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="U76" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="V76" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="W76" s="134" t="b">
+      <c r="R76" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="S76" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="T76" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="U76" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="V76" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="W76" s="132" t="b">
         <v>1</v>
       </c>
       <c r="X76" s="122" t="b">
@@ -12073,22 +12985,22 @@
       <c r="I77" s="125" t="s">
         <v>196</v>
       </c>
-      <c r="J77" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="M77" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="N77" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="O77" s="134" t="b">
+      <c r="J77" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="N77" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="O77" s="132" t="b">
         <v>0</v>
       </c>
       <c r="P77" s="122" t="b">
@@ -12097,22 +13009,22 @@
       <c r="Q77" s="125" t="s">
         <v>196</v>
       </c>
-      <c r="R77" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="S77" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="T77" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="U77" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="V77" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="W77" s="134" t="b">
+      <c r="R77" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="S77" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="T77" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="U77" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="V77" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="W77" s="132" t="b">
         <v>0</v>
       </c>
       <c r="X77" s="122" t="b">
@@ -12123,22 +13035,22 @@
       <c r="I78" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="J78" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="K78" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="M78" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="N78" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="O78" s="134" t="b">
+      <c r="J78" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="K78" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="M78" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="O78" s="132" t="b">
         <v>1</v>
       </c>
       <c r="P78" s="122" t="b">
@@ -12147,22 +13059,22 @@
       <c r="Q78" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="R78" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="S78" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="T78" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="U78" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="V78" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="W78" s="134" t="b">
+      <c r="R78" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="S78" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="T78" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="U78" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="V78" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="W78" s="132" t="b">
         <v>1</v>
       </c>
       <c r="X78" s="122" t="b">
@@ -12173,22 +13085,22 @@
       <c r="I79" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="J79" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="K79" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="M79" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="N79" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="O79" s="134" t="b">
+      <c r="J79" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="N79" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="O79" s="132" t="b">
         <v>1</v>
       </c>
       <c r="P79" s="122" t="b">
@@ -12197,22 +13109,22 @@
       <c r="Q79" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="R79" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="S79" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="T79" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="U79" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="V79" s="134" t="b">
-        <v>0</v>
-      </c>
-      <c r="W79" s="134" t="b">
+      <c r="R79" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="S79" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="T79" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="U79" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="V79" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="W79" s="132" t="b">
         <v>1</v>
       </c>
       <c r="X79" s="122" t="b">
@@ -12223,22 +13135,22 @@
       <c r="I80" s="125" t="s">
         <v>203</v>
       </c>
-      <c r="J80" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="K80" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="M80" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="N80" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="O80" s="134" t="b">
+      <c r="J80" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="K80" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="N80" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="O80" s="132" t="b">
         <v>1</v>
       </c>
       <c r="P80" s="122" t="b">
@@ -12247,22 +13159,22 @@
       <c r="Q80" s="125" t="s">
         <v>203</v>
       </c>
-      <c r="R80" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="S80" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="T80" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="U80" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="V80" s="134" t="b">
-        <v>1</v>
-      </c>
-      <c r="W80" s="134" t="b">
+      <c r="R80" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="S80" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="T80" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="U80" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="V80" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="W80" s="132" t="b">
         <v>1</v>
       </c>
       <c r="X80" s="122" t="b">
@@ -12322,86 +13234,86 @@
     <row r="82" spans="9:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="9:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="9:24" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="I84" s="145" t="s">
-        <v>1</v>
-      </c>
-      <c r="J84" s="146">
-        <v>1</v>
-      </c>
-      <c r="K84" s="146">
+      <c r="I84" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="J84" s="144">
+        <v>1</v>
+      </c>
+      <c r="K84" s="144">
         <v>2</v>
       </c>
-      <c r="L84" s="146">
+      <c r="L84" s="144">
         <v>3</v>
       </c>
-      <c r="M84" s="146">
+      <c r="M84" s="144">
         <v>4</v>
       </c>
-      <c r="N84" s="146">
+      <c r="N84" s="144">
         <v>5</v>
       </c>
-      <c r="O84" s="146">
+      <c r="O84" s="144">
         <v>6</v>
       </c>
-      <c r="P84" s="147">
+      <c r="P84" s="145">
         <v>7</v>
       </c>
     </row>
     <row r="85" spans="9:24" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I85" s="148" t="s">
+      <c r="I85" s="146" t="s">
         <v>204</v>
       </c>
-      <c r="J85" s="135"/>
-      <c r="K85" s="136"/>
-      <c r="L85" s="137"/>
-      <c r="M85" s="138"/>
-      <c r="N85" s="139"/>
-      <c r="O85" s="140"/>
-      <c r="P85" s="149"/>
+      <c r="J85" s="133"/>
+      <c r="K85" s="134"/>
+      <c r="L85" s="135"/>
+      <c r="M85" s="136"/>
+      <c r="N85" s="137"/>
+      <c r="O85" s="138"/>
+      <c r="P85" s="147"/>
     </row>
     <row r="86" spans="9:24" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I86" s="148"/>
+      <c r="I86" s="146"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
-      <c r="P86" s="150"/>
+      <c r="P86" s="148"/>
     </row>
     <row r="87" spans="9:24" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I87" s="148" t="s">
+      <c r="I87" s="146" t="s">
         <v>205</v>
       </c>
-      <c r="J87" s="135"/>
-      <c r="K87" s="144"/>
-      <c r="L87" s="142"/>
-      <c r="M87" s="141"/>
-      <c r="N87" s="139"/>
-      <c r="O87" s="143"/>
-      <c r="P87" s="149"/>
+      <c r="J87" s="133"/>
+      <c r="K87" s="142"/>
+      <c r="L87" s="140"/>
+      <c r="M87" s="139"/>
+      <c r="N87" s="137"/>
+      <c r="O87" s="141"/>
+      <c r="P87" s="147"/>
     </row>
     <row r="88" spans="9:24" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I88" s="151"/>
+      <c r="I88" s="149"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
-      <c r="P88" s="150"/>
+      <c r="P88" s="148"/>
     </row>
     <row r="89" spans="9:24" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I89" s="152" t="s">
+      <c r="I89" s="150" t="s">
         <v>206</v>
       </c>
-      <c r="J89" s="153"/>
-      <c r="K89" s="154"/>
-      <c r="L89" s="155"/>
-      <c r="M89" s="156"/>
-      <c r="N89" s="157"/>
-      <c r="O89" s="158"/>
-      <c r="P89" s="159"/>
+      <c r="J89" s="151"/>
+      <c r="K89" s="152"/>
+      <c r="L89" s="153"/>
+      <c r="M89" s="154"/>
+      <c r="N89" s="155"/>
+      <c r="O89" s="156"/>
+      <c r="P89" s="157"/>
     </row>
     <row r="90" spans="9:24" ht="21.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -12413,48 +13325,48 @@
     <mergeCell ref="F1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="J17:P17">
-    <cfRule type="expression" dxfId="13" priority="57">
+    <cfRule type="expression" dxfId="237" priority="57">
       <formula>AND($O$8=TRUE, SEARCH("6", J17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="58">
+    <cfRule type="expression" dxfId="236" priority="58">
       <formula>AND($J$8=TRUE, SEARCH("1", J17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="59">
+    <cfRule type="expression" dxfId="235" priority="59">
       <formula>AND($K$8=TRUE, SEARCH("2", J17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="60">
+    <cfRule type="expression" dxfId="234" priority="60">
       <formula>AND($L$8=TRUE, SEARCH("3", J17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="61">
+    <cfRule type="expression" dxfId="233" priority="61">
       <formula>AND($M$8=TRUE, SEARCH("4", J17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="62">
+    <cfRule type="expression" dxfId="232" priority="62">
       <formula>AND($N$8=TRUE, SEARCH("5", J17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="63">
+    <cfRule type="expression" dxfId="231" priority="63">
       <formula>AND($P$8=TRUE, SEARCH("7", J17))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="expression" dxfId="6" priority="1709">
+    <cfRule type="expression" dxfId="230" priority="1709">
       <formula>AND($K$23=TRUE, SEARCH("6", J8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="1710">
+    <cfRule type="expression" dxfId="229" priority="1710">
       <formula>AND($E$21=TRUE, SEARCH("1", J8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="1711">
+    <cfRule type="expression" dxfId="228" priority="1711">
       <formula>AND($F$21=TRUE, SEARCH("2", J8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1712">
+    <cfRule type="expression" dxfId="227" priority="1712">
       <formula>AND($G$21=TRUE, SEARCH("3", J8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1713">
+    <cfRule type="expression" dxfId="226" priority="1713">
       <formula>AND($I$23=TRUE, SEARCH("4", J8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1714">
+    <cfRule type="expression" dxfId="225" priority="1714">
       <formula>AND($J$23=TRUE, SEARCH("5", J8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1715">
+    <cfRule type="expression" dxfId="224" priority="1715">
       <formula>AND($L$23=TRUE, SEARCH("7", J8))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Shredsheets.xlsx
+++ b/Shredsheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Shredsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79F7A23-C88D-4B6D-AB6F-76F1AAF6433D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F011CBE9-CBB2-4D5C-9C62-3B4C2850D788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2164,6 +2164,33 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2188,18 +2215,21 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2222,43 +2252,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="238">
+  <dxfs count="126">
     <dxf>
       <font>
         <color theme="0" tint="-4.9989318521683403E-2"/>
@@ -2271,23 +2271,13 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF813997"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CFF19"/>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2297,7 +2287,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFB567F5"/>
+          <bgColor rgb="FF8CC068"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2307,7 +2297,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFF4DA3E"/>
+          <bgColor rgb="FF81B2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2317,7 +2307,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFE4D2F2"/>
+          <bgColor rgb="FFC6E0B4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2325,11 +2315,21 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0"/>
+        <color theme="1" tint="0.14996795556505021"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF3788CB"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2705,7 +2705,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF2992D9"/>
+        <color rgb="FF3788CB"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -2715,17 +2715,17 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC07DE2"/>
+        <color rgb="FFE4D2F2"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF70C3FC"/>
+        <color rgb="FFF4DA3E"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFB7EE00"/>
+        <color rgb="FFB567F5"/>
       </font>
     </dxf>
     <dxf>
@@ -2735,13 +2735,161 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFA63AB8"/>
+        <color rgb="FF642C76"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <color rgb="FFFF66FF"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF813997"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8CFF19"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB567F5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4DA3E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE4D2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3788CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF8CC068"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF81B2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3117,1026 +3265,20 @@
         <i val="0"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF813997"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CFF19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB567F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4DA3E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE4D2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3788CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CC068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF81B2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF642C76"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CFF19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB567F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4DA3E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE4D2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3788CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF642C76"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CFF19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB567F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4DA3E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE4D2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3788CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF642C76"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CFF19"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB567F5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4DA3E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE4D2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3788CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CC068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF81B2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF2992D9"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC07DE2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF70C3FC"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7EE00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF63D218"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA63AB8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF372F2D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3788CB"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD3B5E9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF4DA3E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB567F5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF75E604"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF642C76"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF66FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF372F2D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF372F2D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF372F2D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CC068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF81B2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF8CC068"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF81B2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3788CB"/>
+      <color rgb="FF642C76"/>
+      <color rgb="FFE4D2F2"/>
+      <color rgb="FFF4DA3E"/>
+      <color rgb="FFB567F5"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FFA63AB8"/>
       <color rgb="FF63D218"/>
       <color rgb="FFB7EE00"/>
       <color rgb="FF70C3FC"/>
-      <color rgb="FFC07DE2"/>
-      <color rgb="FF2992D9"/>
-      <color rgb="FF75F00F"/>
-      <color rgb="FFC07DF7"/>
-      <color rgb="FFB567F5"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4453,7 +3595,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="AF18" sqref="AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4549,113 +3691,113 @@
       <c r="A3" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="163" t="str">
+      <c r="B3" s="172" t="str">
         <f>IF(B17 = "Ionian (Major)", B8 &amp; " Major", IF(B17 = "Aolian (Minor)", B8 &amp; " Minor", B8 &amp; " " &amp; B17))</f>
         <v>E Pentatonic Minor</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="K3" s="162">
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="K3" s="171">
         <f>IF(Model!J3="0","",Model!J3)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162" t="str">
+      <c r="L3" s="171"/>
+      <c r="M3" s="171" t="str">
         <f>IF(Model!K3="0","",Model!K3)</f>
         <v/>
       </c>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162" t="str">
+      <c r="N3" s="171"/>
+      <c r="O3" s="171" t="str">
         <f>IF(Model!L3="0","",Model!L3)</f>
         <v>♭3</v>
       </c>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162">
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171">
         <f>IF(Model!M3="0","",Model!M3)</f>
         <v>4</v>
       </c>
-      <c r="R3" s="162"/>
-      <c r="S3" s="162">
+      <c r="R3" s="171"/>
+      <c r="S3" s="171">
         <f>IF(Model!N3="0","",Model!N3)</f>
         <v>5</v>
       </c>
-      <c r="T3" s="162"/>
-      <c r="U3" s="162" t="str">
+      <c r="T3" s="171"/>
+      <c r="U3" s="171" t="str">
         <f>IF(Model!O3="0","",Model!O3)</f>
         <v/>
       </c>
-      <c r="V3" s="162"/>
-      <c r="W3" s="162" t="str">
+      <c r="V3" s="171"/>
+      <c r="W3" s="171" t="str">
         <f>IF(Model!P3="0","",Model!P3)</f>
         <v>♭7</v>
       </c>
-      <c r="X3" s="162"/>
-      <c r="Z3" s="158" t="s">
+      <c r="X3" s="171"/>
+      <c r="Z3" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="159"/>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="168" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="168"/>
     </row>
     <row r="4" spans="1:32" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="K4" s="161" t="str">
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="K4" s="170" t="str">
         <f>Model!J7</f>
         <v>Em7</v>
       </c>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161" t="str">
+      <c r="L4" s="170"/>
+      <c r="M4" s="170" t="str">
         <f>Model!K7</f>
         <v/>
       </c>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161" t="str">
+      <c r="N4" s="170"/>
+      <c r="O4" s="170" t="str">
         <f>Model!L7</f>
         <v>GM</v>
       </c>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161" t="str">
+      <c r="P4" s="170"/>
+      <c r="Q4" s="170" t="str">
         <f>Model!M7</f>
         <v>A5 ♭7</v>
       </c>
-      <c r="R4" s="161"/>
-      <c r="S4" s="161" t="str">
+      <c r="R4" s="170"/>
+      <c r="S4" s="170" t="str">
         <f>Model!N7</f>
         <v>B♭3 ♭7</v>
       </c>
-      <c r="T4" s="161"/>
-      <c r="U4" s="161" t="str">
+      <c r="T4" s="170"/>
+      <c r="U4" s="170" t="str">
         <f>Model!O7</f>
         <v/>
       </c>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161" t="str">
+      <c r="V4" s="170"/>
+      <c r="W4" s="170" t="str">
         <f>Model!P7</f>
         <v>D5</v>
       </c>
-      <c r="X4" s="161"/>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="159"/>
-      <c r="AC4" s="159"/>
+      <c r="X4" s="170"/>
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="167"/>
+      <c r="AB4" s="168"/>
+      <c r="AC4" s="168"/>
     </row>
     <row r="5" spans="1:32" s="49" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
       <c r="J5" s="74"/>
       <c r="K5" s="58"/>
       <c r="L5" s="74"/>
@@ -4663,22 +3805,22 @@
       <c r="N5" s="74"/>
       <c r="O5" s="74"/>
       <c r="P5" s="74"/>
-      <c r="Z5" s="158"/>
-      <c r="AA5" s="158"/>
-      <c r="AB5" s="159"/>
-      <c r="AC5" s="159"/>
+      <c r="Z5" s="167"/>
+      <c r="AA5" s="167"/>
+      <c r="AB5" s="168"/>
+      <c r="AC5" s="168"/>
     </row>
     <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="164" t="s">
+      <c r="B6" s="172"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="164"/>
+      <c r="I6" s="173"/>
       <c r="J6" s="57" t="str">
         <f>IF(Model!J6=0,"", Model!J6)</f>
         <v>E</v>
@@ -4707,11 +3849,11 @@
         <f>IF(Model!P6=0,"", Model!P6)</f>
         <v>D</v>
       </c>
-      <c r="S6" s="165" t="s">
+      <c r="S6" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="165"/>
-      <c r="U6" s="165"/>
+      <c r="T6" s="174"/>
+      <c r="U6" s="174"/>
       <c r="V6" s="75" t="str">
         <f>IF(Model!J4=1, "h", IF(Model!J4=2, "W", IF(Model!J4=3, "W+h", IF(Model!J4=4, "WW", IF(Model!J4=0, "", Model!J4)))))</f>
         <v/>
@@ -4740,10 +3882,10 @@
         <f>IF(Model!P4=1, "h", IF(Model!P4=2, "W", IF(Model!P4=3, "W+h",IF(Model!P4=4, "WW", IF(Model!P4=0, "", Model!P4)))))</f>
         <v>W</v>
       </c>
-      <c r="AE6" s="178" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="178"/>
+      <c r="AE6" s="175" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="175"/>
     </row>
     <row r="7" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="72" t="s">
@@ -4853,15 +3995,15 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AE7" s="179" t="s">
+      <c r="AE7" s="158" t="s">
         <v>207</v>
       </c>
-      <c r="AF7" s="180" t="s">
+      <c r="AF7" s="159" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:32" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="169" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="52" t="s">
@@ -4971,15 +4113,15 @@
         <f>IFERROR(HLOOKUP(MATCH(MOD($D8+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D8+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="AE8" s="181" t="s">
+      <c r="AE8" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="AF8" s="182" t="b">
+      <c r="AF8" s="161" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="160"/>
+      <c r="B9" s="169"/>
       <c r="C9" s="52" t="s">
         <v>14</v>
       </c>
@@ -5087,15 +4229,15 @@
         <f>IFERROR(HLOOKUP(MATCH(MOD($D9+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D9+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="AE9" s="183" t="s">
+      <c r="AE9" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="AF9" s="182" t="b">
+      <c r="AF9" s="161" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="160"/>
+      <c r="B10" s="169"/>
       <c r="C10" s="52" t="s">
         <v>13</v>
       </c>
@@ -5203,15 +4345,15 @@
         <f>IFERROR(HLOOKUP(MATCH(MOD($D10+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D10+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
         <v>G : ♭3</v>
       </c>
-      <c r="AE10" s="183" t="s">
+      <c r="AE10" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="AF10" s="182" t="b">
-        <v>1</v>
+      <c r="AF10" s="161" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="160"/>
+      <c r="B11" s="169"/>
       <c r="C11" s="52" t="s">
         <v>10</v>
       </c>
@@ -5319,15 +4461,15 @@
         <f>IFERROR(HLOOKUP(MATCH(MOD($D11+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D11+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
         <v>D : ♭7</v>
       </c>
-      <c r="AE11" s="183" t="s">
+      <c r="AE11" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="AF11" s="182" t="b">
+      <c r="AF11" s="161" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="160"/>
+      <c r="B12" s="169"/>
       <c r="C12" s="52" t="s">
         <v>12</v>
       </c>
@@ -5435,15 +4577,15 @@
         <f>IFERROR(HLOOKUP(MATCH(MOD($D12+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D12+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
         <v>A : 4</v>
       </c>
-      <c r="AE12" s="183" t="s">
+      <c r="AE12" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="AF12" s="182" t="b">
+      <c r="AF12" s="161" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:32" s="51" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="179" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="52" t="s">
@@ -5553,15 +4695,15 @@
         <f>IFERROR(HLOOKUP(MATCH(MOD($D13+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D13+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
         <v>E : 1</v>
       </c>
-      <c r="AE13" s="183" t="s">
+      <c r="AE13" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="AF13" s="182" t="b">
+      <c r="AF13" s="161" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:32" s="51" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="166"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="52" t="s">
         <v>14</v>
       </c>
@@ -5669,11 +4811,11 @@
         <f>IFERROR(HLOOKUP(MATCH(MOD($D14+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D14+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
         <v>B : 5</v>
       </c>
-      <c r="AE14" s="184"/>
-      <c r="AF14" s="185"/>
+      <c r="AE14" s="163"/>
+      <c r="AF14" s="164"/>
     </row>
     <row r="15" spans="1:32" s="51" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="166"/>
+      <c r="B15" s="179"/>
       <c r="C15" s="52" t="s">
         <v>57</v>
       </c>
@@ -5781,11 +4923,11 @@
         <f>IFERROR(HLOOKUP(MATCH(MOD($D15+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D15+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
         <v/>
       </c>
-      <c r="AE15" s="186"/>
-      <c r="AF15" s="185"/>
+      <c r="AE15" s="165"/>
+      <c r="AF15" s="164"/>
     </row>
     <row r="16" spans="1:32" s="51" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="166"/>
+      <c r="B16" s="179"/>
       <c r="C16" s="52" t="s">
         <v>51</v>
       </c>
@@ -5893,8 +5035,8 @@
         <f>IFERROR(HLOOKUP(MATCH(MOD($D16+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$6, 5) &amp; " : " &amp; HLOOKUP(MATCH(MOD($D16+AC$7, 12), Model!$J$5:$P$5, 0), Model!$J$2:$P$3, 2), "")</f>
         <v/>
       </c>
-      <c r="AE16" s="187"/>
-      <c r="AF16" s="185"/>
+      <c r="AE16" s="166"/>
+      <c r="AF16" s="164"/>
     </row>
     <row r="17" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="55" t="s">
@@ -6002,10 +5144,10 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AE17" s="181" t="s">
+      <c r="AE17" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="AF17" s="182" t="b">
+      <c r="AF17" s="161" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6061,50 +5203,50 @@
       <c r="AC19" s="114"/>
     </row>
     <row r="20" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="163" t="str">
+      <c r="B20" s="172" t="str">
         <f>IF(B34 = "Ionian (Major)", B25 &amp; " Major", IF(B34 = "Aolian (Minor)", B25 &amp; " Minor", B25 &amp; " " &amp; B34))</f>
         <v>E Aeolian (Minor)</v>
       </c>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="K20" s="162">
+      <c r="C20" s="172"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="K20" s="171">
         <f>IF(Model!J12="0","",Model!J12)</f>
         <v>1</v>
       </c>
-      <c r="L20" s="162"/>
-      <c r="M20" s="162">
+      <c r="L20" s="171"/>
+      <c r="M20" s="171">
         <f>IF(Model!K12="0","",Model!K12)</f>
         <v>2</v>
       </c>
-      <c r="N20" s="162"/>
-      <c r="O20" s="162" t="str">
+      <c r="N20" s="171"/>
+      <c r="O20" s="171" t="str">
         <f>IF(Model!L12="0","",Model!L12)</f>
         <v>♭3</v>
       </c>
-      <c r="P20" s="162"/>
-      <c r="Q20" s="162">
+      <c r="P20" s="171"/>
+      <c r="Q20" s="171">
         <f>IF(Model!M12="0","",Model!M12)</f>
         <v>4</v>
       </c>
-      <c r="R20" s="162"/>
-      <c r="S20" s="162">
+      <c r="R20" s="171"/>
+      <c r="S20" s="171">
         <f>IF(Model!N12="0","",Model!N12)</f>
         <v>5</v>
       </c>
-      <c r="T20" s="162"/>
-      <c r="U20" s="162" t="str">
+      <c r="T20" s="171"/>
+      <c r="U20" s="171" t="str">
         <f>IF(Model!O12="0","",Model!O12)</f>
         <v>♭6</v>
       </c>
-      <c r="V20" s="162"/>
-      <c r="W20" s="162" t="str">
+      <c r="V20" s="171"/>
+      <c r="W20" s="171" t="str">
         <f>IF(Model!P12="0","",Model!P12)</f>
         <v>♭7</v>
       </c>
-      <c r="X20" s="162"/>
+      <c r="X20" s="171"/>
       <c r="Y20" s="48"/>
       <c r="Z20" s="48"/>
       <c r="AA20" s="48"/>
@@ -6113,53 +5255,53 @@
       <c r="AD20" s="48"/>
     </row>
     <row r="21" spans="2:32" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="163"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="K21" s="169" t="str">
+      <c r="B21" s="172"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="K21" s="178" t="str">
         <f>Model!J$16</f>
         <v>Em7</v>
       </c>
-      <c r="L21" s="169" t="str">
+      <c r="L21" s="178" t="str">
         <f>Model!K$16</f>
         <v>F♯m7ø</v>
       </c>
-      <c r="M21" s="169" t="str">
+      <c r="M21" s="178" t="str">
         <f>Model!K$16</f>
         <v>F♯m7ø</v>
       </c>
-      <c r="N21" s="169" t="str">
+      <c r="N21" s="178" t="str">
         <f>Model!M$16</f>
         <v>Am7</v>
       </c>
-      <c r="O21" s="169" t="str">
+      <c r="O21" s="178" t="str">
         <f>Model!L$16</f>
         <v>GM7</v>
       </c>
-      <c r="P21" s="169"/>
-      <c r="Q21" s="169" t="str">
+      <c r="P21" s="178"/>
+      <c r="Q21" s="178" t="str">
         <f>Model!M$16</f>
         <v>Am7</v>
       </c>
-      <c r="R21" s="169"/>
-      <c r="S21" s="169" t="str">
+      <c r="R21" s="178"/>
+      <c r="S21" s="178" t="str">
         <f>Model!N$16</f>
         <v>Bm7</v>
       </c>
-      <c r="T21" s="169"/>
-      <c r="U21" s="169" t="str">
+      <c r="T21" s="178"/>
+      <c r="U21" s="178" t="str">
         <f>Model!O$16</f>
         <v>CM7</v>
       </c>
-      <c r="V21" s="169"/>
-      <c r="W21" s="169" t="str">
+      <c r="V21" s="178"/>
+      <c r="W21" s="178" t="str">
         <f>Model!P$16</f>
         <v>D7</v>
       </c>
-      <c r="X21" s="169"/>
+      <c r="X21" s="178"/>
       <c r="Y21" s="48"/>
       <c r="Z21" s="48"/>
       <c r="AA21" s="48"/>
@@ -6168,12 +5310,12 @@
       <c r="AD21" s="48"/>
     </row>
     <row r="22" spans="2:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="163"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="172"/>
       <c r="H22" s="49"/>
       <c r="I22" s="49"/>
       <c r="J22" s="73"/>
@@ -6199,16 +5341,16 @@
       <c r="AD22" s="49"/>
     </row>
     <row r="23" spans="2:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="163"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="164" t="s">
+      <c r="B23" s="172"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="164"/>
+      <c r="I23" s="173"/>
       <c r="J23" s="57" t="str">
         <f>Model!J15</f>
         <v>E</v>
@@ -6237,11 +5379,11 @@
         <f>IF(Model!P15=0, "", Model!P15)</f>
         <v>D</v>
       </c>
-      <c r="S23" s="165" t="s">
+      <c r="S23" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="T23" s="165"/>
-      <c r="U23" s="165"/>
+      <c r="T23" s="174"/>
+      <c r="U23" s="174"/>
       <c r="V23" s="75" t="str">
         <f>IF(Model!J13=1, "h", IF(Model!J13=2, "W", IF(Model!J13=3, "W+h", IF(Model!J13=4, "WW", IF(Model!J13=0, "", Model!J4)))))</f>
         <v>W</v>
@@ -6381,7 +5523,7 @@
       </c>
     </row>
     <row r="25" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="160" t="s">
+      <c r="B25" s="169" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="52" t="s">
@@ -6494,7 +5636,7 @@
       <c r="AD25" s="51"/>
     </row>
     <row r="26" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="160"/>
+      <c r="B26" s="169"/>
       <c r="C26" s="52" t="s">
         <v>14</v>
       </c>
@@ -6605,7 +5747,7 @@
       <c r="AD26" s="51"/>
     </row>
     <row r="27" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="160"/>
+      <c r="B27" s="169"/>
       <c r="C27" s="52" t="s">
         <v>13</v>
       </c>
@@ -6716,7 +5858,7 @@
       <c r="AD27" s="51"/>
     </row>
     <row r="28" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="160"/>
+      <c r="B28" s="169"/>
       <c r="C28" s="52" t="s">
         <v>10</v>
       </c>
@@ -6827,7 +5969,7 @@
       <c r="AD28" s="51"/>
     </row>
     <row r="29" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="160"/>
+      <c r="B29" s="169"/>
       <c r="C29" s="52" t="s">
         <v>12</v>
       </c>
@@ -6938,7 +6080,7 @@
       <c r="AD29" s="51"/>
     </row>
     <row r="30" spans="2:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="166" t="s">
+      <c r="B30" s="179" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="52" t="s">
@@ -7051,7 +6193,7 @@
       <c r="AD30" s="51"/>
     </row>
     <row r="31" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="166"/>
+      <c r="B31" s="179"/>
       <c r="C31" s="52" t="s">
         <v>14</v>
       </c>
@@ -7162,7 +6304,7 @@
       <c r="AD31" s="51"/>
     </row>
     <row r="32" spans="2:32" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="166"/>
+      <c r="B32" s="179"/>
       <c r="C32" s="52" t="s">
         <v>57</v>
       </c>
@@ -7273,7 +6415,7 @@
       <c r="AD32" s="51"/>
     </row>
     <row r="33" spans="2:30" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="166"/>
+      <c r="B33" s="179"/>
       <c r="C33" s="52" t="s">
         <v>51</v>
       </c>
@@ -7519,10 +6661,10 @@
       <c r="AC35" s="56"/>
     </row>
     <row r="36" spans="2:30" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="168" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="168"/>
+      <c r="B36" s="177" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="177"/>
       <c r="E36" s="70" t="s">
         <v>2</v>
       </c>
@@ -7546,17 +6688,17 @@
       </c>
     </row>
     <row r="37" spans="2:30" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="B37" s="168"/>
-      <c r="C37" s="168"/>
-      <c r="E37" s="167" t="s">
+      <c r="B37" s="177"/>
+      <c r="C37" s="177"/>
+      <c r="E37" s="176" t="s">
         <v>192</v>
       </c>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="167"/>
-      <c r="K37" s="167"/>
+      <c r="F37" s="176"/>
+      <c r="G37" s="176"/>
+      <c r="H37" s="176"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="176"/>
+      <c r="K37" s="176"/>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B38" s="76"/>
@@ -7578,13 +6720,13 @@
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B13:B16"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="W20:X20"/>
-    <mergeCell ref="B13:B16"/>
     <mergeCell ref="B3:G6"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
@@ -7608,279 +6750,279 @@
     <mergeCell ref="S6:U6"/>
   </mergeCells>
   <conditionalFormatting sqref="W6:AA6">
-    <cfRule type="containsText" dxfId="223" priority="199" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="125" priority="199" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",W6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6">
-    <cfRule type="containsText" dxfId="222" priority="82" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="124" priority="82" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",V6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6">
-    <cfRule type="containsText" dxfId="221" priority="81" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="123" priority="81" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",AB6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="containsText" dxfId="220" priority="73" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="122" priority="73" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",V23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23">
-    <cfRule type="containsText" dxfId="219" priority="72" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="121" priority="72" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",W23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23">
-    <cfRule type="containsText" dxfId="218" priority="71" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="120" priority="71" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",X23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="containsText" dxfId="217" priority="70" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="119" priority="70" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",Y23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23">
-    <cfRule type="containsText" dxfId="216" priority="69" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="118" priority="69" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",Z23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA23">
-    <cfRule type="containsText" dxfId="215" priority="68" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="117" priority="68" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",AA23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB23">
-    <cfRule type="containsText" dxfId="214" priority="67" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="116" priority="67" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",AB23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:P33">
-    <cfRule type="containsBlanks" dxfId="213" priority="587">
+    <cfRule type="containsBlanks" dxfId="115" priority="587">
       <formula>LEN(TRIM(F25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:AB16">
-    <cfRule type="containsBlanks" dxfId="212" priority="588">
+    <cfRule type="containsBlanks" dxfId="114" priority="588">
       <formula>LEN(TRIM(R8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:AB33">
-    <cfRule type="containsBlanks" dxfId="211" priority="51">
+    <cfRule type="containsBlanks" dxfId="113" priority="51">
       <formula>LEN(TRIM(R25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23">
-    <cfRule type="expression" dxfId="210" priority="624">
+    <cfRule type="expression" dxfId="112" priority="624">
       <formula>FIND(7,Q20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="625">
+    <cfRule type="expression" dxfId="111" priority="625">
       <formula>FIND(6, Q20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="626">
+    <cfRule type="expression" dxfId="110" priority="626">
       <formula>FIND(5,Q20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="627">
+    <cfRule type="expression" dxfId="109" priority="627">
       <formula>FIND(4,Q20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="628">
+    <cfRule type="expression" dxfId="108" priority="628">
       <formula>FIND(3, Q20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="629">
+    <cfRule type="expression" dxfId="107" priority="629">
       <formula>FIND(2, Q20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="630">
+    <cfRule type="expression" dxfId="106" priority="630">
       <formula>FIND(1, Q20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="expression" dxfId="203" priority="638">
+    <cfRule type="expression" dxfId="105" priority="638">
       <formula>FIND(7,O20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="639">
+    <cfRule type="expression" dxfId="104" priority="639">
       <formula>FIND(6, O20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="640">
+    <cfRule type="expression" dxfId="103" priority="640">
       <formula>FIND(5,O20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="641">
+    <cfRule type="expression" dxfId="102" priority="641">
       <formula>FIND(4,O20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="642">
+    <cfRule type="expression" dxfId="101" priority="642">
       <formula>FIND(3, O20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="643">
+    <cfRule type="expression" dxfId="100" priority="643">
       <formula>FIND(2, O20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="644">
+    <cfRule type="expression" dxfId="99" priority="644">
       <formula>FIND(1, O20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="196" priority="652">
+    <cfRule type="expression" dxfId="98" priority="652">
       <formula>FIND(7,M20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="653">
+    <cfRule type="expression" dxfId="97" priority="653">
       <formula>FIND(6, M20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="654">
+    <cfRule type="expression" dxfId="96" priority="654">
       <formula>FIND(5,M20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="655">
+    <cfRule type="expression" dxfId="95" priority="655">
       <formula>FIND(4,M20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="656">
+    <cfRule type="expression" dxfId="94" priority="656">
       <formula>FIND(3, M20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="657">
+    <cfRule type="expression" dxfId="93" priority="657">
       <formula>FIND(2, M20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="658">
+    <cfRule type="expression" dxfId="92" priority="658">
       <formula>FIND(1, M20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="expression" dxfId="189" priority="666">
+    <cfRule type="expression" dxfId="91" priority="666">
       <formula>FIND(7,K20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="667">
+    <cfRule type="expression" dxfId="90" priority="667">
       <formula>FIND(6, K20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="668">
+    <cfRule type="expression" dxfId="89" priority="668">
       <formula>FIND(5,K20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="669">
+    <cfRule type="expression" dxfId="88" priority="669">
       <formula>FIND(4,K20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="670">
+    <cfRule type="expression" dxfId="87" priority="670">
       <formula>FIND(3, K20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="671">
+    <cfRule type="expression" dxfId="86" priority="671">
       <formula>FIND(2, K20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="672">
+    <cfRule type="expression" dxfId="85" priority="672">
       <formula>FIND(1, K20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
-    <cfRule type="expression" dxfId="182" priority="673">
+    <cfRule type="expression" dxfId="84" priority="673">
       <formula>FIND(7,W20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="674">
+    <cfRule type="expression" dxfId="83" priority="674">
       <formula>FIND(6, W20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="675">
+    <cfRule type="expression" dxfId="82" priority="675">
       <formula>FIND(5,W20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="676">
+    <cfRule type="expression" dxfId="81" priority="676">
       <formula>FIND(4,W20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="677">
+    <cfRule type="expression" dxfId="80" priority="677">
       <formula>FIND(3, W20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="678">
+    <cfRule type="expression" dxfId="79" priority="678">
       <formula>FIND(2, W20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="679">
+    <cfRule type="expression" dxfId="78" priority="679">
       <formula>FIND(1, W20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23">
-    <cfRule type="expression" dxfId="175" priority="680">
+    <cfRule type="expression" dxfId="77" priority="680">
       <formula>FIND(7,U20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="681">
+    <cfRule type="expression" dxfId="76" priority="681">
       <formula>FIND(6, U20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="682">
+    <cfRule type="expression" dxfId="75" priority="682">
       <formula>FIND(5,U20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="683">
+    <cfRule type="expression" dxfId="74" priority="683">
       <formula>FIND(4,U20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="684">
+    <cfRule type="expression" dxfId="73" priority="684">
       <formula>FIND(3, U20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="685">
+    <cfRule type="expression" dxfId="72" priority="685">
       <formula>FIND(2, U20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="686">
+    <cfRule type="expression" dxfId="71" priority="686">
       <formula>FIND(1, U20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="expression" dxfId="168" priority="687">
+    <cfRule type="expression" dxfId="70" priority="687">
       <formula>FIND(7,S20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="688">
+    <cfRule type="expression" dxfId="69" priority="688">
       <formula>FIND(6, S20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="689">
+    <cfRule type="expression" dxfId="68" priority="689">
       <formula>FIND(5,S20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="690">
+    <cfRule type="expression" dxfId="67" priority="690">
       <formula>FIND(4,S20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="691">
+    <cfRule type="expression" dxfId="66" priority="691">
       <formula>FIND(3, S20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="692">
+    <cfRule type="expression" dxfId="65" priority="692">
       <formula>FIND(2, S20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="693">
+    <cfRule type="expression" dxfId="64" priority="693">
       <formula>FIND(1, S20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:P16">
-    <cfRule type="containsBlanks" dxfId="161" priority="43">
+    <cfRule type="containsBlanks" dxfId="63" priority="43">
       <formula>LEN(TRIM(F8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF8:AF17">
-    <cfRule type="expression" dxfId="125" priority="1730">
+    <cfRule type="expression" dxfId="62" priority="1730">
       <formula>AND($AF$15=TRUE, SEARCH("6", AF8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="1731">
+    <cfRule type="expression" dxfId="61" priority="1731">
       <formula>AND($AF$10=TRUE, SEARCH("1", AF8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="1732">
+    <cfRule type="expression" dxfId="60" priority="1732">
       <formula>AND($AF$11=TRUE, SEARCH("2", AF8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="1733">
+    <cfRule type="expression" dxfId="59" priority="1733">
       <formula>AND($AF$12=TRUE, SEARCH("3", AF8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="1734">
+    <cfRule type="expression" dxfId="58" priority="1734">
       <formula>AND($AF$13=TRUE, SEARCH("4", AF8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="1735">
+    <cfRule type="expression" dxfId="57" priority="1735">
       <formula>AND($AF$14=TRUE, SEARCH("5", AF8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="1736">
+    <cfRule type="expression" dxfId="56" priority="1736">
       <formula>AND(#REF!=TRUE, SEARCH("7", AF8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AE13 AE17">
-    <cfRule type="expression" dxfId="118" priority="1737">
+    <cfRule type="expression" dxfId="55" priority="1737">
       <formula>AND($AF$8, SEARCH("1", AE8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="1738">
+    <cfRule type="expression" dxfId="54" priority="1738">
       <formula>AND($AF$9, SEARCH("2", AE8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="1739">
+    <cfRule type="expression" dxfId="53" priority="1739">
       <formula>AND($AF$10, SEARCH("3", AE8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="1740">
+    <cfRule type="expression" dxfId="52" priority="1740">
       <formula>AND($AF$11, SEARCH("4", AE8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="1741">
+    <cfRule type="expression" dxfId="51" priority="1741">
       <formula>AND($AF$12, SEARCH("5", AE8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="1742">
+    <cfRule type="expression" dxfId="50" priority="1742">
       <formula>AND($AF$13, SEARCH("6", AE8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="1743">
+    <cfRule type="expression" dxfId="49" priority="1743">
       <formula>AND($AF$17, SEARCH("7", AE8))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7910,7 +7052,7 @@
             <xm:f>SEARCH("6", Model!J$3)</xm:f>
             <x14:dxf>
               <font>
-                <color rgb="FFA63AB8"/>
+                <color rgb="FF642C76"/>
               </font>
             </x14:dxf>
           </x14:cfRule>
@@ -7926,7 +7068,7 @@
             <xm:f>SEARCH("4", Model!J$3)</xm:f>
             <x14:dxf>
               <font>
-                <color rgb="FFB7EE00"/>
+                <color rgb="FFB567F5"/>
               </font>
             </x14:dxf>
           </x14:cfRule>
@@ -7934,7 +7076,7 @@
             <xm:f>SEARCH("3", Model!J$3)</xm:f>
             <x14:dxf>
               <font>
-                <color rgb="FF70C3FC"/>
+                <color rgb="FFF4DA3E"/>
               </font>
             </x14:dxf>
           </x14:cfRule>
@@ -7942,7 +7084,7 @@
             <xm:f>SEARCH("2", Model!J$3)</xm:f>
             <x14:dxf>
               <font>
-                <color rgb="FFC07DE2"/>
+                <color rgb="FFE4D2F2"/>
               </font>
             </x14:dxf>
           </x14:cfRule>
@@ -7950,7 +7092,7 @@
             <xm:f>SEARCH("1", Model!J$3)</xm:f>
             <x14:dxf>
               <font>
-                <color rgb="FF2992D9"/>
+                <color rgb="FF3788CB"/>
               </font>
               <fill>
                 <patternFill patternType="none">
@@ -8422,21 +7564,21 @@
         <v>68</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="175" t="s">
+      <c r="F1" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="176"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="171" t="s">
+      <c r="G1" s="186"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
@@ -8673,11 +7815,11 @@
       <c r="D3" s="11">
         <v>10</v>
       </c>
-      <c r="F3" s="172" t="s">
+      <c r="F3" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="173"/>
-      <c r="H3" s="174"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="184"/>
       <c r="I3" s="85" t="s">
         <v>34</v>
       </c>
@@ -8910,11 +8052,11 @@
       <c r="D5" s="11">
         <v>8</v>
       </c>
-      <c r="F5" s="172" t="s">
+      <c r="F5" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="173"/>
-      <c r="H5" s="174"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="184"/>
       <c r="I5" s="113" t="s">
         <v>31</v>
       </c>
@@ -9284,7 +8426,7 @@
       </c>
       <c r="L8" s="116" t="b">
         <f>Fretboards!AF10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="116" t="b">
         <f>Fretboards!AF11</f>
@@ -9385,16 +8527,16 @@
       <c r="D9" s="11">
         <v>13</v>
       </c>
-      <c r="I9" s="170" t="s">
+      <c r="I9" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="180"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="180"/>
+      <c r="P9" s="180"/>
       <c r="Y9" s="85">
         <v>8</v>
       </c>
@@ -9498,14 +8640,14 @@
       <c r="D10" s="9">
         <v>10</v>
       </c>
-      <c r="I10" s="171"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="171"/>
-      <c r="M10" s="171"/>
-      <c r="N10" s="171"/>
-      <c r="O10" s="171"/>
-      <c r="P10" s="171"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="181"/>
       <c r="Y10" s="85">
         <v>9</v>
       </c>
@@ -13325,48 +12467,48 @@
     <mergeCell ref="F1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="J17:P17">
-    <cfRule type="expression" dxfId="237" priority="57">
+    <cfRule type="expression" dxfId="13" priority="57">
       <formula>AND($O$8=TRUE, SEARCH("6", J17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="58">
+    <cfRule type="expression" dxfId="12" priority="58">
       <formula>AND($J$8=TRUE, SEARCH("1", J17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="59">
+    <cfRule type="expression" dxfId="11" priority="59">
       <formula>AND($K$8=TRUE, SEARCH("2", J17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="60">
+    <cfRule type="expression" dxfId="10" priority="60">
       <formula>AND($L$8=TRUE, SEARCH("3", J17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="61">
+    <cfRule type="expression" dxfId="9" priority="61">
       <formula>AND($M$8=TRUE, SEARCH("4", J17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="62">
+    <cfRule type="expression" dxfId="8" priority="62">
       <formula>AND($N$8=TRUE, SEARCH("5", J17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="63">
+    <cfRule type="expression" dxfId="7" priority="63">
       <formula>AND($P$8=TRUE, SEARCH("7", J17))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:P8">
-    <cfRule type="expression" dxfId="230" priority="1709">
+    <cfRule type="expression" dxfId="6" priority="1709">
       <formula>AND($K$23=TRUE, SEARCH("6", J8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="1710">
+    <cfRule type="expression" dxfId="5" priority="1710">
       <formula>AND($E$21=TRUE, SEARCH("1", J8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="1711">
+    <cfRule type="expression" dxfId="4" priority="1711">
       <formula>AND($F$21=TRUE, SEARCH("2", J8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="1712">
+    <cfRule type="expression" dxfId="3" priority="1712">
       <formula>AND($G$21=TRUE, SEARCH("3", J8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="1713">
+    <cfRule type="expression" dxfId="2" priority="1713">
       <formula>AND($I$23=TRUE, SEARCH("4", J8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="1714">
+    <cfRule type="expression" dxfId="1" priority="1714">
       <formula>AND($J$23=TRUE, SEARCH("5", J8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="1715">
+    <cfRule type="expression" dxfId="0" priority="1715">
       <formula>AND($L$23=TRUE, SEARCH("7", J8))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Shredsheets.xlsx
+++ b/Shredsheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Shredsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80507C4C-EEBE-4D53-9F3E-C36E22567826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DEA5C2-551D-485F-BB61-1EAADB1C5C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="210">
   <si>
     <t>C</t>
   </si>
@@ -670,6 +670,12 @@
   </si>
   <si>
     <t>Color it?</t>
+  </si>
+  <si>
+    <t>Major Triads</t>
+  </si>
+  <si>
+    <t>Minor Triads</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2145,6 +2151,27 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2154,30 +2181,9 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2202,11 +2208,93 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="138">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-4.9989318521683403E-2"/>
@@ -3152,12 +3240,6 @@
           <bgColor rgb="FF372F2D"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3543,7 +3625,7 @@
   <dimension ref="A1:AF38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3638,113 +3720,113 @@
       <c r="A3" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="154" t="str">
+      <c r="B3" s="153" t="str">
         <f>IF(B17 = "Ionian (Major)", B8 &amp; " Major", IF(B17 = "Aolian (Minor)", B8 &amp; " Minor", B8 &amp; " " &amp; B17))</f>
-        <v>C Major Chord Tones</v>
-      </c>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="K3" s="151">
+        <v>C Major Triads</v>
+      </c>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="K3" s="152">
         <f>IF(Model!J3="0","",Model!J3)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151" t="str">
+      <c r="L3" s="152"/>
+      <c r="M3" s="152" t="str">
         <f>IF(Model!K3="0","",Model!K3)</f>
         <v/>
       </c>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151">
+      <c r="N3" s="152"/>
+      <c r="O3" s="152">
         <f>IF(Model!L3="0","",Model!L3)</f>
         <v>3</v>
       </c>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151" t="str">
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152" t="str">
         <f>IF(Model!M3="0","",Model!M3)</f>
         <v/>
       </c>
-      <c r="R3" s="151"/>
-      <c r="S3" s="151">
+      <c r="R3" s="152"/>
+      <c r="S3" s="152">
         <f>IF(Model!N3="0","",Model!N3)</f>
         <v>5</v>
       </c>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151" t="str">
+      <c r="T3" s="152"/>
+      <c r="U3" s="152" t="str">
         <f>IF(Model!O3="0","",Model!O3)</f>
         <v/>
       </c>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151">
+      <c r="V3" s="152"/>
+      <c r="W3" s="152" t="str">
         <f>IF(Model!P3="0","",Model!P3)</f>
-        <v>7</v>
-      </c>
-      <c r="X3" s="151"/>
-      <c r="Z3" s="155" t="s">
+        <v/>
+      </c>
+      <c r="X3" s="152"/>
+      <c r="Z3" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="156" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="156"/>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="149" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="149"/>
     </row>
     <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="K4" s="153" t="str">
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="K4" s="151" t="str">
         <f>Model!J7</f>
         <v>CM7</v>
       </c>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153" t="str">
+      <c r="L4" s="151"/>
+      <c r="M4" s="151" t="str">
         <f>Model!K7</f>
         <v/>
       </c>
-      <c r="N4" s="153"/>
-      <c r="O4" s="153" t="str">
+      <c r="N4" s="151"/>
+      <c r="O4" s="151" t="str">
         <f>Model!L7</f>
         <v>Em7</v>
       </c>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="153" t="str">
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151" t="str">
         <f>Model!M7</f>
         <v/>
       </c>
-      <c r="R4" s="153"/>
-      <c r="S4" s="153" t="str">
+      <c r="R4" s="151"/>
+      <c r="S4" s="151" t="str">
         <f>Model!N7</f>
         <v>G7</v>
       </c>
-      <c r="T4" s="153"/>
-      <c r="U4" s="153" t="str">
+      <c r="T4" s="151"/>
+      <c r="U4" s="151" t="str">
         <f>Model!O7</f>
         <v/>
       </c>
-      <c r="V4" s="153"/>
-      <c r="W4" s="153" t="str">
+      <c r="V4" s="151"/>
+      <c r="W4" s="151" t="str">
         <f>Model!P7</f>
-        <v>Bm7ø</v>
-      </c>
-      <c r="X4" s="153"/>
-      <c r="Z4" s="155"/>
-      <c r="AA4" s="155"/>
-      <c r="AB4" s="156"/>
-      <c r="AC4" s="156"/>
+        <v/>
+      </c>
+      <c r="X4" s="151"/>
+      <c r="Z4" s="148"/>
+      <c r="AA4" s="148"/>
+      <c r="AB4" s="149"/>
+      <c r="AC4" s="149"/>
     </row>
     <row r="5" spans="1:32" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
       <c r="J5" s="64"/>
       <c r="K5" s="48"/>
       <c r="L5" s="64"/>
@@ -3752,22 +3834,22 @@
       <c r="N5" s="64"/>
       <c r="O5" s="64"/>
       <c r="P5" s="64"/>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="155"/>
-      <c r="AB5" s="156"/>
-      <c r="AC5" s="156"/>
+      <c r="Z5" s="148"/>
+      <c r="AA5" s="148"/>
+      <c r="AB5" s="149"/>
+      <c r="AC5" s="149"/>
     </row>
     <row r="6" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="158" t="s">
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="158"/>
+      <c r="I6" s="154"/>
       <c r="J6" s="47" t="str">
         <f>IF(Model!J6=0,"", Model!J6)</f>
         <v>C</v>
@@ -3794,45 +3876,45 @@
       </c>
       <c r="P6" s="47" t="str">
         <f>IF(Model!P6=0,"", Model!P6)</f>
-        <v>B</v>
-      </c>
-      <c r="S6" s="158" t="s">
+        <v/>
+      </c>
+      <c r="S6" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="158"/>
-      <c r="U6" s="158"/>
+      <c r="T6" s="154"/>
+      <c r="U6" s="154"/>
       <c r="V6" s="65" t